--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD083723-7D08-4D7C-BE99-AA58819418FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF05D3B-4A1A-46AB-A484-D89AF464A1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="855">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2611,6 +2611,43 @@
   </si>
   <si>
     <t>SC60221-D-360</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-9999-41CPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134S1-BK</t>
+  </si>
+  <si>
+    <t>SC1134S1-CI-00AK-43F</t>
+  </si>
+  <si>
+    <t>SC724SP30B5</t>
+  </si>
+  <si>
+    <t>SC4624SP30B5-SC724</t>
+  </si>
+  <si>
+    <t>NF.SC4624SP30B5-SC724</t>
+  </si>
+  <si>
+    <t>STC9H002D</t>
+  </si>
+  <si>
+    <t>SC69401D</t>
+  </si>
+  <si>
+    <t>SC69401D(STC9H002D)-69401</t>
+  </si>
+  <si>
+    <t>SC69401D(STC9H002DQ)-69401</t>
+  </si>
+  <si>
+    <t>eTSSOP16</t>
+  </si>
+  <si>
+    <t>天水华天</t>
   </si>
 </sst>
 </file>
@@ -2744,7 +2781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2773,11 +2810,37 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4024,11 +4087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W209"/>
+  <dimension ref="A1:W211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4591,6 +4654,24 @@
       <c r="N15" t="s">
         <v>433</v>
       </c>
+      <c r="O15" t="s">
+        <v>430</v>
+      </c>
+      <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>432</v>
+      </c>
+      <c r="R15" t="s">
+        <v>430</v>
+      </c>
+      <c r="S15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
@@ -7654,19 +7735,19 @@
         <v>430</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>434</v>
       </c>
       <c r="C116" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D116" t="s">
         <v>430</v>
       </c>
       <c r="E116" t="s">
-        <v>86</v>
+        <v>436</v>
       </c>
       <c r="F116" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G116" t="s">
         <v>664</v>
@@ -7675,27 +7756,45 @@
         <v>673</v>
       </c>
       <c r="I116" t="s">
-        <v>693</v>
+        <v>702</v>
+      </c>
+      <c r="L116" t="s">
+        <v>430</v>
+      </c>
+      <c r="M116" t="s">
+        <v>436</v>
+      </c>
+      <c r="N116" t="s">
+        <v>438</v>
+      </c>
+      <c r="O116" t="s">
+        <v>430</v>
+      </c>
+      <c r="P116" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B117" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C117" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D117" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E117" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F117" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G117" t="s">
         <v>664</v>
@@ -7704,125 +7803,107 @@
         <v>673</v>
       </c>
       <c r="I117" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="L117" t="s">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="M117" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="N117" t="s">
-        <v>438</v>
-      </c>
-      <c r="O117" t="s">
-        <v>430</v>
-      </c>
-      <c r="P117" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>439</v>
+        <v>733</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B118" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D118" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E118" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F118" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G118" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H118" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I118" t="s">
-        <v>693</v>
+        <v>700</v>
+      </c>
+      <c r="J118" t="s">
+        <v>451</v>
       </c>
       <c r="L118" t="s">
+        <v>445</v>
+      </c>
+      <c r="M118" t="s">
+        <v>448</v>
+      </c>
+      <c r="N118" t="s">
+        <v>450</v>
+      </c>
+      <c r="O118" t="s">
         <v>46</v>
       </c>
-      <c r="M118" t="s">
-        <v>443</v>
-      </c>
-      <c r="N118" t="s">
-        <v>733</v>
+      <c r="P118" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B119" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C119" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D119" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E119" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F119" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="G119" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H119" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I119" t="s">
-        <v>700</v>
-      </c>
-      <c r="J119" t="s">
-        <v>451</v>
+        <v>710</v>
       </c>
       <c r="L119" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M119" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="N119" t="s">
-        <v>450</v>
-      </c>
-      <c r="O119" t="s">
-        <v>46</v>
-      </c>
-      <c r="P119" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>732</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:17">
-      <c r="A120" t="s">
-        <v>452</v>
-      </c>
-      <c r="B120" t="s">
-        <v>453</v>
-      </c>
-      <c r="C120" t="s">
-        <v>454</v>
-      </c>
       <c r="D120" t="s">
         <v>452</v>
       </c>
@@ -7830,10 +7911,10 @@
         <v>455</v>
       </c>
       <c r="F120" t="s">
-        <v>456</v>
+        <v>727</v>
       </c>
       <c r="G120" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H120" t="s">
         <v>672</v>
@@ -7848,56 +7929,59 @@
         <v>455</v>
       </c>
       <c r="N120" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:17">
+      <c r="A121" t="s">
+        <v>459</v>
+      </c>
+      <c r="B121" t="s">
+        <v>460</v>
+      </c>
+      <c r="C121" t="s">
+        <v>461</v>
+      </c>
       <c r="D121" t="s">
-        <v>452</v>
+        <v>810</v>
       </c>
       <c r="E121" t="s">
-        <v>455</v>
+        <v>811</v>
       </c>
       <c r="F121" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="G121" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H121" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I121" t="s">
-        <v>710</v>
-      </c>
-      <c r="L121" t="s">
-        <v>452</v>
-      </c>
-      <c r="M121" t="s">
-        <v>455</v>
-      </c>
-      <c r="N121" t="s">
-        <v>458</v>
+        <v>696</v>
+      </c>
+      <c r="J121" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C122" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D122" t="s">
-        <v>810</v>
+        <v>463</v>
       </c>
       <c r="E122" t="s">
-        <v>811</v>
+        <v>466</v>
       </c>
       <c r="F122" t="s">
-        <v>812</v>
+        <v>467</v>
       </c>
       <c r="G122" t="s">
         <v>664</v>
@@ -7908,78 +7992,84 @@
       <c r="I122" t="s">
         <v>696</v>
       </c>
-      <c r="J122" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B123" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C123" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D123" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="E123" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F123" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G123" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H123" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I123" t="s">
-        <v>696</v>
+        <v>710</v>
+      </c>
+      <c r="J123" t="s">
+        <v>474</v>
+      </c>
+      <c r="L123" t="s">
+        <v>468</v>
+      </c>
+      <c r="M123" t="s">
+        <v>471</v>
+      </c>
+      <c r="N123" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B124" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C124" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D124" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="E124" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F124" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G124" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H124" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I124" t="s">
         <v>710</v>
       </c>
-      <c r="J124" t="s">
-        <v>474</v>
-      </c>
       <c r="L124" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M124" t="s">
-        <v>471</v>
+        <v>776</v>
       </c>
       <c r="N124" t="s">
-        <v>473</v>
+        <v>777</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7987,19 +8077,19 @@
         <v>475</v>
       </c>
       <c r="B125" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C125" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D125" t="s">
         <v>475</v>
       </c>
       <c r="E125" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F125" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G125" t="s">
         <v>665</v>
@@ -8014,48 +8104,42 @@
         <v>475</v>
       </c>
       <c r="M125" t="s">
-        <v>776</v>
+        <v>480</v>
       </c>
       <c r="N125" t="s">
-        <v>777</v>
+        <v>482</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="B126" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C126" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D126" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E126" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="F126" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="G126" t="s">
-        <v>665</v>
+        <v>820</v>
       </c>
       <c r="H126" t="s">
-        <v>672</v>
+        <v>821</v>
       </c>
       <c r="I126" t="s">
-        <v>710</v>
-      </c>
-      <c r="L126" t="s">
-        <v>475</v>
-      </c>
-      <c r="M126" t="s">
-        <v>480</v>
-      </c>
-      <c r="N126" t="s">
-        <v>482</v>
+        <v>696</v>
+      </c>
+      <c r="J126" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8063,19 +8147,19 @@
         <v>489</v>
       </c>
       <c r="B127" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C127" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D127" t="s">
         <v>489</v>
       </c>
       <c r="E127" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F127" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G127" t="s">
         <v>820</v>
@@ -8095,19 +8179,19 @@
         <v>489</v>
       </c>
       <c r="B128" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C128" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D128" t="s">
         <v>489</v>
       </c>
       <c r="E128" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F128" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G128" t="s">
         <v>820</v>
@@ -8127,19 +8211,19 @@
         <v>489</v>
       </c>
       <c r="B129" t="s">
-        <v>498</v>
+        <v>817</v>
       </c>
       <c r="C129" t="s">
-        <v>499</v>
+        <v>816</v>
       </c>
       <c r="D129" t="s">
         <v>489</v>
       </c>
       <c r="E129" t="s">
-        <v>500</v>
+        <v>818</v>
       </c>
       <c r="F129" t="s">
-        <v>501</v>
+        <v>819</v>
       </c>
       <c r="G129" t="s">
         <v>820</v>
@@ -8159,31 +8243,28 @@
         <v>489</v>
       </c>
       <c r="B130" t="s">
-        <v>817</v>
+        <v>502</v>
       </c>
       <c r="C130" t="s">
-        <v>816</v>
+        <v>503</v>
       </c>
       <c r="D130" t="s">
         <v>489</v>
       </c>
       <c r="E130" t="s">
-        <v>818</v>
+        <v>504</v>
       </c>
       <c r="F130" t="s">
-        <v>819</v>
+        <v>505</v>
       </c>
       <c r="G130" t="s">
-        <v>820</v>
+        <v>664</v>
       </c>
       <c r="H130" t="s">
-        <v>821</v>
+        <v>673</v>
       </c>
       <c r="I130" t="s">
         <v>696</v>
-      </c>
-      <c r="J130" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8191,28 +8272,31 @@
         <v>489</v>
       </c>
       <c r="B131" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C131" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D131" t="s">
         <v>489</v>
       </c>
       <c r="E131" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F131" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G131" t="s">
-        <v>664</v>
+        <v>820</v>
       </c>
       <c r="H131" t="s">
-        <v>673</v>
+        <v>821</v>
       </c>
       <c r="I131" t="s">
         <v>696</v>
+      </c>
+      <c r="J131" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8220,51 +8304,48 @@
         <v>489</v>
       </c>
       <c r="B132" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C132" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D132" t="s">
         <v>489</v>
       </c>
       <c r="E132" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F132" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G132" t="s">
-        <v>820</v>
+        <v>666</v>
       </c>
       <c r="H132" t="s">
-        <v>821</v>
+        <v>66</v>
       </c>
       <c r="I132" t="s">
         <v>696</v>
       </c>
-      <c r="J132" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="B133" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C133" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D133" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="E133" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="F133" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="G133" t="s">
         <v>666</v>
@@ -8273,27 +8354,21 @@
         <v>66</v>
       </c>
       <c r="I133" t="s">
-        <v>696</v>
+        <v>711</v>
+      </c>
+      <c r="J133" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" t="s">
-        <v>514</v>
-      </c>
-      <c r="B134" t="s">
-        <v>515</v>
-      </c>
-      <c r="C134" t="s">
-        <v>516</v>
-      </c>
       <c r="D134" t="s">
         <v>514</v>
       </c>
       <c r="E134" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F134" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G134" t="s">
         <v>666</v>
@@ -8302,10 +8377,16 @@
         <v>66</v>
       </c>
       <c r="I134" t="s">
-        <v>711</v>
-      </c>
-      <c r="J134" t="s">
-        <v>519</v>
+        <v>705</v>
+      </c>
+      <c r="L134" t="s">
+        <v>514</v>
+      </c>
+      <c r="M134" t="s">
+        <v>522</v>
+      </c>
+      <c r="N134" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8313,10 +8394,10 @@
         <v>514</v>
       </c>
       <c r="E135" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F135" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G135" t="s">
         <v>666</v>
@@ -8334,7 +8415,7 @@
         <v>522</v>
       </c>
       <c r="N135" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -8345,7 +8426,7 @@
         <v>522</v>
       </c>
       <c r="F136" t="s">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="G136" t="s">
         <v>666</v>
@@ -8354,27 +8435,30 @@
         <v>66</v>
       </c>
       <c r="I136" t="s">
-        <v>705</v>
-      </c>
-      <c r="L136" t="s">
-        <v>514</v>
-      </c>
-      <c r="M136" t="s">
-        <v>522</v>
-      </c>
-      <c r="N136" t="s">
-        <v>525</v>
+        <v>711</v>
+      </c>
+      <c r="J136" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="137" spans="1:14">
+      <c r="A137" t="s">
+        <v>526</v>
+      </c>
+      <c r="B137" t="s">
+        <v>527</v>
+      </c>
+      <c r="C137" t="s">
+        <v>528</v>
+      </c>
       <c r="D137" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E137" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F137" t="s">
-        <v>679</v>
+        <v>530</v>
       </c>
       <c r="G137" t="s">
         <v>666</v>
@@ -8386,27 +8470,27 @@
         <v>711</v>
       </c>
       <c r="J137" t="s">
-        <v>678</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B138" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="C138" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D138" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E138" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F138" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G138" t="s">
         <v>666</v>
@@ -8417,8 +8501,14 @@
       <c r="I138" t="s">
         <v>711</v>
       </c>
-      <c r="J138" t="s">
-        <v>531</v>
+      <c r="L138" t="s">
+        <v>532</v>
+      </c>
+      <c r="M138" t="s">
+        <v>537</v>
+      </c>
+      <c r="N138" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8426,19 +8516,19 @@
         <v>532</v>
       </c>
       <c r="B139" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C139" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D139" t="s">
         <v>532</v>
       </c>
       <c r="E139" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G139" t="s">
         <v>666</v>
@@ -8449,14 +8539,8 @@
       <c r="I139" t="s">
         <v>711</v>
       </c>
-      <c r="L139" t="s">
-        <v>532</v>
-      </c>
-      <c r="M139" t="s">
-        <v>537</v>
-      </c>
-      <c r="N139" t="s">
-        <v>546</v>
+      <c r="J139" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8464,10 +8548,10 @@
         <v>532</v>
       </c>
       <c r="B140" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C140" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D140" t="s">
         <v>532</v>
@@ -8476,19 +8560,16 @@
         <v>539</v>
       </c>
       <c r="F140" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G140" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H140" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I140" t="s">
-        <v>711</v>
-      </c>
-      <c r="J140" t="s">
-        <v>541</v>
+        <v>712</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -8496,48 +8577,39 @@
         <v>532</v>
       </c>
       <c r="B141" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C141" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D141" t="s">
         <v>532</v>
       </c>
       <c r="E141" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F141" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G141" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H141" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I141" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" t="s">
-        <v>532</v>
-      </c>
-      <c r="B142" t="s">
-        <v>533</v>
-      </c>
-      <c r="C142" t="s">
-        <v>534</v>
-      </c>
       <c r="D142" t="s">
         <v>532</v>
       </c>
       <c r="E142" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F142" t="s">
-        <v>548</v>
+        <v>799</v>
       </c>
       <c r="G142" t="s">
         <v>666</v>
@@ -8546,10 +8618,22 @@
         <v>66</v>
       </c>
       <c r="I142" t="s">
-        <v>712</v>
+        <v>713</v>
+      </c>
+      <c r="J142" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>532</v>
+      </c>
+      <c r="B143" t="s">
+        <v>550</v>
+      </c>
+      <c r="C143" t="s">
+        <v>551</v>
+      </c>
       <c r="D143" t="s">
         <v>532</v>
       </c>
@@ -8557,7 +8641,7 @@
         <v>552</v>
       </c>
       <c r="F143" t="s">
-        <v>799</v>
+        <v>553</v>
       </c>
       <c r="G143" t="s">
         <v>666</v>
@@ -8577,19 +8661,19 @@
         <v>532</v>
       </c>
       <c r="B144" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C144" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D144" t="s">
         <v>532</v>
       </c>
       <c r="E144" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F144" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G144" t="s">
         <v>666</v>
@@ -8598,10 +8682,10 @@
         <v>66</v>
       </c>
       <c r="I144" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J144" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8609,19 +8693,19 @@
         <v>532</v>
       </c>
       <c r="B145" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D145" t="s">
         <v>532</v>
       </c>
       <c r="E145" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F145" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G145" t="s">
         <v>666</v>
@@ -8633,27 +8717,18 @@
         <v>714</v>
       </c>
       <c r="J145" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:17">
-      <c r="A146" t="s">
-        <v>532</v>
-      </c>
-      <c r="B146" t="s">
-        <v>559</v>
-      </c>
-      <c r="C146" t="s">
-        <v>560</v>
-      </c>
       <c r="D146" t="s">
         <v>532</v>
       </c>
       <c r="E146" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F146" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G146" t="s">
         <v>666</v>
@@ -8665,7 +8740,7 @@
         <v>714</v>
       </c>
       <c r="J146" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8673,10 +8748,10 @@
         <v>532</v>
       </c>
       <c r="E147" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F147" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G147" t="s">
         <v>666</v>
@@ -8692,14 +8767,23 @@
       </c>
     </row>
     <row r="148" spans="1:17">
+      <c r="A148" t="s">
+        <v>532</v>
+      </c>
+      <c r="B148" t="s">
+        <v>570</v>
+      </c>
+      <c r="C148" t="s">
+        <v>571</v>
+      </c>
       <c r="D148" t="s">
         <v>532</v>
       </c>
       <c r="E148" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F148" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="G148" t="s">
         <v>666</v>
@@ -8711,7 +8795,16 @@
         <v>714</v>
       </c>
       <c r="J148" t="s">
-        <v>568</v>
+        <v>569</v>
+      </c>
+      <c r="L148" t="s">
+        <v>532</v>
+      </c>
+      <c r="M148" t="s">
+        <v>570</v>
+      </c>
+      <c r="N148" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -8719,19 +8812,19 @@
         <v>532</v>
       </c>
       <c r="B149" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C149" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D149" t="s">
         <v>532</v>
       </c>
       <c r="E149" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="F149" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G149" t="s">
         <v>666</v>
@@ -8740,86 +8833,74 @@
         <v>66</v>
       </c>
       <c r="I149" t="s">
-        <v>714</v>
-      </c>
-      <c r="J149" t="s">
-        <v>569</v>
-      </c>
-      <c r="L149" t="s">
-        <v>532</v>
-      </c>
-      <c r="M149" t="s">
-        <v>570</v>
-      </c>
-      <c r="N149" t="s">
-        <v>573</v>
+        <v>696</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" t="s">
-        <v>532</v>
+        <v>744</v>
       </c>
       <c r="B150" t="s">
-        <v>574</v>
+        <v>745</v>
       </c>
       <c r="C150" t="s">
-        <v>575</v>
+        <v>746</v>
       </c>
       <c r="D150" t="s">
-        <v>532</v>
+        <v>744</v>
       </c>
       <c r="E150" t="s">
-        <v>539</v>
+        <v>747</v>
       </c>
       <c r="F150" t="s">
-        <v>576</v>
+        <v>748</v>
       </c>
       <c r="G150" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H150" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I150" t="s">
-        <v>696</v>
+        <v>705</v>
+      </c>
+      <c r="L150" t="s">
+        <v>744</v>
+      </c>
+      <c r="M150" t="s">
+        <v>747</v>
+      </c>
+      <c r="N150" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" t="s">
-        <v>744</v>
+        <v>595</v>
       </c>
       <c r="B151" t="s">
-        <v>745</v>
+        <v>596</v>
       </c>
       <c r="C151" t="s">
-        <v>746</v>
+        <v>597</v>
       </c>
       <c r="D151" t="s">
-        <v>744</v>
+        <v>595</v>
       </c>
       <c r="E151" t="s">
-        <v>747</v>
+        <v>602</v>
       </c>
       <c r="F151" t="s">
-        <v>748</v>
+        <v>603</v>
       </c>
       <c r="G151" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H151" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I151" t="s">
-        <v>705</v>
-      </c>
-      <c r="L151" t="s">
-        <v>744</v>
-      </c>
-      <c r="M151" t="s">
-        <v>747</v>
-      </c>
-      <c r="N151" t="s">
-        <v>809</v>
+        <v>729</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -8827,25 +8908,25 @@
         <v>595</v>
       </c>
       <c r="B152" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C152" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D152" t="s">
         <v>595</v>
       </c>
       <c r="E152" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F152" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G152" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H152" t="s">
-        <v>66</v>
+        <v>673</v>
       </c>
       <c r="I152" t="s">
         <v>729</v>
@@ -8856,40 +8937,31 @@
         <v>595</v>
       </c>
       <c r="B153" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C153" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D153" t="s">
         <v>595</v>
       </c>
       <c r="E153" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F153" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G153" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H153" t="s">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="I153" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="154" spans="1:17">
-      <c r="A154" t="s">
-        <v>595</v>
-      </c>
-      <c r="B154" t="s">
-        <v>600</v>
-      </c>
-      <c r="C154" t="s">
-        <v>601</v>
-      </c>
       <c r="D154" t="s">
         <v>595</v>
       </c>
@@ -8897,7 +8969,7 @@
         <v>606</v>
       </c>
       <c r="F154" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G154" t="s">
         <v>666</v>
@@ -8906,18 +8978,30 @@
         <v>66</v>
       </c>
       <c r="I154" t="s">
-        <v>729</v>
+        <v>730</v>
+      </c>
+      <c r="J154" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="155" spans="1:17">
+      <c r="A155" t="s">
+        <v>595</v>
+      </c>
+      <c r="B155" t="s">
+        <v>610</v>
+      </c>
+      <c r="C155" t="s">
+        <v>611</v>
+      </c>
       <c r="D155" t="s">
         <v>595</v>
       </c>
       <c r="E155" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F155" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G155" t="s">
         <v>666</v>
@@ -8926,30 +9010,30 @@
         <v>66</v>
       </c>
       <c r="I155" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="J155" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B156" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C156" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D156" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="E156" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F156" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G156" t="s">
         <v>666</v>
@@ -8958,10 +9042,7 @@
         <v>66</v>
       </c>
       <c r="I156" t="s">
-        <v>696</v>
-      </c>
-      <c r="J156" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:17">
@@ -8969,48 +9050,48 @@
         <v>615</v>
       </c>
       <c r="B157" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C157" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D157" t="s">
         <v>615</v>
       </c>
       <c r="E157" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F157" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G157" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H157" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I157" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B158" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="C158" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D158" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="E158" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F158" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="G158" t="s">
         <v>667</v>
@@ -9024,22 +9105,22 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B159" t="s">
-        <v>625</v>
+        <v>297</v>
       </c>
       <c r="C159" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D159" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="E159" t="s">
-        <v>627</v>
+        <v>293</v>
       </c>
       <c r="F159" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G159" t="s">
         <v>667</v>
@@ -9050,55 +9131,49 @@
       <c r="I159" t="s">
         <v>693</v>
       </c>
+      <c r="L159" t="s">
+        <v>629</v>
+      </c>
+      <c r="M159" t="s">
+        <v>293</v>
+      </c>
+      <c r="N159" t="s">
+        <v>632</v>
+      </c>
+      <c r="O159" t="s">
+        <v>629</v>
+      </c>
+      <c r="P159" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="160" spans="1:17">
-      <c r="A160" t="s">
-        <v>629</v>
-      </c>
-      <c r="B160" t="s">
-        <v>297</v>
-      </c>
-      <c r="C160" t="s">
-        <v>630</v>
-      </c>
       <c r="D160" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G160" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H160" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="I160" t="s">
-        <v>693</v>
-      </c>
-      <c r="L160" t="s">
-        <v>629</v>
-      </c>
-      <c r="M160" t="s">
-        <v>293</v>
-      </c>
-      <c r="N160" t="s">
-        <v>632</v>
-      </c>
-      <c r="O160" t="s">
-        <v>629</v>
-      </c>
-      <c r="P160" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>700</v>
+      </c>
+      <c r="J160" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="D161" t="s">
         <v>634</v>
       </c>
@@ -9106,7 +9181,7 @@
         <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G161" t="s">
         <v>666</v>
@@ -9121,15 +9196,15 @@
         <v>636</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:17" ht="16.5">
       <c r="D162" t="s">
         <v>634</v>
       </c>
       <c r="E162" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
       <c r="F162" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G162" t="s">
         <v>666</v>
@@ -9138,13 +9213,13 @@
         <v>66</v>
       </c>
       <c r="I162" t="s">
-        <v>700</v>
-      </c>
-      <c r="J162" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="16.5">
+        <v>697</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="16.5">
       <c r="D163" t="s">
         <v>634</v>
       </c>
@@ -9152,7 +9227,7 @@
         <v>638</v>
       </c>
       <c r="F163" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G163" t="s">
         <v>666</v>
@@ -9167,15 +9242,24 @@
         <v>641</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="16.5">
+    <row r="164" spans="1:17">
+      <c r="A164" t="s">
+        <v>292</v>
+      </c>
+      <c r="B164" t="s">
+        <v>300</v>
+      </c>
+      <c r="C164" t="s">
+        <v>779</v>
+      </c>
       <c r="D164" t="s">
         <v>634</v>
       </c>
       <c r="E164" t="s">
-        <v>638</v>
+        <v>302</v>
       </c>
       <c r="F164" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G164" t="s">
         <v>666</v>
@@ -9186,20 +9270,11 @@
       <c r="I164" t="s">
         <v>697</v>
       </c>
-      <c r="J164" s="7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" t="s">
-        <v>292</v>
-      </c>
-      <c r="B165" t="s">
-        <v>300</v>
-      </c>
-      <c r="C165" t="s">
-        <v>779</v>
-      </c>
+      <c r="J164" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="D165" t="s">
         <v>634</v>
       </c>
@@ -9207,7 +9282,7 @@
         <v>302</v>
       </c>
       <c r="F165" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G165" t="s">
         <v>666</v>
@@ -9222,91 +9297,106 @@
         <v>636</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:17">
+      <c r="A166" t="s">
+        <v>634</v>
+      </c>
+      <c r="B166" t="s">
+        <v>297</v>
+      </c>
+      <c r="C166" t="s">
+        <v>644</v>
+      </c>
       <c r="D166" t="s">
         <v>634</v>
       </c>
       <c r="E166" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F166" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G166" t="s">
+        <v>667</v>
+      </c>
+      <c r="H166" t="s">
+        <v>672</v>
+      </c>
+      <c r="I166" t="s">
+        <v>693</v>
+      </c>
+      <c r="L166" t="s">
+        <v>634</v>
+      </c>
+      <c r="M166" t="s">
+        <v>293</v>
+      </c>
+      <c r="N166" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="16.5">
+      <c r="A167" t="s">
+        <v>485</v>
+      </c>
+      <c r="B167" t="s">
+        <v>647</v>
+      </c>
+      <c r="C167" t="s">
+        <v>648</v>
+      </c>
+      <c r="D167" t="s">
+        <v>485</v>
+      </c>
+      <c r="E167" t="s">
+        <v>486</v>
+      </c>
+      <c r="F167" t="s">
+        <v>487</v>
+      </c>
+      <c r="G167" t="s">
         <v>666</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H167" t="s">
         <v>66</v>
       </c>
-      <c r="I166" t="s">
-        <v>697</v>
-      </c>
-      <c r="J166" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" t="s">
-        <v>634</v>
-      </c>
-      <c r="B167" t="s">
-        <v>297</v>
-      </c>
-      <c r="C167" t="s">
-        <v>644</v>
-      </c>
-      <c r="D167" t="s">
-        <v>634</v>
-      </c>
-      <c r="E167" t="s">
-        <v>293</v>
-      </c>
-      <c r="F167" t="s">
-        <v>645</v>
-      </c>
-      <c r="G167" t="s">
-        <v>667</v>
-      </c>
-      <c r="H167" t="s">
-        <v>672</v>
-      </c>
       <c r="I167" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="L167" t="s">
-        <v>634</v>
+        <v>485</v>
       </c>
       <c r="M167" t="s">
-        <v>293</v>
+        <v>486</v>
       </c>
       <c r="N167" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
-      <c r="A168" t="s">
+        <v>488</v>
+      </c>
+      <c r="O167" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B168" t="s">
-        <v>647</v>
-      </c>
-      <c r="C168" t="s">
-        <v>648</v>
-      </c>
+      <c r="P167" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q167" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="D168" t="s">
         <v>485</v>
       </c>
       <c r="E168" t="s">
-        <v>486</v>
+        <v>649</v>
       </c>
       <c r="F168" t="s">
-        <v>487</v>
+        <v>650</v>
       </c>
       <c r="G168" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H168" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I168" t="s">
         <v>710</v>
@@ -9315,21 +9405,30 @@
         <v>485</v>
       </c>
       <c r="M168" t="s">
-        <v>486</v>
+        <v>649</v>
       </c>
       <c r="N168" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" t="s">
+        <v>485</v>
+      </c>
+      <c r="B169" t="s">
+        <v>652</v>
+      </c>
+      <c r="C169" t="s">
+        <v>653</v>
+      </c>
       <c r="D169" t="s">
         <v>485</v>
       </c>
       <c r="E169" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="F169" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="G169" t="s">
         <v>665</v>
@@ -9340,55 +9439,40 @@
       <c r="I169" t="s">
         <v>710</v>
       </c>
-      <c r="L169" t="s">
-        <v>485</v>
-      </c>
-      <c r="M169" t="s">
-        <v>649</v>
-      </c>
-      <c r="N169" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
-        <v>485</v>
+        <v>657</v>
       </c>
       <c r="B170" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C170" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D170" t="s">
-        <v>485</v>
+        <v>657</v>
       </c>
       <c r="E170" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F170" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="G170" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H170" t="s">
-        <v>672</v>
+        <v>807</v>
       </c>
       <c r="I170" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
-      <c r="A171" t="s">
-        <v>657</v>
-      </c>
-      <c r="B171" t="s">
-        <v>658</v>
-      </c>
-      <c r="C171" t="s">
-        <v>656</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="J170" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="D171" t="s">
         <v>657</v>
       </c>
@@ -9396,13 +9480,13 @@
         <v>659</v>
       </c>
       <c r="F171" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G171" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H171" t="s">
-        <v>807</v>
+        <v>66</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
@@ -9411,7 +9495,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:17">
       <c r="D172" t="s">
         <v>657</v>
       </c>
@@ -9419,7 +9503,7 @@
         <v>659</v>
       </c>
       <c r="F172" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G172" t="s">
         <v>666</v>
@@ -9434,38 +9518,35 @@
         <v>661</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
-      <c r="D173" t="s">
-        <v>657</v>
-      </c>
-      <c r="E173" t="s">
-        <v>659</v>
-      </c>
-      <c r="F173" t="s">
-        <v>663</v>
+    <row r="173" spans="1:17">
+      <c r="A173" t="s">
+        <v>681</v>
+      </c>
+      <c r="B173" t="s">
+        <v>682</v>
+      </c>
+      <c r="C173" t="s">
+        <v>683</v>
       </c>
       <c r="G173" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="H173" t="s">
-        <v>66</v>
+        <v>691</v>
       </c>
       <c r="I173" t="s">
-        <v>696</v>
-      </c>
-      <c r="J173" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B174" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C174" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G174" t="s">
         <v>690</v>
@@ -9477,15 +9558,15 @@
         <v>706</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:17">
       <c r="A175" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B175" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C175" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="G175" t="s">
         <v>690</v>
@@ -9493,74 +9574,83 @@
       <c r="H175" t="s">
         <v>691</v>
       </c>
-      <c r="I175" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
-      <c r="A176" t="s">
-        <v>687</v>
-      </c>
-      <c r="B176" t="s">
-        <v>688</v>
-      </c>
-      <c r="C176" t="s">
-        <v>689</v>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="D176" t="s">
+        <v>328</v>
+      </c>
+      <c r="E176" t="s">
+        <v>353</v>
+      </c>
+      <c r="F176" t="s">
+        <v>736</v>
       </c>
       <c r="G176" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="H176" t="s">
-        <v>691</v>
+        <v>66</v>
+      </c>
+      <c r="I176" t="s">
+        <v>728</v>
+      </c>
+      <c r="L176" t="s">
+        <v>328</v>
+      </c>
+      <c r="M176" t="s">
+        <v>353</v>
+      </c>
+      <c r="N176" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="177" spans="1:14">
+      <c r="A177" t="s">
+        <v>615</v>
+      </c>
+      <c r="B177" t="s">
+        <v>757</v>
+      </c>
+      <c r="C177" t="s">
+        <v>758</v>
+      </c>
       <c r="D177" t="s">
-        <v>328</v>
+        <v>615</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>759</v>
       </c>
       <c r="F177" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="G177" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H177" t="s">
-        <v>66</v>
+        <v>672</v>
       </c>
       <c r="I177" t="s">
-        <v>728</v>
-      </c>
-      <c r="L177" t="s">
-        <v>328</v>
-      </c>
-      <c r="M177" t="s">
-        <v>353</v>
-      </c>
-      <c r="N177" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>615</v>
+        <v>761</v>
       </c>
       <c r="B178" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C178" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D178" t="s">
-        <v>615</v>
+        <v>761</v>
       </c>
       <c r="E178" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="F178" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="G178" t="s">
         <v>667</v>
@@ -9574,25 +9664,25 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B179" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C179" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D179" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="E179" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="F179" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="G179" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
       <c r="H179" t="s">
         <v>672</v>
@@ -9603,112 +9693,106 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="B180" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C180" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D180" t="s">
         <v>769</v>
       </c>
       <c r="E180" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="F180" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G180" t="s">
-        <v>771</v>
+        <v>665</v>
       </c>
       <c r="H180" t="s">
         <v>672</v>
       </c>
       <c r="I180" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B181" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="C181" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="D181" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="E181" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="F181" t="s">
-        <v>775</v>
-      </c>
-      <c r="G181" t="s">
-        <v>665</v>
-      </c>
-      <c r="H181" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="D182" t="s">
+        <v>786</v>
+      </c>
+      <c r="E182" t="s">
+        <v>787</v>
+      </c>
+      <c r="F182" t="s">
+        <v>788</v>
+      </c>
+      <c r="G182" t="s">
+        <v>790</v>
+      </c>
+      <c r="H182" t="s">
         <v>672</v>
       </c>
-      <c r="I181" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
-      <c r="A182" t="s">
-        <v>780</v>
-      </c>
-      <c r="B182" t="s">
-        <v>781</v>
-      </c>
-      <c r="C182" t="s">
-        <v>782</v>
-      </c>
-      <c r="D182" t="s">
-        <v>780</v>
-      </c>
-      <c r="E182" t="s">
-        <v>783</v>
-      </c>
-      <c r="F182" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="I182" t="s">
+        <v>791</v>
+      </c>
+      <c r="J182" t="s">
+        <v>792</v>
+      </c>
+      <c r="L182" t="s">
+        <v>786</v>
+      </c>
+      <c r="M182" t="s">
+        <v>787</v>
+      </c>
+      <c r="N182" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="16.5">
       <c r="D183" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E183" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="F183" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="G183" t="s">
-        <v>790</v>
+        <v>666</v>
       </c>
       <c r="H183" t="s">
-        <v>672</v>
-      </c>
-      <c r="I183" t="s">
-        <v>791</v>
+        <v>66</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="J183" t="s">
-        <v>792</v>
-      </c>
-      <c r="L183" t="s">
-        <v>786</v>
-      </c>
-      <c r="M183" t="s">
-        <v>787</v>
-      </c>
-      <c r="N183" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="16.5">
@@ -9716,10 +9800,10 @@
         <v>793</v>
       </c>
       <c r="E184" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F184" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G184" t="s">
         <v>666</v>
@@ -9734,114 +9818,120 @@
         <v>798</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="16.5">
+    <row r="185" spans="1:14">
+      <c r="A185" t="s">
+        <v>800</v>
+      </c>
+      <c r="B185" t="s">
+        <v>801</v>
+      </c>
+      <c r="C185" t="s">
+        <v>802</v>
+      </c>
       <c r="D185" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="E185" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="F185" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="G185" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H185" t="s">
-        <v>66</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>695</v>
+        <v>808</v>
+      </c>
+      <c r="I185" t="s">
+        <v>696</v>
       </c>
       <c r="J185" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" t="s">
-        <v>800</v>
-      </c>
-      <c r="B186" t="s">
-        <v>801</v>
-      </c>
-      <c r="C186" t="s">
-        <v>802</v>
-      </c>
       <c r="D186" t="s">
-        <v>800</v>
+        <v>485</v>
       </c>
       <c r="E186" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="F186" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="G186" t="s">
-        <v>806</v>
+        <v>665</v>
       </c>
       <c r="H186" t="s">
-        <v>808</v>
+        <v>672</v>
       </c>
       <c r="I186" t="s">
-        <v>696</v>
-      </c>
-      <c r="J186" t="s">
-        <v>805</v>
+        <v>710</v>
+      </c>
+      <c r="L186" t="s">
+        <v>485</v>
+      </c>
+      <c r="M186" t="s">
+        <v>813</v>
+      </c>
+      <c r="N186" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="187" spans="1:14">
+      <c r="A187" t="s">
+        <v>822</v>
+      </c>
+      <c r="B187" t="s">
+        <v>823</v>
+      </c>
+      <c r="C187" t="s">
+        <v>824</v>
+      </c>
       <c r="D187" t="s">
-        <v>485</v>
+        <v>822</v>
       </c>
       <c r="E187" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="F187" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="G187" t="s">
-        <v>665</v>
+        <v>827</v>
       </c>
       <c r="H187" t="s">
         <v>672</v>
       </c>
       <c r="I187" t="s">
-        <v>710</v>
-      </c>
-      <c r="L187" t="s">
-        <v>485</v>
-      </c>
-      <c r="M187" t="s">
-        <v>813</v>
-      </c>
-      <c r="N187" t="s">
-        <v>815</v>
+        <v>705</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="B188" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C188" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D188" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="E188" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="F188" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="G188" t="s">
-        <v>827</v>
+        <v>666</v>
       </c>
       <c r="H188" t="s">
-        <v>672</v>
+        <v>66</v>
       </c>
       <c r="I188" t="s">
         <v>705</v>
@@ -9849,31 +9939,25 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>828</v>
+        <v>577</v>
       </c>
       <c r="B189" t="s">
-        <v>829</v>
+        <v>578</v>
       </c>
       <c r="C189" t="s">
-        <v>830</v>
-      </c>
-      <c r="D189" t="s">
-        <v>828</v>
-      </c>
-      <c r="E189" t="s">
-        <v>831</v>
-      </c>
-      <c r="F189" t="s">
-        <v>832</v>
+        <v>579</v>
       </c>
       <c r="G189" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="H189" t="s">
-        <v>66</v>
+        <v>808</v>
       </c>
       <c r="I189" t="s">
-        <v>705</v>
+        <v>715</v>
+      </c>
+      <c r="J189" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9881,10 +9965,10 @@
         <v>577</v>
       </c>
       <c r="B190" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C190" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="G190" t="s">
         <v>806</v>
@@ -9904,10 +9988,10 @@
         <v>577</v>
       </c>
       <c r="B191" t="s">
-        <v>586</v>
+        <v>834</v>
       </c>
       <c r="C191" t="s">
-        <v>586</v>
+        <v>834</v>
       </c>
       <c r="G191" t="s">
         <v>806</v>
@@ -9927,10 +10011,10 @@
         <v>577</v>
       </c>
       <c r="B192" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C192" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G192" t="s">
         <v>806</v>
@@ -9950,10 +10034,10 @@
         <v>577</v>
       </c>
       <c r="B193" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C193" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G193" t="s">
         <v>806</v>
@@ -9973,10 +10057,10 @@
         <v>577</v>
       </c>
       <c r="B194" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C194" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G194" t="s">
         <v>806</v>
@@ -9996,10 +10080,10 @@
         <v>577</v>
       </c>
       <c r="B195" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C195" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G195" t="s">
         <v>806</v>
@@ -10019,10 +10103,10 @@
         <v>577</v>
       </c>
       <c r="B196" t="s">
-        <v>838</v>
+        <v>580</v>
       </c>
       <c r="C196" t="s">
-        <v>838</v>
+        <v>581</v>
       </c>
       <c r="G196" t="s">
         <v>806</v>
@@ -10042,10 +10126,10 @@
         <v>577</v>
       </c>
       <c r="B197" t="s">
-        <v>580</v>
+        <v>839</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>839</v>
       </c>
       <c r="G197" t="s">
         <v>806</v>
@@ -10065,10 +10149,10 @@
         <v>577</v>
       </c>
       <c r="B198" t="s">
-        <v>839</v>
+        <v>587</v>
       </c>
       <c r="C198" t="s">
-        <v>839</v>
+        <v>587</v>
       </c>
       <c r="G198" t="s">
         <v>806</v>
@@ -10088,10 +10172,10 @@
         <v>577</v>
       </c>
       <c r="B199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G199" t="s">
         <v>806</v>
@@ -10111,10 +10195,10 @@
         <v>577</v>
       </c>
       <c r="B200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G200" t="s">
         <v>806</v>
@@ -10134,10 +10218,10 @@
         <v>577</v>
       </c>
       <c r="B201" t="s">
-        <v>589</v>
+        <v>840</v>
       </c>
       <c r="C201" t="s">
-        <v>589</v>
+        <v>840</v>
       </c>
       <c r="G201" t="s">
         <v>806</v>
@@ -10157,10 +10241,10 @@
         <v>577</v>
       </c>
       <c r="B202" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C202" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G202" t="s">
         <v>806</v>
@@ -10180,10 +10264,10 @@
         <v>577</v>
       </c>
       <c r="B203" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C203" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G203" t="s">
         <v>806</v>
@@ -10203,10 +10287,10 @@
         <v>577</v>
       </c>
       <c r="B204" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C204" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G204" t="s">
         <v>806</v>
@@ -10226,10 +10310,10 @@
         <v>577</v>
       </c>
       <c r="B205" t="s">
-        <v>833</v>
+        <v>590</v>
       </c>
       <c r="C205" t="s">
-        <v>833</v>
+        <v>590</v>
       </c>
       <c r="G205" t="s">
         <v>806</v>
@@ -10249,10 +10333,10 @@
         <v>577</v>
       </c>
       <c r="B206" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C206" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G206" t="s">
         <v>806</v>
@@ -10272,22 +10356,28 @@
         <v>577</v>
       </c>
       <c r="B207" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C207" t="s">
-        <v>591</v>
+        <v>583</v>
+      </c>
+      <c r="D207" t="s">
+        <v>577</v>
+      </c>
+      <c r="E207" t="s">
+        <v>584</v>
+      </c>
+      <c r="F207" t="s">
+        <v>585</v>
       </c>
       <c r="G207" t="s">
-        <v>806</v>
+        <v>666</v>
       </c>
       <c r="H207" t="s">
-        <v>808</v>
+        <v>66</v>
       </c>
       <c r="I207" t="s">
-        <v>715</v>
-      </c>
-      <c r="J207" t="s">
-        <v>594</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -10298,7 +10388,7 @@
         <v>582</v>
       </c>
       <c r="C208" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D208" t="s">
         <v>577</v>
@@ -10307,7 +10397,7 @@
         <v>584</v>
       </c>
       <c r="F208" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G208" t="s">
         <v>666</v>
@@ -10319,24 +10409,15 @@
         <v>705</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
-      <c r="A209" t="s">
-        <v>577</v>
-      </c>
-      <c r="B209" t="s">
-        <v>582</v>
-      </c>
-      <c r="C209" t="s">
-        <v>592</v>
-      </c>
+    <row r="209" spans="1:10">
       <c r="D209" t="s">
-        <v>577</v>
+        <v>124</v>
       </c>
       <c r="E209" t="s">
-        <v>584</v>
+        <v>844</v>
       </c>
       <c r="F209" t="s">
-        <v>593</v>
+        <v>845</v>
       </c>
       <c r="G209" t="s">
         <v>666</v>
@@ -10345,162 +10426,221 @@
         <v>66</v>
       </c>
       <c r="I209" t="s">
+        <v>697</v>
+      </c>
+      <c r="J209" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
+        <v>595</v>
+      </c>
+      <c r="B210" t="s">
+        <v>846</v>
+      </c>
+      <c r="C210" t="s">
+        <v>847</v>
+      </c>
+      <c r="G210" t="s">
+        <v>806</v>
+      </c>
+      <c r="H210" t="s">
+        <v>808</v>
+      </c>
+      <c r="I210" t="s">
         <v>705</v>
+      </c>
+      <c r="J210" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
+        <v>849</v>
+      </c>
+      <c r="B211" t="s">
+        <v>850</v>
+      </c>
+      <c r="C211" t="s">
+        <v>851</v>
+      </c>
+      <c r="D211" t="s">
+        <v>744</v>
+      </c>
+      <c r="E211" t="s">
+        <v>850</v>
+      </c>
+      <c r="F211" t="s">
+        <v>852</v>
+      </c>
+      <c r="G211" t="s">
+        <v>854</v>
+      </c>
+      <c r="H211" t="s">
+        <v>672</v>
+      </c>
+      <c r="I211" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="96" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="246"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4 C6:C50 C52:C1048576">
-    <cfRule type="duplicateValues" dxfId="91" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C50 C52:C1048576">
-    <cfRule type="duplicateValues" dxfId="89" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="68" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="67" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4 F6:F1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="56" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1 F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="53" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1:F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="50" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:F113 F1:F4 F115:F1048576 F6:F96">
-    <cfRule type="duplicateValues" dxfId="49" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="48" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="237"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J76 J165:J1048576 J79:J162">
-    <cfRule type="duplicateValues" dxfId="46" priority="196"/>
+  <conditionalFormatting sqref="J164:J1048576 J1:J76 J79:J161">
+    <cfRule type="duplicateValues" dxfId="48" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="45" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="duplicateValues" dxfId="42" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="39" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
-    <cfRule type="duplicateValues" dxfId="36" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="229"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J163:J164">
-    <cfRule type="duplicateValues" dxfId="32" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="186"/>
+  <conditionalFormatting sqref="J162:J163">
+    <cfRule type="duplicateValues" dxfId="34" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="29" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="28" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="25" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="22" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
     <cfRule type="duplicateValues" dxfId="21" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="15" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="225"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+  <conditionalFormatting sqref="N124">
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
     <cfRule type="duplicateValues" dxfId="11" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="2" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="223"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q167">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674CFA2-5085-4ABA-AE19-56DE6E6B5981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D372962-EEC2-4E99-8FD5-8EA457ED61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="954">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2856,13 +2856,74 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>HC2304C-S-TR</t>
+  </si>
+  <si>
+    <t>HC2304C-S-DC-00CR-2304C</t>
+  </si>
+  <si>
+    <t>WLCSP</t>
+  </si>
+  <si>
+    <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC2899AB</t>
+  </si>
+  <si>
+    <t>SC1445A2</t>
+  </si>
+  <si>
+    <t>SC1445A2-713B</t>
+  </si>
+  <si>
+    <t>TO-92S-B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1945B1</t>
+  </si>
+  <si>
+    <t>SC1945B1(STC2899AJ)-N13</t>
+  </si>
+  <si>
+    <t>STC2899AM</t>
+  </si>
+  <si>
+    <t>SC1945S1-BK</t>
+  </si>
+  <si>
+    <t>SC1945S1-AM-00AK-N13</t>
+  </si>
+  <si>
+    <t>TO-92S-S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9625VB-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-Q-CE-4XCR-9625L</t>
+  </si>
+  <si>
+    <t>NM.SC9625VB-CE-00CK</t>
+  </si>
+  <si>
+    <t>NF.SC1445A2-713B</t>
+  </si>
+  <si>
+    <t>赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2900,8 +2961,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2932,8 +2999,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2956,11 +3029,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2983,701 +3067,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4374,14 +3771,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W260"/>
+  <dimension ref="A1:W259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G237" sqref="G237"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I257" sqref="I257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -4406,7 +3803,7 @@
     <col min="21" max="23" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -4477,7 +3874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4518,7 +3915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4559,7 +3956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4591,7 +3988,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>35</v>
       </c>
@@ -4626,7 +4023,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="D6" t="s">
         <v>39</v>
       </c>
@@ -4652,7 +4049,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4693,7 +4090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4743,7 +4140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -4784,7 +4181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -4819,7 +4216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -4845,7 +4242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4886,7 +4283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -4918,7 +4315,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -4944,7 +4341,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -5003,7 +4400,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5062,7 +4459,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5094,7 +4491,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -5126,7 +4523,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -5161,7 +4558,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5193,7 +4590,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -5228,7 +4625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5260,7 +4657,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -5292,7 +4689,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -5327,7 +4724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -5368,7 +4765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -5403,7 +4800,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -5435,7 +4832,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -5470,7 +4867,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -5505,7 +4902,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -5540,7 +4937,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="D31" t="s">
         <v>124</v>
       </c>
@@ -5566,7 +4963,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -5598,7 +4995,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>153</v>
       </c>
@@ -5630,7 +5027,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -5662,7 +5059,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -5706,7 +5103,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -5738,7 +5135,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="D37" t="s">
         <v>161</v>
       </c>
@@ -5791,7 +5188,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -5826,7 +5223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -5870,7 +5267,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -5905,7 +5302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -5940,7 +5337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -5993,7 +5390,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -6037,7 +5434,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20">
       <c r="D44" t="s">
         <v>198</v>
       </c>
@@ -6062,8 +5459,17 @@
       <c r="K44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>198</v>
+      </c>
+      <c r="M44" t="s">
+        <v>943</v>
+      </c>
+      <c r="N44" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="D45" t="s">
         <v>198</v>
       </c>
@@ -6089,7 +5495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -6121,7 +5527,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -6153,7 +5559,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20">
       <c r="D48" t="s">
         <v>207</v>
       </c>
@@ -6179,7 +5585,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -6211,7 +5617,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -6243,7 +5649,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>207</v>
       </c>
@@ -6278,7 +5684,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>220</v>
       </c>
@@ -6319,7 +5725,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>220</v>
       </c>
@@ -6351,7 +5757,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -6386,7 +5792,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>231</v>
       </c>
@@ -6421,7 +5827,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -6456,7 +5862,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="D57" t="s">
         <v>231</v>
       </c>
@@ -6482,7 +5888,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="D58" t="s">
         <v>231</v>
       </c>
@@ -6508,7 +5914,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="D59" t="s">
         <v>240</v>
       </c>
@@ -6534,7 +5940,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="D60" t="s">
         <v>240</v>
       </c>
@@ -6560,7 +5966,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="D61" t="s">
         <v>248</v>
       </c>
@@ -6586,7 +5992,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="D62" t="s">
         <v>248</v>
       </c>
@@ -6612,7 +6018,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="D63" t="s">
         <v>248</v>
       </c>
@@ -6638,7 +6044,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="D64" t="s">
         <v>248</v>
       </c>
@@ -6664,7 +6070,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>248</v>
       </c>
@@ -6690,7 +6096,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>248</v>
       </c>
@@ -6716,7 +6122,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>248</v>
       </c>
@@ -6742,7 +6148,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>248</v>
       </c>
@@ -6768,7 +6174,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>260</v>
       </c>
@@ -6800,7 +6206,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>264</v>
       </c>
@@ -6835,7 +6241,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -6870,7 +6276,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>264</v>
       </c>
@@ -6905,7 +6311,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6940,7 +6346,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -6975,7 +6381,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="D75" t="s">
         <v>264</v>
       </c>
@@ -7001,7 +6407,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>278</v>
       </c>
@@ -7033,7 +6439,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>278</v>
       </c>
@@ -7065,7 +6471,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="D78" t="s">
         <v>288</v>
       </c>
@@ -7106,7 +6512,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>288</v>
       </c>
@@ -7126,7 +6532,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="D80" t="s">
         <v>288</v>
       </c>
@@ -7158,7 +6564,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -7190,7 +6596,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
         <v>288</v>
       </c>
@@ -7234,7 +6640,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>301</v>
       </c>
@@ -7266,7 +6672,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>306</v>
       </c>
@@ -7298,7 +6704,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
         <v>311</v>
       </c>
@@ -7330,7 +6736,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>712</v>
       </c>
@@ -7362,7 +6768,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
         <v>311</v>
       </c>
@@ -7394,7 +6800,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>311</v>
       </c>
@@ -7426,7 +6832,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>311</v>
       </c>
@@ -7458,7 +6864,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
         <v>324</v>
       </c>
@@ -7499,7 +6905,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>324</v>
       </c>
@@ -7534,7 +6940,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
         <v>324</v>
       </c>
@@ -7575,7 +6981,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>324</v>
       </c>
@@ -7610,7 +7016,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>324</v>
       </c>
@@ -7642,7 +7048,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
         <v>324</v>
       </c>
@@ -7677,7 +7083,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>324</v>
       </c>
@@ -7712,7 +7118,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>324</v>
       </c>
@@ -7744,7 +7150,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>324</v>
       </c>
@@ -7779,7 +7185,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>324</v>
       </c>
@@ -7811,7 +7217,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>366</v>
       </c>
@@ -7852,7 +7258,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>366</v>
       </c>
@@ -7884,7 +7290,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14">
       <c r="D102" t="s">
         <v>366</v>
       </c>
@@ -7916,7 +7322,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>366</v>
       </c>
@@ -7948,7 +7354,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>366</v>
       </c>
@@ -7980,7 +7386,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>386</v>
       </c>
@@ -8012,7 +7418,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>391</v>
       </c>
@@ -8044,7 +7450,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14">
       <c r="D107" t="s">
         <v>391</v>
       </c>
@@ -8064,7 +7470,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>391</v>
       </c>
@@ -8099,7 +7505,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>391</v>
       </c>
@@ -8131,7 +7537,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>391</v>
       </c>
@@ -8163,7 +7569,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>391</v>
       </c>
@@ -8204,7 +7610,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>404</v>
       </c>
@@ -8236,7 +7642,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>409</v>
       </c>
@@ -8268,7 +7674,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>409</v>
       </c>
@@ -8300,7 +7706,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>409</v>
       </c>
@@ -8332,7 +7738,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>420</v>
       </c>
@@ -8364,7 +7770,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>424</v>
       </c>
@@ -8414,7 +7820,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>434</v>
       </c>
@@ -8455,7 +7861,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>439</v>
       </c>
@@ -8508,7 +7914,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>446</v>
       </c>
@@ -8552,7 +7958,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="D121" t="s">
         <v>446</v>
       </c>
@@ -8587,7 +7993,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
         <v>453</v>
       </c>
@@ -8622,7 +8028,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>457</v>
       </c>
@@ -8650,227 +8056,209 @@
       <c r="I123" t="s">
         <v>683</v>
       </c>
+      <c r="J123" t="s">
+        <v>951</v>
+      </c>
       <c r="K123" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:17">
+      <c r="D124" t="s">
+        <v>457</v>
+      </c>
+      <c r="E124" t="s">
+        <v>882</v>
+      </c>
+      <c r="F124" t="s">
+        <v>883</v>
+      </c>
+      <c r="G124" t="s">
+        <v>658</v>
+      </c>
+      <c r="H124" t="s">
+        <v>663</v>
+      </c>
+      <c r="I124" t="s">
+        <v>683</v>
+      </c>
+      <c r="J124" t="s">
+        <v>951</v>
+      </c>
+      <c r="K124" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="D125" t="s">
+        <v>457</v>
+      </c>
+      <c r="E125" t="s">
+        <v>949</v>
+      </c>
+      <c r="F125" t="s">
+        <v>950</v>
+      </c>
+      <c r="G125" t="s">
+        <v>658</v>
+      </c>
+      <c r="H125" t="s">
+        <v>663</v>
+      </c>
+      <c r="I125" t="s">
+        <v>683</v>
+      </c>
+      <c r="J125" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" t="s">
         <v>462</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>463</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C126" t="s">
         <v>464</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D126" t="s">
         <v>462</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E126" t="s">
         <v>465</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F126" t="s">
         <v>466</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G126" t="s">
         <v>905</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H126" t="s">
         <v>66</v>
-      </c>
-      <c r="I124" t="s">
-        <v>697</v>
-      </c>
-      <c r="J124" t="s">
-        <v>468</v>
-      </c>
-      <c r="K124" t="s">
-        <v>65</v>
-      </c>
-      <c r="L124" t="s">
-        <v>462</v>
-      </c>
-      <c r="M124" t="s">
-        <v>465</v>
-      </c>
-      <c r="N124" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>469</v>
-      </c>
-      <c r="B125" t="s">
-        <v>470</v>
-      </c>
-      <c r="C125" t="s">
-        <v>471</v>
-      </c>
-      <c r="D125" t="s">
-        <v>469</v>
-      </c>
-      <c r="E125" t="s">
-        <v>472</v>
-      </c>
-      <c r="F125" t="s">
-        <v>473</v>
-      </c>
-      <c r="G125" t="s">
-        <v>659</v>
-      </c>
-      <c r="H125" t="s">
-        <v>662</v>
-      </c>
-      <c r="I125" t="s">
-        <v>697</v>
-      </c>
-      <c r="J125" t="s">
-        <v>898</v>
-      </c>
-      <c r="K125" t="s">
-        <v>693</v>
-      </c>
-      <c r="L125" t="s">
-        <v>469</v>
-      </c>
-      <c r="M125" t="s">
-        <v>748</v>
-      </c>
-      <c r="N125" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>469</v>
-      </c>
-      <c r="B126" t="s">
-        <v>477</v>
-      </c>
-      <c r="C126" t="s">
-        <v>478</v>
-      </c>
-      <c r="D126" t="s">
-        <v>469</v>
-      </c>
-      <c r="E126" t="s">
-        <v>474</v>
-      </c>
-      <c r="F126" t="s">
-        <v>475</v>
-      </c>
-      <c r="G126" t="s">
-        <v>659</v>
-      </c>
-      <c r="H126" t="s">
-        <v>662</v>
       </c>
       <c r="I126" t="s">
         <v>697</v>
       </c>
+      <c r="J126" t="s">
+        <v>468</v>
+      </c>
       <c r="K126" t="s">
-        <v>693</v>
+        <v>65</v>
       </c>
       <c r="L126" t="s">
+        <v>462</v>
+      </c>
+      <c r="M126" t="s">
+        <v>465</v>
+      </c>
+      <c r="N126" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" t="s">
         <v>469</v>
       </c>
-      <c r="M126" t="s">
+      <c r="B127" t="s">
+        <v>470</v>
+      </c>
+      <c r="C127" t="s">
+        <v>471</v>
+      </c>
+      <c r="D127" t="s">
+        <v>469</v>
+      </c>
+      <c r="E127" t="s">
+        <v>472</v>
+      </c>
+      <c r="F127" t="s">
+        <v>473</v>
+      </c>
+      <c r="G127" t="s">
+        <v>659</v>
+      </c>
+      <c r="H127" t="s">
+        <v>662</v>
+      </c>
+      <c r="I127" t="s">
+        <v>697</v>
+      </c>
+      <c r="J127" t="s">
+        <v>898</v>
+      </c>
+      <c r="K127" t="s">
+        <v>693</v>
+      </c>
+      <c r="L127" t="s">
+        <v>469</v>
+      </c>
+      <c r="M127" t="s">
+        <v>748</v>
+      </c>
+      <c r="N127" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" t="s">
+        <v>469</v>
+      </c>
+      <c r="B128" t="s">
+        <v>477</v>
+      </c>
+      <c r="C128" t="s">
+        <v>478</v>
+      </c>
+      <c r="D128" t="s">
+        <v>469</v>
+      </c>
+      <c r="E128" t="s">
         <v>474</v>
       </c>
-      <c r="N126" t="s">
+      <c r="F128" t="s">
+        <v>475</v>
+      </c>
+      <c r="G128" t="s">
+        <v>659</v>
+      </c>
+      <c r="H128" t="s">
+        <v>662</v>
+      </c>
+      <c r="I128" t="s">
+        <v>697</v>
+      </c>
+      <c r="K128" t="s">
+        <v>693</v>
+      </c>
+      <c r="L128" t="s">
+        <v>469</v>
+      </c>
+      <c r="M128" t="s">
+        <v>474</v>
+      </c>
+      <c r="N128" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>483</v>
-      </c>
-      <c r="B127" t="s">
-        <v>484</v>
-      </c>
-      <c r="C127" t="s">
-        <v>485</v>
-      </c>
-      <c r="D127" t="s">
-        <v>483</v>
-      </c>
-      <c r="E127" t="s">
-        <v>486</v>
-      </c>
-      <c r="F127" t="s">
-        <v>487</v>
-      </c>
-      <c r="G127" t="s">
-        <v>926</v>
-      </c>
-      <c r="H127" t="s">
-        <v>907</v>
-      </c>
-      <c r="I127" t="s">
-        <v>683</v>
-      </c>
-      <c r="J127" t="s">
-        <v>505</v>
-      </c>
-      <c r="K127" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>483</v>
-      </c>
-      <c r="B128" t="s">
-        <v>488</v>
-      </c>
-      <c r="C128" t="s">
-        <v>489</v>
-      </c>
-      <c r="D128" t="s">
-        <v>483</v>
-      </c>
-      <c r="E128" t="s">
-        <v>490</v>
-      </c>
-      <c r="F128" t="s">
-        <v>491</v>
-      </c>
-      <c r="G128" t="s">
-        <v>926</v>
-      </c>
-      <c r="H128" t="s">
-        <v>907</v>
-      </c>
-      <c r="I128" t="s">
-        <v>683</v>
-      </c>
-      <c r="J128" t="s">
-        <v>505</v>
-      </c>
-      <c r="K128" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>483</v>
       </c>
       <c r="B129" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C129" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D129" t="s">
         <v>483</v>
       </c>
       <c r="E129" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F129" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G129" t="s">
         <v>926</v>
@@ -8888,24 +8276,24 @@
         <v>888</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>483</v>
       </c>
       <c r="B130" t="s">
-        <v>784</v>
+        <v>488</v>
       </c>
       <c r="C130" t="s">
-        <v>783</v>
+        <v>489</v>
       </c>
       <c r="D130" t="s">
         <v>483</v>
       </c>
       <c r="E130" t="s">
-        <v>785</v>
+        <v>490</v>
       </c>
       <c r="F130" t="s">
-        <v>786</v>
+        <v>491</v>
       </c>
       <c r="G130" t="s">
         <v>926</v>
@@ -8923,56 +8311,59 @@
         <v>888</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>483</v>
       </c>
       <c r="B131" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C131" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D131" t="s">
         <v>483</v>
       </c>
       <c r="E131" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F131" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G131" t="s">
-        <v>658</v>
+        <v>926</v>
       </c>
       <c r="H131" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
       <c r="I131" t="s">
         <v>683</v>
       </c>
+      <c r="J131" t="s">
+        <v>505</v>
+      </c>
       <c r="K131" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>483</v>
       </c>
       <c r="B132" t="s">
-        <v>506</v>
+        <v>784</v>
       </c>
       <c r="C132" t="s">
-        <v>507</v>
+        <v>783</v>
       </c>
       <c r="D132" t="s">
         <v>483</v>
       </c>
       <c r="E132" t="s">
-        <v>500</v>
+        <v>785</v>
       </c>
       <c r="F132" t="s">
-        <v>501</v>
+        <v>786</v>
       </c>
       <c r="G132" t="s">
         <v>926</v>
@@ -8990,30 +8381,30 @@
         <v>888</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>483</v>
       </c>
       <c r="B133" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C133" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D133" t="s">
         <v>483</v>
       </c>
       <c r="E133" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F133" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G133" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H133" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I133" t="s">
         <v>683</v>
@@ -9022,50 +8413,59 @@
         <v>693</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C134" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D134" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E134" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F134" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G134" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H134" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="I134" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="J134" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K134" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>483</v>
+      </c>
+      <c r="B135" t="s">
+        <v>504</v>
+      </c>
+      <c r="C135" t="s">
+        <v>505</v>
+      </c>
       <c r="D135" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E135" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F135" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G135" t="s">
         <v>660</v>
@@ -9074,240 +8474,231 @@
         <v>66</v>
       </c>
       <c r="I135" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K135" t="s">
         <v>693</v>
       </c>
-      <c r="L135" t="s">
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
         <v>508</v>
       </c>
-      <c r="M135" t="s">
-        <v>516</v>
-      </c>
-      <c r="N135" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>509</v>
+      </c>
+      <c r="C136" t="s">
+        <v>510</v>
+      </c>
       <c r="D136" t="s">
         <v>508</v>
       </c>
       <c r="E136" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F136" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G136" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H136" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I136" t="s">
-        <v>692</v>
+        <v>698</v>
+      </c>
+      <c r="J136" t="s">
+        <v>513</v>
       </c>
       <c r="K136" t="s">
-        <v>693</v>
-      </c>
-      <c r="L136" t="s">
-        <v>508</v>
-      </c>
-      <c r="M136" t="s">
-        <v>516</v>
-      </c>
-      <c r="N136" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="D137" t="s">
         <v>508</v>
       </c>
       <c r="E137" t="s">
+        <v>514</v>
+      </c>
+      <c r="F137" t="s">
+        <v>515</v>
+      </c>
+      <c r="G137" t="s">
+        <v>660</v>
+      </c>
+      <c r="H137" t="s">
+        <v>66</v>
+      </c>
+      <c r="I137" t="s">
+        <v>692</v>
+      </c>
+      <c r="K137" t="s">
+        <v>693</v>
+      </c>
+      <c r="L137" t="s">
+        <v>508</v>
+      </c>
+      <c r="M137" t="s">
         <v>516</v>
       </c>
-      <c r="F137" t="s">
+      <c r="N137" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="D138" t="s">
+        <v>508</v>
+      </c>
+      <c r="E138" t="s">
+        <v>516</v>
+      </c>
+      <c r="F138" t="s">
+        <v>518</v>
+      </c>
+      <c r="G138" t="s">
+        <v>660</v>
+      </c>
+      <c r="H138" t="s">
+        <v>66</v>
+      </c>
+      <c r="I138" t="s">
+        <v>692</v>
+      </c>
+      <c r="K138" t="s">
+        <v>693</v>
+      </c>
+      <c r="L138" t="s">
+        <v>508</v>
+      </c>
+      <c r="M138" t="s">
+        <v>516</v>
+      </c>
+      <c r="N138" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="D139" t="s">
+        <v>508</v>
+      </c>
+      <c r="E139" t="s">
+        <v>516</v>
+      </c>
+      <c r="F139" t="s">
         <v>669</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G139" t="s">
         <v>927</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H139" t="s">
         <v>928</v>
-      </c>
-      <c r="I137" t="s">
-        <v>698</v>
-      </c>
-      <c r="J137" t="s">
-        <v>668</v>
-      </c>
-      <c r="K137" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>520</v>
-      </c>
-      <c r="B138" t="s">
-        <v>521</v>
-      </c>
-      <c r="C138" t="s">
-        <v>522</v>
-      </c>
-      <c r="D138" t="s">
-        <v>520</v>
-      </c>
-      <c r="E138" t="s">
-        <v>523</v>
-      </c>
-      <c r="F138" t="s">
-        <v>524</v>
-      </c>
-      <c r="G138" t="s">
-        <v>927</v>
-      </c>
-      <c r="H138" t="s">
-        <v>928</v>
-      </c>
-      <c r="I138" t="s">
-        <v>698</v>
-      </c>
-      <c r="J138" t="s">
-        <v>525</v>
-      </c>
-      <c r="K138" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>526</v>
-      </c>
-      <c r="B139" t="s">
-        <v>531</v>
-      </c>
-      <c r="C139" t="s">
-        <v>532</v>
-      </c>
-      <c r="D139" t="s">
-        <v>526</v>
-      </c>
-      <c r="E139" t="s">
-        <v>529</v>
-      </c>
-      <c r="F139" t="s">
-        <v>530</v>
-      </c>
-      <c r="G139" t="s">
-        <v>660</v>
-      </c>
-      <c r="H139" t="s">
-        <v>66</v>
       </c>
       <c r="I139" t="s">
         <v>698</v>
       </c>
+      <c r="J139" t="s">
+        <v>668</v>
+      </c>
       <c r="K139" t="s">
-        <v>693</v>
-      </c>
-      <c r="L139" t="s">
-        <v>526</v>
-      </c>
-      <c r="M139" t="s">
-        <v>531</v>
-      </c>
-      <c r="N139" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B140" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="C140" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D140" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E140" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F140" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G140" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H140" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I140" t="s">
         <v>698</v>
       </c>
       <c r="J140" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="K140" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>526</v>
       </c>
       <c r="B141" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C141" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D141" t="s">
         <v>526</v>
       </c>
       <c r="E141" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F141" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G141" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H141" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I141" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K141" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L141" t="s">
+        <v>526</v>
+      </c>
+      <c r="M141" t="s">
+        <v>531</v>
+      </c>
+      <c r="N141" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>526</v>
       </c>
       <c r="B142" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C142" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="D142" t="s">
         <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F142" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G142" t="s">
         <v>660</v>
@@ -9316,91 +8707,88 @@
         <v>66</v>
       </c>
       <c r="I142" t="s">
-        <v>699</v>
+        <v>698</v>
+      </c>
+      <c r="J142" t="s">
+        <v>535</v>
       </c>
       <c r="K142" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14">
+      <c r="A143" t="s">
+        <v>526</v>
+      </c>
+      <c r="B143" t="s">
+        <v>536</v>
+      </c>
+      <c r="C143" t="s">
+        <v>537</v>
+      </c>
       <c r="D143" t="s">
         <v>526</v>
       </c>
       <c r="E143" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F143" t="s">
-        <v>769</v>
+        <v>535</v>
       </c>
       <c r="G143" t="s">
-        <v>927</v>
+        <v>658</v>
       </c>
       <c r="H143" t="s">
-        <v>928</v>
+        <v>663</v>
       </c>
       <c r="I143" t="s">
-        <v>700</v>
-      </c>
-      <c r="J143" t="s">
-        <v>543</v>
+        <v>699</v>
       </c>
       <c r="K143" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>526</v>
       </c>
       <c r="B144" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C144" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D144" t="s">
         <v>526</v>
       </c>
       <c r="E144" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F144" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G144" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H144" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I144" t="s">
-        <v>700</v>
-      </c>
-      <c r="J144" t="s">
-        <v>543</v>
+        <v>699</v>
       </c>
       <c r="K144" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>526</v>
-      </c>
-      <c r="B145" t="s">
-        <v>548</v>
-      </c>
-      <c r="C145" t="s">
-        <v>549</v>
-      </c>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="D145" t="s">
         <v>526</v>
       </c>
       <c r="E145" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F145" t="s">
-        <v>552</v>
+        <v>769</v>
       </c>
       <c r="G145" t="s">
         <v>927</v>
@@ -9409,33 +8797,33 @@
         <v>928</v>
       </c>
       <c r="I145" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J145" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K145" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
         <v>526</v>
       </c>
       <c r="B146" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C146" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D146" t="s">
         <v>526</v>
       </c>
       <c r="E146" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F146" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G146" t="s">
         <v>927</v>
@@ -9444,24 +8832,33 @@
         <v>928</v>
       </c>
       <c r="I146" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J146" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K146" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14">
+      <c r="A147" t="s">
+        <v>526</v>
+      </c>
+      <c r="B147" t="s">
+        <v>548</v>
+      </c>
+      <c r="C147" t="s">
+        <v>549</v>
+      </c>
       <c r="D147" t="s">
         <v>526</v>
       </c>
       <c r="E147" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F147" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G147" t="s">
         <v>927</v>
@@ -9473,21 +8870,30 @@
         <v>701</v>
       </c>
       <c r="J147" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="K147" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14">
+      <c r="A148" t="s">
+        <v>526</v>
+      </c>
+      <c r="B148" t="s">
+        <v>553</v>
+      </c>
+      <c r="C148" t="s">
+        <v>554</v>
+      </c>
       <c r="D148" t="s">
         <v>526</v>
       </c>
       <c r="E148" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F148" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G148" t="s">
         <v>927</v>
@@ -9499,22 +8905,13 @@
         <v>701</v>
       </c>
       <c r="J148" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K148" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>526</v>
-      </c>
-      <c r="B149" t="s">
-        <v>564</v>
-      </c>
-      <c r="C149" t="s">
-        <v>565</v>
-      </c>
+    <row r="149" spans="1:14">
       <c r="D149" t="s">
         <v>526</v>
       </c>
@@ -9522,7 +8919,7 @@
         <v>558</v>
       </c>
       <c r="F149" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G149" t="s">
         <v>927</v>
@@ -9534,112 +8931,100 @@
         <v>701</v>
       </c>
       <c r="J149" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K149" t="s">
         <v>658</v>
       </c>
-      <c r="L149" t="s">
-        <v>526</v>
-      </c>
-      <c r="M149" t="s">
-        <v>564</v>
-      </c>
-      <c r="N149" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>526</v>
-      </c>
-      <c r="B150" t="s">
-        <v>568</v>
-      </c>
-      <c r="C150" t="s">
-        <v>569</v>
-      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="D150" t="s">
         <v>526</v>
       </c>
       <c r="E150" t="s">
+        <v>560</v>
+      </c>
+      <c r="F150" t="s">
+        <v>561</v>
+      </c>
+      <c r="G150" t="s">
+        <v>927</v>
+      </c>
+      <c r="H150" t="s">
+        <v>928</v>
+      </c>
+      <c r="I150" t="s">
+        <v>701</v>
+      </c>
+      <c r="J150" t="s">
+        <v>562</v>
+      </c>
+      <c r="K150" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" t="s">
+        <v>526</v>
+      </c>
+      <c r="B151" t="s">
+        <v>564</v>
+      </c>
+      <c r="C151" t="s">
+        <v>565</v>
+      </c>
+      <c r="D151" t="s">
+        <v>526</v>
+      </c>
+      <c r="E151" t="s">
+        <v>558</v>
+      </c>
+      <c r="F151" t="s">
+        <v>566</v>
+      </c>
+      <c r="G151" t="s">
+        <v>927</v>
+      </c>
+      <c r="H151" t="s">
+        <v>928</v>
+      </c>
+      <c r="I151" t="s">
+        <v>701</v>
+      </c>
+      <c r="J151" t="s">
+        <v>563</v>
+      </c>
+      <c r="K151" t="s">
+        <v>658</v>
+      </c>
+      <c r="L151" t="s">
+        <v>526</v>
+      </c>
+      <c r="M151" t="s">
+        <v>564</v>
+      </c>
+      <c r="N151" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" t="s">
+        <v>526</v>
+      </c>
+      <c r="B152" t="s">
+        <v>568</v>
+      </c>
+      <c r="C152" t="s">
+        <v>569</v>
+      </c>
+      <c r="D152" t="s">
+        <v>526</v>
+      </c>
+      <c r="E152" t="s">
         <v>533</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F152" t="s">
         <v>570</v>
-      </c>
-      <c r="G150" t="s">
-        <v>660</v>
-      </c>
-      <c r="H150" t="s">
-        <v>66</v>
-      </c>
-      <c r="I150" t="s">
-        <v>683</v>
-      </c>
-      <c r="K150" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>718</v>
-      </c>
-      <c r="B151" t="s">
-        <v>719</v>
-      </c>
-      <c r="C151" t="s">
-        <v>720</v>
-      </c>
-      <c r="D151" t="s">
-        <v>718</v>
-      </c>
-      <c r="E151" t="s">
-        <v>721</v>
-      </c>
-      <c r="F151" t="s">
-        <v>722</v>
-      </c>
-      <c r="G151" t="s">
-        <v>658</v>
-      </c>
-      <c r="H151" t="s">
-        <v>663</v>
-      </c>
-      <c r="I151" t="s">
-        <v>692</v>
-      </c>
-      <c r="K151" t="s">
-        <v>693</v>
-      </c>
-      <c r="L151" t="s">
-        <v>718</v>
-      </c>
-      <c r="M151" t="s">
-        <v>721</v>
-      </c>
-      <c r="N151" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>589</v>
-      </c>
-      <c r="B152" t="s">
-        <v>590</v>
-      </c>
-      <c r="C152" t="s">
-        <v>591</v>
-      </c>
-      <c r="D152" t="s">
-        <v>589</v>
-      </c>
-      <c r="E152" t="s">
-        <v>596</v>
-      </c>
-      <c r="F152" t="s">
-        <v>597</v>
       </c>
       <c r="G152" t="s">
         <v>660</v>
@@ -9648,30 +9033,30 @@
         <v>66</v>
       </c>
       <c r="I152" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="K152" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="B153" t="s">
-        <v>592</v>
+        <v>719</v>
       </c>
       <c r="C153" t="s">
-        <v>593</v>
+        <v>720</v>
       </c>
       <c r="D153" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="E153" t="s">
-        <v>598</v>
+        <v>721</v>
       </c>
       <c r="F153" t="s">
-        <v>599</v>
+        <v>722</v>
       </c>
       <c r="G153" t="s">
         <v>658</v>
@@ -9680,30 +9065,39 @@
         <v>663</v>
       </c>
       <c r="I153" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="K153" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L153" t="s">
+        <v>718</v>
+      </c>
+      <c r="M153" t="s">
+        <v>721</v>
+      </c>
+      <c r="N153" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
         <v>589</v>
       </c>
       <c r="B154" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C154" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D154" t="s">
         <v>589</v>
       </c>
       <c r="E154" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F154" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="G154" t="s">
         <v>660</v>
@@ -9718,85 +9112,79 @@
         <v>693</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14">
+      <c r="A155" t="s">
+        <v>589</v>
+      </c>
+      <c r="B155" t="s">
+        <v>592</v>
+      </c>
+      <c r="C155" t="s">
+        <v>593</v>
+      </c>
       <c r="D155" t="s">
         <v>589</v>
       </c>
       <c r="E155" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F155" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G155" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H155" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I155" t="s">
-        <v>705</v>
-      </c>
-      <c r="J155" t="s">
-        <v>603</v>
+        <v>704</v>
       </c>
       <c r="K155" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
         <v>589</v>
       </c>
       <c r="B156" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C156" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D156" t="s">
         <v>589</v>
       </c>
       <c r="E156" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F156" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G156" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H156" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I156" t="s">
-        <v>683</v>
-      </c>
-      <c r="J156" t="s">
-        <v>608</v>
+        <v>704</v>
       </c>
       <c r="K156" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>609</v>
-      </c>
-      <c r="B157" t="s">
-        <v>610</v>
-      </c>
-      <c r="C157" t="s">
-        <v>611</v>
-      </c>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="D157" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E157" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="G157" t="s">
         <v>660</v>
@@ -9805,94 +9193,100 @@
         <v>66</v>
       </c>
       <c r="I157" t="s">
+        <v>705</v>
+      </c>
+      <c r="J157" t="s">
+        <v>603</v>
+      </c>
+      <c r="K157" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" t="s">
+        <v>589</v>
+      </c>
+      <c r="B158" t="s">
+        <v>604</v>
+      </c>
+      <c r="C158" t="s">
+        <v>605</v>
+      </c>
+      <c r="D158" t="s">
+        <v>589</v>
+      </c>
+      <c r="E158" t="s">
+        <v>606</v>
+      </c>
+      <c r="F158" t="s">
+        <v>607</v>
+      </c>
+      <c r="G158" t="s">
+        <v>927</v>
+      </c>
+      <c r="H158" t="s">
+        <v>928</v>
+      </c>
+      <c r="I158" t="s">
+        <v>683</v>
+      </c>
+      <c r="J158" t="s">
+        <v>608</v>
+      </c>
+      <c r="K158" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" t="s">
+        <v>609</v>
+      </c>
+      <c r="B159" t="s">
+        <v>610</v>
+      </c>
+      <c r="C159" t="s">
+        <v>611</v>
+      </c>
+      <c r="D159" t="s">
+        <v>609</v>
+      </c>
+      <c r="E159" t="s">
+        <v>612</v>
+      </c>
+      <c r="F159" t="s">
+        <v>613</v>
+      </c>
+      <c r="G159" t="s">
+        <v>660</v>
+      </c>
+      <c r="H159" t="s">
+        <v>66</v>
+      </c>
+      <c r="I159" t="s">
         <v>687</v>
       </c>
-      <c r="K157" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="K159" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" t="s">
         <v>609</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B160" t="s">
         <v>614</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>615</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D160" t="s">
         <v>609</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E160" t="s">
         <v>616</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F160" t="s">
         <v>617</v>
-      </c>
-      <c r="G158" t="s">
-        <v>661</v>
-      </c>
-      <c r="H158" t="s">
-        <v>662</v>
-      </c>
-      <c r="I158" t="s">
-        <v>681</v>
-      </c>
-      <c r="K158" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>618</v>
-      </c>
-      <c r="B159" t="s">
-        <v>619</v>
-      </c>
-      <c r="C159" t="s">
-        <v>620</v>
-      </c>
-      <c r="D159" t="s">
-        <v>618</v>
-      </c>
-      <c r="E159" t="s">
-        <v>621</v>
-      </c>
-      <c r="F159" t="s">
-        <v>622</v>
-      </c>
-      <c r="G159" t="s">
-        <v>661</v>
-      </c>
-      <c r="H159" t="s">
-        <v>662</v>
-      </c>
-      <c r="I159" t="s">
-        <v>681</v>
-      </c>
-      <c r="K159" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>623</v>
-      </c>
-      <c r="B160" t="s">
-        <v>293</v>
-      </c>
-      <c r="C160" t="s">
-        <v>624</v>
-      </c>
-      <c r="D160" t="s">
-        <v>623</v>
-      </c>
-      <c r="E160" t="s">
-        <v>289</v>
-      </c>
-      <c r="F160" t="s">
-        <v>625</v>
       </c>
       <c r="G160" t="s">
         <v>661</v>
@@ -9906,96 +9300,125 @@
       <c r="K160" t="s">
         <v>693</v>
       </c>
-      <c r="L160" t="s">
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" t="s">
+        <v>618</v>
+      </c>
+      <c r="B161" t="s">
+        <v>619</v>
+      </c>
+      <c r="C161" t="s">
+        <v>620</v>
+      </c>
+      <c r="D161" t="s">
+        <v>618</v>
+      </c>
+      <c r="E161" t="s">
+        <v>621</v>
+      </c>
+      <c r="F161" t="s">
+        <v>622</v>
+      </c>
+      <c r="G161" t="s">
+        <v>661</v>
+      </c>
+      <c r="H161" t="s">
+        <v>662</v>
+      </c>
+      <c r="I161" t="s">
+        <v>681</v>
+      </c>
+      <c r="K161" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" t="s">
         <v>623</v>
       </c>
-      <c r="M160" t="s">
+      <c r="B162" t="s">
+        <v>293</v>
+      </c>
+      <c r="C162" t="s">
+        <v>624</v>
+      </c>
+      <c r="D162" t="s">
+        <v>623</v>
+      </c>
+      <c r="E162" t="s">
         <v>289</v>
       </c>
-      <c r="N160" t="s">
+      <c r="F162" t="s">
+        <v>625</v>
+      </c>
+      <c r="G162" t="s">
+        <v>661</v>
+      </c>
+      <c r="H162" t="s">
+        <v>662</v>
+      </c>
+      <c r="I162" t="s">
+        <v>681</v>
+      </c>
+      <c r="K162" t="s">
+        <v>693</v>
+      </c>
+      <c r="L162" t="s">
+        <v>623</v>
+      </c>
+      <c r="M162" t="s">
+        <v>289</v>
+      </c>
+      <c r="N162" t="s">
         <v>626</v>
       </c>
-      <c r="O160" t="s">
+      <c r="O162" t="s">
         <v>623</v>
       </c>
-      <c r="P160" t="s">
+      <c r="P162" t="s">
         <v>293</v>
       </c>
-      <c r="Q160" t="s">
+      <c r="Q162" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="163" spans="1:17">
+      <c r="A163" t="s">
         <v>628</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B163" t="s">
         <v>632</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C163" t="s">
         <v>633</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D163" t="s">
         <v>628</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E163" t="s">
         <v>298</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F163" t="s">
         <v>629</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G163" t="s">
         <v>660</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H163" t="s">
         <v>66</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I163" t="s">
         <v>687</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J163" t="s">
         <v>630</v>
       </c>
-      <c r="K161" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D162" t="s">
-        <v>628</v>
-      </c>
-      <c r="E162" t="s">
-        <v>298</v>
-      </c>
-      <c r="F162" t="s">
-        <v>631</v>
-      </c>
-      <c r="G162" t="s">
-        <v>660</v>
-      </c>
-      <c r="H162" t="s">
-        <v>66</v>
-      </c>
-      <c r="I162" t="s">
-        <v>687</v>
-      </c>
-      <c r="J162" t="s">
-        <v>630</v>
-      </c>
-      <c r="K162" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>628</v>
-      </c>
-      <c r="B164" t="s">
-        <v>298</v>
-      </c>
-      <c r="C164" t="s">
-        <v>635</v>
-      </c>
+      <c r="K163" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="D164" t="s">
         <v>628</v>
       </c>
@@ -10003,7 +9426,7 @@
         <v>298</v>
       </c>
       <c r="F164" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G164" t="s">
         <v>660</v>
@@ -10012,18 +9435,24 @@
         <v>66</v>
       </c>
       <c r="I164" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+      <c r="J164" t="s">
+        <v>630</v>
+      </c>
+      <c r="K164" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>628</v>
       </c>
       <c r="B165" t="s">
         <v>298</v>
       </c>
       <c r="C165" t="s">
-        <v>750</v>
+        <v>635</v>
       </c>
       <c r="D165" t="s">
         <v>628</v>
@@ -10032,7 +9461,7 @@
         <v>298</v>
       </c>
       <c r="F165" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G165" t="s">
         <v>660</v>
@@ -10043,22 +9472,16 @@
       <c r="I165" t="s">
         <v>684</v>
       </c>
-      <c r="J165" t="s">
-        <v>630</v>
-      </c>
-      <c r="K165" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" t="s">
-        <v>628</v>
+        <v>288</v>
       </c>
       <c r="B166" t="s">
         <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>634</v>
+        <v>750</v>
       </c>
       <c r="D166" t="s">
         <v>628</v>
@@ -10067,7 +9490,7 @@
         <v>298</v>
       </c>
       <c r="F166" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G166" t="s">
         <v>660</v>
@@ -10085,112 +9508,106 @@
         <v>693</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
         <v>628</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C167" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D167" t="s">
         <v>628</v>
       </c>
       <c r="E167" t="s">
+        <v>298</v>
+      </c>
+      <c r="F167" t="s">
+        <v>637</v>
+      </c>
+      <c r="G167" t="s">
+        <v>660</v>
+      </c>
+      <c r="H167" t="s">
+        <v>66</v>
+      </c>
+      <c r="I167" t="s">
+        <v>684</v>
+      </c>
+      <c r="J167" t="s">
+        <v>630</v>
+      </c>
+      <c r="K167" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" t="s">
+        <v>628</v>
+      </c>
+      <c r="B168" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" t="s">
+        <v>638</v>
+      </c>
+      <c r="D168" t="s">
+        <v>628</v>
+      </c>
+      <c r="E168" t="s">
         <v>289</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F168" t="s">
         <v>639</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G168" t="s">
         <v>661</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H168" t="s">
         <v>662</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I168" t="s">
         <v>681</v>
       </c>
-      <c r="K167" t="s">
-        <v>693</v>
-      </c>
-      <c r="L167" t="s">
+      <c r="K168" t="s">
+        <v>693</v>
+      </c>
+      <c r="L168" t="s">
         <v>628</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M168" t="s">
         <v>289</v>
       </c>
-      <c r="N167" t="s">
+      <c r="N168" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:17">
+      <c r="A169" t="s">
         <v>479</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>641</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>642</v>
       </c>
-      <c r="D168" t="s">
-        <v>479</v>
-      </c>
-      <c r="E168" t="s">
-        <v>480</v>
-      </c>
-      <c r="F168" t="s">
-        <v>481</v>
-      </c>
-      <c r="G168" t="s">
-        <v>660</v>
-      </c>
-      <c r="H168" t="s">
-        <v>66</v>
-      </c>
-      <c r="I168" t="s">
-        <v>697</v>
-      </c>
-      <c r="K168" t="s">
-        <v>693</v>
-      </c>
-      <c r="L168" t="s">
-        <v>479</v>
-      </c>
-      <c r="M168" t="s">
-        <v>480</v>
-      </c>
-      <c r="N168" t="s">
-        <v>482</v>
-      </c>
-      <c r="O168" t="s">
-        <v>479</v>
-      </c>
-      <c r="P168" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>479</v>
       </c>
       <c r="E169" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="F169" t="s">
-        <v>644</v>
+        <v>481</v>
       </c>
       <c r="G169" t="s">
-        <v>930</v>
+        <v>660</v>
       </c>
       <c r="H169" t="s">
-        <v>923</v>
+        <v>66</v>
       </c>
       <c r="I169" t="s">
         <v>697</v>
@@ -10202,36 +9619,36 @@
         <v>479</v>
       </c>
       <c r="M169" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="N169" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+        <v>482</v>
+      </c>
+      <c r="O169" t="s">
         <v>479</v>
       </c>
-      <c r="B170" t="s">
-        <v>646</v>
-      </c>
-      <c r="C170" t="s">
-        <v>647</v>
-      </c>
+      <c r="P169" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="D170" t="s">
         <v>479</v>
       </c>
       <c r="E170" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F170" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G170" t="s">
-        <v>659</v>
+        <v>930</v>
       </c>
       <c r="H170" t="s">
-        <v>662</v>
+        <v>923</v>
       </c>
       <c r="I170" t="s">
         <v>697</v>
@@ -10239,43 +9656,58 @@
       <c r="K170" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L170" t="s">
+        <v>479</v>
+      </c>
+      <c r="M170" t="s">
+        <v>643</v>
+      </c>
+      <c r="N170" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" t="s">
+        <v>479</v>
+      </c>
+      <c r="B171" t="s">
+        <v>646</v>
+      </c>
+      <c r="C171" t="s">
+        <v>647</v>
+      </c>
+      <c r="D171" t="s">
+        <v>479</v>
+      </c>
+      <c r="E171" t="s">
+        <v>648</v>
+      </c>
+      <c r="F171" t="s">
+        <v>649</v>
+      </c>
+      <c r="G171" t="s">
+        <v>659</v>
+      </c>
+      <c r="H171" t="s">
+        <v>662</v>
+      </c>
+      <c r="I171" t="s">
+        <v>697</v>
+      </c>
+      <c r="K171" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" t="s">
         <v>651</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>652</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>650</v>
       </c>
-      <c r="D171" t="s">
-        <v>651</v>
-      </c>
-      <c r="E171" t="s">
-        <v>653</v>
-      </c>
-      <c r="F171" t="s">
-        <v>654</v>
-      </c>
-      <c r="G171" t="s">
-        <v>658</v>
-      </c>
-      <c r="H171" t="s">
-        <v>663</v>
-      </c>
-      <c r="I171" t="s">
-        <v>683</v>
-      </c>
-      <c r="J171" t="s">
-        <v>655</v>
-      </c>
-      <c r="K171" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>651</v>
       </c>
@@ -10283,13 +9715,13 @@
         <v>653</v>
       </c>
       <c r="F172" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G172" t="s">
-        <v>927</v>
+        <v>658</v>
       </c>
       <c r="H172" t="s">
-        <v>928</v>
+        <v>663</v>
       </c>
       <c r="I172" t="s">
         <v>683</v>
@@ -10301,7 +9733,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17">
       <c r="D173" t="s">
         <v>651</v>
       </c>
@@ -10309,7 +9741,7 @@
         <v>653</v>
       </c>
       <c r="F173" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G173" t="s">
         <v>927</v>
@@ -10327,38 +9759,41 @@
         <v>658</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="174" spans="1:17">
+      <c r="D174" t="s">
+        <v>651</v>
+      </c>
+      <c r="E174" t="s">
+        <v>653</v>
+      </c>
+      <c r="F174" t="s">
+        <v>657</v>
+      </c>
+      <c r="G174" t="s">
+        <v>927</v>
+      </c>
+      <c r="H174" t="s">
+        <v>928</v>
+      </c>
+      <c r="I174" t="s">
+        <v>683</v>
+      </c>
+      <c r="J174" t="s">
+        <v>655</v>
+      </c>
+      <c r="K174" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" t="s">
         <v>671</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>672</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>673</v>
-      </c>
-      <c r="G174" t="s">
-        <v>931</v>
-      </c>
-      <c r="H174" t="s">
-        <v>932</v>
-      </c>
-      <c r="I174" t="s">
-        <v>693</v>
-      </c>
-      <c r="K174" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>674</v>
-      </c>
-      <c r="B175" t="s">
-        <v>675</v>
-      </c>
-      <c r="C175" t="s">
-        <v>676</v>
       </c>
       <c r="G175" t="s">
         <v>931</v>
@@ -10373,15 +9808,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17">
       <c r="A176" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B176" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C176" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G176" t="s">
         <v>931</v>
@@ -10389,92 +9824,83 @@
       <c r="H176" t="s">
         <v>932</v>
       </c>
+      <c r="I176" t="s">
+        <v>693</v>
+      </c>
       <c r="K176" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
+    <row r="177" spans="1:14">
+      <c r="A177" t="s">
+        <v>677</v>
+      </c>
+      <c r="B177" t="s">
+        <v>678</v>
+      </c>
+      <c r="C177" t="s">
+        <v>679</v>
+      </c>
+      <c r="G177" t="s">
+        <v>931</v>
+      </c>
+      <c r="H177" t="s">
+        <v>932</v>
+      </c>
+      <c r="K177" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="D178" t="s">
         <v>324</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E178" t="s">
         <v>349</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F178" t="s">
         <v>710</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G178" t="s">
         <v>660</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H178" t="s">
         <v>66</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I178" t="s">
         <v>703</v>
       </c>
-      <c r="K177" t="s">
-        <v>693</v>
-      </c>
-      <c r="L177" t="s">
+      <c r="K178" t="s">
+        <v>693</v>
+      </c>
+      <c r="L178" t="s">
         <v>324</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M178" t="s">
         <v>349</v>
       </c>
-      <c r="N177" t="s">
+      <c r="N178" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="179" spans="1:14">
+      <c r="A179" t="s">
         <v>609</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>730</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>731</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>609</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>732</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>733</v>
-      </c>
-      <c r="G178" t="s">
-        <v>661</v>
-      </c>
-      <c r="H178" t="s">
-        <v>662</v>
-      </c>
-      <c r="I178" t="s">
-        <v>681</v>
-      </c>
-      <c r="K178" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>734</v>
-      </c>
-      <c r="B179" t="s">
-        <v>735</v>
-      </c>
-      <c r="C179" t="s">
-        <v>736</v>
-      </c>
-      <c r="D179" t="s">
-        <v>734</v>
-      </c>
-      <c r="E179" t="s">
-        <v>737</v>
-      </c>
-      <c r="F179" t="s">
-        <v>933</v>
       </c>
       <c r="G179" t="s">
         <v>661</v>
@@ -10488,37 +9914,28 @@
       <c r="K179" t="s">
         <v>693</v>
       </c>
-      <c r="L179" t="s">
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" t="s">
         <v>734</v>
       </c>
-      <c r="M179" t="s">
+      <c r="B180" t="s">
+        <v>735</v>
+      </c>
+      <c r="C180" t="s">
+        <v>736</v>
+      </c>
+      <c r="D180" t="s">
+        <v>734</v>
+      </c>
+      <c r="E180" t="s">
         <v>737</v>
       </c>
-      <c r="N179" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>738</v>
-      </c>
-      <c r="B180" t="s">
-        <v>739</v>
-      </c>
-      <c r="C180" t="s">
-        <v>740</v>
-      </c>
-      <c r="D180" t="s">
-        <v>741</v>
-      </c>
-      <c r="E180" t="s">
-        <v>739</v>
-      </c>
       <c r="F180" t="s">
-        <v>742</v>
+        <v>933</v>
       </c>
       <c r="G180" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="H180" t="s">
         <v>662</v>
@@ -10529,80 +9946,98 @@
       <c r="K180" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L180" t="s">
+        <v>734</v>
+      </c>
+      <c r="M180" t="s">
+        <v>737</v>
+      </c>
+      <c r="N180" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B181" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C181" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D181" t="s">
         <v>741</v>
       </c>
       <c r="E181" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F181" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G181" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="H181" t="s">
         <v>662</v>
       </c>
       <c r="I181" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K181" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B182" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C182" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D182" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E182" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F182" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="G182" t="s">
-        <v>760</v>
+        <v>659</v>
       </c>
       <c r="H182" t="s">
         <v>662</v>
       </c>
       <c r="I182" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="K182" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14">
+      <c r="A183" t="s">
+        <v>751</v>
+      </c>
+      <c r="B183" t="s">
+        <v>752</v>
+      </c>
+      <c r="C183" t="s">
+        <v>753</v>
+      </c>
       <c r="D183" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E183" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F183" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G183" t="s">
         <v>760</v>
@@ -10611,59 +10046,56 @@
         <v>662</v>
       </c>
       <c r="I183" t="s">
+        <v>681</v>
+      </c>
+      <c r="K183" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="D184" t="s">
+        <v>756</v>
+      </c>
+      <c r="E184" t="s">
+        <v>757</v>
+      </c>
+      <c r="F184" t="s">
+        <v>758</v>
+      </c>
+      <c r="G184" t="s">
+        <v>760</v>
+      </c>
+      <c r="H184" t="s">
+        <v>662</v>
+      </c>
+      <c r="I184" t="s">
         <v>761</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J184" t="s">
         <v>762</v>
       </c>
-      <c r="K183" t="s">
+      <c r="K184" t="s">
         <v>760</v>
       </c>
-      <c r="L183" t="s">
+      <c r="L184" t="s">
         <v>756</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M184" t="s">
         <v>757</v>
       </c>
-      <c r="N183" t="s">
+      <c r="N184" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D184" t="s">
-        <v>763</v>
-      </c>
-      <c r="E184" t="s">
-        <v>764</v>
-      </c>
-      <c r="F184" t="s">
-        <v>765</v>
-      </c>
-      <c r="G184" t="s">
-        <v>905</v>
-      </c>
-      <c r="H184" t="s">
-        <v>66</v>
-      </c>
-      <c r="I184" t="s">
-        <v>682</v>
-      </c>
-      <c r="J184" t="s">
-        <v>768</v>
-      </c>
-      <c r="K184" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14">
       <c r="D185" t="s">
         <v>763</v>
       </c>
       <c r="E185" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F185" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G185" t="s">
         <v>905</v>
@@ -10681,129 +10113,123 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="186" spans="1:14">
+      <c r="D186" t="s">
+        <v>763</v>
+      </c>
+      <c r="E186" t="s">
+        <v>766</v>
+      </c>
+      <c r="F186" t="s">
+        <v>767</v>
+      </c>
+      <c r="G186" t="s">
+        <v>905</v>
+      </c>
+      <c r="H186" t="s">
+        <v>66</v>
+      </c>
+      <c r="I186" t="s">
+        <v>682</v>
+      </c>
+      <c r="J186" t="s">
+        <v>768</v>
+      </c>
+      <c r="K186" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" t="s">
         <v>770</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>771</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>772</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>770</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E187" t="s">
         <v>773</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F187" t="s">
         <v>774</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G187" t="s">
         <v>927</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H187" t="s">
         <v>928</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I187" t="s">
         <v>683</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J187" t="s">
         <v>775</v>
       </c>
-      <c r="K186" t="s">
+      <c r="K187" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D187" t="s">
+    <row r="188" spans="1:14">
+      <c r="D188" t="s">
         <v>479</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>780</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>781</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G188" t="s">
         <v>659</v>
-      </c>
-      <c r="H187" t="s">
-        <v>662</v>
-      </c>
-      <c r="I187" t="s">
-        <v>697</v>
-      </c>
-      <c r="K187" t="s">
-        <v>693</v>
-      </c>
-      <c r="L187" t="s">
-        <v>479</v>
-      </c>
-      <c r="M187" t="s">
-        <v>780</v>
-      </c>
-      <c r="N187" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>787</v>
-      </c>
-      <c r="B188" t="s">
-        <v>788</v>
-      </c>
-      <c r="C188" t="s">
-        <v>789</v>
-      </c>
-      <c r="D188" t="s">
-        <v>787</v>
-      </c>
-      <c r="E188" t="s">
-        <v>790</v>
-      </c>
-      <c r="F188" t="s">
-        <v>791</v>
-      </c>
-      <c r="G188" t="s">
-        <v>792</v>
       </c>
       <c r="H188" t="s">
         <v>662</v>
       </c>
       <c r="I188" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K188" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L188" t="s">
+        <v>479</v>
+      </c>
+      <c r="M188" t="s">
+        <v>780</v>
+      </c>
+      <c r="N188" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B189" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C189" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D189" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E189" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F189" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G189" t="s">
-        <v>660</v>
+        <v>792</v>
       </c>
       <c r="H189" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I189" t="s">
         <v>692</v>
@@ -10812,41 +10238,47 @@
         <v>693</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>571</v>
+        <v>793</v>
       </c>
       <c r="B190" t="s">
-        <v>572</v>
+        <v>794</v>
       </c>
       <c r="C190" t="s">
-        <v>573</v>
+        <v>795</v>
+      </c>
+      <c r="D190" t="s">
+        <v>793</v>
+      </c>
+      <c r="E190" t="s">
+        <v>796</v>
+      </c>
+      <c r="F190" t="s">
+        <v>797</v>
       </c>
       <c r="G190" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H190" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I190" t="s">
-        <v>702</v>
-      </c>
-      <c r="J190" t="s">
-        <v>588</v>
+        <v>692</v>
       </c>
       <c r="K190" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>571</v>
       </c>
       <c r="B191" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C191" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G191" t="s">
         <v>927</v>
@@ -10864,15 +10296,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
         <v>571</v>
       </c>
       <c r="B192" t="s">
-        <v>799</v>
+        <v>580</v>
       </c>
       <c r="C192" t="s">
-        <v>799</v>
+        <v>580</v>
       </c>
       <c r="G192" t="s">
         <v>927</v>
@@ -10890,15 +10322,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>571</v>
       </c>
       <c r="B193" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C193" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G193" t="s">
         <v>927</v>
@@ -10916,15 +10348,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>571</v>
       </c>
       <c r="B194" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C194" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G194" t="s">
         <v>927</v>
@@ -10942,15 +10374,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C195" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G195" t="s">
         <v>927</v>
@@ -10968,15 +10400,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>571</v>
       </c>
       <c r="B196" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C196" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G196" t="s">
         <v>927</v>
@@ -10994,15 +10426,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>571</v>
       </c>
       <c r="B197" t="s">
-        <v>574</v>
+        <v>803</v>
       </c>
       <c r="C197" t="s">
-        <v>575</v>
+        <v>803</v>
       </c>
       <c r="G197" t="s">
         <v>927</v>
@@ -11020,15 +10452,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>571</v>
       </c>
       <c r="B198" t="s">
-        <v>804</v>
+        <v>574</v>
       </c>
       <c r="C198" t="s">
-        <v>804</v>
+        <v>575</v>
       </c>
       <c r="G198" t="s">
         <v>927</v>
@@ -11046,15 +10478,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>571</v>
       </c>
       <c r="B199" t="s">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="C199" t="s">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="G199" t="s">
         <v>927</v>
@@ -11072,15 +10504,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>571</v>
       </c>
       <c r="B200" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C200" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G200" t="s">
         <v>927</v>
@@ -11098,15 +10530,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>571</v>
       </c>
       <c r="B201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C201" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G201" t="s">
         <v>927</v>
@@ -11124,15 +10556,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>571</v>
       </c>
       <c r="B202" t="s">
-        <v>805</v>
+        <v>583</v>
       </c>
       <c r="C202" t="s">
-        <v>805</v>
+        <v>583</v>
       </c>
       <c r="G202" t="s">
         <v>927</v>
@@ -11150,15 +10582,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>571</v>
       </c>
       <c r="B203" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C203" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G203" t="s">
         <v>927</v>
@@ -11176,15 +10608,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>571</v>
       </c>
       <c r="B204" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C204" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G204" t="s">
         <v>927</v>
@@ -11202,15 +10634,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>571</v>
       </c>
       <c r="B205" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C205" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="G205" t="s">
         <v>927</v>
@@ -11228,15 +10660,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>571</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>798</v>
       </c>
       <c r="C206" t="s">
-        <v>584</v>
+        <v>798</v>
       </c>
       <c r="G206" t="s">
         <v>927</v>
@@ -11254,15 +10686,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>571</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C207" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G207" t="s">
         <v>927</v>
@@ -11280,24 +10712,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>571</v>
       </c>
       <c r="B208" t="s">
-        <v>837</v>
+        <v>585</v>
       </c>
       <c r="C208" t="s">
-        <v>838</v>
-      </c>
-      <c r="D208" t="s">
-        <v>571</v>
-      </c>
-      <c r="E208" t="s">
-        <v>886</v>
-      </c>
-      <c r="F208" t="s">
-        <v>887</v>
+        <v>585</v>
       </c>
       <c r="G208" t="s">
         <v>927</v>
@@ -11315,39 +10738,42 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>571</v>
       </c>
       <c r="B209" t="s">
-        <v>576</v>
+        <v>837</v>
       </c>
       <c r="C209" t="s">
-        <v>577</v>
+        <v>838</v>
       </c>
       <c r="D209" t="s">
         <v>571</v>
       </c>
       <c r="E209" t="s">
-        <v>578</v>
+        <v>886</v>
       </c>
       <c r="F209" t="s">
-        <v>579</v>
+        <v>887</v>
       </c>
       <c r="G209" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H209" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I209" t="s">
-        <v>692</v>
+        <v>702</v>
+      </c>
+      <c r="J209" t="s">
+        <v>588</v>
       </c>
       <c r="K209" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>571</v>
       </c>
@@ -11355,7 +10781,7 @@
         <v>576</v>
       </c>
       <c r="C210" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D210" t="s">
         <v>571</v>
@@ -11364,7 +10790,7 @@
         <v>578</v>
       </c>
       <c r="F210" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G210" t="s">
         <v>660</v>
@@ -11379,15 +10805,24 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11">
+      <c r="A211" t="s">
+        <v>571</v>
+      </c>
+      <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="C211" t="s">
+        <v>586</v>
+      </c>
       <c r="D211" t="s">
-        <v>124</v>
+        <v>571</v>
       </c>
       <c r="E211" t="s">
-        <v>808</v>
+        <v>578</v>
       </c>
       <c r="F211" t="s">
-        <v>809</v>
+        <v>587</v>
       </c>
       <c r="G211" t="s">
         <v>660</v>
@@ -11396,128 +10831,128 @@
         <v>66</v>
       </c>
       <c r="I211" t="s">
+        <v>692</v>
+      </c>
+      <c r="K211" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="D212" t="s">
+        <v>124</v>
+      </c>
+      <c r="E212" t="s">
+        <v>808</v>
+      </c>
+      <c r="F212" t="s">
+        <v>809</v>
+      </c>
+      <c r="G212" t="s">
+        <v>660</v>
+      </c>
+      <c r="H212" t="s">
+        <v>66</v>
+      </c>
+      <c r="I212" t="s">
         <v>684</v>
       </c>
-      <c r="J211" t="s">
+      <c r="J212" t="s">
         <v>142</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K212" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="213" spans="1:11">
+      <c r="A213" t="s">
         <v>589</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>810</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>811</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G213" t="s">
         <v>927</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H213" t="s">
         <v>928</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I213" t="s">
         <v>692</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J213" t="s">
         <v>812</v>
       </c>
-      <c r="K212" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="K213" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
         <v>813</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>814</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>815</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
         <v>718</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E214" t="s">
         <v>814</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F214" t="s">
         <v>816</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G214" t="s">
         <v>818</v>
-      </c>
-      <c r="H213" t="s">
-        <v>662</v>
-      </c>
-      <c r="I213" t="s">
-        <v>817</v>
-      </c>
-      <c r="K213" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D214" t="s">
-        <v>248</v>
-      </c>
-      <c r="E214" t="s">
-        <v>251</v>
-      </c>
-      <c r="F214" t="s">
-        <v>819</v>
-      </c>
-      <c r="G214" t="s">
-        <v>661</v>
       </c>
       <c r="H214" t="s">
         <v>662</v>
       </c>
       <c r="I214" t="s">
-        <v>681</v>
+        <v>817</v>
       </c>
       <c r="K214" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>738</v>
-      </c>
-      <c r="B215" t="s">
-        <v>820</v>
-      </c>
-      <c r="C215" t="s">
-        <v>821</v>
+    <row r="215" spans="1:11">
+      <c r="D215" t="s">
+        <v>248</v>
+      </c>
+      <c r="E215" t="s">
+        <v>251</v>
+      </c>
+      <c r="F215" t="s">
+        <v>819</v>
       </c>
       <c r="G215" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="H215" t="s">
         <v>662</v>
       </c>
       <c r="I215" t="s">
-        <v>822</v>
+        <v>681</v>
       </c>
       <c r="K215" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>628</v>
+        <v>738</v>
       </c>
       <c r="B216" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C216" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G216" t="s">
         <v>743</v>
@@ -11526,44 +10961,44 @@
         <v>662</v>
       </c>
       <c r="I216" t="s">
+        <v>822</v>
+      </c>
+      <c r="K216" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" t="s">
+        <v>823</v>
+      </c>
+      <c r="C217" t="s">
+        <v>824</v>
+      </c>
+      <c r="G217" t="s">
+        <v>743</v>
+      </c>
+      <c r="H217" t="s">
+        <v>662</v>
+      </c>
+      <c r="I217" t="s">
         <v>884</v>
       </c>
-      <c r="K216" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D217" t="s">
+      <c r="K217" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="D218" t="s">
         <v>825</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E218" t="s">
         <v>826</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F218" t="s">
         <v>827</v>
-      </c>
-      <c r="G217" t="s">
-        <v>660</v>
-      </c>
-      <c r="H217" t="s">
-        <v>66</v>
-      </c>
-      <c r="I217" t="s">
-        <v>681</v>
-      </c>
-      <c r="K217" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D218" t="s">
-        <v>828</v>
-      </c>
-      <c r="E218" t="s">
-        <v>829</v>
-      </c>
-      <c r="F218" t="s">
-        <v>830</v>
       </c>
       <c r="G218" t="s">
         <v>660</v>
@@ -11572,21 +11007,21 @@
         <v>66</v>
       </c>
       <c r="I218" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K218" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11">
       <c r="D219" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E219" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F219" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G219" t="s">
         <v>660</v>
@@ -11595,102 +11030,93 @@
         <v>66</v>
       </c>
       <c r="I219" t="s">
+        <v>683</v>
+      </c>
+      <c r="K219" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="D220" t="s">
+        <v>831</v>
+      </c>
+      <c r="E220" t="s">
+        <v>832</v>
+      </c>
+      <c r="F220" t="s">
+        <v>833</v>
+      </c>
+      <c r="G220" t="s">
+        <v>660</v>
+      </c>
+      <c r="H220" t="s">
+        <v>66</v>
+      </c>
+      <c r="I220" t="s">
         <v>687</v>
       </c>
-      <c r="K219" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="K220" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" t="s">
         <v>306</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>307</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>834</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>658</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H221" t="s">
         <v>663</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I221" t="s">
         <v>683</v>
       </c>
-      <c r="K220" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D221" t="s">
+      <c r="K221" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="D222" t="s">
         <v>469</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E222" t="s">
         <v>472</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" t="s">
         <v>835</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G222" t="s">
         <v>906</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H222" t="s">
         <v>907</v>
-      </c>
-      <c r="I221" t="s">
-        <v>697</v>
-      </c>
-      <c r="J221" t="s">
-        <v>898</v>
-      </c>
-      <c r="K221" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D222" t="s">
-        <v>462</v>
-      </c>
-      <c r="E222" t="s">
-        <v>465</v>
-      </c>
-      <c r="F222" t="s">
-        <v>836</v>
-      </c>
-      <c r="G222" t="s">
-        <v>660</v>
-      </c>
-      <c r="H222" t="s">
-        <v>66</v>
       </c>
       <c r="I222" t="s">
         <v>697</v>
       </c>
+      <c r="J222" t="s">
+        <v>898</v>
+      </c>
       <c r="K222" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>841</v>
-      </c>
-      <c r="B223" t="s">
-        <v>842</v>
-      </c>
-      <c r="C223" t="s">
-        <v>843</v>
-      </c>
+    <row r="223" spans="1:11">
       <c r="D223" t="s">
-        <v>841</v>
+        <v>462</v>
       </c>
       <c r="E223" t="s">
-        <v>842</v>
+        <v>465</v>
       </c>
       <c r="F223" t="s">
-        <v>894</v>
+        <v>836</v>
       </c>
       <c r="G223" t="s">
         <v>660</v>
@@ -11699,67 +11125,76 @@
         <v>66</v>
       </c>
       <c r="I223" t="s">
+        <v>697</v>
+      </c>
+      <c r="K223" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224" t="s">
+        <v>841</v>
+      </c>
+      <c r="B224" t="s">
+        <v>842</v>
+      </c>
+      <c r="C224" t="s">
+        <v>843</v>
+      </c>
+      <c r="D224" t="s">
+        <v>841</v>
+      </c>
+      <c r="E224" t="s">
+        <v>842</v>
+      </c>
+      <c r="F224" t="s">
+        <v>894</v>
+      </c>
+      <c r="G224" t="s">
+        <v>660</v>
+      </c>
+      <c r="H224" t="s">
+        <v>66</v>
+      </c>
+      <c r="I224" t="s">
         <v>885</v>
       </c>
-      <c r="K223" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="K224" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225" t="s">
         <v>844</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>845</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>846</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G225" t="s">
         <v>658</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H225" t="s">
         <v>663</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I225" t="s">
         <v>701</v>
       </c>
-      <c r="K224" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D225" t="s">
+      <c r="K225" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="D226" t="s">
         <v>847</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E226" t="s">
         <v>848</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" t="s">
         <v>849</v>
-      </c>
-      <c r="G225" t="s">
-        <v>660</v>
-      </c>
-      <c r="H225" t="s">
-        <v>66</v>
-      </c>
-      <c r="I225" t="s">
-        <v>689</v>
-      </c>
-      <c r="K225" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D226" t="s">
-        <v>161</v>
-      </c>
-      <c r="E226" t="s">
-        <v>850</v>
-      </c>
-      <c r="F226" t="s">
-        <v>851</v>
       </c>
       <c r="G226" t="s">
         <v>660</v>
@@ -11768,21 +11203,21 @@
         <v>66</v>
       </c>
       <c r="I226" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="K226" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11">
       <c r="D227" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="E227" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F227" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G227" t="s">
         <v>660</v>
@@ -11791,27 +11226,27 @@
         <v>66</v>
       </c>
       <c r="I227" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K227" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11">
       <c r="D228" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E228" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F228" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G228" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H228" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I228" t="s">
         <v>681</v>
@@ -11820,21 +11255,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11">
       <c r="D229" t="s">
         <v>324</v>
       </c>
       <c r="E229" t="s">
-        <v>341</v>
+        <v>854</v>
       </c>
       <c r="F229" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G229" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H229" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I229" t="s">
         <v>681</v>
@@ -11843,15 +11278,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11">
       <c r="D230" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="E230" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="F230" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G230" t="s">
         <v>660</v>
@@ -11866,38 +11301,38 @@
         <v>693</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11">
       <c r="D231" t="s">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="E231" t="s">
-        <v>858</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G231" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H231" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I231" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K231" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11">
       <c r="D232" t="s">
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F232" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G232" t="s">
         <v>658</v>
@@ -11906,87 +11341,87 @@
         <v>663</v>
       </c>
       <c r="I232" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K232" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11">
       <c r="D233" t="s">
         <v>46</v>
       </c>
       <c r="E233" t="s">
+        <v>860</v>
+      </c>
+      <c r="F233" t="s">
+        <v>861</v>
+      </c>
+      <c r="G233" t="s">
+        <v>658</v>
+      </c>
+      <c r="H233" t="s">
+        <v>663</v>
+      </c>
+      <c r="I233" t="s">
+        <v>681</v>
+      </c>
+      <c r="K233" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="D234" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234" t="s">
         <v>430</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F234" t="s">
         <v>862</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G234" t="s">
         <v>660</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H234" t="s">
         <v>66</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I234" t="s">
         <v>684</v>
       </c>
-      <c r="K233" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D234" t="s">
+      <c r="K234" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="D235" t="s">
         <v>828</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E235" t="s">
         <v>863</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F235" t="s">
         <v>864</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H235" t="s">
         <v>932</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I235" t="s">
         <v>761</v>
       </c>
-      <c r="K234" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D235" t="s">
-        <v>712</v>
-      </c>
-      <c r="E235" t="s">
-        <v>865</v>
-      </c>
-      <c r="F235" t="s">
-        <v>866</v>
-      </c>
-      <c r="G235" t="s">
-        <v>658</v>
-      </c>
-      <c r="H235" t="s">
-        <v>663</v>
-      </c>
-      <c r="I235" t="s">
-        <v>689</v>
-      </c>
       <c r="K235" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11">
       <c r="D236" t="s">
         <v>712</v>
       </c>
       <c r="E236" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F236" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G236" t="s">
         <v>658</v>
@@ -12001,90 +11436,90 @@
         <v>693</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="237" spans="1:11">
+      <c r="D237" t="s">
+        <v>712</v>
+      </c>
+      <c r="E237" t="s">
+        <v>867</v>
+      </c>
+      <c r="F237" t="s">
+        <v>868</v>
+      </c>
+      <c r="G237" t="s">
+        <v>658</v>
+      </c>
+      <c r="H237" t="s">
+        <v>663</v>
+      </c>
+      <c r="I237" t="s">
+        <v>689</v>
+      </c>
+      <c r="K237" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238" t="s">
         <v>231</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>869</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>870</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G238" t="s">
         <v>743</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H238" t="s">
         <v>662</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I238" t="s">
         <v>884</v>
       </c>
-      <c r="K237" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+      <c r="K238" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239" t="s">
         <v>763</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>871</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>872</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G239" t="s">
         <v>658</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H239" t="s">
         <v>663</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I239" t="s">
         <v>691</v>
       </c>
-      <c r="K238" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D239" t="s">
+      <c r="K239" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="D240" t="s">
         <v>508</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E240" t="s">
         <v>516</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F240" t="s">
         <v>873</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G240" t="s">
         <v>660</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H240" t="s">
         <v>66</v>
-      </c>
-      <c r="I239" t="s">
-        <v>692</v>
-      </c>
-      <c r="K239" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D240" t="s">
-        <v>718</v>
-      </c>
-      <c r="E240" t="s">
-        <v>874</v>
-      </c>
-      <c r="F240" t="s">
-        <v>875</v>
-      </c>
-      <c r="G240" t="s">
-        <v>658</v>
-      </c>
-      <c r="H240" t="s">
-        <v>663</v>
       </c>
       <c r="I240" t="s">
         <v>692</v>
@@ -12093,21 +11528,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="241" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:11">
       <c r="D241" t="s">
         <v>718</v>
       </c>
       <c r="E241" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F241" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G241" t="s">
-        <v>818</v>
+        <v>658</v>
       </c>
       <c r="H241" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I241" t="s">
         <v>692</v>
@@ -12116,21 +11551,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="242" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:11">
       <c r="D242" t="s">
         <v>718</v>
       </c>
       <c r="E242" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F242" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G242" t="s">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="H242" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I242" t="s">
         <v>692</v>
@@ -12139,15 +11574,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:11">
       <c r="D243" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
       <c r="E243" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F243" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G243" t="s">
         <v>658</v>
@@ -12156,21 +11591,21 @@
         <v>663</v>
       </c>
       <c r="I243" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="K243" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:11">
       <c r="D244" t="s">
-        <v>457</v>
+        <v>777</v>
       </c>
       <c r="E244" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F244" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G244" t="s">
         <v>658</v>
@@ -12185,7 +11620,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="245" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:11">
       <c r="D245" t="s">
         <v>895</v>
       </c>
@@ -12205,7 +11640,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="246" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:11">
       <c r="D246" t="s">
         <v>839</v>
       </c>
@@ -12228,7 +11663,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="247" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:11">
       <c r="D247" t="s">
         <v>902</v>
       </c>
@@ -12248,8 +11683,71 @@
         <v>885</v>
       </c>
     </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G260" t="s">
+    <row r="248" spans="4:11">
+      <c r="D248" t="s">
+        <v>674</v>
+      </c>
+      <c r="E248" t="s">
+        <v>935</v>
+      </c>
+      <c r="F248" t="s">
+        <v>936</v>
+      </c>
+      <c r="G248" t="s">
+        <v>931</v>
+      </c>
+      <c r="H248" t="s">
+        <v>937</v>
+      </c>
+      <c r="I248" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="249" spans="4:11">
+      <c r="D249" t="s">
+        <v>939</v>
+      </c>
+      <c r="E249" t="s">
+        <v>940</v>
+      </c>
+      <c r="F249" t="s">
+        <v>941</v>
+      </c>
+      <c r="G249" t="s">
+        <v>65</v>
+      </c>
+      <c r="H249" t="s">
+        <v>942</v>
+      </c>
+      <c r="I249" t="s">
+        <v>66</v>
+      </c>
+      <c r="J249" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="250" spans="4:11" ht="16.5">
+      <c r="D250" t="s">
+        <v>945</v>
+      </c>
+      <c r="E250" t="s">
+        <v>946</v>
+      </c>
+      <c r="F250" t="s">
+        <v>947</v>
+      </c>
+      <c r="G250" t="s">
+        <v>953</v>
+      </c>
+      <c r="H250" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="I250" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" spans="7:7">
+      <c r="G259" t="s">
         <v>934</v>
       </c>
     </row>
@@ -12257,64 +11755,72 @@
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576 F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="22" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="2" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D372962-EEC2-4E99-8FD5-8EA457ED61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537B70C-0858-42A3-BCD7-7C94D6245EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="956">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2916,6 +2916,13 @@
   </si>
   <si>
     <t>赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2546VB-AB-DA-00CK-2546</t>
+  </si>
+  <si>
+    <t>NA.SC4015SO-N-CE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3771,11 +3778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W259"/>
+  <dimension ref="A1:W258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I257" sqref="I257"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6168,39 +6175,33 @@
         <v>681</v>
       </c>
       <c r="J68" t="s">
-        <v>259</v>
+        <v>955</v>
       </c>
       <c r="K68" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" t="s">
-        <v>260</v>
-      </c>
-      <c r="B69" t="s">
-        <v>261</v>
-      </c>
-      <c r="C69" t="s">
-        <v>917</v>
-      </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>819</v>
       </c>
       <c r="G69" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H69" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I69" t="s">
-        <v>692</v>
+        <v>681</v>
+      </c>
+      <c r="J69" t="s">
+        <v>955</v>
       </c>
       <c r="K69" t="s">
         <v>693</v>
@@ -6208,22 +6209,22 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>917</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F70" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G70" t="s">
         <v>660</v>
@@ -6232,13 +6233,10 @@
         <v>66</v>
       </c>
       <c r="I70" t="s">
-        <v>687</v>
-      </c>
-      <c r="J70" t="s">
-        <v>267</v>
+        <v>692</v>
       </c>
       <c r="K70" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -6249,7 +6247,7 @@
         <v>265</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D71" t="s">
         <v>264</v>
@@ -6258,7 +6256,7 @@
         <v>266</v>
       </c>
       <c r="F71" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G71" t="s">
         <v>660</v>
@@ -6284,7 +6282,7 @@
         <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s">
         <v>264</v>
@@ -6293,7 +6291,7 @@
         <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G72" t="s">
         <v>660</v>
@@ -6319,7 +6317,7 @@
         <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
         <v>264</v>
@@ -6328,7 +6326,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G73" t="s">
         <v>660</v>
@@ -6354,7 +6352,7 @@
         <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D74" t="s">
         <v>264</v>
@@ -6363,7 +6361,7 @@
         <v>266</v>
       </c>
       <c r="F74" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G74" t="s">
         <v>660</v>
@@ -6382,14 +6380,23 @@
       </c>
     </row>
     <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" t="s">
+        <v>265</v>
+      </c>
+      <c r="C75" t="s">
+        <v>271</v>
+      </c>
       <c r="D75" t="s">
         <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>708</v>
+        <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>709</v>
+        <v>272</v>
       </c>
       <c r="G75" t="s">
         <v>660</v>
@@ -6408,35 +6415,29 @@
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" t="s">
-        <v>278</v>
-      </c>
-      <c r="B76" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" t="s">
-        <v>284</v>
-      </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
+        <v>708</v>
       </c>
       <c r="F76" t="s">
-        <v>286</v>
+        <v>709</v>
       </c>
       <c r="G76" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H76" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I76" t="s">
-        <v>681</v>
+        <v>687</v>
+      </c>
+      <c r="J76" t="s">
+        <v>267</v>
       </c>
       <c r="K76" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -6444,86 +6445,77 @@
         <v>278</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
         <v>278</v>
       </c>
       <c r="E77" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" t="s">
+        <v>286</v>
+      </c>
+      <c r="G77" t="s">
+        <v>661</v>
+      </c>
+      <c r="H77" t="s">
+        <v>662</v>
+      </c>
+      <c r="I77" t="s">
+        <v>681</v>
+      </c>
+      <c r="K77" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" t="s">
+        <v>280</v>
+      </c>
+      <c r="D78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" t="s">
         <v>287</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>918</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" t="s">
         <v>660</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>66</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I78" t="s">
         <v>684</v>
       </c>
-      <c r="K77" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="D78" t="s">
+      <c r="K78" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="D79" t="s">
         <v>288</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>289</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>665</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>661</v>
-      </c>
-      <c r="H78" t="s">
-        <v>662</v>
-      </c>
-      <c r="I78" t="s">
-        <v>681</v>
-      </c>
-      <c r="K78" t="s">
-        <v>693</v>
-      </c>
-      <c r="L78" t="s">
-        <v>288</v>
-      </c>
-      <c r="M78" t="s">
-        <v>289</v>
-      </c>
-      <c r="N78" t="s">
-        <v>290</v>
-      </c>
-      <c r="O78" t="s">
-        <v>288</v>
-      </c>
-      <c r="P78" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" t="s">
-        <v>293</v>
-      </c>
-      <c r="C79" t="s">
-        <v>294</v>
-      </c>
-      <c r="G79" t="s">
-        <v>760</v>
       </c>
       <c r="H79" t="s">
         <v>662</v>
@@ -6531,19 +6523,40 @@
       <c r="I79" t="s">
         <v>681</v>
       </c>
+      <c r="K79" t="s">
+        <v>693</v>
+      </c>
+      <c r="L79" t="s">
+        <v>288</v>
+      </c>
+      <c r="M79" t="s">
+        <v>289</v>
+      </c>
+      <c r="N79" t="s">
+        <v>290</v>
+      </c>
+      <c r="O79" t="s">
+        <v>288</v>
+      </c>
+      <c r="P79" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="D80" t="s">
+      <c r="A80" t="s">
         <v>288</v>
       </c>
-      <c r="E80" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" t="s">
-        <v>292</v>
+      <c r="B80" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" t="s">
+        <v>294</v>
       </c>
       <c r="G80" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="H80" t="s">
         <v>662</v>
@@ -6551,49 +6564,37 @@
       <c r="I80" t="s">
         <v>681</v>
       </c>
-      <c r="K80" t="s">
-        <v>693</v>
-      </c>
-      <c r="L80" t="s">
-        <v>288</v>
-      </c>
-      <c r="M80" t="s">
-        <v>289</v>
-      </c>
-      <c r="N80" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" t="s">
-        <v>288</v>
-      </c>
-      <c r="B81" t="s">
-        <v>296</v>
-      </c>
-      <c r="C81" t="s">
-        <v>297</v>
-      </c>
       <c r="D81" t="s">
         <v>288</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F81" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G81" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I81" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K81" t="s">
         <v>693</v>
+      </c>
+      <c r="L81" t="s">
+        <v>288</v>
+      </c>
+      <c r="M81" t="s">
+        <v>289</v>
+      </c>
+      <c r="N81" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -6604,7 +6605,7 @@
         <v>296</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
         <v>288</v>
@@ -6613,7 +6614,7 @@
         <v>298</v>
       </c>
       <c r="F82" t="s">
-        <v>919</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
         <v>660</v>
@@ -6624,72 +6625,72 @@
       <c r="I82" t="s">
         <v>687</v>
       </c>
-      <c r="J82" t="s">
-        <v>299</v>
-      </c>
       <c r="K82" t="s">
         <v>693</v>
-      </c>
-      <c r="L82" t="s">
-        <v>288</v>
-      </c>
-      <c r="M82" t="s">
-        <v>298</v>
-      </c>
-      <c r="N82" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>305</v>
+        <v>919</v>
       </c>
       <c r="G83" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H83" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I83" t="s">
-        <v>683</v>
+        <v>687</v>
+      </c>
+      <c r="J83" t="s">
+        <v>299</v>
       </c>
       <c r="K83" t="s">
         <v>693</v>
+      </c>
+      <c r="L83" t="s">
+        <v>288</v>
+      </c>
+      <c r="M83" t="s">
+        <v>298</v>
+      </c>
+      <c r="N83" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G84" t="s">
         <v>658</v>
@@ -6706,28 +6707,28 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D85" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>920</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H85" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I85" t="s">
         <v>683</v>
@@ -10922,23 +10923,23 @@
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="D215" t="s">
-        <v>248</v>
-      </c>
-      <c r="E215" t="s">
-        <v>251</v>
-      </c>
-      <c r="F215" t="s">
-        <v>819</v>
+      <c r="A215" t="s">
+        <v>738</v>
+      </c>
+      <c r="B215" t="s">
+        <v>820</v>
+      </c>
+      <c r="C215" t="s">
+        <v>821</v>
       </c>
       <c r="G215" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="H215" t="s">
         <v>662</v>
       </c>
       <c r="I215" t="s">
-        <v>681</v>
+        <v>822</v>
       </c>
       <c r="K215" t="s">
         <v>693</v>
@@ -10946,13 +10947,13 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>738</v>
+        <v>628</v>
       </c>
       <c r="B216" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C216" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="G216" t="s">
         <v>743</v>
@@ -10961,30 +10962,30 @@
         <v>662</v>
       </c>
       <c r="I216" t="s">
-        <v>822</v>
+        <v>884</v>
       </c>
       <c r="K216" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" t="s">
-        <v>628</v>
-      </c>
-      <c r="B217" t="s">
-        <v>823</v>
-      </c>
-      <c r="C217" t="s">
-        <v>824</v>
+      <c r="D217" t="s">
+        <v>825</v>
+      </c>
+      <c r="E217" t="s">
+        <v>826</v>
+      </c>
+      <c r="F217" t="s">
+        <v>827</v>
       </c>
       <c r="G217" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="H217" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I217" t="s">
-        <v>884</v>
+        <v>681</v>
       </c>
       <c r="K217" t="s">
         <v>693</v>
@@ -10992,13 +10993,13 @@
     </row>
     <row r="218" spans="1:11">
       <c r="D218" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E218" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F218" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G218" t="s">
         <v>660</v>
@@ -11007,7 +11008,7 @@
         <v>66</v>
       </c>
       <c r="I218" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K218" t="s">
         <v>693</v>
@@ -11015,13 +11016,13 @@
     </row>
     <row r="219" spans="1:11">
       <c r="D219" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E219" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="F219" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="G219" t="s">
         <v>660</v>
@@ -11030,53 +11031,56 @@
         <v>66</v>
       </c>
       <c r="I219" t="s">
+        <v>687</v>
+      </c>
+      <c r="K219" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
+        <v>306</v>
+      </c>
+      <c r="B220" t="s">
+        <v>307</v>
+      </c>
+      <c r="C220" t="s">
+        <v>834</v>
+      </c>
+      <c r="G220" t="s">
+        <v>658</v>
+      </c>
+      <c r="H220" t="s">
+        <v>663</v>
+      </c>
+      <c r="I220" t="s">
         <v>683</v>
       </c>
-      <c r="K219" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="D220" t="s">
-        <v>831</v>
-      </c>
-      <c r="E220" t="s">
-        <v>832</v>
-      </c>
-      <c r="F220" t="s">
-        <v>833</v>
-      </c>
-      <c r="G220" t="s">
-        <v>660</v>
-      </c>
-      <c r="H220" t="s">
-        <v>66</v>
-      </c>
-      <c r="I220" t="s">
-        <v>687</v>
-      </c>
       <c r="K220" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" t="s">
-        <v>306</v>
-      </c>
-      <c r="B221" t="s">
-        <v>307</v>
-      </c>
-      <c r="C221" t="s">
-        <v>834</v>
+      <c r="D221" t="s">
+        <v>469</v>
+      </c>
+      <c r="E221" t="s">
+        <v>472</v>
+      </c>
+      <c r="F221" t="s">
+        <v>835</v>
       </c>
       <c r="G221" t="s">
-        <v>658</v>
+        <v>906</v>
       </c>
       <c r="H221" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
       <c r="I221" t="s">
-        <v>683</v>
+        <v>697</v>
+      </c>
+      <c r="J221" t="s">
+        <v>898</v>
       </c>
       <c r="K221" t="s">
         <v>693</v>
@@ -11084,39 +11088,45 @@
     </row>
     <row r="222" spans="1:11">
       <c r="D222" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E222" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F222" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G222" t="s">
-        <v>906</v>
+        <v>660</v>
       </c>
       <c r="H222" t="s">
-        <v>907</v>
+        <v>66</v>
       </c>
       <c r="I222" t="s">
         <v>697</v>
       </c>
-      <c r="J222" t="s">
-        <v>898</v>
-      </c>
       <c r="K222" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="223" spans="1:11">
+      <c r="A223" t="s">
+        <v>841</v>
+      </c>
+      <c r="B223" t="s">
+        <v>842</v>
+      </c>
+      <c r="C223" t="s">
+        <v>843</v>
+      </c>
       <c r="D223" t="s">
-        <v>462</v>
+        <v>841</v>
       </c>
       <c r="E223" t="s">
-        <v>465</v>
+        <v>842</v>
       </c>
       <c r="F223" t="s">
-        <v>836</v>
+        <v>894</v>
       </c>
       <c r="G223" t="s">
         <v>660</v>
@@ -11125,7 +11135,7 @@
         <v>66</v>
       </c>
       <c r="I223" t="s">
-        <v>697</v>
+        <v>885</v>
       </c>
       <c r="K223" t="s">
         <v>693</v>
@@ -11133,54 +11143,45 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B224" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C224" t="s">
-        <v>843</v>
-      </c>
-      <c r="D224" t="s">
-        <v>841</v>
-      </c>
-      <c r="E224" t="s">
-        <v>842</v>
-      </c>
-      <c r="F224" t="s">
-        <v>894</v>
+        <v>846</v>
       </c>
       <c r="G224" t="s">
+        <v>658</v>
+      </c>
+      <c r="H224" t="s">
+        <v>663</v>
+      </c>
+      <c r="I224" t="s">
+        <v>701</v>
+      </c>
+      <c r="K224" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="D225" t="s">
+        <v>847</v>
+      </c>
+      <c r="E225" t="s">
+        <v>848</v>
+      </c>
+      <c r="F225" t="s">
+        <v>849</v>
+      </c>
+      <c r="G225" t="s">
         <v>660</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H225" t="s">
         <v>66</v>
       </c>
-      <c r="I224" t="s">
-        <v>885</v>
-      </c>
-      <c r="K224" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" t="s">
-        <v>844</v>
-      </c>
-      <c r="B225" t="s">
-        <v>845</v>
-      </c>
-      <c r="C225" t="s">
-        <v>846</v>
-      </c>
-      <c r="G225" t="s">
-        <v>658</v>
-      </c>
-      <c r="H225" t="s">
-        <v>663</v>
-      </c>
       <c r="I225" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="K225" t="s">
         <v>693</v>
@@ -11188,13 +11189,13 @@
     </row>
     <row r="226" spans="1:11">
       <c r="D226" t="s">
-        <v>847</v>
+        <v>161</v>
       </c>
       <c r="E226" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F226" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G226" t="s">
         <v>660</v>
@@ -11203,7 +11204,7 @@
         <v>66</v>
       </c>
       <c r="I226" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="K226" t="s">
         <v>693</v>
@@ -11211,13 +11212,13 @@
     </row>
     <row r="227" spans="1:11">
       <c r="D227" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="E227" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F227" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G227" t="s">
         <v>660</v>
@@ -11226,7 +11227,7 @@
         <v>66</v>
       </c>
       <c r="I227" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="K227" t="s">
         <v>693</v>
@@ -11234,19 +11235,19 @@
     </row>
     <row r="228" spans="1:11">
       <c r="D228" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="E228" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F228" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G228" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H228" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I228" t="s">
         <v>681</v>
@@ -11260,16 +11261,16 @@
         <v>324</v>
       </c>
       <c r="E229" t="s">
-        <v>854</v>
+        <v>341</v>
       </c>
       <c r="F229" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G229" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H229" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I229" t="s">
         <v>681</v>
@@ -11280,13 +11281,13 @@
     </row>
     <row r="230" spans="1:11">
       <c r="D230" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="E230" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="F230" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G230" t="s">
         <v>660</v>
@@ -11303,22 +11304,22 @@
     </row>
     <row r="231" spans="1:11">
       <c r="D231" t="s">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="E231" t="s">
-        <v>417</v>
+        <v>858</v>
       </c>
       <c r="F231" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G231" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H231" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I231" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K231" t="s">
         <v>693</v>
@@ -11329,10 +11330,10 @@
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F232" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G232" t="s">
         <v>658</v>
@@ -11341,7 +11342,7 @@
         <v>663</v>
       </c>
       <c r="I232" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K232" t="s">
         <v>693</v>
@@ -11352,19 +11353,19 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>860</v>
+        <v>430</v>
       </c>
       <c r="F233" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G233" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H233" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I233" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K233" t="s">
         <v>693</v>
@@ -11372,22 +11373,19 @@
     </row>
     <row r="234" spans="1:11">
       <c r="D234" t="s">
-        <v>46</v>
+        <v>828</v>
       </c>
       <c r="E234" t="s">
-        <v>430</v>
+        <v>863</v>
       </c>
       <c r="F234" t="s">
-        <v>862</v>
-      </c>
-      <c r="G234" t="s">
-        <v>660</v>
+        <v>864</v>
       </c>
       <c r="H234" t="s">
-        <v>66</v>
+        <v>932</v>
       </c>
       <c r="I234" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="K234" t="s">
         <v>693</v>
@@ -11395,19 +11393,22 @@
     </row>
     <row r="235" spans="1:11">
       <c r="D235" t="s">
-        <v>828</v>
+        <v>712</v>
       </c>
       <c r="E235" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F235" t="s">
-        <v>864</v>
+        <v>866</v>
+      </c>
+      <c r="G235" t="s">
+        <v>658</v>
       </c>
       <c r="H235" t="s">
-        <v>932</v>
+        <v>663</v>
       </c>
       <c r="I235" t="s">
-        <v>761</v>
+        <v>689</v>
       </c>
       <c r="K235" t="s">
         <v>693</v>
@@ -11418,10 +11419,10 @@
         <v>712</v>
       </c>
       <c r="E236" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F236" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="G236" t="s">
         <v>658</v>
@@ -11437,23 +11438,23 @@
       </c>
     </row>
     <row r="237" spans="1:11">
-      <c r="D237" t="s">
-        <v>712</v>
-      </c>
-      <c r="E237" t="s">
-        <v>867</v>
-      </c>
-      <c r="F237" t="s">
-        <v>868</v>
+      <c r="A237" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" t="s">
+        <v>869</v>
+      </c>
+      <c r="C237" t="s">
+        <v>870</v>
       </c>
       <c r="G237" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="H237" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I237" t="s">
-        <v>689</v>
+        <v>884</v>
       </c>
       <c r="K237" t="s">
         <v>693</v>
@@ -11461,45 +11462,45 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" t="s">
-        <v>231</v>
+        <v>763</v>
       </c>
       <c r="B238" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C238" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="G238" t="s">
-        <v>743</v>
+        <v>658</v>
       </c>
       <c r="H238" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I238" t="s">
-        <v>884</v>
+        <v>691</v>
       </c>
       <c r="K238" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" t="s">
-        <v>763</v>
-      </c>
-      <c r="B239" t="s">
-        <v>871</v>
-      </c>
-      <c r="C239" t="s">
-        <v>872</v>
+      <c r="D239" t="s">
+        <v>508</v>
+      </c>
+      <c r="E239" t="s">
+        <v>516</v>
+      </c>
+      <c r="F239" t="s">
+        <v>873</v>
       </c>
       <c r="G239" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H239" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I239" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K239" t="s">
         <v>693</v>
@@ -11507,19 +11508,19 @@
     </row>
     <row r="240" spans="1:11">
       <c r="D240" t="s">
-        <v>508</v>
+        <v>718</v>
       </c>
       <c r="E240" t="s">
-        <v>516</v>
+        <v>874</v>
       </c>
       <c r="F240" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G240" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H240" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I240" t="s">
         <v>692</v>
@@ -11528,21 +11529,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="241" spans="4:11">
+    <row r="241" spans="1:14">
       <c r="D241" t="s">
         <v>718</v>
       </c>
       <c r="E241" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F241" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G241" t="s">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="H241" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I241" t="s">
         <v>692</v>
@@ -11551,21 +11552,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="242" spans="4:11">
+    <row r="242" spans="1:14">
       <c r="D242" t="s">
         <v>718</v>
       </c>
       <c r="E242" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F242" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="G242" t="s">
-        <v>818</v>
+        <v>658</v>
       </c>
       <c r="H242" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I242" t="s">
         <v>692</v>
@@ -11574,15 +11575,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="4:11">
+    <row r="243" spans="1:14">
       <c r="D243" t="s">
-        <v>718</v>
+        <v>777</v>
       </c>
       <c r="E243" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F243" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G243" t="s">
         <v>658</v>
@@ -11591,163 +11592,178 @@
         <v>663</v>
       </c>
       <c r="I243" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K243" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="244" spans="4:11">
+    <row r="244" spans="1:14">
       <c r="D244" t="s">
-        <v>777</v>
+        <v>895</v>
       </c>
       <c r="E244" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="F244" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="G244" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H244" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I244" t="s">
-        <v>683</v>
-      </c>
-      <c r="K244" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="245" spans="4:11">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="D245" t="s">
-        <v>895</v>
+        <v>839</v>
       </c>
       <c r="E245" t="s">
-        <v>896</v>
+        <v>840</v>
       </c>
       <c r="F245" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G245" t="s">
+        <v>927</v>
+      </c>
+      <c r="H245" t="s">
+        <v>928</v>
+      </c>
+      <c r="I245" t="s">
+        <v>702</v>
+      </c>
+      <c r="J245" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="D246" t="s">
+        <v>902</v>
+      </c>
+      <c r="E246" t="s">
+        <v>903</v>
+      </c>
+      <c r="F246" t="s">
+        <v>901</v>
+      </c>
+      <c r="G246" t="s">
         <v>660</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H246" t="s">
         <v>66</v>
       </c>
-      <c r="I245" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="246" spans="4:11">
-      <c r="D246" t="s">
-        <v>839</v>
-      </c>
-      <c r="E246" t="s">
-        <v>840</v>
-      </c>
-      <c r="F246" t="s">
-        <v>899</v>
-      </c>
-      <c r="G246" t="s">
-        <v>927</v>
-      </c>
-      <c r="H246" t="s">
-        <v>928</v>
-      </c>
       <c r="I246" t="s">
-        <v>702</v>
-      </c>
-      <c r="J246" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="247" spans="4:11">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="D247" t="s">
-        <v>902</v>
+        <v>674</v>
       </c>
       <c r="E247" t="s">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="F247" t="s">
-        <v>901</v>
+        <v>936</v>
       </c>
       <c r="G247" t="s">
-        <v>660</v>
+        <v>931</v>
       </c>
       <c r="H247" t="s">
+        <v>937</v>
+      </c>
+      <c r="I247" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="D248" t="s">
+        <v>939</v>
+      </c>
+      <c r="E248" t="s">
+        <v>940</v>
+      </c>
+      <c r="F248" t="s">
+        <v>941</v>
+      </c>
+      <c r="G248" t="s">
+        <v>65</v>
+      </c>
+      <c r="H248" t="s">
+        <v>942</v>
+      </c>
+      <c r="I248" t="s">
         <v>66</v>
       </c>
-      <c r="I247" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="248" spans="4:11">
-      <c r="D248" t="s">
-        <v>674</v>
-      </c>
-      <c r="E248" t="s">
-        <v>935</v>
-      </c>
-      <c r="F248" t="s">
-        <v>936</v>
-      </c>
-      <c r="G248" t="s">
-        <v>931</v>
-      </c>
-      <c r="H248" t="s">
-        <v>937</v>
-      </c>
-      <c r="I248" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="249" spans="4:11">
+      <c r="J248" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="16.5">
       <c r="D249" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="E249" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="F249" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="G249" t="s">
-        <v>65</v>
-      </c>
-      <c r="H249" t="s">
-        <v>942</v>
+        <v>953</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>948</v>
       </c>
       <c r="I249" t="s">
         <v>66</v>
       </c>
-      <c r="J249" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="250" spans="4:11" ht="16.5">
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" t="s">
+        <v>311</v>
+      </c>
+      <c r="B250" t="s">
+        <v>312</v>
+      </c>
+      <c r="C250" t="s">
+        <v>313</v>
+      </c>
       <c r="D250" t="s">
-        <v>945</v>
+        <v>311</v>
       </c>
       <c r="E250" t="s">
-        <v>946</v>
+        <v>314</v>
       </c>
       <c r="F250" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="G250" t="s">
-        <v>953</v>
-      </c>
-      <c r="H250" s="8" t="s">
-        <v>948</v>
+        <v>658</v>
+      </c>
+      <c r="H250" t="s">
+        <v>663</v>
       </c>
       <c r="I250" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="259" spans="7:7">
-      <c r="G259" t="s">
+        <v>683</v>
+      </c>
+      <c r="L250" t="s">
+        <v>311</v>
+      </c>
+      <c r="M250" t="s">
+        <v>314</v>
+      </c>
+      <c r="N250" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7">
+      <c r="G258" t="s">
         <v>934</v>
       </c>
     </row>
@@ -11816,11 +11832,9 @@
     <cfRule type="duplicateValues" dxfId="3" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E537B70C-0858-42A3-BCD7-7C94D6245EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87473202-BB93-452B-A4AA-04A1EC147F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3081,7 +3081,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3781,8 +3791,8 @@
   <dimension ref="A1:W258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11675,10 +11685,10 @@
         <v>931</v>
       </c>
       <c r="H247" t="s">
+        <v>938</v>
+      </c>
+      <c r="I247" t="s">
         <v>937</v>
-      </c>
-      <c r="I247" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11771,70 +11781,73 @@
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+  <conditionalFormatting sqref="C1:C1048576 F1:F244 F246:F1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="25" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  <conditionalFormatting sqref="F1:F244 F246:F1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  <conditionalFormatting sqref="J1:J246 J248:J1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="3" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F245">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87473202-BB93-452B-A4AA-04A1EC147F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D19A67-6F02-4FE9-9642-DB755D52B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="985">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2855,9 +2855,6 @@
     <t>SC2413SO-N-CD-00LR-44E</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>HC2304C-S-TR</t>
   </si>
   <si>
@@ -2880,10 +2877,6 @@
     <t>SC1445A2-713B</t>
   </si>
   <si>
-    <t>TO-92S-B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC1945B1</t>
   </si>
   <si>
@@ -2924,6 +2917,104 @@
   <si>
     <t>NA.SC4015SO-N-CE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402S1-BK</t>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+  </si>
+  <si>
+    <t>SC2438SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2438SO-Q-CM-10CR-2438</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-TR-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40CR-4643</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-G1630</t>
+  </si>
+  <si>
+    <t>SC2546VB-AB-CH-10CK-2546</t>
+  </si>
+  <si>
+    <t>SC4689SA</t>
+  </si>
+  <si>
+    <t>SC4689SA-4689</t>
+  </si>
+  <si>
+    <t>SC2462SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2462SO-Q-CJ-10CR-2462</t>
+  </si>
+  <si>
+    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
+  </si>
+  <si>
+    <t>SC2527S6-AB-TR-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2948S2-BK</t>
+  </si>
+  <si>
+    <t>SC2948S2-DB-60AK-61H</t>
+  </si>
+  <si>
+    <t>SC4643VB-U-BK-Q</t>
+  </si>
+  <si>
+    <t>SC4643VB-U-Q-DE-40CK-4643</t>
+  </si>
+  <si>
+    <t>新光扬</t>
+  </si>
+  <si>
+    <t>SC1445A1</t>
+  </si>
+  <si>
+    <t>SC1445A1-41F</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GC-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9G002C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445B2</t>
+  </si>
+  <si>
+    <t>SC1445B2-713</t>
+  </si>
+  <si>
+    <t>赛扬&amp;华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445B2-713</t>
+  </si>
+  <si>
+    <t>TO-92S-A2</t>
+  </si>
+  <si>
+    <t>SC4101DN(STC11201B1)-4101</t>
+  </si>
+  <si>
+    <t>NF.SC1645B1(STC2899AI)-615HA</t>
   </si>
 </sst>
 </file>
@@ -3081,7 +3172,137 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3788,11 +4009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W258"/>
+  <dimension ref="A1:W260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F255" sqref="F255"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5418,10 +5639,10 @@
         <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
         <v>194</v>
@@ -5452,38 +5673,32 @@
       </c>
     </row>
     <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>984</v>
+      </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G44" t="s">
-        <v>905</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
         <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>686</v>
-      </c>
-      <c r="J44" t="s">
-        <v>201</v>
-      </c>
-      <c r="K44" t="s">
-        <v>65</v>
-      </c>
-      <c r="L44" t="s">
-        <v>198</v>
-      </c>
-      <c r="M44" t="s">
-        <v>943</v>
-      </c>
-      <c r="N44" t="s">
-        <v>944</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5491,10 +5706,10 @@
         <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
         <v>905</v>
@@ -5503,36 +5718,36 @@
         <v>66</v>
       </c>
       <c r="I45" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J45" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K45" t="s">
         <v>65</v>
       </c>
+      <c r="L45" t="s">
+        <v>198</v>
+      </c>
+      <c r="M45" t="s">
+        <v>941</v>
+      </c>
+      <c r="N45" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C46" t="s">
-        <v>206</v>
-      </c>
       <c r="D46" t="s">
         <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>911</v>
+        <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>905</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -5540,43 +5755,55 @@
       <c r="I46" t="s">
         <v>690</v>
       </c>
+      <c r="J46" t="s">
+        <v>204</v>
+      </c>
       <c r="K46" t="s">
-        <v>693</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>911</v>
       </c>
       <c r="G47" t="s">
-        <v>660</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="K47" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>219</v>
+      </c>
       <c r="D48" t="s">
         <v>207</v>
       </c>
@@ -5584,7 +5811,7 @@
         <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>912</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
         <v>660</v>
@@ -5593,45 +5820,36 @@
         <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>682</v>
-      </c>
-      <c r="J48" t="s">
-        <v>209</v>
+        <v>684</v>
       </c>
       <c r="K48" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>211</v>
-      </c>
       <c r="D49" t="s">
         <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>912</v>
       </c>
       <c r="G49" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H49" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s">
-        <v>691</v>
+        <v>682</v>
+      </c>
+      <c r="J49" t="s">
+        <v>209</v>
       </c>
       <c r="K49" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -5639,28 +5857,28 @@
         <v>207</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
       </c>
       <c r="E50" t="s">
-        <v>913</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>914</v>
+        <v>213</v>
       </c>
       <c r="G50" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H50" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I50" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="K50" t="s">
         <v>693</v>
@@ -5671,75 +5889,66 @@
         <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D51" t="s">
         <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>913</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>914</v>
       </c>
       <c r="G51" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I51" t="s">
-        <v>684</v>
-      </c>
-      <c r="J51" t="s">
-        <v>209</v>
+        <v>681</v>
       </c>
       <c r="K51" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H52" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I52" t="s">
-        <v>694</v>
+        <v>684</v>
+      </c>
+      <c r="J52" t="s">
+        <v>209</v>
       </c>
       <c r="K52" t="s">
-        <v>693</v>
-      </c>
-      <c r="L52" t="s">
-        <v>220</v>
-      </c>
-      <c r="M52" t="s">
-        <v>223</v>
-      </c>
-      <c r="N52" t="s">
-        <v>225</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -5747,31 +5956,40 @@
         <v>220</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
         <v>220</v>
       </c>
       <c r="E53" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I53" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="K53" t="s">
         <v>693</v>
+      </c>
+      <c r="L53" t="s">
+        <v>220</v>
+      </c>
+      <c r="M53" t="s">
+        <v>223</v>
+      </c>
+      <c r="N53" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -5782,7 +6000,7 @@
         <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
         <v>220</v>
@@ -5791,7 +6009,7 @@
         <v>228</v>
       </c>
       <c r="F54" t="s">
-        <v>915</v>
+        <v>229</v>
       </c>
       <c r="G54" t="s">
         <v>660</v>
@@ -5802,46 +6020,43 @@
       <c r="I54" t="s">
         <v>687</v>
       </c>
-      <c r="J54" t="s">
-        <v>229</v>
-      </c>
       <c r="K54" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>915</v>
       </c>
       <c r="G55" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H55" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I55" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="J55" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="K55" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -5849,10 +6064,10 @@
         <v>231</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D56" t="s">
         <v>231</v>
@@ -5861,7 +6076,7 @@
         <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G56" t="s">
         <v>661</v>
@@ -5870,7 +6085,7 @@
         <v>662</v>
       </c>
       <c r="I56" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="J56" t="s">
         <v>239</v>
@@ -5880,6 +6095,15 @@
       </c>
     </row>
     <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
       <c r="D57" t="s">
         <v>231</v>
       </c>
@@ -5887,7 +6111,7 @@
         <v>234</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G57" t="s">
         <v>661</v>
@@ -5913,7 +6137,7 @@
         <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>916</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
         <v>661</v>
@@ -5933,28 +6157,28 @@
     </row>
     <row r="59" spans="1:14">
       <c r="D59" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>916</v>
       </c>
       <c r="G59" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H59" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I59" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="J59" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K59" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5962,39 +6186,39 @@
         <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H60" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I60" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="J60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K60" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="D61" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F61" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H61" t="s">
         <v>662</v>
@@ -6003,10 +6227,10 @@
         <v>681</v>
       </c>
       <c r="J61" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -6014,10 +6238,10 @@
         <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G62" t="s">
         <v>661</v>
@@ -6043,7 +6267,7 @@
         <v>251</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G63" t="s">
         <v>661</v>
@@ -6069,7 +6293,7 @@
         <v>251</v>
       </c>
       <c r="F64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G64" t="s">
         <v>661</v>
@@ -6095,7 +6319,7 @@
         <v>251</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G65" t="s">
         <v>661</v>
@@ -6121,7 +6345,7 @@
         <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G66" t="s">
         <v>661</v>
@@ -6130,7 +6354,7 @@
         <v>662</v>
       </c>
       <c r="I66" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="J66" t="s">
         <v>259</v>
@@ -6147,7 +6371,7 @@
         <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" t="s">
         <v>661</v>
@@ -6156,7 +6380,7 @@
         <v>662</v>
       </c>
       <c r="I67" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="J67" t="s">
         <v>259</v>
@@ -6173,7 +6397,7 @@
         <v>251</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G68" t="s">
         <v>661</v>
@@ -6185,7 +6409,7 @@
         <v>681</v>
       </c>
       <c r="J68" t="s">
-        <v>955</v>
+        <v>259</v>
       </c>
       <c r="K68" t="s">
         <v>661</v>
@@ -6199,7 +6423,7 @@
         <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>819</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
         <v>661</v>
@@ -6211,39 +6435,33 @@
         <v>681</v>
       </c>
       <c r="J69" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="K69" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C70" t="s">
-        <v>917</v>
-      </c>
       <c r="D70" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>263</v>
+        <v>819</v>
       </c>
       <c r="G70" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H70" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I70" t="s">
-        <v>692</v>
+        <v>681</v>
+      </c>
+      <c r="J70" t="s">
+        <v>953</v>
       </c>
       <c r="K70" t="s">
         <v>693</v>
@@ -6251,22 +6469,22 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>917</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F71" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G71" t="s">
         <v>660</v>
@@ -6275,13 +6493,10 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>687</v>
-      </c>
-      <c r="J71" t="s">
-        <v>267</v>
+        <v>692</v>
       </c>
       <c r="K71" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -6292,7 +6507,7 @@
         <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D72" t="s">
         <v>264</v>
@@ -6301,7 +6516,7 @@
         <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G72" t="s">
         <v>660</v>
@@ -6327,7 +6542,7 @@
         <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s">
         <v>264</v>
@@ -6336,7 +6551,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G73" t="s">
         <v>660</v>
@@ -6362,7 +6577,7 @@
         <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
         <v>264</v>
@@ -6371,7 +6586,7 @@
         <v>266</v>
       </c>
       <c r="F74" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G74" t="s">
         <v>660</v>
@@ -6397,7 +6612,7 @@
         <v>265</v>
       </c>
       <c r="C75" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D75" t="s">
         <v>264</v>
@@ -6406,7 +6621,7 @@
         <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G75" t="s">
         <v>660</v>
@@ -6425,14 +6640,23 @@
       </c>
     </row>
     <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76" t="s">
+        <v>271</v>
+      </c>
       <c r="D76" t="s">
         <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>708</v>
+        <v>266</v>
       </c>
       <c r="F76" t="s">
-        <v>709</v>
+        <v>272</v>
       </c>
       <c r="G76" t="s">
         <v>660</v>
@@ -6451,35 +6675,29 @@
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" t="s">
-        <v>283</v>
-      </c>
-      <c r="C77" t="s">
-        <v>284</v>
-      </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>708</v>
       </c>
       <c r="F77" t="s">
-        <v>286</v>
+        <v>709</v>
       </c>
       <c r="G77" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H77" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I77" t="s">
-        <v>681</v>
+        <v>687</v>
+      </c>
+      <c r="J77" t="s">
+        <v>267</v>
       </c>
       <c r="K77" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -6487,86 +6705,77 @@
         <v>278</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
         <v>278</v>
       </c>
       <c r="E78" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" t="s">
+        <v>661</v>
+      </c>
+      <c r="H78" t="s">
+        <v>662</v>
+      </c>
+      <c r="I78" t="s">
+        <v>681</v>
+      </c>
+      <c r="K78" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>280</v>
+      </c>
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+      <c r="E79" t="s">
         <v>287</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F79" t="s">
         <v>918</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>660</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H79" t="s">
         <v>66</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I79" t="s">
         <v>684</v>
       </c>
-      <c r="K78" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="D79" t="s">
+      <c r="K79" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="D80" t="s">
         <v>288</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>289</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>665</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>661</v>
-      </c>
-      <c r="H79" t="s">
-        <v>662</v>
-      </c>
-      <c r="I79" t="s">
-        <v>681</v>
-      </c>
-      <c r="K79" t="s">
-        <v>693</v>
-      </c>
-      <c r="L79" t="s">
-        <v>288</v>
-      </c>
-      <c r="M79" t="s">
-        <v>289</v>
-      </c>
-      <c r="N79" t="s">
-        <v>290</v>
-      </c>
-      <c r="O79" t="s">
-        <v>288</v>
-      </c>
-      <c r="P79" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" t="s">
-        <v>288</v>
-      </c>
-      <c r="B80" t="s">
-        <v>293</v>
-      </c>
-      <c r="C80" t="s">
-        <v>294</v>
-      </c>
-      <c r="G80" t="s">
-        <v>760</v>
       </c>
       <c r="H80" t="s">
         <v>662</v>
@@ -6574,19 +6783,40 @@
       <c r="I80" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="D81" t="s">
+      <c r="K80" t="s">
+        <v>693</v>
+      </c>
+      <c r="L80" t="s">
         <v>288</v>
       </c>
-      <c r="E81" t="s">
+      <c r="M80" t="s">
         <v>289</v>
       </c>
-      <c r="F81" t="s">
-        <v>292</v>
+      <c r="N80" t="s">
+        <v>290</v>
+      </c>
+      <c r="O80" t="s">
+        <v>288</v>
+      </c>
+      <c r="P80" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>294</v>
       </c>
       <c r="G81" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="H81" t="s">
         <v>662</v>
@@ -6594,52 +6824,49 @@
       <c r="I81" t="s">
         <v>681</v>
       </c>
-      <c r="K81" t="s">
-        <v>693</v>
-      </c>
-      <c r="L81" t="s">
+    </row>
+    <row r="82" spans="1:17">
+      <c r="D82" t="s">
+        <v>977</v>
+      </c>
+      <c r="E82" t="s">
+        <v>975</v>
+      </c>
+      <c r="F82" t="s">
+        <v>976</v>
+      </c>
+      <c r="G82" t="s">
+        <v>661</v>
+      </c>
+      <c r="H82" t="s">
+        <v>662</v>
+      </c>
+      <c r="I82" t="s">
+        <v>681</v>
+      </c>
+      <c r="K82" t="s">
+        <v>693</v>
+      </c>
+      <c r="L82" t="s">
         <v>288</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M82" t="s">
         <v>289</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N82" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" t="s">
+      <c r="O82" t="s">
         <v>288</v>
       </c>
-      <c r="B82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C82" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" t="s">
-        <v>298</v>
-      </c>
-      <c r="F82" t="s">
-        <v>299</v>
-      </c>
-      <c r="G82" t="s">
-        <v>660</v>
-      </c>
-      <c r="H82" t="s">
-        <v>66</v>
-      </c>
-      <c r="I82" t="s">
-        <v>687</v>
-      </c>
-      <c r="K82" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="P82" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -6647,7 +6874,7 @@
         <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
         <v>288</v>
@@ -6656,7 +6883,7 @@
         <v>298</v>
       </c>
       <c r="F83" t="s">
-        <v>919</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s">
         <v>660</v>
@@ -6667,72 +6894,72 @@
       <c r="I83" t="s">
         <v>687</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E84" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" t="s">
+        <v>919</v>
+      </c>
+      <c r="G84" t="s">
+        <v>660</v>
+      </c>
+      <c r="H84" t="s">
+        <v>66</v>
+      </c>
+      <c r="I84" t="s">
+        <v>687</v>
+      </c>
+      <c r="J84" t="s">
         <v>299</v>
       </c>
-      <c r="K83" t="s">
-        <v>693</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="K84" t="s">
+        <v>693</v>
+      </c>
+      <c r="L84" t="s">
         <v>288</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M84" t="s">
         <v>298</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N84" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" t="s">
+    <row r="85" spans="1:17">
+      <c r="A85" t="s">
         <v>301</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>302</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>303</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>301</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>304</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>305</v>
-      </c>
-      <c r="G84" t="s">
-        <v>658</v>
-      </c>
-      <c r="H84" t="s">
-        <v>663</v>
-      </c>
-      <c r="I84" t="s">
-        <v>683</v>
-      </c>
-      <c r="K84" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" t="s">
-        <v>306</v>
-      </c>
-      <c r="B85" t="s">
-        <v>307</v>
-      </c>
-      <c r="C85" t="s">
-        <v>308</v>
-      </c>
-      <c r="D85" t="s">
-        <v>306</v>
-      </c>
-      <c r="E85" t="s">
-        <v>309</v>
-      </c>
-      <c r="F85" t="s">
-        <v>310</v>
       </c>
       <c r="G85" t="s">
         <v>658</v>
@@ -6747,24 +6974,24 @@
         <v>693</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>712</v>
+        <v>306</v>
       </c>
       <c r="B86" t="s">
-        <v>713</v>
+        <v>307</v>
       </c>
       <c r="C86" t="s">
-        <v>714</v>
+        <v>308</v>
       </c>
       <c r="D86" t="s">
-        <v>715</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
-        <v>716</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>717</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
         <v>658</v>
@@ -6773,30 +7000,30 @@
         <v>663</v>
       </c>
       <c r="I86" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K86" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>311</v>
+        <v>712</v>
       </c>
       <c r="B87" t="s">
-        <v>315</v>
+        <v>713</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>714</v>
       </c>
       <c r="D87" t="s">
-        <v>311</v>
+        <v>715</v>
       </c>
       <c r="E87" t="s">
-        <v>319</v>
+        <v>716</v>
       </c>
       <c r="F87" t="s">
-        <v>320</v>
+        <v>717</v>
       </c>
       <c r="G87" t="s">
         <v>658</v>
@@ -6811,15 +7038,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>311</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D88" t="s">
         <v>311</v>
@@ -6828,7 +7055,7 @@
         <v>319</v>
       </c>
       <c r="F88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G88" t="s">
         <v>658</v>
@@ -6843,275 +7070,272 @@
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>311</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="D89" t="s">
         <v>311</v>
       </c>
       <c r="E89" t="s">
+        <v>319</v>
+      </c>
+      <c r="F89" t="s">
+        <v>321</v>
+      </c>
+      <c r="G89" t="s">
+        <v>658</v>
+      </c>
+      <c r="H89" t="s">
+        <v>663</v>
+      </c>
+      <c r="I89" t="s">
+        <v>681</v>
+      </c>
+      <c r="K89" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" t="s">
+        <v>311</v>
+      </c>
+      <c r="E90" t="s">
         <v>322</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F90" t="s">
         <v>323</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G90" t="s">
         <v>660</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H90" t="s">
         <v>66</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I90" t="s">
         <v>687</v>
       </c>
-      <c r="K89" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" t="s">
-        <v>324</v>
-      </c>
-      <c r="B90" t="s">
-        <v>330</v>
-      </c>
-      <c r="C90" t="s">
-        <v>331</v>
-      </c>
-      <c r="D90" t="s">
-        <v>324</v>
-      </c>
-      <c r="E90" t="s">
-        <v>327</v>
-      </c>
-      <c r="F90" t="s">
-        <v>328</v>
-      </c>
-      <c r="G90" t="s">
-        <v>658</v>
-      </c>
-      <c r="H90" t="s">
-        <v>663</v>
-      </c>
-      <c r="I90" t="s">
-        <v>681</v>
-      </c>
       <c r="K90" t="s">
         <v>693</v>
       </c>
-      <c r="L90" t="s">
-        <v>324</v>
-      </c>
-      <c r="M90" t="s">
-        <v>327</v>
-      </c>
-      <c r="N90" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>324</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D91" t="s">
         <v>324</v>
       </c>
       <c r="E91" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F91" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G91" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H91" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I91" t="s">
-        <v>682</v>
-      </c>
-      <c r="J91" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K91" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="L91" t="s">
+        <v>324</v>
+      </c>
+      <c r="M91" t="s">
+        <v>327</v>
+      </c>
+      <c r="N91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
         <v>324</v>
       </c>
       <c r="E92" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H92" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I92" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="J92" t="s">
+        <v>365</v>
       </c>
       <c r="K92" t="s">
         <v>693</v>
       </c>
-      <c r="L92" t="s">
-        <v>324</v>
-      </c>
-      <c r="M92" t="s">
-        <v>336</v>
-      </c>
-      <c r="N92" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C93" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D93" t="s">
         <v>324</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F93" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G93" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H93" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I93" t="s">
-        <v>682</v>
-      </c>
-      <c r="J93" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K93" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="L93" t="s">
+        <v>324</v>
+      </c>
+      <c r="M93" t="s">
+        <v>336</v>
+      </c>
+      <c r="N93" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>324</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D94" t="s">
         <v>324</v>
       </c>
       <c r="E94" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F94" t="s">
-        <v>921</v>
+        <v>342</v>
       </c>
       <c r="G94" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H94" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I94" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="J94" t="s">
+        <v>365</v>
       </c>
       <c r="K94" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C95" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D95" t="s">
         <v>324</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>921</v>
       </c>
       <c r="G95" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H95" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I95" t="s">
-        <v>703</v>
-      </c>
-      <c r="J95" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K95" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>324</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C96" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D96" t="s">
         <v>324</v>
       </c>
       <c r="E96" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G96" t="s">
         <v>660</v>
@@ -7120,7 +7344,7 @@
         <v>66</v>
       </c>
       <c r="I96" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="J96" t="s">
         <v>365</v>
@@ -7134,28 +7358,31 @@
         <v>324</v>
       </c>
       <c r="B97" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D97" t="s">
         <v>324</v>
       </c>
       <c r="E97" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F97" t="s">
-        <v>922</v>
+        <v>354</v>
       </c>
       <c r="G97" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H97" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I97" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="J97" t="s">
+        <v>365</v>
       </c>
       <c r="K97" t="s">
         <v>693</v>
@@ -7166,31 +7393,28 @@
         <v>324</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D98" t="s">
         <v>324</v>
       </c>
       <c r="E98" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
+        <v>922</v>
       </c>
       <c r="G98" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H98" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I98" t="s">
-        <v>684</v>
-      </c>
-      <c r="J98" t="s">
-        <v>365</v>
+        <v>681</v>
       </c>
       <c r="K98" t="s">
         <v>693</v>
@@ -7201,19 +7425,19 @@
         <v>324</v>
       </c>
       <c r="B99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C99" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D99" t="s">
         <v>324</v>
       </c>
       <c r="E99" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F99" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G99" t="s">
         <v>660</v>
@@ -7222,7 +7446,10 @@
         <v>66</v>
       </c>
       <c r="I99" t="s">
-        <v>687</v>
+        <v>684</v>
+      </c>
+      <c r="J99" t="s">
+        <v>365</v>
       </c>
       <c r="K99" t="s">
         <v>693</v>
@@ -7230,43 +7457,34 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D100" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="E100" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F100" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G100" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H100" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I100" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K100" t="s">
         <v>693</v>
-      </c>
-      <c r="L100" t="s">
-        <v>366</v>
-      </c>
-      <c r="M100" t="s">
-        <v>369</v>
-      </c>
-      <c r="N100" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -7274,34 +7492,52 @@
         <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C101" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D101" t="s">
         <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G101" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H101" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I101" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="K101" t="s">
         <v>693</v>
       </c>
+      <c r="L101" t="s">
+        <v>366</v>
+      </c>
+      <c r="M101" t="s">
+        <v>369</v>
+      </c>
+      <c r="N101" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>366</v>
+      </c>
+      <c r="B102" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102" t="s">
+        <v>373</v>
+      </c>
       <c r="D102" t="s">
         <v>366</v>
       </c>
@@ -7309,7 +7545,7 @@
         <v>374</v>
       </c>
       <c r="F102" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G102" t="s">
         <v>660</v>
@@ -7323,34 +7559,16 @@
       <c r="K102" t="s">
         <v>693</v>
       </c>
-      <c r="L102" t="s">
-        <v>366</v>
-      </c>
-      <c r="M102" t="s">
-        <v>374</v>
-      </c>
-      <c r="N102" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" t="s">
-        <v>366</v>
-      </c>
-      <c r="B103" t="s">
-        <v>378</v>
-      </c>
-      <c r="C103" t="s">
-        <v>379</v>
-      </c>
       <c r="D103" t="s">
         <v>366</v>
       </c>
       <c r="E103" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F103" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G103" t="s">
         <v>660</v>
@@ -7359,10 +7577,19 @@
         <v>66</v>
       </c>
       <c r="I103" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K103" t="s">
         <v>693</v>
+      </c>
+      <c r="L103" t="s">
+        <v>366</v>
+      </c>
+      <c r="M103" t="s">
+        <v>374</v>
+      </c>
+      <c r="N103" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -7370,28 +7597,28 @@
         <v>366</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C104" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D104" t="s">
         <v>366</v>
       </c>
       <c r="E104" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F104" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G104" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H104" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I104" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K104" t="s">
         <v>693</v>
@@ -7399,22 +7626,22 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B105" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C105" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D105" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="E105" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F105" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G105" t="s">
         <v>658</v>
@@ -7431,22 +7658,22 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B106" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D106" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E106" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F106" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G106" t="s">
         <v>658</v>
@@ -7462,14 +7689,23 @@
       </c>
     </row>
     <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>391</v>
+      </c>
+      <c r="B107" t="s">
+        <v>392</v>
+      </c>
+      <c r="C107" t="s">
+        <v>393</v>
+      </c>
       <c r="D107" t="s">
         <v>391</v>
       </c>
       <c r="E107" t="s">
-        <v>723</v>
+        <v>394</v>
       </c>
       <c r="F107" t="s">
-        <v>724</v>
+        <v>395</v>
       </c>
       <c r="G107" t="s">
         <v>658</v>
@@ -7480,25 +7716,19 @@
       <c r="I107" t="s">
         <v>681</v>
       </c>
+      <c r="K107" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" t="s">
-        <v>391</v>
-      </c>
-      <c r="B108" t="s">
-        <v>400</v>
-      </c>
-      <c r="C108" t="s">
-        <v>401</v>
-      </c>
       <c r="D108" t="s">
         <v>391</v>
       </c>
       <c r="E108" t="s">
-        <v>891</v>
+        <v>723</v>
       </c>
       <c r="F108" t="s">
-        <v>892</v>
+        <v>724</v>
       </c>
       <c r="G108" t="s">
         <v>658</v>
@@ -7508,12 +7738,6 @@
       </c>
       <c r="I108" t="s">
         <v>681</v>
-      </c>
-      <c r="J108" t="s">
-        <v>890</v>
-      </c>
-      <c r="K108" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -7521,19 +7745,19 @@
         <v>391</v>
       </c>
       <c r="B109" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
         <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>398</v>
+        <v>891</v>
       </c>
       <c r="F109" t="s">
-        <v>399</v>
+        <v>892</v>
       </c>
       <c r="G109" t="s">
         <v>658</v>
@@ -7543,6 +7767,9 @@
       </c>
       <c r="I109" t="s">
         <v>681</v>
+      </c>
+      <c r="J109" t="s">
+        <v>890</v>
       </c>
       <c r="K109" t="s">
         <v>693</v>
@@ -7553,19 +7780,19 @@
         <v>391</v>
       </c>
       <c r="B110" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="C110" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D110" t="s">
         <v>391</v>
       </c>
       <c r="E110" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="F110" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="G110" t="s">
         <v>658</v>
@@ -7585,19 +7812,19 @@
         <v>391</v>
       </c>
       <c r="B111" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D111" t="s">
         <v>391</v>
       </c>
       <c r="E111" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F111" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G111" t="s">
         <v>658</v>
@@ -7611,34 +7838,25 @@
       <c r="K111" t="s">
         <v>693</v>
       </c>
-      <c r="L111" t="s">
-        <v>324</v>
-      </c>
-      <c r="M111" t="s">
-        <v>351</v>
-      </c>
-      <c r="N111" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D112" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E112" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="F112" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="G112" t="s">
         <v>658</v>
@@ -7652,25 +7870,34 @@
       <c r="K112" t="s">
         <v>693</v>
       </c>
+      <c r="L112" t="s">
+        <v>324</v>
+      </c>
+      <c r="M112" t="s">
+        <v>351</v>
+      </c>
+      <c r="N112" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>405</v>
       </c>
       <c r="C113" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E113" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F113" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G113" t="s">
         <v>658</v>
@@ -7690,28 +7917,28 @@
         <v>409</v>
       </c>
       <c r="B114" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D114" t="s">
         <v>409</v>
       </c>
       <c r="E114" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F114" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G114" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H114" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I114" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s">
         <v>693</v>
@@ -7722,28 +7949,28 @@
         <v>409</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C115" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D115" t="s">
         <v>409</v>
       </c>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>417</v>
       </c>
       <c r="F115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G115" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H115" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I115" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K115" t="s">
         <v>693</v>
@@ -7751,22 +7978,22 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B116" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="C116" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E116" t="s">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="F116" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G116" t="s">
         <v>658</v>
@@ -7783,22 +8010,22 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D117" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E117" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F117" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G117" t="s">
         <v>658</v>
@@ -7807,48 +8034,30 @@
         <v>663</v>
       </c>
       <c r="I117" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K117" t="s">
         <v>693</v>
-      </c>
-      <c r="L117" t="s">
-        <v>424</v>
-      </c>
-      <c r="M117" t="s">
-        <v>430</v>
-      </c>
-      <c r="N117" t="s">
-        <v>432</v>
-      </c>
-      <c r="O117" t="s">
-        <v>424</v>
-      </c>
-      <c r="P117" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B118" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C118" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D118" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="E118" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G118" t="s">
         <v>658</v>
@@ -7857,119 +8066,134 @@
         <v>663</v>
       </c>
       <c r="I118" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K118" t="s">
         <v>693</v>
       </c>
       <c r="L118" t="s">
-        <v>46</v>
+        <v>424</v>
       </c>
       <c r="M118" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="N118" t="s">
-        <v>707</v>
+        <v>432</v>
+      </c>
+      <c r="O118" t="s">
+        <v>424</v>
+      </c>
+      <c r="P118" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D119" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E119" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F119" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G119" t="s">
-        <v>905</v>
+        <v>658</v>
       </c>
       <c r="H119" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I119" t="s">
-        <v>687</v>
-      </c>
-      <c r="J119" t="s">
-        <v>445</v>
+        <v>681</v>
       </c>
       <c r="K119" t="s">
-        <v>65</v>
+        <v>693</v>
       </c>
       <c r="L119" t="s">
-        <v>439</v>
+        <v>46</v>
       </c>
       <c r="M119" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N119" t="s">
-        <v>444</v>
-      </c>
-      <c r="O119" t="s">
-        <v>46</v>
-      </c>
-      <c r="P119" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" t="s">
+        <v>439</v>
+      </c>
+      <c r="B120" t="s">
+        <v>440</v>
+      </c>
+      <c r="C120" t="s">
+        <v>441</v>
+      </c>
+      <c r="D120" t="s">
+        <v>439</v>
+      </c>
+      <c r="E120" t="s">
+        <v>442</v>
+      </c>
+      <c r="F120" t="s">
+        <v>443</v>
+      </c>
+      <c r="G120" t="s">
+        <v>905</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120" t="s">
+        <v>687</v>
+      </c>
+      <c r="J120" t="s">
+        <v>445</v>
+      </c>
+      <c r="K120" t="s">
+        <v>65</v>
+      </c>
+      <c r="L120" t="s">
+        <v>439</v>
+      </c>
+      <c r="M120" t="s">
+        <v>442</v>
+      </c>
+      <c r="N120" t="s">
+        <v>444</v>
+      </c>
+      <c r="O120" t="s">
+        <v>46</v>
+      </c>
+      <c r="P120" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" t="s">
         <v>446</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>447</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>448</v>
       </c>
-      <c r="D120" t="s">
-        <v>446</v>
-      </c>
-      <c r="E120" t="s">
-        <v>449</v>
-      </c>
-      <c r="F120" t="s">
-        <v>450</v>
-      </c>
-      <c r="G120" t="s">
-        <v>659</v>
-      </c>
-      <c r="H120" t="s">
-        <v>923</v>
-      </c>
-      <c r="I120" t="s">
-        <v>697</v>
-      </c>
-      <c r="J120" t="s">
-        <v>893</v>
-      </c>
-      <c r="K120" t="s">
-        <v>693</v>
-      </c>
-      <c r="L120" t="s">
-        <v>446</v>
-      </c>
-      <c r="M120" t="s">
-        <v>449</v>
-      </c>
-      <c r="N120" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
       <c r="D121" t="s">
         <v>446</v>
       </c>
@@ -7977,13 +8201,13 @@
         <v>449</v>
       </c>
       <c r="F121" t="s">
-        <v>924</v>
+        <v>450</v>
       </c>
       <c r="G121" t="s">
         <v>659</v>
       </c>
       <c r="H121" t="s">
-        <v>662</v>
+        <v>923</v>
       </c>
       <c r="I121" t="s">
         <v>697</v>
@@ -8001,62 +8225,62 @@
         <v>449</v>
       </c>
       <c r="N121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="D122" t="s">
+        <v>446</v>
+      </c>
+      <c r="E122" t="s">
+        <v>449</v>
+      </c>
+      <c r="F122" t="s">
+        <v>924</v>
+      </c>
+      <c r="G122" t="s">
+        <v>659</v>
+      </c>
+      <c r="H122" t="s">
+        <v>662</v>
+      </c>
+      <c r="I122" t="s">
+        <v>697</v>
+      </c>
+      <c r="J122" t="s">
+        <v>893</v>
+      </c>
+      <c r="K122" t="s">
+        <v>693</v>
+      </c>
+      <c r="L122" t="s">
+        <v>446</v>
+      </c>
+      <c r="M122" t="s">
+        <v>449</v>
+      </c>
+      <c r="N122" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
-      <c r="A122" t="s">
-        <v>453</v>
-      </c>
-      <c r="B122" t="s">
-        <v>454</v>
-      </c>
-      <c r="C122" t="s">
-        <v>455</v>
-      </c>
-      <c r="D122" t="s">
-        <v>777</v>
-      </c>
-      <c r="E122" t="s">
-        <v>778</v>
-      </c>
-      <c r="F122" t="s">
-        <v>779</v>
-      </c>
-      <c r="G122" t="s">
-        <v>658</v>
-      </c>
-      <c r="H122" t="s">
-        <v>663</v>
-      </c>
-      <c r="I122" t="s">
-        <v>683</v>
-      </c>
-      <c r="J122" t="s">
-        <v>456</v>
-      </c>
-      <c r="K122" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B123" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C123" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D123" t="s">
-        <v>457</v>
+        <v>777</v>
       </c>
       <c r="E123" t="s">
-        <v>460</v>
+        <v>778</v>
       </c>
       <c r="F123" t="s">
-        <v>461</v>
+        <v>779</v>
       </c>
       <c r="G123" t="s">
         <v>658</v>
@@ -8068,21 +8292,30 @@
         <v>683</v>
       </c>
       <c r="J123" t="s">
-        <v>951</v>
+        <v>456</v>
       </c>
       <c r="K123" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="124" spans="1:17">
+      <c r="A124" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" t="s">
+        <v>458</v>
+      </c>
+      <c r="C124" t="s">
+        <v>459</v>
+      </c>
       <c r="D124" t="s">
         <v>457</v>
       </c>
       <c r="E124" t="s">
-        <v>882</v>
+        <v>460</v>
       </c>
       <c r="F124" t="s">
-        <v>883</v>
+        <v>461</v>
       </c>
       <c r="G124" t="s">
         <v>658</v>
@@ -8094,7 +8327,7 @@
         <v>683</v>
       </c>
       <c r="J124" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K124" t="s">
         <v>693</v>
@@ -8105,10 +8338,10 @@
         <v>457</v>
       </c>
       <c r="E125" t="s">
-        <v>949</v>
+        <v>882</v>
       </c>
       <c r="F125" t="s">
-        <v>950</v>
+        <v>883</v>
       </c>
       <c r="G125" t="s">
         <v>658</v>
@@ -8120,95 +8353,77 @@
         <v>683</v>
       </c>
       <c r="J125" t="s">
-        <v>951</v>
+        <v>949</v>
+      </c>
+      <c r="K125" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="126" spans="1:17">
-      <c r="A126" t="s">
-        <v>462</v>
-      </c>
-      <c r="B126" t="s">
-        <v>463</v>
-      </c>
-      <c r="C126" t="s">
-        <v>464</v>
-      </c>
       <c r="D126" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E126" t="s">
-        <v>465</v>
+        <v>947</v>
       </c>
       <c r="F126" t="s">
-        <v>466</v>
+        <v>948</v>
       </c>
       <c r="G126" t="s">
-        <v>905</v>
+        <v>658</v>
       </c>
       <c r="H126" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I126" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="J126" t="s">
-        <v>468</v>
-      </c>
-      <c r="K126" t="s">
-        <v>65</v>
-      </c>
-      <c r="L126" t="s">
-        <v>462</v>
-      </c>
-      <c r="M126" t="s">
-        <v>465</v>
-      </c>
-      <c r="N126" t="s">
-        <v>467</v>
+        <v>949</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B127" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C127" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D127" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E127" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F127" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G127" t="s">
-        <v>659</v>
+        <v>905</v>
       </c>
       <c r="H127" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I127" t="s">
         <v>697</v>
       </c>
       <c r="J127" t="s">
-        <v>898</v>
+        <v>468</v>
       </c>
       <c r="K127" t="s">
-        <v>693</v>
+        <v>65</v>
       </c>
       <c r="L127" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M127" t="s">
-        <v>748</v>
+        <v>465</v>
       </c>
       <c r="N127" t="s">
-        <v>925</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -8216,19 +8431,19 @@
         <v>469</v>
       </c>
       <c r="B128" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C128" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D128" t="s">
         <v>469</v>
       </c>
       <c r="E128" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F128" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G128" t="s">
         <v>659</v>
@@ -8239,6 +8454,9 @@
       <c r="I128" t="s">
         <v>697</v>
       </c>
+      <c r="J128" t="s">
+        <v>898</v>
+      </c>
       <c r="K128" t="s">
         <v>693</v>
       </c>
@@ -8246,45 +8464,51 @@
         <v>469</v>
       </c>
       <c r="M128" t="s">
-        <v>474</v>
+        <v>748</v>
       </c>
       <c r="N128" t="s">
-        <v>476</v>
+        <v>925</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B129" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C129" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D129" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="E129" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G129" t="s">
-        <v>926</v>
+        <v>659</v>
       </c>
       <c r="H129" t="s">
-        <v>907</v>
+        <v>662</v>
       </c>
       <c r="I129" t="s">
-        <v>683</v>
-      </c>
-      <c r="J129" t="s">
-        <v>505</v>
+        <v>697</v>
       </c>
       <c r="K129" t="s">
-        <v>888</v>
+        <v>693</v>
+      </c>
+      <c r="L129" t="s">
+        <v>469</v>
+      </c>
+      <c r="M129" t="s">
+        <v>474</v>
+      </c>
+      <c r="N129" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -8292,19 +8516,19 @@
         <v>483</v>
       </c>
       <c r="B130" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C130" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D130" t="s">
         <v>483</v>
       </c>
       <c r="E130" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F130" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G130" t="s">
         <v>926</v>
@@ -8327,19 +8551,19 @@
         <v>483</v>
       </c>
       <c r="B131" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C131" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D131" t="s">
         <v>483</v>
       </c>
       <c r="E131" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F131" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G131" t="s">
         <v>926</v>
@@ -8362,19 +8586,19 @@
         <v>483</v>
       </c>
       <c r="B132" t="s">
-        <v>784</v>
+        <v>492</v>
       </c>
       <c r="C132" t="s">
-        <v>783</v>
+        <v>493</v>
       </c>
       <c r="D132" t="s">
         <v>483</v>
       </c>
       <c r="E132" t="s">
-        <v>785</v>
+        <v>494</v>
       </c>
       <c r="F132" t="s">
-        <v>786</v>
+        <v>495</v>
       </c>
       <c r="G132" t="s">
         <v>926</v>
@@ -8397,31 +8621,34 @@
         <v>483</v>
       </c>
       <c r="B133" t="s">
-        <v>496</v>
+        <v>784</v>
       </c>
       <c r="C133" t="s">
-        <v>497</v>
+        <v>783</v>
       </c>
       <c r="D133" t="s">
         <v>483</v>
       </c>
       <c r="E133" t="s">
-        <v>498</v>
+        <v>785</v>
       </c>
       <c r="F133" t="s">
-        <v>499</v>
+        <v>786</v>
       </c>
       <c r="G133" t="s">
-        <v>658</v>
+        <v>926</v>
       </c>
       <c r="H133" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
       <c r="I133" t="s">
         <v>683</v>
       </c>
+      <c r="J133" t="s">
+        <v>505</v>
+      </c>
       <c r="K133" t="s">
-        <v>693</v>
+        <v>888</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -8429,34 +8656,31 @@
         <v>483</v>
       </c>
       <c r="B134" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C134" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D134" t="s">
         <v>483</v>
       </c>
       <c r="E134" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F134" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G134" t="s">
-        <v>926</v>
+        <v>658</v>
       </c>
       <c r="H134" t="s">
-        <v>907</v>
+        <v>663</v>
       </c>
       <c r="I134" t="s">
         <v>683</v>
       </c>
-      <c r="J134" t="s">
-        <v>505</v>
-      </c>
       <c r="K134" t="s">
-        <v>888</v>
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -8464,98 +8688,101 @@
         <v>483</v>
       </c>
       <c r="B135" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D135" t="s">
         <v>483</v>
       </c>
       <c r="E135" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F135" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G135" t="s">
-        <v>660</v>
+        <v>926</v>
       </c>
       <c r="H135" t="s">
-        <v>66</v>
+        <v>907</v>
       </c>
       <c r="I135" t="s">
         <v>683</v>
       </c>
+      <c r="J135" t="s">
+        <v>505</v>
+      </c>
       <c r="K135" t="s">
-        <v>693</v>
+        <v>888</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
+        <v>483</v>
+      </c>
+      <c r="B136" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" t="s">
+        <v>505</v>
+      </c>
+      <c r="D136" t="s">
+        <v>483</v>
+      </c>
+      <c r="E136" t="s">
+        <v>502</v>
+      </c>
+      <c r="F136" t="s">
+        <v>503</v>
+      </c>
+      <c r="G136" t="s">
+        <v>660</v>
+      </c>
+      <c r="H136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I136" t="s">
+        <v>683</v>
+      </c>
+      <c r="K136" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" t="s">
         <v>508</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>509</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>510</v>
       </c>
-      <c r="D136" t="s">
-        <v>508</v>
-      </c>
-      <c r="E136" t="s">
-        <v>511</v>
-      </c>
-      <c r="F136" t="s">
-        <v>512</v>
-      </c>
-      <c r="G136" t="s">
-        <v>927</v>
-      </c>
-      <c r="H136" t="s">
-        <v>928</v>
-      </c>
-      <c r="I136" t="s">
-        <v>698</v>
-      </c>
-      <c r="J136" t="s">
-        <v>513</v>
-      </c>
-      <c r="K136" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
       <c r="D137" t="s">
         <v>508</v>
       </c>
       <c r="E137" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F137" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G137" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H137" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I137" t="s">
-        <v>692</v>
+        <v>698</v>
+      </c>
+      <c r="J137" t="s">
+        <v>513</v>
       </c>
       <c r="K137" t="s">
-        <v>693</v>
-      </c>
-      <c r="L137" t="s">
-        <v>508</v>
-      </c>
-      <c r="M137" t="s">
-        <v>516</v>
-      </c>
-      <c r="N137" t="s">
-        <v>517</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8563,10 +8790,10 @@
         <v>508</v>
       </c>
       <c r="E138" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F138" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G138" t="s">
         <v>660</v>
@@ -8587,7 +8814,7 @@
         <v>516</v>
       </c>
       <c r="N138" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8598,42 +8825,39 @@
         <v>516</v>
       </c>
       <c r="F139" t="s">
+        <v>518</v>
+      </c>
+      <c r="G139" t="s">
+        <v>660</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139" t="s">
+        <v>692</v>
+      </c>
+      <c r="K139" t="s">
+        <v>693</v>
+      </c>
+      <c r="L139" t="s">
+        <v>508</v>
+      </c>
+      <c r="M139" t="s">
+        <v>516</v>
+      </c>
+      <c r="N139" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="D140" t="s">
+        <v>508</v>
+      </c>
+      <c r="E140" t="s">
+        <v>516</v>
+      </c>
+      <c r="F140" t="s">
         <v>669</v>
-      </c>
-      <c r="G139" t="s">
-        <v>927</v>
-      </c>
-      <c r="H139" t="s">
-        <v>928</v>
-      </c>
-      <c r="I139" t="s">
-        <v>698</v>
-      </c>
-      <c r="J139" t="s">
-        <v>668</v>
-      </c>
-      <c r="K139" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" t="s">
-        <v>520</v>
-      </c>
-      <c r="B140" t="s">
-        <v>521</v>
-      </c>
-      <c r="C140" t="s">
-        <v>522</v>
-      </c>
-      <c r="D140" t="s">
-        <v>520</v>
-      </c>
-      <c r="E140" t="s">
-        <v>523</v>
-      </c>
-      <c r="F140" t="s">
-        <v>524</v>
       </c>
       <c r="G140" t="s">
         <v>927</v>
@@ -8645,7 +8869,7 @@
         <v>698</v>
       </c>
       <c r="J140" t="s">
-        <v>525</v>
+        <v>668</v>
       </c>
       <c r="K140" t="s">
         <v>658</v>
@@ -8653,43 +8877,46 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B141" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C141" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D141" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E141" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F141" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G141" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H141" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I141" t="s">
         <v>698</v>
       </c>
+      <c r="J141" t="s">
+        <v>525</v>
+      </c>
       <c r="K141" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="L141" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M141" t="s">
-        <v>531</v>
+        <v>962</v>
       </c>
       <c r="N141" t="s">
-        <v>540</v>
+        <v>963</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8697,19 +8924,19 @@
         <v>526</v>
       </c>
       <c r="B142" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C142" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D142" t="s">
         <v>526</v>
       </c>
       <c r="E142" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F142" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G142" t="s">
         <v>660</v>
@@ -8720,11 +8947,17 @@
       <c r="I142" t="s">
         <v>698</v>
       </c>
-      <c r="J142" t="s">
-        <v>535</v>
-      </c>
       <c r="K142" t="s">
         <v>693</v>
+      </c>
+      <c r="L142" t="s">
+        <v>526</v>
+      </c>
+      <c r="M142" t="s">
+        <v>531</v>
+      </c>
+      <c r="N142" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8732,10 +8965,10 @@
         <v>526</v>
       </c>
       <c r="B143" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C143" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D143" t="s">
         <v>526</v>
@@ -8744,16 +8977,19 @@
         <v>533</v>
       </c>
       <c r="F143" t="s">
+        <v>534</v>
+      </c>
+      <c r="G143" t="s">
+        <v>660</v>
+      </c>
+      <c r="H143" t="s">
+        <v>66</v>
+      </c>
+      <c r="I143" t="s">
+        <v>698</v>
+      </c>
+      <c r="J143" t="s">
         <v>535</v>
-      </c>
-      <c r="G143" t="s">
-        <v>658</v>
-      </c>
-      <c r="H143" t="s">
-        <v>663</v>
-      </c>
-      <c r="I143" t="s">
-        <v>699</v>
       </c>
       <c r="K143" t="s">
         <v>693</v>
@@ -8764,25 +9000,25 @@
         <v>526</v>
       </c>
       <c r="B144" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C144" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D144" t="s">
         <v>526</v>
       </c>
       <c r="E144" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F144" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G144" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H144" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I144" t="s">
         <v>699</v>
@@ -8792,41 +9028,38 @@
       </c>
     </row>
     <row r="145" spans="1:14">
+      <c r="A145" t="s">
+        <v>526</v>
+      </c>
+      <c r="B145" t="s">
+        <v>527</v>
+      </c>
+      <c r="C145" t="s">
+        <v>528</v>
+      </c>
       <c r="D145" t="s">
         <v>526</v>
       </c>
       <c r="E145" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F145" t="s">
-        <v>769</v>
+        <v>542</v>
       </c>
       <c r="G145" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H145" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I145" t="s">
-        <v>700</v>
-      </c>
-      <c r="J145" t="s">
-        <v>543</v>
+        <v>699</v>
       </c>
       <c r="K145" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" t="s">
-        <v>526</v>
-      </c>
-      <c r="B146" t="s">
-        <v>544</v>
-      </c>
-      <c r="C146" t="s">
-        <v>545</v>
-      </c>
       <c r="D146" t="s">
         <v>526</v>
       </c>
@@ -8834,7 +9067,7 @@
         <v>546</v>
       </c>
       <c r="F146" t="s">
-        <v>547</v>
+        <v>769</v>
       </c>
       <c r="G146" t="s">
         <v>927</v>
@@ -8857,19 +9090,19 @@
         <v>526</v>
       </c>
       <c r="B147" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C147" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D147" t="s">
         <v>526</v>
       </c>
       <c r="E147" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F147" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G147" t="s">
         <v>927</v>
@@ -8878,10 +9111,10 @@
         <v>928</v>
       </c>
       <c r="I147" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J147" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K147" t="s">
         <v>658</v>
@@ -8892,19 +9125,19 @@
         <v>526</v>
       </c>
       <c r="B148" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D148" t="s">
         <v>526</v>
       </c>
       <c r="E148" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F148" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G148" t="s">
         <v>927</v>
@@ -8916,21 +9149,30 @@
         <v>701</v>
       </c>
       <c r="J148" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="K148" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:14">
+      <c r="A149" t="s">
+        <v>526</v>
+      </c>
+      <c r="B149" t="s">
+        <v>553</v>
+      </c>
+      <c r="C149" t="s">
+        <v>554</v>
+      </c>
       <c r="D149" t="s">
         <v>526</v>
       </c>
       <c r="E149" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F149" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G149" t="s">
         <v>927</v>
@@ -8942,7 +9184,7 @@
         <v>701</v>
       </c>
       <c r="J149" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K149" t="s">
         <v>658</v>
@@ -8953,10 +9195,10 @@
         <v>526</v>
       </c>
       <c r="E150" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F150" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G150" t="s">
         <v>927</v>
@@ -8975,23 +9217,14 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" t="s">
-        <v>526</v>
-      </c>
-      <c r="B151" t="s">
-        <v>564</v>
-      </c>
-      <c r="C151" t="s">
-        <v>565</v>
-      </c>
       <c r="D151" t="s">
         <v>526</v>
       </c>
       <c r="E151" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F151" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G151" t="s">
         <v>927</v>
@@ -9003,19 +9236,10 @@
         <v>701</v>
       </c>
       <c r="J151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K151" t="s">
         <v>658</v>
-      </c>
-      <c r="L151" t="s">
-        <v>526</v>
-      </c>
-      <c r="M151" t="s">
-        <v>564</v>
-      </c>
-      <c r="N151" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -9023,104 +9247,116 @@
         <v>526</v>
       </c>
       <c r="B152" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C152" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D152" t="s">
         <v>526</v>
       </c>
       <c r="E152" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="F152" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G152" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H152" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I152" t="s">
-        <v>683</v>
+        <v>701</v>
+      </c>
+      <c r="J152" t="s">
+        <v>563</v>
       </c>
       <c r="K152" t="s">
-        <v>693</v>
+        <v>658</v>
+      </c>
+      <c r="L152" t="s">
+        <v>526</v>
+      </c>
+      <c r="M152" t="s">
+        <v>564</v>
+      </c>
+      <c r="N152" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
       <c r="B153" t="s">
-        <v>719</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>720</v>
+        <v>569</v>
       </c>
       <c r="D153" t="s">
-        <v>718</v>
+        <v>526</v>
       </c>
       <c r="E153" t="s">
-        <v>721</v>
+        <v>533</v>
       </c>
       <c r="F153" t="s">
-        <v>722</v>
+        <v>570</v>
       </c>
       <c r="G153" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H153" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I153" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K153" t="s">
         <v>693</v>
-      </c>
-      <c r="L153" t="s">
-        <v>718</v>
-      </c>
-      <c r="M153" t="s">
-        <v>721</v>
-      </c>
-      <c r="N153" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="B154" t="s">
-        <v>590</v>
+        <v>719</v>
       </c>
       <c r="C154" t="s">
-        <v>591</v>
+        <v>720</v>
       </c>
       <c r="D154" t="s">
-        <v>589</v>
+        <v>718</v>
       </c>
       <c r="E154" t="s">
-        <v>596</v>
+        <v>721</v>
       </c>
       <c r="F154" t="s">
-        <v>597</v>
+        <v>722</v>
       </c>
       <c r="G154" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H154" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I154" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="K154" t="s">
         <v>693</v>
+      </c>
+      <c r="L154" t="s">
+        <v>718</v>
+      </c>
+      <c r="M154" t="s">
+        <v>721</v>
+      </c>
+      <c r="N154" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -9128,25 +9364,25 @@
         <v>589</v>
       </c>
       <c r="B155" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C155" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D155" t="s">
         <v>589</v>
       </c>
       <c r="E155" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F155" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G155" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H155" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I155" t="s">
         <v>704</v>
@@ -9160,25 +9396,25 @@
         <v>589</v>
       </c>
       <c r="B156" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C156" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D156" t="s">
         <v>589</v>
       </c>
       <c r="E156" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F156" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G156" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H156" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I156" t="s">
         <v>704</v>
@@ -9188,6 +9424,15 @@
       </c>
     </row>
     <row r="157" spans="1:14">
+      <c r="A157" t="s">
+        <v>589</v>
+      </c>
+      <c r="B157" t="s">
+        <v>594</v>
+      </c>
+      <c r="C157" t="s">
+        <v>595</v>
+      </c>
       <c r="D157" t="s">
         <v>589</v>
       </c>
@@ -9195,7 +9440,7 @@
         <v>600</v>
       </c>
       <c r="F157" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G157" t="s">
         <v>660</v>
@@ -9204,80 +9449,71 @@
         <v>66</v>
       </c>
       <c r="I157" t="s">
-        <v>705</v>
-      </c>
-      <c r="J157" t="s">
-        <v>603</v>
+        <v>704</v>
       </c>
       <c r="K157" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" t="s">
-        <v>589</v>
-      </c>
-      <c r="B158" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158" t="s">
-        <v>605</v>
-      </c>
       <c r="D158" t="s">
         <v>589</v>
       </c>
       <c r="E158" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F158" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G158" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H158" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I158" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="J158" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K158" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B159" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C159" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D159" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E159" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F159" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G159" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H159" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I159" t="s">
-        <v>687</v>
+        <v>683</v>
+      </c>
+      <c r="J159" t="s">
+        <v>608</v>
       </c>
       <c r="K159" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9285,28 +9521,28 @@
         <v>609</v>
       </c>
       <c r="B160" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C160" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D160" t="s">
         <v>609</v>
       </c>
       <c r="E160" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F160" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G160" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H160" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I160" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K160" t="s">
         <v>693</v>
@@ -9314,22 +9550,22 @@
     </row>
     <row r="161" spans="1:17">
       <c r="A161" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B161" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C161" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D161" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E161" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F161" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G161" t="s">
         <v>661</v>
@@ -9346,22 +9582,22 @@
     </row>
     <row r="162" spans="1:17">
       <c r="A162" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>619</v>
       </c>
       <c r="C162" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D162" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>621</v>
       </c>
       <c r="F162" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G162" t="s">
         <v>661</v>
@@ -9375,61 +9611,67 @@
       <c r="K162" t="s">
         <v>693</v>
       </c>
-      <c r="L162" t="s">
-        <v>623</v>
-      </c>
-      <c r="M162" t="s">
-        <v>289</v>
-      </c>
-      <c r="N162" t="s">
-        <v>626</v>
-      </c>
-      <c r="O162" t="s">
-        <v>623</v>
-      </c>
-      <c r="P162" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>627</v>
-      </c>
     </row>
     <row r="163" spans="1:17">
       <c r="A163" t="s">
+        <v>623</v>
+      </c>
+      <c r="B163" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" t="s">
+        <v>624</v>
+      </c>
+      <c r="D163" t="s">
+        <v>623</v>
+      </c>
+      <c r="E163" t="s">
+        <v>289</v>
+      </c>
+      <c r="F163" t="s">
+        <v>625</v>
+      </c>
+      <c r="G163" t="s">
+        <v>661</v>
+      </c>
+      <c r="H163" t="s">
+        <v>662</v>
+      </c>
+      <c r="I163" t="s">
+        <v>681</v>
+      </c>
+      <c r="K163" t="s">
+        <v>693</v>
+      </c>
+      <c r="L163" t="s">
+        <v>623</v>
+      </c>
+      <c r="M163" t="s">
+        <v>289</v>
+      </c>
+      <c r="N163" t="s">
+        <v>626</v>
+      </c>
+      <c r="O163" t="s">
+        <v>623</v>
+      </c>
+      <c r="P163" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" t="s">
         <v>628</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>632</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>633</v>
       </c>
-      <c r="D163" t="s">
-        <v>628</v>
-      </c>
-      <c r="E163" t="s">
-        <v>298</v>
-      </c>
-      <c r="F163" t="s">
-        <v>629</v>
-      </c>
-      <c r="G163" t="s">
-        <v>660</v>
-      </c>
-      <c r="H163" t="s">
-        <v>66</v>
-      </c>
-      <c r="I163" t="s">
-        <v>687</v>
-      </c>
-      <c r="J163" t="s">
-        <v>630</v>
-      </c>
-      <c r="K163" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
       <c r="D164" t="s">
         <v>628</v>
       </c>
@@ -9437,7 +9679,7 @@
         <v>298</v>
       </c>
       <c r="F164" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G164" t="s">
         <v>660</v>
@@ -9456,15 +9698,6 @@
       </c>
     </row>
     <row r="165" spans="1:17">
-      <c r="A165" t="s">
-        <v>628</v>
-      </c>
-      <c r="B165" t="s">
-        <v>298</v>
-      </c>
-      <c r="C165" t="s">
-        <v>635</v>
-      </c>
       <c r="D165" t="s">
         <v>628</v>
       </c>
@@ -9472,7 +9705,7 @@
         <v>298</v>
       </c>
       <c r="F165" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G165" t="s">
         <v>660</v>
@@ -9481,18 +9714,24 @@
         <v>66</v>
       </c>
       <c r="I165" t="s">
-        <v>684</v>
+        <v>687</v>
+      </c>
+      <c r="J165" t="s">
+        <v>630</v>
+      </c>
+      <c r="K165" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="166" spans="1:17">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>628</v>
       </c>
       <c r="B166" t="s">
         <v>298</v>
       </c>
       <c r="C166" t="s">
-        <v>750</v>
+        <v>635</v>
       </c>
       <c r="D166" t="s">
         <v>628</v>
@@ -9501,7 +9740,7 @@
         <v>298</v>
       </c>
       <c r="F166" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G166" t="s">
         <v>660</v>
@@ -9512,22 +9751,16 @@
       <c r="I166" t="s">
         <v>684</v>
       </c>
-      <c r="J166" t="s">
-        <v>630</v>
-      </c>
-      <c r="K166" t="s">
-        <v>693</v>
-      </c>
     </row>
     <row r="167" spans="1:17">
       <c r="A167" t="s">
-        <v>628</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
         <v>298</v>
       </c>
       <c r="C167" t="s">
-        <v>634</v>
+        <v>750</v>
       </c>
       <c r="D167" t="s">
         <v>628</v>
@@ -9536,7 +9769,7 @@
         <v>298</v>
       </c>
       <c r="F167" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G167" t="s">
         <v>660</v>
@@ -9559,107 +9792,101 @@
         <v>628</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C168" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D168" t="s">
         <v>628</v>
       </c>
       <c r="E168" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F168" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G168" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H168" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I168" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="J168" t="s">
+        <v>630</v>
       </c>
       <c r="K168" t="s">
         <v>693</v>
-      </c>
-      <c r="L168" t="s">
-        <v>628</v>
-      </c>
-      <c r="M168" t="s">
-        <v>289</v>
-      </c>
-      <c r="N168" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="169" spans="1:17">
       <c r="A169" t="s">
+        <v>628</v>
+      </c>
+      <c r="B169" t="s">
+        <v>293</v>
+      </c>
+      <c r="C169" t="s">
+        <v>638</v>
+      </c>
+      <c r="D169" t="s">
+        <v>628</v>
+      </c>
+      <c r="E169" t="s">
+        <v>289</v>
+      </c>
+      <c r="F169" t="s">
+        <v>639</v>
+      </c>
+      <c r="G169" t="s">
+        <v>661</v>
+      </c>
+      <c r="H169" t="s">
+        <v>662</v>
+      </c>
+      <c r="I169" t="s">
+        <v>681</v>
+      </c>
+      <c r="K169" t="s">
+        <v>693</v>
+      </c>
+      <c r="L169" t="s">
+        <v>628</v>
+      </c>
+      <c r="M169" t="s">
+        <v>289</v>
+      </c>
+      <c r="N169" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" t="s">
         <v>479</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>641</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>642</v>
       </c>
-      <c r="D169" t="s">
-        <v>479</v>
-      </c>
-      <c r="E169" t="s">
-        <v>480</v>
-      </c>
-      <c r="F169" t="s">
-        <v>481</v>
-      </c>
-      <c r="G169" t="s">
-        <v>660</v>
-      </c>
-      <c r="H169" t="s">
-        <v>66</v>
-      </c>
-      <c r="I169" t="s">
-        <v>697</v>
-      </c>
-      <c r="K169" t="s">
-        <v>693</v>
-      </c>
-      <c r="L169" t="s">
-        <v>479</v>
-      </c>
-      <c r="M169" t="s">
-        <v>480</v>
-      </c>
-      <c r="N169" t="s">
-        <v>482</v>
-      </c>
-      <c r="O169" t="s">
-        <v>479</v>
-      </c>
-      <c r="P169" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17">
       <c r="D170" t="s">
         <v>479</v>
       </c>
       <c r="E170" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="F170" t="s">
-        <v>644</v>
+        <v>481</v>
       </c>
       <c r="G170" t="s">
-        <v>930</v>
+        <v>660</v>
       </c>
       <c r="H170" t="s">
-        <v>923</v>
+        <v>66</v>
       </c>
       <c r="I170" t="s">
         <v>697</v>
@@ -9671,36 +9898,36 @@
         <v>479</v>
       </c>
       <c r="M170" t="s">
-        <v>643</v>
+        <v>480</v>
       </c>
       <c r="N170" t="s">
-        <v>645</v>
+        <v>482</v>
+      </c>
+      <c r="O170" t="s">
+        <v>479</v>
+      </c>
+      <c r="P170" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="171" spans="1:17">
-      <c r="A171" t="s">
-        <v>479</v>
-      </c>
-      <c r="B171" t="s">
-        <v>646</v>
-      </c>
-      <c r="C171" t="s">
-        <v>647</v>
-      </c>
       <c r="D171" t="s">
         <v>479</v>
       </c>
       <c r="E171" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F171" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G171" t="s">
-        <v>659</v>
+        <v>930</v>
       </c>
       <c r="H171" t="s">
-        <v>662</v>
+        <v>923</v>
       </c>
       <c r="I171" t="s">
         <v>697</v>
@@ -9708,43 +9935,58 @@
       <c r="K171" t="s">
         <v>693</v>
       </c>
+      <c r="L171" t="s">
+        <v>479</v>
+      </c>
+      <c r="M171" t="s">
+        <v>643</v>
+      </c>
+      <c r="N171" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="172" spans="1:17">
       <c r="A172" t="s">
+        <v>479</v>
+      </c>
+      <c r="B172" t="s">
+        <v>646</v>
+      </c>
+      <c r="C172" t="s">
+        <v>647</v>
+      </c>
+      <c r="D172" t="s">
+        <v>479</v>
+      </c>
+      <c r="E172" t="s">
+        <v>648</v>
+      </c>
+      <c r="F172" t="s">
+        <v>649</v>
+      </c>
+      <c r="G172" t="s">
+        <v>659</v>
+      </c>
+      <c r="H172" t="s">
+        <v>662</v>
+      </c>
+      <c r="I172" t="s">
+        <v>697</v>
+      </c>
+      <c r="K172" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" t="s">
         <v>651</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>652</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>650</v>
       </c>
-      <c r="D172" t="s">
-        <v>651</v>
-      </c>
-      <c r="E172" t="s">
-        <v>653</v>
-      </c>
-      <c r="F172" t="s">
-        <v>654</v>
-      </c>
-      <c r="G172" t="s">
-        <v>658</v>
-      </c>
-      <c r="H172" t="s">
-        <v>663</v>
-      </c>
-      <c r="I172" t="s">
-        <v>683</v>
-      </c>
-      <c r="J172" t="s">
-        <v>655</v>
-      </c>
-      <c r="K172" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
       <c r="D173" t="s">
         <v>651</v>
       </c>
@@ -9752,13 +9994,13 @@
         <v>653</v>
       </c>
       <c r="F173" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G173" t="s">
-        <v>927</v>
+        <v>658</v>
       </c>
       <c r="H173" t="s">
-        <v>928</v>
+        <v>663</v>
       </c>
       <c r="I173" t="s">
         <v>683</v>
@@ -9778,7 +10020,7 @@
         <v>653</v>
       </c>
       <c r="F174" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G174" t="s">
         <v>927</v>
@@ -9797,37 +10039,40 @@
       </c>
     </row>
     <row r="175" spans="1:17">
-      <c r="A175" t="s">
-        <v>671</v>
-      </c>
-      <c r="B175" t="s">
-        <v>672</v>
-      </c>
-      <c r="C175" t="s">
-        <v>673</v>
+      <c r="D175" t="s">
+        <v>651</v>
+      </c>
+      <c r="E175" t="s">
+        <v>653</v>
+      </c>
+      <c r="F175" t="s">
+        <v>657</v>
       </c>
       <c r="G175" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="H175" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="I175" t="s">
-        <v>693</v>
+        <v>683</v>
+      </c>
+      <c r="J175" t="s">
+        <v>655</v>
       </c>
       <c r="K175" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="176" spans="1:17">
       <c r="A176" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B176" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C176" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G176" t="s">
         <v>931</v>
@@ -9844,13 +10089,13 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B177" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C177" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G177" t="s">
         <v>931</v>
@@ -9858,92 +10103,83 @@
       <c r="H177" t="s">
         <v>932</v>
       </c>
+      <c r="I177" t="s">
+        <v>693</v>
+      </c>
       <c r="K177" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="D178" t="s">
+      <c r="A178" t="s">
+        <v>677</v>
+      </c>
+      <c r="B178" t="s">
+        <v>678</v>
+      </c>
+      <c r="C178" t="s">
+        <v>679</v>
+      </c>
+      <c r="G178" t="s">
+        <v>931</v>
+      </c>
+      <c r="H178" t="s">
+        <v>932</v>
+      </c>
+      <c r="K178" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="D179" t="s">
         <v>324</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>349</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
         <v>710</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>660</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H179" t="s">
         <v>66</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I179" t="s">
         <v>703</v>
       </c>
-      <c r="K178" t="s">
-        <v>693</v>
-      </c>
-      <c r="L178" t="s">
+      <c r="K179" t="s">
+        <v>693</v>
+      </c>
+      <c r="L179" t="s">
         <v>324</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M179" t="s">
         <v>349</v>
       </c>
-      <c r="N178" t="s">
+      <c r="N179" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14">
-      <c r="A179" t="s">
-        <v>609</v>
-      </c>
-      <c r="B179" t="s">
-        <v>730</v>
-      </c>
-      <c r="C179" t="s">
-        <v>731</v>
-      </c>
-      <c r="D179" t="s">
-        <v>609</v>
-      </c>
-      <c r="E179" t="s">
-        <v>732</v>
-      </c>
-      <c r="F179" t="s">
-        <v>733</v>
-      </c>
-      <c r="G179" t="s">
-        <v>661</v>
-      </c>
-      <c r="H179" t="s">
-        <v>662</v>
-      </c>
-      <c r="I179" t="s">
-        <v>681</v>
-      </c>
-      <c r="K179" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>734</v>
+        <v>609</v>
       </c>
       <c r="B180" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C180" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D180" t="s">
-        <v>734</v>
+        <v>609</v>
       </c>
       <c r="E180" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F180" t="s">
-        <v>933</v>
+        <v>733</v>
       </c>
       <c r="G180" t="s">
         <v>661</v>
@@ -9957,37 +10193,28 @@
       <c r="K180" t="s">
         <v>693</v>
       </c>
-      <c r="L180" t="s">
-        <v>734</v>
-      </c>
-      <c r="M180" t="s">
-        <v>737</v>
-      </c>
-      <c r="N180" t="s">
-        <v>904</v>
-      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B181" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C181" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D181" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="E181" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F181" t="s">
-        <v>742</v>
+        <v>933</v>
       </c>
       <c r="G181" t="s">
-        <v>743</v>
+        <v>661</v>
       </c>
       <c r="H181" t="s">
         <v>662</v>
@@ -9998,34 +10225,43 @@
       <c r="K181" t="s">
         <v>693</v>
       </c>
+      <c r="L181" t="s">
+        <v>734</v>
+      </c>
+      <c r="M181" t="s">
+        <v>737</v>
+      </c>
+      <c r="N181" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B182" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C182" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D182" t="s">
         <v>741</v>
       </c>
       <c r="E182" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F182" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G182" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="H182" t="s">
         <v>662</v>
       </c>
       <c r="I182" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="K182" t="s">
         <v>693</v>
@@ -10033,45 +10269,54 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B183" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C183" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D183" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E183" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="F183" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="G183" t="s">
-        <v>760</v>
+        <v>659</v>
       </c>
       <c r="H183" t="s">
         <v>662</v>
       </c>
       <c r="I183" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="K183" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:14">
+      <c r="A184" t="s">
+        <v>751</v>
+      </c>
+      <c r="B184" t="s">
+        <v>752</v>
+      </c>
+      <c r="C184" t="s">
+        <v>753</v>
+      </c>
       <c r="D184" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E184" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F184" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G184" t="s">
         <v>760</v>
@@ -10080,48 +10325,45 @@
         <v>662</v>
       </c>
       <c r="I184" t="s">
-        <v>761</v>
-      </c>
-      <c r="J184" t="s">
-        <v>762</v>
+        <v>681</v>
       </c>
       <c r="K184" t="s">
-        <v>760</v>
-      </c>
-      <c r="L184" t="s">
-        <v>756</v>
-      </c>
-      <c r="M184" t="s">
-        <v>757</v>
-      </c>
-      <c r="N184" t="s">
-        <v>759</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:14">
       <c r="D185" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E185" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F185" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="G185" t="s">
-        <v>905</v>
+        <v>760</v>
       </c>
       <c r="H185" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I185" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="J185" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="K185" t="s">
-        <v>65</v>
+        <v>760</v>
+      </c>
+      <c r="L185" t="s">
+        <v>756</v>
+      </c>
+      <c r="M185" t="s">
+        <v>757</v>
+      </c>
+      <c r="N185" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -10129,10 +10371,10 @@
         <v>763</v>
       </c>
       <c r="E186" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F186" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G186" t="s">
         <v>905</v>
@@ -10151,128 +10393,122 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" t="s">
+      <c r="D187" t="s">
+        <v>763</v>
+      </c>
+      <c r="E187" t="s">
+        <v>766</v>
+      </c>
+      <c r="F187" t="s">
+        <v>767</v>
+      </c>
+      <c r="G187" t="s">
+        <v>905</v>
+      </c>
+      <c r="H187" t="s">
+        <v>66</v>
+      </c>
+      <c r="I187" t="s">
+        <v>682</v>
+      </c>
+      <c r="J187" t="s">
+        <v>768</v>
+      </c>
+      <c r="K187" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" t="s">
         <v>770</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>771</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>772</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>770</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E188" t="s">
         <v>773</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F188" t="s">
         <v>774</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G188" t="s">
         <v>927</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H188" t="s">
         <v>928</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I188" t="s">
         <v>683</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J188" t="s">
         <v>775</v>
       </c>
-      <c r="K187" t="s">
+      <c r="K188" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
-      <c r="D188" t="s">
+    <row r="189" spans="1:14">
+      <c r="D189" t="s">
         <v>479</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>780</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>781</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G189" t="s">
         <v>659</v>
-      </c>
-      <c r="H188" t="s">
-        <v>662</v>
-      </c>
-      <c r="I188" t="s">
-        <v>697</v>
-      </c>
-      <c r="K188" t="s">
-        <v>693</v>
-      </c>
-      <c r="L188" t="s">
-        <v>479</v>
-      </c>
-      <c r="M188" t="s">
-        <v>780</v>
-      </c>
-      <c r="N188" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
-      <c r="A189" t="s">
-        <v>787</v>
-      </c>
-      <c r="B189" t="s">
-        <v>788</v>
-      </c>
-      <c r="C189" t="s">
-        <v>789</v>
-      </c>
-      <c r="D189" t="s">
-        <v>787</v>
-      </c>
-      <c r="E189" t="s">
-        <v>790</v>
-      </c>
-      <c r="F189" t="s">
-        <v>791</v>
-      </c>
-      <c r="G189" t="s">
-        <v>792</v>
       </c>
       <c r="H189" t="s">
         <v>662</v>
       </c>
       <c r="I189" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="K189" t="s">
         <v>693</v>
+      </c>
+      <c r="L189" t="s">
+        <v>479</v>
+      </c>
+      <c r="M189" t="s">
+        <v>780</v>
+      </c>
+      <c r="N189" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B190" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C190" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D190" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E190" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F190" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G190" t="s">
-        <v>660</v>
+        <v>792</v>
       </c>
       <c r="H190" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I190" t="s">
         <v>692</v>
@@ -10283,28 +10519,34 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>571</v>
+        <v>793</v>
       </c>
       <c r="B191" t="s">
-        <v>572</v>
+        <v>794</v>
       </c>
       <c r="C191" t="s">
-        <v>573</v>
+        <v>795</v>
+      </c>
+      <c r="D191" t="s">
+        <v>793</v>
+      </c>
+      <c r="E191" t="s">
+        <v>796</v>
+      </c>
+      <c r="F191" t="s">
+        <v>797</v>
       </c>
       <c r="G191" t="s">
-        <v>927</v>
+        <v>660</v>
       </c>
       <c r="H191" t="s">
-        <v>928</v>
+        <v>66</v>
       </c>
       <c r="I191" t="s">
-        <v>702</v>
-      </c>
-      <c r="J191" t="s">
-        <v>588</v>
+        <v>692</v>
       </c>
       <c r="K191" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -10312,10 +10554,10 @@
         <v>571</v>
       </c>
       <c r="B192" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C192" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G192" t="s">
         <v>927</v>
@@ -10338,10 +10580,10 @@
         <v>571</v>
       </c>
       <c r="B193" t="s">
-        <v>799</v>
+        <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>799</v>
+        <v>580</v>
       </c>
       <c r="G193" t="s">
         <v>927</v>
@@ -10364,10 +10606,10 @@
         <v>571</v>
       </c>
       <c r="B194" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C194" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G194" t="s">
         <v>927</v>
@@ -10390,10 +10632,10 @@
         <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C195" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G195" t="s">
         <v>927</v>
@@ -10416,10 +10658,10 @@
         <v>571</v>
       </c>
       <c r="B196" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C196" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G196" t="s">
         <v>927</v>
@@ -10442,10 +10684,10 @@
         <v>571</v>
       </c>
       <c r="B197" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C197" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G197" t="s">
         <v>927</v>
@@ -10468,10 +10710,10 @@
         <v>571</v>
       </c>
       <c r="B198" t="s">
-        <v>574</v>
+        <v>803</v>
       </c>
       <c r="C198" t="s">
-        <v>575</v>
+        <v>803</v>
       </c>
       <c r="G198" t="s">
         <v>927</v>
@@ -10494,10 +10736,10 @@
         <v>571</v>
       </c>
       <c r="B199" t="s">
-        <v>804</v>
+        <v>574</v>
       </c>
       <c r="C199" t="s">
-        <v>804</v>
+        <v>575</v>
       </c>
       <c r="G199" t="s">
         <v>927</v>
@@ -10520,10 +10762,10 @@
         <v>571</v>
       </c>
       <c r="B200" t="s">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="C200" t="s">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="G200" t="s">
         <v>927</v>
@@ -10546,10 +10788,10 @@
         <v>571</v>
       </c>
       <c r="B201" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C201" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G201" t="s">
         <v>927</v>
@@ -10572,10 +10814,10 @@
         <v>571</v>
       </c>
       <c r="B202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G202" t="s">
         <v>927</v>
@@ -10598,10 +10840,10 @@
         <v>571</v>
       </c>
       <c r="B203" t="s">
-        <v>805</v>
+        <v>583</v>
       </c>
       <c r="C203" t="s">
-        <v>805</v>
+        <v>583</v>
       </c>
       <c r="G203" t="s">
         <v>927</v>
@@ -10624,10 +10866,10 @@
         <v>571</v>
       </c>
       <c r="B204" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C204" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G204" t="s">
         <v>927</v>
@@ -10650,10 +10892,10 @@
         <v>571</v>
       </c>
       <c r="B205" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C205" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G205" t="s">
         <v>927</v>
@@ -10676,10 +10918,10 @@
         <v>571</v>
       </c>
       <c r="B206" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C206" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="G206" t="s">
         <v>927</v>
@@ -10702,10 +10944,10 @@
         <v>571</v>
       </c>
       <c r="B207" t="s">
-        <v>584</v>
+        <v>798</v>
       </c>
       <c r="C207" t="s">
-        <v>584</v>
+        <v>798</v>
       </c>
       <c r="G207" t="s">
         <v>927</v>
@@ -10728,10 +10970,10 @@
         <v>571</v>
       </c>
       <c r="B208" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C208" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G208" t="s">
         <v>927</v>
@@ -10749,24 +10991,15 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
         <v>571</v>
       </c>
       <c r="B209" t="s">
-        <v>837</v>
+        <v>585</v>
       </c>
       <c r="C209" t="s">
-        <v>838</v>
-      </c>
-      <c r="D209" t="s">
-        <v>571</v>
-      </c>
-      <c r="E209" t="s">
-        <v>886</v>
-      </c>
-      <c r="F209" t="s">
-        <v>887</v>
+        <v>585</v>
       </c>
       <c r="G209" t="s">
         <v>927</v>
@@ -10784,39 +11017,42 @@
         <v>658</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>571</v>
       </c>
       <c r="B210" t="s">
-        <v>576</v>
+        <v>837</v>
       </c>
       <c r="C210" t="s">
-        <v>577</v>
+        <v>838</v>
       </c>
       <c r="D210" t="s">
         <v>571</v>
       </c>
       <c r="E210" t="s">
-        <v>578</v>
+        <v>886</v>
       </c>
       <c r="F210" t="s">
-        <v>579</v>
+        <v>887</v>
       </c>
       <c r="G210" t="s">
-        <v>660</v>
+        <v>927</v>
       </c>
       <c r="H210" t="s">
-        <v>66</v>
+        <v>928</v>
       </c>
       <c r="I210" t="s">
-        <v>692</v>
+        <v>702</v>
+      </c>
+      <c r="J210" t="s">
+        <v>588</v>
       </c>
       <c r="K210" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>571</v>
       </c>
@@ -10824,7 +11060,7 @@
         <v>576</v>
       </c>
       <c r="C211" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D211" t="s">
         <v>571</v>
@@ -10833,7 +11069,7 @@
         <v>578</v>
       </c>
       <c r="F211" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G211" t="s">
         <v>660</v>
@@ -10848,15 +11084,24 @@
         <v>693</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:14">
+      <c r="A212" t="s">
+        <v>571</v>
+      </c>
+      <c r="B212" t="s">
+        <v>576</v>
+      </c>
+      <c r="C212" t="s">
+        <v>586</v>
+      </c>
       <c r="D212" t="s">
-        <v>124</v>
+        <v>571</v>
       </c>
       <c r="E212" t="s">
-        <v>808</v>
+        <v>578</v>
       </c>
       <c r="F212" t="s">
-        <v>809</v>
+        <v>587</v>
       </c>
       <c r="G212" t="s">
         <v>660</v>
@@ -10865,105 +11110,105 @@
         <v>66</v>
       </c>
       <c r="I212" t="s">
+        <v>692</v>
+      </c>
+      <c r="K212" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="D213" t="s">
+        <v>124</v>
+      </c>
+      <c r="E213" t="s">
+        <v>808</v>
+      </c>
+      <c r="F213" t="s">
+        <v>809</v>
+      </c>
+      <c r="G213" t="s">
+        <v>660</v>
+      </c>
+      <c r="H213" t="s">
+        <v>66</v>
+      </c>
+      <c r="I213" t="s">
         <v>684</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J213" t="s">
         <v>142</v>
       </c>
-      <c r="K212" t="s">
+      <c r="K213" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
-      <c r="A213" t="s">
+    <row r="214" spans="1:14">
+      <c r="A214" t="s">
         <v>589</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>810</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>811</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G214" t="s">
         <v>927</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H214" t="s">
         <v>928</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I214" t="s">
         <v>692</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J214" t="s">
         <v>812</v>
       </c>
-      <c r="K213" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="A214" t="s">
+      <c r="K214" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" t="s">
         <v>813</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>814</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>815</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
         <v>718</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E215" t="s">
         <v>814</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F215" t="s">
         <v>816</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G215" t="s">
         <v>818</v>
-      </c>
-      <c r="H214" t="s">
-        <v>662</v>
-      </c>
-      <c r="I214" t="s">
-        <v>817</v>
-      </c>
-      <c r="K214" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="A215" t="s">
-        <v>738</v>
-      </c>
-      <c r="B215" t="s">
-        <v>820</v>
-      </c>
-      <c r="C215" t="s">
-        <v>821</v>
-      </c>
-      <c r="G215" t="s">
-        <v>743</v>
       </c>
       <c r="H215" t="s">
         <v>662</v>
       </c>
       <c r="I215" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="K215" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>628</v>
+        <v>738</v>
       </c>
       <c r="B216" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C216" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G216" t="s">
         <v>743</v>
@@ -10972,44 +11217,53 @@
         <v>662</v>
       </c>
       <c r="I216" t="s">
+        <v>822</v>
+      </c>
+      <c r="K216" t="s">
+        <v>693</v>
+      </c>
+      <c r="L216" t="s">
+        <v>820</v>
+      </c>
+      <c r="M216" t="s">
+        <v>741</v>
+      </c>
+      <c r="N216" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" t="s">
+        <v>628</v>
+      </c>
+      <c r="B217" t="s">
+        <v>823</v>
+      </c>
+      <c r="C217" t="s">
+        <v>824</v>
+      </c>
+      <c r="G217" t="s">
+        <v>743</v>
+      </c>
+      <c r="H217" t="s">
+        <v>662</v>
+      </c>
+      <c r="I217" t="s">
         <v>884</v>
       </c>
-      <c r="K216" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
-      <c r="D217" t="s">
+      <c r="K217" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="D218" t="s">
         <v>825</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E218" t="s">
         <v>826</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F218" t="s">
         <v>827</v>
-      </c>
-      <c r="G217" t="s">
-        <v>660</v>
-      </c>
-      <c r="H217" t="s">
-        <v>66</v>
-      </c>
-      <c r="I217" t="s">
-        <v>681</v>
-      </c>
-      <c r="K217" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="D218" t="s">
-        <v>828</v>
-      </c>
-      <c r="E218" t="s">
-        <v>829</v>
-      </c>
-      <c r="F218" t="s">
-        <v>830</v>
       </c>
       <c r="G218" t="s">
         <v>660</v>
@@ -11018,21 +11272,21 @@
         <v>66</v>
       </c>
       <c r="I218" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K218" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:14">
       <c r="D219" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E219" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F219" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G219" t="s">
         <v>660</v>
@@ -11041,102 +11295,93 @@
         <v>66</v>
       </c>
       <c r="I219" t="s">
+        <v>683</v>
+      </c>
+      <c r="K219" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="D220" t="s">
+        <v>831</v>
+      </c>
+      <c r="E220" t="s">
+        <v>832</v>
+      </c>
+      <c r="F220" t="s">
+        <v>833</v>
+      </c>
+      <c r="G220" t="s">
+        <v>660</v>
+      </c>
+      <c r="H220" t="s">
+        <v>66</v>
+      </c>
+      <c r="I220" t="s">
         <v>687</v>
       </c>
-      <c r="K219" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" t="s">
+      <c r="K220" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" t="s">
         <v>306</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>307</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>834</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G221" t="s">
         <v>658</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H221" t="s">
         <v>663</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I221" t="s">
         <v>683</v>
       </c>
-      <c r="K220" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="D221" t="s">
+      <c r="K221" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="D222" t="s">
         <v>469</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E222" t="s">
         <v>472</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" t="s">
         <v>835</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G222" t="s">
         <v>906</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H222" t="s">
         <v>907</v>
-      </c>
-      <c r="I221" t="s">
-        <v>697</v>
-      </c>
-      <c r="J221" t="s">
-        <v>898</v>
-      </c>
-      <c r="K221" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="D222" t="s">
-        <v>462</v>
-      </c>
-      <c r="E222" t="s">
-        <v>465</v>
-      </c>
-      <c r="F222" t="s">
-        <v>836</v>
-      </c>
-      <c r="G222" t="s">
-        <v>660</v>
-      </c>
-      <c r="H222" t="s">
-        <v>66</v>
       </c>
       <c r="I222" t="s">
         <v>697</v>
       </c>
+      <c r="J222" t="s">
+        <v>898</v>
+      </c>
       <c r="K222" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
-      <c r="A223" t="s">
-        <v>841</v>
-      </c>
-      <c r="B223" t="s">
-        <v>842</v>
-      </c>
-      <c r="C223" t="s">
-        <v>843</v>
-      </c>
+    <row r="223" spans="1:14">
       <c r="D223" t="s">
-        <v>841</v>
+        <v>462</v>
       </c>
       <c r="E223" t="s">
-        <v>842</v>
+        <v>465</v>
       </c>
       <c r="F223" t="s">
-        <v>894</v>
+        <v>836</v>
       </c>
       <c r="G223" t="s">
         <v>660</v>
@@ -11145,67 +11390,76 @@
         <v>66</v>
       </c>
       <c r="I223" t="s">
+        <v>697</v>
+      </c>
+      <c r="K223" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" t="s">
+        <v>841</v>
+      </c>
+      <c r="B224" t="s">
+        <v>842</v>
+      </c>
+      <c r="C224" t="s">
+        <v>843</v>
+      </c>
+      <c r="D224" t="s">
+        <v>841</v>
+      </c>
+      <c r="E224" t="s">
+        <v>842</v>
+      </c>
+      <c r="F224" t="s">
+        <v>894</v>
+      </c>
+      <c r="G224" t="s">
+        <v>660</v>
+      </c>
+      <c r="H224" t="s">
+        <v>66</v>
+      </c>
+      <c r="I224" t="s">
         <v>885</v>
       </c>
-      <c r="K223" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" t="s">
+      <c r="K224" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" t="s">
         <v>844</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>845</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>846</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G225" t="s">
         <v>658</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H225" t="s">
         <v>663</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I225" t="s">
         <v>701</v>
       </c>
-      <c r="K224" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="D225" t="s">
+      <c r="K225" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="D226" t="s">
         <v>847</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E226" t="s">
         <v>848</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" t="s">
         <v>849</v>
-      </c>
-      <c r="G225" t="s">
-        <v>660</v>
-      </c>
-      <c r="H225" t="s">
-        <v>66</v>
-      </c>
-      <c r="I225" t="s">
-        <v>689</v>
-      </c>
-      <c r="K225" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="D226" t="s">
-        <v>161</v>
-      </c>
-      <c r="E226" t="s">
-        <v>850</v>
-      </c>
-      <c r="F226" t="s">
-        <v>851</v>
       </c>
       <c r="G226" t="s">
         <v>660</v>
@@ -11214,21 +11468,21 @@
         <v>66</v>
       </c>
       <c r="I226" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="K226" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:14">
       <c r="D227" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="E227" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F227" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G227" t="s">
         <v>660</v>
@@ -11237,27 +11491,27 @@
         <v>66</v>
       </c>
       <c r="I227" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K227" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:14">
       <c r="D228" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="E228" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F228" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G228" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H228" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I228" t="s">
         <v>681</v>
@@ -11266,21 +11520,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:14">
       <c r="D229" t="s">
         <v>324</v>
       </c>
       <c r="E229" t="s">
-        <v>341</v>
+        <v>854</v>
       </c>
       <c r="F229" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G229" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H229" t="s">
-        <v>66</v>
+        <v>663</v>
       </c>
       <c r="I229" t="s">
         <v>681</v>
@@ -11289,15 +11543,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:14">
       <c r="D230" t="s">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="E230" t="s">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="F230" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G230" t="s">
         <v>660</v>
@@ -11312,38 +11566,38 @@
         <v>693</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:14">
       <c r="D231" t="s">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="E231" t="s">
-        <v>858</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G231" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H231" t="s">
-        <v>663</v>
+        <v>66</v>
       </c>
       <c r="I231" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="K231" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:14">
       <c r="D232" t="s">
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F232" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G232" t="s">
         <v>658</v>
@@ -11352,64 +11606,67 @@
         <v>663</v>
       </c>
       <c r="I232" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K232" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:14">
       <c r="D233" t="s">
         <v>46</v>
       </c>
       <c r="E233" t="s">
+        <v>860</v>
+      </c>
+      <c r="F233" t="s">
+        <v>861</v>
+      </c>
+      <c r="G233" t="s">
+        <v>658</v>
+      </c>
+      <c r="H233" t="s">
+        <v>663</v>
+      </c>
+      <c r="I233" t="s">
+        <v>681</v>
+      </c>
+      <c r="K233" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="D234" t="s">
+        <v>46</v>
+      </c>
+      <c r="E234" t="s">
         <v>430</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F234" t="s">
         <v>862</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G234" t="s">
         <v>660</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H234" t="s">
         <v>66</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I234" t="s">
         <v>684</v>
       </c>
-      <c r="K233" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="D234" t="s">
+      <c r="K234" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="D235" t="s">
         <v>828</v>
       </c>
-      <c r="E234" t="s">
-        <v>863</v>
-      </c>
-      <c r="F234" t="s">
-        <v>864</v>
-      </c>
-      <c r="H234" t="s">
-        <v>932</v>
-      </c>
-      <c r="I234" t="s">
-        <v>761</v>
-      </c>
-      <c r="K234" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
-      <c r="D235" t="s">
-        <v>712</v>
-      </c>
       <c r="E235" t="s">
-        <v>865</v>
+        <v>967</v>
       </c>
       <c r="F235" t="s">
-        <v>866</v>
+        <v>966</v>
       </c>
       <c r="G235" t="s">
         <v>658</v>
@@ -11418,21 +11675,30 @@
         <v>663</v>
       </c>
       <c r="I235" t="s">
-        <v>689</v>
+        <v>761</v>
       </c>
       <c r="K235" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235" t="s">
+        <v>828</v>
+      </c>
+      <c r="M235" t="s">
+        <v>863</v>
+      </c>
+      <c r="N235" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="D236" t="s">
         <v>712</v>
       </c>
       <c r="E236" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F236" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G236" t="s">
         <v>658</v>
@@ -11447,90 +11713,90 @@
         <v>693</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
-      <c r="A237" t="s">
+    <row r="237" spans="1:14">
+      <c r="D237" t="s">
+        <v>712</v>
+      </c>
+      <c r="E237" t="s">
+        <v>867</v>
+      </c>
+      <c r="F237" t="s">
+        <v>868</v>
+      </c>
+      <c r="G237" t="s">
+        <v>658</v>
+      </c>
+      <c r="H237" t="s">
+        <v>663</v>
+      </c>
+      <c r="I237" t="s">
+        <v>689</v>
+      </c>
+      <c r="K237" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" t="s">
         <v>231</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>869</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>870</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G238" t="s">
         <v>743</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H238" t="s">
         <v>662</v>
       </c>
-      <c r="I237" t="s">
+      <c r="I238" t="s">
         <v>884</v>
       </c>
-      <c r="K237" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" t="s">
+      <c r="K238" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" t="s">
         <v>763</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>871</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>872</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G239" t="s">
         <v>658</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H239" t="s">
         <v>663</v>
       </c>
-      <c r="I238" t="s">
+      <c r="I239" t="s">
         <v>691</v>
       </c>
-      <c r="K238" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
-      <c r="D239" t="s">
+      <c r="K239" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="D240" t="s">
         <v>508</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E240" t="s">
         <v>516</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F240" t="s">
         <v>873</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G240" t="s">
         <v>660</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H240" t="s">
         <v>66</v>
-      </c>
-      <c r="I239" t="s">
-        <v>692</v>
-      </c>
-      <c r="K239" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="D240" t="s">
-        <v>718</v>
-      </c>
-      <c r="E240" t="s">
-        <v>874</v>
-      </c>
-      <c r="F240" t="s">
-        <v>875</v>
-      </c>
-      <c r="G240" t="s">
-        <v>658</v>
-      </c>
-      <c r="H240" t="s">
-        <v>663</v>
       </c>
       <c r="I240" t="s">
         <v>692</v>
@@ -11539,21 +11805,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:17">
       <c r="D241" t="s">
         <v>718</v>
       </c>
       <c r="E241" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F241" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G241" t="s">
-        <v>818</v>
+        <v>658</v>
       </c>
       <c r="H241" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I241" t="s">
         <v>692</v>
@@ -11562,21 +11828,21 @@
         <v>693</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>718</v>
       </c>
       <c r="E242" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F242" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G242" t="s">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="H242" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I242" t="s">
         <v>692</v>
@@ -11585,15 +11851,15 @@
         <v>693</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
-        <v>777</v>
+        <v>718</v>
       </c>
       <c r="E243" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F243" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G243" t="s">
         <v>658</v>
@@ -11602,253 +11868,496 @@
         <v>663</v>
       </c>
       <c r="I243" t="s">
+        <v>692</v>
+      </c>
+      <c r="K243" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="D244" t="s">
+        <v>777</v>
+      </c>
+      <c r="E244" t="s">
+        <v>880</v>
+      </c>
+      <c r="F244" t="s">
+        <v>881</v>
+      </c>
+      <c r="G244" t="s">
+        <v>658</v>
+      </c>
+      <c r="H244" t="s">
+        <v>663</v>
+      </c>
+      <c r="I244" t="s">
         <v>683</v>
       </c>
-      <c r="K243" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14">
-      <c r="D244" t="s">
+      <c r="K244" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="D245" t="s">
         <v>895</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E245" t="s">
         <v>896</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F245" t="s">
         <v>897</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G245" t="s">
         <v>660</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H245" t="s">
         <v>66</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I245" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
-      <c r="D245" t="s">
+    <row r="246" spans="1:17">
+      <c r="D246" t="s">
         <v>839</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E246" t="s">
         <v>840</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F246" t="s">
         <v>899</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G246" t="s">
         <v>927</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H246" t="s">
         <v>928</v>
       </c>
-      <c r="I245" t="s">
+      <c r="I246" t="s">
         <v>702</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J246" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
-      <c r="D246" t="s">
+    <row r="247" spans="1:17">
+      <c r="D247" t="s">
         <v>902</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E247" t="s">
         <v>903</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F247" t="s">
         <v>901</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G247" t="s">
         <v>660</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H247" t="s">
         <v>66</v>
       </c>
-      <c r="I246" t="s">
+      <c r="I247" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
-      <c r="D247" t="s">
+    <row r="248" spans="1:17">
+      <c r="D248" t="s">
         <v>674</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E248" t="s">
+        <v>934</v>
+      </c>
+      <c r="F248" t="s">
         <v>935</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G248" t="s">
+        <v>931</v>
+      </c>
+      <c r="H248" t="s">
+        <v>937</v>
+      </c>
+      <c r="I248" t="s">
         <v>936</v>
       </c>
-      <c r="G247" t="s">
-        <v>931</v>
-      </c>
-      <c r="H247" t="s">
+    </row>
+    <row r="249" spans="1:17">
+      <c r="D249" t="s">
         <v>938</v>
       </c>
-      <c r="I247" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14">
-      <c r="D248" t="s">
+      <c r="E249" t="s">
         <v>939</v>
       </c>
-      <c r="E248" t="s">
+      <c r="F249" t="s">
         <v>940</v>
       </c>
-      <c r="F248" t="s">
-        <v>941</v>
-      </c>
-      <c r="G248" t="s">
-        <v>65</v>
-      </c>
-      <c r="H248" t="s">
-        <v>942</v>
-      </c>
-      <c r="I248" t="s">
+      <c r="G249" t="s">
+        <v>980</v>
+      </c>
+      <c r="H249" t="s">
         <v>66</v>
       </c>
-      <c r="J248" t="s">
+      <c r="I249" t="s">
+        <v>982</v>
+      </c>
+      <c r="J249" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" ht="16.5">
+      <c r="D250" t="s">
+        <v>943</v>
+      </c>
+      <c r="E250" t="s">
+        <v>944</v>
+      </c>
+      <c r="F250" t="s">
+        <v>945</v>
+      </c>
+      <c r="G250" t="s">
+        <v>951</v>
+      </c>
+      <c r="H250" t="s">
+        <v>66</v>
+      </c>
+      <c r="I250" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" t="s">
+        <v>311</v>
+      </c>
+      <c r="B251" t="s">
+        <v>312</v>
+      </c>
+      <c r="C251" t="s">
+        <v>313</v>
+      </c>
+      <c r="D251" t="s">
+        <v>828</v>
+      </c>
+      <c r="E251" t="s">
+        <v>314</v>
+      </c>
+      <c r="F251" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" ht="16.5">
-      <c r="D249" t="s">
-        <v>945</v>
-      </c>
-      <c r="E249" t="s">
-        <v>946</v>
-      </c>
-      <c r="F249" t="s">
-        <v>947</v>
-      </c>
-      <c r="G249" t="s">
-        <v>953</v>
-      </c>
-      <c r="H249" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="I249" t="s">
+      <c r="G251" t="s">
+        <v>658</v>
+      </c>
+      <c r="H251" t="s">
+        <v>663</v>
+      </c>
+      <c r="I251" t="s">
+        <v>683</v>
+      </c>
+      <c r="L251" t="s">
+        <v>828</v>
+      </c>
+      <c r="M251" t="s">
+        <v>314</v>
+      </c>
+      <c r="N251" t="s">
+        <v>920</v>
+      </c>
+      <c r="O251" t="s">
+        <v>311</v>
+      </c>
+      <c r="P251" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="D252" t="s">
+        <v>288</v>
+      </c>
+      <c r="E252" t="s">
+        <v>954</v>
+      </c>
+      <c r="F252" t="s">
+        <v>955</v>
+      </c>
+      <c r="G252" t="s">
+        <v>951</v>
+      </c>
+      <c r="H252" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="250" spans="1:14">
-      <c r="A250" t="s">
-        <v>311</v>
-      </c>
-      <c r="B250" t="s">
-        <v>312</v>
-      </c>
-      <c r="C250" t="s">
-        <v>313</v>
-      </c>
-      <c r="D250" t="s">
-        <v>311</v>
-      </c>
-      <c r="E250" t="s">
-        <v>314</v>
-      </c>
-      <c r="F250" t="s">
-        <v>954</v>
-      </c>
-      <c r="G250" t="s">
+      <c r="I252" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" ht="16.5">
+      <c r="D253" t="s">
+        <v>391</v>
+      </c>
+      <c r="E253" t="s">
+        <v>956</v>
+      </c>
+      <c r="F253" t="s">
+        <v>957</v>
+      </c>
+      <c r="G253" t="s">
         <v>658</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H253" t="s">
         <v>663</v>
       </c>
-      <c r="I250" t="s">
+      <c r="I253" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="D254" t="s">
+        <v>526</v>
+      </c>
+      <c r="E254" t="s">
+        <v>958</v>
+      </c>
+      <c r="F254" t="s">
+        <v>959</v>
+      </c>
+      <c r="G254" t="s">
+        <v>927</v>
+      </c>
+      <c r="H254" t="s">
+        <v>928</v>
+      </c>
+      <c r="I254" t="s">
         <v>683</v>
       </c>
-      <c r="L250" t="s">
-        <v>311</v>
-      </c>
-      <c r="M250" t="s">
-        <v>314</v>
-      </c>
-      <c r="N250" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="258" spans="7:7">
+    </row>
+    <row r="255" spans="1:17">
+      <c r="D255" t="s">
+        <v>479</v>
+      </c>
+      <c r="E255" t="s">
+        <v>480</v>
+      </c>
+      <c r="F255" t="s">
+        <v>960</v>
+      </c>
+      <c r="G255" t="s">
+        <v>951</v>
+      </c>
+      <c r="H255" t="s">
+        <v>66</v>
+      </c>
+      <c r="I255" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="D256" t="s">
+        <v>366</v>
+      </c>
+      <c r="E256" t="s">
+        <v>964</v>
+      </c>
+      <c r="F256" t="s">
+        <v>965</v>
+      </c>
+      <c r="G256" t="s">
+        <v>660</v>
+      </c>
+      <c r="H256" t="s">
+        <v>66</v>
+      </c>
+      <c r="I256" t="s">
+        <v>687</v>
+      </c>
+      <c r="J256" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="257" spans="4:10">
+      <c r="D257" t="s">
+        <v>46</v>
+      </c>
+      <c r="E257" t="s">
+        <v>968</v>
+      </c>
+      <c r="F257" t="s">
+        <v>969</v>
+      </c>
+      <c r="G257" t="s">
+        <v>660</v>
+      </c>
+      <c r="H257" t="s">
+        <v>66</v>
+      </c>
+      <c r="I257" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="258" spans="4:10">
+      <c r="D258" t="s">
+        <v>526</v>
+      </c>
+      <c r="E258" t="s">
+        <v>970</v>
+      </c>
+      <c r="F258" t="s">
+        <v>971</v>
+      </c>
       <c r="G258" t="s">
-        <v>934</v>
+        <v>972</v>
+      </c>
+      <c r="H258" t="s">
+        <v>66</v>
+      </c>
+      <c r="I258" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="259" spans="4:10">
+      <c r="D259" t="s">
+        <v>938</v>
+      </c>
+      <c r="E259" t="s">
+        <v>973</v>
+      </c>
+      <c r="F259" t="s">
+        <v>974</v>
+      </c>
+      <c r="G259" t="s">
+        <v>660</v>
+      </c>
+      <c r="H259" t="s">
+        <v>66</v>
+      </c>
+      <c r="I259" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="260" spans="4:10">
+      <c r="D260" t="s">
+        <v>938</v>
+      </c>
+      <c r="E260" t="s">
+        <v>978</v>
+      </c>
+      <c r="F260" t="s">
+        <v>979</v>
+      </c>
+      <c r="G260" t="s">
+        <v>980</v>
+      </c>
+      <c r="H260" t="s">
+        <v>66</v>
+      </c>
+      <c r="I260" t="s">
+        <v>682</v>
+      </c>
+      <c r="J260" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W259" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="42" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="37" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576 F1:F244 F246:F1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+  <conditionalFormatting sqref="F247:F256 F1:F245 F259 F261:F1048576 C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="34" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="35"/>
     <cfRule type="duplicateValues" dxfId="26" priority="37"/>
     <cfRule type="duplicateValues" dxfId="25" priority="39"/>
     <cfRule type="duplicateValues" dxfId="24" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+  <conditionalFormatting sqref="F247:F256 F1:F245 F259 F261:F1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F244 F246:F1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  <conditionalFormatting sqref="F259 F1:F257 F261:F1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F261:F1048576 F1:F259">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F246">
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F258">
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J246 J248:J1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  <conditionalFormatting sqref="J249:J255 J1:J247 J257:J1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="4" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F245">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="N235">
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q82">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618FAF2-794F-4606-B5A5-89C8121CE673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827B871C-540D-4803-B282-B593488E898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1002">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3067,6 +3067,9 @@
   </si>
   <si>
     <t>STC4011B-DS</t>
+  </si>
+  <si>
+    <t>SC1138SO-N-Q-CC-00AR-1138</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3227,147 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4244,8 +4387,8 @@
   <dimension ref="A1:W269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J271" sqref="J271"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5010,7 +5153,7 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>1001</v>
       </c>
       <c r="G19" t="s">
         <v>904</v>
@@ -5026,6 +5169,15 @@
       </c>
       <c r="K19" t="s">
         <v>658</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -12678,136 +12830,174 @@
   <autoFilter ref="A1:W261" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="73" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="68" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188:C189">
-    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190 C1:C187 C269:C1048576 C192:C193 C212:C267 F194:F211">
-    <cfRule type="duplicateValues" dxfId="59" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="66" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="65" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="60" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F18 F212:F267 F269:F1048576 F20:F193">
+    <cfRule type="duplicateValues" dxfId="49" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F248">
+    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249:F258 F261 F263 C1:C187 F266 F269:F1048576 C269:C1048576 C190:C193 C212:C267 F1:F18 F20:F247">
+    <cfRule type="duplicateValues" dxfId="47" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F249:F258 F261 F263 F266 F269:F1048576 F1:F18 F212:F247 F20:F193">
+    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F261 F263 F266 F269:F1048576 F1:F18 F212:F259 F20:F193">
+    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F266 F269:F1048576 F1:F18 F212:F261 F20:F193">
+    <cfRule type="duplicateValues" dxfId="40" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F266 F269:F1048576 F1:F18 F212:F263 F20:F193">
+    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F267">
+    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F268">
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="51" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="50" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F193 F212:F267 F269:F1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F248">
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F258 F261 F263 C1:C187 F266 F269:F1048576 C269:C1048576 C190:C193 C212:C267 F1:F247">
-    <cfRule type="duplicateValues" dxfId="32" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F258 F261 F263 F266 F269:F1048576 F1:F193 F212:F247">
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F259">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F261 F263 F266 F269:F1048576 F1:F193 F212:F259">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266 F269:F1048576 F1:F193 F212:F261">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F266 F269:F1048576 F1:F193 F212:F263">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F267">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264:G264">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="20" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J251:J257 J1:J249 J259:J1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="15" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N191:N192">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N237">
-    <cfRule type="duplicateValues" dxfId="6" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827B871C-540D-4803-B282-B593488E898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB0CF4-0D46-4477-BF85-0ACC02C6B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1013">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2711,9 +2711,6 @@
     <t>NM.SC60226SS-DC-00CB</t>
   </si>
   <si>
-    <t>上海胜磁磁业有限公司</t>
-  </si>
-  <si>
     <t>SC1645A1-4601H</t>
   </si>
   <si>
@@ -3070,6 +3067,42 @@
   </si>
   <si>
     <t>SC1138SO-N-Q-CC-00AR-1138</t>
+  </si>
+  <si>
+    <t>NM.SC243XUA</t>
+  </si>
+  <si>
+    <t>NM.SC243XUA-CI-10AK</t>
+  </si>
+  <si>
+    <t>SC4002UA-95A</t>
+  </si>
+  <si>
+    <t>SC2442SO-CR-1XCX-2442</t>
+  </si>
+  <si>
+    <t>SC4688DC</t>
+  </si>
+  <si>
+    <t>SC4688DC-4688</t>
+  </si>
+  <si>
+    <t>SC1134SO-N-Q-CI-00AR-1134</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-GA-00AR-2402</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-2402</t>
+  </si>
+  <si>
+    <t>SC2442SO-Q-CR-1XCX-2442</t>
+  </si>
+  <si>
+    <t>SC2442SO-N-2442</t>
+  </si>
+  <si>
+    <t>SC2442UA(2943S1-1)-2442</t>
   </si>
 </sst>
 </file>
@@ -3197,7 +3230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3223,11 +3256,22 @@
     <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4384,11 +4428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W269"/>
+  <dimension ref="A1:W270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4515,9 +4559,6 @@
       <c r="I2" t="s">
         <v>682</v>
       </c>
-      <c r="K2" t="s">
-        <v>692</v>
-      </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
@@ -4556,9 +4597,6 @@
       <c r="I3" t="s">
         <v>682</v>
       </c>
-      <c r="K3" t="s">
-        <v>692</v>
-      </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
@@ -4597,9 +4635,6 @@
       <c r="I4" t="s">
         <v>682</v>
       </c>
-      <c r="K4" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="D5" t="s">
@@ -4623,9 +4658,6 @@
       <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
@@ -4658,9 +4690,6 @@
       <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="K6" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
@@ -4690,9 +4719,6 @@
       <c r="I7" t="s">
         <v>680</v>
       </c>
-      <c r="K7" t="s">
-        <v>692</v>
-      </c>
       <c r="L7" t="s">
         <v>43</v>
       </c>
@@ -4731,9 +4757,6 @@
       <c r="I8" t="s">
         <v>683</v>
       </c>
-      <c r="K8" t="s">
-        <v>692</v>
-      </c>
       <c r="L8" t="s">
         <v>43</v>
       </c>
@@ -4781,9 +4804,6 @@
       <c r="I9" t="s">
         <v>680</v>
       </c>
-      <c r="K9" t="s">
-        <v>692</v>
-      </c>
       <c r="L9" t="s">
         <v>54</v>
       </c>
@@ -4814,7 +4834,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -4824,9 +4844,6 @@
       </c>
       <c r="J10" t="s">
         <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -4840,7 +4857,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -4850,9 +4867,6 @@
       </c>
       <c r="J11" t="s">
         <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -4883,9 +4897,6 @@
       <c r="I12" t="s">
         <v>680</v>
       </c>
-      <c r="K12" t="s">
-        <v>692</v>
-      </c>
       <c r="L12" t="s">
         <v>46</v>
       </c>
@@ -4924,11 +4935,17 @@
       <c r="I13" t="s">
         <v>680</v>
       </c>
-      <c r="K13" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1012</v>
+      </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
@@ -4949,9 +4966,6 @@
       </c>
       <c r="J14" t="s">
         <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -4982,9 +4996,6 @@
       <c r="I15" t="s">
         <v>680</v>
       </c>
-      <c r="K15" t="s">
-        <v>692</v>
-      </c>
       <c r="L15" t="s">
         <v>423</v>
       </c>
@@ -5041,9 +5052,6 @@
       <c r="I16" t="s">
         <v>687</v>
       </c>
-      <c r="K16" t="s">
-        <v>692</v>
-      </c>
       <c r="L16" t="s">
         <v>46</v>
       </c>
@@ -5100,9 +5108,6 @@
       <c r="I17" t="s">
         <v>680</v>
       </c>
-      <c r="K17" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -5132,9 +5137,6 @@
       <c r="I18" t="s">
         <v>680</v>
       </c>
-      <c r="K18" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -5153,22 +5155,19 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="s">
+        <v>903</v>
+      </c>
+      <c r="H19" t="s">
         <v>904</v>
-      </c>
-      <c r="H19" t="s">
-        <v>905</v>
       </c>
       <c r="I19" t="s">
         <v>680</v>
       </c>
       <c r="J19" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" t="s">
-        <v>658</v>
       </c>
       <c r="L19" t="s">
         <v>104</v>
@@ -5197,7 +5196,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G20" t="s">
         <v>659</v>
@@ -5207,9 +5206,6 @@
       </c>
       <c r="I20" t="s">
         <v>681</v>
-      </c>
-      <c r="K20" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5232,7 +5228,7 @@
         <v>727</v>
       </c>
       <c r="G21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5242,9 +5238,6 @@
       </c>
       <c r="J21" t="s">
         <v>728</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5275,9 +5268,6 @@
       <c r="I22" t="s">
         <v>688</v>
       </c>
-      <c r="K22" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -5307,9 +5297,6 @@
       <c r="I23" t="s">
         <v>680</v>
       </c>
-      <c r="K23" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -5331,7 +5318,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5341,9 +5328,6 @@
       </c>
       <c r="J24" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5374,9 +5358,6 @@
       <c r="I25" t="s">
         <v>690</v>
       </c>
-      <c r="K25" t="s">
-        <v>692</v>
-      </c>
       <c r="L25" t="s">
         <v>124</v>
       </c>
@@ -5418,8 +5399,14 @@
       <c r="J26" t="s">
         <v>138</v>
       </c>
-      <c r="K26" t="s">
-        <v>692</v>
+      <c r="L26" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5450,9 +5437,6 @@
       <c r="I27" t="s">
         <v>686</v>
       </c>
-      <c r="K27" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -5485,9 +5469,6 @@
       <c r="J28" t="s">
         <v>142</v>
       </c>
-      <c r="K28" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
@@ -5520,9 +5501,6 @@
       <c r="J29" t="s">
         <v>142</v>
       </c>
-      <c r="K29" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -5555,9 +5533,6 @@
       <c r="J30" t="s">
         <v>142</v>
       </c>
-      <c r="K30" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="D31" t="s">
@@ -5581,9 +5556,6 @@
       <c r="J31" t="s">
         <v>142</v>
       </c>
-      <c r="K31" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -5613,9 +5585,6 @@
       <c r="I32" t="s">
         <v>691</v>
       </c>
-      <c r="K32" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5645,9 +5614,6 @@
       <c r="I33" t="s">
         <v>682</v>
       </c>
-      <c r="K33" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
@@ -5677,9 +5643,6 @@
       <c r="I34" t="s">
         <v>682</v>
       </c>
-      <c r="K34" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
@@ -5698,10 +5661,10 @@
         <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G35" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5711,9 +5674,6 @@
       </c>
       <c r="J35" t="s">
         <v>171</v>
-      </c>
-      <c r="K35" t="s">
-        <v>65</v>
       </c>
       <c r="L35" t="s">
         <v>165</v>
@@ -5753,9 +5713,6 @@
       <c r="I36" t="s">
         <v>685</v>
       </c>
-      <c r="K36" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="37" spans="1:20">
       <c r="D37" t="s">
@@ -5768,7 +5725,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5779,9 +5736,6 @@
       <c r="J37" t="s">
         <v>168</v>
       </c>
-      <c r="K37" t="s">
-        <v>65</v>
-      </c>
       <c r="L37" t="s">
         <v>165</v>
       </c>
@@ -5807,7 +5761,7 @@
         <v>169</v>
       </c>
       <c r="T37" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5830,7 +5784,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -5840,9 +5794,6 @@
       </c>
       <c r="J38" t="s">
         <v>179</v>
-      </c>
-      <c r="K38" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -5865,7 +5816,7 @@
         <v>663</v>
       </c>
       <c r="G39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -5876,9 +5827,6 @@
       <c r="J39" t="s">
         <v>183</v>
       </c>
-      <c r="K39" t="s">
-        <v>65</v>
-      </c>
       <c r="L39" t="s">
         <v>165</v>
       </c>
@@ -5886,7 +5834,7 @@
         <v>182</v>
       </c>
       <c r="N39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5909,7 +5857,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -5919,9 +5867,6 @@
       </c>
       <c r="J40" t="s">
         <v>164</v>
-      </c>
-      <c r="K40" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5944,7 +5889,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -5954,9 +5899,6 @@
       </c>
       <c r="J41" t="s">
         <v>188</v>
-      </c>
-      <c r="K41" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5979,7 +5921,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -5989,9 +5931,6 @@
       </c>
       <c r="J42" t="s">
         <v>190</v>
-      </c>
-      <c r="K42" t="s">
-        <v>65</v>
       </c>
       <c r="L42" t="s">
         <v>165</v>
@@ -6029,10 +5968,10 @@
         <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G43" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6042,9 +5981,6 @@
       </c>
       <c r="J43" t="s">
         <v>195</v>
-      </c>
-      <c r="K43" t="s">
-        <v>65</v>
       </c>
       <c r="L43" t="s">
         <v>165</v>
@@ -6064,7 +6000,7 @@
         <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D44" t="s">
         <v>161</v>
@@ -6096,7 +6032,7 @@
         <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6107,17 +6043,14 @@
       <c r="J45" t="s">
         <v>200</v>
       </c>
-      <c r="K45" t="s">
-        <v>65</v>
-      </c>
       <c r="L45" t="s">
         <v>197</v>
       </c>
       <c r="M45" t="s">
+        <v>938</v>
+      </c>
+      <c r="N45" t="s">
         <v>939</v>
-      </c>
-      <c r="N45" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6131,7 +6064,7 @@
         <v>202</v>
       </c>
       <c r="G46" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -6141,9 +6074,6 @@
       </c>
       <c r="J46" t="s">
         <v>203</v>
-      </c>
-      <c r="K46" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -6163,7 +6093,7 @@
         <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G47" t="s">
         <v>65</v>
@@ -6173,9 +6103,6 @@
       </c>
       <c r="I47" t="s">
         <v>689</v>
-      </c>
-      <c r="K47" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -6206,11 +6133,17 @@
       <c r="I48" t="s">
         <v>683</v>
       </c>
-      <c r="K48" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1003</v>
+      </c>
       <c r="D49" t="s">
         <v>206</v>
       </c>
@@ -6218,7 +6151,7 @@
         <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G49" t="s">
         <v>659</v>
@@ -6231,9 +6164,6 @@
       </c>
       <c r="J49" t="s">
         <v>208</v>
-      </c>
-      <c r="K49" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -6264,9 +6194,6 @@
       <c r="I50" t="s">
         <v>690</v>
       </c>
-      <c r="K50" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
@@ -6282,10 +6209,10 @@
         <v>206</v>
       </c>
       <c r="E51" t="s">
+        <v>910</v>
+      </c>
+      <c r="F51" t="s">
         <v>911</v>
-      </c>
-      <c r="F51" t="s">
-        <v>912</v>
       </c>
       <c r="G51" t="s">
         <v>660</v>
@@ -6295,9 +6222,6 @@
       </c>
       <c r="I51" t="s">
         <v>680</v>
-      </c>
-      <c r="K51" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -6331,9 +6255,6 @@
       <c r="J52" t="s">
         <v>208</v>
       </c>
-      <c r="K52" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
@@ -6363,9 +6284,6 @@
       <c r="I53" t="s">
         <v>693</v>
       </c>
-      <c r="K53" t="s">
-        <v>692</v>
-      </c>
       <c r="L53" t="s">
         <v>219</v>
       </c>
@@ -6404,9 +6322,6 @@
       <c r="I54" t="s">
         <v>686</v>
       </c>
-      <c r="K54" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -6425,7 +6340,7 @@
         <v>227</v>
       </c>
       <c r="F55" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G55" t="s">
         <v>659</v>
@@ -6438,9 +6353,6 @@
       </c>
       <c r="J55" t="s">
         <v>228</v>
-      </c>
-      <c r="K55" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -6474,9 +6386,6 @@
       <c r="J56" t="s">
         <v>238</v>
       </c>
-      <c r="K56" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
@@ -6509,9 +6418,6 @@
       <c r="J57" t="s">
         <v>238</v>
       </c>
-      <c r="K57" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="D58" t="s">
@@ -6535,9 +6441,6 @@
       <c r="J58" t="s">
         <v>238</v>
       </c>
-      <c r="K58" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="59" spans="1:14">
       <c r="D59" t="s">
@@ -6547,7 +6450,7 @@
         <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G59" t="s">
         <v>660</v>
@@ -6560,9 +6463,6 @@
       </c>
       <c r="J59" t="s">
         <v>238</v>
-      </c>
-      <c r="K59" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -6587,9 +6487,6 @@
       <c r="J60" t="s">
         <v>242</v>
       </c>
-      <c r="K60" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="D61" t="s">
@@ -6613,9 +6510,6 @@
       <c r="J61" t="s">
         <v>245</v>
       </c>
-      <c r="K61" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="D62" t="s">
@@ -6639,9 +6533,6 @@
       <c r="J62" t="s">
         <v>258</v>
       </c>
-      <c r="K62" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="D63" t="s">
@@ -6665,9 +6556,6 @@
       <c r="J63" t="s">
         <v>258</v>
       </c>
-      <c r="K63" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="D64" t="s">
@@ -6691,9 +6579,6 @@
       <c r="J64" t="s">
         <v>258</v>
       </c>
-      <c r="K64" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="65" spans="1:17">
       <c r="D65" t="s">
@@ -6717,9 +6602,6 @@
       <c r="J65" t="s">
         <v>258</v>
       </c>
-      <c r="K65" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="66" spans="1:17">
       <c r="D66" t="s">
@@ -6743,9 +6625,6 @@
       <c r="J66" t="s">
         <v>258</v>
       </c>
-      <c r="K66" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="67" spans="1:17">
       <c r="D67" t="s">
@@ -6769,9 +6648,6 @@
       <c r="J67" t="s">
         <v>258</v>
       </c>
-      <c r="K67" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="68" spans="1:17">
       <c r="D68" t="s">
@@ -6795,9 +6671,6 @@
       <c r="J68" t="s">
         <v>258</v>
       </c>
-      <c r="K68" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="69" spans="1:17">
       <c r="D69" t="s">
@@ -6819,10 +6692,7 @@
         <v>680</v>
       </c>
       <c r="J69" t="s">
-        <v>951</v>
-      </c>
-      <c r="K69" t="s">
-        <v>660</v>
+        <v>950</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -6845,10 +6715,7 @@
         <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>951</v>
-      </c>
-      <c r="K70" t="s">
-        <v>692</v>
+        <v>950</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -6859,7 +6726,7 @@
         <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D71" t="s">
         <v>261</v>
@@ -6878,9 +6745,6 @@
       </c>
       <c r="I71" t="s">
         <v>691</v>
-      </c>
-      <c r="K71" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -6914,9 +6778,6 @@
       <c r="J72" t="s">
         <v>266</v>
       </c>
-      <c r="K72" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
@@ -6949,9 +6810,6 @@
       <c r="J73" t="s">
         <v>266</v>
       </c>
-      <c r="K73" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" t="s">
@@ -6984,9 +6842,6 @@
       <c r="J74" t="s">
         <v>266</v>
       </c>
-      <c r="K74" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" t="s">
@@ -7019,9 +6874,6 @@
       <c r="J75" t="s">
         <v>266</v>
       </c>
-      <c r="K75" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" t="s">
@@ -7054,9 +6906,6 @@
       <c r="J76" t="s">
         <v>266</v>
       </c>
-      <c r="K76" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="77" spans="1:17">
       <c r="D77" t="s">
@@ -7080,9 +6929,6 @@
       <c r="J77" t="s">
         <v>266</v>
       </c>
-      <c r="K77" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
@@ -7112,9 +6958,6 @@
       <c r="I78" t="s">
         <v>680</v>
       </c>
-      <c r="K78" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
@@ -7133,7 +6976,7 @@
         <v>286</v>
       </c>
       <c r="F79" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G79" t="s">
         <v>659</v>
@@ -7143,9 +6986,6 @@
       </c>
       <c r="I79" t="s">
         <v>683</v>
-      </c>
-      <c r="K79" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -7167,9 +7007,6 @@
       <c r="I80" t="s">
         <v>680</v>
       </c>
-      <c r="K80" t="s">
-        <v>692</v>
-      </c>
       <c r="L80" t="s">
         <v>287</v>
       </c>
@@ -7210,14 +7047,23 @@
       </c>
     </row>
     <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1009</v>
+      </c>
       <c r="D82" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E82" t="s">
+        <v>972</v>
+      </c>
+      <c r="F82" t="s">
         <v>973</v>
-      </c>
-      <c r="F82" t="s">
-        <v>974</v>
       </c>
       <c r="G82" t="s">
         <v>660</v>
@@ -7227,9 +7073,6 @@
       </c>
       <c r="I82" t="s">
         <v>680</v>
-      </c>
-      <c r="K82" t="s">
-        <v>692</v>
       </c>
       <c r="L82" t="s">
         <v>287</v>
@@ -7278,9 +7121,6 @@
       <c r="I83" t="s">
         <v>686</v>
       </c>
-      <c r="K83" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" t="s">
@@ -7299,7 +7139,7 @@
         <v>297</v>
       </c>
       <c r="F84" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G84" t="s">
         <v>659</v>
@@ -7312,9 +7152,6 @@
       </c>
       <c r="J84" t="s">
         <v>298</v>
-      </c>
-      <c r="K84" t="s">
-        <v>692</v>
       </c>
       <c r="L84" t="s">
         <v>287</v>
@@ -7354,9 +7191,6 @@
       <c r="I85" t="s">
         <v>682</v>
       </c>
-      <c r="K85" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
@@ -7386,9 +7220,6 @@
       <c r="I86" t="s">
         <v>682</v>
       </c>
-      <c r="K86" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" t="s">
@@ -7416,10 +7247,7 @@
         <v>662</v>
       </c>
       <c r="I87" t="s">
-        <v>987</v>
-      </c>
-      <c r="K87" t="s">
-        <v>692</v>
+        <v>986</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7450,9 +7278,6 @@
       <c r="I88" t="s">
         <v>680</v>
       </c>
-      <c r="K88" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
@@ -7482,9 +7307,6 @@
       <c r="I89" t="s">
         <v>680</v>
       </c>
-      <c r="K89" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
@@ -7514,9 +7336,6 @@
       <c r="I90" t="s">
         <v>686</v>
       </c>
-      <c r="K90" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" t="s">
@@ -7546,9 +7365,6 @@
       <c r="I91" t="s">
         <v>680</v>
       </c>
-      <c r="K91" t="s">
-        <v>692</v>
-      </c>
       <c r="L91" t="s">
         <v>323</v>
       </c>
@@ -7590,9 +7406,6 @@
       <c r="J92" t="s">
         <v>364</v>
       </c>
-      <c r="K92" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" t="s">
@@ -7622,9 +7435,6 @@
       <c r="I93" t="s">
         <v>680</v>
       </c>
-      <c r="K93" t="s">
-        <v>692</v>
-      </c>
       <c r="L93" t="s">
         <v>323</v>
       </c>
@@ -7666,9 +7476,6 @@
       <c r="J94" t="s">
         <v>364</v>
       </c>
-      <c r="K94" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
@@ -7687,7 +7494,7 @@
         <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G95" t="s">
         <v>657</v>
@@ -7697,9 +7504,6 @@
       </c>
       <c r="I95" t="s">
         <v>680</v>
-      </c>
-      <c r="K95" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -7733,9 +7537,6 @@
       <c r="J96" t="s">
         <v>364</v>
       </c>
-      <c r="K96" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
@@ -7768,9 +7569,6 @@
       <c r="J97" t="s">
         <v>364</v>
       </c>
-      <c r="K97" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
@@ -7789,7 +7587,7 @@
         <v>356</v>
       </c>
       <c r="F98" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G98" t="s">
         <v>657</v>
@@ -7799,9 +7597,6 @@
       </c>
       <c r="I98" t="s">
         <v>680</v>
-      </c>
-      <c r="K98" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -7835,9 +7630,6 @@
       <c r="J99" t="s">
         <v>364</v>
       </c>
-      <c r="K99" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
@@ -7867,9 +7659,6 @@
       <c r="I100" t="s">
         <v>686</v>
       </c>
-      <c r="K100" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
@@ -7899,9 +7688,6 @@
       <c r="I101" t="s">
         <v>680</v>
       </c>
-      <c r="K101" t="s">
-        <v>692</v>
-      </c>
       <c r="L101" t="s">
         <v>365</v>
       </c>
@@ -7940,9 +7726,6 @@
       <c r="I102" t="s">
         <v>686</v>
       </c>
-      <c r="K102" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="D103" t="s">
@@ -7963,9 +7746,6 @@
       <c r="I103" t="s">
         <v>686</v>
       </c>
-      <c r="K103" t="s">
-        <v>692</v>
-      </c>
       <c r="L103" t="s">
         <v>365</v>
       </c>
@@ -8004,9 +7784,6 @@
       <c r="I104" t="s">
         <v>683</v>
       </c>
-      <c r="K104" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
@@ -8036,9 +7813,6 @@
       <c r="I105" t="s">
         <v>680</v>
       </c>
-      <c r="K105" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
@@ -8068,9 +7842,6 @@
       <c r="I106" t="s">
         <v>680</v>
       </c>
-      <c r="K106" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
@@ -8100,9 +7871,6 @@
       <c r="I107" t="s">
         <v>680</v>
       </c>
-      <c r="K107" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="D108" t="s">
@@ -8138,10 +7906,10 @@
         <v>390</v>
       </c>
       <c r="E109" t="s">
+        <v>888</v>
+      </c>
+      <c r="F109" t="s">
         <v>889</v>
-      </c>
-      <c r="F109" t="s">
-        <v>890</v>
       </c>
       <c r="G109" t="s">
         <v>657</v>
@@ -8153,10 +7921,7 @@
         <v>680</v>
       </c>
       <c r="J109" t="s">
-        <v>888</v>
-      </c>
-      <c r="K109" t="s">
-        <v>692</v>
+        <v>887</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -8187,9 +7952,6 @@
       <c r="I110" t="s">
         <v>680</v>
       </c>
-      <c r="K110" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
@@ -8219,9 +7981,6 @@
       <c r="I111" t="s">
         <v>680</v>
       </c>
-      <c r="K111" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
@@ -8237,10 +7996,10 @@
         <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>356</v>
+        <v>953</v>
       </c>
       <c r="F112" t="s">
-        <v>357</v>
+        <v>954</v>
       </c>
       <c r="G112" t="s">
         <v>657</v>
@@ -8250,18 +8009,6 @@
       </c>
       <c r="I112" t="s">
         <v>680</v>
-      </c>
-      <c r="K112" t="s">
-        <v>692</v>
-      </c>
-      <c r="L112" t="s">
-        <v>323</v>
-      </c>
-      <c r="M112" t="s">
-        <v>350</v>
-      </c>
-      <c r="N112" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -8292,9 +8039,6 @@
       <c r="I113" t="s">
         <v>680</v>
       </c>
-      <c r="K113" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" t="s">
@@ -8324,8 +8068,14 @@
       <c r="I114" t="s">
         <v>680</v>
       </c>
-      <c r="K114" t="s">
-        <v>692</v>
+      <c r="L114" t="s">
+        <v>408</v>
+      </c>
+      <c r="M114" t="s">
+        <v>72</v>
+      </c>
+      <c r="N114" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -8356,9 +8106,6 @@
       <c r="I115" t="s">
         <v>681</v>
       </c>
-      <c r="K115" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
@@ -8388,9 +8135,6 @@
       <c r="I116" t="s">
         <v>680</v>
       </c>
-      <c r="K116" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
@@ -8420,8 +8164,14 @@
       <c r="I117" t="s">
         <v>680</v>
       </c>
-      <c r="K117" t="s">
-        <v>692</v>
+      <c r="L117" t="s">
+        <v>419</v>
+      </c>
+      <c r="M117" t="s">
+        <v>421</v>
+      </c>
+      <c r="N117" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -8452,9 +8202,6 @@
       <c r="I118" t="s">
         <v>688</v>
       </c>
-      <c r="K118" t="s">
-        <v>692</v>
-      </c>
       <c r="L118" t="s">
         <v>423</v>
       </c>
@@ -8502,9 +8249,6 @@
       <c r="I119" t="s">
         <v>680</v>
       </c>
-      <c r="K119" t="s">
-        <v>692</v>
-      </c>
       <c r="L119" t="s">
         <v>46</v>
       </c>
@@ -8535,7 +8279,7 @@
         <v>442</v>
       </c>
       <c r="G120" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H120" t="s">
         <v>66</v>
@@ -8545,9 +8289,6 @@
       </c>
       <c r="J120" t="s">
         <v>444</v>
-      </c>
-      <c r="K120" t="s">
-        <v>65</v>
       </c>
       <c r="L120" t="s">
         <v>438</v>
@@ -8591,16 +8332,13 @@
         <v>658</v>
       </c>
       <c r="H121" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I121" t="s">
         <v>696</v>
       </c>
       <c r="J121" t="s">
-        <v>891</v>
-      </c>
-      <c r="K121" t="s">
-        <v>692</v>
+        <v>890</v>
       </c>
       <c r="L121" t="s">
         <v>445</v>
@@ -8620,7 +8358,7 @@
         <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G122" t="s">
         <v>658</v>
@@ -8632,10 +8370,7 @@
         <v>696</v>
       </c>
       <c r="J122" t="s">
-        <v>891</v>
-      </c>
-      <c r="K122" t="s">
-        <v>692</v>
+        <v>890</v>
       </c>
       <c r="L122" t="s">
         <v>445</v>
@@ -8678,9 +8413,6 @@
       <c r="J123" t="s">
         <v>455</v>
       </c>
-      <c r="K123" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" t="s">
@@ -8711,10 +8443,7 @@
         <v>682</v>
       </c>
       <c r="J124" t="s">
-        <v>947</v>
-      </c>
-      <c r="K124" t="s">
-        <v>692</v>
+        <v>946</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -8737,10 +8466,7 @@
         <v>682</v>
       </c>
       <c r="J125" t="s">
-        <v>947</v>
-      </c>
-      <c r="K125" t="s">
-        <v>692</v>
+        <v>946</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -8748,10 +8474,10 @@
         <v>456</v>
       </c>
       <c r="E126" t="s">
+        <v>944</v>
+      </c>
+      <c r="F126" t="s">
         <v>945</v>
-      </c>
-      <c r="F126" t="s">
-        <v>946</v>
       </c>
       <c r="G126" t="s">
         <v>657</v>
@@ -8763,7 +8489,7 @@
         <v>682</v>
       </c>
       <c r="J126" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8786,7 +8512,7 @@
         <v>465</v>
       </c>
       <c r="G127" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H127" t="s">
         <v>66</v>
@@ -8796,9 +8522,6 @@
       </c>
       <c r="J127" t="s">
         <v>467</v>
-      </c>
-      <c r="K127" t="s">
-        <v>65</v>
       </c>
       <c r="L127" t="s">
         <v>461</v>
@@ -8839,10 +8562,7 @@
         <v>696</v>
       </c>
       <c r="J128" t="s">
-        <v>896</v>
-      </c>
-      <c r="K128" t="s">
-        <v>692</v>
+        <v>895</v>
       </c>
       <c r="L128" t="s">
         <v>468</v>
@@ -8851,7 +8571,7 @@
         <v>747</v>
       </c>
       <c r="N128" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8882,9 +8602,6 @@
       <c r="I129" t="s">
         <v>696</v>
       </c>
-      <c r="K129" t="s">
-        <v>692</v>
-      </c>
       <c r="L129" t="s">
         <v>468</v>
       </c>
@@ -8915,19 +8632,16 @@
         <v>486</v>
       </c>
       <c r="G130" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H130" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I130" t="s">
         <v>682</v>
       </c>
       <c r="J130" t="s">
         <v>504</v>
-      </c>
-      <c r="K130" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -8950,19 +8664,16 @@
         <v>490</v>
       </c>
       <c r="G131" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H131" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I131" t="s">
         <v>682</v>
       </c>
       <c r="J131" t="s">
         <v>504</v>
-      </c>
-      <c r="K131" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -8985,19 +8696,16 @@
         <v>494</v>
       </c>
       <c r="G132" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H132" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I132" t="s">
         <v>682</v>
       </c>
       <c r="J132" t="s">
         <v>504</v>
-      </c>
-      <c r="K132" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -9020,19 +8728,16 @@
         <v>784</v>
       </c>
       <c r="G133" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H133" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I133" t="s">
         <v>682</v>
       </c>
       <c r="J133" t="s">
         <v>504</v>
-      </c>
-      <c r="K133" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -9063,9 +8768,6 @@
       <c r="I134" t="s">
         <v>682</v>
       </c>
-      <c r="K134" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
@@ -9087,19 +8789,16 @@
         <v>500</v>
       </c>
       <c r="G135" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H135" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I135" t="s">
         <v>682</v>
       </c>
       <c r="J135" t="s">
         <v>504</v>
-      </c>
-      <c r="K135" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -9130,9 +8829,6 @@
       <c r="I136" t="s">
         <v>682</v>
       </c>
-      <c r="K136" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
@@ -9154,19 +8850,16 @@
         <v>511</v>
       </c>
       <c r="G137" t="s">
+        <v>924</v>
+      </c>
+      <c r="H137" t="s">
         <v>925</v>
-      </c>
-      <c r="H137" t="s">
-        <v>926</v>
       </c>
       <c r="I137" t="s">
         <v>697</v>
       </c>
       <c r="J137" t="s">
         <v>512</v>
-      </c>
-      <c r="K137" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -9188,9 +8881,6 @@
       <c r="I138" t="s">
         <v>691</v>
       </c>
-      <c r="K138" t="s">
-        <v>692</v>
-      </c>
       <c r="L138" t="s">
         <v>507</v>
       </c>
@@ -9202,6 +8892,15 @@
       </c>
     </row>
     <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>507</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1006</v>
+      </c>
       <c r="D139" t="s">
         <v>507</v>
       </c>
@@ -9219,9 +8918,6 @@
       </c>
       <c r="I139" t="s">
         <v>691</v>
-      </c>
-      <c r="K139" t="s">
-        <v>692</v>
       </c>
       <c r="L139" t="s">
         <v>507</v>
@@ -9244,19 +8940,16 @@
         <v>668</v>
       </c>
       <c r="G140" t="s">
+        <v>924</v>
+      </c>
+      <c r="H140" t="s">
         <v>925</v>
-      </c>
-      <c r="H140" t="s">
-        <v>926</v>
       </c>
       <c r="I140" t="s">
         <v>697</v>
       </c>
       <c r="J140" t="s">
         <v>667</v>
-      </c>
-      <c r="K140" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9279,10 +8972,10 @@
         <v>523</v>
       </c>
       <c r="G141" t="s">
+        <v>924</v>
+      </c>
+      <c r="H141" t="s">
         <v>925</v>
-      </c>
-      <c r="H141" t="s">
-        <v>926</v>
       </c>
       <c r="I141" t="s">
         <v>697</v>
@@ -9290,17 +8983,14 @@
       <c r="J141" t="s">
         <v>524</v>
       </c>
-      <c r="K141" t="s">
-        <v>657</v>
-      </c>
       <c r="L141" t="s">
         <v>519</v>
       </c>
       <c r="M141" t="s">
+        <v>959</v>
+      </c>
+      <c r="N141" t="s">
         <v>960</v>
-      </c>
-      <c r="N141" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -9331,9 +9021,6 @@
       <c r="I142" t="s">
         <v>697</v>
       </c>
-      <c r="K142" t="s">
-        <v>692</v>
-      </c>
       <c r="L142" t="s">
         <v>525</v>
       </c>
@@ -9375,9 +9062,6 @@
       <c r="J143" t="s">
         <v>534</v>
       </c>
-      <c r="K143" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
@@ -9407,9 +9091,6 @@
       <c r="I144" t="s">
         <v>698</v>
       </c>
-      <c r="K144" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
@@ -9439,9 +9120,6 @@
       <c r="I145" t="s">
         <v>698</v>
       </c>
-      <c r="K145" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="D146" t="s">
@@ -9454,19 +9132,16 @@
         <v>768</v>
       </c>
       <c r="G146" t="s">
+        <v>924</v>
+      </c>
+      <c r="H146" t="s">
         <v>925</v>
-      </c>
-      <c r="H146" t="s">
-        <v>926</v>
       </c>
       <c r="I146" t="s">
         <v>699</v>
       </c>
       <c r="J146" t="s">
         <v>542</v>
-      </c>
-      <c r="K146" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -9489,19 +9164,16 @@
         <v>546</v>
       </c>
       <c r="G147" t="s">
+        <v>924</v>
+      </c>
+      <c r="H147" t="s">
         <v>925</v>
-      </c>
-      <c r="H147" t="s">
-        <v>926</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
       </c>
       <c r="J147" t="s">
         <v>542</v>
-      </c>
-      <c r="K147" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -9524,19 +9196,16 @@
         <v>551</v>
       </c>
       <c r="G148" t="s">
+        <v>924</v>
+      </c>
+      <c r="H148" t="s">
         <v>925</v>
-      </c>
-      <c r="H148" t="s">
-        <v>926</v>
       </c>
       <c r="I148" t="s">
         <v>700</v>
       </c>
       <c r="J148" t="s">
         <v>549</v>
-      </c>
-      <c r="K148" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -9559,19 +9228,16 @@
         <v>555</v>
       </c>
       <c r="G149" t="s">
+        <v>924</v>
+      </c>
+      <c r="H149" t="s">
         <v>925</v>
-      </c>
-      <c r="H149" t="s">
-        <v>926</v>
       </c>
       <c r="I149" t="s">
         <v>700</v>
       </c>
       <c r="J149" t="s">
         <v>556</v>
-      </c>
-      <c r="K149" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -9585,19 +9251,16 @@
         <v>558</v>
       </c>
       <c r="G150" t="s">
+        <v>924</v>
+      </c>
+      <c r="H150" t="s">
         <v>925</v>
-      </c>
-      <c r="H150" t="s">
-        <v>926</v>
       </c>
       <c r="I150" t="s">
         <v>700</v>
       </c>
       <c r="J150" t="s">
         <v>561</v>
-      </c>
-      <c r="K150" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -9611,19 +9274,16 @@
         <v>560</v>
       </c>
       <c r="G151" t="s">
+        <v>924</v>
+      </c>
+      <c r="H151" t="s">
         <v>925</v>
-      </c>
-      <c r="H151" t="s">
-        <v>926</v>
       </c>
       <c r="I151" t="s">
         <v>700</v>
       </c>
       <c r="J151" t="s">
         <v>561</v>
-      </c>
-      <c r="K151" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -9646,19 +9306,16 @@
         <v>565</v>
       </c>
       <c r="G152" t="s">
+        <v>924</v>
+      </c>
+      <c r="H152" t="s">
         <v>925</v>
-      </c>
-      <c r="H152" t="s">
-        <v>926</v>
       </c>
       <c r="I152" t="s">
         <v>700</v>
       </c>
       <c r="J152" t="s">
         <v>562</v>
-      </c>
-      <c r="K152" t="s">
-        <v>657</v>
       </c>
       <c r="L152" t="s">
         <v>525</v>
@@ -9698,9 +9355,6 @@
       <c r="I153" t="s">
         <v>682</v>
       </c>
-      <c r="K153" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
@@ -9730,9 +9384,6 @@
       <c r="I154" t="s">
         <v>691</v>
       </c>
-      <c r="K154" t="s">
-        <v>692</v>
-      </c>
       <c r="L154" t="s">
         <v>717</v>
       </c>
@@ -9771,9 +9422,6 @@
       <c r="I155" t="s">
         <v>703</v>
       </c>
-      <c r="K155" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
@@ -9803,9 +9451,6 @@
       <c r="I156" t="s">
         <v>703</v>
       </c>
-      <c r="K156" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
@@ -9835,9 +9480,6 @@
       <c r="I157" t="s">
         <v>703</v>
       </c>
-      <c r="K157" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="D158" t="s">
@@ -9861,9 +9503,6 @@
       <c r="J158" t="s">
         <v>602</v>
       </c>
-      <c r="K158" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
@@ -9885,19 +9524,16 @@
         <v>606</v>
       </c>
       <c r="G159" t="s">
+        <v>924</v>
+      </c>
+      <c r="H159" t="s">
         <v>925</v>
-      </c>
-      <c r="H159" t="s">
-        <v>926</v>
       </c>
       <c r="I159" t="s">
         <v>682</v>
       </c>
       <c r="J159" t="s">
         <v>607</v>
-      </c>
-      <c r="K159" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9928,11 +9564,8 @@
       <c r="I160" t="s">
         <v>686</v>
       </c>
-      <c r="K160" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>608</v>
       </c>
@@ -9960,11 +9593,8 @@
       <c r="I161" t="s">
         <v>680</v>
       </c>
-      <c r="K161" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>617</v>
       </c>
@@ -9992,11 +9622,8 @@
       <c r="I162" t="s">
         <v>680</v>
       </c>
-      <c r="K162" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>622</v>
       </c>
@@ -10012,7 +9639,7 @@
       <c r="E163" t="s">
         <v>288</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="9" t="s">
         <v>624</v>
       </c>
       <c r="G163" t="s">
@@ -10024,9 +9651,6 @@
       <c r="I163" t="s">
         <v>680</v>
       </c>
-      <c r="K163" t="s">
-        <v>692</v>
-      </c>
       <c r="L163" t="s">
         <v>622</v>
       </c>
@@ -10045,8 +9669,17 @@
       <c r="Q163" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="164" spans="1:17">
+      <c r="R163" t="s">
+        <v>622</v>
+      </c>
+      <c r="S163" t="s">
+        <v>288</v>
+      </c>
+      <c r="T163" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>627</v>
       </c>
@@ -10077,11 +9710,8 @@
       <c r="J164" t="s">
         <v>629</v>
       </c>
-      <c r="K164" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
+    </row>
+    <row r="165" spans="1:20">
       <c r="D165" t="s">
         <v>627</v>
       </c>
@@ -10103,11 +9733,8 @@
       <c r="J165" t="s">
         <v>629</v>
       </c>
-      <c r="K165" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>627</v>
       </c>
@@ -10136,7 +9763,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>287</v>
       </c>
@@ -10167,11 +9794,8 @@
       <c r="J167" t="s">
         <v>629</v>
       </c>
-      <c r="K167" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>627</v>
       </c>
@@ -10202,11 +9826,8 @@
       <c r="J168" t="s">
         <v>629</v>
       </c>
-      <c r="K168" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>627</v>
       </c>
@@ -10234,9 +9855,6 @@
       <c r="I169" t="s">
         <v>680</v>
       </c>
-      <c r="K169" t="s">
-        <v>692</v>
-      </c>
       <c r="L169" t="s">
         <v>627</v>
       </c>
@@ -10247,7 +9865,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>478</v>
       </c>
@@ -10275,9 +9893,6 @@
       <c r="I170" t="s">
         <v>696</v>
       </c>
-      <c r="K170" t="s">
-        <v>692</v>
-      </c>
       <c r="L170" t="s">
         <v>478</v>
       </c>
@@ -10294,10 +9909,10 @@
         <v>479</v>
       </c>
       <c r="Q170" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="D171" t="s">
         <v>478</v>
       </c>
@@ -10308,17 +9923,14 @@
         <v>643</v>
       </c>
       <c r="G171" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H171" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
       </c>
-      <c r="K171" t="s">
-        <v>692</v>
-      </c>
       <c r="L171" t="s">
         <v>478</v>
       </c>
@@ -10329,7 +9941,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>478</v>
       </c>
@@ -10357,11 +9969,8 @@
       <c r="I172" t="s">
         <v>696</v>
       </c>
-      <c r="K172" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>650</v>
       </c>
@@ -10392,11 +10001,8 @@
       <c r="J173" t="s">
         <v>654</v>
       </c>
-      <c r="K173" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17">
+    </row>
+    <row r="174" spans="1:20">
       <c r="D174" t="s">
         <v>650</v>
       </c>
@@ -10407,10 +10013,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
+        <v>924</v>
+      </c>
+      <c r="H174" t="s">
         <v>925</v>
-      </c>
-      <c r="H174" t="s">
-        <v>926</v>
       </c>
       <c r="I174" t="s">
         <v>682</v>
@@ -10418,11 +10024,8 @@
       <c r="J174" t="s">
         <v>654</v>
       </c>
-      <c r="K174" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17">
+    </row>
+    <row r="175" spans="1:20">
       <c r="D175" t="s">
         <v>650</v>
       </c>
@@ -10433,10 +10036,10 @@
         <v>656</v>
       </c>
       <c r="G175" t="s">
+        <v>924</v>
+      </c>
+      <c r="H175" t="s">
         <v>925</v>
-      </c>
-      <c r="H175" t="s">
-        <v>926</v>
       </c>
       <c r="I175" t="s">
         <v>682</v>
@@ -10444,11 +10047,8 @@
       <c r="J175" t="s">
         <v>654</v>
       </c>
-      <c r="K175" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17">
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>670</v>
       </c>
@@ -10459,15 +10059,12 @@
         <v>672</v>
       </c>
       <c r="G176" t="s">
+        <v>928</v>
+      </c>
+      <c r="H176" t="s">
         <v>929</v>
       </c>
-      <c r="H176" t="s">
-        <v>930</v>
-      </c>
       <c r="I176" t="s">
-        <v>692</v>
-      </c>
-      <c r="K176" t="s">
         <v>692</v>
       </c>
     </row>
@@ -10482,15 +10079,12 @@
         <v>675</v>
       </c>
       <c r="G177" t="s">
+        <v>928</v>
+      </c>
+      <c r="H177" t="s">
         <v>929</v>
       </c>
-      <c r="H177" t="s">
-        <v>930</v>
-      </c>
       <c r="I177" t="s">
-        <v>692</v>
-      </c>
-      <c r="K177" t="s">
         <v>692</v>
       </c>
     </row>
@@ -10505,13 +10099,10 @@
         <v>678</v>
       </c>
       <c r="G178" t="s">
+        <v>928</v>
+      </c>
+      <c r="H178" t="s">
         <v>929</v>
-      </c>
-      <c r="H178" t="s">
-        <v>930</v>
-      </c>
-      <c r="K178" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -10533,9 +10124,6 @@
       <c r="I179" t="s">
         <v>702</v>
       </c>
-      <c r="K179" t="s">
-        <v>692</v>
-      </c>
       <c r="L179" t="s">
         <v>323</v>
       </c>
@@ -10574,9 +10162,6 @@
       <c r="I180" t="s">
         <v>680</v>
       </c>
-      <c r="K180" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
@@ -10595,7 +10180,7 @@
         <v>736</v>
       </c>
       <c r="F181" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G181" t="s">
         <v>660</v>
@@ -10606,9 +10191,6 @@
       <c r="I181" t="s">
         <v>680</v>
       </c>
-      <c r="K181" t="s">
-        <v>692</v>
-      </c>
       <c r="L181" t="s">
         <v>733</v>
       </c>
@@ -10616,7 +10198,7 @@
         <v>736</v>
       </c>
       <c r="N181" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10647,9 +10229,6 @@
       <c r="I182" t="s">
         <v>680</v>
       </c>
-      <c r="K182" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
@@ -10679,9 +10258,6 @@
       <c r="I183" t="s">
         <v>693</v>
       </c>
-      <c r="K183" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" t="s">
@@ -10711,9 +10287,6 @@
       <c r="I184" t="s">
         <v>680</v>
       </c>
-      <c r="K184" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="D185" t="s">
@@ -10737,9 +10310,6 @@
       <c r="J185" t="s">
         <v>761</v>
       </c>
-      <c r="K185" t="s">
-        <v>759</v>
-      </c>
       <c r="L185" t="s">
         <v>755</v>
       </c>
@@ -10761,7 +10331,7 @@
         <v>764</v>
       </c>
       <c r="G186" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -10771,9 +10341,6 @@
       </c>
       <c r="J186" t="s">
         <v>767</v>
-      </c>
-      <c r="K186" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -10787,7 +10354,7 @@
         <v>766</v>
       </c>
       <c r="G187" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -10797,9 +10364,6 @@
       </c>
       <c r="J187" t="s">
         <v>767</v>
-      </c>
-      <c r="K187" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -10807,13 +10371,13 @@
         <v>762</v>
       </c>
       <c r="E188" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F188" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G188" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H188" t="s">
         <v>66</v>
@@ -10827,170 +10391,161 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="B189" t="s">
-        <v>869</v>
+        <v>770</v>
       </c>
       <c r="C189" t="s">
-        <v>870</v>
+        <v>771</v>
+      </c>
+      <c r="D189" t="s">
+        <v>769</v>
+      </c>
+      <c r="E189" t="s">
+        <v>772</v>
+      </c>
+      <c r="F189" t="s">
+        <v>773</v>
       </c>
       <c r="G189" t="s">
-        <v>657</v>
+        <v>924</v>
       </c>
       <c r="H189" t="s">
-        <v>662</v>
+        <v>925</v>
       </c>
       <c r="I189" t="s">
-        <v>690</v>
+        <v>682</v>
+      </c>
+      <c r="J189" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" t="s">
-        <v>769</v>
-      </c>
-      <c r="B190" t="s">
-        <v>770</v>
-      </c>
-      <c r="C190" t="s">
-        <v>771</v>
-      </c>
       <c r="D190" t="s">
-        <v>769</v>
+        <v>478</v>
       </c>
       <c r="E190" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="F190" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="G190" t="s">
-        <v>925</v>
+        <v>659</v>
       </c>
       <c r="H190" t="s">
-        <v>926</v>
+        <v>66</v>
       </c>
       <c r="I190" t="s">
-        <v>682</v>
-      </c>
-      <c r="J190" t="s">
-        <v>774</v>
-      </c>
-      <c r="K190" t="s">
-        <v>657</v>
+        <v>696</v>
+      </c>
+      <c r="L190" t="s">
+        <v>478</v>
+      </c>
+      <c r="M190" t="s">
+        <v>779</v>
+      </c>
+      <c r="N190" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="191" spans="1:14">
+      <c r="A191" t="s">
+        <v>785</v>
+      </c>
+      <c r="B191" t="s">
+        <v>786</v>
+      </c>
+      <c r="C191" t="s">
+        <v>787</v>
+      </c>
       <c r="D191" t="s">
-        <v>478</v>
+        <v>785</v>
       </c>
       <c r="E191" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="F191" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="G191" t="s">
-        <v>659</v>
+        <v>790</v>
       </c>
       <c r="H191" t="s">
-        <v>66</v>
+        <v>661</v>
       </c>
       <c r="I191" t="s">
-        <v>696</v>
-      </c>
-      <c r="K191" t="s">
-        <v>692</v>
-      </c>
-      <c r="L191" t="s">
-        <v>478</v>
-      </c>
-      <c r="M191" t="s">
-        <v>779</v>
-      </c>
-      <c r="N191" t="s">
-        <v>988</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B192" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C192" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="D192" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="E192" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="F192" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="G192" t="s">
-        <v>790</v>
+        <v>659</v>
       </c>
       <c r="H192" t="s">
-        <v>661</v>
+        <v>66</v>
       </c>
       <c r="I192" t="s">
         <v>691</v>
       </c>
-      <c r="K192" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" t="s">
-        <v>791</v>
-      </c>
-      <c r="B193" t="s">
-        <v>792</v>
-      </c>
-      <c r="C193" t="s">
-        <v>793</v>
-      </c>
+    </row>
+    <row r="193" spans="4:10">
       <c r="D193" t="s">
-        <v>791</v>
+        <v>570</v>
       </c>
       <c r="E193" t="s">
-        <v>794</v>
+        <v>571</v>
       </c>
       <c r="F193" t="s">
-        <v>795</v>
+        <v>572</v>
       </c>
       <c r="G193" t="s">
-        <v>659</v>
+        <v>924</v>
       </c>
       <c r="H193" t="s">
-        <v>66</v>
+        <v>925</v>
       </c>
       <c r="I193" t="s">
-        <v>691</v>
-      </c>
-      <c r="K193" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+        <v>701</v>
+      </c>
+      <c r="J193" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="194" spans="4:10">
       <c r="D194" t="s">
         <v>570</v>
       </c>
       <c r="E194" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F194" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G194" t="s">
+        <v>924</v>
+      </c>
+      <c r="H194" t="s">
         <v>925</v>
-      </c>
-      <c r="H194" t="s">
-        <v>926</v>
       </c>
       <c r="I194" t="s">
         <v>701</v>
@@ -10998,25 +10553,22 @@
       <c r="J194" t="s">
         <v>587</v>
       </c>
-      <c r="K194" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+    </row>
+    <row r="195" spans="4:10">
       <c r="D195" t="s">
         <v>570</v>
       </c>
       <c r="E195" t="s">
-        <v>579</v>
+        <v>797</v>
       </c>
       <c r="F195" t="s">
-        <v>579</v>
+        <v>797</v>
       </c>
       <c r="G195" t="s">
+        <v>924</v>
+      </c>
+      <c r="H195" t="s">
         <v>925</v>
-      </c>
-      <c r="H195" t="s">
-        <v>926</v>
       </c>
       <c r="I195" t="s">
         <v>701</v>
@@ -11024,25 +10576,22 @@
       <c r="J195" t="s">
         <v>587</v>
       </c>
-      <c r="K195" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+    </row>
+    <row r="196" spans="4:10">
       <c r="D196" t="s">
         <v>570</v>
       </c>
       <c r="E196" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F196" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G196" t="s">
+        <v>924</v>
+      </c>
+      <c r="H196" t="s">
         <v>925</v>
-      </c>
-      <c r="H196" t="s">
-        <v>926</v>
       </c>
       <c r="I196" t="s">
         <v>701</v>
@@ -11050,25 +10599,22 @@
       <c r="J196" t="s">
         <v>587</v>
       </c>
-      <c r="K196" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+    </row>
+    <row r="197" spans="4:10">
       <c r="D197" t="s">
         <v>570</v>
       </c>
       <c r="E197" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F197" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G197" t="s">
+        <v>924</v>
+      </c>
+      <c r="H197" t="s">
         <v>925</v>
-      </c>
-      <c r="H197" t="s">
-        <v>926</v>
       </c>
       <c r="I197" t="s">
         <v>701</v>
@@ -11076,25 +10622,22 @@
       <c r="J197" t="s">
         <v>587</v>
       </c>
-      <c r="K197" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+    </row>
+    <row r="198" spans="4:10">
       <c r="D198" t="s">
         <v>570</v>
       </c>
       <c r="E198" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F198" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G198" t="s">
+        <v>924</v>
+      </c>
+      <c r="H198" t="s">
         <v>925</v>
-      </c>
-      <c r="H198" t="s">
-        <v>926</v>
       </c>
       <c r="I198" t="s">
         <v>701</v>
@@ -11102,25 +10645,22 @@
       <c r="J198" t="s">
         <v>587</v>
       </c>
-      <c r="K198" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+    </row>
+    <row r="199" spans="4:10">
       <c r="D199" t="s">
         <v>570</v>
       </c>
       <c r="E199" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F199" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G199" t="s">
+        <v>924</v>
+      </c>
+      <c r="H199" t="s">
         <v>925</v>
-      </c>
-      <c r="H199" t="s">
-        <v>926</v>
       </c>
       <c r="I199" t="s">
         <v>701</v>
@@ -11128,25 +10668,22 @@
       <c r="J199" t="s">
         <v>587</v>
       </c>
-      <c r="K199" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+    </row>
+    <row r="200" spans="4:10">
       <c r="D200" t="s">
         <v>570</v>
       </c>
       <c r="E200" t="s">
-        <v>801</v>
+        <v>573</v>
       </c>
       <c r="F200" t="s">
-        <v>801</v>
+        <v>574</v>
       </c>
       <c r="G200" t="s">
+        <v>924</v>
+      </c>
+      <c r="H200" t="s">
         <v>925</v>
-      </c>
-      <c r="H200" t="s">
-        <v>926</v>
       </c>
       <c r="I200" t="s">
         <v>701</v>
@@ -11154,25 +10691,22 @@
       <c r="J200" t="s">
         <v>587</v>
       </c>
-      <c r="K200" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+    </row>
+    <row r="201" spans="4:10">
       <c r="D201" t="s">
         <v>570</v>
       </c>
       <c r="E201" t="s">
-        <v>573</v>
+        <v>802</v>
       </c>
       <c r="F201" t="s">
-        <v>574</v>
+        <v>802</v>
       </c>
       <c r="G201" t="s">
+        <v>924</v>
+      </c>
+      <c r="H201" t="s">
         <v>925</v>
-      </c>
-      <c r="H201" t="s">
-        <v>926</v>
       </c>
       <c r="I201" t="s">
         <v>701</v>
@@ -11180,25 +10714,22 @@
       <c r="J201" t="s">
         <v>587</v>
       </c>
-      <c r="K201" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+    </row>
+    <row r="202" spans="4:10">
       <c r="D202" t="s">
         <v>570</v>
       </c>
       <c r="E202" t="s">
-        <v>802</v>
+        <v>580</v>
       </c>
       <c r="F202" t="s">
-        <v>802</v>
+        <v>580</v>
       </c>
       <c r="G202" t="s">
+        <v>924</v>
+      </c>
+      <c r="H202" t="s">
         <v>925</v>
-      </c>
-      <c r="H202" t="s">
-        <v>926</v>
       </c>
       <c r="I202" t="s">
         <v>701</v>
@@ -11206,25 +10737,22 @@
       <c r="J202" t="s">
         <v>587</v>
       </c>
-      <c r="K202" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+    </row>
+    <row r="203" spans="4:10">
       <c r="D203" t="s">
         <v>570</v>
       </c>
       <c r="E203" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F203" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G203" t="s">
+        <v>924</v>
+      </c>
+      <c r="H203" t="s">
         <v>925</v>
-      </c>
-      <c r="H203" t="s">
-        <v>926</v>
       </c>
       <c r="I203" t="s">
         <v>701</v>
@@ -11232,25 +10760,22 @@
       <c r="J203" t="s">
         <v>587</v>
       </c>
-      <c r="K203" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+    </row>
+    <row r="204" spans="4:10">
       <c r="D204" t="s">
         <v>570</v>
       </c>
       <c r="E204" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F204" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G204" t="s">
+        <v>924</v>
+      </c>
+      <c r="H204" t="s">
         <v>925</v>
-      </c>
-      <c r="H204" t="s">
-        <v>926</v>
       </c>
       <c r="I204" t="s">
         <v>701</v>
@@ -11258,25 +10783,22 @@
       <c r="J204" t="s">
         <v>587</v>
       </c>
-      <c r="K204" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+    </row>
+    <row r="205" spans="4:10">
       <c r="D205" t="s">
         <v>570</v>
       </c>
       <c r="E205" t="s">
-        <v>582</v>
+        <v>803</v>
       </c>
       <c r="F205" t="s">
-        <v>582</v>
+        <v>803</v>
       </c>
       <c r="G205" t="s">
+        <v>924</v>
+      </c>
+      <c r="H205" t="s">
         <v>925</v>
-      </c>
-      <c r="H205" t="s">
-        <v>926</v>
       </c>
       <c r="I205" t="s">
         <v>701</v>
@@ -11284,25 +10806,22 @@
       <c r="J205" t="s">
         <v>587</v>
       </c>
-      <c r="K205" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+    </row>
+    <row r="206" spans="4:10">
       <c r="D206" t="s">
         <v>570</v>
       </c>
       <c r="E206" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F206" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G206" t="s">
+        <v>924</v>
+      </c>
+      <c r="H206" t="s">
         <v>925</v>
-      </c>
-      <c r="H206" t="s">
-        <v>926</v>
       </c>
       <c r="I206" t="s">
         <v>701</v>
@@ -11310,25 +10829,22 @@
       <c r="J206" t="s">
         <v>587</v>
       </c>
-      <c r="K206" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+    </row>
+    <row r="207" spans="4:10">
       <c r="D207" t="s">
         <v>570</v>
       </c>
       <c r="E207" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F207" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G207" t="s">
+        <v>924</v>
+      </c>
+      <c r="H207" t="s">
         <v>925</v>
-      </c>
-      <c r="H207" t="s">
-        <v>926</v>
       </c>
       <c r="I207" t="s">
         <v>701</v>
@@ -11336,34 +10852,28 @@
       <c r="J207" t="s">
         <v>587</v>
       </c>
-      <c r="K207" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+    </row>
+    <row r="208" spans="4:10">
       <c r="D208" t="s">
         <v>570</v>
       </c>
       <c r="E208" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F208" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="G208" t="s">
+        <v>924</v>
+      </c>
+      <c r="H208" t="s">
         <v>925</v>
-      </c>
-      <c r="H208" t="s">
-        <v>926</v>
       </c>
       <c r="I208" t="s">
         <v>701</v>
       </c>
       <c r="J208" t="s">
         <v>587</v>
-      </c>
-      <c r="K208" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11371,25 +10881,22 @@
         <v>570</v>
       </c>
       <c r="E209" t="s">
-        <v>796</v>
+        <v>583</v>
       </c>
       <c r="F209" t="s">
-        <v>796</v>
+        <v>583</v>
       </c>
       <c r="G209" t="s">
+        <v>924</v>
+      </c>
+      <c r="H209" t="s">
         <v>925</v>
-      </c>
-      <c r="H209" t="s">
-        <v>926</v>
       </c>
       <c r="I209" t="s">
         <v>701</v>
       </c>
       <c r="J209" t="s">
         <v>587</v>
-      </c>
-      <c r="K209" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11397,16 +10904,16 @@
         <v>570</v>
       </c>
       <c r="E210" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F210" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G210" t="s">
+        <v>924</v>
+      </c>
+      <c r="H210" t="s">
         <v>925</v>
-      </c>
-      <c r="H210" t="s">
-        <v>926</v>
       </c>
       <c r="I210" t="s">
         <v>701</v>
@@ -11414,34 +10921,37 @@
       <c r="J210" t="s">
         <v>587</v>
       </c>
-      <c r="K210" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="211" spans="1:14">
+      <c r="A211" t="s">
+        <v>570</v>
+      </c>
+      <c r="B211" t="s">
+        <v>835</v>
+      </c>
+      <c r="C211" t="s">
+        <v>836</v>
+      </c>
       <c r="D211" t="s">
         <v>570</v>
       </c>
       <c r="E211" t="s">
-        <v>584</v>
+        <v>884</v>
       </c>
       <c r="F211" t="s">
-        <v>584</v>
+        <v>885</v>
       </c>
       <c r="G211" t="s">
+        <v>924</v>
+      </c>
+      <c r="H211" t="s">
         <v>925</v>
-      </c>
-      <c r="H211" t="s">
-        <v>926</v>
       </c>
       <c r="I211" t="s">
         <v>701</v>
       </c>
       <c r="J211" t="s">
         <v>587</v>
-      </c>
-      <c r="K211" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11449,34 +10959,28 @@
         <v>570</v>
       </c>
       <c r="B212" t="s">
-        <v>835</v>
+        <v>575</v>
       </c>
       <c r="C212" t="s">
-        <v>836</v>
+        <v>576</v>
       </c>
       <c r="D212" t="s">
         <v>570</v>
       </c>
       <c r="E212" t="s">
-        <v>884</v>
+        <v>577</v>
       </c>
       <c r="F212" t="s">
-        <v>885</v>
+        <v>578</v>
       </c>
       <c r="G212" t="s">
-        <v>925</v>
+        <v>659</v>
       </c>
       <c r="H212" t="s">
-        <v>926</v>
+        <v>66</v>
       </c>
       <c r="I212" t="s">
-        <v>701</v>
-      </c>
-      <c r="J212" t="s">
-        <v>587</v>
-      </c>
-      <c r="K212" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -11487,7 +10991,7 @@
         <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="D213" t="s">
         <v>570</v>
@@ -11496,7 +11000,7 @@
         <v>577</v>
       </c>
       <c r="F213" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="G213" t="s">
         <v>659</v>
@@ -11507,28 +11011,16 @@
       <c r="I213" t="s">
         <v>691</v>
       </c>
-      <c r="K213" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" t="s">
-        <v>570</v>
-      </c>
-      <c r="B214" t="s">
-        <v>575</v>
-      </c>
-      <c r="C214" t="s">
-        <v>585</v>
-      </c>
       <c r="D214" t="s">
-        <v>570</v>
+        <v>124</v>
       </c>
       <c r="E214" t="s">
-        <v>577</v>
+        <v>806</v>
       </c>
       <c r="F214" t="s">
-        <v>586</v>
+        <v>807</v>
       </c>
       <c r="G214" t="s">
         <v>659</v>
@@ -11537,105 +11029,102 @@
         <v>66</v>
       </c>
       <c r="I214" t="s">
+        <v>683</v>
+      </c>
+      <c r="J214" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" t="s">
+        <v>588</v>
+      </c>
+      <c r="B215" t="s">
+        <v>808</v>
+      </c>
+      <c r="C215" t="s">
+        <v>809</v>
+      </c>
+      <c r="G215" t="s">
+        <v>924</v>
+      </c>
+      <c r="H215" t="s">
+        <v>925</v>
+      </c>
+      <c r="I215" t="s">
         <v>691</v>
       </c>
-      <c r="K214" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
-      <c r="D215" t="s">
-        <v>124</v>
-      </c>
-      <c r="E215" t="s">
-        <v>806</v>
-      </c>
-      <c r="F215" t="s">
-        <v>807</v>
-      </c>
-      <c r="G215" t="s">
-        <v>659</v>
-      </c>
-      <c r="H215" t="s">
-        <v>66</v>
-      </c>
-      <c r="I215" t="s">
-        <v>683</v>
-      </c>
       <c r="J215" t="s">
-        <v>142</v>
-      </c>
-      <c r="K215" t="s">
-        <v>659</v>
+        <v>810</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="B216" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C216" t="s">
-        <v>809</v>
+        <v>813</v>
+      </c>
+      <c r="D216" t="s">
+        <v>717</v>
+      </c>
+      <c r="E216" t="s">
+        <v>812</v>
+      </c>
+      <c r="F216" t="s">
+        <v>814</v>
       </c>
       <c r="G216" t="s">
-        <v>925</v>
+        <v>816</v>
       </c>
       <c r="H216" t="s">
-        <v>926</v>
+        <v>661</v>
       </c>
       <c r="I216" t="s">
-        <v>691</v>
-      </c>
-      <c r="J216" t="s">
-        <v>810</v>
-      </c>
-      <c r="K216" t="s">
-        <v>692</v>
+        <v>815</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>811</v>
+        <v>737</v>
       </c>
       <c r="B217" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C217" t="s">
-        <v>813</v>
-      </c>
-      <c r="D217" t="s">
-        <v>717</v>
-      </c>
-      <c r="E217" t="s">
-        <v>812</v>
-      </c>
-      <c r="F217" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="G217" t="s">
-        <v>816</v>
+        <v>742</v>
       </c>
       <c r="H217" t="s">
         <v>661</v>
       </c>
       <c r="I217" t="s">
-        <v>815</v>
-      </c>
-      <c r="K217" t="s">
-        <v>692</v>
+        <v>820</v>
+      </c>
+      <c r="L217" t="s">
+        <v>818</v>
+      </c>
+      <c r="M217" t="s">
+        <v>740</v>
+      </c>
+      <c r="N217" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>737</v>
+        <v>627</v>
       </c>
       <c r="B218" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C218" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="G218" t="s">
         <v>742</v>
@@ -11644,53 +11133,38 @@
         <v>661</v>
       </c>
       <c r="I218" t="s">
-        <v>820</v>
-      </c>
-      <c r="K218" t="s">
-        <v>692</v>
-      </c>
-      <c r="L218" t="s">
-        <v>818</v>
-      </c>
-      <c r="M218" t="s">
-        <v>740</v>
-      </c>
-      <c r="N218" t="s">
-        <v>981</v>
+        <v>882</v>
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" t="s">
-        <v>627</v>
-      </c>
-      <c r="B219" t="s">
-        <v>821</v>
-      </c>
-      <c r="C219" t="s">
-        <v>822</v>
+      <c r="D219" t="s">
+        <v>823</v>
+      </c>
+      <c r="E219" t="s">
+        <v>824</v>
+      </c>
+      <c r="F219" t="s">
+        <v>825</v>
       </c>
       <c r="G219" t="s">
-        <v>742</v>
+        <v>659</v>
       </c>
       <c r="H219" t="s">
-        <v>661</v>
+        <v>66</v>
       </c>
       <c r="I219" t="s">
-        <v>882</v>
-      </c>
-      <c r="K219" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="D220" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="E220" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="F220" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="G220" t="s">
         <v>659</v>
@@ -11699,21 +11173,18 @@
         <v>66</v>
       </c>
       <c r="I220" t="s">
-        <v>680</v>
-      </c>
-      <c r="K220" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="D221" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="E221" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="F221" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="G221" t="s">
         <v>659</v>
@@ -11722,93 +11193,90 @@
         <v>66</v>
       </c>
       <c r="I221" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" t="s">
+        <v>305</v>
+      </c>
+      <c r="B222" t="s">
+        <v>306</v>
+      </c>
+      <c r="C222" t="s">
+        <v>832</v>
+      </c>
+      <c r="G222" t="s">
+        <v>657</v>
+      </c>
+      <c r="H222" t="s">
+        <v>662</v>
+      </c>
+      <c r="I222" t="s">
         <v>682</v>
       </c>
-      <c r="K221" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
-      <c r="D222" t="s">
-        <v>829</v>
-      </c>
-      <c r="E222" t="s">
-        <v>830</v>
-      </c>
-      <c r="F222" t="s">
-        <v>831</v>
-      </c>
-      <c r="G222" t="s">
-        <v>659</v>
-      </c>
-      <c r="H222" t="s">
-        <v>66</v>
-      </c>
-      <c r="I222" t="s">
-        <v>686</v>
-      </c>
-      <c r="K222" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" t="s">
-        <v>305</v>
-      </c>
-      <c r="B223" t="s">
-        <v>306</v>
-      </c>
-      <c r="C223" t="s">
-        <v>832</v>
+      <c r="D223" t="s">
+        <v>468</v>
+      </c>
+      <c r="E223" t="s">
+        <v>471</v>
+      </c>
+      <c r="F223" t="s">
+        <v>833</v>
       </c>
       <c r="G223" t="s">
-        <v>657</v>
+        <v>903</v>
       </c>
       <c r="H223" t="s">
-        <v>662</v>
+        <v>904</v>
       </c>
       <c r="I223" t="s">
-        <v>682</v>
-      </c>
-      <c r="K223" t="s">
-        <v>692</v>
+        <v>696</v>
+      </c>
+      <c r="J223" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="D224" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E224" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F224" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G224" t="s">
-        <v>904</v>
+        <v>659</v>
       </c>
       <c r="H224" t="s">
-        <v>905</v>
+        <v>66</v>
       </c>
       <c r="I224" t="s">
         <v>696</v>
       </c>
-      <c r="J224" t="s">
-        <v>896</v>
-      </c>
-      <c r="K224" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="225" spans="1:14">
+      <c r="A225" t="s">
+        <v>839</v>
+      </c>
+      <c r="B225" t="s">
+        <v>840</v>
+      </c>
+      <c r="C225" t="s">
+        <v>841</v>
+      </c>
       <c r="D225" t="s">
-        <v>461</v>
+        <v>839</v>
       </c>
       <c r="E225" t="s">
-        <v>464</v>
+        <v>840</v>
       </c>
       <c r="F225" t="s">
-        <v>834</v>
+        <v>891</v>
       </c>
       <c r="G225" t="s">
         <v>659</v>
@@ -11817,76 +11285,58 @@
         <v>66</v>
       </c>
       <c r="I225" t="s">
-        <v>696</v>
-      </c>
-      <c r="K225" t="s">
-        <v>692</v>
+        <v>883</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B226" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C226" t="s">
-        <v>841</v>
-      </c>
-      <c r="D226" t="s">
-        <v>839</v>
-      </c>
-      <c r="E226" t="s">
-        <v>840</v>
-      </c>
-      <c r="F226" t="s">
-        <v>892</v>
+        <v>844</v>
       </c>
       <c r="G226" t="s">
+        <v>657</v>
+      </c>
+      <c r="H226" t="s">
+        <v>662</v>
+      </c>
+      <c r="I226" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="D227" t="s">
+        <v>845</v>
+      </c>
+      <c r="E227" t="s">
+        <v>846</v>
+      </c>
+      <c r="F227" t="s">
+        <v>847</v>
+      </c>
+      <c r="G227" t="s">
         <v>659</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H227" t="s">
         <v>66</v>
       </c>
-      <c r="I226" t="s">
-        <v>883</v>
-      </c>
-      <c r="K226" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14">
-      <c r="A227" t="s">
-        <v>842</v>
-      </c>
-      <c r="B227" t="s">
-        <v>843</v>
-      </c>
-      <c r="C227" t="s">
-        <v>844</v>
-      </c>
-      <c r="G227" t="s">
-        <v>657</v>
-      </c>
-      <c r="H227" t="s">
-        <v>662</v>
-      </c>
       <c r="I227" t="s">
-        <v>700</v>
-      </c>
-      <c r="K227" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="D228" t="s">
-        <v>845</v>
+        <v>161</v>
       </c>
       <c r="E228" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F228" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G228" t="s">
         <v>659</v>
@@ -11895,21 +11345,18 @@
         <v>66</v>
       </c>
       <c r="I228" t="s">
-        <v>688</v>
-      </c>
-      <c r="K228" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="229" spans="1:14">
       <c r="D229" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="E229" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F229" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="G229" t="s">
         <v>659</v>
@@ -11918,33 +11365,27 @@
         <v>66</v>
       </c>
       <c r="I229" t="s">
-        <v>683</v>
-      </c>
-      <c r="K229" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="D230" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="E230" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F230" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G230" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H230" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I230" t="s">
         <v>680</v>
-      </c>
-      <c r="K230" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11952,33 +11393,30 @@
         <v>323</v>
       </c>
       <c r="E231" t="s">
-        <v>852</v>
+        <v>340</v>
       </c>
       <c r="F231" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G231" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H231" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I231" t="s">
         <v>680</v>
       </c>
-      <c r="K231" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="232" spans="1:14">
       <c r="D232" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="E232" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="F232" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G232" t="s">
         <v>659</v>
@@ -11989,31 +11427,25 @@
       <c r="I232" t="s">
         <v>680</v>
       </c>
-      <c r="K232" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="233" spans="1:14">
       <c r="D233" t="s">
-        <v>408</v>
+        <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>416</v>
+        <v>856</v>
       </c>
       <c r="F233" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="G233" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H233" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I233" t="s">
-        <v>680</v>
-      </c>
-      <c r="K233" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12021,10 +11453,10 @@
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F234" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G234" t="s">
         <v>657</v>
@@ -12033,10 +11465,7 @@
         <v>662</v>
       </c>
       <c r="I234" t="s">
-        <v>688</v>
-      </c>
-      <c r="K234" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12044,56 +11473,59 @@
         <v>46</v>
       </c>
       <c r="E235" t="s">
-        <v>858</v>
+        <v>429</v>
       </c>
       <c r="F235" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G235" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H235" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I235" t="s">
-        <v>680</v>
-      </c>
-      <c r="K235" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="236" spans="1:14">
       <c r="D236" t="s">
-        <v>46</v>
+        <v>826</v>
       </c>
       <c r="E236" t="s">
-        <v>429</v>
+        <v>964</v>
       </c>
       <c r="F236" t="s">
-        <v>860</v>
+        <v>963</v>
       </c>
       <c r="G236" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H236" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I236" t="s">
-        <v>683</v>
-      </c>
-      <c r="K236" t="s">
-        <v>692</v>
+        <v>760</v>
+      </c>
+      <c r="L236" t="s">
+        <v>826</v>
+      </c>
+      <c r="M236" t="s">
+        <v>861</v>
+      </c>
+      <c r="N236" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="237" spans="1:14">
       <c r="D237" t="s">
-        <v>826</v>
+        <v>711</v>
       </c>
       <c r="E237" t="s">
-        <v>965</v>
+        <v>863</v>
       </c>
       <c r="F237" t="s">
-        <v>964</v>
+        <v>864</v>
       </c>
       <c r="G237" t="s">
         <v>657</v>
@@ -12102,19 +11534,7 @@
         <v>662</v>
       </c>
       <c r="I237" t="s">
-        <v>760</v>
-      </c>
-      <c r="K237" t="s">
-        <v>692</v>
-      </c>
-      <c r="L237" t="s">
-        <v>826</v>
-      </c>
-      <c r="M237" t="s">
-        <v>861</v>
-      </c>
-      <c r="N237" t="s">
-        <v>862</v>
+        <v>688</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -12122,10 +11542,10 @@
         <v>711</v>
       </c>
       <c r="E238" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F238" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G238" t="s">
         <v>657</v>
@@ -12136,100 +11556,85 @@
       <c r="I238" t="s">
         <v>688</v>
       </c>
-      <c r="K238" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="D239" t="s">
-        <v>711</v>
-      </c>
-      <c r="E239" t="s">
-        <v>865</v>
-      </c>
-      <c r="F239" t="s">
-        <v>866</v>
+      <c r="A239" t="s">
+        <v>230</v>
+      </c>
+      <c r="B239" t="s">
+        <v>867</v>
+      </c>
+      <c r="C239" t="s">
+        <v>868</v>
       </c>
       <c r="G239" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="H239" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I239" t="s">
-        <v>688</v>
-      </c>
-      <c r="K239" t="s">
-        <v>692</v>
+        <v>882</v>
       </c>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" t="s">
-        <v>230</v>
+        <v>762</v>
       </c>
       <c r="B240" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C240" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="G240" t="s">
-        <v>742</v>
+        <v>657</v>
       </c>
       <c r="H240" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I240" t="s">
-        <v>882</v>
-      </c>
-      <c r="K240" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="241" spans="1:17">
-      <c r="A241" t="s">
-        <v>762</v>
-      </c>
-      <c r="B241" t="s">
-        <v>869</v>
-      </c>
-      <c r="C241" t="s">
-        <v>870</v>
+      <c r="D241" t="s">
+        <v>507</v>
+      </c>
+      <c r="E241" t="s">
+        <v>515</v>
+      </c>
+      <c r="F241" t="s">
+        <v>871</v>
       </c>
       <c r="G241" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H241" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I241" t="s">
-        <v>690</v>
-      </c>
-      <c r="K241" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="242" spans="1:17">
       <c r="D242" t="s">
-        <v>507</v>
+        <v>717</v>
       </c>
       <c r="E242" t="s">
-        <v>515</v>
+        <v>872</v>
       </c>
       <c r="F242" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G242" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H242" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I242" t="s">
         <v>691</v>
-      </c>
-      <c r="K242" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:17">
@@ -12237,22 +11642,19 @@
         <v>717</v>
       </c>
       <c r="E243" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F243" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G243" t="s">
-        <v>657</v>
+        <v>816</v>
       </c>
       <c r="H243" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I243" t="s">
         <v>691</v>
-      </c>
-      <c r="K243" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="244" spans="1:17">
@@ -12260,33 +11662,30 @@
         <v>717</v>
       </c>
       <c r="E244" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="F244" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G244" t="s">
-        <v>816</v>
+        <v>657</v>
       </c>
       <c r="H244" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I244" t="s">
         <v>691</v>
       </c>
-      <c r="K244" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
-        <v>717</v>
+        <v>776</v>
       </c>
       <c r="E245" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="F245" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="G245" t="s">
         <v>657</v>
@@ -12295,406 +11694,403 @@
         <v>662</v>
       </c>
       <c r="I245" t="s">
-        <v>691</v>
-      </c>
-      <c r="K245" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
-        <v>776</v>
+        <v>892</v>
       </c>
       <c r="E246" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="F246" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="G246" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H246" t="s">
-        <v>662</v>
+        <v>66</v>
       </c>
       <c r="I246" t="s">
-        <v>682</v>
-      </c>
-      <c r="K246" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
-        <v>893</v>
+        <v>837</v>
       </c>
       <c r="E247" t="s">
-        <v>894</v>
+        <v>838</v>
       </c>
       <c r="F247" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G247" t="s">
-        <v>659</v>
+        <v>924</v>
       </c>
       <c r="H247" t="s">
-        <v>66</v>
+        <v>925</v>
       </c>
       <c r="I247" t="s">
-        <v>696</v>
+        <v>701</v>
+      </c>
+      <c r="J247" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="D248" t="s">
-        <v>837</v>
+        <v>899</v>
       </c>
       <c r="E248" t="s">
-        <v>838</v>
+        <v>900</v>
       </c>
       <c r="F248" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G248" t="s">
-        <v>925</v>
+        <v>659</v>
       </c>
       <c r="H248" t="s">
-        <v>926</v>
+        <v>66</v>
       </c>
       <c r="I248" t="s">
-        <v>701</v>
-      </c>
-      <c r="J248" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="D249" t="s">
-        <v>900</v>
+        <v>673</v>
       </c>
       <c r="E249" t="s">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="F249" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="G249" t="s">
-        <v>659</v>
+        <v>928</v>
       </c>
       <c r="H249" t="s">
-        <v>66</v>
+        <v>934</v>
       </c>
       <c r="I249" t="s">
-        <v>883</v>
+        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="D250" t="s">
-        <v>673</v>
+        <v>935</v>
       </c>
       <c r="E250" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="F250" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="G250" t="s">
-        <v>929</v>
+        <v>977</v>
       </c>
       <c r="H250" t="s">
-        <v>935</v>
+        <v>66</v>
       </c>
       <c r="I250" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
+        <v>979</v>
+      </c>
+      <c r="J250" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="16.5">
       <c r="D251" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E251" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="F251" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="G251" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="H251" t="s">
         <v>66</v>
       </c>
-      <c r="I251" t="s">
-        <v>980</v>
-      </c>
-      <c r="J251" t="s">
+      <c r="I251" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" t="s">
+        <v>310</v>
+      </c>
+      <c r="B252" t="s">
+        <v>311</v>
+      </c>
+      <c r="C252" t="s">
+        <v>312</v>
+      </c>
+      <c r="D252" t="s">
+        <v>826</v>
+      </c>
+      <c r="E252" t="s">
+        <v>313</v>
+      </c>
+      <c r="F252" t="s">
+        <v>949</v>
+      </c>
+      <c r="G252" t="s">
+        <v>657</v>
+      </c>
+      <c r="H252" t="s">
+        <v>662</v>
+      </c>
+      <c r="I252" t="s">
+        <v>682</v>
+      </c>
+      <c r="L252" t="s">
+        <v>826</v>
+      </c>
+      <c r="M252" t="s">
+        <v>313</v>
+      </c>
+      <c r="N252" t="s">
+        <v>917</v>
+      </c>
+      <c r="O252" t="s">
+        <v>310</v>
+      </c>
+      <c r="P252" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="D253" t="s">
+        <v>287</v>
+      </c>
+      <c r="E253" t="s">
+        <v>951</v>
+      </c>
+      <c r="F253" t="s">
+        <v>952</v>
+      </c>
+      <c r="G253" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" ht="16.5">
-      <c r="D252" t="s">
-        <v>941</v>
-      </c>
-      <c r="E252" t="s">
-        <v>942</v>
-      </c>
-      <c r="F252" t="s">
-        <v>943</v>
-      </c>
-      <c r="G252" t="s">
-        <v>949</v>
-      </c>
-      <c r="H252" t="s">
+      <c r="H253" t="s">
         <v>66</v>
       </c>
-      <c r="I252" s="8" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17">
-      <c r="A253" t="s">
-        <v>310</v>
-      </c>
-      <c r="B253" t="s">
-        <v>311</v>
-      </c>
-      <c r="C253" t="s">
-        <v>312</v>
-      </c>
-      <c r="D253" t="s">
-        <v>826</v>
-      </c>
-      <c r="E253" t="s">
-        <v>313</v>
-      </c>
-      <c r="F253" t="s">
-        <v>950</v>
-      </c>
-      <c r="G253" t="s">
+      <c r="I253" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" ht="16.5">
+      <c r="D254" t="s">
+        <v>390</v>
+      </c>
+      <c r="E254" t="s">
+        <v>356</v>
+      </c>
+      <c r="F254" t="s">
+        <v>357</v>
+      </c>
+      <c r="G254" t="s">
         <v>657</v>
       </c>
-      <c r="H253" t="s">
+      <c r="H254" t="s">
         <v>662</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I254" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="D255" t="s">
+        <v>525</v>
+      </c>
+      <c r="E255" t="s">
+        <v>955</v>
+      </c>
+      <c r="F255" t="s">
+        <v>956</v>
+      </c>
+      <c r="G255" t="s">
+        <v>924</v>
+      </c>
+      <c r="H255" t="s">
+        <v>925</v>
+      </c>
+      <c r="I255" t="s">
         <v>682</v>
-      </c>
-      <c r="L253" t="s">
-        <v>826</v>
-      </c>
-      <c r="M253" t="s">
-        <v>313</v>
-      </c>
-      <c r="N253" t="s">
-        <v>918</v>
-      </c>
-      <c r="O253" t="s">
-        <v>310</v>
-      </c>
-      <c r="P253" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17">
-      <c r="D254" t="s">
-        <v>287</v>
-      </c>
-      <c r="E254" t="s">
-        <v>952</v>
-      </c>
-      <c r="F254" t="s">
-        <v>953</v>
-      </c>
-      <c r="G254" t="s">
-        <v>949</v>
-      </c>
-      <c r="H254" t="s">
-        <v>66</v>
-      </c>
-      <c r="I254" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17" ht="16.5">
-      <c r="D255" t="s">
-        <v>390</v>
-      </c>
-      <c r="E255" t="s">
-        <v>954</v>
-      </c>
-      <c r="F255" t="s">
-        <v>955</v>
-      </c>
-      <c r="G255" t="s">
-        <v>657</v>
-      </c>
-      <c r="H255" t="s">
-        <v>662</v>
-      </c>
-      <c r="I255" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="256" spans="1:17">
       <c r="D256" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="E256" t="s">
-        <v>956</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
         <v>957</v>
       </c>
       <c r="G256" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="H256" t="s">
-        <v>926</v>
+        <v>66</v>
       </c>
       <c r="I256" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="257" spans="4:10">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="D257" t="s">
-        <v>478</v>
+        <v>365</v>
       </c>
       <c r="E257" t="s">
-        <v>479</v>
+        <v>961</v>
       </c>
       <c r="F257" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="G257" t="s">
-        <v>949</v>
+        <v>657</v>
       </c>
       <c r="H257" t="s">
+        <v>662</v>
+      </c>
+      <c r="I257" t="s">
+        <v>686</v>
+      </c>
+      <c r="J257" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="D258" t="s">
+        <v>46</v>
+      </c>
+      <c r="E258" t="s">
+        <v>965</v>
+      </c>
+      <c r="F258" t="s">
+        <v>966</v>
+      </c>
+      <c r="G258" t="s">
+        <v>659</v>
+      </c>
+      <c r="H258" t="s">
         <v>66</v>
       </c>
-      <c r="I257" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="258" spans="4:10">
-      <c r="D258" t="s">
-        <v>365</v>
-      </c>
-      <c r="E258" t="s">
-        <v>962</v>
-      </c>
-      <c r="F258" t="s">
-        <v>963</v>
-      </c>
-      <c r="G258" t="s">
-        <v>657</v>
-      </c>
-      <c r="H258" t="s">
-        <v>662</v>
-      </c>
       <c r="I258" t="s">
-        <v>686</v>
-      </c>
-      <c r="J258" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="259" spans="4:10">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="D259" t="s">
-        <v>46</v>
+        <v>525</v>
       </c>
       <c r="E259" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F259" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="G259" t="s">
-        <v>659</v>
+        <v>969</v>
       </c>
       <c r="H259" t="s">
         <v>66</v>
       </c>
       <c r="I259" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="260" spans="4:10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="D260" t="s">
-        <v>525</v>
+        <v>935</v>
       </c>
       <c r="E260" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="F260" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G260" t="s">
-        <v>970</v>
+        <v>659</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
       </c>
       <c r="I260" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="261" spans="4:10">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="D261" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E261" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="F261" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G261" t="s">
-        <v>659</v>
+        <v>977</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
       </c>
       <c r="I261" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="262" spans="4:10">
+        <v>681</v>
+      </c>
+      <c r="J261" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="D262" t="s">
-        <v>936</v>
+        <v>60</v>
       </c>
       <c r="E262" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="F262" t="s">
+        <v>983</v>
+      </c>
+      <c r="G262" t="s">
         <v>977</v>
-      </c>
-      <c r="G262" t="s">
-        <v>978</v>
       </c>
       <c r="H262" t="s">
         <v>66</v>
       </c>
       <c r="I262" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="J262" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="263" spans="4:10">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
       <c r="D263" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E263" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="F263" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="G263" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="H263" t="s">
         <v>66</v>
@@ -12702,39 +12098,36 @@
       <c r="I263" t="s">
         <v>685</v>
       </c>
-      <c r="J263" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="264" spans="4:10">
+    </row>
+    <row r="264" spans="1:10">
       <c r="D264" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="E264" t="s">
-        <v>989</v>
+        <v>751</v>
       </c>
       <c r="F264" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="G264" t="s">
-        <v>991</v>
+        <v>657</v>
       </c>
       <c r="H264" t="s">
-        <v>66</v>
+        <v>662</v>
       </c>
       <c r="I264" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="265" spans="4:10">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
       <c r="D265" t="s">
-        <v>46</v>
+        <v>842</v>
       </c>
       <c r="E265" t="s">
-        <v>751</v>
+        <v>992</v>
       </c>
       <c r="F265" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="G265" t="s">
         <v>657</v>
@@ -12743,261 +12136,273 @@
         <v>662</v>
       </c>
       <c r="I265" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="D266" t="s">
+        <v>994</v>
+      </c>
+      <c r="E266" t="s">
+        <v>995</v>
+      </c>
+      <c r="F266" t="s">
+        <v>996</v>
+      </c>
+      <c r="G266" t="s">
+        <v>948</v>
+      </c>
+      <c r="H266" t="s">
+        <v>66</v>
+      </c>
+      <c r="I266" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="266" spans="4:10">
-      <c r="D266" t="s">
-        <v>842</v>
-      </c>
-      <c r="E266" t="s">
-        <v>993</v>
-      </c>
-      <c r="F266" t="s">
-        <v>994</v>
-      </c>
-      <c r="G266" t="s">
+    <row r="267" spans="1:10">
+      <c r="D267" t="s">
+        <v>570</v>
+      </c>
+      <c r="E267" t="s">
+        <v>800</v>
+      </c>
+      <c r="F267" t="s">
+        <v>800</v>
+      </c>
+      <c r="G267" t="s">
+        <v>924</v>
+      </c>
+      <c r="H267" t="s">
+        <v>925</v>
+      </c>
+      <c r="I267" t="s">
+        <v>701</v>
+      </c>
+      <c r="J267" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="D268" t="s">
+        <v>230</v>
+      </c>
+      <c r="E268" t="s">
+        <v>999</v>
+      </c>
+      <c r="F268" t="s">
+        <v>999</v>
+      </c>
+      <c r="G268" t="s">
+        <v>660</v>
+      </c>
+      <c r="H268" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" t="s">
+        <v>323</v>
+      </c>
+      <c r="B269" t="s">
+        <v>361</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D269" t="s">
+        <v>323</v>
+      </c>
+      <c r="E269" t="s">
+        <v>361</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G269" t="s">
         <v>657</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H269" t="s">
         <v>662</v>
       </c>
-      <c r="I266" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="267" spans="4:10">
-      <c r="D267" t="s">
-        <v>995</v>
-      </c>
-      <c r="E267" t="s">
-        <v>996</v>
-      </c>
-      <c r="F267" t="s">
-        <v>997</v>
-      </c>
-      <c r="G267" t="s">
-        <v>949</v>
-      </c>
-      <c r="H267" t="s">
-        <v>66</v>
-      </c>
-      <c r="I267" t="s">
+      <c r="I269" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="268" spans="4:10">
-      <c r="D268" t="s">
-        <v>570</v>
-      </c>
-      <c r="E268" t="s">
-        <v>800</v>
-      </c>
-      <c r="F268" t="s">
-        <v>800</v>
-      </c>
-      <c r="G268" t="s">
-        <v>925</v>
-      </c>
-      <c r="H268" t="s">
-        <v>926</v>
-      </c>
-      <c r="I268" t="s">
-        <v>701</v>
-      </c>
-      <c r="J268" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="269" spans="4:10">
-      <c r="D269" t="s">
-        <v>230</v>
-      </c>
-      <c r="E269" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G269" t="s">
-        <v>660</v>
-      </c>
-      <c r="H269" t="s">
-        <v>661</v>
+    <row r="270" spans="1:10">
+      <c r="D270" t="s">
+        <v>419</v>
+      </c>
+      <c r="E270" t="s">
+        <v>79</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G270" t="s">
+        <v>657</v>
+      </c>
+      <c r="H270" t="s">
+        <v>662</v>
+      </c>
+      <c r="I270" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W261" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="87" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="82" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188:C189">
-    <cfRule type="duplicateValues" dxfId="74" priority="24"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C190 C1:C187 C269:C1048576 C192:C193 C212:C267 F194:F211">
-    <cfRule type="duplicateValues" dxfId="73" priority="53"/>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="duplicateValues" dxfId="74" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
+  <conditionalFormatting sqref="F193:F210 C189 C1:C187 C268:C1048576 C191:C192 C211:C266">
+    <cfRule type="duplicateValues" dxfId="73" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="duplicateValues" dxfId="72" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="66" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="65" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="60" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="62"/>
     <cfRule type="duplicateValues" dxfId="56" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F18 F212:F267 F269:F1048576 F20:F193">
-    <cfRule type="duplicateValues" dxfId="49" priority="23"/>
+  <conditionalFormatting sqref="F1:F18 F268:F1048576 F20:F192 F211:F266">
+    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F248">
-    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
+  <conditionalFormatting sqref="F247">
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F258 F261 F263 C1:C187 F266 F269:F1048576 C269:C1048576 C190:C193 C212:C267 F1:F18 F20:F247">
-    <cfRule type="duplicateValues" dxfId="47" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F249:F258 F261 F263 F266 F269:F1048576 F1:F18 F212:F247 F20:F193">
-    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
+  <conditionalFormatting sqref="F258">
+    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="duplicateValues" dxfId="44" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="43" priority="41"/>
+  <conditionalFormatting sqref="F260 F262 C1:C187 F265 C189:C192 C211:C266 F1:F18 C268:C1048576 F268:F1048576 F20:F246 F248:F257">
+    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F261 F263 F266 F269:F1048576 F1:F18 F212:F259 F20:F193">
-    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
+  <conditionalFormatting sqref="F260 F262 F265 F1:F18 F211:F246 F268:F1048576 F20:F192 F248:F257">
+    <cfRule type="duplicateValues" dxfId="44" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
+  <conditionalFormatting sqref="F260 F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F258">
+    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266 F269:F1048576 F1:F18 F212:F261 F20:F193">
-    <cfRule type="duplicateValues" dxfId="40" priority="36"/>
+  <conditionalFormatting sqref="F261">
+    <cfRule type="duplicateValues" dxfId="41" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+  <conditionalFormatting sqref="F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F260">
+    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266 F269:F1048576 F1:F18 F212:F263 F20:F193">
-    <cfRule type="duplicateValues" dxfId="38" priority="34"/>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265 F1:F18 F268:F1048576 F20:F192 F211:F262">
+    <cfRule type="duplicateValues" dxfId="38" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F266">
+    <cfRule type="duplicateValues" dxfId="37" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F267">
-    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F268">
-    <cfRule type="duplicateValues" dxfId="36" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F264:G264">
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
+  <conditionalFormatting sqref="F263:G263">
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="34" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="68"/>
     <cfRule type="duplicateValues" dxfId="33" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="78"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J251:J257 J1:J249 J259:J1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="54"/>
+  <conditionalFormatting sqref="J250:J256 J1:J248 J258:J1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="30" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N191:N192">
-    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="32"/>
+  <conditionalFormatting sqref="N190:N191">
+    <cfRule type="duplicateValues" dxfId="19" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N237">
-    <cfRule type="duplicateValues" dxfId="20" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="44"/>
+  <conditionalFormatting sqref="N236">
+    <cfRule type="duplicateValues" dxfId="13" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="duplicateValues" dxfId="17" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB0CF4-0D46-4477-BF85-0ACC02C6B273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D028D-563B-478B-BB1F-49086A60FA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1015">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2318,9 +2318,6 @@
     <t>SC2943SO-Q-DB-60CR-2943</t>
   </si>
   <si>
-    <t>STC11202B-T</t>
-  </si>
-  <si>
     <t>SC4391S6-TR</t>
   </si>
   <si>
@@ -2520,9 +2517,6 @@
   </si>
   <si>
     <t>SC2402DN-2402</t>
-  </si>
-  <si>
-    <t>STC11102C</t>
   </si>
   <si>
     <t>SC2968S1-N-BK</t>
@@ -2874,9 +2868,6 @@
     <t>SC1945B1(STC2899AJ)-N13</t>
   </si>
   <si>
-    <t>STC2899AM</t>
-  </si>
-  <si>
     <t>SC1945S1-BK</t>
   </si>
   <si>
@@ -3103,6 +3094,26 @@
   </si>
   <si>
     <t>SC2442UA(2943S1-1)-2442</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11102B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC2899AJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4431,8 +4442,8 @@
   <dimension ref="A1:W270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4834,7 +4845,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -4857,7 +4868,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -4944,7 +4955,7 @@
         <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5155,13 +5166,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G19" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I19" t="s">
         <v>680</v>
@@ -5196,7 +5207,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G20" t="s">
         <v>659</v>
@@ -5228,7 +5239,7 @@
         <v>727</v>
       </c>
       <c r="G21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5318,7 +5329,7 @@
         <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5406,7 +5417,7 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5661,10 +5672,10 @@
         <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G35" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -5725,7 +5736,7 @@
         <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -5761,7 +5772,7 @@
         <v>169</v>
       </c>
       <c r="T37" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5784,7 +5795,7 @@
         <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -5816,7 +5827,7 @@
         <v>663</v>
       </c>
       <c r="G39" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -5834,7 +5845,7 @@
         <v>182</v>
       </c>
       <c r="N39" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5857,7 +5868,7 @@
         <v>163</v>
       </c>
       <c r="G40" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -5889,7 +5900,7 @@
         <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -5921,7 +5932,7 @@
         <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -5968,10 +5979,10 @@
         <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="G43" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6000,7 +6011,7 @@
         <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D44" t="s">
         <v>161</v>
@@ -6032,7 +6043,7 @@
         <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6047,10 +6058,10 @@
         <v>197</v>
       </c>
       <c r="M45" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N45" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6064,7 +6075,7 @@
         <v>202</v>
       </c>
       <c r="G46" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -6093,7 +6104,7 @@
         <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G47" t="s">
         <v>65</v>
@@ -6142,7 +6153,7 @@
         <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D49" t="s">
         <v>206</v>
@@ -6151,7 +6162,7 @@
         <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G49" t="s">
         <v>659</v>
@@ -6209,10 +6220,10 @@
         <v>206</v>
       </c>
       <c r="E51" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F51" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G51" t="s">
         <v>660</v>
@@ -6340,7 +6351,7 @@
         <v>227</v>
       </c>
       <c r="F55" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G55" t="s">
         <v>659</v>
@@ -6450,7 +6461,7 @@
         <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G59" t="s">
         <v>660</v>
@@ -6692,7 +6703,7 @@
         <v>680</v>
       </c>
       <c r="J69" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -6703,7 +6714,7 @@
         <v>250</v>
       </c>
       <c r="F70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G70" t="s">
         <v>660</v>
@@ -6715,7 +6726,7 @@
         <v>680</v>
       </c>
       <c r="J70" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -6726,7 +6737,7 @@
         <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D71" t="s">
         <v>261</v>
@@ -6976,7 +6987,7 @@
         <v>286</v>
       </c>
       <c r="F79" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G79" t="s">
         <v>659</v>
@@ -7037,7 +7048,7 @@
         <v>293</v>
       </c>
       <c r="G81" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H81" t="s">
         <v>661</v>
@@ -7054,16 +7065,16 @@
         <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D82" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E82" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F82" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G82" t="s">
         <v>660</v>
@@ -7139,7 +7150,7 @@
         <v>297</v>
       </c>
       <c r="F84" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G84" t="s">
         <v>659</v>
@@ -7247,7 +7258,7 @@
         <v>662</v>
       </c>
       <c r="I87" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -7494,7 +7505,7 @@
         <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G95" t="s">
         <v>657</v>
@@ -7587,7 +7598,7 @@
         <v>356</v>
       </c>
       <c r="F98" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G98" t="s">
         <v>657</v>
@@ -7906,10 +7917,10 @@
         <v>390</v>
       </c>
       <c r="E109" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F109" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G109" t="s">
         <v>657</v>
@@ -7921,7 +7932,7 @@
         <v>680</v>
       </c>
       <c r="J109" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -7996,10 +8007,10 @@
         <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F112" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G112" t="s">
         <v>657</v>
@@ -8075,7 +8086,7 @@
         <v>72</v>
       </c>
       <c r="N114" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -8171,7 +8182,7 @@
         <v>421</v>
       </c>
       <c r="N117" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -8279,7 +8290,7 @@
         <v>442</v>
       </c>
       <c r="G120" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H120" t="s">
         <v>66</v>
@@ -8332,13 +8343,13 @@
         <v>658</v>
       </c>
       <c r="H121" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I121" t="s">
         <v>696</v>
       </c>
       <c r="J121" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L121" t="s">
         <v>445</v>
@@ -8358,7 +8369,7 @@
         <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G122" t="s">
         <v>658</v>
@@ -8370,7 +8381,7 @@
         <v>696</v>
       </c>
       <c r="J122" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L122" t="s">
         <v>445</v>
@@ -8393,13 +8404,13 @@
         <v>454</v>
       </c>
       <c r="D123" t="s">
+        <v>775</v>
+      </c>
+      <c r="E123" t="s">
         <v>776</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>777</v>
-      </c>
-      <c r="F123" t="s">
-        <v>778</v>
       </c>
       <c r="G123" t="s">
         <v>657</v>
@@ -8434,16 +8445,16 @@
         <v>460</v>
       </c>
       <c r="G124" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="H124" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="I124" t="s">
         <v>682</v>
       </c>
       <c r="J124" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -8451,22 +8462,22 @@
         <v>456</v>
       </c>
       <c r="E125" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F125" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G125" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="H125" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="I125" t="s">
         <v>682</v>
       </c>
       <c r="J125" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -8474,22 +8485,22 @@
         <v>456</v>
       </c>
       <c r="E126" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F126" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="G126" t="s">
-        <v>657</v>
+        <v>1010</v>
       </c>
       <c r="H126" t="s">
-        <v>662</v>
+        <v>1011</v>
       </c>
       <c r="I126" t="s">
         <v>682</v>
       </c>
       <c r="J126" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -8512,7 +8523,7 @@
         <v>465</v>
       </c>
       <c r="G127" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H127" t="s">
         <v>66</v>
@@ -8562,7 +8573,7 @@
         <v>696</v>
       </c>
       <c r="J128" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L128" t="s">
         <v>468</v>
@@ -8571,7 +8582,7 @@
         <v>747</v>
       </c>
       <c r="N128" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -8632,10 +8643,10 @@
         <v>486</v>
       </c>
       <c r="G130" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H130" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I130" t="s">
         <v>682</v>
@@ -8664,10 +8675,10 @@
         <v>490</v>
       </c>
       <c r="G131" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H131" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I131" t="s">
         <v>682</v>
@@ -8696,10 +8707,10 @@
         <v>494</v>
       </c>
       <c r="G132" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H132" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I132" t="s">
         <v>682</v>
@@ -8713,25 +8724,25 @@
         <v>482</v>
       </c>
       <c r="B133" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C133" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D133" t="s">
         <v>482</v>
       </c>
       <c r="E133" t="s">
+        <v>782</v>
+      </c>
+      <c r="F133" t="s">
         <v>783</v>
       </c>
-      <c r="F133" t="s">
-        <v>784</v>
-      </c>
       <c r="G133" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H133" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I133" t="s">
         <v>682</v>
@@ -8789,10 +8800,10 @@
         <v>500</v>
       </c>
       <c r="G135" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H135" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I135" t="s">
         <v>682</v>
@@ -8850,10 +8861,10 @@
         <v>511</v>
       </c>
       <c r="G137" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H137" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I137" t="s">
         <v>697</v>
@@ -8896,10 +8907,10 @@
         <v>507</v>
       </c>
       <c r="B139" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C139" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D139" t="s">
         <v>507</v>
@@ -8940,10 +8951,10 @@
         <v>668</v>
       </c>
       <c r="G140" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H140" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I140" t="s">
         <v>697</v>
@@ -8972,10 +8983,10 @@
         <v>523</v>
       </c>
       <c r="G141" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H141" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I141" t="s">
         <v>697</v>
@@ -8987,10 +8998,10 @@
         <v>519</v>
       </c>
       <c r="M141" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="N141" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -9129,13 +9140,13 @@
         <v>545</v>
       </c>
       <c r="F146" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G146" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H146" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I146" t="s">
         <v>699</v>
@@ -9164,10 +9175,10 @@
         <v>546</v>
       </c>
       <c r="G147" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H147" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
@@ -9196,10 +9207,10 @@
         <v>551</v>
       </c>
       <c r="G148" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H148" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I148" t="s">
         <v>700</v>
@@ -9228,10 +9239,10 @@
         <v>555</v>
       </c>
       <c r="G149" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H149" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I149" t="s">
         <v>700</v>
@@ -9251,10 +9262,10 @@
         <v>558</v>
       </c>
       <c r="G150" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H150" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I150" t="s">
         <v>700</v>
@@ -9274,10 +9285,10 @@
         <v>560</v>
       </c>
       <c r="G151" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H151" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I151" t="s">
         <v>700</v>
@@ -9306,10 +9317,10 @@
         <v>565</v>
       </c>
       <c r="G152" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H152" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I152" t="s">
         <v>700</v>
@@ -9391,7 +9402,7 @@
         <v>720</v>
       </c>
       <c r="N154" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -9524,10 +9535,10 @@
         <v>606</v>
       </c>
       <c r="G159" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H159" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I159" t="s">
         <v>682</v>
@@ -9676,7 +9687,7 @@
         <v>288</v>
       </c>
       <c r="T163" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -9909,7 +9920,7 @@
         <v>479</v>
       </c>
       <c r="Q170" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -9923,10 +9934,10 @@
         <v>643</v>
       </c>
       <c r="G171" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H171" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I171" t="s">
         <v>696</v>
@@ -10013,10 +10024,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H174" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I174" t="s">
         <v>682</v>
@@ -10036,10 +10047,10 @@
         <v>656</v>
       </c>
       <c r="G175" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H175" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I175" t="s">
         <v>682</v>
@@ -10059,10 +10070,10 @@
         <v>672</v>
       </c>
       <c r="G176" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H176" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I176" t="s">
         <v>692</v>
@@ -10079,10 +10090,10 @@
         <v>675</v>
       </c>
       <c r="G177" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H177" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I177" t="s">
         <v>692</v>
@@ -10099,10 +10110,10 @@
         <v>678</v>
       </c>
       <c r="G178" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H178" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -10180,7 +10191,7 @@
         <v>736</v>
       </c>
       <c r="F181" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G181" t="s">
         <v>660</v>
@@ -10198,7 +10209,7 @@
         <v>736</v>
       </c>
       <c r="N181" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -10270,7 +10281,7 @@
         <v>752</v>
       </c>
       <c r="D184" t="s">
-        <v>750</v>
+        <v>1012</v>
       </c>
       <c r="E184" t="s">
         <v>753</v>
@@ -10279,7 +10290,7 @@
         <v>754</v>
       </c>
       <c r="G184" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H184" t="s">
         <v>661</v>
@@ -10290,48 +10301,48 @@
     </row>
     <row r="185" spans="1:14">
       <c r="D185" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E185" t="s">
         <v>755</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>756</v>
       </c>
-      <c r="F185" t="s">
-        <v>757</v>
-      </c>
       <c r="G185" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H185" t="s">
         <v>661</v>
       </c>
       <c r="I185" t="s">
+        <v>759</v>
+      </c>
+      <c r="J185" t="s">
         <v>760</v>
       </c>
-      <c r="J185" t="s">
-        <v>761</v>
-      </c>
       <c r="L185" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M185" t="s">
         <v>755</v>
       </c>
-      <c r="M185" t="s">
-        <v>756</v>
-      </c>
       <c r="N185" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="D186" t="s">
+        <v>761</v>
+      </c>
+      <c r="E186" t="s">
         <v>762</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>763</v>
       </c>
-      <c r="F186" t="s">
-        <v>764</v>
-      </c>
       <c r="G186" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -10340,21 +10351,21 @@
         <v>681</v>
       </c>
       <c r="J186" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="D187" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E187" t="s">
+        <v>764</v>
+      </c>
+      <c r="F187" t="s">
         <v>765</v>
       </c>
-      <c r="F187" t="s">
-        <v>766</v>
-      </c>
       <c r="G187" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -10363,21 +10374,21 @@
         <v>681</v>
       </c>
       <c r="J187" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="D188" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E188" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F188" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G188" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H188" t="s">
         <v>66</v>
@@ -10386,39 +10397,39 @@
         <v>681</v>
       </c>
       <c r="J188" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
+        <v>768</v>
+      </c>
+      <c r="B189" t="s">
         <v>769</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>770</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
+        <v>768</v>
+      </c>
+      <c r="E189" t="s">
         <v>771</v>
       </c>
-      <c r="D189" t="s">
-        <v>769</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="F189" t="s">
         <v>772</v>
       </c>
-      <c r="F189" t="s">
-        <v>773</v>
-      </c>
       <c r="G189" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H189" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I189" t="s">
         <v>682</v>
       </c>
       <c r="J189" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10426,10 +10437,10 @@
         <v>478</v>
       </c>
       <c r="E190" t="s">
+        <v>778</v>
+      </c>
+      <c r="F190" t="s">
         <v>779</v>
-      </c>
-      <c r="F190" t="s">
-        <v>780</v>
       </c>
       <c r="G190" t="s">
         <v>659</v>
@@ -10444,33 +10455,33 @@
         <v>478</v>
       </c>
       <c r="M190" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N190" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
+        <v>784</v>
+      </c>
+      <c r="B191" t="s">
         <v>785</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>786</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>790</v>
+      </c>
+      <c r="E191" t="s">
         <v>787</v>
       </c>
-      <c r="D191" t="s">
-        <v>785</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>788</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>789</v>
-      </c>
-      <c r="G191" t="s">
-        <v>790</v>
       </c>
       <c r="H191" t="s">
         <v>661</v>
@@ -10481,22 +10492,22 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
+        <v>790</v>
+      </c>
+      <c r="B192" t="s">
         <v>791</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>792</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>790</v>
+      </c>
+      <c r="E192" t="s">
         <v>793</v>
       </c>
-      <c r="D192" t="s">
-        <v>791</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>794</v>
-      </c>
-      <c r="F192" t="s">
-        <v>795</v>
       </c>
       <c r="G192" t="s">
         <v>659</v>
@@ -10519,10 +10530,10 @@
         <v>572</v>
       </c>
       <c r="G193" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H193" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I193" t="s">
         <v>701</v>
@@ -10542,10 +10553,10 @@
         <v>579</v>
       </c>
       <c r="G194" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H194" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I194" t="s">
         <v>701</v>
@@ -10559,16 +10570,16 @@
         <v>570</v>
       </c>
       <c r="E195" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F195" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G195" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H195" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I195" t="s">
         <v>701</v>
@@ -10582,16 +10593,16 @@
         <v>570</v>
       </c>
       <c r="E196" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F196" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G196" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H196" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I196" t="s">
         <v>701</v>
@@ -10605,16 +10616,16 @@
         <v>570</v>
       </c>
       <c r="E197" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F197" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G197" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H197" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I197" t="s">
         <v>701</v>
@@ -10628,16 +10639,16 @@
         <v>570</v>
       </c>
       <c r="E198" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F198" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G198" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H198" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I198" t="s">
         <v>701</v>
@@ -10651,16 +10662,16 @@
         <v>570</v>
       </c>
       <c r="E199" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F199" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G199" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H199" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I199" t="s">
         <v>701</v>
@@ -10680,10 +10691,10 @@
         <v>574</v>
       </c>
       <c r="G200" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H200" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I200" t="s">
         <v>701</v>
@@ -10697,16 +10708,16 @@
         <v>570</v>
       </c>
       <c r="E201" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F201" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G201" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H201" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I201" t="s">
         <v>701</v>
@@ -10726,10 +10737,10 @@
         <v>580</v>
       </c>
       <c r="G202" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H202" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I202" t="s">
         <v>701</v>
@@ -10749,10 +10760,10 @@
         <v>581</v>
       </c>
       <c r="G203" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H203" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I203" t="s">
         <v>701</v>
@@ -10772,10 +10783,10 @@
         <v>582</v>
       </c>
       <c r="G204" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H204" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I204" t="s">
         <v>701</v>
@@ -10789,16 +10800,16 @@
         <v>570</v>
       </c>
       <c r="E205" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F205" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G205" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H205" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I205" t="s">
         <v>701</v>
@@ -10812,16 +10823,16 @@
         <v>570</v>
       </c>
       <c r="E206" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F206" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G206" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H206" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I206" t="s">
         <v>701</v>
@@ -10835,16 +10846,16 @@
         <v>570</v>
       </c>
       <c r="E207" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F207" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G207" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H207" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I207" t="s">
         <v>701</v>
@@ -10858,16 +10869,16 @@
         <v>570</v>
       </c>
       <c r="E208" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F208" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G208" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H208" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I208" t="s">
         <v>701</v>
@@ -10887,10 +10898,10 @@
         <v>583</v>
       </c>
       <c r="G209" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H209" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I209" t="s">
         <v>701</v>
@@ -10910,10 +10921,10 @@
         <v>584</v>
       </c>
       <c r="G210" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H210" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I210" t="s">
         <v>701</v>
@@ -10927,25 +10938,25 @@
         <v>570</v>
       </c>
       <c r="B211" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C211" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D211" t="s">
         <v>570</v>
       </c>
       <c r="E211" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F211" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G211" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H211" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I211" t="s">
         <v>701</v>
@@ -11017,10 +11028,10 @@
         <v>124</v>
       </c>
       <c r="E214" t="s">
+        <v>805</v>
+      </c>
+      <c r="F214" t="s">
         <v>806</v>
-      </c>
-      <c r="F214" t="s">
-        <v>807</v>
       </c>
       <c r="G214" t="s">
         <v>659</v>
@@ -11040,51 +11051,51 @@
         <v>588</v>
       </c>
       <c r="B215" t="s">
+        <v>807</v>
+      </c>
+      <c r="C215" t="s">
         <v>808</v>
       </c>
-      <c r="C215" t="s">
-        <v>809</v>
-      </c>
       <c r="G215" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H215" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I215" t="s">
         <v>691</v>
       </c>
       <c r="J215" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
+        <v>810</v>
+      </c>
+      <c r="B216" t="s">
         <v>811</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>812</v>
-      </c>
-      <c r="C216" t="s">
-        <v>813</v>
       </c>
       <c r="D216" t="s">
         <v>717</v>
       </c>
       <c r="E216" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F216" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G216" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H216" t="s">
         <v>661</v>
       </c>
       <c r="I216" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11092,10 +11103,10 @@
         <v>737</v>
       </c>
       <c r="B217" t="s">
+        <v>817</v>
+      </c>
+      <c r="C217" t="s">
         <v>818</v>
-      </c>
-      <c r="C217" t="s">
-        <v>819</v>
       </c>
       <c r="G217" t="s">
         <v>742</v>
@@ -11104,16 +11115,16 @@
         <v>661</v>
       </c>
       <c r="I217" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M217" t="s">
         <v>740</v>
       </c>
       <c r="N217" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11121,10 +11132,10 @@
         <v>627</v>
       </c>
       <c r="B218" t="s">
+        <v>820</v>
+      </c>
+      <c r="C218" t="s">
         <v>821</v>
-      </c>
-      <c r="C218" t="s">
-        <v>822</v>
       </c>
       <c r="G218" t="s">
         <v>742</v>
@@ -11133,18 +11144,18 @@
         <v>661</v>
       </c>
       <c r="I218" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="D219" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E219" t="s">
+        <v>822</v>
+      </c>
+      <c r="F219" t="s">
         <v>823</v>
-      </c>
-      <c r="E219" t="s">
-        <v>824</v>
-      </c>
-      <c r="F219" t="s">
-        <v>825</v>
       </c>
       <c r="G219" t="s">
         <v>659</v>
@@ -11158,13 +11169,13 @@
     </row>
     <row r="220" spans="1:14">
       <c r="D220" t="s">
+        <v>824</v>
+      </c>
+      <c r="E220" t="s">
+        <v>825</v>
+      </c>
+      <c r="F220" t="s">
         <v>826</v>
-      </c>
-      <c r="E220" t="s">
-        <v>827</v>
-      </c>
-      <c r="F220" t="s">
-        <v>828</v>
       </c>
       <c r="G220" t="s">
         <v>659</v>
@@ -11178,13 +11189,13 @@
     </row>
     <row r="221" spans="1:14">
       <c r="D221" t="s">
+        <v>827</v>
+      </c>
+      <c r="E221" t="s">
+        <v>828</v>
+      </c>
+      <c r="F221" t="s">
         <v>829</v>
-      </c>
-      <c r="E221" t="s">
-        <v>830</v>
-      </c>
-      <c r="F221" t="s">
-        <v>831</v>
       </c>
       <c r="G221" t="s">
         <v>659</v>
@@ -11204,7 +11215,7 @@
         <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G222" t="s">
         <v>657</v>
@@ -11224,19 +11235,19 @@
         <v>471</v>
       </c>
       <c r="F223" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G223" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H223" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I223" t="s">
         <v>696</v>
       </c>
       <c r="J223" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11247,7 +11258,7 @@
         <v>464</v>
       </c>
       <c r="F224" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G224" t="s">
         <v>659</v>
@@ -11261,22 +11272,22 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" t="s">
+        <v>837</v>
+      </c>
+      <c r="B225" t="s">
+        <v>838</v>
+      </c>
+      <c r="C225" t="s">
         <v>839</v>
       </c>
-      <c r="B225" t="s">
-        <v>840</v>
-      </c>
-      <c r="C225" t="s">
-        <v>841</v>
-      </c>
       <c r="D225" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E225" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F225" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G225" t="s">
         <v>659</v>
@@ -11285,18 +11296,18 @@
         <v>66</v>
       </c>
       <c r="I225" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" t="s">
+        <v>840</v>
+      </c>
+      <c r="B226" t="s">
+        <v>841</v>
+      </c>
+      <c r="C226" t="s">
         <v>842</v>
-      </c>
-      <c r="B226" t="s">
-        <v>843</v>
-      </c>
-      <c r="C226" t="s">
-        <v>844</v>
       </c>
       <c r="G226" t="s">
         <v>657</v>
@@ -11310,13 +11321,13 @@
     </row>
     <row r="227" spans="1:14">
       <c r="D227" t="s">
+        <v>843</v>
+      </c>
+      <c r="E227" t="s">
+        <v>844</v>
+      </c>
+      <c r="F227" t="s">
         <v>845</v>
-      </c>
-      <c r="E227" t="s">
-        <v>846</v>
-      </c>
-      <c r="F227" t="s">
-        <v>847</v>
       </c>
       <c r="G227" t="s">
         <v>659</v>
@@ -11333,10 +11344,10 @@
         <v>161</v>
       </c>
       <c r="E228" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F228" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G228" t="s">
         <v>659</v>
@@ -11353,10 +11364,10 @@
         <v>277</v>
       </c>
       <c r="E229" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F229" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G229" t="s">
         <v>659</v>
@@ -11373,10 +11384,10 @@
         <v>323</v>
       </c>
       <c r="E230" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F230" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G230" t="s">
         <v>657</v>
@@ -11396,7 +11407,7 @@
         <v>340</v>
       </c>
       <c r="F231" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G231" t="s">
         <v>659</v>
@@ -11416,7 +11427,7 @@
         <v>416</v>
       </c>
       <c r="F232" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G232" t="s">
         <v>659</v>
@@ -11433,10 +11444,10 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F233" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G233" t="s">
         <v>657</v>
@@ -11453,10 +11464,10 @@
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F234" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G234" t="s">
         <v>657</v>
@@ -11476,7 +11487,7 @@
         <v>429</v>
       </c>
       <c r="F235" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G235" t="s">
         <v>659</v>
@@ -11490,13 +11501,13 @@
     </row>
     <row r="236" spans="1:14">
       <c r="D236" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E236" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="F236" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G236" t="s">
         <v>657</v>
@@ -11505,16 +11516,16 @@
         <v>662</v>
       </c>
       <c r="I236" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L236" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M236" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N236" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11522,10 +11533,10 @@
         <v>711</v>
       </c>
       <c r="E237" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F237" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G237" t="s">
         <v>657</v>
@@ -11542,10 +11553,10 @@
         <v>711</v>
       </c>
       <c r="E238" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F238" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G238" t="s">
         <v>657</v>
@@ -11562,10 +11573,10 @@
         <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C239" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G239" t="s">
         <v>742</v>
@@ -11574,18 +11585,18 @@
         <v>661</v>
       </c>
       <c r="I239" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="240" spans="1:14">
       <c r="A240" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B240" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C240" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G240" t="s">
         <v>657</v>
@@ -11605,7 +11616,7 @@
         <v>515</v>
       </c>
       <c r="F241" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G241" t="s">
         <v>659</v>
@@ -11622,10 +11633,10 @@
         <v>717</v>
       </c>
       <c r="E242" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F242" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G242" t="s">
         <v>657</v>
@@ -11642,13 +11653,13 @@
         <v>717</v>
       </c>
       <c r="E243" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F243" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G243" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H243" t="s">
         <v>661</v>
@@ -11662,10 +11673,10 @@
         <v>717</v>
       </c>
       <c r="E244" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F244" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G244" t="s">
         <v>657</v>
@@ -11679,13 +11690,13 @@
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E245" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F245" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G245" t="s">
         <v>657</v>
@@ -11699,13 +11710,13 @@
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
+        <v>890</v>
+      </c>
+      <c r="E246" t="s">
+        <v>891</v>
+      </c>
+      <c r="F246" t="s">
         <v>892</v>
-      </c>
-      <c r="E246" t="s">
-        <v>893</v>
-      </c>
-      <c r="F246" t="s">
-        <v>894</v>
       </c>
       <c r="G246" t="s">
         <v>659</v>
@@ -11719,36 +11730,36 @@
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E247" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F247" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G247" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H247" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I247" t="s">
         <v>701</v>
       </c>
       <c r="J247" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="248" spans="1:17">
       <c r="D248" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E248" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F248" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G248" t="s">
         <v>659</v>
@@ -11757,7 +11768,7 @@
         <v>66</v>
       </c>
       <c r="I248" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="249" spans="1:17">
@@ -11765,62 +11776,62 @@
         <v>673</v>
       </c>
       <c r="E249" t="s">
+        <v>929</v>
+      </c>
+      <c r="F249" t="s">
+        <v>930</v>
+      </c>
+      <c r="G249" t="s">
+        <v>926</v>
+      </c>
+      <c r="H249" t="s">
+        <v>932</v>
+      </c>
+      <c r="I249" t="s">
         <v>931</v>
-      </c>
-      <c r="F249" t="s">
-        <v>932</v>
-      </c>
-      <c r="G249" t="s">
-        <v>928</v>
-      </c>
-      <c r="H249" t="s">
-        <v>934</v>
-      </c>
-      <c r="I249" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="D250" t="s">
+        <v>933</v>
+      </c>
+      <c r="E250" t="s">
+        <v>934</v>
+      </c>
+      <c r="F250" t="s">
         <v>935</v>
       </c>
-      <c r="E250" t="s">
-        <v>936</v>
-      </c>
-      <c r="F250" t="s">
-        <v>937</v>
-      </c>
       <c r="G250" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
       </c>
       <c r="I250" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="J250" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="251" spans="1:17" ht="16.5">
       <c r="D251" t="s">
-        <v>940</v>
+        <v>1014</v>
       </c>
       <c r="E251" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F251" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="G251" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H251" t="s">
         <v>66</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -11834,13 +11845,13 @@
         <v>312</v>
       </c>
       <c r="D252" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E252" t="s">
         <v>313</v>
       </c>
       <c r="F252" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="G252" t="s">
         <v>657</v>
@@ -11852,13 +11863,13 @@
         <v>682</v>
       </c>
       <c r="L252" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M252" t="s">
         <v>313</v>
       </c>
       <c r="N252" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="O252" t="s">
         <v>310</v>
@@ -11867,7 +11878,7 @@
         <v>313</v>
       </c>
       <c r="Q252" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="253" spans="1:17">
@@ -11875,13 +11886,13 @@
         <v>287</v>
       </c>
       <c r="E253" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F253" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="G253" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H253" t="s">
         <v>66</v>
@@ -11915,16 +11926,16 @@
         <v>525</v>
       </c>
       <c r="E255" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F255" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="G255" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H255" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I255" t="s">
         <v>682</v>
@@ -11938,10 +11949,10 @@
         <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G256" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H256" t="s">
         <v>66</v>
@@ -11955,10 +11966,10 @@
         <v>365</v>
       </c>
       <c r="E257" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F257" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G257" t="s">
         <v>657</v>
@@ -11978,10 +11989,10 @@
         <v>46</v>
       </c>
       <c r="E258" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F258" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="G258" t="s">
         <v>659</v>
@@ -11998,13 +12009,13 @@
         <v>525</v>
       </c>
       <c r="E259" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="F259" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="G259" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="H259" t="s">
         <v>66</v>
@@ -12015,13 +12026,13 @@
     </row>
     <row r="260" spans="1:10">
       <c r="D260" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E260" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F260" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G260" t="s">
         <v>659</v>
@@ -12035,16 +12046,16 @@
     </row>
     <row r="261" spans="1:10">
       <c r="D261" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E261" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F261" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="G261" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
@@ -12053,7 +12064,7 @@
         <v>681</v>
       </c>
       <c r="J261" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -12061,13 +12072,13 @@
         <v>60</v>
       </c>
       <c r="E262" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F262" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="G262" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="H262" t="s">
         <v>66</v>
@@ -12076,7 +12087,7 @@
         <v>685</v>
       </c>
       <c r="J262" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -12084,13 +12095,13 @@
         <v>115</v>
       </c>
       <c r="E263" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F263" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G263" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H263" t="s">
         <v>66</v>
@@ -12107,7 +12118,7 @@
         <v>751</v>
       </c>
       <c r="F264" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="G264" t="s">
         <v>657</v>
@@ -12121,13 +12132,13 @@
     </row>
     <row r="265" spans="1:10">
       <c r="D265" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E265" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F265" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="G265" t="s">
         <v>657</v>
@@ -12141,16 +12152,16 @@
     </row>
     <row r="266" spans="1:10">
       <c r="D266" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E266" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="F266" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="G266" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H266" t="s">
         <v>66</v>
@@ -12164,16 +12175,16 @@
         <v>570</v>
       </c>
       <c r="E267" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F267" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G267" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H267" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I267" t="s">
         <v>701</v>
@@ -12187,10 +12198,10 @@
         <v>230</v>
       </c>
       <c r="E268" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F268" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G268" t="s">
         <v>660</v>
@@ -12207,7 +12218,7 @@
         <v>361</v>
       </c>
       <c r="C269" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D269" t="s">
         <v>323</v>
@@ -12216,7 +12227,7 @@
         <v>361</v>
       </c>
       <c r="F269" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G269" t="s">
         <v>657</v>
@@ -12236,7 +12247,7 @@
         <v>79</v>
       </c>
       <c r="F270" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G270" t="s">
         <v>657</v>
@@ -12252,157 +12263,157 @@
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="88" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="83" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">
-    <cfRule type="duplicateValues" dxfId="74" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="duplicateValues" dxfId="73" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="duplicateValues" dxfId="67" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="66" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="61" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F18 F268:F1048576 F20:F192 F211:F266">
+    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F193:F210 C189 C1:C187 C268:C1048576 C191:C192 C211:C266">
-    <cfRule type="duplicateValues" dxfId="73" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="duplicateValues" dxfId="72" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="66" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="65" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="60" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F18 F268:F1048576 F20:F192 F211:F266">
-    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247">
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260 F262 C1:C187 F265 C189:C192 C211:C266 F1:F18 C268:C1048576 F268:F1048576 F20:F246 F248:F257">
-    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260 F262 F265 F1:F18 F211:F246 F268:F1048576 F20:F192 F248:F257">
-    <cfRule type="duplicateValues" dxfId="44" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260 F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F258">
-    <cfRule type="duplicateValues" dxfId="42" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="41" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262 F265 F1:F18 F268:F1048576 F20:F192 F211:F260">
-    <cfRule type="duplicateValues" dxfId="40" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265 F1:F18 F268:F1048576 F20:F192 F211:F262">
-    <cfRule type="duplicateValues" dxfId="38" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266">
-    <cfRule type="duplicateValues" dxfId="37" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F267">
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263:G263">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="34" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J250:J256 J1:J248 J258:J1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="30" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="22" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N190:N191">
-    <cfRule type="duplicateValues" dxfId="19" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N236">
-    <cfRule type="duplicateValues" dxfId="13" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="duplicateValues" dxfId="3" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DC644-D38D-4EE5-B0AD-BE28E25DA797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBA560-C8F6-40A6-A046-8B21E783353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$271</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1053">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2417,9 +2417,6 @@
     <t>SL002147DC-GB-00AR-2147</t>
   </si>
   <si>
-    <t>上海翔芯</t>
-  </si>
-  <si>
     <t>STC16100B</t>
   </si>
   <si>
@@ -3227,6 +3224,14 @@
   </si>
   <si>
     <t>SC9641TS-PC(STC9A001I)-41CPA</t>
+  </si>
+  <si>
+    <t>赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3234,7 +3239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -3363,7 +3368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3390,11 +3395,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3431,10 +3435,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4818,7 +4824,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5068,7 +5074,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -5077,7 +5083,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -5192,7 +5198,7 @@
         <v>49</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5253,7 +5259,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -5276,7 +5282,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -5355,7 +5361,7 @@
         <v>679</v>
       </c>
       <c r="J13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5366,7 +5372,7 @@
         <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5452,7 +5458,7 @@
         <v>84</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5586,13 +5592,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G19" t="s">
+        <v>899</v>
+      </c>
+      <c r="H19" t="s">
         <v>900</v>
-      </c>
-      <c r="H19" t="s">
-        <v>901</v>
       </c>
       <c r="I19" t="s">
         <v>679</v>
@@ -5627,7 +5633,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G20" t="s">
         <v>658</v>
@@ -5659,7 +5665,7 @@
         <v>726</v>
       </c>
       <c r="G21" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5749,7 +5755,7 @@
         <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -5837,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -5973,7 +5979,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -6101,10 +6107,10 @@
         <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G35" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -6162,7 +6168,7 @@
         <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D37" t="s">
         <v>160</v>
@@ -6174,7 +6180,7 @@
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -6224,7 +6230,7 @@
         <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -6256,7 +6262,7 @@
         <v>662</v>
       </c>
       <c r="G39" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -6274,7 +6280,7 @@
         <v>181</v>
       </c>
       <c r="N39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O39" t="s">
         <v>160</v>
@@ -6283,7 +6289,7 @@
         <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -6306,7 +6312,7 @@
         <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -6338,7 +6344,7 @@
         <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -6370,7 +6376,7 @@
         <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -6406,7 +6412,7 @@
         <v>664</v>
       </c>
       <c r="T42" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -6426,10 +6432,10 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G43" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6458,7 +6464,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
@@ -6490,7 +6496,7 @@
         <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6505,10 +6511,10 @@
         <v>196</v>
       </c>
       <c r="M45" t="s">
+        <v>933</v>
+      </c>
+      <c r="N45" t="s">
         <v>934</v>
-      </c>
-      <c r="N45" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6531,7 +6537,7 @@
         <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -6543,22 +6549,22 @@
         <v>202</v>
       </c>
       <c r="L46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M46" t="s">
         <v>203</v>
       </c>
       <c r="N46" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="P46" t="s">
         <v>203</v>
       </c>
       <c r="Q46" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -6598,7 +6604,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
@@ -6607,7 +6613,7 @@
         <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G48" t="s">
         <v>658</v>
@@ -6665,10 +6671,10 @@
         <v>205</v>
       </c>
       <c r="E50" t="s">
+        <v>905</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>906</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>907</v>
       </c>
       <c r="G50" t="s">
         <v>659</v>
@@ -6796,7 +6802,7 @@
         <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G54" t="s">
         <v>658</v>
@@ -6906,7 +6912,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G58" t="s">
         <v>659</v>
@@ -7148,7 +7154,7 @@
         <v>679</v>
       </c>
       <c r="J68" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7159,7 +7165,7 @@
         <v>249</v>
       </c>
       <c r="F69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G69" t="s">
         <v>659</v>
@@ -7171,7 +7177,7 @@
         <v>679</v>
       </c>
       <c r="J69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7182,7 +7188,7 @@
         <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D70" t="s">
         <v>260</v>
@@ -7432,7 +7438,7 @@
         <v>285</v>
       </c>
       <c r="F78" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G78" t="s">
         <v>658</v>
@@ -7510,16 +7516,16 @@
         <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D81" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E81" t="s">
+        <v>966</v>
+      </c>
+      <c r="F81" t="s">
         <v>967</v>
-      </c>
-      <c r="F81" t="s">
-        <v>968</v>
       </c>
       <c r="G81" t="s">
         <v>659</v>
@@ -7595,7 +7601,7 @@
         <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G83" t="s">
         <v>658</v>
@@ -7703,7 +7709,7 @@
         <v>661</v>
       </c>
       <c r="I86" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -7907,7 +7913,7 @@
         <v>398</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -7959,7 +7965,7 @@
         <v>343</v>
       </c>
       <c r="F94" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G94" t="s">
         <v>656</v>
@@ -8052,7 +8058,7 @@
         <v>355</v>
       </c>
       <c r="F97" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G97" t="s">
         <v>656</v>
@@ -8285,7 +8291,7 @@
         <v>382</v>
       </c>
       <c r="N104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -8380,10 +8386,10 @@
         <v>389</v>
       </c>
       <c r="E108" t="s">
+        <v>884</v>
+      </c>
+      <c r="F108" t="s">
         <v>885</v>
-      </c>
-      <c r="F108" t="s">
-        <v>886</v>
       </c>
       <c r="G108" t="s">
         <v>656</v>
@@ -8395,7 +8401,7 @@
         <v>679</v>
       </c>
       <c r="J108" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -8470,10 +8476,10 @@
         <v>389</v>
       </c>
       <c r="E111" t="s">
+        <v>947</v>
+      </c>
+      <c r="F111" t="s">
         <v>948</v>
-      </c>
-      <c r="F111" t="s">
-        <v>949</v>
       </c>
       <c r="G111" t="s">
         <v>656</v>
@@ -8549,7 +8555,7 @@
         <v>72</v>
       </c>
       <c r="N113" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -8636,7 +8642,7 @@
         <v>420</v>
       </c>
       <c r="N116" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -8744,7 +8750,7 @@
         <v>441</v>
       </c>
       <c r="G119" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H119" t="s">
         <v>66</v>
@@ -8797,13 +8803,13 @@
         <v>657</v>
       </c>
       <c r="H120" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I120" t="s">
         <v>695</v>
       </c>
       <c r="J120" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L120" t="s">
         <v>444</v>
@@ -8823,19 +8829,19 @@
         <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G121" t="s">
-        <v>657</v>
+        <v>899</v>
       </c>
       <c r="H121" t="s">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="I121" t="s">
         <v>695</v>
       </c>
       <c r="J121" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L121" t="s">
         <v>444</v>
@@ -8899,16 +8905,16 @@
         <v>459</v>
       </c>
       <c r="G123" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H123" t="s">
         <v>1008</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1009</v>
       </c>
       <c r="I123" t="s">
         <v>681</v>
       </c>
       <c r="J123" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L123" t="s">
         <v>455</v>
@@ -8917,7 +8923,7 @@
         <v>456</v>
       </c>
       <c r="N123" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -8925,22 +8931,22 @@
         <v>455</v>
       </c>
       <c r="E124" t="s">
+        <v>876</v>
+      </c>
+      <c r="F124" t="s">
         <v>877</v>
       </c>
-      <c r="F124" t="s">
-        <v>878</v>
-      </c>
       <c r="G124" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H124" t="s">
         <v>1008</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1009</v>
       </c>
       <c r="I124" t="s">
         <v>681</v>
       </c>
       <c r="J124" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -8948,22 +8954,22 @@
         <v>455</v>
       </c>
       <c r="E125" t="s">
+        <v>938</v>
+      </c>
+      <c r="F125" t="s">
         <v>939</v>
       </c>
-      <c r="F125" t="s">
-        <v>940</v>
-      </c>
       <c r="G125" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H125" t="s">
         <v>1008</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1009</v>
       </c>
       <c r="I125" t="s">
         <v>681</v>
       </c>
       <c r="J125" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -8986,7 +8992,7 @@
         <v>464</v>
       </c>
       <c r="G126" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H126" t="s">
         <v>66</v>
@@ -9027,16 +9033,16 @@
         <v>471</v>
       </c>
       <c r="G127" t="s">
-        <v>657</v>
+        <v>899</v>
       </c>
       <c r="H127" t="s">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="I127" t="s">
         <v>695</v>
       </c>
       <c r="J127" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L127" t="s">
         <v>467</v>
@@ -9045,7 +9051,7 @@
         <v>746</v>
       </c>
       <c r="N127" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9106,10 +9112,10 @@
         <v>485</v>
       </c>
       <c r="G129" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H129" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I129" t="s">
         <v>681</v>
@@ -9138,10 +9144,10 @@
         <v>489</v>
       </c>
       <c r="G130" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H130" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I130" t="s">
         <v>681</v>
@@ -9170,10 +9176,10 @@
         <v>493</v>
       </c>
       <c r="G131" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H131" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I131" t="s">
         <v>681</v>
@@ -9202,10 +9208,10 @@
         <v>782</v>
       </c>
       <c r="G132" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H132" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I132" t="s">
         <v>681</v>
@@ -9263,10 +9269,10 @@
         <v>499</v>
       </c>
       <c r="G134" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H134" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I134" t="s">
         <v>681</v>
@@ -9324,10 +9330,10 @@
         <v>510</v>
       </c>
       <c r="G136" t="s">
+        <v>919</v>
+      </c>
+      <c r="H136" t="s">
         <v>920</v>
-      </c>
-      <c r="H136" t="s">
-        <v>921</v>
       </c>
       <c r="I136" t="s">
         <v>696</v>
@@ -9341,10 +9347,10 @@
         <v>506</v>
       </c>
       <c r="B137" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C137" t="s">
         <v>1041</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1042</v>
       </c>
       <c r="D137" t="s">
         <v>506</v>
@@ -9379,10 +9385,10 @@
         <v>506</v>
       </c>
       <c r="B138" t="s">
+        <v>999</v>
+      </c>
+      <c r="C138" t="s">
         <v>1000</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1001</v>
       </c>
       <c r="D138" t="s">
         <v>506</v>
@@ -9417,10 +9423,10 @@
         <v>506</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>1043</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>1044</v>
       </c>
       <c r="D139" t="s">
         <v>506</v>
@@ -9432,10 +9438,10 @@
         <v>667</v>
       </c>
       <c r="G139" t="s">
+        <v>919</v>
+      </c>
+      <c r="H139" t="s">
         <v>920</v>
-      </c>
-      <c r="H139" t="s">
-        <v>921</v>
       </c>
       <c r="I139" t="s">
         <v>696</v>
@@ -9450,7 +9456,7 @@
         <v>507</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -9473,10 +9479,10 @@
         <v>522</v>
       </c>
       <c r="G140" t="s">
+        <v>919</v>
+      </c>
+      <c r="H140" t="s">
         <v>920</v>
-      </c>
-      <c r="H140" t="s">
-        <v>921</v>
       </c>
       <c r="I140" t="s">
         <v>696</v>
@@ -9488,10 +9494,10 @@
         <v>518</v>
       </c>
       <c r="M140" t="s">
+        <v>953</v>
+      </c>
+      <c r="N140" t="s">
         <v>954</v>
-      </c>
-      <c r="N140" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9510,7 +9516,7 @@
       <c r="E141" t="s">
         <v>527</v>
       </c>
-      <c r="F141" s="12" t="s">
+      <c r="F141" t="s">
         <v>528</v>
       </c>
       <c r="G141" t="s">
@@ -9548,7 +9554,7 @@
       <c r="E142" t="s">
         <v>531</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="F142" t="s">
         <v>532</v>
       </c>
       <c r="G142" t="s">
@@ -9633,10 +9639,10 @@
         <v>766</v>
       </c>
       <c r="G145" t="s">
+        <v>919</v>
+      </c>
+      <c r="H145" t="s">
         <v>920</v>
-      </c>
-      <c r="H145" t="s">
-        <v>921</v>
       </c>
       <c r="I145" t="s">
         <v>698</v>
@@ -9665,10 +9671,10 @@
         <v>545</v>
       </c>
       <c r="G146" t="s">
+        <v>919</v>
+      </c>
+      <c r="H146" t="s">
         <v>920</v>
-      </c>
-      <c r="H146" t="s">
-        <v>921</v>
       </c>
       <c r="I146" t="s">
         <v>698</v>
@@ -9697,10 +9703,10 @@
         <v>550</v>
       </c>
       <c r="G147" t="s">
+        <v>919</v>
+      </c>
+      <c r="H147" t="s">
         <v>920</v>
-      </c>
-      <c r="H147" t="s">
-        <v>921</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
@@ -9729,10 +9735,10 @@
         <v>554</v>
       </c>
       <c r="G148" t="s">
+        <v>919</v>
+      </c>
+      <c r="H148" t="s">
         <v>920</v>
-      </c>
-      <c r="H148" t="s">
-        <v>921</v>
       </c>
       <c r="I148" t="s">
         <v>699</v>
@@ -9744,10 +9750,10 @@
         <v>524</v>
       </c>
       <c r="M148" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N148" t="s">
         <v>1039</v>
-      </c>
-      <c r="N148" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -9755,10 +9761,10 @@
         <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C149" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D149" t="s">
         <v>524</v>
@@ -9770,10 +9776,10 @@
         <v>557</v>
       </c>
       <c r="G149" t="s">
+        <v>919</v>
+      </c>
+      <c r="H149" t="s">
         <v>920</v>
-      </c>
-      <c r="H149" t="s">
-        <v>921</v>
       </c>
       <c r="I149" t="s">
         <v>699</v>
@@ -9787,10 +9793,10 @@
         <v>524</v>
       </c>
       <c r="B150" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C150" t="s">
         <v>1036</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1037</v>
       </c>
       <c r="D150" t="s">
         <v>524</v>
@@ -9802,10 +9808,10 @@
         <v>559</v>
       </c>
       <c r="G150" t="s">
+        <v>919</v>
+      </c>
+      <c r="H150" t="s">
         <v>920</v>
-      </c>
-      <c r="H150" t="s">
-        <v>921</v>
       </c>
       <c r="I150" t="s">
         <v>699</v>
@@ -9834,10 +9840,10 @@
         <v>564</v>
       </c>
       <c r="G151" t="s">
+        <v>919</v>
+      </c>
+      <c r="H151" t="s">
         <v>920</v>
-      </c>
-      <c r="H151" t="s">
-        <v>921</v>
       </c>
       <c r="I151" t="s">
         <v>699</v>
@@ -9928,7 +9934,7 @@
         <v>717</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -10061,10 +10067,10 @@
         <v>605</v>
       </c>
       <c r="G158" t="s">
+        <v>919</v>
+      </c>
+      <c r="H158" t="s">
         <v>920</v>
-      </c>
-      <c r="H158" t="s">
-        <v>921</v>
       </c>
       <c r="I158" t="s">
         <v>681</v>
@@ -10213,7 +10219,7 @@
         <v>287</v>
       </c>
       <c r="T162" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="U162" t="s">
         <v>621</v>
@@ -10455,7 +10461,7 @@
         <v>478</v>
       </c>
       <c r="Q169" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -10466,7 +10472,7 @@
         <v>644</v>
       </c>
       <c r="C170" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D170" t="s">
         <v>477</v>
@@ -10478,10 +10484,10 @@
         <v>642</v>
       </c>
       <c r="G170" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H170" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I170" t="s">
         <v>695</v>
@@ -10568,10 +10574,10 @@
         <v>654</v>
       </c>
       <c r="G173" t="s">
+        <v>919</v>
+      </c>
+      <c r="H173" t="s">
         <v>920</v>
-      </c>
-      <c r="H173" t="s">
-        <v>921</v>
       </c>
       <c r="I173" t="s">
         <v>681</v>
@@ -10591,10 +10597,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
+        <v>919</v>
+      </c>
+      <c r="H174" t="s">
         <v>920</v>
-      </c>
-      <c r="H174" t="s">
-        <v>921</v>
       </c>
       <c r="I174" t="s">
         <v>681</v>
@@ -10614,10 +10620,10 @@
         <v>671</v>
       </c>
       <c r="G175" t="s">
+        <v>923</v>
+      </c>
+      <c r="H175" t="s">
         <v>924</v>
-      </c>
-      <c r="H175" t="s">
-        <v>925</v>
       </c>
       <c r="I175" t="s">
         <v>691</v>
@@ -10634,10 +10640,10 @@
         <v>674</v>
       </c>
       <c r="G176" t="s">
+        <v>923</v>
+      </c>
+      <c r="H176" t="s">
         <v>924</v>
-      </c>
-      <c r="H176" t="s">
-        <v>925</v>
       </c>
       <c r="I176" t="s">
         <v>691</v>
@@ -10654,10 +10660,10 @@
         <v>677</v>
       </c>
       <c r="G177" t="s">
+        <v>923</v>
+      </c>
+      <c r="H177" t="s">
         <v>924</v>
-      </c>
-      <c r="H177" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -10735,7 +10741,7 @@
         <v>735</v>
       </c>
       <c r="F180" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G180" t="s">
         <v>659</v>
@@ -10753,7 +10759,7 @@
         <v>735</v>
       </c>
       <c r="N180" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -10825,7 +10831,7 @@
         <v>751</v>
       </c>
       <c r="D183" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E183" t="s">
         <v>752</v>
@@ -10834,18 +10840,27 @@
         <v>753</v>
       </c>
       <c r="G183" t="s">
-        <v>757</v>
+        <v>656</v>
       </c>
       <c r="H183" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I183" t="s">
         <v>679</v>
       </c>
+      <c r="L183" t="s">
+        <v>46</v>
+      </c>
+      <c r="M183" t="s">
+        <v>750</v>
+      </c>
+      <c r="N183" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="D184" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E184" t="s">
         <v>754</v>
@@ -10866,7 +10881,7 @@
         <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M184" t="s">
         <v>754</v>
@@ -10886,7 +10901,7 @@
         <v>762</v>
       </c>
       <c r="G185" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H185" t="s">
         <v>66</v>
@@ -10909,7 +10924,7 @@
         <v>764</v>
       </c>
       <c r="G186" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -10926,13 +10941,13 @@
         <v>760</v>
       </c>
       <c r="E187" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F187" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G187" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -10964,10 +10979,10 @@
         <v>771</v>
       </c>
       <c r="G188" t="s">
+        <v>919</v>
+      </c>
+      <c r="H188" t="s">
         <v>920</v>
-      </c>
-      <c r="H188" t="s">
-        <v>921</v>
       </c>
       <c r="I188" t="s">
         <v>681</v>
@@ -11002,7 +11017,7 @@
         <v>777</v>
       </c>
       <c r="N189" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -11016,7 +11031,7 @@
         <v>785</v>
       </c>
       <c r="D190" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E190" t="s">
         <v>786</v>
@@ -11025,10 +11040,10 @@
         <v>787</v>
       </c>
       <c r="G190" t="s">
-        <v>788</v>
+        <v>1051</v>
       </c>
       <c r="H190" t="s">
-        <v>660</v>
+        <v>1052</v>
       </c>
       <c r="I190" t="s">
         <v>690</v>
@@ -11036,22 +11051,22 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
+        <v>788</v>
+      </c>
+      <c r="B191" t="s">
         <v>789</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>790</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
+        <v>788</v>
+      </c>
+      <c r="E191" t="s">
         <v>791</v>
       </c>
-      <c r="D191" t="s">
-        <v>789</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>792</v>
-      </c>
-      <c r="F191" t="s">
-        <v>793</v>
       </c>
       <c r="G191" t="s">
         <v>658</v>
@@ -11074,10 +11089,10 @@
         <v>571</v>
       </c>
       <c r="G192" t="s">
+        <v>919</v>
+      </c>
+      <c r="H192" t="s">
         <v>920</v>
-      </c>
-      <c r="H192" t="s">
-        <v>921</v>
       </c>
       <c r="I192" t="s">
         <v>700</v>
@@ -11097,10 +11112,10 @@
         <v>578</v>
       </c>
       <c r="G193" t="s">
+        <v>919</v>
+      </c>
+      <c r="H193" t="s">
         <v>920</v>
-      </c>
-      <c r="H193" t="s">
-        <v>921</v>
       </c>
       <c r="I193" t="s">
         <v>700</v>
@@ -11114,16 +11129,16 @@
         <v>569</v>
       </c>
       <c r="E194" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F194" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G194" t="s">
+        <v>919</v>
+      </c>
+      <c r="H194" t="s">
         <v>920</v>
-      </c>
-      <c r="H194" t="s">
-        <v>921</v>
       </c>
       <c r="I194" t="s">
         <v>700</v>
@@ -11137,16 +11152,16 @@
         <v>569</v>
       </c>
       <c r="E195" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F195" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G195" t="s">
+        <v>919</v>
+      </c>
+      <c r="H195" t="s">
         <v>920</v>
-      </c>
-      <c r="H195" t="s">
-        <v>921</v>
       </c>
       <c r="I195" t="s">
         <v>700</v>
@@ -11160,16 +11175,16 @@
         <v>569</v>
       </c>
       <c r="E196" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F196" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G196" t="s">
+        <v>919</v>
+      </c>
+      <c r="H196" t="s">
         <v>920</v>
-      </c>
-      <c r="H196" t="s">
-        <v>921</v>
       </c>
       <c r="I196" t="s">
         <v>700</v>
@@ -11183,16 +11198,16 @@
         <v>569</v>
       </c>
       <c r="E197" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F197" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G197" t="s">
+        <v>919</v>
+      </c>
+      <c r="H197" t="s">
         <v>920</v>
-      </c>
-      <c r="H197" t="s">
-        <v>921</v>
       </c>
       <c r="I197" t="s">
         <v>700</v>
@@ -11206,16 +11221,16 @@
         <v>569</v>
       </c>
       <c r="E198" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F198" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G198" t="s">
+        <v>919</v>
+      </c>
+      <c r="H198" t="s">
         <v>920</v>
-      </c>
-      <c r="H198" t="s">
-        <v>921</v>
       </c>
       <c r="I198" t="s">
         <v>700</v>
@@ -11235,10 +11250,10 @@
         <v>573</v>
       </c>
       <c r="G199" t="s">
+        <v>919</v>
+      </c>
+      <c r="H199" t="s">
         <v>920</v>
-      </c>
-      <c r="H199" t="s">
-        <v>921</v>
       </c>
       <c r="I199" t="s">
         <v>700</v>
@@ -11252,16 +11267,16 @@
         <v>569</v>
       </c>
       <c r="E200" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F200" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G200" t="s">
+        <v>919</v>
+      </c>
+      <c r="H200" t="s">
         <v>920</v>
-      </c>
-      <c r="H200" t="s">
-        <v>921</v>
       </c>
       <c r="I200" t="s">
         <v>700</v>
@@ -11281,10 +11296,10 @@
         <v>579</v>
       </c>
       <c r="G201" t="s">
+        <v>919</v>
+      </c>
+      <c r="H201" t="s">
         <v>920</v>
-      </c>
-      <c r="H201" t="s">
-        <v>921</v>
       </c>
       <c r="I201" t="s">
         <v>700</v>
@@ -11304,10 +11319,10 @@
         <v>580</v>
       </c>
       <c r="G202" t="s">
+        <v>919</v>
+      </c>
+      <c r="H202" t="s">
         <v>920</v>
-      </c>
-      <c r="H202" t="s">
-        <v>921</v>
       </c>
       <c r="I202" t="s">
         <v>700</v>
@@ -11327,10 +11342,10 @@
         <v>581</v>
       </c>
       <c r="G203" t="s">
+        <v>919</v>
+      </c>
+      <c r="H203" t="s">
         <v>920</v>
-      </c>
-      <c r="H203" t="s">
-        <v>921</v>
       </c>
       <c r="I203" t="s">
         <v>700</v>
@@ -11344,16 +11359,16 @@
         <v>569</v>
       </c>
       <c r="E204" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F204" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G204" t="s">
+        <v>919</v>
+      </c>
+      <c r="H204" t="s">
         <v>920</v>
-      </c>
-      <c r="H204" t="s">
-        <v>921</v>
       </c>
       <c r="I204" t="s">
         <v>700</v>
@@ -11367,16 +11382,16 @@
         <v>569</v>
       </c>
       <c r="E205" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F205" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G205" t="s">
+        <v>919</v>
+      </c>
+      <c r="H205" t="s">
         <v>920</v>
-      </c>
-      <c r="H205" t="s">
-        <v>921</v>
       </c>
       <c r="I205" t="s">
         <v>700</v>
@@ -11390,16 +11405,16 @@
         <v>569</v>
       </c>
       <c r="E206" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F206" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G206" t="s">
+        <v>919</v>
+      </c>
+      <c r="H206" t="s">
         <v>920</v>
-      </c>
-      <c r="H206" t="s">
-        <v>921</v>
       </c>
       <c r="I206" t="s">
         <v>700</v>
@@ -11413,16 +11428,16 @@
         <v>569</v>
       </c>
       <c r="E207" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F207" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G207" t="s">
+        <v>919</v>
+      </c>
+      <c r="H207" t="s">
         <v>920</v>
-      </c>
-      <c r="H207" t="s">
-        <v>921</v>
       </c>
       <c r="I207" t="s">
         <v>700</v>
@@ -11442,10 +11457,10 @@
         <v>582</v>
       </c>
       <c r="G208" t="s">
+        <v>919</v>
+      </c>
+      <c r="H208" t="s">
         <v>920</v>
-      </c>
-      <c r="H208" t="s">
-        <v>921</v>
       </c>
       <c r="I208" t="s">
         <v>700</v>
@@ -11465,10 +11480,10 @@
         <v>583</v>
       </c>
       <c r="G209" t="s">
+        <v>919</v>
+      </c>
+      <c r="H209" t="s">
         <v>920</v>
-      </c>
-      <c r="H209" t="s">
-        <v>921</v>
       </c>
       <c r="I209" t="s">
         <v>700</v>
@@ -11482,25 +11497,25 @@
         <v>569</v>
       </c>
       <c r="B210" t="s">
+        <v>831</v>
+      </c>
+      <c r="C210" t="s">
         <v>832</v>
-      </c>
-      <c r="C210" t="s">
-        <v>833</v>
       </c>
       <c r="D210" t="s">
         <v>569</v>
       </c>
       <c r="E210" t="s">
+        <v>880</v>
+      </c>
+      <c r="F210" t="s">
         <v>881</v>
       </c>
-      <c r="F210" t="s">
-        <v>882</v>
-      </c>
       <c r="G210" t="s">
+        <v>919</v>
+      </c>
+      <c r="H210" t="s">
         <v>920</v>
-      </c>
-      <c r="H210" t="s">
-        <v>921</v>
       </c>
       <c r="I210" t="s">
         <v>700</v>
@@ -11572,10 +11587,10 @@
         <v>123</v>
       </c>
       <c r="E213" t="s">
+        <v>803</v>
+      </c>
+      <c r="F213" t="s">
         <v>804</v>
-      </c>
-      <c r="F213" t="s">
-        <v>805</v>
       </c>
       <c r="G213" t="s">
         <v>658</v>
@@ -11595,51 +11610,51 @@
         <v>587</v>
       </c>
       <c r="B214" t="s">
+        <v>805</v>
+      </c>
+      <c r="C214" t="s">
         <v>806</v>
       </c>
-      <c r="C214" t="s">
-        <v>807</v>
-      </c>
       <c r="G214" t="s">
+        <v>919</v>
+      </c>
+      <c r="H214" t="s">
         <v>920</v>
-      </c>
-      <c r="H214" t="s">
-        <v>921</v>
       </c>
       <c r="I214" t="s">
         <v>690</v>
       </c>
       <c r="J214" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
+        <v>808</v>
+      </c>
+      <c r="B215" t="s">
         <v>809</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>810</v>
-      </c>
-      <c r="C215" t="s">
-        <v>811</v>
       </c>
       <c r="D215" t="s">
         <v>716</v>
       </c>
       <c r="E215" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F215" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G215" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H215" t="s">
         <v>660</v>
       </c>
       <c r="I215" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11647,10 +11662,10 @@
         <v>736</v>
       </c>
       <c r="B216" t="s">
+        <v>815</v>
+      </c>
+      <c r="C216" t="s">
         <v>816</v>
-      </c>
-      <c r="C216" t="s">
-        <v>817</v>
       </c>
       <c r="G216" t="s">
         <v>741</v>
@@ -11659,16 +11674,16 @@
         <v>660</v>
       </c>
       <c r="I216" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L216" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M216" t="s">
         <v>739</v>
       </c>
       <c r="N216" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11676,10 +11691,10 @@
         <v>626</v>
       </c>
       <c r="B217" t="s">
+        <v>818</v>
+      </c>
+      <c r="C217" t="s">
         <v>819</v>
-      </c>
-      <c r="C217" t="s">
-        <v>820</v>
       </c>
       <c r="G217" t="s">
         <v>741</v>
@@ -11688,18 +11703,18 @@
         <v>660</v>
       </c>
       <c r="I217" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="D218" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E218" t="s">
+        <v>820</v>
+      </c>
+      <c r="F218" t="s">
         <v>821</v>
-      </c>
-      <c r="F218" t="s">
-        <v>822</v>
       </c>
       <c r="G218" t="s">
         <v>658</v>
@@ -11713,13 +11728,13 @@
     </row>
     <row r="219" spans="1:14">
       <c r="D219" t="s">
+        <v>822</v>
+      </c>
+      <c r="E219" t="s">
         <v>823</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>824</v>
-      </c>
-      <c r="F219" t="s">
-        <v>825</v>
       </c>
       <c r="G219" t="s">
         <v>658</v>
@@ -11733,13 +11748,13 @@
     </row>
     <row r="220" spans="1:14">
       <c r="D220" t="s">
+        <v>825</v>
+      </c>
+      <c r="E220" t="s">
         <v>826</v>
       </c>
-      <c r="E220" t="s">
+      <c r="F220" t="s">
         <v>827</v>
-      </c>
-      <c r="F220" t="s">
-        <v>828</v>
       </c>
       <c r="G220" t="s">
         <v>658</v>
@@ -11759,7 +11774,7 @@
         <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G221" t="s">
         <v>656</v>
@@ -11779,19 +11794,19 @@
         <v>470</v>
       </c>
       <c r="F222" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G222" t="s">
+        <v>899</v>
+      </c>
+      <c r="H222" t="s">
         <v>900</v>
-      </c>
-      <c r="H222" t="s">
-        <v>901</v>
       </c>
       <c r="I222" t="s">
         <v>695</v>
       </c>
       <c r="J222" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11802,7 +11817,7 @@
         <v>463</v>
       </c>
       <c r="F223" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G223" t="s">
         <v>658</v>
@@ -11816,22 +11831,22 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
+        <v>835</v>
+      </c>
+      <c r="B224" t="s">
         <v>836</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>837</v>
       </c>
-      <c r="C224" t="s">
-        <v>838</v>
-      </c>
       <c r="D224" t="s">
+        <v>835</v>
+      </c>
+      <c r="E224" t="s">
         <v>836</v>
       </c>
-      <c r="E224" t="s">
-        <v>837</v>
-      </c>
       <c r="F224" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G224" t="s">
         <v>658</v>
@@ -11840,18 +11855,18 @@
         <v>66</v>
       </c>
       <c r="I224" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" t="s">
+        <v>838</v>
+      </c>
+      <c r="B225" t="s">
         <v>839</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>840</v>
-      </c>
-      <c r="C225" t="s">
-        <v>841</v>
       </c>
       <c r="G225" t="s">
         <v>656</v>
@@ -11865,22 +11880,22 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" t="s">
+        <v>841</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D226" t="s">
+        <v>841</v>
+      </c>
+      <c r="E226" t="s">
         <v>842</v>
       </c>
-      <c r="B226" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D226" t="s">
-        <v>842</v>
-      </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>843</v>
-      </c>
-      <c r="F226" t="s">
-        <v>844</v>
       </c>
       <c r="G226" t="s">
         <v>658</v>
@@ -11897,10 +11912,10 @@
         <v>160</v>
       </c>
       <c r="E227" t="s">
+        <v>844</v>
+      </c>
+      <c r="F227" t="s">
         <v>845</v>
-      </c>
-      <c r="F227" t="s">
-        <v>846</v>
       </c>
       <c r="G227" t="s">
         <v>658</v>
@@ -11917,10 +11932,10 @@
         <v>276</v>
       </c>
       <c r="E228" t="s">
+        <v>846</v>
+      </c>
+      <c r="F228" t="s">
         <v>847</v>
-      </c>
-      <c r="F228" t="s">
-        <v>848</v>
       </c>
       <c r="G228" t="s">
         <v>658</v>
@@ -11937,10 +11952,10 @@
         <v>322</v>
       </c>
       <c r="E229" t="s">
+        <v>848</v>
+      </c>
+      <c r="F229" t="s">
         <v>849</v>
-      </c>
-      <c r="F229" t="s">
-        <v>850</v>
       </c>
       <c r="G229" t="s">
         <v>656</v>
@@ -11960,7 +11975,7 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G230" t="s">
         <v>658</v>
@@ -11980,7 +11995,7 @@
         <v>413</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D231" t="s">
         <v>407</v>
@@ -11989,7 +12004,7 @@
         <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G231" t="s">
         <v>658</v>
@@ -12006,10 +12021,10 @@
         <v>46</v>
       </c>
       <c r="E232" t="s">
+        <v>852</v>
+      </c>
+      <c r="F232" t="s">
         <v>853</v>
-      </c>
-      <c r="F232" t="s">
-        <v>854</v>
       </c>
       <c r="G232" t="s">
         <v>656</v>
@@ -12026,10 +12041,10 @@
         <v>46</v>
       </c>
       <c r="E233" t="s">
+        <v>854</v>
+      </c>
+      <c r="F233" t="s">
         <v>855</v>
-      </c>
-      <c r="F233" t="s">
-        <v>856</v>
       </c>
       <c r="G233" t="s">
         <v>656</v>
@@ -12049,7 +12064,7 @@
         <v>428</v>
       </c>
       <c r="F234" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G234" t="s">
         <v>658</v>
@@ -12063,13 +12078,13 @@
     </row>
     <row r="235" spans="1:14">
       <c r="D235" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E235" t="s">
+        <v>857</v>
+      </c>
+      <c r="F235" t="s">
         <v>858</v>
-      </c>
-      <c r="F235" t="s">
-        <v>859</v>
       </c>
       <c r="G235" t="s">
         <v>656</v>
@@ -12081,13 +12096,13 @@
         <v>758</v>
       </c>
       <c r="L235" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M235" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N235" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12095,10 +12110,10 @@
         <v>710</v>
       </c>
       <c r="E236" t="s">
+        <v>859</v>
+      </c>
+      <c r="F236" t="s">
         <v>860</v>
-      </c>
-      <c r="F236" t="s">
-        <v>861</v>
       </c>
       <c r="G236" t="s">
         <v>656</v>
@@ -12115,10 +12130,10 @@
         <v>710</v>
       </c>
       <c r="E237" t="s">
+        <v>861</v>
+      </c>
+      <c r="F237" t="s">
         <v>862</v>
-      </c>
-      <c r="F237" t="s">
-        <v>863</v>
       </c>
       <c r="G237" t="s">
         <v>656</v>
@@ -12135,10 +12150,10 @@
         <v>229</v>
       </c>
       <c r="B238" t="s">
+        <v>863</v>
+      </c>
+      <c r="C238" t="s">
         <v>864</v>
-      </c>
-      <c r="C238" t="s">
-        <v>865</v>
       </c>
       <c r="G238" t="s">
         <v>741</v>
@@ -12147,7 +12162,7 @@
         <v>660</v>
       </c>
       <c r="I238" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12155,10 +12170,10 @@
         <v>760</v>
       </c>
       <c r="B239" t="s">
+        <v>865</v>
+      </c>
+      <c r="C239" t="s">
         <v>866</v>
-      </c>
-      <c r="C239" t="s">
-        <v>867</v>
       </c>
       <c r="G239" t="s">
         <v>656</v>
@@ -12178,7 +12193,7 @@
         <v>514</v>
       </c>
       <c r="F240" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G240" t="s">
         <v>658</v>
@@ -12192,22 +12207,22 @@
     </row>
     <row r="241" spans="1:17">
       <c r="A241" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B241" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C241" t="s">
         <v>1047</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1048</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
       </c>
       <c r="E241" t="s">
+        <v>868</v>
+      </c>
+      <c r="F241" t="s">
         <v>869</v>
-      </c>
-      <c r="F241" t="s">
-        <v>870</v>
       </c>
       <c r="G241" t="s">
         <v>656</v>
@@ -12224,13 +12239,13 @@
         <v>716</v>
       </c>
       <c r="E242" t="s">
+        <v>870</v>
+      </c>
+      <c r="F242" t="s">
         <v>871</v>
       </c>
-      <c r="F242" t="s">
-        <v>872</v>
-      </c>
       <c r="G242" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H242" t="s">
         <v>660</v>
@@ -12244,10 +12259,10 @@
         <v>716</v>
       </c>
       <c r="E243" t="s">
+        <v>872</v>
+      </c>
+      <c r="F243" t="s">
         <v>873</v>
-      </c>
-      <c r="F243" t="s">
-        <v>874</v>
       </c>
       <c r="G243" t="s">
         <v>656</v>
@@ -12264,10 +12279,10 @@
         <v>774</v>
       </c>
       <c r="E244" t="s">
+        <v>874</v>
+      </c>
+      <c r="F244" t="s">
         <v>875</v>
-      </c>
-      <c r="F244" t="s">
-        <v>876</v>
       </c>
       <c r="G244" t="s">
         <v>656</v>
@@ -12281,13 +12296,13 @@
     </row>
     <row r="245" spans="1:17">
       <c r="D245" t="s">
+        <v>888</v>
+      </c>
+      <c r="E245" t="s">
         <v>889</v>
       </c>
-      <c r="E245" t="s">
+      <c r="F245" t="s">
         <v>890</v>
-      </c>
-      <c r="F245" t="s">
-        <v>891</v>
       </c>
       <c r="G245" t="s">
         <v>658</v>
@@ -12301,36 +12316,36 @@
     </row>
     <row r="246" spans="1:17">
       <c r="D246" t="s">
+        <v>833</v>
+      </c>
+      <c r="E246" t="s">
         <v>834</v>
       </c>
-      <c r="E246" t="s">
-        <v>835</v>
-      </c>
       <c r="F246" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G246" t="s">
+        <v>919</v>
+      </c>
+      <c r="H246" t="s">
         <v>920</v>
-      </c>
-      <c r="H246" t="s">
-        <v>921</v>
       </c>
       <c r="I246" t="s">
         <v>700</v>
       </c>
       <c r="J246" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
+        <v>895</v>
+      </c>
+      <c r="E247" t="s">
         <v>896</v>
       </c>
-      <c r="E247" t="s">
-        <v>897</v>
-      </c>
       <c r="F247" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G247" t="s">
         <v>658</v>
@@ -12339,7 +12354,7 @@
         <v>66</v>
       </c>
       <c r="I247" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="248" spans="1:17">
@@ -12347,62 +12362,62 @@
         <v>672</v>
       </c>
       <c r="E248" t="s">
+        <v>926</v>
+      </c>
+      <c r="F248" t="s">
         <v>927</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
+        <v>923</v>
+      </c>
+      <c r="H248" t="s">
+        <v>929</v>
+      </c>
+      <c r="I248" t="s">
         <v>928</v>
-      </c>
-      <c r="G248" t="s">
-        <v>924</v>
-      </c>
-      <c r="H248" t="s">
-        <v>930</v>
-      </c>
-      <c r="I248" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="D249" t="s">
+        <v>930</v>
+      </c>
+      <c r="E249" t="s">
         <v>931</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>932</v>
       </c>
-      <c r="F249" t="s">
-        <v>933</v>
-      </c>
       <c r="G249" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
       <c r="I249" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J249" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E250" t="s">
+        <v>935</v>
+      </c>
+      <c r="F250" t="s">
         <v>936</v>
       </c>
-      <c r="F250" t="s">
-        <v>937</v>
-      </c>
       <c r="G250" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -12416,13 +12431,13 @@
         <v>311</v>
       </c>
       <c r="D251" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E251" t="s">
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G251" t="s">
         <v>656</v>
@@ -12434,13 +12449,13 @@
         <v>681</v>
       </c>
       <c r="L251" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M251" t="s">
         <v>312</v>
       </c>
       <c r="N251" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O251" t="s">
         <v>309</v>
@@ -12449,7 +12464,7 @@
         <v>312</v>
       </c>
       <c r="Q251" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -12457,13 +12472,13 @@
         <v>286</v>
       </c>
       <c r="E252" t="s">
+        <v>945</v>
+      </c>
+      <c r="F252" t="s">
         <v>946</v>
       </c>
-      <c r="F252" t="s">
-        <v>947</v>
-      </c>
       <c r="G252" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H252" t="s">
         <v>66</v>
@@ -12497,16 +12512,16 @@
         <v>524</v>
       </c>
       <c r="E254" t="s">
+        <v>949</v>
+      </c>
+      <c r="F254" t="s">
         <v>950</v>
       </c>
-      <c r="F254" t="s">
-        <v>951</v>
-      </c>
       <c r="G254" t="s">
+        <v>919</v>
+      </c>
+      <c r="H254" t="s">
         <v>920</v>
-      </c>
-      <c r="H254" t="s">
-        <v>921</v>
       </c>
       <c r="I254" t="s">
         <v>681</v>
@@ -12520,10 +12535,10 @@
         <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G255" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H255" t="s">
         <v>66</v>
@@ -12537,10 +12552,10 @@
         <v>364</v>
       </c>
       <c r="E256" t="s">
+        <v>955</v>
+      </c>
+      <c r="F256" t="s">
         <v>956</v>
-      </c>
-      <c r="F256" t="s">
-        <v>957</v>
       </c>
       <c r="G256" t="s">
         <v>656</v>
@@ -12557,10 +12572,10 @@
         <v>46</v>
       </c>
       <c r="E257" t="s">
+        <v>959</v>
+      </c>
+      <c r="F257" t="s">
         <v>960</v>
-      </c>
-      <c r="F257" t="s">
-        <v>961</v>
       </c>
       <c r="G257" t="s">
         <v>658</v>
@@ -12577,13 +12592,13 @@
         <v>524</v>
       </c>
       <c r="E258" t="s">
+        <v>961</v>
+      </c>
+      <c r="F258" t="s">
         <v>962</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>963</v>
-      </c>
-      <c r="G258" t="s">
-        <v>964</v>
       </c>
       <c r="H258" t="s">
         <v>66</v>
@@ -12594,13 +12609,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="D259" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E259" t="s">
+        <v>964</v>
+      </c>
+      <c r="F259" t="s">
         <v>965</v>
-      </c>
-      <c r="F259" t="s">
-        <v>966</v>
       </c>
       <c r="G259" t="s">
         <v>658</v>
@@ -12614,16 +12629,16 @@
     </row>
     <row r="260" spans="1:10">
       <c r="D260" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E260" t="s">
+        <v>969</v>
+      </c>
+      <c r="F260" t="s">
         <v>970</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>971</v>
-      </c>
-      <c r="G260" t="s">
-        <v>972</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
@@ -12632,7 +12647,7 @@
         <v>680</v>
       </c>
       <c r="J260" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -12640,13 +12655,13 @@
         <v>115</v>
       </c>
       <c r="E261" t="s">
+        <v>982</v>
+      </c>
+      <c r="F261" t="s">
         <v>983</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>984</v>
-      </c>
-      <c r="G261" t="s">
-        <v>985</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
@@ -12655,35 +12670,15 @@
         <v>684</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
-      <c r="D262" t="s">
-        <v>46</v>
-      </c>
-      <c r="E262" t="s">
-        <v>750</v>
-      </c>
-      <c r="F262" t="s">
-        <v>986</v>
-      </c>
-      <c r="G262" t="s">
-        <v>656</v>
-      </c>
-      <c r="H262" t="s">
-        <v>661</v>
-      </c>
-      <c r="I262" t="s">
-        <v>679</v>
-      </c>
-    </row>
     <row r="263" spans="1:10">
       <c r="D263" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E263" t="s">
+        <v>986</v>
+      </c>
+      <c r="F263" t="s">
         <v>987</v>
-      </c>
-      <c r="F263" t="s">
-        <v>988</v>
       </c>
       <c r="G263" t="s">
         <v>656</v>
@@ -12697,16 +12692,16 @@
     </row>
     <row r="264" spans="1:10">
       <c r="D264" t="s">
+        <v>988</v>
+      </c>
+      <c r="E264" t="s">
         <v>989</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>990</v>
       </c>
-      <c r="F264" t="s">
-        <v>991</v>
-      </c>
       <c r="G264" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H264" t="s">
         <v>66</v>
@@ -12720,16 +12715,16 @@
         <v>569</v>
       </c>
       <c r="E265" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F265" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G265" t="s">
+        <v>919</v>
+      </c>
+      <c r="H265" t="s">
         <v>920</v>
-      </c>
-      <c r="H265" t="s">
-        <v>921</v>
       </c>
       <c r="I265" t="s">
         <v>700</v>
@@ -12743,10 +12738,10 @@
         <v>229</v>
       </c>
       <c r="E266" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F266" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G266" t="s">
         <v>659</v>
@@ -12763,7 +12758,7 @@
         <v>360</v>
       </c>
       <c r="C267" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D267" t="s">
         <v>322</v>
@@ -12772,7 +12767,7 @@
         <v>360</v>
       </c>
       <c r="F267" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G267" t="s">
         <v>656</v>
@@ -12801,7 +12796,7 @@
         <v>79</v>
       </c>
       <c r="F268" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G268" t="s">
         <v>656</v>
@@ -12818,22 +12813,22 @@
         <v>60</v>
       </c>
       <c r="B269" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C269" t="s">
         <v>1013</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1014</v>
       </c>
       <c r="D269" t="s">
         <v>60</v>
       </c>
       <c r="E269" t="s">
+        <v>976</v>
+      </c>
+      <c r="F269" t="s">
         <v>977</v>
       </c>
-      <c r="F269" t="s">
-        <v>978</v>
-      </c>
       <c r="G269" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H269" t="s">
         <v>66</v>
@@ -12842,7 +12837,7 @@
         <v>684</v>
       </c>
       <c r="J269" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -12850,19 +12845,19 @@
         <v>69</v>
       </c>
       <c r="B270" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C270" t="s">
         <v>1015</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1016</v>
       </c>
       <c r="D270" t="s">
         <v>69</v>
       </c>
       <c r="E270" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F270" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G270" t="s">
         <v>658</v>
@@ -12876,13 +12871,13 @@
     </row>
     <row r="271" spans="1:10">
       <c r="D271" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E271" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F271" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -12891,203 +12886,197 @@
       <c r="C272" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W271" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="113" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="120"/>
     <cfRule type="duplicateValues" dxfId="111" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="108" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
     <cfRule type="duplicateValues" dxfId="103" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="duplicateValues" dxfId="99" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="100" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="99" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="93" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="92" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="94"/>
     <cfRule type="duplicateValues" dxfId="78" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
+    <cfRule type="duplicateValues" dxfId="73" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F235">
+    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F246">
+    <cfRule type="duplicateValues" dxfId="69" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
+    <cfRule type="duplicateValues" dxfId="68" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F258">
+    <cfRule type="duplicateValues" dxfId="67" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F260">
+    <cfRule type="duplicateValues" dxfId="66" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F1048576 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18">
+    <cfRule type="duplicateValues" dxfId="64" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F1048576 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18">
+    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F259 F266:F1048576 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18">
+    <cfRule type="duplicateValues" dxfId="61" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18">
+    <cfRule type="duplicateValues" dxfId="60" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18">
+    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F264">
+    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265">
+    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F266:F1048576 F210:F234 F236:F264 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="76" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
-    <cfRule type="duplicateValues" dxfId="1" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="75" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="72" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="71" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="70" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F1048576 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F1048576 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="69" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F266:F1048576 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="67" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="66" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="65" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="64" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="63" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="62" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="61" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
-    <cfRule type="duplicateValues" dxfId="60" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="59" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
-    <cfRule type="duplicateValues" dxfId="56" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="55" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="54" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="47" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N183">
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="44" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="31" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="24" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCBA560-C8F6-40A6-A046-8B21E783353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F594F943-29D0-4998-84F0-438F0CBD965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1068">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2875,9 +2875,6 @@
     <t>SC9625VB-Q-CE-4XCR-9625L</t>
   </si>
   <si>
-    <t>NM.SC9625VB-CE-00CK</t>
-  </si>
-  <si>
     <t>NF.SC1445A2-713B</t>
   </si>
   <si>
@@ -3232,6 +3229,55 @@
   <si>
     <t>方芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-4451H</t>
+  </si>
+  <si>
+    <t>SC60221-D-100</t>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-TR-Q</t>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
+  </si>
+  <si>
+    <t>V2302C</t>
+  </si>
+  <si>
+    <t>VE8602A5R</t>
+  </si>
+  <si>
+    <t>TRVE8602A5R-8602</t>
+  </si>
+  <si>
+    <t>VE8602AKR</t>
+  </si>
+  <si>
+    <t>VE8602AKR-8602</t>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5-1430QC5</t>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5</t>
+  </si>
+  <si>
+    <t>V2201D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624SP20B5</t>
+  </si>
+  <si>
+    <t>SC4624SP20B5-SC4624</t>
+  </si>
+  <si>
+    <t>NF.SC4624SP20B5-SC4624</t>
+  </si>
+  <si>
+    <t>NF.SC9625VB-CE-9625L</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3449,77 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="121">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4820,11 +4936,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W272"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="E286" sqref="E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4834,7 +4951,7 @@
     <col min="3" max="3" width="30.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="7.375" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
@@ -4923,7 +5040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -4961,7 +5078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4999,7 +5116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -5028,7 +5145,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -5069,12 +5186,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -5083,7 +5200,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -5098,7 +5215,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5136,7 +5253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5198,10 +5315,10 @@
         <v>49</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -5239,7 +5356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -5271,7 +5388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -5294,7 +5411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -5332,7 +5449,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -5361,10 +5478,10 @@
         <v>679</v>
       </c>
       <c r="J13" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -5372,7 +5489,7 @@
         <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5396,7 +5513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -5458,10 +5575,10 @@
         <v>84</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5517,7 +5634,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5546,7 +5663,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -5575,7 +5692,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -5592,7 +5709,7 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G19" t="s">
         <v>899</v>
@@ -5616,7 +5733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5645,7 +5762,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -5677,7 +5794,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5706,7 +5823,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -5735,7 +5852,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -5767,7 +5884,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -5805,7 +5922,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -5843,10 +5960,10 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -5875,7 +5992,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -5907,7 +6024,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -5939,7 +6056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -5971,7 +6088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -5979,7 +6096,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -6003,7 +6120,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -6032,7 +6149,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -6061,7 +6178,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -6090,7 +6207,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -6131,7 +6248,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -6160,7 +6277,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -6210,7 +6327,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -6242,7 +6359,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -6289,10 +6406,10 @@
         <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -6324,7 +6441,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -6356,7 +6473,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -6412,10 +6529,10 @@
         <v>664</v>
       </c>
       <c r="T42" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -6432,7 +6549,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G43" t="s">
         <v>898</v>
@@ -6456,7 +6573,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -6464,7 +6581,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
@@ -6485,7 +6602,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -6517,7 +6634,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" hidden="1">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -6549,25 +6666,25 @@
         <v>202</v>
       </c>
       <c r="L46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M46" t="s">
         <v>203</v>
       </c>
       <c r="N46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="P46" t="s">
         <v>203</v>
       </c>
       <c r="Q46" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -6596,7 +6713,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -6604,7 +6721,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
@@ -6628,7 +6745,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -6657,7 +6774,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -6686,7 +6803,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -6718,7 +6835,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -6756,7 +6873,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -6785,7 +6902,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -6817,7 +6934,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -6849,7 +6966,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -6881,7 +6998,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -6904,7 +7021,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -6927,7 +7044,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -6950,7 +7067,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -6973,7 +7090,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" hidden="1">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -6996,7 +7113,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" hidden="1">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -7019,7 +7136,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" hidden="1">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -7042,7 +7159,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" hidden="1">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -7065,7 +7182,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -7088,7 +7205,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -7111,7 +7228,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -7134,7 +7251,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -7154,10 +7271,10 @@
         <v>679</v>
       </c>
       <c r="J68" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -7177,10 +7294,10 @@
         <v>679</v>
       </c>
       <c r="J69" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -7209,7 +7326,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -7241,7 +7358,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -7273,7 +7390,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -7305,7 +7422,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -7337,7 +7454,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -7369,7 +7486,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -7392,7 +7509,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -7421,7 +7538,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -7450,7 +7567,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -7488,7 +7605,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -7508,7 +7625,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -7516,16 +7633,16 @@
         <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D81" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E81" t="s">
+        <v>965</v>
+      </c>
+      <c r="F81" t="s">
         <v>966</v>
-      </c>
-      <c r="F81" t="s">
-        <v>967</v>
       </c>
       <c r="G81" t="s">
         <v>659</v>
@@ -7555,7 +7672,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -7584,7 +7701,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -7625,7 +7742,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -7654,7 +7771,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -7683,7 +7800,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" t="s">
         <v>710</v>
       </c>
@@ -7709,10 +7826,10 @@
         <v>661</v>
       </c>
       <c r="I86" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -7741,7 +7858,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -7770,7 +7887,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -7799,7 +7916,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -7837,7 +7954,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -7869,7 +7986,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -7913,10 +8030,10 @@
         <v>398</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -7948,7 +8065,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -7977,7 +8094,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -8009,7 +8126,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -8041,7 +8158,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" hidden="1">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -8070,7 +8187,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" hidden="1">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -8102,7 +8219,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" hidden="1">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -8131,7 +8248,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100" t="s">
         <v>364</v>
       </c>
@@ -8169,7 +8286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101" t="s">
         <v>364</v>
       </c>
@@ -8198,7 +8315,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" hidden="1">
       <c r="D102" t="s">
         <v>364</v>
       </c>
@@ -8227,7 +8344,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103" t="s">
         <v>364</v>
       </c>
@@ -8256,7 +8373,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104" t="s">
         <v>364</v>
       </c>
@@ -8291,10 +8408,10 @@
         <v>382</v>
       </c>
       <c r="N104" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105" t="s">
         <v>384</v>
       </c>
@@ -8323,7 +8440,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106" t="s">
         <v>389</v>
       </c>
@@ -8352,7 +8469,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" hidden="1">
       <c r="D107" t="s">
         <v>389</v>
       </c>
@@ -8372,7 +8489,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" hidden="1">
       <c r="A108" t="s">
         <v>389</v>
       </c>
@@ -8404,7 +8521,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" hidden="1">
       <c r="A109" t="s">
         <v>389</v>
       </c>
@@ -8433,7 +8550,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" hidden="1">
       <c r="A110" t="s">
         <v>389</v>
       </c>
@@ -8462,7 +8579,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" hidden="1">
       <c r="A111" t="s">
         <v>389</v>
       </c>
@@ -8476,10 +8593,10 @@
         <v>389</v>
       </c>
       <c r="E111" t="s">
+        <v>946</v>
+      </c>
+      <c r="F111" t="s">
         <v>947</v>
-      </c>
-      <c r="F111" t="s">
-        <v>948</v>
       </c>
       <c r="G111" t="s">
         <v>656</v>
@@ -8491,7 +8608,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" hidden="1">
       <c r="A112" t="s">
         <v>402</v>
       </c>
@@ -8520,7 +8637,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" hidden="1">
       <c r="A113" t="s">
         <v>407</v>
       </c>
@@ -8555,10 +8672,10 @@
         <v>72</v>
       </c>
       <c r="N113" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" hidden="1">
       <c r="A114" t="s">
         <v>407</v>
       </c>
@@ -8587,7 +8704,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" hidden="1">
       <c r="A115" t="s">
         <v>407</v>
       </c>
@@ -8616,7 +8733,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" hidden="1">
       <c r="D116" t="s">
         <v>418</v>
       </c>
@@ -8642,10 +8759,10 @@
         <v>420</v>
       </c>
       <c r="N116" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" hidden="1">
       <c r="A117" t="s">
         <v>422</v>
       </c>
@@ -8692,7 +8809,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" hidden="1">
       <c r="A118" t="s">
         <v>432</v>
       </c>
@@ -8730,7 +8847,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" hidden="1">
       <c r="A119" t="s">
         <v>437</v>
       </c>
@@ -8780,7 +8897,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" hidden="1">
       <c r="A120" t="s">
         <v>444</v>
       </c>
@@ -8821,7 +8938,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" hidden="1">
       <c r="D121" t="s">
         <v>444</v>
       </c>
@@ -8853,7 +8970,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" hidden="1">
       <c r="A122" t="s">
         <v>451</v>
       </c>
@@ -8905,16 +9022,16 @@
         <v>459</v>
       </c>
       <c r="G123" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H123" t="s">
         <v>1007</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1008</v>
       </c>
       <c r="I123" t="s">
         <v>681</v>
       </c>
       <c r="J123" t="s">
-        <v>940</v>
+        <v>1067</v>
       </c>
       <c r="L123" t="s">
         <v>455</v>
@@ -8923,7 +9040,7 @@
         <v>456</v>
       </c>
       <c r="N123" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -8937,16 +9054,16 @@
         <v>877</v>
       </c>
       <c r="G124" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H124" t="s">
         <v>1007</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1008</v>
       </c>
       <c r="I124" t="s">
         <v>681</v>
       </c>
       <c r="J124" t="s">
-        <v>940</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -8960,19 +9077,19 @@
         <v>939</v>
       </c>
       <c r="G125" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H125" t="s">
         <v>1007</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1008</v>
       </c>
       <c r="I125" t="s">
         <v>681</v>
       </c>
       <c r="J125" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" hidden="1">
       <c r="A126" t="s">
         <v>460</v>
       </c>
@@ -9013,7 +9130,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" hidden="1">
       <c r="A127" t="s">
         <v>467</v>
       </c>
@@ -9054,7 +9171,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" hidden="1">
       <c r="A128" t="s">
         <v>467</v>
       </c>
@@ -9092,7 +9209,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -9124,7 +9241,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130" t="s">
         <v>481</v>
       </c>
@@ -9156,7 +9273,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131" t="s">
         <v>481</v>
       </c>
@@ -9188,7 +9305,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132" t="s">
         <v>481</v>
       </c>
@@ -9220,7 +9337,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133" t="s">
         <v>481</v>
       </c>
@@ -9249,7 +9366,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134" t="s">
         <v>481</v>
       </c>
@@ -9281,7 +9398,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" hidden="1">
       <c r="A135" t="s">
         <v>481</v>
       </c>
@@ -9310,7 +9427,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" hidden="1">
       <c r="A136" t="s">
         <v>506</v>
       </c>
@@ -9342,15 +9459,15 @@
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137" t="s">
         <v>506</v>
       </c>
       <c r="B137" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C137" t="s">
         <v>1040</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1041</v>
       </c>
       <c r="D137" t="s">
         <v>506</v>
@@ -9380,15 +9497,15 @@
         <v>515</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" hidden="1">
       <c r="A138" t="s">
         <v>506</v>
       </c>
       <c r="B138" t="s">
+        <v>998</v>
+      </c>
+      <c r="C138" t="s">
         <v>999</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1000</v>
       </c>
       <c r="D138" t="s">
         <v>506</v>
@@ -9418,15 +9535,15 @@
         <v>517</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" hidden="1">
       <c r="A139" s="10" t="s">
         <v>506</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>1042</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>1043</v>
       </c>
       <c r="D139" t="s">
         <v>506</v>
@@ -9456,10 +9573,10 @@
         <v>507</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1">
       <c r="A140" t="s">
         <v>518</v>
       </c>
@@ -9494,13 +9611,13 @@
         <v>518</v>
       </c>
       <c r="M140" t="s">
+        <v>952</v>
+      </c>
+      <c r="N140" t="s">
         <v>953</v>
       </c>
-      <c r="N140" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141" t="s">
         <v>524</v>
       </c>
@@ -9538,7 +9655,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" hidden="1">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -9570,7 +9687,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143" t="s">
         <v>524</v>
       </c>
@@ -9599,7 +9716,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144" t="s">
         <v>524</v>
       </c>
@@ -9628,7 +9745,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1">
       <c r="D145" t="s">
         <v>524</v>
       </c>
@@ -9651,7 +9768,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>524</v>
       </c>
@@ -9683,7 +9800,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>524</v>
       </c>
@@ -9715,7 +9832,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>524</v>
       </c>
@@ -9750,21 +9867,21 @@
         <v>524</v>
       </c>
       <c r="M148" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N148" t="s">
         <v>1038</v>
       </c>
-      <c r="N148" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+    </row>
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C149" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D149" t="s">
         <v>524</v>
@@ -9788,15 +9905,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>524</v>
       </c>
       <c r="B150" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C150" t="s">
         <v>1035</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1036</v>
       </c>
       <c r="D150" t="s">
         <v>524</v>
@@ -9820,7 +9937,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>524</v>
       </c>
@@ -9861,7 +9978,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>524</v>
       </c>
@@ -9890,7 +10007,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>716</v>
       </c>
@@ -9934,10 +10051,10 @@
         <v>717</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>587</v>
       </c>
@@ -9966,7 +10083,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>587</v>
       </c>
@@ -9995,7 +10112,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>587</v>
       </c>
@@ -10024,7 +10141,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" hidden="1">
       <c r="D157" t="s">
         <v>587</v>
       </c>
@@ -10047,7 +10164,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>587</v>
       </c>
@@ -10079,7 +10196,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>607</v>
       </c>
@@ -10108,7 +10225,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>607</v>
       </c>
@@ -10137,7 +10254,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" hidden="1">
       <c r="A161" t="s">
         <v>616</v>
       </c>
@@ -10166,7 +10283,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" hidden="1">
       <c r="A162" t="s">
         <v>621</v>
       </c>
@@ -10219,7 +10336,7 @@
         <v>287</v>
       </c>
       <c r="T162" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="U162" t="s">
         <v>621</v>
@@ -10231,7 +10348,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" hidden="1">
       <c r="A163" t="s">
         <v>626</v>
       </c>
@@ -10263,7 +10380,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" hidden="1">
       <c r="D164" t="s">
         <v>626</v>
       </c>
@@ -10286,7 +10403,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" hidden="1">
       <c r="A165" t="s">
         <v>626</v>
       </c>
@@ -10315,7 +10432,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" hidden="1">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -10347,7 +10464,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" hidden="1">
       <c r="A167" t="s">
         <v>626</v>
       </c>
@@ -10379,7 +10496,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" hidden="1">
       <c r="A168" t="s">
         <v>626</v>
       </c>
@@ -10417,7 +10534,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" hidden="1">
       <c r="A169" t="s">
         <v>477</v>
       </c>
@@ -10464,7 +10581,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" hidden="1">
       <c r="A170" t="s">
         <v>477</v>
       </c>
@@ -10472,7 +10589,7 @@
         <v>644</v>
       </c>
       <c r="C170" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D170" t="s">
         <v>477</v>
@@ -10502,7 +10619,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" hidden="1">
       <c r="A171" t="s">
         <v>477</v>
       </c>
@@ -10531,7 +10648,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" hidden="1">
       <c r="A172" t="s">
         <v>649</v>
       </c>
@@ -10563,7 +10680,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" hidden="1">
       <c r="D173" t="s">
         <v>649</v>
       </c>
@@ -10586,7 +10703,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" hidden="1">
       <c r="D174" t="s">
         <v>649</v>
       </c>
@@ -10609,7 +10726,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" hidden="1">
       <c r="A175" t="s">
         <v>669</v>
       </c>
@@ -10629,7 +10746,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" hidden="1">
       <c r="A176" t="s">
         <v>672</v>
       </c>
@@ -10649,7 +10766,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177" t="s">
         <v>675</v>
       </c>
@@ -10666,7 +10783,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" hidden="1">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -10695,7 +10812,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" hidden="1">
       <c r="A179" t="s">
         <v>607</v>
       </c>
@@ -10724,7 +10841,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" hidden="1">
       <c r="A180" t="s">
         <v>732</v>
       </c>
@@ -10762,7 +10879,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" hidden="1">
       <c r="A181" t="s">
         <v>736</v>
       </c>
@@ -10791,7 +10908,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" hidden="1">
       <c r="A182" t="s">
         <v>742</v>
       </c>
@@ -10820,7 +10937,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" hidden="1">
       <c r="A183" t="s">
         <v>749</v>
       </c>
@@ -10831,7 +10948,7 @@
         <v>751</v>
       </c>
       <c r="D183" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E183" t="s">
         <v>752</v>
@@ -10855,12 +10972,12 @@
         <v>750</v>
       </c>
       <c r="N183" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1">
       <c r="D184" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E184" t="s">
         <v>754</v>
@@ -10881,7 +10998,7 @@
         <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M184" t="s">
         <v>754</v>
@@ -10890,7 +11007,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" hidden="1">
       <c r="D185" t="s">
         <v>760</v>
       </c>
@@ -10913,7 +11030,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" hidden="1">
       <c r="D186" t="s">
         <v>760</v>
       </c>
@@ -10936,15 +11053,15 @@
         <v>765</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" hidden="1">
       <c r="D187" t="s">
         <v>760</v>
       </c>
       <c r="E187" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F187" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G187" t="s">
         <v>898</v>
@@ -10959,7 +11076,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" hidden="1">
       <c r="A188" t="s">
         <v>767</v>
       </c>
@@ -10991,7 +11108,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" hidden="1">
       <c r="D189" t="s">
         <v>477</v>
       </c>
@@ -11017,10 +11134,10 @@
         <v>777</v>
       </c>
       <c r="N189" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" hidden="1">
       <c r="A190" t="s">
         <v>783</v>
       </c>
@@ -11040,16 +11157,16 @@
         <v>787</v>
       </c>
       <c r="G190" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H190" t="s">
         <v>1051</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1052</v>
       </c>
       <c r="I190" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" hidden="1">
       <c r="A191" t="s">
         <v>788</v>
       </c>
@@ -11078,7 +11195,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" hidden="1">
       <c r="D192" t="s">
         <v>569</v>
       </c>
@@ -11101,7 +11218,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="193" spans="4:10">
+    <row r="193" spans="4:10" hidden="1">
       <c r="D193" t="s">
         <v>569</v>
       </c>
@@ -11124,7 +11241,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="194" spans="4:10">
+    <row r="194" spans="4:10" hidden="1">
       <c r="D194" t="s">
         <v>569</v>
       </c>
@@ -11147,7 +11264,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="4:10">
+    <row r="195" spans="4:10" hidden="1">
       <c r="D195" t="s">
         <v>569</v>
       </c>
@@ -11170,7 +11287,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="196" spans="4:10">
+    <row r="196" spans="4:10" hidden="1">
       <c r="D196" t="s">
         <v>569</v>
       </c>
@@ -11193,7 +11310,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="197" spans="4:10">
+    <row r="197" spans="4:10" hidden="1">
       <c r="D197" t="s">
         <v>569</v>
       </c>
@@ -11216,7 +11333,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="4:10">
+    <row r="198" spans="4:10" hidden="1">
       <c r="D198" t="s">
         <v>569</v>
       </c>
@@ -11239,7 +11356,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="199" spans="4:10">
+    <row r="199" spans="4:10" hidden="1">
       <c r="D199" t="s">
         <v>569</v>
       </c>
@@ -11262,7 +11379,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="200" spans="4:10">
+    <row r="200" spans="4:10" hidden="1">
       <c r="D200" t="s">
         <v>569</v>
       </c>
@@ -11285,7 +11402,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="201" spans="4:10">
+    <row r="201" spans="4:10" hidden="1">
       <c r="D201" t="s">
         <v>569</v>
       </c>
@@ -11308,7 +11425,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="202" spans="4:10">
+    <row r="202" spans="4:10" hidden="1">
       <c r="D202" t="s">
         <v>569</v>
       </c>
@@ -11331,7 +11448,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="203" spans="4:10">
+    <row r="203" spans="4:10" hidden="1">
       <c r="D203" t="s">
         <v>569</v>
       </c>
@@ -11354,7 +11471,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="204" spans="4:10">
+    <row r="204" spans="4:10" hidden="1">
       <c r="D204" t="s">
         <v>569</v>
       </c>
@@ -11377,7 +11494,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="4:10">
+    <row r="205" spans="4:10" hidden="1">
       <c r="D205" t="s">
         <v>569</v>
       </c>
@@ -11400,7 +11517,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="206" spans="4:10">
+    <row r="206" spans="4:10" hidden="1">
       <c r="D206" t="s">
         <v>569</v>
       </c>
@@ -11423,7 +11540,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="207" spans="4:10">
+    <row r="207" spans="4:10" hidden="1">
       <c r="D207" t="s">
         <v>569</v>
       </c>
@@ -11446,7 +11563,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="208" spans="4:10">
+    <row r="208" spans="4:10" hidden="1">
       <c r="D208" t="s">
         <v>569</v>
       </c>
@@ -11469,7 +11586,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" hidden="1">
       <c r="D209" t="s">
         <v>569</v>
       </c>
@@ -11492,7 +11609,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" hidden="1">
       <c r="A210" t="s">
         <v>569</v>
       </c>
@@ -11524,7 +11641,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" hidden="1">
       <c r="A211" t="s">
         <v>569</v>
       </c>
@@ -11553,7 +11670,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" hidden="1">
       <c r="A212" t="s">
         <v>569</v>
       </c>
@@ -11582,7 +11699,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" hidden="1">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -11605,7 +11722,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" hidden="1">
       <c r="A214" t="s">
         <v>587</v>
       </c>
@@ -11628,7 +11745,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" hidden="1">
       <c r="A215" t="s">
         <v>808</v>
       </c>
@@ -11657,7 +11774,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216" t="s">
         <v>736</v>
       </c>
@@ -11683,10 +11800,10 @@
         <v>739</v>
       </c>
       <c r="N216" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1">
       <c r="A217" t="s">
         <v>626</v>
       </c>
@@ -11706,9 +11823,9 @@
         <v>878</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" hidden="1">
       <c r="D218" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E218" t="s">
         <v>820</v>
@@ -11726,7 +11843,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" hidden="1">
       <c r="D219" t="s">
         <v>822</v>
       </c>
@@ -11746,7 +11863,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" hidden="1">
       <c r="D220" t="s">
         <v>825</v>
       </c>
@@ -11766,7 +11883,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" hidden="1">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -11786,7 +11903,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" hidden="1">
       <c r="D222" t="s">
         <v>467</v>
       </c>
@@ -11809,7 +11926,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" hidden="1">
       <c r="D223" t="s">
         <v>460</v>
       </c>
@@ -11829,7 +11946,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" hidden="1">
       <c r="A224" t="s">
         <v>835</v>
       </c>
@@ -11858,7 +11975,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" hidden="1">
       <c r="A225" t="s">
         <v>838</v>
       </c>
@@ -11878,15 +11995,15 @@
         <v>699</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" hidden="1">
       <c r="A226" t="s">
         <v>841</v>
       </c>
       <c r="B226" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C226" t="s">
         <v>1018</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1019</v>
       </c>
       <c r="D226" t="s">
         <v>841</v>
@@ -11907,7 +12024,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" hidden="1">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -11927,7 +12044,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" hidden="1">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -11947,7 +12064,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" hidden="1">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -11967,7 +12084,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" hidden="1">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -11987,7 +12104,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" hidden="1">
       <c r="A231" s="10" t="s">
         <v>407</v>
       </c>
@@ -11995,7 +12112,7 @@
         <v>413</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D231" t="s">
         <v>407</v>
@@ -12016,7 +12133,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" hidden="1">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -12036,7 +12153,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" hidden="1">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -12056,7 +12173,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" hidden="1">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -12076,7 +12193,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" hidden="1">
       <c r="D235" t="s">
         <v>822</v>
       </c>
@@ -12099,13 +12216,13 @@
         <v>822</v>
       </c>
       <c r="M235" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N235" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1">
       <c r="D236" t="s">
         <v>710</v>
       </c>
@@ -12125,7 +12242,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" hidden="1">
       <c r="D237" t="s">
         <v>710</v>
       </c>
@@ -12145,7 +12262,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" hidden="1">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -12165,7 +12282,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" hidden="1">
       <c r="A239" t="s">
         <v>760</v>
       </c>
@@ -12185,7 +12302,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" hidden="1">
       <c r="D240" t="s">
         <v>506</v>
       </c>
@@ -12205,15 +12322,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" t="s">
         <v>808</v>
       </c>
       <c r="B241" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C241" t="s">
         <v>1046</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1047</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
@@ -12234,7 +12351,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" hidden="1">
       <c r="D242" t="s">
         <v>716</v>
       </c>
@@ -12254,7 +12371,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" hidden="1">
       <c r="D243" t="s">
         <v>716</v>
       </c>
@@ -12274,7 +12391,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" hidden="1">
       <c r="D244" t="s">
         <v>774</v>
       </c>
@@ -12294,7 +12411,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" hidden="1">
       <c r="D245" t="s">
         <v>888</v>
       </c>
@@ -12314,7 +12431,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" hidden="1">
       <c r="D246" t="s">
         <v>833</v>
       </c>
@@ -12337,7 +12454,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" hidden="1">
       <c r="D247" t="s">
         <v>895</v>
       </c>
@@ -12357,7 +12474,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" hidden="1">
       <c r="D248" t="s">
         <v>672</v>
       </c>
@@ -12377,7 +12494,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" hidden="1">
       <c r="D249" t="s">
         <v>930</v>
       </c>
@@ -12388,21 +12505,21 @@
         <v>932</v>
       </c>
       <c r="G249" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
       <c r="I249" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J249" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" ht="16.5" hidden="1">
       <c r="D250" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E250" t="s">
         <v>935</v>
@@ -12411,7 +12528,7 @@
         <v>936</v>
       </c>
       <c r="G250" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
@@ -12420,7 +12537,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -12437,7 +12554,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G251" t="s">
         <v>656</v>
@@ -12464,21 +12581,21 @@
         <v>312</v>
       </c>
       <c r="Q251" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" hidden="1">
       <c r="D252" t="s">
         <v>286</v>
       </c>
       <c r="E252" t="s">
+        <v>944</v>
+      </c>
+      <c r="F252" t="s">
         <v>945</v>
       </c>
-      <c r="F252" t="s">
-        <v>946</v>
-      </c>
       <c r="G252" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H252" t="s">
         <v>66</v>
@@ -12487,7 +12604,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5">
+    <row r="253" spans="1:17" ht="16.5" hidden="1">
       <c r="D253" t="s">
         <v>389</v>
       </c>
@@ -12507,15 +12624,15 @@
         <v>679</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" hidden="1">
       <c r="D254" t="s">
         <v>524</v>
       </c>
       <c r="E254" t="s">
+        <v>948</v>
+      </c>
+      <c r="F254" t="s">
         <v>949</v>
-      </c>
-      <c r="F254" t="s">
-        <v>950</v>
       </c>
       <c r="G254" t="s">
         <v>919</v>
@@ -12527,7 +12644,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" hidden="1">
       <c r="D255" t="s">
         <v>477</v>
       </c>
@@ -12535,10 +12652,10 @@
         <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G255" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H255" t="s">
         <v>66</v>
@@ -12547,15 +12664,15 @@
         <v>695</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" hidden="1">
       <c r="D256" t="s">
         <v>364</v>
       </c>
       <c r="E256" t="s">
+        <v>954</v>
+      </c>
+      <c r="F256" t="s">
         <v>955</v>
-      </c>
-      <c r="F256" t="s">
-        <v>956</v>
       </c>
       <c r="G256" t="s">
         <v>656</v>
@@ -12567,15 +12684,15 @@
         <v>685</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1">
       <c r="D257" t="s">
         <v>46</v>
       </c>
       <c r="E257" t="s">
+        <v>958</v>
+      </c>
+      <c r="F257" t="s">
         <v>959</v>
-      </c>
-      <c r="F257" t="s">
-        <v>960</v>
       </c>
       <c r="G257" t="s">
         <v>658</v>
@@ -12587,18 +12704,18 @@
         <v>687</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" hidden="1">
       <c r="D258" t="s">
         <v>524</v>
       </c>
       <c r="E258" t="s">
+        <v>960</v>
+      </c>
+      <c r="F258" t="s">
         <v>961</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>962</v>
-      </c>
-      <c r="G258" t="s">
-        <v>963</v>
       </c>
       <c r="H258" t="s">
         <v>66</v>
@@ -12607,15 +12724,15 @@
         <v>699</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1">
       <c r="D259" t="s">
         <v>930</v>
       </c>
       <c r="E259" t="s">
+        <v>963</v>
+      </c>
+      <c r="F259" t="s">
         <v>964</v>
-      </c>
-      <c r="F259" t="s">
-        <v>965</v>
       </c>
       <c r="G259" t="s">
         <v>658</v>
@@ -12627,18 +12744,18 @@
         <v>687</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" hidden="1">
       <c r="D260" t="s">
         <v>930</v>
       </c>
       <c r="E260" t="s">
+        <v>968</v>
+      </c>
+      <c r="F260" t="s">
         <v>969</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>970</v>
-      </c>
-      <c r="G260" t="s">
-        <v>971</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
@@ -12647,21 +12764,21 @@
         <v>680</v>
       </c>
       <c r="J260" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="D261" t="s">
         <v>115</v>
       </c>
       <c r="E261" t="s">
+        <v>981</v>
+      </c>
+      <c r="F261" t="s">
         <v>982</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>983</v>
-      </c>
-      <c r="G261" t="s">
-        <v>984</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
@@ -12670,15 +12787,35 @@
         <v>684</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="262" spans="1:10" hidden="1">
+      <c r="D262" t="s">
+        <v>930</v>
+      </c>
+      <c r="E262" t="s">
+        <v>963</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G262" t="s">
+        <v>970</v>
+      </c>
+      <c r="H262" t="s">
+        <v>66</v>
+      </c>
+      <c r="I262" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="D263" t="s">
         <v>838</v>
       </c>
       <c r="E263" t="s">
+        <v>985</v>
+      </c>
+      <c r="F263" t="s">
         <v>986</v>
-      </c>
-      <c r="F263" t="s">
-        <v>987</v>
       </c>
       <c r="G263" t="s">
         <v>656</v>
@@ -12690,18 +12827,18 @@
         <v>699</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1">
       <c r="D264" t="s">
+        <v>987</v>
+      </c>
+      <c r="E264" t="s">
         <v>988</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>989</v>
       </c>
-      <c r="F264" t="s">
-        <v>990</v>
-      </c>
       <c r="G264" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H264" t="s">
         <v>66</v>
@@ -12710,7 +12847,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1">
       <c r="D265" t="s">
         <v>569</v>
       </c>
@@ -12733,15 +12870,15 @@
         <v>586</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1">
       <c r="D266" t="s">
         <v>229</v>
       </c>
       <c r="E266" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F266" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G266" t="s">
         <v>659</v>
@@ -12750,7 +12887,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" t="s">
         <v>322</v>
       </c>
@@ -12758,7 +12895,7 @@
         <v>360</v>
       </c>
       <c r="C267" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D267" t="s">
         <v>322</v>
@@ -12767,7 +12904,7 @@
         <v>360</v>
       </c>
       <c r="F267" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G267" t="s">
         <v>656</v>
@@ -12779,7 +12916,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" t="s">
         <v>418</v>
       </c>
@@ -12796,7 +12933,7 @@
         <v>79</v>
       </c>
       <c r="F268" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G268" t="s">
         <v>656</v>
@@ -12808,27 +12945,27 @@
         <v>679</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" t="s">
         <v>60</v>
       </c>
       <c r="B269" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C269" t="s">
         <v>1012</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1013</v>
       </c>
       <c r="D269" t="s">
         <v>60</v>
       </c>
       <c r="E269" t="s">
+        <v>975</v>
+      </c>
+      <c r="F269" t="s">
         <v>976</v>
       </c>
-      <c r="F269" t="s">
-        <v>977</v>
-      </c>
       <c r="G269" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H269" t="s">
         <v>66</v>
@@ -12837,27 +12974,27 @@
         <v>684</v>
       </c>
       <c r="J269" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" hidden="1">
       <c r="A270" t="s">
         <v>69</v>
       </c>
       <c r="B270" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C270" t="s">
         <v>1014</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1015</v>
       </c>
       <c r="D270" t="s">
         <v>69</v>
       </c>
       <c r="E270" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F270" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G270" t="s">
         <v>658</v>
@@ -12869,214 +13006,367 @@
         <v>685</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" hidden="1">
       <c r="D271" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E271" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F271" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
+      <c r="D272" t="s">
+        <v>930</v>
+      </c>
+      <c r="E272" t="s">
+        <v>963</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G272" t="s">
+        <v>658</v>
+      </c>
+      <c r="H272" t="s">
+        <v>66</v>
+      </c>
+      <c r="I272" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="273" spans="4:10" hidden="1">
+      <c r="D273" t="s">
+        <v>569</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G273" t="s">
+        <v>919</v>
+      </c>
+      <c r="H273" t="s">
+        <v>920</v>
+      </c>
+      <c r="I273" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="274" spans="4:10" hidden="1">
+      <c r="D274" t="s">
+        <v>716</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G274" t="s">
+        <v>656</v>
+      </c>
+      <c r="H274" t="s">
+        <v>661</v>
+      </c>
+      <c r="I274" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="275" spans="4:10" hidden="1">
+      <c r="D275" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G275" t="s">
+        <v>923</v>
+      </c>
+      <c r="H275" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="276" spans="4:10" hidden="1">
+      <c r="D276" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G276" t="s">
+        <v>923</v>
+      </c>
+      <c r="H276" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="277" spans="4:10" hidden="1">
+      <c r="D277" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G277" t="s">
+        <v>923</v>
+      </c>
+      <c r="H277" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="278" spans="4:10" hidden="1">
+      <c r="D278" t="s">
+        <v>587</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G278" t="s">
+        <v>919</v>
+      </c>
+      <c r="H278" t="s">
+        <v>920</v>
+      </c>
+      <c r="I278" t="s">
+        <v>702</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1066</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W271" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W278" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="SC9625VB-CE-00CK-9625L"/>
+        <filter val="SC9625VB-CE-00CR-9625L"/>
+        <filter val="SC9625VB-Q-CE-4XCR-9625L"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="113" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="108" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="99" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="98" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="97" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="91" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="90" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="85" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
-    <cfRule type="duplicateValues" dxfId="73" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="72" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="69" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="68" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="67" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="66" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F1048576 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18">
-    <cfRule type="duplicateValues" dxfId="64" priority="91"/>
+  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="70" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F1048576 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="63" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="87"/>
+  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="69" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F266:F1048576 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="61" priority="78"/>
+  <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="67" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="60" priority="72"/>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="66" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F1048576 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
+    <cfRule type="duplicateValues" dxfId="65" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="57" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266:F1048576 F210:F234 F236:F264 F20:F191 F1:F5 F7:F18">
-    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+  <conditionalFormatting sqref="F266:F271 F210:F234 F236:F261 F20:F191 F1:F5 F7:F18 F273 F277:F1048576 F263:F264">
+    <cfRule type="duplicateValues" dxfId="62" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274">
+    <cfRule type="duplicateValues" dxfId="59" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275:F276">
+    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
-    <cfRule type="duplicateValues" dxfId="55" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="54" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
-    <cfRule type="duplicateValues" dxfId="51" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="50" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="42" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="37" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="17" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="10" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F594F943-29D0-4998-84F0-438F0CBD965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE9246-891A-4356-86F1-3125F57BB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1069">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3278,6 +3278,9 @@
   </si>
   <si>
     <t>NF.SC9625VB-CE-9625L</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40AK-4643</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3452,117 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="132">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4936,12 +5049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W278"/>
+  <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E286" sqref="E286"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5040,7 +5152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -5078,7 +5190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5116,7 +5228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -5145,7 +5257,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -5186,7 +5298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -5215,7 +5327,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5253,7 +5365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5318,7 +5430,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -5356,7 +5468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -5388,7 +5500,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -5411,7 +5523,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -5449,7 +5561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -5481,7 +5593,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -5513,7 +5625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -5578,7 +5690,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5634,7 +5746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -5663,7 +5775,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -5692,7 +5804,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -5733,7 +5845,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -5762,7 +5874,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -5794,7 +5906,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -5823,7 +5935,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -5852,7 +5964,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -5884,7 +5996,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -5922,7 +6034,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -5963,7 +6075,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -5992,7 +6104,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -6024,7 +6136,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6056,7 +6168,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6088,7 +6200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6120,7 +6232,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -6149,7 +6261,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -6178,7 +6290,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -6207,7 +6319,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -6248,7 +6360,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -6277,7 +6389,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -6327,7 +6439,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -6359,7 +6471,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -6409,7 +6521,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -6441,7 +6553,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -6473,7 +6585,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -6532,7 +6644,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -6573,7 +6685,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -6602,7 +6714,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1">
+    <row r="45" spans="1:20">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -6634,7 +6746,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -6684,7 +6796,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -6713,7 +6825,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -6745,7 +6857,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -6774,7 +6886,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -6803,7 +6915,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -6835,7 +6947,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -6873,7 +6985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -6902,7 +7014,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -6934,7 +7046,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -6966,7 +7078,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -6998,7 +7110,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1">
+    <row r="57" spans="1:14">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -7021,7 +7133,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1">
+    <row r="58" spans="1:14">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -7044,7 +7156,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1">
+    <row r="59" spans="1:14">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -7067,7 +7179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1">
+    <row r="60" spans="1:14">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -7090,7 +7202,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1">
+    <row r="61" spans="1:14">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -7113,7 +7225,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1">
+    <row r="62" spans="1:14">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -7136,7 +7248,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1">
+    <row r="63" spans="1:14">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -7159,7 +7271,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1">
+    <row r="64" spans="1:14">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -7182,7 +7294,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -7205,7 +7317,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -7228,7 +7340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -7251,7 +7363,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -7274,7 +7386,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -7297,7 +7409,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -7326,7 +7438,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -7358,7 +7470,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -7390,7 +7502,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -7422,7 +7534,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -7454,7 +7566,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -7486,7 +7598,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -7509,7 +7621,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -7538,7 +7650,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -7567,7 +7679,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -7605,7 +7717,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -7625,7 +7737,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -7672,7 +7784,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -7701,7 +7813,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -7742,7 +7854,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -7771,7 +7883,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -7800,7 +7912,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>710</v>
       </c>
@@ -7829,7 +7941,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -7858,7 +7970,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -7887,7 +7999,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -7916,7 +8028,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -7954,7 +8066,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -7986,7 +8098,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -8033,7 +8145,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -8065,7 +8177,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -8094,7 +8206,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -8126,7 +8238,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -8158,7 +8270,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -8187,7 +8299,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -8219,7 +8331,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -8248,7 +8360,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>364</v>
       </c>
@@ -8286,7 +8398,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>364</v>
       </c>
@@ -8315,7 +8427,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14">
       <c r="D102" t="s">
         <v>364</v>
       </c>
@@ -8344,7 +8456,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>364</v>
       </c>
@@ -8373,7 +8485,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>364</v>
       </c>
@@ -8411,7 +8523,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>384</v>
       </c>
@@ -8440,7 +8552,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>389</v>
       </c>
@@ -8469,7 +8581,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1">
+    <row r="107" spans="1:14">
       <c r="D107" t="s">
         <v>389</v>
       </c>
@@ -8489,7 +8601,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>389</v>
       </c>
@@ -8521,7 +8633,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>389</v>
       </c>
@@ -8550,7 +8662,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>389</v>
       </c>
@@ -8579,7 +8691,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>389</v>
       </c>
@@ -8608,7 +8720,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>402</v>
       </c>
@@ -8637,7 +8749,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>407</v>
       </c>
@@ -8675,7 +8787,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>407</v>
       </c>
@@ -8704,7 +8816,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>407</v>
       </c>
@@ -8733,7 +8845,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1">
+    <row r="116" spans="1:17">
       <c r="D116" t="s">
         <v>418</v>
       </c>
@@ -8762,7 +8874,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>422</v>
       </c>
@@ -8809,7 +8921,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>432</v>
       </c>
@@ -8847,7 +8959,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>437</v>
       </c>
@@ -8897,7 +9009,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>444</v>
       </c>
@@ -8938,7 +9050,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1">
+    <row r="121" spans="1:17">
       <c r="D121" t="s">
         <v>444</v>
       </c>
@@ -8970,7 +9082,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
         <v>451</v>
       </c>
@@ -9089,7 +9201,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
         <v>460</v>
       </c>
@@ -9130,7 +9242,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>467</v>
       </c>
@@ -9171,7 +9283,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
         <v>467</v>
       </c>
@@ -9209,7 +9321,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>481</v>
       </c>
@@ -9241,7 +9353,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>481</v>
       </c>
@@ -9273,7 +9385,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>481</v>
       </c>
@@ -9305,7 +9417,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>481</v>
       </c>
@@ -9337,7 +9449,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>481</v>
       </c>
@@ -9366,7 +9478,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>481</v>
       </c>
@@ -9398,7 +9510,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>481</v>
       </c>
@@ -9427,7 +9539,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>506</v>
       </c>
@@ -9459,7 +9571,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>506</v>
       </c>
@@ -9497,7 +9609,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>506</v>
       </c>
@@ -9535,7 +9647,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1">
+    <row r="139" spans="1:14">
       <c r="A139" s="10" t="s">
         <v>506</v>
       </c>
@@ -9576,7 +9688,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>518</v>
       </c>
@@ -9617,7 +9729,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>524</v>
       </c>
@@ -9655,7 +9767,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -9687,7 +9799,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>524</v>
       </c>
@@ -9716,7 +9828,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>524</v>
       </c>
@@ -9745,7 +9857,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="D145" t="s">
         <v>524</v>
       </c>
@@ -9768,7 +9880,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>524</v>
       </c>
@@ -9800,7 +9912,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>524</v>
       </c>
@@ -9832,7 +9944,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>524</v>
       </c>
@@ -9849,7 +9961,7 @@
         <v>553</v>
       </c>
       <c r="F148" t="s">
-        <v>554</v>
+        <v>1068</v>
       </c>
       <c r="G148" t="s">
         <v>919</v>
@@ -9872,8 +9984,17 @@
       <c r="N148" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" hidden="1">
+      <c r="O148" t="s">
+        <v>524</v>
+      </c>
+      <c r="P148" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>524</v>
       </c>
@@ -9905,7 +10026,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>524</v>
       </c>
@@ -9937,7 +10058,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>524</v>
       </c>
@@ -9978,7 +10099,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>524</v>
       </c>
@@ -10007,7 +10128,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>716</v>
       </c>
@@ -10054,7 +10175,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>587</v>
       </c>
@@ -10083,7 +10204,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>587</v>
       </c>
@@ -10112,7 +10233,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>587</v>
       </c>
@@ -10141,7 +10262,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="D157" t="s">
         <v>587</v>
       </c>
@@ -10164,7 +10285,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>587</v>
       </c>
@@ -10196,7 +10317,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>607</v>
       </c>
@@ -10225,7 +10346,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>607</v>
       </c>
@@ -10254,7 +10375,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1">
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
         <v>616</v>
       </c>
@@ -10283,7 +10404,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1">
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
         <v>621</v>
       </c>
@@ -10348,7 +10469,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1">
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
         <v>626</v>
       </c>
@@ -10380,7 +10501,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1">
+    <row r="164" spans="1:23">
       <c r="D164" t="s">
         <v>626</v>
       </c>
@@ -10403,7 +10524,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1">
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
         <v>626</v>
       </c>
@@ -10432,7 +10553,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1">
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -10464,7 +10585,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1">
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
         <v>626</v>
       </c>
@@ -10496,7 +10617,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1">
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
         <v>626</v>
       </c>
@@ -10534,7 +10655,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1">
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
         <v>477</v>
       </c>
@@ -10581,7 +10702,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1">
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
         <v>477</v>
       </c>
@@ -10619,7 +10740,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1">
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
         <v>477</v>
       </c>
@@ -10648,7 +10769,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1">
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
         <v>649</v>
       </c>
@@ -10680,7 +10801,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1">
+    <row r="173" spans="1:23">
       <c r="D173" t="s">
         <v>649</v>
       </c>
@@ -10703,7 +10824,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1">
+    <row r="174" spans="1:23">
       <c r="D174" t="s">
         <v>649</v>
       </c>
@@ -10726,7 +10847,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1">
+    <row r="175" spans="1:23">
       <c r="A175" t="s">
         <v>669</v>
       </c>
@@ -10746,7 +10867,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1">
+    <row r="176" spans="1:23">
       <c r="A176" t="s">
         <v>672</v>
       </c>
@@ -10766,7 +10887,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1">
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>675</v>
       </c>
@@ -10783,7 +10904,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1">
+    <row r="178" spans="1:14">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -10812,7 +10933,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1">
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>607</v>
       </c>
@@ -10841,7 +10962,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>732</v>
       </c>
@@ -10879,7 +11000,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1">
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>736</v>
       </c>
@@ -10908,7 +11029,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>742</v>
       </c>
@@ -10937,7 +11058,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1">
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>749</v>
       </c>
@@ -10975,7 +11096,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1">
+    <row r="184" spans="1:14">
       <c r="D184" t="s">
         <v>1009</v>
       </c>
@@ -11007,7 +11128,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1">
+    <row r="185" spans="1:14">
       <c r="D185" t="s">
         <v>760</v>
       </c>
@@ -11030,7 +11151,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1">
+    <row r="186" spans="1:14">
       <c r="D186" t="s">
         <v>760</v>
       </c>
@@ -11053,7 +11174,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1">
+    <row r="187" spans="1:14">
       <c r="D187" t="s">
         <v>760</v>
       </c>
@@ -11076,7 +11197,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1">
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>767</v>
       </c>
@@ -11108,7 +11229,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1">
+    <row r="189" spans="1:14">
       <c r="D189" t="s">
         <v>477</v>
       </c>
@@ -11137,7 +11258,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1">
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>783</v>
       </c>
@@ -11166,7 +11287,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1">
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>788</v>
       </c>
@@ -11195,7 +11316,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1">
+    <row r="192" spans="1:14">
       <c r="D192" t="s">
         <v>569</v>
       </c>
@@ -11218,7 +11339,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="193" spans="4:10" hidden="1">
+    <row r="193" spans="4:10">
       <c r="D193" t="s">
         <v>569</v>
       </c>
@@ -11241,7 +11362,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="194" spans="4:10" hidden="1">
+    <row r="194" spans="4:10">
       <c r="D194" t="s">
         <v>569</v>
       </c>
@@ -11264,7 +11385,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="4:10" hidden="1">
+    <row r="195" spans="4:10">
       <c r="D195" t="s">
         <v>569</v>
       </c>
@@ -11287,7 +11408,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="196" spans="4:10" hidden="1">
+    <row r="196" spans="4:10">
       <c r="D196" t="s">
         <v>569</v>
       </c>
@@ -11310,7 +11431,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="197" spans="4:10" hidden="1">
+    <row r="197" spans="4:10">
       <c r="D197" t="s">
         <v>569</v>
       </c>
@@ -11333,7 +11454,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="4:10" hidden="1">
+    <row r="198" spans="4:10">
       <c r="D198" t="s">
         <v>569</v>
       </c>
@@ -11356,7 +11477,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="199" spans="4:10" hidden="1">
+    <row r="199" spans="4:10">
       <c r="D199" t="s">
         <v>569</v>
       </c>
@@ -11379,7 +11500,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="200" spans="4:10" hidden="1">
+    <row r="200" spans="4:10">
       <c r="D200" t="s">
         <v>569</v>
       </c>
@@ -11402,7 +11523,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="201" spans="4:10" hidden="1">
+    <row r="201" spans="4:10">
       <c r="D201" t="s">
         <v>569</v>
       </c>
@@ -11425,7 +11546,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="202" spans="4:10" hidden="1">
+    <row r="202" spans="4:10">
       <c r="D202" t="s">
         <v>569</v>
       </c>
@@ -11448,7 +11569,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="203" spans="4:10" hidden="1">
+    <row r="203" spans="4:10">
       <c r="D203" t="s">
         <v>569</v>
       </c>
@@ -11471,7 +11592,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="204" spans="4:10" hidden="1">
+    <row r="204" spans="4:10">
       <c r="D204" t="s">
         <v>569</v>
       </c>
@@ -11494,7 +11615,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="4:10" hidden="1">
+    <row r="205" spans="4:10">
       <c r="D205" t="s">
         <v>569</v>
       </c>
@@ -11517,7 +11638,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="206" spans="4:10" hidden="1">
+    <row r="206" spans="4:10">
       <c r="D206" t="s">
         <v>569</v>
       </c>
@@ -11540,7 +11661,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="207" spans="4:10" hidden="1">
+    <row r="207" spans="4:10">
       <c r="D207" t="s">
         <v>569</v>
       </c>
@@ -11563,7 +11684,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="208" spans="4:10" hidden="1">
+    <row r="208" spans="4:10">
       <c r="D208" t="s">
         <v>569</v>
       </c>
@@ -11586,7 +11707,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1">
+    <row r="209" spans="1:14">
       <c r="D209" t="s">
         <v>569</v>
       </c>
@@ -11609,7 +11730,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1">
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>569</v>
       </c>
@@ -11641,7 +11762,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1">
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>569</v>
       </c>
@@ -11670,7 +11791,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1">
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
         <v>569</v>
       </c>
@@ -11699,7 +11820,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1">
+    <row r="213" spans="1:14">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -11722,7 +11843,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1">
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
         <v>587</v>
       </c>
@@ -11745,7 +11866,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1">
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>808</v>
       </c>
@@ -11774,7 +11895,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1">
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>736</v>
       </c>
@@ -11803,7 +11924,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1">
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
         <v>626</v>
       </c>
@@ -11823,7 +11944,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1">
+    <row r="218" spans="1:14">
       <c r="D218" t="s">
         <v>1008</v>
       </c>
@@ -11843,7 +11964,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1">
+    <row r="219" spans="1:14">
       <c r="D219" t="s">
         <v>822</v>
       </c>
@@ -11863,7 +11984,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1">
+    <row r="220" spans="1:14">
       <c r="D220" t="s">
         <v>825</v>
       </c>
@@ -11883,7 +12004,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1">
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -11903,7 +12024,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1">
+    <row r="222" spans="1:14">
       <c r="D222" t="s">
         <v>467</v>
       </c>
@@ -11926,7 +12047,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1">
+    <row r="223" spans="1:14">
       <c r="D223" t="s">
         <v>460</v>
       </c>
@@ -11946,7 +12067,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1">
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
         <v>835</v>
       </c>
@@ -11975,7 +12096,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1">
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
         <v>838</v>
       </c>
@@ -11995,7 +12116,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1">
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
         <v>841</v>
       </c>
@@ -12024,7 +12145,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1">
+    <row r="227" spans="1:14">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -12044,7 +12165,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1">
+    <row r="228" spans="1:14">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -12064,7 +12185,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1">
+    <row r="229" spans="1:14">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -12084,7 +12205,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1">
+    <row r="230" spans="1:14">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -12104,7 +12225,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1">
+    <row r="231" spans="1:14">
       <c r="A231" s="10" t="s">
         <v>407</v>
       </c>
@@ -12133,7 +12254,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1">
+    <row r="232" spans="1:14">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -12153,7 +12274,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1">
+    <row r="233" spans="1:14">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -12173,7 +12294,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1">
+    <row r="234" spans="1:14">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -12193,7 +12314,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1">
+    <row r="235" spans="1:14">
       <c r="D235" t="s">
         <v>822</v>
       </c>
@@ -12222,7 +12343,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1">
+    <row r="236" spans="1:14">
       <c r="D236" t="s">
         <v>710</v>
       </c>
@@ -12242,7 +12363,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1">
+    <row r="237" spans="1:14">
       <c r="D237" t="s">
         <v>710</v>
       </c>
@@ -12262,7 +12383,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1">
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -12282,7 +12403,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1">
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
         <v>760</v>
       </c>
@@ -12302,7 +12423,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1">
+    <row r="240" spans="1:14">
       <c r="D240" t="s">
         <v>506</v>
       </c>
@@ -12322,7 +12443,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>808</v>
       </c>
@@ -12351,7 +12472,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1">
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>716</v>
       </c>
@@ -12371,7 +12492,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
         <v>716</v>
       </c>
@@ -12391,7 +12512,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1">
+    <row r="244" spans="1:17">
       <c r="D244" t="s">
         <v>774</v>
       </c>
@@ -12411,7 +12532,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1">
+    <row r="245" spans="1:17">
       <c r="D245" t="s">
         <v>888</v>
       </c>
@@ -12431,7 +12552,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1">
+    <row r="246" spans="1:17">
       <c r="D246" t="s">
         <v>833</v>
       </c>
@@ -12454,7 +12575,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1">
+    <row r="247" spans="1:17">
       <c r="D247" t="s">
         <v>895</v>
       </c>
@@ -12474,7 +12595,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1">
+    <row r="248" spans="1:17">
       <c r="D248" t="s">
         <v>672</v>
       </c>
@@ -12494,7 +12615,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1">
+    <row r="249" spans="1:17">
       <c r="D249" t="s">
         <v>930</v>
       </c>
@@ -12517,7 +12638,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="16.5" hidden="1">
+    <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
         <v>1010</v>
       </c>
@@ -12537,7 +12658,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1">
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -12584,7 +12705,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1">
+    <row r="252" spans="1:17">
       <c r="D252" t="s">
         <v>286</v>
       </c>
@@ -12604,7 +12725,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5" hidden="1">
+    <row r="253" spans="1:17" ht="16.5">
       <c r="D253" t="s">
         <v>389</v>
       </c>
@@ -12624,7 +12745,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1">
+    <row r="254" spans="1:17">
       <c r="D254" t="s">
         <v>524</v>
       </c>
@@ -12644,7 +12765,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1">
+    <row r="255" spans="1:17">
       <c r="D255" t="s">
         <v>477</v>
       </c>
@@ -12664,7 +12785,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1">
+    <row r="256" spans="1:17">
       <c r="D256" t="s">
         <v>364</v>
       </c>
@@ -12684,7 +12805,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="D257" t="s">
         <v>46</v>
       </c>
@@ -12704,7 +12825,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10">
       <c r="D258" t="s">
         <v>524</v>
       </c>
@@ -12724,7 +12845,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="D259" t="s">
         <v>930</v>
       </c>
@@ -12744,7 +12865,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1">
+    <row r="260" spans="1:10">
       <c r="D260" t="s">
         <v>930</v>
       </c>
@@ -12767,7 +12888,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1">
+    <row r="261" spans="1:10">
       <c r="D261" t="s">
         <v>115</v>
       </c>
@@ -12787,7 +12908,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10">
       <c r="D262" t="s">
         <v>930</v>
       </c>
@@ -12807,7 +12928,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10">
       <c r="D263" t="s">
         <v>838</v>
       </c>
@@ -12827,7 +12948,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="D264" t="s">
         <v>987</v>
       </c>
@@ -12847,7 +12968,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10">
       <c r="D265" t="s">
         <v>569</v>
       </c>
@@ -12870,7 +12991,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10">
       <c r="D266" t="s">
         <v>229</v>
       </c>
@@ -12887,7 +13008,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>322</v>
       </c>
@@ -12916,7 +13037,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>418</v>
       </c>
@@ -12945,7 +13066,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>60</v>
       </c>
@@ -12977,7 +13098,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>69</v>
       </c>
@@ -13006,7 +13127,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10">
       <c r="D271" t="s">
         <v>1031</v>
       </c>
@@ -13017,7 +13138,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -13040,7 +13161,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="273" spans="4:10" hidden="1">
+    <row r="273" spans="4:10">
       <c r="D273" t="s">
         <v>569</v>
       </c>
@@ -13060,7 +13181,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="4:10" hidden="1">
+    <row r="274" spans="4:10">
       <c r="D274" t="s">
         <v>716</v>
       </c>
@@ -13080,7 +13201,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="275" spans="4:10" hidden="1">
+    <row r="275" spans="4:10">
       <c r="D275" t="s">
         <v>1056</v>
       </c>
@@ -13097,7 +13218,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="276" spans="4:10" hidden="1">
+    <row r="276" spans="4:10">
       <c r="D276" t="s">
         <v>1056</v>
       </c>
@@ -13114,7 +13235,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="277" spans="4:10" hidden="1">
+    <row r="277" spans="4:10">
       <c r="D277" t="s">
         <v>1063</v>
       </c>
@@ -13131,7 +13252,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="278" spans="4:10" hidden="1">
+    <row r="278" spans="4:10">
       <c r="D278" t="s">
         <v>587</v>
       </c>
@@ -13154,219 +13275,247 @@
         <v>1066</v>
       </c>
     </row>
+    <row r="279" spans="4:10">
+      <c r="D279" t="s">
+        <v>822</v>
+      </c>
+      <c r="E279" t="s">
+        <v>957</v>
+      </c>
+      <c r="F279" t="s">
+        <v>956</v>
+      </c>
+      <c r="G279" t="s">
+        <v>656</v>
+      </c>
+      <c r="H279" t="s">
+        <v>661</v>
+      </c>
+      <c r="I279" t="s">
+        <v>758</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W278" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="SC9625VB-CE-00CK-9625L"/>
-        <filter val="SC9625VB-CE-00CR-9625L"/>
-        <filter val="SC9625VB-Q-CE-4XCR-9625L"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="120" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="115" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="107" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="106" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="105" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="104" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="98" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="97" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="92" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="81" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F148">
+    <cfRule type="duplicateValues" dxfId="91" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
-    <cfRule type="duplicateValues" dxfId="80" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="79" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="75" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="74" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="73" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F234 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="99"/>
+  <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F147 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F278 F149:F234 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="79" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="95"/>
+  <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="78" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="86"/>
+  <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="76" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F259 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="80"/>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F259 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="75" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F260 F20:F191 F1:F5 F7:F18 F273 F277:F1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="78"/>
+  <conditionalFormatting sqref="F263 F266:F271 F210:F234 F236:F260 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="74" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="64" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265">
-    <cfRule type="duplicateValues" dxfId="63" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="77"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F266:F271 F210:F234 F236:F261 F20:F191 F1:F5 F7:F18 F273 F277:F1048576 F263:F264">
-    <cfRule type="duplicateValues" dxfId="62" priority="67"/>
+  <conditionalFormatting sqref="F266:F271 F210:F234 F236:F261 F20:F147 F1:F5 F7:F18 F273 F277:F278 F263:F264 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="71" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="61" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274">
-    <cfRule type="duplicateValues" dxfId="59" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F276">
-    <cfRule type="duplicateValues" dxfId="57" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
-    <cfRule type="duplicateValues" dxfId="55" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="54" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
-    <cfRule type="duplicateValues" dxfId="51" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="50" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="49" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="42" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="37" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="31" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="17" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="10" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q148">
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F279">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE9246-891A-4356-86F1-3125F57BB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB3105-FBF0-4A90-86B5-75E698D1E1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5053,7 +5053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13296,23 +13296,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="131" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="126" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="119"/>
     <cfRule type="duplicateValues" dxfId="124" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
     <cfRule type="duplicateValues" dxfId="118" priority="55"/>
@@ -13324,12 +13325,12 @@
     <cfRule type="duplicateValues" dxfId="116" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="115" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="109" priority="133"/>
@@ -13337,22 +13338,22 @@
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="108" priority="144"/>
     <cfRule type="duplicateValues" dxfId="107" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="103" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
     <cfRule type="duplicateValues" dxfId="92" priority="22"/>
@@ -13365,9 +13366,9 @@
     <cfRule type="duplicateValues" dxfId="89" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="88" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
     <cfRule type="duplicateValues" dxfId="85" priority="102"/>
@@ -13382,8 +13383,8 @@
     <cfRule type="duplicateValues" dxfId="82" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="81" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F147 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F278 F149:F234 F280:F1048576">
     <cfRule type="duplicateValues" dxfId="79" priority="110"/>
@@ -13411,111 +13412,111 @@
     <cfRule type="duplicateValues" dxfId="71" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="70" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274">
-    <cfRule type="duplicateValues" dxfId="68" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F276">
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F279">
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
-    <cfRule type="duplicateValues" dxfId="64" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="63" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
-    <cfRule type="duplicateValues" dxfId="60" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="59" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="58" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="51" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="46" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="40" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="26" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="19" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="13" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F279">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技（上海）股份有限公司\交付体系\04OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DB3105-FBF0-4A90-86B5-75E698D1E1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE359EC-FB2D-4125-A82F-4174C7EE23BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="1070">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2726,9 +2726,6 @@
     <t>SC9684TS-Q-DB-4XAR-9684</t>
   </si>
   <si>
-    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
-  </si>
-  <si>
     <t>NM.SC60104</t>
   </si>
   <si>
@@ -3281,6 +3278,12 @@
   </si>
   <si>
     <t>SC4643VB-P-Q-DE-40AK-4643</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-EC-Q-AH-9642</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-E-Q-AH-9642</t>
   </si>
 </sst>
 </file>
@@ -5053,7 +5056,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5303,7 +5306,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -5312,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -5427,7 +5430,7 @@
         <v>49</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -5488,7 +5491,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -5511,7 +5514,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -5590,7 +5593,7 @@
         <v>679</v>
       </c>
       <c r="J13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -5601,7 +5604,7 @@
         <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -5687,7 +5690,7 @@
         <v>84</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -5821,13 +5824,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G19" t="s">
+        <v>898</v>
+      </c>
+      <c r="H19" t="s">
         <v>899</v>
-      </c>
-      <c r="H19" t="s">
-        <v>900</v>
       </c>
       <c r="I19" t="s">
         <v>679</v>
@@ -5862,7 +5865,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G20" t="s">
         <v>658</v>
@@ -5894,7 +5897,7 @@
         <v>726</v>
       </c>
       <c r="G21" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -5984,7 +5987,7 @@
         <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -6072,7 +6075,7 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6208,7 +6211,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -6336,10 +6339,10 @@
         <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G35" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -6409,7 +6412,7 @@
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -6459,7 +6462,7 @@
         <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -6491,7 +6494,7 @@
         <v>662</v>
       </c>
       <c r="G39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -6509,7 +6512,7 @@
         <v>181</v>
       </c>
       <c r="N39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O39" t="s">
         <v>160</v>
@@ -6518,7 +6521,7 @@
         <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -6541,7 +6544,7 @@
         <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -6573,7 +6576,7 @@
         <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -6605,7 +6608,7 @@
         <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -6641,7 +6644,7 @@
         <v>664</v>
       </c>
       <c r="T42" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -6661,10 +6664,10 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G43" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -6693,7 +6696,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
@@ -6725,7 +6728,7 @@
         <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -6740,10 +6743,10 @@
         <v>196</v>
       </c>
       <c r="M45" t="s">
+        <v>932</v>
+      </c>
+      <c r="N45" t="s">
         <v>933</v>
-      </c>
-      <c r="N45" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -6766,7 +6769,7 @@
         <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -6778,22 +6781,22 @@
         <v>202</v>
       </c>
       <c r="L46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M46" t="s">
         <v>203</v>
       </c>
       <c r="N46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P46" t="s">
         <v>203</v>
       </c>
       <c r="Q46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -6833,7 +6836,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
@@ -6842,7 +6845,7 @@
         <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G48" t="s">
         <v>658</v>
@@ -6900,10 +6903,10 @@
         <v>205</v>
       </c>
       <c r="E50" t="s">
+        <v>904</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>905</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>906</v>
       </c>
       <c r="G50" t="s">
         <v>659</v>
@@ -7031,7 +7034,7 @@
         <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G54" t="s">
         <v>658</v>
@@ -7141,7 +7144,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G58" t="s">
         <v>659</v>
@@ -7383,7 +7386,7 @@
         <v>679</v>
       </c>
       <c r="J68" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7406,7 +7409,7 @@
         <v>679</v>
       </c>
       <c r="J69" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -7417,7 +7420,7 @@
         <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D70" t="s">
         <v>260</v>
@@ -7667,7 +7670,7 @@
         <v>285</v>
       </c>
       <c r="F78" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G78" t="s">
         <v>658</v>
@@ -7745,16 +7748,16 @@
         <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D81" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E81" t="s">
+        <v>964</v>
+      </c>
+      <c r="F81" t="s">
         <v>965</v>
-      </c>
-      <c r="F81" t="s">
-        <v>966</v>
       </c>
       <c r="G81" t="s">
         <v>659</v>
@@ -7830,7 +7833,7 @@
         <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G83" t="s">
         <v>658</v>
@@ -7938,7 +7941,7 @@
         <v>661</v>
       </c>
       <c r="I86" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -8142,7 +8145,7 @@
         <v>398</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -8194,7 +8197,7 @@
         <v>343</v>
       </c>
       <c r="F94" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G94" t="s">
         <v>656</v>
@@ -8287,7 +8290,7 @@
         <v>355</v>
       </c>
       <c r="F97" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G97" t="s">
         <v>656</v>
@@ -8520,7 +8523,7 @@
         <v>382</v>
       </c>
       <c r="N104" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -8705,10 +8708,10 @@
         <v>389</v>
       </c>
       <c r="E111" t="s">
+        <v>945</v>
+      </c>
+      <c r="F111" t="s">
         <v>946</v>
-      </c>
-      <c r="F111" t="s">
-        <v>947</v>
       </c>
       <c r="G111" t="s">
         <v>656</v>
@@ -8784,7 +8787,7 @@
         <v>72</v>
       </c>
       <c r="N113" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -8871,7 +8874,7 @@
         <v>420</v>
       </c>
       <c r="N116" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -8979,7 +8982,7 @@
         <v>441</v>
       </c>
       <c r="G119" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H119" t="s">
         <v>66</v>
@@ -9032,7 +9035,7 @@
         <v>657</v>
       </c>
       <c r="H120" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I120" t="s">
         <v>695</v>
@@ -9058,13 +9061,13 @@
         <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G121" t="s">
+        <v>898</v>
+      </c>
+      <c r="H121" t="s">
         <v>899</v>
-      </c>
-      <c r="H121" t="s">
-        <v>900</v>
       </c>
       <c r="I121" t="s">
         <v>695</v>
@@ -9134,16 +9137,16 @@
         <v>459</v>
       </c>
       <c r="G123" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H123" t="s">
         <v>1006</v>
-      </c>
-      <c r="H123" t="s">
-        <v>1007</v>
       </c>
       <c r="I123" t="s">
         <v>681</v>
       </c>
       <c r="J123" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L123" t="s">
         <v>455</v>
@@ -9152,7 +9155,7 @@
         <v>456</v>
       </c>
       <c r="N123" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9166,16 +9169,16 @@
         <v>877</v>
       </c>
       <c r="G124" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H124" t="s">
         <v>1006</v>
-      </c>
-      <c r="H124" t="s">
-        <v>1007</v>
       </c>
       <c r="I124" t="s">
         <v>681</v>
       </c>
       <c r="J124" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9183,22 +9186,22 @@
         <v>455</v>
       </c>
       <c r="E125" t="s">
+        <v>937</v>
+      </c>
+      <c r="F125" t="s">
         <v>938</v>
       </c>
-      <c r="F125" t="s">
-        <v>939</v>
-      </c>
       <c r="G125" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H125" t="s">
         <v>1006</v>
-      </c>
-      <c r="H125" t="s">
-        <v>1007</v>
       </c>
       <c r="I125" t="s">
         <v>681</v>
       </c>
       <c r="J125" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9221,7 +9224,7 @@
         <v>464</v>
       </c>
       <c r="G126" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H126" t="s">
         <v>66</v>
@@ -9262,16 +9265,16 @@
         <v>471</v>
       </c>
       <c r="G127" t="s">
+        <v>898</v>
+      </c>
+      <c r="H127" t="s">
         <v>899</v>
-      </c>
-      <c r="H127" t="s">
-        <v>900</v>
       </c>
       <c r="I127" t="s">
         <v>695</v>
       </c>
       <c r="J127" t="s">
-        <v>891</v>
+        <v>1069</v>
       </c>
       <c r="L127" t="s">
         <v>467</v>
@@ -9280,7 +9283,7 @@
         <v>746</v>
       </c>
       <c r="N127" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9311,6 +9314,9 @@
       <c r="I128" t="s">
         <v>695</v>
       </c>
+      <c r="J128" t="s">
+        <v>1068</v>
+      </c>
       <c r="L128" t="s">
         <v>467</v>
       </c>
@@ -9341,10 +9347,10 @@
         <v>485</v>
       </c>
       <c r="G129" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H129" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I129" t="s">
         <v>681</v>
@@ -9373,10 +9379,10 @@
         <v>489</v>
       </c>
       <c r="G130" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H130" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I130" t="s">
         <v>681</v>
@@ -9405,10 +9411,10 @@
         <v>493</v>
       </c>
       <c r="G131" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H131" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I131" t="s">
         <v>681</v>
@@ -9437,10 +9443,10 @@
         <v>782</v>
       </c>
       <c r="G132" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H132" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I132" t="s">
         <v>681</v>
@@ -9498,10 +9504,10 @@
         <v>499</v>
       </c>
       <c r="G134" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H134" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I134" t="s">
         <v>681</v>
@@ -9559,10 +9565,10 @@
         <v>510</v>
       </c>
       <c r="G136" t="s">
+        <v>918</v>
+      </c>
+      <c r="H136" t="s">
         <v>919</v>
-      </c>
-      <c r="H136" t="s">
-        <v>920</v>
       </c>
       <c r="I136" t="s">
         <v>696</v>
@@ -9576,10 +9582,10 @@
         <v>506</v>
       </c>
       <c r="B137" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C137" t="s">
         <v>1039</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1040</v>
       </c>
       <c r="D137" t="s">
         <v>506</v>
@@ -9614,10 +9620,10 @@
         <v>506</v>
       </c>
       <c r="B138" t="s">
+        <v>997</v>
+      </c>
+      <c r="C138" t="s">
         <v>998</v>
-      </c>
-      <c r="C138" t="s">
-        <v>999</v>
       </c>
       <c r="D138" t="s">
         <v>506</v>
@@ -9652,10 +9658,10 @@
         <v>506</v>
       </c>
       <c r="B139" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>1041</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>1042</v>
       </c>
       <c r="D139" t="s">
         <v>506</v>
@@ -9667,10 +9673,10 @@
         <v>667</v>
       </c>
       <c r="G139" t="s">
+        <v>918</v>
+      </c>
+      <c r="H139" t="s">
         <v>919</v>
-      </c>
-      <c r="H139" t="s">
-        <v>920</v>
       </c>
       <c r="I139" t="s">
         <v>696</v>
@@ -9685,7 +9691,7 @@
         <v>507</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -9708,10 +9714,10 @@
         <v>522</v>
       </c>
       <c r="G140" t="s">
+        <v>918</v>
+      </c>
+      <c r="H140" t="s">
         <v>919</v>
-      </c>
-      <c r="H140" t="s">
-        <v>920</v>
       </c>
       <c r="I140" t="s">
         <v>696</v>
@@ -9723,10 +9729,10 @@
         <v>518</v>
       </c>
       <c r="M140" t="s">
+        <v>951</v>
+      </c>
+      <c r="N140" t="s">
         <v>952</v>
-      </c>
-      <c r="N140" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -9868,10 +9874,10 @@
         <v>766</v>
       </c>
       <c r="G145" t="s">
+        <v>918</v>
+      </c>
+      <c r="H145" t="s">
         <v>919</v>
-      </c>
-      <c r="H145" t="s">
-        <v>920</v>
       </c>
       <c r="I145" t="s">
         <v>698</v>
@@ -9900,10 +9906,10 @@
         <v>545</v>
       </c>
       <c r="G146" t="s">
+        <v>918</v>
+      </c>
+      <c r="H146" t="s">
         <v>919</v>
-      </c>
-      <c r="H146" t="s">
-        <v>920</v>
       </c>
       <c r="I146" t="s">
         <v>698</v>
@@ -9932,10 +9938,10 @@
         <v>550</v>
       </c>
       <c r="G147" t="s">
+        <v>918</v>
+      </c>
+      <c r="H147" t="s">
         <v>919</v>
-      </c>
-      <c r="H147" t="s">
-        <v>920</v>
       </c>
       <c r="I147" t="s">
         <v>699</v>
@@ -9961,13 +9967,13 @@
         <v>553</v>
       </c>
       <c r="F148" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G148" t="s">
+        <v>918</v>
+      </c>
+      <c r="H148" t="s">
         <v>919</v>
-      </c>
-      <c r="H148" t="s">
-        <v>920</v>
       </c>
       <c r="I148" t="s">
         <v>699</v>
@@ -9979,10 +9985,10 @@
         <v>524</v>
       </c>
       <c r="M148" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N148" t="s">
         <v>1037</v>
-      </c>
-      <c r="N148" t="s">
-        <v>1038</v>
       </c>
       <c r="O148" t="s">
         <v>524</v>
@@ -9999,10 +10005,10 @@
         <v>524</v>
       </c>
       <c r="B149" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C149" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D149" t="s">
         <v>524</v>
@@ -10014,10 +10020,10 @@
         <v>557</v>
       </c>
       <c r="G149" t="s">
+        <v>918</v>
+      </c>
+      <c r="H149" t="s">
         <v>919</v>
-      </c>
-      <c r="H149" t="s">
-        <v>920</v>
       </c>
       <c r="I149" t="s">
         <v>699</v>
@@ -10031,10 +10037,10 @@
         <v>524</v>
       </c>
       <c r="B150" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C150" t="s">
         <v>1034</v>
-      </c>
-      <c r="C150" t="s">
-        <v>1035</v>
       </c>
       <c r="D150" t="s">
         <v>524</v>
@@ -10046,10 +10052,10 @@
         <v>559</v>
       </c>
       <c r="G150" t="s">
+        <v>918</v>
+      </c>
+      <c r="H150" t="s">
         <v>919</v>
-      </c>
-      <c r="H150" t="s">
-        <v>920</v>
       </c>
       <c r="I150" t="s">
         <v>699</v>
@@ -10078,10 +10084,10 @@
         <v>564</v>
       </c>
       <c r="G151" t="s">
+        <v>918</v>
+      </c>
+      <c r="H151" t="s">
         <v>919</v>
-      </c>
-      <c r="H151" t="s">
-        <v>920</v>
       </c>
       <c r="I151" t="s">
         <v>699</v>
@@ -10172,7 +10178,7 @@
         <v>717</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -10305,10 +10311,10 @@
         <v>605</v>
       </c>
       <c r="G158" t="s">
+        <v>918</v>
+      </c>
+      <c r="H158" t="s">
         <v>919</v>
-      </c>
-      <c r="H158" t="s">
-        <v>920</v>
       </c>
       <c r="I158" t="s">
         <v>681</v>
@@ -10457,7 +10463,7 @@
         <v>287</v>
       </c>
       <c r="T162" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="U162" t="s">
         <v>621</v>
@@ -10699,7 +10705,7 @@
         <v>478</v>
       </c>
       <c r="Q169" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -10710,7 +10716,7 @@
         <v>644</v>
       </c>
       <c r="C170" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D170" t="s">
         <v>477</v>
@@ -10722,10 +10728,10 @@
         <v>642</v>
       </c>
       <c r="G170" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H170" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I170" t="s">
         <v>695</v>
@@ -10812,10 +10818,10 @@
         <v>654</v>
       </c>
       <c r="G173" t="s">
+        <v>918</v>
+      </c>
+      <c r="H173" t="s">
         <v>919</v>
-      </c>
-      <c r="H173" t="s">
-        <v>920</v>
       </c>
       <c r="I173" t="s">
         <v>681</v>
@@ -10835,10 +10841,10 @@
         <v>655</v>
       </c>
       <c r="G174" t="s">
+        <v>918</v>
+      </c>
+      <c r="H174" t="s">
         <v>919</v>
-      </c>
-      <c r="H174" t="s">
-        <v>920</v>
       </c>
       <c r="I174" t="s">
         <v>681</v>
@@ -10858,10 +10864,10 @@
         <v>671</v>
       </c>
       <c r="G175" t="s">
+        <v>922</v>
+      </c>
+      <c r="H175" t="s">
         <v>923</v>
-      </c>
-      <c r="H175" t="s">
-        <v>924</v>
       </c>
       <c r="I175" t="s">
         <v>691</v>
@@ -10878,10 +10884,10 @@
         <v>674</v>
       </c>
       <c r="G176" t="s">
+        <v>922</v>
+      </c>
+      <c r="H176" t="s">
         <v>923</v>
-      </c>
-      <c r="H176" t="s">
-        <v>924</v>
       </c>
       <c r="I176" t="s">
         <v>691</v>
@@ -10898,10 +10904,10 @@
         <v>677</v>
       </c>
       <c r="G177" t="s">
+        <v>922</v>
+      </c>
+      <c r="H177" t="s">
         <v>923</v>
-      </c>
-      <c r="H177" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -10979,7 +10985,7 @@
         <v>735</v>
       </c>
       <c r="F180" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G180" t="s">
         <v>659</v>
@@ -10997,7 +11003,7 @@
         <v>735</v>
       </c>
       <c r="N180" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -11069,7 +11075,7 @@
         <v>751</v>
       </c>
       <c r="D183" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E183" t="s">
         <v>752</v>
@@ -11093,12 +11099,12 @@
         <v>750</v>
       </c>
       <c r="N183" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="184" spans="1:14">
       <c r="D184" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E184" t="s">
         <v>754</v>
@@ -11119,7 +11125,7 @@
         <v>759</v>
       </c>
       <c r="L184" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M184" t="s">
         <v>754</v>
@@ -11139,7 +11145,7 @@
         <v>762</v>
       </c>
       <c r="G185" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H185" t="s">
         <v>66</v>
@@ -11162,7 +11168,7 @@
         <v>764</v>
       </c>
       <c r="G186" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H186" t="s">
         <v>66</v>
@@ -11179,13 +11185,13 @@
         <v>760</v>
       </c>
       <c r="E187" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F187" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G187" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H187" t="s">
         <v>66</v>
@@ -11217,10 +11223,10 @@
         <v>771</v>
       </c>
       <c r="G188" t="s">
+        <v>918</v>
+      </c>
+      <c r="H188" t="s">
         <v>919</v>
-      </c>
-      <c r="H188" t="s">
-        <v>920</v>
       </c>
       <c r="I188" t="s">
         <v>681</v>
@@ -11255,7 +11261,7 @@
         <v>777</v>
       </c>
       <c r="N189" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -11278,10 +11284,10 @@
         <v>787</v>
       </c>
       <c r="G190" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H190" t="s">
         <v>1050</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1051</v>
       </c>
       <c r="I190" t="s">
         <v>690</v>
@@ -11327,10 +11333,10 @@
         <v>571</v>
       </c>
       <c r="G192" t="s">
+        <v>918</v>
+      </c>
+      <c r="H192" t="s">
         <v>919</v>
-      </c>
-      <c r="H192" t="s">
-        <v>920</v>
       </c>
       <c r="I192" t="s">
         <v>700</v>
@@ -11350,10 +11356,10 @@
         <v>578</v>
       </c>
       <c r="G193" t="s">
+        <v>918</v>
+      </c>
+      <c r="H193" t="s">
         <v>919</v>
-      </c>
-      <c r="H193" t="s">
-        <v>920</v>
       </c>
       <c r="I193" t="s">
         <v>700</v>
@@ -11373,10 +11379,10 @@
         <v>794</v>
       </c>
       <c r="G194" t="s">
+        <v>918</v>
+      </c>
+      <c r="H194" t="s">
         <v>919</v>
-      </c>
-      <c r="H194" t="s">
-        <v>920</v>
       </c>
       <c r="I194" t="s">
         <v>700</v>
@@ -11396,10 +11402,10 @@
         <v>795</v>
       </c>
       <c r="G195" t="s">
+        <v>918</v>
+      </c>
+      <c r="H195" t="s">
         <v>919</v>
-      </c>
-      <c r="H195" t="s">
-        <v>920</v>
       </c>
       <c r="I195" t="s">
         <v>700</v>
@@ -11419,10 +11425,10 @@
         <v>796</v>
       </c>
       <c r="G196" t="s">
+        <v>918</v>
+      </c>
+      <c r="H196" t="s">
         <v>919</v>
-      </c>
-      <c r="H196" t="s">
-        <v>920</v>
       </c>
       <c r="I196" t="s">
         <v>700</v>
@@ -11442,10 +11448,10 @@
         <v>797</v>
       </c>
       <c r="G197" t="s">
+        <v>918</v>
+      </c>
+      <c r="H197" t="s">
         <v>919</v>
-      </c>
-      <c r="H197" t="s">
-        <v>920</v>
       </c>
       <c r="I197" t="s">
         <v>700</v>
@@ -11465,10 +11471,10 @@
         <v>798</v>
       </c>
       <c r="G198" t="s">
+        <v>918</v>
+      </c>
+      <c r="H198" t="s">
         <v>919</v>
-      </c>
-      <c r="H198" t="s">
-        <v>920</v>
       </c>
       <c r="I198" t="s">
         <v>700</v>
@@ -11488,10 +11494,10 @@
         <v>573</v>
       </c>
       <c r="G199" t="s">
+        <v>918</v>
+      </c>
+      <c r="H199" t="s">
         <v>919</v>
-      </c>
-      <c r="H199" t="s">
-        <v>920</v>
       </c>
       <c r="I199" t="s">
         <v>700</v>
@@ -11511,10 +11517,10 @@
         <v>799</v>
       </c>
       <c r="G200" t="s">
+        <v>918</v>
+      </c>
+      <c r="H200" t="s">
         <v>919</v>
-      </c>
-      <c r="H200" t="s">
-        <v>920</v>
       </c>
       <c r="I200" t="s">
         <v>700</v>
@@ -11534,10 +11540,10 @@
         <v>579</v>
       </c>
       <c r="G201" t="s">
+        <v>918</v>
+      </c>
+      <c r="H201" t="s">
         <v>919</v>
-      </c>
-      <c r="H201" t="s">
-        <v>920</v>
       </c>
       <c r="I201" t="s">
         <v>700</v>
@@ -11557,10 +11563,10 @@
         <v>580</v>
       </c>
       <c r="G202" t="s">
+        <v>918</v>
+      </c>
+      <c r="H202" t="s">
         <v>919</v>
-      </c>
-      <c r="H202" t="s">
-        <v>920</v>
       </c>
       <c r="I202" t="s">
         <v>700</v>
@@ -11580,10 +11586,10 @@
         <v>581</v>
       </c>
       <c r="G203" t="s">
+        <v>918</v>
+      </c>
+      <c r="H203" t="s">
         <v>919</v>
-      </c>
-      <c r="H203" t="s">
-        <v>920</v>
       </c>
       <c r="I203" t="s">
         <v>700</v>
@@ -11603,10 +11609,10 @@
         <v>800</v>
       </c>
       <c r="G204" t="s">
+        <v>918</v>
+      </c>
+      <c r="H204" t="s">
         <v>919</v>
-      </c>
-      <c r="H204" t="s">
-        <v>920</v>
       </c>
       <c r="I204" t="s">
         <v>700</v>
@@ -11626,10 +11632,10 @@
         <v>801</v>
       </c>
       <c r="G205" t="s">
+        <v>918</v>
+      </c>
+      <c r="H205" t="s">
         <v>919</v>
-      </c>
-      <c r="H205" t="s">
-        <v>920</v>
       </c>
       <c r="I205" t="s">
         <v>700</v>
@@ -11649,10 +11655,10 @@
         <v>802</v>
       </c>
       <c r="G206" t="s">
+        <v>918</v>
+      </c>
+      <c r="H206" t="s">
         <v>919</v>
-      </c>
-      <c r="H206" t="s">
-        <v>920</v>
       </c>
       <c r="I206" t="s">
         <v>700</v>
@@ -11672,10 +11678,10 @@
         <v>793</v>
       </c>
       <c r="G207" t="s">
+        <v>918</v>
+      </c>
+      <c r="H207" t="s">
         <v>919</v>
-      </c>
-      <c r="H207" t="s">
-        <v>920</v>
       </c>
       <c r="I207" t="s">
         <v>700</v>
@@ -11695,10 +11701,10 @@
         <v>582</v>
       </c>
       <c r="G208" t="s">
+        <v>918</v>
+      </c>
+      <c r="H208" t="s">
         <v>919</v>
-      </c>
-      <c r="H208" t="s">
-        <v>920</v>
       </c>
       <c r="I208" t="s">
         <v>700</v>
@@ -11718,10 +11724,10 @@
         <v>583</v>
       </c>
       <c r="G209" t="s">
+        <v>918</v>
+      </c>
+      <c r="H209" t="s">
         <v>919</v>
-      </c>
-      <c r="H209" t="s">
-        <v>920</v>
       </c>
       <c r="I209" t="s">
         <v>700</v>
@@ -11750,10 +11756,10 @@
         <v>881</v>
       </c>
       <c r="G210" t="s">
+        <v>918</v>
+      </c>
+      <c r="H210" t="s">
         <v>919</v>
-      </c>
-      <c r="H210" t="s">
-        <v>920</v>
       </c>
       <c r="I210" t="s">
         <v>700</v>
@@ -11854,10 +11860,10 @@
         <v>806</v>
       </c>
       <c r="G214" t="s">
+        <v>918</v>
+      </c>
+      <c r="H214" t="s">
         <v>919</v>
-      </c>
-      <c r="H214" t="s">
-        <v>920</v>
       </c>
       <c r="I214" t="s">
         <v>690</v>
@@ -11921,7 +11927,7 @@
         <v>739</v>
       </c>
       <c r="N216" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11946,7 +11952,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="D218" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E218" t="s">
         <v>820</v>
@@ -12035,16 +12041,16 @@
         <v>829</v>
       </c>
       <c r="G222" t="s">
+        <v>898</v>
+      </c>
+      <c r="H222" t="s">
         <v>899</v>
-      </c>
-      <c r="H222" t="s">
-        <v>900</v>
       </c>
       <c r="I222" t="s">
         <v>695</v>
       </c>
       <c r="J222" t="s">
-        <v>891</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -12121,10 +12127,10 @@
         <v>841</v>
       </c>
       <c r="B226" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C226" t="s">
         <v>1017</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1018</v>
       </c>
       <c r="D226" t="s">
         <v>841</v>
@@ -12233,7 +12239,7 @@
         <v>413</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D231" t="s">
         <v>407</v>
@@ -12337,10 +12343,10 @@
         <v>822</v>
       </c>
       <c r="M235" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N235" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12448,10 +12454,10 @@
         <v>808</v>
       </c>
       <c r="B241" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C241" t="s">
         <v>1045</v>
-      </c>
-      <c r="C241" t="s">
-        <v>1046</v>
       </c>
       <c r="D241" t="s">
         <v>716</v>
@@ -12560,30 +12566,30 @@
         <v>834</v>
       </c>
       <c r="F246" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G246" t="s">
+        <v>918</v>
+      </c>
+      <c r="H246" t="s">
         <v>919</v>
-      </c>
-      <c r="H246" t="s">
-        <v>920</v>
       </c>
       <c r="I246" t="s">
         <v>700</v>
       </c>
       <c r="J246" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="247" spans="1:17">
       <c r="D247" t="s">
+        <v>894</v>
+      </c>
+      <c r="E247" t="s">
         <v>895</v>
       </c>
-      <c r="E247" t="s">
-        <v>896</v>
-      </c>
       <c r="F247" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G247" t="s">
         <v>658</v>
@@ -12600,62 +12606,62 @@
         <v>672</v>
       </c>
       <c r="E248" t="s">
+        <v>925</v>
+      </c>
+      <c r="F248" t="s">
         <v>926</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
+        <v>922</v>
+      </c>
+      <c r="H248" t="s">
+        <v>928</v>
+      </c>
+      <c r="I248" t="s">
         <v>927</v>
-      </c>
-      <c r="G248" t="s">
-        <v>923</v>
-      </c>
-      <c r="H248" t="s">
-        <v>929</v>
-      </c>
-      <c r="I248" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="249" spans="1:17">
       <c r="D249" t="s">
+        <v>929</v>
+      </c>
+      <c r="E249" t="s">
         <v>930</v>
       </c>
-      <c r="E249" t="s">
+      <c r="F249" t="s">
         <v>931</v>
       </c>
-      <c r="F249" t="s">
-        <v>932</v>
-      </c>
       <c r="G249" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H249" t="s">
         <v>66</v>
       </c>
       <c r="I249" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J249" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E250" t="s">
+        <v>934</v>
+      </c>
+      <c r="F250" t="s">
         <v>935</v>
       </c>
-      <c r="F250" t="s">
-        <v>936</v>
-      </c>
       <c r="G250" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H250" t="s">
         <v>66</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -12675,7 +12681,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G251" t="s">
         <v>656</v>
@@ -12693,7 +12699,7 @@
         <v>312</v>
       </c>
       <c r="N251" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O251" t="s">
         <v>309</v>
@@ -12702,7 +12708,7 @@
         <v>312</v>
       </c>
       <c r="Q251" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="252" spans="1:17">
@@ -12710,13 +12716,13 @@
         <v>286</v>
       </c>
       <c r="E252" t="s">
+        <v>943</v>
+      </c>
+      <c r="F252" t="s">
         <v>944</v>
       </c>
-      <c r="F252" t="s">
-        <v>945</v>
-      </c>
       <c r="G252" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H252" t="s">
         <v>66</v>
@@ -12750,16 +12756,16 @@
         <v>524</v>
       </c>
       <c r="E254" t="s">
+        <v>947</v>
+      </c>
+      <c r="F254" t="s">
         <v>948</v>
       </c>
-      <c r="F254" t="s">
-        <v>949</v>
-      </c>
       <c r="G254" t="s">
+        <v>918</v>
+      </c>
+      <c r="H254" t="s">
         <v>919</v>
-      </c>
-      <c r="H254" t="s">
-        <v>920</v>
       </c>
       <c r="I254" t="s">
         <v>681</v>
@@ -12773,10 +12779,10 @@
         <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G255" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H255" t="s">
         <v>66</v>
@@ -12790,10 +12796,10 @@
         <v>364</v>
       </c>
       <c r="E256" t="s">
+        <v>953</v>
+      </c>
+      <c r="F256" t="s">
         <v>954</v>
-      </c>
-      <c r="F256" t="s">
-        <v>955</v>
       </c>
       <c r="G256" t="s">
         <v>656</v>
@@ -12810,10 +12816,10 @@
         <v>46</v>
       </c>
       <c r="E257" t="s">
+        <v>957</v>
+      </c>
+      <c r="F257" t="s">
         <v>958</v>
-      </c>
-      <c r="F257" t="s">
-        <v>959</v>
       </c>
       <c r="G257" t="s">
         <v>658</v>
@@ -12830,13 +12836,13 @@
         <v>524</v>
       </c>
       <c r="E258" t="s">
+        <v>959</v>
+      </c>
+      <c r="F258" t="s">
         <v>960</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>961</v>
-      </c>
-      <c r="G258" t="s">
-        <v>962</v>
       </c>
       <c r="H258" t="s">
         <v>66</v>
@@ -12847,13 +12853,13 @@
     </row>
     <row r="259" spans="1:10">
       <c r="D259" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E259" t="s">
+        <v>962</v>
+      </c>
+      <c r="F259" t="s">
         <v>963</v>
-      </c>
-      <c r="F259" t="s">
-        <v>964</v>
       </c>
       <c r="G259" t="s">
         <v>658</v>
@@ -12867,16 +12873,16 @@
     </row>
     <row r="260" spans="1:10">
       <c r="D260" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E260" t="s">
+        <v>967</v>
+      </c>
+      <c r="F260" t="s">
         <v>968</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>969</v>
-      </c>
-      <c r="G260" t="s">
-        <v>970</v>
       </c>
       <c r="H260" t="s">
         <v>66</v>
@@ -12885,7 +12891,7 @@
         <v>680</v>
       </c>
       <c r="J260" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -12893,13 +12899,13 @@
         <v>115</v>
       </c>
       <c r="E261" t="s">
+        <v>980</v>
+      </c>
+      <c r="F261" t="s">
         <v>981</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>982</v>
-      </c>
-      <c r="G261" t="s">
-        <v>983</v>
       </c>
       <c r="H261" t="s">
         <v>66</v>
@@ -12910,16 +12916,16 @@
     </row>
     <row r="262" spans="1:10">
       <c r="D262" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E262" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F262" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G262" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H262" t="s">
         <v>66</v>
@@ -12933,10 +12939,10 @@
         <v>838</v>
       </c>
       <c r="E263" t="s">
+        <v>984</v>
+      </c>
+      <c r="F263" t="s">
         <v>985</v>
-      </c>
-      <c r="F263" t="s">
-        <v>986</v>
       </c>
       <c r="G263" t="s">
         <v>656</v>
@@ -12950,16 +12956,16 @@
     </row>
     <row r="264" spans="1:10">
       <c r="D264" t="s">
+        <v>986</v>
+      </c>
+      <c r="E264" t="s">
         <v>987</v>
       </c>
-      <c r="E264" t="s">
+      <c r="F264" t="s">
         <v>988</v>
       </c>
-      <c r="F264" t="s">
-        <v>989</v>
-      </c>
       <c r="G264" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H264" t="s">
         <v>66</v>
@@ -12979,10 +12985,10 @@
         <v>797</v>
       </c>
       <c r="G265" t="s">
+        <v>918</v>
+      </c>
+      <c r="H265" t="s">
         <v>919</v>
-      </c>
-      <c r="H265" t="s">
-        <v>920</v>
       </c>
       <c r="I265" t="s">
         <v>700</v>
@@ -12996,10 +13002,10 @@
         <v>229</v>
       </c>
       <c r="E266" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F266" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G266" t="s">
         <v>659</v>
@@ -13016,7 +13022,7 @@
         <v>360</v>
       </c>
       <c r="C267" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D267" t="s">
         <v>322</v>
@@ -13025,7 +13031,7 @@
         <v>360</v>
       </c>
       <c r="F267" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G267" t="s">
         <v>656</v>
@@ -13054,7 +13060,7 @@
         <v>79</v>
       </c>
       <c r="F268" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G268" t="s">
         <v>656</v>
@@ -13071,22 +13077,22 @@
         <v>60</v>
       </c>
       <c r="B269" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C269" t="s">
         <v>1011</v>
-      </c>
-      <c r="C269" t="s">
-        <v>1012</v>
       </c>
       <c r="D269" t="s">
         <v>60</v>
       </c>
       <c r="E269" t="s">
+        <v>974</v>
+      </c>
+      <c r="F269" t="s">
         <v>975</v>
       </c>
-      <c r="F269" t="s">
-        <v>976</v>
-      </c>
       <c r="G269" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H269" t="s">
         <v>66</v>
@@ -13095,7 +13101,7 @@
         <v>684</v>
       </c>
       <c r="J269" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -13103,19 +13109,19 @@
         <v>69</v>
       </c>
       <c r="B270" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C270" t="s">
         <v>1013</v>
-      </c>
-      <c r="C270" t="s">
-        <v>1014</v>
       </c>
       <c r="D270" t="s">
         <v>69</v>
       </c>
       <c r="E270" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F270" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G270" t="s">
         <v>658</v>
@@ -13129,13 +13135,13 @@
     </row>
     <row r="271" spans="1:10">
       <c r="D271" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E271" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F271" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -13143,13 +13149,13 @@
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
       <c r="D272" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E272" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F272" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G272" t="s">
         <v>658</v>
@@ -13166,16 +13172,16 @@
         <v>569</v>
       </c>
       <c r="E273" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F273" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G273" t="s">
+        <v>918</v>
+      </c>
+      <c r="H273" t="s">
         <v>919</v>
-      </c>
-      <c r="H273" t="s">
-        <v>920</v>
       </c>
       <c r="I273" t="s">
         <v>700</v>
@@ -13186,10 +13192,10 @@
         <v>716</v>
       </c>
       <c r="E274" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F274" t="s">
         <v>1054</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1055</v>
       </c>
       <c r="G274" t="s">
         <v>656</v>
@@ -13203,53 +13209,53 @@
     </row>
     <row r="275" spans="4:10">
       <c r="D275" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E275" t="s">
         <v>1056</v>
       </c>
-      <c r="E275" t="s">
+      <c r="F275" t="s">
         <v>1057</v>
       </c>
-      <c r="F275" t="s">
-        <v>1058</v>
-      </c>
       <c r="G275" t="s">
+        <v>922</v>
+      </c>
+      <c r="H275" t="s">
         <v>923</v>
-      </c>
-      <c r="H275" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="276" spans="4:10">
       <c r="D276" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E276" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F276" t="s">
         <v>1059</v>
       </c>
-      <c r="F276" t="s">
-        <v>1060</v>
-      </c>
       <c r="G276" t="s">
+        <v>922</v>
+      </c>
+      <c r="H276" t="s">
         <v>923</v>
-      </c>
-      <c r="H276" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="277" spans="4:10">
       <c r="D277" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E277" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F277" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G277" t="s">
+        <v>922</v>
+      </c>
+      <c r="H277" t="s">
         <v>923</v>
-      </c>
-      <c r="H277" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="278" spans="4:10">
@@ -13257,22 +13263,22 @@
         <v>587</v>
       </c>
       <c r="E278" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F278" t="s">
         <v>1064</v>
       </c>
-      <c r="F278" t="s">
-        <v>1065</v>
-      </c>
       <c r="G278" t="s">
+        <v>918</v>
+      </c>
+      <c r="H278" t="s">
         <v>919</v>
-      </c>
-      <c r="H278" t="s">
-        <v>920</v>
       </c>
       <c r="I278" t="s">
         <v>702</v>
       </c>
       <c r="J278" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="279" spans="4:10">
@@ -13280,10 +13286,10 @@
         <v>822</v>
       </c>
       <c r="E279" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F279" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G279" t="s">
         <v>656</v>
@@ -13299,21 +13305,21 @@
   <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="127" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="135"/>
     <cfRule type="duplicateValues" dxfId="131" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="139"/>
     <cfRule type="duplicateValues" dxfId="130" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="126" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="119"/>
     <cfRule type="duplicateValues" dxfId="124" priority="112"/>
     <cfRule type="duplicateValues" dxfId="123" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="121"/>
     <cfRule type="duplicateValues" dxfId="120" priority="124"/>
     <cfRule type="duplicateValues" dxfId="119" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
     <cfRule type="duplicateValues" dxfId="118" priority="55"/>
@@ -13325,50 +13331,50 @@
     <cfRule type="duplicateValues" dxfId="116" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
     <cfRule type="duplicateValues" dxfId="114" priority="70"/>
     <cfRule type="duplicateValues" dxfId="113" priority="71"/>
     <cfRule type="duplicateValues" dxfId="112" priority="72"/>
     <cfRule type="duplicateValues" dxfId="111" priority="73"/>
     <cfRule type="duplicateValues" dxfId="110" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="109" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
+    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="143"/>
     <cfRule type="duplicateValues" dxfId="108" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
+    <cfRule type="duplicateValues" dxfId="93" priority="111"/>
     <cfRule type="duplicateValues" dxfId="103" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="125"/>
     <cfRule type="duplicateValues" dxfId="102" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="120"/>
     <cfRule type="duplicateValues" dxfId="98" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
     <cfRule type="duplicateValues" dxfId="92" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
+    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
     <cfRule type="duplicateValues" dxfId="91" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C210:C264 C1:C5 C266:C1048576 C7:C186">
     <cfRule type="duplicateValues" dxfId="89" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
     <cfRule type="duplicateValues" dxfId="87" priority="39"/>
     <cfRule type="duplicateValues" dxfId="86" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
     <cfRule type="duplicateValues" dxfId="85" priority="102"/>
@@ -13383,15 +13389,15 @@
     <cfRule type="duplicateValues" dxfId="82" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
+    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
     <cfRule type="duplicateValues" dxfId="81" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 C188:C191 C210:C264 F266:F271 F247:F256 F236:F245 C1:C5 F20:F147 C266:C1048576 F1:F5 C7:C186 F7:F18 F273 F277:F278 F149:F234 F280:F1048576">
     <cfRule type="duplicateValues" dxfId="79" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 F210:F234 F266:F271 F247:F256 F236:F245 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
+    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
     <cfRule type="duplicateValues" dxfId="78" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263 F259 F266:F271 F210:F234 F236:F257 F20:F147 F1:F5 F7:F18 F273 F277:F278 F149:F191 F280:F1048576">
     <cfRule type="duplicateValues" dxfId="76" priority="97"/>
@@ -13412,33 +13418,33 @@
     <cfRule type="duplicateValues" dxfId="71" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
+    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
     <cfRule type="duplicateValues" dxfId="70" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274">
+    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
     <cfRule type="duplicateValues" dxfId="68" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:F276">
+    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
     <cfRule type="duplicateValues" dxfId="66" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279">
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
     <cfRule type="duplicateValues" dxfId="64" priority="2"/>
     <cfRule type="duplicateValues" dxfId="63" priority="3"/>
     <cfRule type="duplicateValues" dxfId="62" priority="4"/>
     <cfRule type="duplicateValues" dxfId="61" priority="5"/>
     <cfRule type="duplicateValues" dxfId="60" priority="6"/>
     <cfRule type="duplicateValues" dxfId="59" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261:G261">
     <cfRule type="duplicateValues" dxfId="57" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="54" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="131"/>
     <cfRule type="duplicateValues" dxfId="56" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J257:J1048576 J1:J247">
     <cfRule type="duplicateValues" dxfId="53" priority="109"/>
@@ -13447,13 +13453,13 @@
     <cfRule type="duplicateValues" dxfId="52" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
+    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
     <cfRule type="duplicateValues" dxfId="51" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="61"/>
     <cfRule type="duplicateValues" dxfId="47" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
     <cfRule type="duplicateValues" dxfId="44" priority="103"/>
@@ -13465,58 +13471,58 @@
     <cfRule type="duplicateValues" dxfId="40" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
+    <cfRule type="duplicateValues" dxfId="34" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="85"/>
     <cfRule type="duplicateValues" dxfId="39" priority="86"/>
     <cfRule type="duplicateValues" dxfId="38" priority="87"/>
     <cfRule type="duplicateValues" dxfId="37" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
     <cfRule type="duplicateValues" dxfId="33" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
     <cfRule type="duplicateValues" dxfId="30" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
     <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
     <cfRule type="duplicateValues" dxfId="25" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
     <cfRule type="duplicateValues" dxfId="20" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="64"/>
     <cfRule type="duplicateValues" dxfId="19" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="68"/>
     <cfRule type="duplicateValues" dxfId="16" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
+    <cfRule type="duplicateValues" dxfId="9" priority="92"/>
     <cfRule type="duplicateValues" dxfId="12" priority="93"/>
     <cfRule type="duplicateValues" dxfId="11" priority="94"/>
     <cfRule type="duplicateValues" dxfId="10" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
     <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
     <cfRule type="duplicateValues" dxfId="6" priority="45"/>
     <cfRule type="duplicateValues" dxfId="5" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
     <cfRule type="duplicateValues" dxfId="2" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2F6F7C-19EA-4D47-88D6-ED0E08CEB112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADA08C-FAB7-4B88-B177-ED43949F4C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="1139">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3696,6 +3696,19 @@
   </si>
   <si>
     <t>SC4823S6-K-GB-00NR-4823K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442UA-Q-CP-10AK-2442</t>
+  </si>
+  <si>
+    <t>CA-IS23050W</t>
+  </si>
+  <si>
+    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;长电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5691,7 +5704,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M17:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6262,6 +6275,15 @@
       <c r="J14" t="s">
         <v>83</v>
       </c>
+      <c r="L14" t="s">
+        <v>406</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
@@ -10940,6 +10962,15 @@
       </c>
     </row>
     <row r="157" spans="1:17">
+      <c r="A157" t="s">
+        <v>553</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1137</v>
+      </c>
       <c r="D157" t="s">
         <v>553</v>
       </c>
@@ -10950,10 +10981,10 @@
         <v>955</v>
       </c>
       <c r="G157" t="s">
-        <v>922</v>
+        <v>1138</v>
       </c>
       <c r="H157" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="I157" t="s">
         <v>956</v>
@@ -14048,7 +14079,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W282" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="152" priority="164"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEADA08C-FAB7-4B88-B177-ED43949F4C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C03BEA0-74D3-4753-9A2A-A9AD7A869956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="1140">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3710,6 +3710,9 @@
   <si>
     <t>浙江赛扬&amp;长电</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
   </si>
 </sst>
 </file>
@@ -5700,11 +5703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W282"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M17:N18"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14076,6 +14079,17 @@
       </c>
       <c r="I282" t="s">
         <v>964</v>
+      </c>
+    </row>
+    <row r="283" spans="4:14">
+      <c r="D283" t="s">
+        <v>831</v>
+      </c>
+      <c r="E283" t="s">
+        <v>832</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C03BEA0-74D3-4753-9A2A-A9AD7A869956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CFFC60-6BA9-413F-ABBC-05F62E36943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$285</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="1153">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3163,10 +3163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA.SC4390S6-GB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC4616UA-10.2NF-CD-90AK-4616</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3713,6 +3709,53 @@
   </si>
   <si>
     <t>SC4012SO-N-XE-90NR-4012</t>
+  </si>
+  <si>
+    <t>NF.SC69401DC-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>NF.SC69401HS-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTB-69401</t>
+  </si>
+  <si>
+    <t>赛扬%华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-TB-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-CE-00CK-9625</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+  </si>
+  <si>
+    <t>NA.SC9625VB-CE</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
   </si>
 </sst>
 </file>
@@ -3896,7 +3939,327 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="185">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5703,11 +6066,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W283"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I287" sqref="I287"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5806,7 +6170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -5844,7 +6208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -5882,7 +6246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -5911,7 +6275,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -5952,7 +6316,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -5981,7 +6345,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6019,7 +6383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6084,7 +6448,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -6104,7 +6468,7 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -6122,7 +6486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6154,7 +6518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -6177,7 +6541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -6215,7 +6579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6247,7 +6611,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6285,10 +6649,10 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6353,7 +6717,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -6409,7 +6773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6447,7 +6811,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -6476,7 +6840,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6517,7 +6881,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -6546,7 +6910,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -6578,7 +6942,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -6607,7 +6971,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -6636,7 +7000,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -6668,7 +7032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -6706,7 +7070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -6720,16 +7084,16 @@
         <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>841</v>
       </c>
       <c r="G26" t="s">
-        <v>600</v>
+        <v>1148</v>
       </c>
       <c r="H26" t="s">
-        <v>603</v>
+        <v>1149</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -6741,13 +7105,13 @@
         <v>123</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="N26" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -6776,7 +7140,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -6808,7 +7172,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -6840,7 +7204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -6872,7 +7236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -6904,7 +7268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -6933,7 +7297,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -6962,7 +7326,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -6991,7 +7355,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -7032,7 +7396,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7061,7 +7425,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -7111,7 +7475,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -7143,7 +7507,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -7193,7 +7557,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" hidden="1">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -7225,7 +7589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -7257,7 +7621,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -7316,7 +7680,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -7357,7 +7721,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -7386,7 +7750,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -7418,7 +7782,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" hidden="1">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -7468,7 +7832,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -7497,7 +7861,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -7529,7 +7893,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -7558,7 +7922,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -7587,7 +7951,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -7619,7 +7983,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -7657,7 +8021,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -7686,7 +8050,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -7718,7 +8082,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -7750,7 +8114,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -7782,7 +8146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -7805,7 +8169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -7828,7 +8192,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -7851,7 +8215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -7874,7 +8238,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" hidden="1">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -7897,7 +8261,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" hidden="1">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -7920,7 +8284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" hidden="1">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -7943,7 +8307,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" hidden="1">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -7966,7 +8330,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -7989,7 +8353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -8012,7 +8376,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -8035,7 +8399,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -8058,7 +8422,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -8081,7 +8445,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -8110,7 +8474,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -8142,7 +8506,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -8174,7 +8538,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -8206,7 +8570,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -8238,7 +8602,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -8270,7 +8634,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -8293,7 +8657,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -8322,7 +8686,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -8351,7 +8715,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -8389,7 +8753,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -8409,7 +8773,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -8456,7 +8820,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -8485,7 +8849,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -8526,7 +8890,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -8555,7 +8919,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -8584,7 +8948,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -8613,7 +8977,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -8642,7 +9006,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -8671,7 +9035,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -8700,7 +9064,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -8717,13 +9081,13 @@
         <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>599</v>
+        <v>997</v>
       </c>
       <c r="H90" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I90" t="s">
         <v>620</v>
@@ -8735,10 +9099,10 @@
         <v>325</v>
       </c>
       <c r="N90" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -8770,7 +9134,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -8787,13 +9151,13 @@
         <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G92" t="s">
-        <v>599</v>
+        <v>683</v>
       </c>
       <c r="H92" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I92" t="s">
         <v>620</v>
@@ -8805,7 +9169,7 @@
         <v>334</v>
       </c>
       <c r="N92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O92" s="8" t="s">
         <v>322</v>
@@ -8817,7 +9181,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -8849,7 +9213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -8878,7 +9242,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -8910,7 +9274,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -8942,7 +9306,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" hidden="1">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -8971,7 +9335,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" hidden="1">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -9003,7 +9367,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" hidden="1">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -9032,7 +9396,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -9070,7 +9434,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101" t="s">
         <v>363</v>
       </c>
@@ -9099,7 +9463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" hidden="1">
       <c r="D102" t="s">
         <v>363</v>
       </c>
@@ -9128,7 +9492,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -9157,7 +9521,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104" t="s">
         <v>363</v>
       </c>
@@ -9195,7 +9559,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -9224,7 +9588,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -9259,10 +9623,10 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1">
       <c r="D107" t="s">
         <v>388</v>
       </c>
@@ -9282,7 +9646,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" hidden="1">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -9314,7 +9678,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" hidden="1">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -9343,7 +9707,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" hidden="1">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -9378,10 +9742,10 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1">
       <c r="A111" t="s">
         <v>388</v>
       </c>
@@ -9416,10 +9780,10 @@
         <v>807</v>
       </c>
       <c r="N111" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -9448,7 +9812,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" hidden="1">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -9486,7 +9850,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" hidden="1">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -9515,7 +9879,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" hidden="1">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -9544,7 +9908,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" hidden="1">
       <c r="D116" t="s">
         <v>417</v>
       </c>
@@ -9573,7 +9937,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" hidden="1">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -9620,7 +9984,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" hidden="1">
       <c r="A118" t="s">
         <v>431</v>
       </c>
@@ -9658,7 +10022,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" hidden="1">
       <c r="A119" t="s">
         <v>436</v>
       </c>
@@ -9708,7 +10072,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" hidden="1">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -9749,7 +10113,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" hidden="1">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -9781,7 +10145,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" hidden="1">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -9813,7 +10177,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" hidden="1">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -9854,7 +10218,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" hidden="1">
       <c r="D124" t="s">
         <v>454</v>
       </c>
@@ -9877,7 +10241,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" hidden="1">
       <c r="D125" t="s">
         <v>454</v>
       </c>
@@ -9900,7 +10264,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" hidden="1">
       <c r="A126" t="s">
         <v>459</v>
       </c>
@@ -9941,7 +10305,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" hidden="1">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -10002,10 +10366,10 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="H128" t="s">
-        <v>603</v>
+        <v>1151</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
@@ -10023,7 +10387,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129" t="s">
         <v>479</v>
       </c>
@@ -10055,7 +10419,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130" t="s">
         <v>479</v>
       </c>
@@ -10087,7 +10451,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131" t="s">
         <v>479</v>
       </c>
@@ -10119,7 +10483,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132" t="s">
         <v>479</v>
       </c>
@@ -10151,7 +10515,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133" t="s">
         <v>479</v>
       </c>
@@ -10180,7 +10544,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -10212,7 +10576,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" hidden="1">
       <c r="A135" t="s">
         <v>479</v>
       </c>
@@ -10241,7 +10605,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" hidden="1">
       <c r="A136" t="s">
         <v>498</v>
       </c>
@@ -10273,7 +10637,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137" t="s">
         <v>498</v>
       </c>
@@ -10311,7 +10675,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" hidden="1">
       <c r="A138" t="s">
         <v>498</v>
       </c>
@@ -10349,7 +10713,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" hidden="1">
       <c r="A139" s="8" t="s">
         <v>498</v>
       </c>
@@ -10390,7 +10754,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" hidden="1">
       <c r="A140" t="s">
         <v>506</v>
       </c>
@@ -10431,7 +10795,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141" t="s">
         <v>510</v>
       </c>
@@ -10469,7 +10833,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" hidden="1">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -10501,7 +10865,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143" t="s">
         <v>510</v>
       </c>
@@ -10530,7 +10894,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144" t="s">
         <v>510</v>
       </c>
@@ -10559,7 +10923,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1">
       <c r="D145" t="s">
         <v>510</v>
       </c>
@@ -10582,7 +10946,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>510</v>
       </c>
@@ -10614,7 +10978,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>510</v>
       </c>
@@ -10646,7 +11010,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>510</v>
       </c>
@@ -10696,7 +11060,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>510</v>
       </c>
@@ -10728,7 +11092,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>510</v>
       </c>
@@ -10760,7 +11124,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>510</v>
       </c>
@@ -10801,7 +11165,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -10830,7 +11194,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>649</v>
       </c>
@@ -10858,6 +11222,9 @@
       <c r="I153" t="s">
         <v>924</v>
       </c>
+      <c r="J153" t="s">
+        <v>1139</v>
+      </c>
       <c r="L153" t="s">
         <v>649</v>
       </c>
@@ -10877,7 +11244,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>553</v>
       </c>
@@ -10906,7 +11273,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>553</v>
       </c>
@@ -10935,7 +11302,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>553</v>
       </c>
@@ -10964,15 +11331,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" hidden="1">
       <c r="A157" t="s">
         <v>553</v>
       </c>
       <c r="B157" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C157" t="s">
         <v>1136</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1137</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -10984,7 +11351,7 @@
         <v>955</v>
       </c>
       <c r="G157" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H157" t="s">
         <v>918</v>
@@ -10996,7 +11363,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>553</v>
       </c>
@@ -11028,7 +11395,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -11057,7 +11424,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>566</v>
       </c>
@@ -11086,7 +11453,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" hidden="1">
       <c r="A161" t="s">
         <v>573</v>
       </c>
@@ -11115,7 +11482,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" hidden="1">
       <c r="A162" t="s">
         <v>577</v>
       </c>
@@ -11180,7 +11547,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" hidden="1">
       <c r="A163" t="s">
         <v>581</v>
       </c>
@@ -11212,7 +11579,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" hidden="1">
       <c r="D164" t="s">
         <v>581</v>
       </c>
@@ -11235,7 +11602,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" hidden="1">
       <c r="A165" t="s">
         <v>581</v>
       </c>
@@ -11264,7 +11631,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" hidden="1">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -11296,7 +11663,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" hidden="1">
       <c r="A167" t="s">
         <v>581</v>
       </c>
@@ -11328,7 +11695,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" hidden="1">
       <c r="A168" t="s">
         <v>581</v>
       </c>
@@ -11366,7 +11733,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" hidden="1">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -11413,7 +11780,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" hidden="1">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -11451,7 +11818,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" hidden="1">
       <c r="A171" t="s">
         <v>476</v>
       </c>
@@ -11480,7 +11847,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" hidden="1">
       <c r="A172" t="s">
         <v>596</v>
       </c>
@@ -11512,7 +11879,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" hidden="1">
       <c r="D173" t="s">
         <v>596</v>
       </c>
@@ -11535,7 +11902,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" hidden="1">
       <c r="D174" t="s">
         <v>596</v>
       </c>
@@ -11558,7 +11925,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" hidden="1">
       <c r="A175" t="s">
         <v>610</v>
       </c>
@@ -11578,7 +11945,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" hidden="1">
       <c r="A176" t="s">
         <v>613</v>
       </c>
@@ -11598,7 +11965,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177" t="s">
         <v>616</v>
       </c>
@@ -11615,7 +11982,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" hidden="1">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -11644,7 +12011,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" hidden="1">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -11673,7 +12040,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" hidden="1">
       <c r="A180" t="s">
         <v>663</v>
       </c>
@@ -11711,7 +12078,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" hidden="1">
       <c r="A181" t="s">
         <v>667</v>
       </c>
@@ -11740,7 +12107,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" hidden="1">
       <c r="A182" t="s">
         <v>671</v>
       </c>
@@ -11769,7 +12136,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" hidden="1">
       <c r="A183" t="s">
         <v>677</v>
       </c>
@@ -11807,18 +12174,18 @@
         <v>829</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" hidden="1">
       <c r="D184" t="s">
-        <v>849</v>
+        <v>1152</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
       </c>
       <c r="F184" t="s">
-        <v>996</v>
+        <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>997</v>
+        <v>1126</v>
       </c>
       <c r="H184" t="s">
         <v>915</v>
@@ -11826,9 +12193,6 @@
       <c r="I184" t="s">
         <v>998</v>
       </c>
-      <c r="J184" t="s">
-        <v>999</v>
-      </c>
       <c r="L184" t="s">
         <v>849</v>
       </c>
@@ -11836,10 +12200,10 @@
         <v>681</v>
       </c>
       <c r="N184" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1">
       <c r="D185" t="s">
         <v>684</v>
       </c>
@@ -11847,22 +12211,22 @@
         <v>685</v>
       </c>
       <c r="F185" t="s">
+        <v>999</v>
+      </c>
+      <c r="G185" t="s">
         <v>1000</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1001</v>
       </c>
       <c r="H185" t="s">
         <v>923</v>
       </c>
       <c r="I185" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J185" t="s">
         <v>1002</v>
       </c>
-      <c r="J185" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    </row>
+    <row r="186" spans="1:14" hidden="1">
       <c r="D186" t="s">
         <v>684</v>
       </c>
@@ -11870,22 +12234,22 @@
         <v>686</v>
       </c>
       <c r="F186" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G186" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H186" t="s">
         <v>923</v>
       </c>
       <c r="I186" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J186" t="s">
         <v>1002</v>
       </c>
-      <c r="J186" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+    </row>
+    <row r="187" spans="1:14" hidden="1">
       <c r="D187" t="s">
         <v>684</v>
       </c>
@@ -11893,22 +12257,22 @@
         <v>833</v>
       </c>
       <c r="F187" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G187" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H187" t="s">
         <v>923</v>
       </c>
       <c r="I187" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J187" t="s">
         <v>1002</v>
       </c>
-      <c r="J187" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+    </row>
+    <row r="188" spans="1:14" hidden="1">
       <c r="A188" t="s">
         <v>687</v>
       </c>
@@ -11925,7 +12289,7 @@
         <v>690</v>
       </c>
       <c r="F188" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G188" t="s">
         <v>917</v>
@@ -11937,10 +12301,10 @@
         <v>909</v>
       </c>
       <c r="J188" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" hidden="1">
       <c r="D189" t="s">
         <v>476</v>
       </c>
@@ -11948,7 +12312,7 @@
         <v>695</v>
       </c>
       <c r="F189" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G189" t="s">
         <v>922</v>
@@ -11969,7 +12333,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" hidden="1">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -11986,10 +12350,10 @@
         <v>702</v>
       </c>
       <c r="F190" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G190" t="s">
         <v>1009</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1010</v>
       </c>
       <c r="H190" t="s">
         <v>923</v>
@@ -11998,7 +12362,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" hidden="1">
       <c r="A191" t="s">
         <v>703</v>
       </c>
@@ -12015,7 +12379,7 @@
         <v>706</v>
       </c>
       <c r="F191" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G191" t="s">
         <v>922</v>
@@ -12027,7 +12391,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" hidden="1">
       <c r="D192" t="s">
         <v>540</v>
       </c>
@@ -12035,7 +12399,7 @@
         <v>541</v>
       </c>
       <c r="F192" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G192" t="s">
         <v>917</v>
@@ -12044,13 +12408,13 @@
         <v>918</v>
       </c>
       <c r="I192" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J192" t="s">
         <v>1013</v>
       </c>
-      <c r="J192" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="193" spans="4:10">
+    </row>
+    <row r="193" spans="4:10" hidden="1">
       <c r="D193" t="s">
         <v>540</v>
       </c>
@@ -12058,7 +12422,7 @@
         <v>546</v>
       </c>
       <c r="F193" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G193" t="s">
         <v>917</v>
@@ -12067,13 +12431,13 @@
         <v>918</v>
       </c>
       <c r="I193" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J193" t="s">
         <v>1013</v>
       </c>
-      <c r="J193" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="194" spans="4:10">
+    </row>
+    <row r="194" spans="4:10" hidden="1">
       <c r="D194" t="s">
         <v>540</v>
       </c>
@@ -12081,7 +12445,7 @@
         <v>708</v>
       </c>
       <c r="F194" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G194" t="s">
         <v>917</v>
@@ -12090,13 +12454,13 @@
         <v>918</v>
       </c>
       <c r="I194" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J194" t="s">
         <v>1013</v>
       </c>
-      <c r="J194" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="195" spans="4:10">
+    </row>
+    <row r="195" spans="4:10" hidden="1">
       <c r="D195" t="s">
         <v>540</v>
       </c>
@@ -12104,7 +12468,7 @@
         <v>709</v>
       </c>
       <c r="F195" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G195" t="s">
         <v>917</v>
@@ -12113,13 +12477,13 @@
         <v>918</v>
       </c>
       <c r="I195" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J195" t="s">
         <v>1013</v>
       </c>
-      <c r="J195" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="196" spans="4:10">
+    </row>
+    <row r="196" spans="4:10" hidden="1">
       <c r="D196" t="s">
         <v>540</v>
       </c>
@@ -12127,7 +12491,7 @@
         <v>710</v>
       </c>
       <c r="F196" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G196" t="s">
         <v>917</v>
@@ -12136,13 +12500,13 @@
         <v>918</v>
       </c>
       <c r="I196" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J196" t="s">
         <v>1013</v>
       </c>
-      <c r="J196" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="197" spans="4:10">
+    </row>
+    <row r="197" spans="4:10" hidden="1">
       <c r="D197" t="s">
         <v>540</v>
       </c>
@@ -12150,7 +12514,7 @@
         <v>711</v>
       </c>
       <c r="F197" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G197" t="s">
         <v>917</v>
@@ -12159,13 +12523,13 @@
         <v>918</v>
       </c>
       <c r="I197" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J197" t="s">
         <v>1013</v>
       </c>
-      <c r="J197" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="198" spans="4:10">
+    </row>
+    <row r="198" spans="4:10" hidden="1">
       <c r="D198" t="s">
         <v>540</v>
       </c>
@@ -12173,7 +12537,7 @@
         <v>712</v>
       </c>
       <c r="F198" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G198" t="s">
         <v>917</v>
@@ -12182,13 +12546,13 @@
         <v>918</v>
       </c>
       <c r="I198" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J198" t="s">
         <v>1013</v>
       </c>
-      <c r="J198" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="199" spans="4:10">
+    </row>
+    <row r="199" spans="4:10" hidden="1">
       <c r="D199" t="s">
         <v>540</v>
       </c>
@@ -12196,7 +12560,7 @@
         <v>542</v>
       </c>
       <c r="F199" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G199" t="s">
         <v>917</v>
@@ -12205,13 +12569,13 @@
         <v>918</v>
       </c>
       <c r="I199" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J199" t="s">
         <v>1013</v>
       </c>
-      <c r="J199" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="200" spans="4:10">
+    </row>
+    <row r="200" spans="4:10" hidden="1">
       <c r="D200" t="s">
         <v>540</v>
       </c>
@@ -12219,7 +12583,7 @@
         <v>713</v>
       </c>
       <c r="F200" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G200" t="s">
         <v>917</v>
@@ -12228,13 +12592,13 @@
         <v>918</v>
       </c>
       <c r="I200" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J200" t="s">
         <v>1013</v>
       </c>
-      <c r="J200" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="201" spans="4:10">
+    </row>
+    <row r="201" spans="4:10" hidden="1">
       <c r="D201" t="s">
         <v>540</v>
       </c>
@@ -12242,7 +12606,7 @@
         <v>547</v>
       </c>
       <c r="F201" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G201" t="s">
         <v>917</v>
@@ -12251,13 +12615,13 @@
         <v>918</v>
       </c>
       <c r="I201" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J201" t="s">
         <v>1013</v>
       </c>
-      <c r="J201" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="202" spans="4:10">
+    </row>
+    <row r="202" spans="4:10" hidden="1">
       <c r="D202" t="s">
         <v>540</v>
       </c>
@@ -12265,7 +12629,7 @@
         <v>548</v>
       </c>
       <c r="F202" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G202" t="s">
         <v>917</v>
@@ -12274,13 +12638,13 @@
         <v>918</v>
       </c>
       <c r="I202" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J202" t="s">
         <v>1013</v>
       </c>
-      <c r="J202" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="203" spans="4:10">
+    </row>
+    <row r="203" spans="4:10" hidden="1">
       <c r="D203" t="s">
         <v>540</v>
       </c>
@@ -12288,7 +12652,7 @@
         <v>549</v>
       </c>
       <c r="F203" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G203" t="s">
         <v>917</v>
@@ -12297,13 +12661,13 @@
         <v>918</v>
       </c>
       <c r="I203" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J203" t="s">
         <v>1013</v>
       </c>
-      <c r="J203" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="204" spans="4:10">
+    </row>
+    <row r="204" spans="4:10" hidden="1">
       <c r="D204" t="s">
         <v>540</v>
       </c>
@@ -12311,7 +12675,7 @@
         <v>714</v>
       </c>
       <c r="F204" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G204" t="s">
         <v>917</v>
@@ -12320,13 +12684,13 @@
         <v>918</v>
       </c>
       <c r="I204" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J204" t="s">
         <v>1013</v>
       </c>
-      <c r="J204" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="205" spans="4:10">
+    </row>
+    <row r="205" spans="4:10" hidden="1">
       <c r="D205" t="s">
         <v>540</v>
       </c>
@@ -12334,7 +12698,7 @@
         <v>715</v>
       </c>
       <c r="F205" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G205" t="s">
         <v>917</v>
@@ -12343,13 +12707,13 @@
         <v>918</v>
       </c>
       <c r="I205" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J205" t="s">
         <v>1013</v>
       </c>
-      <c r="J205" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="206" spans="4:10">
+    </row>
+    <row r="206" spans="4:10" hidden="1">
       <c r="D206" t="s">
         <v>540</v>
       </c>
@@ -12357,7 +12721,7 @@
         <v>716</v>
       </c>
       <c r="F206" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G206" t="s">
         <v>917</v>
@@ -12366,13 +12730,13 @@
         <v>918</v>
       </c>
       <c r="I206" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J206" t="s">
         <v>1013</v>
       </c>
-      <c r="J206" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="207" spans="4:10">
+    </row>
+    <row r="207" spans="4:10" hidden="1">
       <c r="D207" t="s">
         <v>540</v>
       </c>
@@ -12380,7 +12744,7 @@
         <v>707</v>
       </c>
       <c r="F207" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G207" t="s">
         <v>917</v>
@@ -12389,13 +12753,13 @@
         <v>918</v>
       </c>
       <c r="I207" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J207" t="s">
         <v>1013</v>
       </c>
-      <c r="J207" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="208" spans="4:10">
+    </row>
+    <row r="208" spans="4:10" hidden="1">
       <c r="D208" t="s">
         <v>540</v>
       </c>
@@ -12403,7 +12767,7 @@
         <v>550</v>
       </c>
       <c r="F208" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G208" t="s">
         <v>917</v>
@@ -12412,13 +12776,13 @@
         <v>918</v>
       </c>
       <c r="I208" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J208" t="s">
         <v>1013</v>
       </c>
-      <c r="J208" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:14" hidden="1">
       <c r="D209" t="s">
         <v>540</v>
       </c>
@@ -12426,7 +12790,7 @@
         <v>551</v>
       </c>
       <c r="F209" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G209" t="s">
         <v>917</v>
@@ -12435,13 +12799,13 @@
         <v>918</v>
       </c>
       <c r="I209" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J209" t="s">
         <v>1013</v>
       </c>
-      <c r="J209" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+    </row>
+    <row r="210" spans="1:14" hidden="1">
       <c r="A210" t="s">
         <v>540</v>
       </c>
@@ -12458,7 +12822,7 @@
         <v>765</v>
       </c>
       <c r="F210" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G210" t="s">
         <v>917</v>
@@ -12467,13 +12831,13 @@
         <v>918</v>
       </c>
       <c r="I210" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J210" t="s">
         <v>1013</v>
       </c>
-      <c r="J210" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+    </row>
+    <row r="211" spans="1:14" hidden="1">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -12490,7 +12854,7 @@
         <v>545</v>
       </c>
       <c r="F211" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G211" t="s">
         <v>922</v>
@@ -12502,7 +12866,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" hidden="1">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -12519,7 +12883,7 @@
         <v>545</v>
       </c>
       <c r="F212" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G212" t="s">
         <v>922</v>
@@ -12531,7 +12895,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" hidden="1">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -12539,7 +12903,7 @@
         <v>717</v>
       </c>
       <c r="F213" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G213" t="s">
         <v>922</v>
@@ -12551,10 +12915,10 @@
         <v>970</v>
       </c>
       <c r="J213" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -12574,10 +12938,10 @@
         <v>924</v>
       </c>
       <c r="J214" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -12594,16 +12958,19 @@
         <v>900</v>
       </c>
       <c r="F215" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G215" t="s">
         <v>1038</v>
-      </c>
-      <c r="G215" t="s">
-        <v>1039</v>
       </c>
       <c r="H215" t="s">
         <v>915</v>
       </c>
       <c r="I215" t="s">
-        <v>1040</v>
+        <v>1039</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1140</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -12615,7 +12982,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -12632,7 +12999,7 @@
         <v>915</v>
       </c>
       <c r="I216" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L216" t="s">
         <v>725</v>
@@ -12644,7 +13011,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" hidden="1">
       <c r="A217" t="s">
         <v>581</v>
       </c>
@@ -12661,10 +13028,10 @@
         <v>915</v>
       </c>
       <c r="I217" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1">
       <c r="D218" t="s">
         <v>848</v>
       </c>
@@ -12672,7 +13039,7 @@
         <v>729</v>
       </c>
       <c r="F218" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G218" t="s">
         <v>922</v>
@@ -12684,7 +13051,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" hidden="1">
       <c r="D219" t="s">
         <v>730</v>
       </c>
@@ -12692,7 +13059,7 @@
         <v>731</v>
       </c>
       <c r="F219" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G219" t="s">
         <v>922</v>
@@ -12704,7 +13071,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" hidden="1">
       <c r="D220" t="s">
         <v>732</v>
       </c>
@@ -12712,7 +13079,7 @@
         <v>733</v>
       </c>
       <c r="F220" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G220" t="s">
         <v>922</v>
@@ -12724,7 +13091,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" hidden="1">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -12744,7 +13111,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" hidden="1">
       <c r="D222" t="s">
         <v>466</v>
       </c>
@@ -12752,10 +13119,10 @@
         <v>469</v>
       </c>
       <c r="F222" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G222" t="s">
         <v>1046</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1047</v>
       </c>
       <c r="H222" t="s">
         <v>908</v>
@@ -12764,10 +13131,10 @@
         <v>975</v>
       </c>
       <c r="J222" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1">
       <c r="D223" t="s">
         <v>459</v>
       </c>
@@ -12775,7 +13142,7 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G223" t="s">
         <v>922</v>
@@ -12787,7 +13154,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" hidden="1">
       <c r="A224" t="s">
         <v>739</v>
       </c>
@@ -12804,7 +13171,7 @@
         <v>740</v>
       </c>
       <c r="F224" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G224" t="s">
         <v>922</v>
@@ -12813,10 +13180,10 @@
         <v>923</v>
       </c>
       <c r="I224" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" t="s">
         <v>742</v>
       </c>
@@ -12836,7 +13203,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" t="s">
         <v>745</v>
       </c>
@@ -12853,7 +13220,7 @@
         <v>746</v>
       </c>
       <c r="F226" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G226" t="s">
         <v>922</v>
@@ -12862,10 +13229,10 @@
         <v>923</v>
       </c>
       <c r="I226" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -12873,7 +13240,7 @@
         <v>747</v>
       </c>
       <c r="F227" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G227" t="s">
         <v>922</v>
@@ -12885,7 +13252,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -12893,7 +13260,7 @@
         <v>748</v>
       </c>
       <c r="F228" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G228" t="s">
         <v>922</v>
@@ -12905,7 +13272,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -12913,7 +13280,7 @@
         <v>749</v>
       </c>
       <c r="F229" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G229" t="s">
         <v>912</v>
@@ -12925,7 +13292,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -12933,7 +13300,7 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G230" t="s">
         <v>922</v>
@@ -12945,7 +13312,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="8" t="s">
         <v>406</v>
       </c>
@@ -12962,7 +13329,7 @@
         <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G231" t="s">
         <v>922</v>
@@ -12974,7 +13341,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -12982,7 +13349,7 @@
         <v>750</v>
       </c>
       <c r="F232" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G232" t="s">
         <v>912</v>
@@ -12991,10 +13358,10 @@
         <v>913</v>
       </c>
       <c r="I232" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -13002,7 +13369,7 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G233" t="s">
         <v>912</v>
@@ -13014,7 +13381,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -13022,7 +13389,7 @@
         <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G234" t="s">
         <v>922</v>
@@ -13034,7 +13401,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="D235" t="s">
         <v>730</v>
       </c>
@@ -13042,7 +13409,7 @@
         <v>752</v>
       </c>
       <c r="F235" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G235" t="s">
         <v>912</v>
@@ -13054,7 +13421,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="D236" t="s">
         <v>643</v>
       </c>
@@ -13062,7 +13429,7 @@
         <v>753</v>
       </c>
       <c r="F236" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G236" t="s">
         <v>912</v>
@@ -13071,10 +13438,10 @@
         <v>913</v>
       </c>
       <c r="I236" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1">
       <c r="D237" t="s">
         <v>643</v>
       </c>
@@ -13082,7 +13449,7 @@
         <v>754</v>
       </c>
       <c r="F237" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G237" t="s">
         <v>912</v>
@@ -13091,10 +13458,10 @@
         <v>913</v>
       </c>
       <c r="I237" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -13111,10 +13478,10 @@
         <v>915</v>
       </c>
       <c r="I238" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -13131,10 +13498,10 @@
         <v>913</v>
       </c>
       <c r="I239" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1">
       <c r="D240" t="s">
         <v>498</v>
       </c>
@@ -13142,7 +13509,7 @@
         <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G240" t="s">
         <v>922</v>
@@ -13154,7 +13521,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" t="s">
         <v>720</v>
       </c>
@@ -13171,7 +13538,7 @@
         <v>759</v>
       </c>
       <c r="F241" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G241" t="s">
         <v>912</v>
@@ -13182,8 +13549,11 @@
       <c r="I241" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="242" spans="1:17">
+      <c r="J241" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" hidden="1">
       <c r="D242" t="s">
         <v>649</v>
       </c>
@@ -13191,10 +13561,10 @@
         <v>760</v>
       </c>
       <c r="F242" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G242" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H242" t="s">
         <v>915</v>
@@ -13203,7 +13573,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" hidden="1">
       <c r="D243" t="s">
         <v>649</v>
       </c>
@@ -13211,10 +13581,10 @@
         <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G243" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H243" t="s">
         <v>915</v>
@@ -13223,7 +13593,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" hidden="1">
       <c r="D244" t="s">
         <v>692</v>
       </c>
@@ -13231,7 +13601,7 @@
         <v>762</v>
       </c>
       <c r="F244" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G244" t="s">
         <v>912</v>
@@ -13243,7 +13613,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" hidden="1">
       <c r="D245" t="s">
         <v>771</v>
       </c>
@@ -13251,7 +13621,7 @@
         <v>772</v>
       </c>
       <c r="F245" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G245" t="s">
         <v>922</v>
@@ -13263,7 +13633,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" hidden="1">
       <c r="D246" t="s">
         <v>737</v>
       </c>
@@ -13271,7 +13641,7 @@
         <v>738</v>
       </c>
       <c r="F246" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G246" t="s">
         <v>917</v>
@@ -13280,13 +13650,13 @@
         <v>918</v>
       </c>
       <c r="I246" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J246" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" hidden="1">
       <c r="D247" t="s">
         <v>773</v>
       </c>
@@ -13294,7 +13664,7 @@
         <v>774</v>
       </c>
       <c r="F247" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G247" t="s">
         <v>922</v>
@@ -13303,10 +13673,10 @@
         <v>923</v>
       </c>
       <c r="I247" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1">
       <c r="D248" t="s">
         <v>613</v>
       </c>
@@ -13314,7 +13684,7 @@
         <v>797</v>
       </c>
       <c r="F248" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G248" t="s">
         <v>985</v>
@@ -13323,10 +13693,10 @@
         <v>986</v>
       </c>
       <c r="I248" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" hidden="1">
       <c r="D249" t="s">
         <v>798</v>
       </c>
@@ -13334,22 +13704,22 @@
         <v>799</v>
       </c>
       <c r="F249" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G249" t="s">
         <v>1077</v>
-      </c>
-      <c r="G249" t="s">
-        <v>1078</v>
       </c>
       <c r="H249" t="s">
         <v>923</v>
       </c>
       <c r="I249" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J249" t="s">
         <v>1079</v>
       </c>
-      <c r="J249" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5">
+    </row>
+    <row r="250" spans="1:17" ht="16.5" hidden="1">
       <c r="D250" t="s">
         <v>850</v>
       </c>
@@ -13357,10 +13727,10 @@
         <v>802</v>
       </c>
       <c r="F250" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G250" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H250" t="s">
         <v>923</v>
@@ -13369,10 +13739,10 @@
         <v>961</v>
       </c>
       <c r="J250" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -13389,7 +13759,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G251" t="s">
         <v>912</v>
@@ -13419,7 +13789,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" hidden="1">
       <c r="D252" t="s">
         <v>286</v>
       </c>
@@ -13427,10 +13797,10 @@
         <v>806</v>
       </c>
       <c r="F252" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G252" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H252" t="s">
         <v>923</v>
@@ -13439,7 +13809,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5">
+    <row r="253" spans="1:17" ht="16.5" hidden="1">
       <c r="D253" t="s">
         <v>388</v>
       </c>
@@ -13447,7 +13817,7 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G253" t="s">
         <v>912</v>
@@ -13459,7 +13829,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" hidden="1">
       <c r="D254" t="s">
         <v>510</v>
       </c>
@@ -13467,7 +13837,7 @@
         <v>809</v>
       </c>
       <c r="F254" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G254" t="s">
         <v>917</v>
@@ -13479,7 +13849,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" hidden="1">
       <c r="D255" t="s">
         <v>476</v>
       </c>
@@ -13487,10 +13857,10 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G255" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H255" t="s">
         <v>923</v>
@@ -13499,7 +13869,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" hidden="1">
       <c r="D256" t="s">
         <v>363</v>
       </c>
@@ -13507,7 +13877,7 @@
         <v>813</v>
       </c>
       <c r="F256" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G256" t="s">
         <v>912</v>
@@ -13519,7 +13889,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1">
       <c r="D257" t="s">
         <v>46</v>
       </c>
@@ -13527,7 +13897,7 @@
         <v>815</v>
       </c>
       <c r="F257" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G257" t="s">
         <v>922</v>
@@ -13536,10 +13906,10 @@
         <v>923</v>
       </c>
       <c r="I257" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="D258" t="s">
         <v>510</v>
       </c>
@@ -13547,10 +13917,10 @@
         <v>816</v>
       </c>
       <c r="F258" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G258" t="s">
         <v>1089</v>
-      </c>
-      <c r="G258" t="s">
-        <v>1090</v>
       </c>
       <c r="H258" t="s">
         <v>923</v>
@@ -13559,7 +13929,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1">
       <c r="D259" t="s">
         <v>798</v>
       </c>
@@ -13567,7 +13937,7 @@
         <v>817</v>
       </c>
       <c r="F259" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G259" t="s">
         <v>922</v>
@@ -13576,10 +13946,10 @@
         <v>923</v>
       </c>
       <c r="I259" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
       <c r="D260" t="s">
         <v>798</v>
       </c>
@@ -13587,22 +13957,22 @@
         <v>821</v>
       </c>
       <c r="F260" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G260" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H260" t="s">
         <v>923</v>
       </c>
       <c r="I260" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J260" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="D261" t="s">
         <v>115</v>
       </c>
@@ -13610,19 +13980,19 @@
         <v>828</v>
       </c>
       <c r="F261" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G261" t="s">
         <v>1094</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1095</v>
       </c>
       <c r="H261" t="s">
         <v>923</v>
       </c>
       <c r="I261" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" hidden="1">
       <c r="D262" t="s">
         <v>798</v>
       </c>
@@ -13630,22 +14000,22 @@
         <v>817</v>
       </c>
       <c r="F262" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G262" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H262" t="s">
         <v>923</v>
       </c>
       <c r="I262" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J262" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="D263" t="s">
         <v>742</v>
       </c>
@@ -13653,7 +14023,7 @@
         <v>830</v>
       </c>
       <c r="F263" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G263" t="s">
         <v>912</v>
@@ -13665,7 +14035,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1">
       <c r="D264" t="s">
         <v>831</v>
       </c>
@@ -13673,10 +14043,10 @@
         <v>832</v>
       </c>
       <c r="F264" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G264" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H264" t="s">
         <v>923</v>
@@ -13685,7 +14055,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1">
       <c r="D265" t="s">
         <v>229</v>
       </c>
@@ -13693,7 +14063,7 @@
         <v>834</v>
       </c>
       <c r="F265" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G265" t="s">
         <v>963</v>
@@ -13702,7 +14072,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -13719,7 +14089,7 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G266" t="s">
         <v>912</v>
@@ -13731,7 +14101,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" t="s">
         <v>417</v>
       </c>
@@ -13748,7 +14118,7 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G267" t="s">
         <v>912</v>
@@ -13760,7 +14130,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -13777,22 +14147,22 @@
         <v>824</v>
       </c>
       <c r="F268" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G268" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H268" t="s">
         <v>923</v>
       </c>
       <c r="I268" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J268" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -13809,7 +14179,7 @@
         <v>855</v>
       </c>
       <c r="F269" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G269" t="s">
         <v>922</v>
@@ -13821,7 +14191,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" hidden="1">
       <c r="D270" t="s">
         <v>869</v>
       </c>
@@ -13829,10 +14199,10 @@
         <v>868</v>
       </c>
       <c r="F270" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" hidden="1">
       <c r="D271" t="s">
         <v>540</v>
       </c>
@@ -13840,7 +14210,7 @@
         <v>888</v>
       </c>
       <c r="F271" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G271" t="s">
         <v>917</v>
@@ -13849,10 +14219,10 @@
         <v>918</v>
       </c>
       <c r="I271" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="D272" t="s">
         <v>649</v>
       </c>
@@ -13860,7 +14230,7 @@
         <v>889</v>
       </c>
       <c r="F272" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G272" t="s">
         <v>912</v>
@@ -13871,8 +14241,11 @@
       <c r="I272" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="273" spans="4:14">
+      <c r="J272" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="273" spans="4:14" hidden="1">
       <c r="D273" t="s">
         <v>890</v>
       </c>
@@ -13880,7 +14253,7 @@
         <v>891</v>
       </c>
       <c r="F273" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G273" t="s">
         <v>985</v>
@@ -13889,7 +14262,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="274" spans="4:14">
+    <row r="274" spans="4:14" hidden="1">
       <c r="D274" t="s">
         <v>890</v>
       </c>
@@ -13897,7 +14270,7 @@
         <v>892</v>
       </c>
       <c r="F274" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G274" t="s">
         <v>985</v>
@@ -13906,7 +14279,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="275" spans="4:14">
+    <row r="275" spans="4:14" hidden="1">
       <c r="D275" t="s">
         <v>894</v>
       </c>
@@ -13914,7 +14287,7 @@
         <v>893</v>
       </c>
       <c r="F275" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G275" t="s">
         <v>985</v>
@@ -13923,7 +14296,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="276" spans="4:14">
+    <row r="276" spans="4:14" hidden="1">
       <c r="D276" t="s">
         <v>553</v>
       </c>
@@ -13931,7 +14304,7 @@
         <v>895</v>
       </c>
       <c r="F276" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G276" t="s">
         <v>917</v>
@@ -13943,10 +14316,10 @@
         <v>952</v>
       </c>
       <c r="J276" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="277" spans="4:14">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="277" spans="4:14" hidden="1">
       <c r="D277" t="s">
         <v>730</v>
       </c>
@@ -13954,7 +14327,7 @@
         <v>814</v>
       </c>
       <c r="F277" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G277" t="s">
         <v>912</v>
@@ -13966,7 +14339,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="278" spans="4:14">
+    <row r="278" spans="4:14" hidden="1">
       <c r="D278" t="s">
         <v>123</v>
       </c>
@@ -13974,7 +14347,7 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G278" t="s">
         <v>912</v>
@@ -13983,10 +14356,10 @@
         <v>913</v>
       </c>
       <c r="I278" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="279" spans="4:14">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="279" spans="4:14" hidden="1">
       <c r="D279" t="s">
         <v>115</v>
       </c>
@@ -13994,22 +14367,22 @@
         <v>899</v>
       </c>
       <c r="F279" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G279" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H279" t="s">
         <v>923</v>
       </c>
       <c r="I279" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J279" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="280" spans="4:14">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="280" spans="4:14" hidden="1">
       <c r="D280" t="s">
         <v>196</v>
       </c>
@@ -14017,33 +14390,33 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G280" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H280" t="s">
         <v>847</v>
       </c>
       <c r="I280" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J280" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="281" spans="4:14">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="281" spans="4:14" hidden="1">
       <c r="D281" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E281" t="s">
         <v>1123</v>
       </c>
-      <c r="E281" t="s">
-        <v>1124</v>
-      </c>
       <c r="F281" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G281" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H281" t="s">
         <v>915</v>
@@ -14052,27 +14425,27 @@
         <v>964</v>
       </c>
       <c r="L281" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M281" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N281" t="s">
         <v>1125</v>
       </c>
-      <c r="M281" t="s">
-        <v>1124</v>
-      </c>
-      <c r="N281" t="s">
+    </row>
+    <row r="282" spans="4:14" hidden="1">
+      <c r="D282" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G282" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="282" spans="4:14">
-      <c r="D282" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1127</v>
       </c>
       <c r="H282" t="s">
         <v>915</v>
@@ -14081,7 +14454,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="283" spans="4:14">
+    <row r="283" spans="4:14" hidden="1">
       <c r="D283" t="s">
         <v>831</v>
       </c>
@@ -14089,256 +14462,345 @@
         <v>832</v>
       </c>
       <c r="F283" t="s">
-        <v>1139</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="284" spans="4:14" hidden="1">
+      <c r="D284" t="s">
+        <v>649</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="285" spans="4:14" hidden="1">
+      <c r="D285" t="s">
+        <v>454</v>
+      </c>
+      <c r="E285" t="s">
+        <v>457</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H285" t="s">
+        <v>66</v>
+      </c>
+      <c r="I285" t="s">
+        <v>909</v>
+      </c>
+      <c r="J285" t="s">
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W285" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="SC9642TS-EC-Q-AH-4XLR-9642"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="152" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="147" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="139" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="138" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="137" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="136" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="130" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="129" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="124" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F8 F10:F134 F136:F1048576">
-    <cfRule type="duplicateValues" dxfId="113" priority="21"/>
+  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F1048576">
+    <cfRule type="duplicateValues" dxfId="145" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="112" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="111" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="109" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F134 F1:F5 F7:F8 F275:F276 F263:F271 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="108" priority="107"/>
+  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="140" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="107" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="104" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="103" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="102" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="101" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="100" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="99" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="97" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="141"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="96" priority="120"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="128" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="95" priority="118"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="127" priority="150"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F134 F1:F5 C7:C186 F7:F8 F275:F276 F149:F234 F136:F147 F10:F18 C210:C1048576 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="139"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F1048576 F93:F134 F91 F27:F89 F149:F234">
+    <cfRule type="duplicateValues" dxfId="126" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="93" priority="126"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="125" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F134 F1:F5 F7:F8 F275:F276 F149:F191 F136:F147 F10:F18 F278:F1048576">
-    <cfRule type="duplicateValues" dxfId="92" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="136"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
+    <cfRule type="duplicateValues" dxfId="124" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="90" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="88" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="86" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="79" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J247 J257:J1048576">
-    <cfRule type="duplicateValues" dxfId="76" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="75" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="74" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="58" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="51" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="duplicateValues" dxfId="80" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="duplicateValues" dxfId="72" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="duplicateValues" dxfId="64" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="48" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N184">
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="46" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="40" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="33" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="26" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="19" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="12" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="8" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CFFC60-6BA9-413F-ABBC-05F62E36943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00DEAD7-E5AD-4932-803C-FE20F74737C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$285</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1154">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3355,10 +3355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NF.SC9642TS-E-Q-AH-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC9642TS-Q-AG-4XHK-9642</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3756,6 +3752,12 @@
   </si>
   <si>
     <t>STC11202B</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-BK-Q</t>
   </si>
 </sst>
 </file>
@@ -3939,7 +3941,87 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="185">
+  <dxfs count="193">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6066,12 +6148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W285"/>
+  <dimension ref="A1:W286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J310" sqref="J310"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6170,7 +6251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6208,7 +6289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6246,7 +6327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6275,7 +6356,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -6316,7 +6397,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6345,7 +6426,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6383,7 +6464,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6448,7 +6529,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -6468,7 +6549,7 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -6486,7 +6567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6518,7 +6599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -6541,7 +6622,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -6579,7 +6660,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6611,7 +6692,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6649,10 +6730,10 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6717,7 +6798,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -6773,7 +6854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -6811,7 +6892,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -6840,7 +6921,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -6881,7 +6962,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -6910,7 +6991,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -6942,7 +7023,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -6971,7 +7052,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -7000,7 +7081,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -7032,7 +7113,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -7070,7 +7151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -7090,10 +7171,10 @@
         <v>841</v>
       </c>
       <c r="G26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H26" t="s">
         <v>1148</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1149</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -7111,7 +7192,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -7140,7 +7221,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -7172,7 +7253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -7204,7 +7285,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -7236,7 +7317,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -7268,7 +7349,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -7297,7 +7378,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7326,7 +7407,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -7355,7 +7436,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -7396,7 +7477,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7425,7 +7506,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -7475,7 +7556,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -7507,7 +7588,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -7557,7 +7638,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -7589,7 +7670,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -7621,7 +7702,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -7680,7 +7761,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -7721,7 +7802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -7750,7 +7831,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1">
+    <row r="45" spans="1:20">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -7782,7 +7863,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -7832,7 +7913,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -7861,7 +7942,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -7893,7 +7974,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -7922,7 +8003,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -7951,7 +8032,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -7983,7 +8064,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -8021,7 +8102,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -8050,7 +8131,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -8082,7 +8163,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -8114,7 +8195,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -8146,7 +8227,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1">
+    <row r="57" spans="1:14">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -8169,7 +8250,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1">
+    <row r="58" spans="1:14">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -8192,7 +8273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1">
+    <row r="59" spans="1:14">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -8215,7 +8296,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1">
+    <row r="60" spans="1:14">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -8238,7 +8319,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1">
+    <row r="61" spans="1:14">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -8261,7 +8342,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1">
+    <row r="62" spans="1:14">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -8284,7 +8365,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1">
+    <row r="63" spans="1:14">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -8307,7 +8388,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1">
+    <row r="64" spans="1:14">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -8330,7 +8411,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -8353,7 +8434,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -8376,7 +8457,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -8399,7 +8480,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -8422,7 +8503,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -8445,7 +8526,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -8474,7 +8555,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -8506,7 +8587,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -8538,7 +8619,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -8570,7 +8651,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -8602,7 +8683,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -8634,7 +8715,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -8657,7 +8738,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -8686,7 +8767,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -8715,7 +8796,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -8753,7 +8834,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -8773,7 +8854,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -8820,7 +8901,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -8849,7 +8930,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -8890,7 +8971,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -8919,7 +9000,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -8948,7 +9029,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -8977,7 +9058,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -9006,7 +9087,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -9035,7 +9116,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -9064,7 +9145,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -9102,7 +9183,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -9134,7 +9215,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -9181,7 +9262,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -9213,7 +9294,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -9242,7 +9323,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -9274,7 +9355,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -9306,7 +9387,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -9335,7 +9416,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -9367,7 +9448,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -9396,7 +9477,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -9434,7 +9515,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>363</v>
       </c>
@@ -9463,7 +9544,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14">
       <c r="D102" t="s">
         <v>363</v>
       </c>
@@ -9492,7 +9573,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -9521,7 +9602,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>363</v>
       </c>
@@ -9559,7 +9640,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -9588,7 +9669,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -9623,10 +9704,10 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" hidden="1">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="D107" t="s">
         <v>388</v>
       </c>
@@ -9646,7 +9727,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -9678,7 +9759,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -9707,7 +9788,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -9742,10 +9823,10 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" hidden="1">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>388</v>
       </c>
@@ -9780,10 +9861,10 @@
         <v>807</v>
       </c>
       <c r="N111" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" hidden="1">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -9812,7 +9893,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -9850,7 +9931,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -9879,7 +9960,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -9908,7 +9989,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1">
+    <row r="116" spans="1:17">
       <c r="D116" t="s">
         <v>417</v>
       </c>
@@ -9937,7 +10018,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -9984,7 +10065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>431</v>
       </c>
@@ -10022,7 +10103,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>436</v>
       </c>
@@ -10072,7 +10153,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10113,7 +10194,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1">
+    <row r="121" spans="1:17">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10145,7 +10226,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -10177,7 +10258,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -10218,7 +10299,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1">
+    <row r="124" spans="1:17">
       <c r="D124" t="s">
         <v>454</v>
       </c>
@@ -10241,7 +10322,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1">
+    <row r="125" spans="1:17">
       <c r="D125" t="s">
         <v>454</v>
       </c>
@@ -10264,7 +10345,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
         <v>459</v>
       </c>
@@ -10305,7 +10386,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -10366,10 +10447,10 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H128" t="s">
         <v>1150</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1151</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
@@ -10387,7 +10468,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>479</v>
       </c>
@@ -10419,7 +10500,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>479</v>
       </c>
@@ -10451,7 +10532,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>479</v>
       </c>
@@ -10483,7 +10564,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>479</v>
       </c>
@@ -10515,7 +10596,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>479</v>
       </c>
@@ -10544,7 +10625,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -10576,7 +10657,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>479</v>
       </c>
@@ -10605,7 +10686,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>498</v>
       </c>
@@ -10637,7 +10718,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>498</v>
       </c>
@@ -10675,7 +10756,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>498</v>
       </c>
@@ -10713,7 +10794,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1">
+    <row r="139" spans="1:14">
       <c r="A139" s="8" t="s">
         <v>498</v>
       </c>
@@ -10754,7 +10835,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>506</v>
       </c>
@@ -10795,7 +10876,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>510</v>
       </c>
@@ -10833,7 +10914,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -10865,7 +10946,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>510</v>
       </c>
@@ -10894,7 +10975,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>510</v>
       </c>
@@ -10923,7 +11004,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="D145" t="s">
         <v>510</v>
       </c>
@@ -10946,7 +11027,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>510</v>
       </c>
@@ -10978,7 +11059,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>510</v>
       </c>
@@ -11010,7 +11091,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>510</v>
       </c>
@@ -11060,7 +11141,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>510</v>
       </c>
@@ -11092,7 +11173,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>510</v>
       </c>
@@ -11124,7 +11205,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>510</v>
       </c>
@@ -11165,7 +11246,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -11194,7 +11275,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>649</v>
       </c>
@@ -11223,7 +11304,7 @@
         <v>924</v>
       </c>
       <c r="J153" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="L153" t="s">
         <v>649</v>
@@ -11244,7 +11325,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>553</v>
       </c>
@@ -11273,7 +11354,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>553</v>
       </c>
@@ -11302,7 +11383,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>553</v>
       </c>
@@ -11331,15 +11412,15 @@
         <v>952</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>553</v>
       </c>
       <c r="B157" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C157" t="s">
         <v>1135</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1136</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -11351,7 +11432,7 @@
         <v>955</v>
       </c>
       <c r="G157" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H157" t="s">
         <v>918</v>
@@ -11363,7 +11444,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>553</v>
       </c>
@@ -11395,7 +11476,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -11424,7 +11505,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>566</v>
       </c>
@@ -11453,7 +11534,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1">
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
         <v>573</v>
       </c>
@@ -11482,7 +11563,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1">
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
         <v>577</v>
       </c>
@@ -11547,7 +11628,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1">
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
         <v>581</v>
       </c>
@@ -11579,7 +11660,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1">
+    <row r="164" spans="1:23">
       <c r="D164" t="s">
         <v>581</v>
       </c>
@@ -11602,7 +11683,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1">
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
         <v>581</v>
       </c>
@@ -11631,7 +11712,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1">
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -11663,7 +11744,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1">
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
         <v>581</v>
       </c>
@@ -11695,7 +11776,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1">
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
         <v>581</v>
       </c>
@@ -11733,7 +11814,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1">
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -11780,7 +11861,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1">
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -11818,7 +11899,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1">
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
         <v>476</v>
       </c>
@@ -11847,7 +11928,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1">
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
         <v>596</v>
       </c>
@@ -11879,7 +11960,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1">
+    <row r="173" spans="1:23">
       <c r="D173" t="s">
         <v>596</v>
       </c>
@@ -11902,7 +11983,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1">
+    <row r="174" spans="1:23">
       <c r="D174" t="s">
         <v>596</v>
       </c>
@@ -11925,7 +12006,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1">
+    <row r="175" spans="1:23">
       <c r="A175" t="s">
         <v>610</v>
       </c>
@@ -11945,7 +12026,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1">
+    <row r="176" spans="1:23">
       <c r="A176" t="s">
         <v>613</v>
       </c>
@@ -11965,7 +12046,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1">
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>616</v>
       </c>
@@ -11982,7 +12063,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1">
+    <row r="178" spans="1:14">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -12011,7 +12092,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1">
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -12040,7 +12121,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>663</v>
       </c>
@@ -12078,7 +12159,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1">
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>667</v>
       </c>
@@ -12107,7 +12188,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>671</v>
       </c>
@@ -12136,7 +12217,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1">
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>677</v>
       </c>
@@ -12174,9 +12255,9 @@
         <v>829</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1">
+    <row r="184" spans="1:14">
       <c r="D184" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
@@ -12185,7 +12266,7 @@
         <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H184" t="s">
         <v>915</v>
@@ -12203,7 +12284,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1">
+    <row r="185" spans="1:14">
       <c r="D185" t="s">
         <v>684</v>
       </c>
@@ -12226,7 +12307,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1">
+    <row r="186" spans="1:14">
       <c r="D186" t="s">
         <v>684</v>
       </c>
@@ -12249,7 +12330,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1">
+    <row r="187" spans="1:14">
       <c r="D187" t="s">
         <v>684</v>
       </c>
@@ -12272,7 +12353,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1">
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>687</v>
       </c>
@@ -12304,7 +12385,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1">
+    <row r="189" spans="1:14">
       <c r="D189" t="s">
         <v>476</v>
       </c>
@@ -12333,7 +12414,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1">
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -12362,7 +12443,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1">
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>703</v>
       </c>
@@ -12391,7 +12472,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1">
+    <row r="192" spans="1:14">
       <c r="D192" t="s">
         <v>540</v>
       </c>
@@ -12414,7 +12495,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="193" spans="4:10" hidden="1">
+    <row r="193" spans="4:10">
       <c r="D193" t="s">
         <v>540</v>
       </c>
@@ -12437,7 +12518,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="194" spans="4:10" hidden="1">
+    <row r="194" spans="4:10">
       <c r="D194" t="s">
         <v>540</v>
       </c>
@@ -12460,7 +12541,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="195" spans="4:10" hidden="1">
+    <row r="195" spans="4:10">
       <c r="D195" t="s">
         <v>540</v>
       </c>
@@ -12483,7 +12564,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="196" spans="4:10" hidden="1">
+    <row r="196" spans="4:10">
       <c r="D196" t="s">
         <v>540</v>
       </c>
@@ -12506,7 +12587,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="197" spans="4:10" hidden="1">
+    <row r="197" spans="4:10">
       <c r="D197" t="s">
         <v>540</v>
       </c>
@@ -12529,7 +12610,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="198" spans="4:10" hidden="1">
+    <row r="198" spans="4:10">
       <c r="D198" t="s">
         <v>540</v>
       </c>
@@ -12552,7 +12633,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="199" spans="4:10" hidden="1">
+    <row r="199" spans="4:10">
       <c r="D199" t="s">
         <v>540</v>
       </c>
@@ -12575,7 +12656,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="200" spans="4:10" hidden="1">
+    <row r="200" spans="4:10">
       <c r="D200" t="s">
         <v>540</v>
       </c>
@@ -12598,7 +12679,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="201" spans="4:10" hidden="1">
+    <row r="201" spans="4:10">
       <c r="D201" t="s">
         <v>540</v>
       </c>
@@ -12621,7 +12702,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="202" spans="4:10" hidden="1">
+    <row r="202" spans="4:10">
       <c r="D202" t="s">
         <v>540</v>
       </c>
@@ -12644,7 +12725,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="203" spans="4:10" hidden="1">
+    <row r="203" spans="4:10">
       <c r="D203" t="s">
         <v>540</v>
       </c>
@@ -12667,7 +12748,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="204" spans="4:10" hidden="1">
+    <row r="204" spans="4:10">
       <c r="D204" t="s">
         <v>540</v>
       </c>
@@ -12690,7 +12771,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="205" spans="4:10" hidden="1">
+    <row r="205" spans="4:10">
       <c r="D205" t="s">
         <v>540</v>
       </c>
@@ -12713,7 +12794,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="206" spans="4:10" hidden="1">
+    <row r="206" spans="4:10">
       <c r="D206" t="s">
         <v>540</v>
       </c>
@@ -12736,7 +12817,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="207" spans="4:10" hidden="1">
+    <row r="207" spans="4:10">
       <c r="D207" t="s">
         <v>540</v>
       </c>
@@ -12759,7 +12840,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="208" spans="4:10" hidden="1">
+    <row r="208" spans="4:10">
       <c r="D208" t="s">
         <v>540</v>
       </c>
@@ -12782,7 +12863,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1">
+    <row r="209" spans="1:14">
       <c r="D209" t="s">
         <v>540</v>
       </c>
@@ -12805,7 +12886,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1">
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
         <v>540</v>
       </c>
@@ -12837,7 +12918,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1">
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -12866,7 +12947,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1">
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -12895,7 +12976,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1">
+    <row r="213" spans="1:14">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -12918,7 +12999,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1">
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -12941,7 +13022,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1">
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -12970,7 +13051,7 @@
         <v>1039</v>
       </c>
       <c r="J215" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -12982,7 +13063,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1">
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -13011,7 +13092,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1">
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
         <v>581</v>
       </c>
@@ -13031,7 +13112,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1">
+    <row r="218" spans="1:14">
       <c r="D218" t="s">
         <v>848</v>
       </c>
@@ -13051,7 +13132,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1">
+    <row r="219" spans="1:14">
       <c r="D219" t="s">
         <v>730</v>
       </c>
@@ -13071,7 +13152,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1">
+    <row r="220" spans="1:14">
       <c r="D220" t="s">
         <v>732</v>
       </c>
@@ -13091,7 +13172,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1">
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -13111,7 +13192,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1">
+    <row r="222" spans="1:14">
       <c r="D222" t="s">
         <v>466</v>
       </c>
@@ -13131,10 +13212,10 @@
         <v>975</v>
       </c>
       <c r="J222" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" hidden="1">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="D223" t="s">
         <v>459</v>
       </c>
@@ -13142,7 +13223,7 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G223" t="s">
         <v>922</v>
@@ -13154,7 +13235,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1">
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
         <v>739</v>
       </c>
@@ -13171,7 +13252,7 @@
         <v>740</v>
       </c>
       <c r="F224" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G224" t="s">
         <v>922</v>
@@ -13180,10 +13261,10 @@
         <v>923</v>
       </c>
       <c r="I224" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" hidden="1">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>742</v>
       </c>
@@ -13203,7 +13284,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>745</v>
       </c>
@@ -13220,7 +13301,7 @@
         <v>746</v>
       </c>
       <c r="F226" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G226" t="s">
         <v>922</v>
@@ -13229,10 +13310,10 @@
         <v>923</v>
       </c>
       <c r="I226" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -13240,7 +13321,7 @@
         <v>747</v>
       </c>
       <c r="F227" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G227" t="s">
         <v>922</v>
@@ -13252,7 +13333,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -13260,7 +13341,7 @@
         <v>748</v>
       </c>
       <c r="F228" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G228" t="s">
         <v>922</v>
@@ -13272,7 +13353,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -13280,7 +13361,7 @@
         <v>749</v>
       </c>
       <c r="F229" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G229" t="s">
         <v>912</v>
@@ -13292,7 +13373,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -13300,7 +13381,7 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G230" t="s">
         <v>922</v>
@@ -13312,7 +13393,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="8" t="s">
         <v>406</v>
       </c>
@@ -13329,7 +13410,7 @@
         <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G231" t="s">
         <v>922</v>
@@ -13341,7 +13422,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -13349,7 +13430,7 @@
         <v>750</v>
       </c>
       <c r="F232" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G232" t="s">
         <v>912</v>
@@ -13358,10 +13439,10 @@
         <v>913</v>
       </c>
       <c r="I232" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -13369,7 +13450,7 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G233" t="s">
         <v>912</v>
@@ -13381,7 +13462,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -13389,7 +13470,7 @@
         <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G234" t="s">
         <v>922</v>
@@ -13401,7 +13482,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="D235" t="s">
         <v>730</v>
       </c>
@@ -13409,7 +13490,7 @@
         <v>752</v>
       </c>
       <c r="F235" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G235" t="s">
         <v>912</v>
@@ -13421,7 +13502,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="D236" t="s">
         <v>643</v>
       </c>
@@ -13429,7 +13510,7 @@
         <v>753</v>
       </c>
       <c r="F236" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G236" t="s">
         <v>912</v>
@@ -13438,10 +13519,10 @@
         <v>913</v>
       </c>
       <c r="I236" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" hidden="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="D237" t="s">
         <v>643</v>
       </c>
@@ -13449,7 +13530,7 @@
         <v>754</v>
       </c>
       <c r="F237" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G237" t="s">
         <v>912</v>
@@ -13458,10 +13539,10 @@
         <v>913</v>
       </c>
       <c r="I237" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" hidden="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -13481,7 +13562,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -13498,10 +13579,10 @@
         <v>913</v>
       </c>
       <c r="I239" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" hidden="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="D240" t="s">
         <v>498</v>
       </c>
@@ -13509,7 +13590,7 @@
         <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G240" t="s">
         <v>922</v>
@@ -13521,7 +13602,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>720</v>
       </c>
@@ -13538,7 +13619,7 @@
         <v>759</v>
       </c>
       <c r="F241" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G241" t="s">
         <v>912</v>
@@ -13550,10 +13631,10 @@
         <v>924</v>
       </c>
       <c r="J241" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17" hidden="1">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>649</v>
       </c>
@@ -13561,7 +13642,7 @@
         <v>760</v>
       </c>
       <c r="F242" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G242" t="s">
         <v>1038</v>
@@ -13573,7 +13654,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
         <v>649</v>
       </c>
@@ -13581,7 +13662,7 @@
         <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G243" t="s">
         <v>1038</v>
@@ -13593,7 +13674,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1">
+    <row r="244" spans="1:17">
       <c r="D244" t="s">
         <v>692</v>
       </c>
@@ -13601,7 +13682,7 @@
         <v>762</v>
       </c>
       <c r="F244" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G244" t="s">
         <v>912</v>
@@ -13613,7 +13694,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1">
+    <row r="245" spans="1:17">
       <c r="D245" t="s">
         <v>771</v>
       </c>
@@ -13621,7 +13702,7 @@
         <v>772</v>
       </c>
       <c r="F245" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G245" t="s">
         <v>922</v>
@@ -13633,7 +13714,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1">
+    <row r="246" spans="1:17">
       <c r="D246" t="s">
         <v>737</v>
       </c>
@@ -13641,7 +13722,7 @@
         <v>738</v>
       </c>
       <c r="F246" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G246" t="s">
         <v>917</v>
@@ -13653,10 +13734,10 @@
         <v>1012</v>
       </c>
       <c r="J246" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" hidden="1">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
       <c r="D247" t="s">
         <v>773</v>
       </c>
@@ -13664,7 +13745,7 @@
         <v>774</v>
       </c>
       <c r="F247" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G247" t="s">
         <v>922</v>
@@ -13673,10 +13754,10 @@
         <v>923</v>
       </c>
       <c r="I247" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" hidden="1">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
       <c r="D248" t="s">
         <v>613</v>
       </c>
@@ -13684,7 +13765,7 @@
         <v>797</v>
       </c>
       <c r="F248" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G248" t="s">
         <v>985</v>
@@ -13693,10 +13774,10 @@
         <v>986</v>
       </c>
       <c r="I248" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17" hidden="1">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
       <c r="D249" t="s">
         <v>798</v>
       </c>
@@ -13704,22 +13785,22 @@
         <v>799</v>
       </c>
       <c r="F249" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G249" t="s">
         <v>1076</v>
-      </c>
-      <c r="G249" t="s">
-        <v>1077</v>
       </c>
       <c r="H249" t="s">
         <v>923</v>
       </c>
       <c r="I249" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J249" t="s">
         <v>1078</v>
       </c>
-      <c r="J249" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5" hidden="1">
+    </row>
+    <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
         <v>850</v>
       </c>
@@ -13727,10 +13808,10 @@
         <v>802</v>
       </c>
       <c r="F250" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G250" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H250" t="s">
         <v>923</v>
@@ -13739,10 +13820,10 @@
         <v>961</v>
       </c>
       <c r="J250" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17" hidden="1">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -13759,7 +13840,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G251" t="s">
         <v>912</v>
@@ -13789,7 +13870,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1">
+    <row r="252" spans="1:17">
       <c r="D252" t="s">
         <v>286</v>
       </c>
@@ -13797,7 +13878,7 @@
         <v>806</v>
       </c>
       <c r="F252" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G252" t="s">
         <v>1009</v>
@@ -13809,7 +13890,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5" hidden="1">
+    <row r="253" spans="1:17" ht="16.5">
       <c r="D253" t="s">
         <v>388</v>
       </c>
@@ -13817,7 +13898,7 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G253" t="s">
         <v>912</v>
@@ -13829,7 +13910,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1">
+    <row r="254" spans="1:17">
       <c r="D254" t="s">
         <v>510</v>
       </c>
@@ -13837,7 +13918,7 @@
         <v>809</v>
       </c>
       <c r="F254" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G254" t="s">
         <v>917</v>
@@ -13849,7 +13930,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1">
+    <row r="255" spans="1:17">
       <c r="D255" t="s">
         <v>476</v>
       </c>
@@ -13857,7 +13938,7 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G255" t="s">
         <v>1009</v>
@@ -13869,7 +13950,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1">
+    <row r="256" spans="1:17">
       <c r="D256" t="s">
         <v>363</v>
       </c>
@@ -13877,7 +13958,7 @@
         <v>813</v>
       </c>
       <c r="F256" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G256" t="s">
         <v>912</v>
@@ -13889,7 +13970,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="D257" t="s">
         <v>46</v>
       </c>
@@ -13897,7 +13978,7 @@
         <v>815</v>
       </c>
       <c r="F257" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G257" t="s">
         <v>922</v>
@@ -13906,10 +13987,10 @@
         <v>923</v>
       </c>
       <c r="I257" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" hidden="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="D258" t="s">
         <v>510</v>
       </c>
@@ -13917,10 +13998,10 @@
         <v>816</v>
       </c>
       <c r="F258" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G258" t="s">
         <v>1088</v>
-      </c>
-      <c r="G258" t="s">
-        <v>1089</v>
       </c>
       <c r="H258" t="s">
         <v>923</v>
@@ -13929,7 +14010,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="D259" t="s">
         <v>798</v>
       </c>
@@ -13937,7 +14018,7 @@
         <v>817</v>
       </c>
       <c r="F259" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G259" t="s">
         <v>922</v>
@@ -13946,10 +14027,10 @@
         <v>923</v>
       </c>
       <c r="I259" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" hidden="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="D260" t="s">
         <v>798</v>
       </c>
@@ -13957,10 +14038,10 @@
         <v>821</v>
       </c>
       <c r="F260" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G260" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H260" t="s">
         <v>923</v>
@@ -13969,10 +14050,10 @@
         <v>1001</v>
       </c>
       <c r="J260" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" hidden="1">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="D261" t="s">
         <v>115</v>
       </c>
@@ -13980,19 +14061,19 @@
         <v>828</v>
       </c>
       <c r="F261" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G261" t="s">
         <v>1093</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1094</v>
       </c>
       <c r="H261" t="s">
         <v>923</v>
       </c>
       <c r="I261" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" hidden="1">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="D262" t="s">
         <v>798</v>
       </c>
@@ -14000,22 +14081,22 @@
         <v>817</v>
       </c>
       <c r="F262" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G262" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H262" t="s">
         <v>923</v>
       </c>
       <c r="I262" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J262" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" hidden="1">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
       <c r="D263" t="s">
         <v>742</v>
       </c>
@@ -14023,7 +14104,7 @@
         <v>830</v>
       </c>
       <c r="F263" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G263" t="s">
         <v>912</v>
@@ -14035,7 +14116,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="D264" t="s">
         <v>831</v>
       </c>
@@ -14043,7 +14124,7 @@
         <v>832</v>
       </c>
       <c r="F264" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G264" t="s">
         <v>1009</v>
@@ -14055,7 +14136,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10">
       <c r="D265" t="s">
         <v>229</v>
       </c>
@@ -14063,7 +14144,7 @@
         <v>834</v>
       </c>
       <c r="F265" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G265" t="s">
         <v>963</v>
@@ -14072,7 +14153,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -14089,19 +14170,22 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G266" t="s">
-        <v>912</v>
+        <v>601</v>
       </c>
       <c r="H266" t="s">
-        <v>913</v>
+        <v>66</v>
       </c>
       <c r="I266" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" hidden="1">
+      <c r="J266" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>417</v>
       </c>
@@ -14118,7 +14202,7 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G267" t="s">
         <v>912</v>
@@ -14130,7 +14214,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -14147,22 +14231,22 @@
         <v>824</v>
       </c>
       <c r="F268" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G268" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H268" t="s">
         <v>923</v>
       </c>
       <c r="I268" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J268" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" hidden="1">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -14179,7 +14263,7 @@
         <v>855</v>
       </c>
       <c r="F269" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G269" t="s">
         <v>922</v>
@@ -14191,7 +14275,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="D270" t="s">
         <v>869</v>
       </c>
@@ -14199,10 +14283,10 @@
         <v>868</v>
       </c>
       <c r="F270" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" hidden="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="D271" t="s">
         <v>540</v>
       </c>
@@ -14210,7 +14294,7 @@
         <v>888</v>
       </c>
       <c r="F271" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G271" t="s">
         <v>917</v>
@@ -14222,7 +14306,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="D272" t="s">
         <v>649</v>
       </c>
@@ -14230,7 +14314,7 @@
         <v>889</v>
       </c>
       <c r="F272" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G272" t="s">
         <v>912</v>
@@ -14242,10 +14326,10 @@
         <v>924</v>
       </c>
       <c r="J272" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="273" spans="4:14" hidden="1">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="D273" t="s">
         <v>890</v>
       </c>
@@ -14253,7 +14337,7 @@
         <v>891</v>
       </c>
       <c r="F273" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G273" t="s">
         <v>985</v>
@@ -14262,7 +14346,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="274" spans="4:14" hidden="1">
+    <row r="274" spans="1:14">
       <c r="D274" t="s">
         <v>890</v>
       </c>
@@ -14270,7 +14354,7 @@
         <v>892</v>
       </c>
       <c r="F274" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G274" t="s">
         <v>985</v>
@@ -14279,7 +14363,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="275" spans="4:14" hidden="1">
+    <row r="275" spans="1:14">
       <c r="D275" t="s">
         <v>894</v>
       </c>
@@ -14287,7 +14371,7 @@
         <v>893</v>
       </c>
       <c r="F275" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G275" t="s">
         <v>985</v>
@@ -14296,7 +14380,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="276" spans="4:14" hidden="1">
+    <row r="276" spans="1:14">
       <c r="D276" t="s">
         <v>553</v>
       </c>
@@ -14304,7 +14388,7 @@
         <v>895</v>
       </c>
       <c r="F276" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G276" t="s">
         <v>917</v>
@@ -14316,10 +14400,10 @@
         <v>952</v>
       </c>
       <c r="J276" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="277" spans="4:14" hidden="1">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="D277" t="s">
         <v>730</v>
       </c>
@@ -14327,7 +14411,7 @@
         <v>814</v>
       </c>
       <c r="F277" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G277" t="s">
         <v>912</v>
@@ -14339,7 +14423,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="278" spans="4:14" hidden="1">
+    <row r="278" spans="1:14">
       <c r="D278" t="s">
         <v>123</v>
       </c>
@@ -14347,7 +14431,7 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G278" t="s">
         <v>912</v>
@@ -14356,10 +14440,10 @@
         <v>913</v>
       </c>
       <c r="I278" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="279" spans="4:14" hidden="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="D279" t="s">
         <v>115</v>
       </c>
@@ -14367,10 +14451,10 @@
         <v>899</v>
       </c>
       <c r="F279" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G279" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H279" t="s">
         <v>923</v>
@@ -14379,10 +14463,10 @@
         <v>1001</v>
       </c>
       <c r="J279" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="280" spans="4:14" hidden="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="D280" t="s">
         <v>196</v>
       </c>
@@ -14390,33 +14474,33 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G280" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H280" t="s">
         <v>847</v>
       </c>
       <c r="I280" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J280" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="281" spans="4:14" hidden="1">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="D281" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E281" t="s">
         <v>1122</v>
       </c>
-      <c r="E281" t="s">
-        <v>1123</v>
-      </c>
       <c r="F281" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G281" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H281" t="s">
         <v>915</v>
@@ -14425,27 +14509,27 @@
         <v>964</v>
       </c>
       <c r="L281" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M281" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N281" t="s">
         <v>1124</v>
       </c>
-      <c r="M281" t="s">
-        <v>1123</v>
-      </c>
-      <c r="N281" t="s">
+    </row>
+    <row r="282" spans="1:14">
+      <c r="D282" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G282" t="s">
         <v>1125</v>
-      </c>
-    </row>
-    <row r="282" spans="4:14" hidden="1">
-      <c r="D282" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1126</v>
       </c>
       <c r="H282" t="s">
         <v>915</v>
@@ -14454,7 +14538,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="283" spans="4:14" hidden="1">
+    <row r="283" spans="1:14">
       <c r="D283" t="s">
         <v>831</v>
       </c>
@@ -14462,30 +14546,30 @@
         <v>832</v>
       </c>
       <c r="F283" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="284" spans="4:14" hidden="1">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="D284" t="s">
         <v>649</v>
       </c>
       <c r="E284" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F284" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G284" t="s">
         <v>1141</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>1142</v>
       </c>
-      <c r="H284" t="s">
-        <v>1143</v>
-      </c>
       <c r="J284" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="285" spans="4:14" hidden="1">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="D285" t="s">
         <v>454</v>
       </c>
@@ -14493,10 +14577,10 @@
         <v>457</v>
       </c>
       <c r="F285" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G285" t="s">
         <v>1145</v>
-      </c>
-      <c r="G285" t="s">
-        <v>1146</v>
       </c>
       <c r="H285" t="s">
         <v>66</v>
@@ -14505,302 +14589,347 @@
         <v>909</v>
       </c>
       <c r="J285" t="s">
-        <v>1147</v>
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286" t="s">
+        <v>466</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C286" t="s">
+        <v>898</v>
+      </c>
+      <c r="D286" t="s">
+        <v>466</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H286" t="s">
+        <v>908</v>
+      </c>
+      <c r="I286" t="s">
+        <v>975</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W285" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="SC9642TS-EC-Q-AH-4XLR-9642"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="184" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="179" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="171" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="170" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="169" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="214"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="168" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="162" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="161" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="156" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F1048576">
-    <cfRule type="duplicateValues" dxfId="145" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="144" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="143" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="141" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210:F234 F236:F261 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="140" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="139" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="136" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="135" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="134" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="133" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="131" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="129" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="128" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="127" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F1048576 F93:F134 F91 F27:F89 F149:F234">
-    <cfRule type="duplicateValues" dxfId="126" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="125" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="124" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="122" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="120" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="118" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="111" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="201"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J247 J257:J1048576">
-    <cfRule type="duplicateValues" dxfId="108" priority="170"/>
+  <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J221 J257:J1048576 J223:J247">
+    <cfRule type="duplicateValues" dxfId="116" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="107" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="106" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="98" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="90" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="83" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="80" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="72" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="64" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="56" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="46" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="40" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="33" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="26" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="19" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="12" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="8" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00DEAD7-E5AD-4932-803C-FE20F74737C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A85A9F-599D-4396-8DAD-5B511AE4830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$287</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1161">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3483,59 +3483,296 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SC2546VB-AB-DA-00CK-2546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2438SO-CM-10CR-2438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40CR-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-G1630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2462SO-Q-CJ-10CR-2462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2948S2-DB-60AK-61H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-U-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445B2-713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445B2-713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245A1-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-4451H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445A1-AB-4451H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC3100VB-DG-00CK-3100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC4011B-DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC243XUA-CI-10AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442SO-Q-CR-1XCX-2442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002A1-CG-00HK-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1002A1(STC1002AG)-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002N2W-CL-00AK-N41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2452SO-Q-DD-60AR-2452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRVE8602A5R-8602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE8602AKR-8602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5-1430QC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624SP20B5-SC4624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4624SP20B5-SC4624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00CR-43F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245UA-1245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1245UA-1245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1945A1-AJ-00HK-N602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1945A1-AJ-N602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1945B1-AJ-N13</t>
+  </si>
+  <si>
+    <t>江苏尊阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11205C</t>
+  </si>
+  <si>
+    <t>SC4823S6-TR</t>
+  </si>
+  <si>
+    <t>STC11205A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4823S6-GA-00NR-4823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2438SO-Q-CM-10AR-2438</t>
+  </si>
+  <si>
+    <t>SC243XSO-Q-CM-10AR-243X</t>
+  </si>
+  <si>
+    <t>SC2436SO-CM-10AR-2436</t>
+  </si>
+  <si>
+    <t>STC11205B</t>
+  </si>
+  <si>
+    <t>SC4823S6-K-TR</t>
+  </si>
+  <si>
+    <t>SC4823S6-GC-00NR-4823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4823S6-K-GB-00NR-4823K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442UA-Q-CP-10AK-2442</t>
+  </si>
+  <si>
+    <t>CA-IS23050W</t>
+  </si>
+  <si>
+    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+  </si>
+  <si>
+    <t>NF.SC69401DC-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>NF.SC69401HS-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTB-69401</t>
+  </si>
+  <si>
+    <t>赛扬%华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-TB-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-CE-00CK-9625</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+  </si>
+  <si>
+    <t>NA.SC9625VB-CE</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-BK-Q</t>
+  </si>
+  <si>
     <t>SC1945S1-AM-00AK-N13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2546VB-AB-DA-00CK-2546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402S1-CJ-90AK-6571</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2438SO-CM-10CR-2438</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-P-Q-DE-40CR-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10AR-G1630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2462SO-Q-CJ-10CR-2462</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2948S2-DB-60AK-61H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-U-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新光扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A1-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445B2-713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445B2-713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245A1-41F</t>
+  </si>
+  <si>
+    <t>SC1945S1-AJ-00AK-N13</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2443UA-Q-DB-60HK-2443</t>
+  </si>
+  <si>
+    <t>NF.SC2443UA-Q-DB-2443</t>
+  </si>
+  <si>
+    <t>STC11102B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3543,221 +3780,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TO-92S-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A1-4451H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445A1-AB-4451H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC3100VB-DG-00CK-3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4012SO-N-XE-90NR-4012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC4011B-DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC243XUA-CI-10AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442SO-Q-CR-1XCX-2442</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002A1-CG-00HK-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1002A1(STC1002AG)-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002N2W-CL-00AK-N41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2452SO-Q-DD-60AR-2452</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRVE8602A5R-8602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VE8602AKR-8602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VE1430Q1CA3R5-1430QC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624SP20B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4624SP20B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1134BU-CI-00CR-43F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245UA-1245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1245UA-1245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1945A1-AJ-00HK-N602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1945A1-AJ-N602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1945B1-AJ-N13</t>
-  </si>
-  <si>
-    <t>江苏尊阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11205C</t>
-  </si>
-  <si>
-    <t>SC4823S6-TR</t>
-  </si>
-  <si>
-    <t>STC11205A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4823S6-GA-00NR-4823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2438SO-Q-CM-10AR-2438</t>
-  </si>
-  <si>
-    <t>SC243XSO-Q-CM-10AR-243X</t>
-  </si>
-  <si>
-    <t>SC2436SO-CM-10AR-2436</t>
-  </si>
-  <si>
-    <t>STC11205B</t>
-  </si>
-  <si>
-    <t>SC4823S6-K-TR</t>
-  </si>
-  <si>
-    <t>SC4823S6-GC-00NR-4823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4823S6-K-GB-00NR-4823K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442UA-Q-CP-10AK-2442</t>
-  </si>
-  <si>
-    <t>CA-IS23050W</t>
-  </si>
-  <si>
-    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4012SO-N-XE-90NR-4012</t>
-  </si>
-  <si>
-    <t>NF.SC69401DC-Q-HD-69401</t>
-  </si>
-  <si>
-    <t>NF.SC69401HS-Q-HD-69401</t>
-  </si>
-  <si>
-    <t>SC69401HS-Q-HD-4XTB-69401</t>
-  </si>
-  <si>
-    <t>赛扬%华天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-TB-Q</t>
-  </si>
-  <si>
-    <t>SC9625VB-CE-00CK-9625</t>
-  </si>
-  <si>
-    <t>赛扬&amp;长电</t>
-  </si>
-  <si>
-    <t>NA.SC9625VB-CE</t>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭&amp;浙江赛扬</t>
-  </si>
-  <si>
-    <t>Jaynie&amp;方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11202B</t>
-  </si>
-  <si>
-    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-BK-Q</t>
+    <t>SC2443SO-Q-CT-10AR-2443</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +3964,117 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="204">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6148,11 +6281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <dimension ref="A1:W286"/>
+  <dimension ref="A1:W287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6549,7 +6682,7 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -6730,7 +6863,7 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7171,10 +7304,10 @@
         <v>841</v>
       </c>
       <c r="G26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H26" t="s">
         <v>1147</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1148</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -9704,7 +9837,7 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9823,7 +9956,7 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -9861,7 +9994,7 @@
         <v>807</v>
       </c>
       <c r="N111" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9893,7 +10026,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -9931,7 +10064,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -9960,7 +10093,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -9989,7 +10122,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:20">
       <c r="D116" t="s">
         <v>417</v>
       </c>
@@ -10018,7 +10151,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -10065,7 +10198,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>431</v>
       </c>
@@ -10102,8 +10235,17 @@
       <c r="N118" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="O118" t="s">
+        <v>431</v>
+      </c>
+      <c r="P118" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>436</v>
       </c>
@@ -10152,8 +10294,17 @@
       <c r="Q119" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119" t="s">
+        <v>46</v>
+      </c>
+      <c r="S119" t="s">
+        <v>439</v>
+      </c>
+      <c r="T119" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10194,7 +10345,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:20">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10226,7 +10377,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -10258,7 +10409,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -10299,7 +10450,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:20">
       <c r="D124" t="s">
         <v>454</v>
       </c>
@@ -10322,7 +10473,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:20">
       <c r="D125" t="s">
         <v>454</v>
       </c>
@@ -10345,7 +10496,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>459</v>
       </c>
@@ -10386,7 +10537,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -10427,7 +10578,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>466</v>
       </c>
@@ -10447,10 +10598,10 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H128" t="s">
         <v>1149</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1150</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
@@ -11304,7 +11455,7 @@
         <v>924</v>
       </c>
       <c r="J153" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L153" t="s">
         <v>649</v>
@@ -11417,10 +11568,10 @@
         <v>553</v>
       </c>
       <c r="B157" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C157" t="s">
         <v>1134</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1135</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -11432,7 +11583,7 @@
         <v>955</v>
       </c>
       <c r="G157" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H157" t="s">
         <v>918</v>
@@ -12257,7 +12408,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="D184" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
@@ -12266,7 +12417,7 @@
         <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H184" t="s">
         <v>915</v>
@@ -13051,7 +13202,7 @@
         <v>1039</v>
       </c>
       <c r="J215" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -13212,7 +13363,7 @@
         <v>975</v>
       </c>
       <c r="J222" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -13631,7 +13782,7 @@
         <v>924</v>
       </c>
       <c r="J241" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -13808,10 +13959,10 @@
         <v>802</v>
       </c>
       <c r="F250" t="s">
-        <v>1079</v>
+        <v>1154</v>
       </c>
       <c r="G250" t="s">
-        <v>1076</v>
+        <v>1155</v>
       </c>
       <c r="H250" t="s">
         <v>923</v>
@@ -13820,7 +13971,16 @@
         <v>961</v>
       </c>
       <c r="J250" t="s">
-        <v>1119</v>
+        <v>1118</v>
+      </c>
+      <c r="L250" t="s">
+        <v>196</v>
+      </c>
+      <c r="M250" t="s">
+        <v>802</v>
+      </c>
+      <c r="N250" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="251" spans="1:17">
@@ -13840,7 +14000,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G251" t="s">
         <v>912</v>
@@ -13878,7 +14038,7 @@
         <v>806</v>
       </c>
       <c r="F252" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G252" t="s">
         <v>1009</v>
@@ -13898,7 +14058,7 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G253" t="s">
         <v>912</v>
@@ -13918,7 +14078,7 @@
         <v>809</v>
       </c>
       <c r="F254" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G254" t="s">
         <v>917</v>
@@ -13938,7 +14098,7 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G255" t="s">
         <v>1009</v>
@@ -13958,7 +14118,7 @@
         <v>813</v>
       </c>
       <c r="F256" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G256" t="s">
         <v>912</v>
@@ -13978,7 +14138,7 @@
         <v>815</v>
       </c>
       <c r="F257" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G257" t="s">
         <v>922</v>
@@ -13998,10 +14158,10 @@
         <v>816</v>
       </c>
       <c r="F258" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G258" t="s">
         <v>1087</v>
-      </c>
-      <c r="G258" t="s">
-        <v>1088</v>
       </c>
       <c r="H258" t="s">
         <v>923</v>
@@ -14018,7 +14178,7 @@
         <v>817</v>
       </c>
       <c r="F259" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G259" t="s">
         <v>922</v>
@@ -14038,7 +14198,7 @@
         <v>821</v>
       </c>
       <c r="F260" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G260" t="s">
         <v>1076</v>
@@ -14050,7 +14210,7 @@
         <v>1001</v>
       </c>
       <c r="J260" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -14061,16 +14221,16 @@
         <v>828</v>
       </c>
       <c r="F261" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G261" t="s">
         <v>1092</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1093</v>
       </c>
       <c r="H261" t="s">
         <v>923</v>
       </c>
       <c r="I261" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -14081,7 +14241,7 @@
         <v>817</v>
       </c>
       <c r="F262" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G262" t="s">
         <v>1076</v>
@@ -14093,7 +14253,7 @@
         <v>1051</v>
       </c>
       <c r="J262" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -14104,7 +14264,7 @@
         <v>830</v>
       </c>
       <c r="F263" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G263" t="s">
         <v>912</v>
@@ -14124,7 +14284,7 @@
         <v>832</v>
       </c>
       <c r="F264" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G264" t="s">
         <v>1009</v>
@@ -14144,7 +14304,7 @@
         <v>834</v>
       </c>
       <c r="F265" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G265" t="s">
         <v>963</v>
@@ -14170,7 +14330,7 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G266" t="s">
         <v>601</v>
@@ -14202,7 +14362,7 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G267" t="s">
         <v>912</v>
@@ -14231,7 +14391,7 @@
         <v>824</v>
       </c>
       <c r="F268" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G268" t="s">
         <v>1076</v>
@@ -14240,10 +14400,10 @@
         <v>923</v>
       </c>
       <c r="I268" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="J268" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -14263,7 +14423,7 @@
         <v>855</v>
       </c>
       <c r="F269" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G269" t="s">
         <v>922</v>
@@ -14283,7 +14443,7 @@
         <v>868</v>
       </c>
       <c r="F270" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -14294,7 +14454,7 @@
         <v>888</v>
       </c>
       <c r="F271" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G271" t="s">
         <v>917</v>
@@ -14314,7 +14474,7 @@
         <v>889</v>
       </c>
       <c r="F272" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G272" t="s">
         <v>912</v>
@@ -14326,7 +14486,7 @@
         <v>924</v>
       </c>
       <c r="J272" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -14337,7 +14497,7 @@
         <v>891</v>
       </c>
       <c r="F273" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G273" t="s">
         <v>985</v>
@@ -14354,7 +14514,7 @@
         <v>892</v>
       </c>
       <c r="F274" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G274" t="s">
         <v>985</v>
@@ -14371,7 +14531,7 @@
         <v>893</v>
       </c>
       <c r="F275" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G275" t="s">
         <v>985</v>
@@ -14388,7 +14548,7 @@
         <v>895</v>
       </c>
       <c r="F276" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G276" t="s">
         <v>917</v>
@@ -14400,7 +14560,7 @@
         <v>952</v>
       </c>
       <c r="J276" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -14411,7 +14571,7 @@
         <v>814</v>
       </c>
       <c r="F277" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G277" t="s">
         <v>912</v>
@@ -14431,7 +14591,7 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G278" t="s">
         <v>912</v>
@@ -14451,10 +14611,10 @@
         <v>899</v>
       </c>
       <c r="F279" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G279" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H279" t="s">
         <v>923</v>
@@ -14463,7 +14623,7 @@
         <v>1001</v>
       </c>
       <c r="J279" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -14474,7 +14634,7 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G280" t="s">
         <v>1076</v>
@@ -14483,24 +14643,24 @@
         <v>847</v>
       </c>
       <c r="I280" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="J280" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="281" spans="1:14">
       <c r="D281" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E281" t="s">
         <v>1121</v>
       </c>
-      <c r="E281" t="s">
-        <v>1122</v>
-      </c>
       <c r="F281" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G281" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H281" t="s">
         <v>915</v>
@@ -14509,27 +14669,27 @@
         <v>964</v>
       </c>
       <c r="L281" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M281" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N281" t="s">
         <v>1123</v>
-      </c>
-      <c r="M281" t="s">
-        <v>1122</v>
-      </c>
-      <c r="N281" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="282" spans="1:14">
       <c r="D282" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E282" t="s">
         <v>1129</v>
       </c>
-      <c r="E282" t="s">
-        <v>1130</v>
-      </c>
       <c r="F282" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G282" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H282" t="s">
         <v>915</v>
@@ -14546,7 +14706,7 @@
         <v>832</v>
       </c>
       <c r="F283" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -14554,19 +14714,19 @@
         <v>649</v>
       </c>
       <c r="E284" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F284" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G284" t="s">
         <v>1140</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>1141</v>
       </c>
-      <c r="H284" t="s">
-        <v>1142</v>
-      </c>
       <c r="J284" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -14577,10 +14737,10 @@
         <v>457</v>
       </c>
       <c r="F285" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G285" t="s">
         <v>1144</v>
-      </c>
-      <c r="G285" t="s">
-        <v>1145</v>
       </c>
       <c r="H285" t="s">
         <v>66</v>
@@ -14589,7 +14749,7 @@
         <v>909</v>
       </c>
       <c r="J285" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -14597,7 +14757,7 @@
         <v>466</v>
       </c>
       <c r="B286" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C286" t="s">
         <v>898</v>
@@ -14606,10 +14766,10 @@
         <v>466</v>
       </c>
       <c r="E286" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F286" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G286" t="s">
         <v>1046</v>
@@ -14621,315 +14781,347 @@
         <v>975</v>
       </c>
     </row>
+    <row r="287" spans="1:14">
+      <c r="A287" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B287" t="s">
+        <v>439</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D287" t="s">
+        <v>436</v>
+      </c>
+      <c r="E287" t="s">
+        <v>439</v>
+      </c>
+      <c r="F287" t="s">
+        <v>442</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H287" t="s">
+        <v>66</v>
+      </c>
+      <c r="I287" t="s">
+        <v>626</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W287" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="192" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="187" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="179" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="178" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="177" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="176" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="170" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="169" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="164" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="159" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F1048576">
-    <cfRule type="duplicateValues" dxfId="153" priority="61"/>
+  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F249 F251:F286 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="164" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="152" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="151" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="149" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="188"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F210:F234 F236:F261 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="148" priority="147"/>
+  <conditionalFormatting sqref="F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F261 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="159" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="147" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="144" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F250">
+    <cfRule type="duplicateValues" dxfId="154" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="143" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="142" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="141" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="140" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="139" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="137" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="160"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F259 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="136" priority="160"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F259 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="137" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F260 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="135" priority="158"/>
+  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F260 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="136" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F256 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F1048576 F93:F134 F91 F27:F89 F149:F234">
-    <cfRule type="duplicateValues" dxfId="134" priority="179"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F286 F93:F134 F91 F27:F89 F149:F234 F251:F256 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="135" priority="190"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F257 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="133" priority="166"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F257 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="134" priority="177"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F256 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F1048576 F93:F134 F91 F27:F89 F149:F191">
-    <cfRule type="duplicateValues" dxfId="132" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="175"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F256 F288:F1048576">
+    <cfRule type="duplicateValues" dxfId="133" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="130" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="128" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="126" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F287:G287">
+    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="119" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J222">
+    <cfRule type="duplicateValues" dxfId="116" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J221 J257:J1048576 J223:J247">
-    <cfRule type="duplicateValues" dxfId="116" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="115" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="114" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="106" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="98" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="91" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="88" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="80" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="72" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="64" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="62" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="54" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="48" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="41" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="34" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="27" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="20" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="14" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A85A9F-599D-4396-8DAD-5B511AE4830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E3937-75A3-4C05-B21A-5E6BD4C7BE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="1161">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2363,1424 +2363,1426 @@
     <t>SC2432SO-CM-10CR-2432</t>
   </si>
   <si>
+    <t>STC12100B</t>
+  </si>
+  <si>
+    <t>SC9684TS-TR-Q</t>
+  </si>
+  <si>
+    <t>STC9D05C</t>
+  </si>
+  <si>
+    <t>SC60370QS-TY</t>
+  </si>
+  <si>
+    <t>SC2413SO-N-CD-00NR-44E</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;南通华达</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;佛山蓝箭</t>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+  </si>
+  <si>
+    <t>SC1138UA-CC-00AK-1138</t>
+  </si>
+  <si>
+    <t>SC1645A1-AI-00HK-1466</t>
+  </si>
+  <si>
+    <t>SC1645B1-AE-00HK-4601</t>
+  </si>
+  <si>
+    <t>SC4002UA-CA-00AK-95A</t>
+  </si>
+  <si>
+    <t>SC4002SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC4002SO-N-CA-00NR-4002</t>
+  </si>
+  <si>
+    <t>SC4001UA-CB-90AK-4001</t>
+  </si>
+  <si>
+    <t>SC4011SO-N-CB-90NR-G01M</t>
+  </si>
+  <si>
+    <t>SI485E-白板</t>
+  </si>
+  <si>
+    <t>SC2202UA-CE-00AK-2202</t>
+  </si>
+  <si>
+    <t>SC2402UA-CJ-00AK-2402</t>
+  </si>
+  <si>
+    <t>SC2546VB-AB-DA-00AK-2546</t>
+  </si>
+  <si>
+    <t>SC2436SO-CI-10CR-2436</t>
+  </si>
+  <si>
+    <t>SC2438SO-CI-10CR-2438</t>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+  </si>
+  <si>
+    <t>SC9641TS-362-Q-CB-10LR-9641</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-AH-4XLR-9642</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-9999-41CPA</t>
+  </si>
+  <si>
+    <t>HC2304C-S-TR</t>
+  </si>
+  <si>
+    <t>STC2899AB</t>
+  </si>
+  <si>
+    <t>SC1445A2</t>
+  </si>
+  <si>
+    <t>SC1945B1</t>
+  </si>
+  <si>
+    <t>SC1945B1(STC2899AJ)-N13</t>
+  </si>
+  <si>
+    <t>SC1945S1-BK</t>
+  </si>
+  <si>
+    <t>SC9625VB-TR-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-Q-CE-4XCR-9625L</t>
+  </si>
+  <si>
+    <t>NA.SC4015SO-N-CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402S1-BK</t>
+  </si>
+  <si>
+    <t>SC2438SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2438SO-Q-CM-10CR-2438</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2546VB-AB-CH-10CK-2546</t>
+  </si>
+  <si>
+    <t>SC4689SA</t>
+  </si>
+  <si>
+    <t>SC4689SA-4689</t>
+  </si>
+  <si>
+    <t>SC2462SO-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2527S6-AB-TR-Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2948S2-BK</t>
+  </si>
+  <si>
+    <t>SC4643VB-U-BK-Q</t>
+  </si>
+  <si>
+    <t>SC1445A1</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-TR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GC-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9G002C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445B2</t>
+  </si>
+  <si>
+    <t>SC4101DN(STC11201B1)-4101</t>
+  </si>
+  <si>
+    <t>NF.SC1645B1(STC2899AI)-615HA</t>
+  </si>
+  <si>
+    <t>SC1002A1-BK</t>
+  </si>
+  <si>
+    <t>SC1645B1-AI-00HK-615HA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-Q-AI-10LR-9641P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245A1</t>
+  </si>
+  <si>
+    <t>SC2943SO(2943N1-1)-2943</t>
+  </si>
+  <si>
+    <t>SC3100VB-BK-Q</t>
+  </si>
+  <si>
+    <t>STC3011E</t>
+  </si>
+  <si>
+    <t>SC4012SO-N-TR</t>
+  </si>
+  <si>
+    <t>SC4616UA-BK</t>
+  </si>
+  <si>
+    <t>STC4011B-DS</t>
+  </si>
+  <si>
+    <t>SC1138SO-N-Q-CC-00AR-1138</t>
+  </si>
+  <si>
+    <t>NM.SC243XUA</t>
+  </si>
+  <si>
+    <t>SC4002UA-95A</t>
+  </si>
+  <si>
+    <t>SC2442SO-CR-1XCX-2442</t>
+  </si>
+  <si>
+    <t>SC4688DC</t>
+  </si>
+  <si>
+    <t>SC4688DC-4688</t>
+  </si>
+  <si>
+    <t>SC1134SO-N-Q-CI-00AR-1134</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-GA-00AR-2402</t>
+  </si>
+  <si>
+    <t>SC2402SO-N-2402</t>
+  </si>
+  <si>
+    <t>SC2442SO-N-2442</t>
+  </si>
+  <si>
+    <t>SC2442UA(2943S1-1)-2442</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11102B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC2899AJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002A1</t>
+  </si>
+  <si>
+    <t>SC1002A1(STC1002AG)-41H</t>
+  </si>
+  <si>
+    <t>SC1002N1W-B2</t>
+  </si>
+  <si>
+    <t>SC1002N1W-B2(STC1002AL)-N41F</t>
+  </si>
+  <si>
+    <t>SC1002N2W-BK</t>
+  </si>
+  <si>
+    <t>SC1133UA</t>
+  </si>
+  <si>
+    <t>SC1133UA-1133</t>
+  </si>
+  <si>
+    <t>SC1134UA-43F</t>
+  </si>
+  <si>
+    <t>SC1645S1-AI-00AK-65HA</t>
+  </si>
+  <si>
+    <t>SC1645B1(STC2899AI)-4601</t>
+  </si>
+  <si>
+    <t>STC2899AM</t>
+  </si>
+  <si>
+    <t>SC1945NB1(STC2899AM)-N603</t>
+  </si>
+  <si>
+    <t>SC1945NB1（STC2899AM）-N603</t>
+  </si>
+  <si>
+    <t>SC2432SO-2432</t>
+  </si>
+  <si>
+    <t>NM.SC2442SO(2943N1-1)</t>
+  </si>
+  <si>
+    <t>SC2442UA-U18</t>
+  </si>
+  <si>
+    <t>SC2448SO(2948N1)-2448</t>
+  </si>
+  <si>
+    <t>SC2452SO-TR-Q</t>
+  </si>
+  <si>
+    <t>STC11103D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2464SO-CJ-10AR-2464</t>
+  </si>
+  <si>
+    <t>SC2498UA-N-2498</t>
+  </si>
+  <si>
+    <t>SC4643VB-A</t>
+  </si>
+  <si>
+    <t>SC4643VB-A-FFH-L43</t>
+  </si>
+  <si>
+    <t>NR.SC4643VB-A-FFH-L43</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-2.5S</t>
+  </si>
+  <si>
+    <t>SC4643VB-P-2.5S(STC9D03E)-4643</t>
+  </si>
+  <si>
+    <t>SC4695DC</t>
+  </si>
+  <si>
+    <t>SC4695DC-2425</t>
+  </si>
+  <si>
+    <t>SC4688SA-A</t>
+  </si>
+  <si>
+    <t>SC4688SA-A(STC9D01C)-4688</t>
+  </si>
+  <si>
+    <t>NP.SC4688SA-4688</t>
+  </si>
+  <si>
+    <t>SC4923SO-N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401</t>
+  </si>
+  <si>
+    <t>SC69401DW-69401</t>
+  </si>
+  <si>
+    <t>SC69401-A(STC9H002DQ)-69401Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-L-9625L</t>
+  </si>
+  <si>
+    <t>SC9641TS-PC(STC9A001I)-41CPA</t>
+  </si>
+  <si>
+    <t>SC60221-D-100</t>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-TR-Q</t>
+  </si>
+  <si>
+    <t>V2302C</t>
+  </si>
+  <si>
+    <t>VE8602A5R</t>
+  </si>
+  <si>
+    <t>VE8602AKR</t>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5</t>
+  </si>
+  <si>
+    <t>V2201D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624SP20B5</t>
+  </si>
+  <si>
+    <t>NF.SC9625VB-CE-9625L</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-EC-Q-AH-9642</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-E-Q-AH-9642</t>
+  </si>
+  <si>
+    <t>SC1245UA</t>
+  </si>
+  <si>
+    <t>SC69401HS-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2498TSO-Q-DB-60CR-2498T</t>
+  </si>
+  <si>
+    <t>SC9675IM-HRF00-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-HRF11-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF10-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF00-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF01-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;上海胜磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675VB-Q-AB-4XCK-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688SA-Q-DC-40CK-888K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;江苏长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4688SA-Q-DC-888K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688DC-DC-40AR-2425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688DC-Q-DC-40AR-4688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688SA-Q-DC-40CK-4688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4688SA-Q-DC-4688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4689SA-Q-DF-40CK-4689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4689SA-Q-DF-4689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-HBL-Q-DE-40HK-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-Q-DE-40HK-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643SA-Q-DE-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-S-Q-DE-40HR-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CR-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-94-AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-S-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-G-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-94-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-G-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40AK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-P-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-Q-DE-40CK-FFH-L43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-Q-DE-FFH-L43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-Q-DE-40CR-FFH-L43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-Q-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-25A-DF-03CR-23025S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8(FC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-30A-DF-03CR-23030S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-50A-DF-03CR-23050S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-50A-DF-03CR-CA-IS23050W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOW16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.CA-IS23050W(STC9D06F)-CA-IS23050W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4645VB-DF-00CK-4645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4645VB-DF-4645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2063UA-GC-00AK-2063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2063SO-GC-00NR-2063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通宁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-3L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2033SO-N-GD-00NR-2033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GA-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-00AK-177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC2402UA-GB-00AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-00AK-6501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-0XAK-U18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-0XAK-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GB-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-41CPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-PC-Q-AI-10LR-9641PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-PC-Q-AI-10LK-9641PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-9634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC9634VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-92143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-SZ48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长电先进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2436UA-CI-10AK-6210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2064SO-GC-00NR-2064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2413SO-N-CD-00LR-44E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4103DN(STC11201B1)-4103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江亚芯微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4104SE-GB-00LR-4104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2943SO-Q-DB-60CR-2943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4391S6-GB-00ZR-4391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏尊阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4616UA-10.2NF-CD-90AK-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;南通华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4616UA-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4616UA-10NV-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4616UA-CD-90AK-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4665VB-HB-33CK-4665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4665VB(STC13103B)-4665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-Q-AI-10AR-9641P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL002147DC-GB-00AR-2147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL54123ADC-GB-00AR-54123A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60220-60220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSOP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA.SC60226SS-DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1024-976-BSD-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1024-Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60220SS-DC-00CB-60220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-U-256-976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-U-P1-256-244-mai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-U-P1-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-U-P4-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC60226SS-DC-00CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60228DC-DC-00AR-NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60228DC-DC-00AR-60228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134S1-CI-00AK-43F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC1134UA-CI-00AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4624SP30B5-SC724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eTSSOP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN1616-6L(.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN1616-6L(.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2968S1-N-DC-4XAK-S21C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2526VB-SD-DA-00AK-2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1919UA-CD-90AK-919H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;佛山蓝箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9642TS-Q-AG-4XHK-9642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60370-60370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1133UA-CJ-00AK-1133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1845S1-AI-00AK-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2242UA-CE-00AK-2242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2432SO-N-Q-CI-10CR-2432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2432UA-CI-10AK-6232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442UA-CP-10AK-U18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2448UA-N-Q-DB-60AK-2448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2527S6-SD-Q-DA-40CR-2527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC25791CUA-A(STC11210G-Q)-25791C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC25891CUA-A-Q(STC11210G-Q)-25891C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT89-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688DC-Q-DC-40AR-6388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-SPI-Q-HD-4XTR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-HD-4XTR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9621VB-Q-CN-4XCR-9621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9684TS-Q-DB-4XAR-9684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC60104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA.SC60104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60370QS-AO-DC-00CY-60370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC2304C-S-DC-00CR-2304C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLCSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A2-713B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛扬&amp;华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445A2-713B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2546VB-AB-DA-00CK-2546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2438SO-CM-10CR-2438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40CR-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-G1630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2462SO-Q-CJ-10CR-2462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2948S2-DB-60AK-61H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-U-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445B2-713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445B2-713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245A1-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-4451H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445A1-AB-4451H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC3100VB-DG-00CK-3100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC4011B-DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC243XUA-CI-10AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442SO-Q-CR-1XCX-2442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002A1-CG-00HK-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1002A1(STC1002AG)-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002N2W-CL-00AK-N41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2452SO-Q-DD-60AR-2452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRVE8602A5R-8602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE8602AKR-8602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5-1430QC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624SP20B5-SC4624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4624SP20B5-SC4624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00CR-43F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245UA-1245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1245UA-1245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1945A1-AJ-00HK-N602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1945A1-AJ-N602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1945B1-AJ-N13</t>
+  </si>
+  <si>
+    <t>江苏尊阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11205C</t>
+  </si>
+  <si>
+    <t>SC4823S6-TR</t>
+  </si>
+  <si>
+    <t>STC11205A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4823S6-GA-00NR-4823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2438SO-Q-CM-10AR-2438</t>
+  </si>
+  <si>
+    <t>SC243XSO-Q-CM-10AR-243X</t>
+  </si>
+  <si>
+    <t>SC2436SO-CM-10AR-2436</t>
+  </si>
+  <si>
+    <t>STC11205B</t>
+  </si>
+  <si>
+    <t>SC4823S6-K-TR</t>
+  </si>
+  <si>
+    <t>SC4823S6-GC-00NR-4823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4823S6-K-GB-00NR-4823K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442UA-Q-CP-10AK-2442</t>
+  </si>
+  <si>
+    <t>CA-IS23050W</t>
+  </si>
+  <si>
+    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+  </si>
+  <si>
+    <t>NF.SC69401DC-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>NF.SC69401HS-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTB-69401</t>
+  </si>
+  <si>
+    <t>赛扬%华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-TB-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-CE-00CK-9625</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+  </si>
+  <si>
+    <t>NA.SC9625VB-CE</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-BK-Q</t>
+  </si>
+  <si>
+    <t>SC1945S1-AM-00AK-N13</t>
+  </si>
+  <si>
+    <t>SC1945S1-AJ-00AK-N13</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2443UA-Q-DB-60HK-2443</t>
+  </si>
+  <si>
+    <t>NF.SC2443UA-Q-DB-2443</t>
+  </si>
+  <si>
+    <t>STC11102B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9910BN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SC9641TS-362-Q-CB-10LK-9641</t>
-  </si>
-  <si>
-    <t>STC12100B</t>
-  </si>
-  <si>
-    <t>SC9684TS-TR-Q</t>
-  </si>
-  <si>
-    <t>STC9D05C</t>
-  </si>
-  <si>
-    <t>SC60370QS-TY</t>
-  </si>
-  <si>
-    <t>SC2413SO-N-CD-00NR-44E</t>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;南通华达</t>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;佛山蓝箭</t>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-  </si>
-  <si>
-    <t>SC1138UA-CC-00AK-1138</t>
-  </si>
-  <si>
-    <t>SC1645A1-AI-00HK-1466</t>
-  </si>
-  <si>
-    <t>SC1645B1-AE-00HK-4601</t>
-  </si>
-  <si>
-    <t>SC4002UA-CA-00AK-95A</t>
-  </si>
-  <si>
-    <t>SC4002SO-N-TR</t>
-  </si>
-  <si>
-    <t>SC4002SO-N-CA-00NR-4002</t>
-  </si>
-  <si>
-    <t>SC4001UA-CB-90AK-4001</t>
-  </si>
-  <si>
-    <t>SC4011SO-N-CB-90NR-G01M</t>
-  </si>
-  <si>
-    <t>SI485E-白板</t>
-  </si>
-  <si>
-    <t>SC2202UA-CE-00AK-2202</t>
-  </si>
-  <si>
-    <t>SC2402UA-CJ-00AK-2402</t>
-  </si>
-  <si>
-    <t>SC2546VB-AB-DA-00AK-2546</t>
-  </si>
-  <si>
-    <t>SC2436SO-CI-10CR-2436</t>
-  </si>
-  <si>
-    <t>SC2438SO-CI-10CR-2438</t>
-  </si>
-  <si>
-    <t>Jaynie&amp;方芳</t>
-  </si>
-  <si>
-    <t>SC9641TS-362-Q-CB-10LR-9641</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-AH-4XLR-9642</t>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-9999-41CPA</t>
-  </si>
-  <si>
-    <t>HC2304C-S-TR</t>
-  </si>
-  <si>
-    <t>STC2899AB</t>
-  </si>
-  <si>
-    <t>SC1445A2</t>
-  </si>
-  <si>
-    <t>SC1945B1</t>
-  </si>
-  <si>
-    <t>SC1945B1(STC2899AJ)-N13</t>
-  </si>
-  <si>
-    <t>SC1945S1-BK</t>
-  </si>
-  <si>
-    <t>SC9625VB-TR-Q</t>
-  </si>
-  <si>
-    <t>SC9625VB-Q-CE-4XCR-9625L</t>
-  </si>
-  <si>
-    <t>NA.SC4015SO-N-CE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402S1-BK</t>
-  </si>
-  <si>
-    <t>SC2438SO-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2438SO-Q-CM-10CR-2438</t>
-  </si>
-  <si>
-    <t>SC4643VB-P-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2546VB-AB-CH-10CK-2546</t>
-  </si>
-  <si>
-    <t>SC4689SA</t>
-  </si>
-  <si>
-    <t>SC4689SA-4689</t>
-  </si>
-  <si>
-    <t>SC2462SO-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2527S6-AB-TR-Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2948S2-BK</t>
-  </si>
-  <si>
-    <t>SC4643VB-U-BK-Q</t>
-  </si>
-  <si>
-    <t>SC1445A1</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-TR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402SO-N-GC-00NR-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC9G002C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445B2</t>
-  </si>
-  <si>
-    <t>SC4101DN(STC11201B1)-4101</t>
-  </si>
-  <si>
-    <t>NF.SC1645B1(STC2899AI)-615HA</t>
-  </si>
-  <si>
-    <t>SC1002A1-BK</t>
-  </si>
-  <si>
-    <t>SC1645B1-AI-00HK-615HA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-Q-AI-10LR-9641P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245A1</t>
-  </si>
-  <si>
-    <t>SC2943SO(2943N1-1)-2943</t>
-  </si>
-  <si>
-    <t>SC3100VB-BK-Q</t>
-  </si>
-  <si>
-    <t>STC3011E</t>
-  </si>
-  <si>
-    <t>SC4012SO-N-TR</t>
-  </si>
-  <si>
-    <t>SC4616UA-BK</t>
-  </si>
-  <si>
-    <t>STC4011B-DS</t>
-  </si>
-  <si>
-    <t>SC1138SO-N-Q-CC-00AR-1138</t>
-  </si>
-  <si>
-    <t>NM.SC243XUA</t>
-  </si>
-  <si>
-    <t>SC4002UA-95A</t>
-  </si>
-  <si>
-    <t>SC2442SO-CR-1XCX-2442</t>
-  </si>
-  <si>
-    <t>SC4688DC</t>
-  </si>
-  <si>
-    <t>SC4688DC-4688</t>
-  </si>
-  <si>
-    <t>SC1134SO-N-Q-CI-00AR-1134</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-GA-00AR-2402</t>
-  </si>
-  <si>
-    <t>SC2402SO-N-2402</t>
-  </si>
-  <si>
-    <t>SC2442SO-N-2442</t>
-  </si>
-  <si>
-    <t>SC2442UA(2943S1-1)-2442</t>
-  </si>
-  <si>
-    <t>赛扬&amp;长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11102B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11202B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC2899AJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002A1</t>
-  </si>
-  <si>
-    <t>SC1002A1(STC1002AG)-41H</t>
-  </si>
-  <si>
-    <t>SC1002N1W-B2</t>
-  </si>
-  <si>
-    <t>SC1002N1W-B2(STC1002AL)-N41F</t>
-  </si>
-  <si>
-    <t>SC1002N2W-BK</t>
-  </si>
-  <si>
-    <t>SC1133UA</t>
-  </si>
-  <si>
-    <t>SC1133UA-1133</t>
-  </si>
-  <si>
-    <t>SC1134UA-43F</t>
-  </si>
-  <si>
-    <t>SC1645S1-AI-00AK-65HA</t>
-  </si>
-  <si>
-    <t>SC1645B1(STC2899AI)-4601</t>
-  </si>
-  <si>
-    <t>STC2899AM</t>
-  </si>
-  <si>
-    <t>SC1945NB1(STC2899AM)-N603</t>
-  </si>
-  <si>
-    <t>SC1945NB1（STC2899AM）-N603</t>
-  </si>
-  <si>
-    <t>SC2432SO-2432</t>
-  </si>
-  <si>
-    <t>NM.SC2442SO(2943N1-1)</t>
-  </si>
-  <si>
-    <t>SC2442UA-U18</t>
-  </si>
-  <si>
-    <t>SC2448SO(2948N1)-2448</t>
-  </si>
-  <si>
-    <t>SC2452SO-TR-Q</t>
-  </si>
-  <si>
-    <t>STC11103D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2464SO-CJ-10AR-2464</t>
-  </si>
-  <si>
-    <t>SC2498UA-N-2498</t>
-  </si>
-  <si>
-    <t>SC4643VB-A</t>
-  </si>
-  <si>
-    <t>SC4643VB-A-FFH-L43</t>
-  </si>
-  <si>
-    <t>NR.SC4643VB-A-FFH-L43</t>
-  </si>
-  <si>
-    <t>SC4643VB-P-2.5S</t>
-  </si>
-  <si>
-    <t>SC4643VB-P-2.5S(STC9D03E)-4643</t>
-  </si>
-  <si>
-    <t>SC4695DC</t>
-  </si>
-  <si>
-    <t>SC4695DC-2425</t>
-  </si>
-  <si>
-    <t>SC4688SA-A</t>
-  </si>
-  <si>
-    <t>SC4688SA-A(STC9D01C)-4688</t>
-  </si>
-  <si>
-    <t>NP.SC4688SA-4688</t>
-  </si>
-  <si>
-    <t>SC4923SO-N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401</t>
-  </si>
-  <si>
-    <t>SC69401DW-69401</t>
-  </si>
-  <si>
-    <t>SC69401-A(STC9H002DQ)-69401Q</t>
-  </si>
-  <si>
-    <t>SC9625VB-L-9625L</t>
-  </si>
-  <si>
-    <t>SC9641TS-PC(STC9A001I)-41CPA</t>
-  </si>
-  <si>
-    <t>SC60221-D-100</t>
-  </si>
-  <si>
-    <t>SC69401DC-SPI-TR-Q</t>
-  </si>
-  <si>
-    <t>V2302C</t>
-  </si>
-  <si>
-    <t>VE8602A5R</t>
-  </si>
-  <si>
-    <t>VE8602AKR</t>
-  </si>
-  <si>
-    <t>VE1430Q1CA3R5</t>
-  </si>
-  <si>
-    <t>V2201D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624SP20B5</t>
-  </si>
-  <si>
-    <t>NF.SC9625VB-CE-9625L</t>
-  </si>
-  <si>
-    <t>NF.SC9642TS-EC-Q-AH-9642</t>
-  </si>
-  <si>
-    <t>NF.SC9642TS-E-Q-AH-9642</t>
-  </si>
-  <si>
-    <t>SC1245UA</t>
-  </si>
-  <si>
-    <t>SC69401HS-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2498TSO-Q-DB-60CR-2498T</t>
-  </si>
-  <si>
-    <t>SC9675IM-HRF00-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-HRF11-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-LRF10-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-LRF00-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-LRF01-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;上海胜磁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675VB-Q-AB-4XCK-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜磁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688SA-Q-DC-40CK-888K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;江苏长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;嘉豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4688SA-Q-DC-888K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688DC-DC-40AR-2425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688DC-Q-DC-40AR-4688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688SA-Q-DC-40CK-4688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4688SA-Q-DC-4688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4689SA-Q-DF-40CK-4689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4689SA-Q-DF-4689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-HBL-Q-DE-40HK-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-Q-DE-40HK-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643SA-Q-DE-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-S-Q-DE-40HR-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-S-Q-DE-40CR-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-94-AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-S-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-S-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-G-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-94-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-G-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-P-Q-DE-40AK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-P-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-Q-DE-40CK-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-Q-DE-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-Q-DE-40CR-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-Q-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-25A-DF-03CR-23025S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP8(FC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-30A-DF-03CR-23030S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-50A-DF-03CR-23050S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-50A-DF-03CR-CA-IS23050W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOW16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.CA-IS23050W(STC9D06F)-CA-IS23050W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4645VB-DF-00CK-4645</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4645VB-DF-4645</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2063UA-GC-00AK-2063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2063SO-GC-00NR-2063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通宁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-3L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2033SO-N-GD-00NR-2033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402SO-N-GA-00NR-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-00AK-177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC2402UA-GB-00AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-00AK-6501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-0XAK-U18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-0XAK-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402SO-N-GB-00NR-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10AR-41CPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-PC-Q-AI-10LR-9641PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭&amp;浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jaynie&amp;方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-PC-Q-AI-10LK-9641PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-9634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC9634VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-92143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-SZ48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长电先进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁文强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2436UA-CI-10AK-6210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2064SO-GC-00NR-2064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2413SO-N-CD-00LR-44E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4103DN(STC11201B1)-4103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江亚芯微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4104SE-GB-00LR-4104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2943SO-Q-DB-60CR-2943</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4391S6-GB-00ZR-4391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏尊阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-6L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4616UA-10.2NF-CD-90AK-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;南通华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4616UA-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4616UA-10NV-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4616UA-CD-90AK-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4665VB-HB-33CK-4665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4665VB(STC13103B)-4665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-Q-AI-10AR-9641P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL002147DC-GB-00AR-2147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL54123ADC-GB-00AR-54123A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60220-60220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSOP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA.SC60226SS-DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1024-976-BSD-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1024-Z1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60220SS-DC-00CB-60220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-U-256-976</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-U-P1-256-244-mai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-U-P1-1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-U-P4-1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC60226SS-DC-00CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60228DC-DC-00AR-NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60228DC-DC-00AR-60228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1134S1-CI-00AK-43F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC1134UA-CI-00AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4624SP30B5-SC724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-Q-HD-4XTR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天水华天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eTSSOP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFN1616-6L(.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFN1616-6L(.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2968S1-N-DC-4XAK-S21C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2526VB-SD-DA-00AK-2526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1919UA-CD-90AK-919H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;佛山蓝箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS-Q-AG-4XHK-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60370-60370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1133UA-CJ-00AK-1133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1845S1-AI-00AK-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2242UA-CE-00AK-2242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2432SO-N-Q-CI-10CR-2432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2432UA-CI-10AK-6232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442UA-CP-10AK-U18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2448UA-N-Q-DB-60AK-2448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2527S6-SD-Q-DA-40CR-2527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC25791CUA-A(STC11210G-Q)-25791C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC25891CUA-A-Q(STC11210G-Q)-25891C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT89-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688DC-Q-DC-40AR-6388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-SPI-Q-HD-4XTR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-HD-4XTR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9621VB-Q-CN-4XCR-9621</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9684TS-Q-DB-4XAR-9684</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC60104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA.SC60104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60370QS-AO-DC-00CY-60370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC2304C-S-DC-00CR-2304C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WLCSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A2-713B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛扬&amp;华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445A2-713B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2546VB-AB-DA-00CK-2546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402S1-CJ-90AK-6571</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2438SO-CM-10CR-2438</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-P-Q-DE-40CR-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10AR-G1630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2462SO-Q-CJ-10CR-2462</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2948S2-DB-60AK-61H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-U-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新光扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A1-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445B2-713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445B2-713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245A1-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A1-4451H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445A1-AB-4451H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC3100VB-DG-00CK-3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4012SO-N-XE-90NR-4012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC4011B-DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC243XUA-CI-10AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442SO-Q-CR-1XCX-2442</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002A1-CG-00HK-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1002A1(STC1002AG)-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002N2W-CL-00AK-N41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2452SO-Q-DD-60AR-2452</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRVE8602A5R-8602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VE8602AKR-8602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VE1430Q1CA3R5-1430QC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624SP20B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4624SP20B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1134BU-CI-00CR-43F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245UA-1245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1245UA-1245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1945A1-AJ-00HK-N602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1945A1-AJ-N602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1945B1-AJ-N13</t>
-  </si>
-  <si>
-    <t>江苏尊阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11205C</t>
-  </si>
-  <si>
-    <t>SC4823S6-TR</t>
-  </si>
-  <si>
-    <t>STC11205A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4823S6-GA-00NR-4823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2438SO-Q-CM-10AR-2438</t>
-  </si>
-  <si>
-    <t>SC243XSO-Q-CM-10AR-243X</t>
-  </si>
-  <si>
-    <t>SC2436SO-CM-10AR-2436</t>
-  </si>
-  <si>
-    <t>STC11205B</t>
-  </si>
-  <si>
-    <t>SC4823S6-K-TR</t>
-  </si>
-  <si>
-    <t>SC4823S6-GC-00NR-4823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4823S6-K-GB-00NR-4823K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442UA-Q-CP-10AK-2442</t>
-  </si>
-  <si>
-    <t>CA-IS23050W</t>
-  </si>
-  <si>
-    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4012SO-N-XE-90NR-4012</t>
-  </si>
-  <si>
-    <t>NF.SC69401DC-Q-HD-69401</t>
-  </si>
-  <si>
-    <t>NF.SC69401HS-Q-HD-69401</t>
-  </si>
-  <si>
-    <t>SC69401HS-Q-HD-4XTB-69401</t>
-  </si>
-  <si>
-    <t>赛扬%华天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-TB-Q</t>
-  </si>
-  <si>
-    <t>SC9625VB-CE-00CK-9625</t>
-  </si>
-  <si>
-    <t>赛扬&amp;长电</t>
-  </si>
-  <si>
-    <t>NA.SC9625VB-CE</t>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭&amp;浙江赛扬</t>
-  </si>
-  <si>
-    <t>Jaynie&amp;方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11202B</t>
-  </si>
-  <si>
-    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-BK-Q</t>
-  </si>
-  <si>
-    <t>SC1945S1-AM-00AK-N13</t>
-  </si>
-  <si>
-    <t>SC1945S1-AJ-00AK-N13</t>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2443UA-Q-DB-60HK-2443</t>
-  </si>
-  <si>
-    <t>NF.SC2443UA-Q-DB-2443</t>
-  </si>
-  <si>
-    <t>STC11102B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2443SO-Q-CT-10AR-2443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6281,11 +6283,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6384,7 +6387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -6530,12 +6533,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -6544,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F6" t="s">
         <v>41</v>
@@ -6559,7 +6562,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6659,10 +6662,10 @@
         <v>49</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -6700,7 +6703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -6732,7 +6735,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -6755,7 +6758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -6822,10 +6825,10 @@
         <v>620</v>
       </c>
       <c r="J13" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>412</v>
       </c>
       <c r="C14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -6863,10 +6866,10 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6928,10 +6931,10 @@
         <v>84</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" hidden="1">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G17" t="s">
         <v>599</v>
@@ -7025,7 +7028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" hidden="1">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" hidden="1">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -7071,13 +7074,13 @@
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G19" t="s">
+        <v>776</v>
+      </c>
+      <c r="H19" t="s">
         <v>777</v>
-      </c>
-      <c r="H19" t="s">
-        <v>778</v>
       </c>
       <c r="I19" t="s">
         <v>620</v>
@@ -7095,7 +7098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" hidden="1">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G20" t="s">
         <v>601</v>
@@ -7124,7 +7127,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" hidden="1">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>658</v>
       </c>
       <c r="G21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -7156,7 +7159,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" hidden="1">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" hidden="1">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" hidden="1">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -7246,7 +7249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" hidden="1">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" hidden="1">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -7301,13 +7304,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H26" t="s">
         <v>1146</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1147</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -7325,7 +7328,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" hidden="1">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" hidden="1">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" hidden="1">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -7418,7 +7421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" hidden="1">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -7450,7 +7453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" hidden="1">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D31" t="s">
         <v>123</v>
@@ -7482,7 +7485,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" hidden="1">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -7586,10 +7589,10 @@
         <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G35" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -7610,7 +7613,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7639,7 +7642,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>
@@ -7689,7 +7692,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -7709,7 +7712,7 @@
         <v>177</v>
       </c>
       <c r="G38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -7721,7 +7724,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>605</v>
       </c>
       <c r="G39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -7759,7 +7762,7 @@
         <v>181</v>
       </c>
       <c r="N39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="O39" t="s">
         <v>160</v>
@@ -7768,10 +7771,10 @@
         <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -7791,7 +7794,7 @@
         <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -7803,7 +7806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>186</v>
       </c>
       <c r="G41" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -7835,7 +7838,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -7891,10 +7894,10 @@
         <v>607</v>
       </c>
       <c r="T42" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -7911,10 +7914,10 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G43" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H43" t="s">
         <v>66</v>
@@ -7935,7 +7938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -7943,7 +7946,7 @@
         <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D44" t="s">
         <v>160</v>
@@ -7964,7 +7967,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -7990,13 +7993,13 @@
         <v>196</v>
       </c>
       <c r="M45" t="s">
+        <v>799</v>
+      </c>
+      <c r="N45" t="s">
         <v>800</v>
       </c>
-      <c r="N45" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+    </row>
+    <row r="46" spans="1:20" hidden="1">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -8028,25 +8031,25 @@
         <v>202</v>
       </c>
       <c r="L46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M46" t="s">
         <v>203</v>
       </c>
       <c r="N46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P46" t="s">
         <v>203</v>
       </c>
       <c r="Q46" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D48" t="s">
         <v>205</v>
@@ -8092,7 +8095,7 @@
         <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G48" t="s">
         <v>601</v>
@@ -8107,7 +8110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" hidden="1">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" hidden="1">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -8150,10 +8153,10 @@
         <v>205</v>
       </c>
       <c r="E50" t="s">
+        <v>782</v>
+      </c>
+      <c r="F50" t="s">
         <v>783</v>
-      </c>
-      <c r="F50" t="s">
-        <v>784</v>
       </c>
       <c r="G50" t="s">
         <v>602</v>
@@ -8165,7 +8168,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" hidden="1">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" hidden="1">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" hidden="1">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -8264,7 +8267,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" hidden="1">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>226</v>
       </c>
       <c r="F54" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G54" t="s">
         <v>601</v>
@@ -8296,7 +8299,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" hidden="1">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -8328,7 +8331,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" hidden="1">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" hidden="1">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" hidden="1">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -8391,7 +8394,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G58" t="s">
         <v>602</v>
@@ -8406,7 +8409,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" hidden="1">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" hidden="1">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" hidden="1">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" hidden="1">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -8498,7 +8501,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" hidden="1">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" hidden="1">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -8544,7 +8547,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -8633,10 +8636,10 @@
         <v>620</v>
       </c>
       <c r="J68" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -8656,10 +8659,10 @@
         <v>620</v>
       </c>
       <c r="J69" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -8667,7 +8670,7 @@
         <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D70" t="s">
         <v>260</v>
@@ -8688,7 +8691,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -8848,7 +8851,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>285</v>
       </c>
       <c r="F78" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G78" t="s">
         <v>601</v>
@@ -8929,7 +8932,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -8967,7 +8970,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -8995,16 +8998,16 @@
         <v>291</v>
       </c>
       <c r="C81" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D81" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E81" t="s">
+        <v>817</v>
+      </c>
+      <c r="F81" t="s">
         <v>818</v>
-      </c>
-      <c r="F81" t="s">
-        <v>819</v>
       </c>
       <c r="G81" t="s">
         <v>602</v>
@@ -9034,7 +9037,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -9080,7 +9083,7 @@
         <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G83" t="s">
         <v>601</v>
@@ -9104,7 +9107,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -9133,7 +9136,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -9188,10 +9191,10 @@
         <v>604</v>
       </c>
       <c r="I86" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -9249,7 +9252,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -9278,7 +9281,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H90" t="s">
         <v>603</v>
@@ -9316,7 +9319,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -9348,7 +9351,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -9392,10 +9395,10 @@
         <v>397</v>
       </c>
       <c r="Q92" s="8" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>343</v>
       </c>
       <c r="F94" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G94" t="s">
         <v>599</v>
@@ -9456,7 +9459,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -9488,7 +9491,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -9520,7 +9523,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" hidden="1">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>355</v>
       </c>
       <c r="F97" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G97" t="s">
         <v>599</v>
@@ -9549,7 +9552,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" hidden="1">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -9581,7 +9584,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" hidden="1">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -9610,7 +9613,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" hidden="1">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" hidden="1">
       <c r="A101" t="s">
         <v>363</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" hidden="1">
       <c r="D102" t="s">
         <v>363</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" hidden="1">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -9735,7 +9738,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" hidden="1">
       <c r="A104" t="s">
         <v>363</v>
       </c>
@@ -9770,10 +9773,10 @@
         <v>381</v>
       </c>
       <c r="N104" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" hidden="1">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -9802,7 +9805,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" hidden="1">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -9837,10 +9840,10 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" hidden="1">
       <c r="D107" t="s">
         <v>388</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" hidden="1">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" hidden="1">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -9921,7 +9924,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" hidden="1">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -9956,10 +9959,10 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" hidden="1">
       <c r="A111" t="s">
         <v>388</v>
       </c>
@@ -9973,10 +9976,10 @@
         <v>388</v>
       </c>
       <c r="E111" t="s">
+        <v>806</v>
+      </c>
+      <c r="F111" t="s">
         <v>807</v>
-      </c>
-      <c r="F111" t="s">
-        <v>808</v>
       </c>
       <c r="G111" t="s">
         <v>599</v>
@@ -9991,13 +9994,13 @@
         <v>388</v>
       </c>
       <c r="M111" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N111" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" hidden="1">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" hidden="1">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -10061,10 +10064,10 @@
         <v>72</v>
       </c>
       <c r="N113" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" hidden="1">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -10093,7 +10096,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" hidden="1">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -10122,7 +10125,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" hidden="1">
       <c r="D116" t="s">
         <v>417</v>
       </c>
@@ -10148,10 +10151,10 @@
         <v>419</v>
       </c>
       <c r="N116" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" hidden="1">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -10198,7 +10201,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" hidden="1">
       <c r="A118" t="s">
         <v>431</v>
       </c>
@@ -10235,17 +10238,8 @@
       <c r="N118" t="s">
         <v>639</v>
       </c>
-      <c r="O118" t="s">
-        <v>431</v>
-      </c>
-      <c r="P118" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20">
+    </row>
+    <row r="119" spans="1:20" hidden="1">
       <c r="A119" t="s">
         <v>436</v>
       </c>
@@ -10265,7 +10259,7 @@
         <v>440</v>
       </c>
       <c r="G119" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H119" t="s">
         <v>66</v>
@@ -10301,10 +10295,10 @@
         <v>439</v>
       </c>
       <c r="T119" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" hidden="1">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10315,7 +10309,7 @@
         <v>445</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>1159</v>
       </c>
       <c r="E120" t="s">
         <v>446</v>
@@ -10327,13 +10321,13 @@
         <v>600</v>
       </c>
       <c r="H120" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I120" t="s">
         <v>636</v>
       </c>
       <c r="J120" t="s">
-        <v>770</v>
+        <v>1160</v>
       </c>
       <c r="L120" t="s">
         <v>443</v>
@@ -10345,7 +10339,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" hidden="1">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10353,19 +10347,19 @@
         <v>446</v>
       </c>
       <c r="F121" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G121" t="s">
+        <v>776</v>
+      </c>
+      <c r="H121" t="s">
         <v>777</v>
-      </c>
-      <c r="H121" t="s">
-        <v>778</v>
       </c>
       <c r="I121" t="s">
         <v>636</v>
       </c>
       <c r="J121" t="s">
-        <v>770</v>
+        <v>1160</v>
       </c>
       <c r="L121" t="s">
         <v>443</v>
@@ -10377,7 +10371,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" hidden="1">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -10409,7 +10403,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" hidden="1">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -10429,16 +10423,16 @@
         <v>458</v>
       </c>
       <c r="G123" t="s">
+        <v>845</v>
+      </c>
+      <c r="H123" t="s">
         <v>846</v>
-      </c>
-      <c r="H123" t="s">
-        <v>847</v>
       </c>
       <c r="I123" t="s">
         <v>622</v>
       </c>
       <c r="J123" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L123" t="s">
         <v>454</v>
@@ -10447,10 +10441,10 @@
         <v>455</v>
       </c>
       <c r="N123" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" hidden="1">
       <c r="D124" t="s">
         <v>454</v>
       </c>
@@ -10461,42 +10455,42 @@
         <v>764</v>
       </c>
       <c r="G124" t="s">
+        <v>845</v>
+      </c>
+      <c r="H124" t="s">
         <v>846</v>
-      </c>
-      <c r="H124" t="s">
-        <v>847</v>
       </c>
       <c r="I124" t="s">
         <v>622</v>
       </c>
       <c r="J124" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" hidden="1">
       <c r="D125" t="s">
         <v>454</v>
       </c>
       <c r="E125" t="s">
+        <v>802</v>
+      </c>
+      <c r="F125" t="s">
         <v>803</v>
       </c>
-      <c r="F125" t="s">
-        <v>804</v>
-      </c>
       <c r="G125" t="s">
+        <v>845</v>
+      </c>
+      <c r="H125" t="s">
         <v>846</v>
-      </c>
-      <c r="H125" t="s">
-        <v>847</v>
       </c>
       <c r="I125" t="s">
         <v>622</v>
       </c>
       <c r="J125" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" hidden="1">
       <c r="A126" t="s">
         <v>459</v>
       </c>
@@ -10516,7 +10510,7 @@
         <v>463</v>
       </c>
       <c r="G126" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H126" t="s">
         <v>66</v>
@@ -10537,7 +10531,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" hidden="1">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -10557,16 +10551,16 @@
         <v>470</v>
       </c>
       <c r="G127" t="s">
+        <v>776</v>
+      </c>
+      <c r="H127" t="s">
         <v>777</v>
-      </c>
-      <c r="H127" t="s">
-        <v>778</v>
       </c>
       <c r="I127" t="s">
         <v>636</v>
       </c>
       <c r="J127" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L127" t="s">
         <v>466</v>
@@ -10575,10 +10569,10 @@
         <v>674</v>
       </c>
       <c r="N127" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" hidden="1">
       <c r="A128" t="s">
         <v>466</v>
       </c>
@@ -10598,16 +10592,16 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H128" t="s">
         <v>1148</v>
-      </c>
-      <c r="H128" t="s">
-        <v>1149</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
       </c>
       <c r="J128" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L128" t="s">
         <v>466</v>
@@ -10619,7 +10613,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" hidden="1">
       <c r="A129" t="s">
         <v>479</v>
       </c>
@@ -10636,22 +10630,22 @@
         <v>482</v>
       </c>
       <c r="F129" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G129" t="s">
+        <v>906</v>
+      </c>
+      <c r="H129" t="s">
         <v>907</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>908</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="J129" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+    </row>
+    <row r="130" spans="1:14" hidden="1">
       <c r="A130" t="s">
         <v>479</v>
       </c>
@@ -10668,22 +10662,22 @@
         <v>485</v>
       </c>
       <c r="F130" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G130" t="s">
+        <v>906</v>
+      </c>
+      <c r="H130" t="s">
         <v>907</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>908</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="J130" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+    </row>
+    <row r="131" spans="1:14" hidden="1">
       <c r="A131" t="s">
         <v>479</v>
       </c>
@@ -10700,22 +10694,22 @@
         <v>488</v>
       </c>
       <c r="F131" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G131" t="s">
+        <v>906</v>
+      </c>
+      <c r="H131" t="s">
         <v>907</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>908</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="J131" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+    </row>
+    <row r="132" spans="1:14" hidden="1">
       <c r="A132" t="s">
         <v>479</v>
       </c>
@@ -10732,22 +10726,22 @@
         <v>698</v>
       </c>
       <c r="F132" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G132" t="s">
+        <v>906</v>
+      </c>
+      <c r="H132" t="s">
         <v>907</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>908</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="J132" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+    </row>
+    <row r="133" spans="1:14" hidden="1">
       <c r="A133" t="s">
         <v>479</v>
       </c>
@@ -10764,19 +10758,19 @@
         <v>491</v>
       </c>
       <c r="F133" t="s">
+        <v>910</v>
+      </c>
+      <c r="G133" t="s">
         <v>911</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>912</v>
       </c>
-      <c r="H133" t="s">
-        <v>913</v>
-      </c>
       <c r="I133" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" hidden="1">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -10793,22 +10787,22 @@
         <v>492</v>
       </c>
       <c r="F134" t="s">
+        <v>905</v>
+      </c>
+      <c r="G134" t="s">
         <v>906</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>907</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>908</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="J134" s="9" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+    </row>
+    <row r="135" spans="1:14" hidden="1">
       <c r="A135" t="s">
         <v>479</v>
       </c>
@@ -10825,19 +10819,19 @@
         <v>493</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G135" t="s">
+        <v>913</v>
+      </c>
+      <c r="H135" t="s">
         <v>914</v>
       </c>
-      <c r="H135" t="s">
-        <v>915</v>
-      </c>
       <c r="I135" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" hidden="1">
       <c r="A136" t="s">
         <v>498</v>
       </c>
@@ -10854,30 +10848,30 @@
         <v>501</v>
       </c>
       <c r="F136" t="s">
+        <v>915</v>
+      </c>
+      <c r="G136" t="s">
         <v>916</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>917</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>918</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>919</v>
       </c>
-      <c r="J136" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+    </row>
+    <row r="137" spans="1:14" hidden="1">
       <c r="A137" t="s">
         <v>498</v>
       </c>
       <c r="B137" t="s">
+        <v>876</v>
+      </c>
+      <c r="C137" t="s">
         <v>877</v>
-      </c>
-      <c r="C137" t="s">
-        <v>878</v>
       </c>
       <c r="D137" t="s">
         <v>498</v>
@@ -10886,16 +10880,16 @@
         <v>502</v>
       </c>
       <c r="F137" t="s">
+        <v>920</v>
+      </c>
+      <c r="G137" t="s">
         <v>921</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>922</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>923</v>
-      </c>
-      <c r="I137" t="s">
-        <v>924</v>
       </c>
       <c r="L137" t="s">
         <v>498</v>
@@ -10907,15 +10901,15 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" hidden="1">
       <c r="A138" t="s">
         <v>498</v>
       </c>
       <c r="B138" t="s">
+        <v>838</v>
+      </c>
+      <c r="C138" t="s">
         <v>839</v>
-      </c>
-      <c r="C138" t="s">
-        <v>840</v>
       </c>
       <c r="D138" t="s">
         <v>498</v>
@@ -10924,16 +10918,16 @@
         <v>503</v>
       </c>
       <c r="F138" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G138" t="s">
+        <v>921</v>
+      </c>
+      <c r="H138" t="s">
         <v>922</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>923</v>
-      </c>
-      <c r="I138" t="s">
-        <v>924</v>
       </c>
       <c r="L138" t="s">
         <v>498</v>
@@ -10945,15 +10939,15 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" hidden="1">
       <c r="A139" s="8" t="s">
         <v>498</v>
       </c>
       <c r="B139" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>879</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>880</v>
       </c>
       <c r="D139" t="s">
         <v>498</v>
@@ -10962,19 +10956,19 @@
         <v>503</v>
       </c>
       <c r="F139" t="s">
+        <v>925</v>
+      </c>
+      <c r="G139" t="s">
+        <v>916</v>
+      </c>
+      <c r="H139" t="s">
+        <v>917</v>
+      </c>
+      <c r="I139" t="s">
+        <v>918</v>
+      </c>
+      <c r="J139" t="s">
         <v>926</v>
-      </c>
-      <c r="G139" t="s">
-        <v>917</v>
-      </c>
-      <c r="H139" t="s">
-        <v>918</v>
-      </c>
-      <c r="I139" t="s">
-        <v>919</v>
-      </c>
-      <c r="J139" t="s">
-        <v>927</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>498</v>
@@ -10983,10 +10977,10 @@
         <v>499</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" hidden="1">
       <c r="A140" t="s">
         <v>506</v>
       </c>
@@ -11003,31 +10997,31 @@
         <v>509</v>
       </c>
       <c r="F140" t="s">
+        <v>927</v>
+      </c>
+      <c r="G140" t="s">
+        <v>916</v>
+      </c>
+      <c r="H140" t="s">
+        <v>917</v>
+      </c>
+      <c r="I140" t="s">
+        <v>918</v>
+      </c>
+      <c r="J140" t="s">
         <v>928</v>
-      </c>
-      <c r="G140" t="s">
-        <v>917</v>
-      </c>
-      <c r="H140" t="s">
-        <v>918</v>
-      </c>
-      <c r="I140" t="s">
-        <v>919</v>
-      </c>
-      <c r="J140" t="s">
-        <v>929</v>
       </c>
       <c r="L140" t="s">
         <v>506</v>
       </c>
       <c r="M140" t="s">
+        <v>810</v>
+      </c>
+      <c r="N140" t="s">
         <v>811</v>
       </c>
-      <c r="N140" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+    </row>
+    <row r="141" spans="1:14" hidden="1">
       <c r="A141" t="s">
         <v>510</v>
       </c>
@@ -11044,16 +11038,16 @@
         <v>513</v>
       </c>
       <c r="F141" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G141" t="s">
+        <v>921</v>
+      </c>
+      <c r="H141" t="s">
         <v>922</v>
       </c>
-      <c r="H141" t="s">
-        <v>923</v>
-      </c>
       <c r="I141" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L141" t="s">
         <v>510</v>
@@ -11065,7 +11059,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" hidden="1">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -11082,22 +11076,22 @@
         <v>516</v>
       </c>
       <c r="F142" t="s">
+        <v>930</v>
+      </c>
+      <c r="G142" t="s">
+        <v>921</v>
+      </c>
+      <c r="H142" t="s">
+        <v>922</v>
+      </c>
+      <c r="I142" t="s">
+        <v>918</v>
+      </c>
+      <c r="J142" t="s">
         <v>931</v>
       </c>
-      <c r="G142" t="s">
-        <v>922</v>
-      </c>
-      <c r="H142" t="s">
-        <v>923</v>
-      </c>
-      <c r="I142" t="s">
-        <v>919</v>
-      </c>
-      <c r="J142" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+    </row>
+    <row r="143" spans="1:14" hidden="1">
       <c r="A143" t="s">
         <v>510</v>
       </c>
@@ -11114,19 +11108,19 @@
         <v>516</v>
       </c>
       <c r="F143" t="s">
+        <v>931</v>
+      </c>
+      <c r="G143" t="s">
+        <v>911</v>
+      </c>
+      <c r="H143" t="s">
+        <v>912</v>
+      </c>
+      <c r="I143" t="s">
         <v>932</v>
       </c>
-      <c r="G143" t="s">
-        <v>912</v>
-      </c>
-      <c r="H143" t="s">
-        <v>913</v>
-      </c>
-      <c r="I143" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+    </row>
+    <row r="144" spans="1:14" hidden="1">
       <c r="A144" t="s">
         <v>510</v>
       </c>
@@ -11143,19 +11137,19 @@
         <v>522</v>
       </c>
       <c r="F144" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G144" t="s">
+        <v>921</v>
+      </c>
+      <c r="H144" t="s">
         <v>922</v>
       </c>
-      <c r="H144" t="s">
-        <v>923</v>
-      </c>
       <c r="I144" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" hidden="1">
       <c r="D145" t="s">
         <v>510</v>
       </c>
@@ -11163,22 +11157,22 @@
         <v>525</v>
       </c>
       <c r="F145" t="s">
+        <v>934</v>
+      </c>
+      <c r="G145" t="s">
+        <v>916</v>
+      </c>
+      <c r="H145" t="s">
+        <v>917</v>
+      </c>
+      <c r="I145" t="s">
         <v>935</v>
       </c>
-      <c r="G145" t="s">
-        <v>917</v>
-      </c>
-      <c r="H145" t="s">
-        <v>918</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>936</v>
       </c>
-      <c r="J145" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
+    </row>
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>510</v>
       </c>
@@ -11195,22 +11189,22 @@
         <v>525</v>
       </c>
       <c r="F146" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G146" t="s">
+        <v>916</v>
+      </c>
+      <c r="H146" t="s">
         <v>917</v>
       </c>
-      <c r="H146" t="s">
-        <v>918</v>
-      </c>
       <c r="I146" t="s">
+        <v>935</v>
+      </c>
+      <c r="J146" t="s">
         <v>936</v>
       </c>
-      <c r="J146" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
+    </row>
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>510</v>
       </c>
@@ -11227,22 +11221,22 @@
         <v>528</v>
       </c>
       <c r="F147" t="s">
+        <v>938</v>
+      </c>
+      <c r="G147" t="s">
+        <v>916</v>
+      </c>
+      <c r="H147" t="s">
+        <v>917</v>
+      </c>
+      <c r="I147" t="s">
         <v>939</v>
       </c>
-      <c r="G147" t="s">
-        <v>917</v>
-      </c>
-      <c r="H147" t="s">
-        <v>918</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>940</v>
       </c>
-      <c r="J147" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
+    </row>
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>510</v>
       </c>
@@ -11259,28 +11253,28 @@
         <v>531</v>
       </c>
       <c r="F148" t="s">
+        <v>941</v>
+      </c>
+      <c r="G148" t="s">
+        <v>916</v>
+      </c>
+      <c r="H148" t="s">
+        <v>917</v>
+      </c>
+      <c r="I148" t="s">
+        <v>939</v>
+      </c>
+      <c r="J148" t="s">
         <v>942</v>
-      </c>
-      <c r="G148" t="s">
-        <v>917</v>
-      </c>
-      <c r="H148" t="s">
-        <v>918</v>
-      </c>
-      <c r="I148" t="s">
-        <v>940</v>
-      </c>
-      <c r="J148" t="s">
-        <v>943</v>
       </c>
       <c r="L148" t="s">
         <v>510</v>
       </c>
       <c r="M148" t="s">
+        <v>874</v>
+      </c>
+      <c r="N148" t="s">
         <v>875</v>
-      </c>
-      <c r="N148" t="s">
-        <v>876</v>
       </c>
       <c r="O148" t="s">
         <v>510</v>
@@ -11292,15 +11286,15 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>510</v>
       </c>
       <c r="B149" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C149" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D149" t="s">
         <v>510</v>
@@ -11309,30 +11303,30 @@
         <v>533</v>
       </c>
       <c r="F149" t="s">
+        <v>943</v>
+      </c>
+      <c r="G149" t="s">
+        <v>916</v>
+      </c>
+      <c r="H149" t="s">
+        <v>917</v>
+      </c>
+      <c r="I149" t="s">
+        <v>939</v>
+      </c>
+      <c r="J149" t="s">
         <v>944</v>
       </c>
-      <c r="G149" t="s">
-        <v>917</v>
-      </c>
-      <c r="H149" t="s">
-        <v>918</v>
-      </c>
-      <c r="I149" t="s">
-        <v>940</v>
-      </c>
-      <c r="J149" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
+    </row>
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>510</v>
       </c>
       <c r="B150" t="s">
+        <v>871</v>
+      </c>
+      <c r="C150" t="s">
         <v>872</v>
-      </c>
-      <c r="C150" t="s">
-        <v>873</v>
       </c>
       <c r="D150" t="s">
         <v>510</v>
@@ -11341,22 +11335,22 @@
         <v>534</v>
       </c>
       <c r="F150" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G150" t="s">
+        <v>916</v>
+      </c>
+      <c r="H150" t="s">
         <v>917</v>
       </c>
-      <c r="H150" t="s">
-        <v>918</v>
-      </c>
       <c r="I150" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J150" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>510</v>
       </c>
@@ -11373,19 +11367,19 @@
         <v>533</v>
       </c>
       <c r="F151" t="s">
+        <v>946</v>
+      </c>
+      <c r="G151" t="s">
+        <v>916</v>
+      </c>
+      <c r="H151" t="s">
+        <v>917</v>
+      </c>
+      <c r="I151" t="s">
+        <v>939</v>
+      </c>
+      <c r="J151" t="s">
         <v>947</v>
-      </c>
-      <c r="G151" t="s">
-        <v>917</v>
-      </c>
-      <c r="H151" t="s">
-        <v>918</v>
-      </c>
-      <c r="I151" t="s">
-        <v>940</v>
-      </c>
-      <c r="J151" t="s">
-        <v>948</v>
       </c>
       <c r="L151" t="s">
         <v>510</v>
@@ -11397,7 +11391,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -11414,19 +11408,19 @@
         <v>516</v>
       </c>
       <c r="F152" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G152" t="s">
+        <v>921</v>
+      </c>
+      <c r="H152" t="s">
         <v>922</v>
       </c>
-      <c r="H152" t="s">
-        <v>923</v>
-      </c>
       <c r="I152" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>649</v>
       </c>
@@ -11443,19 +11437,19 @@
         <v>652</v>
       </c>
       <c r="F153" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G153" t="s">
+        <v>911</v>
+      </c>
+      <c r="H153" t="s">
         <v>912</v>
       </c>
-      <c r="H153" t="s">
-        <v>913</v>
-      </c>
       <c r="I153" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J153" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="L153" t="s">
         <v>649</v>
@@ -11473,10 +11467,10 @@
         <v>650</v>
       </c>
       <c r="Q153" s="8" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>553</v>
       </c>
@@ -11493,19 +11487,19 @@
         <v>560</v>
       </c>
       <c r="F154" t="s">
+        <v>950</v>
+      </c>
+      <c r="G154" t="s">
+        <v>921</v>
+      </c>
+      <c r="H154" t="s">
+        <v>922</v>
+      </c>
+      <c r="I154" t="s">
         <v>951</v>
       </c>
-      <c r="G154" t="s">
-        <v>922</v>
-      </c>
-      <c r="H154" t="s">
-        <v>923</v>
-      </c>
-      <c r="I154" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
+    </row>
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>553</v>
       </c>
@@ -11522,19 +11516,19 @@
         <v>561</v>
       </c>
       <c r="F155" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G155" t="s">
+        <v>911</v>
+      </c>
+      <c r="H155" t="s">
         <v>912</v>
       </c>
-      <c r="H155" t="s">
-        <v>913</v>
-      </c>
       <c r="I155" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>553</v>
       </c>
@@ -11551,27 +11545,27 @@
         <v>562</v>
       </c>
       <c r="F156" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G156" t="s">
+        <v>921</v>
+      </c>
+      <c r="H156" t="s">
         <v>922</v>
       </c>
-      <c r="H156" t="s">
-        <v>923</v>
-      </c>
       <c r="I156" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" hidden="1">
       <c r="A157" t="s">
         <v>553</v>
       </c>
       <c r="B157" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C157" t="s">
         <v>1133</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1134</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -11580,22 +11574,22 @@
         <v>562</v>
       </c>
       <c r="F157" t="s">
+        <v>954</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H157" t="s">
+        <v>917</v>
+      </c>
+      <c r="I157" t="s">
         <v>955</v>
       </c>
-      <c r="G157" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H157" t="s">
-        <v>918</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>956</v>
       </c>
-      <c r="J157" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
+    </row>
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>553</v>
       </c>
@@ -11612,22 +11606,22 @@
         <v>565</v>
       </c>
       <c r="F158" t="s">
+        <v>957</v>
+      </c>
+      <c r="G158" t="s">
+        <v>916</v>
+      </c>
+      <c r="H158" t="s">
+        <v>917</v>
+      </c>
+      <c r="I158" t="s">
+        <v>908</v>
+      </c>
+      <c r="J158" t="s">
         <v>958</v>
       </c>
-      <c r="G158" t="s">
-        <v>917</v>
-      </c>
-      <c r="H158" t="s">
-        <v>918</v>
-      </c>
-      <c r="I158" t="s">
-        <v>909</v>
-      </c>
-      <c r="J158" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
+    </row>
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -11644,19 +11638,19 @@
         <v>569</v>
       </c>
       <c r="F159" t="s">
+        <v>959</v>
+      </c>
+      <c r="G159" t="s">
+        <v>921</v>
+      </c>
+      <c r="H159" t="s">
+        <v>922</v>
+      </c>
+      <c r="I159" t="s">
         <v>960</v>
       </c>
-      <c r="G159" t="s">
-        <v>922</v>
-      </c>
-      <c r="H159" t="s">
-        <v>923</v>
-      </c>
-      <c r="I159" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
+    </row>
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>566</v>
       </c>
@@ -11673,19 +11667,19 @@
         <v>572</v>
       </c>
       <c r="F160" t="s">
+        <v>961</v>
+      </c>
+      <c r="G160" t="s">
         <v>962</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
+        <v>914</v>
+      </c>
+      <c r="I160" t="s">
         <v>963</v>
       </c>
-      <c r="H160" t="s">
-        <v>915</v>
-      </c>
-      <c r="I160" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+    </row>
+    <row r="161" spans="1:23" hidden="1">
       <c r="A161" t="s">
         <v>573</v>
       </c>
@@ -11702,19 +11696,19 @@
         <v>576</v>
       </c>
       <c r="F161" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G161" t="s">
+        <v>962</v>
+      </c>
+      <c r="H161" t="s">
+        <v>914</v>
+      </c>
+      <c r="I161" t="s">
         <v>963</v>
       </c>
-      <c r="H161" t="s">
-        <v>915</v>
-      </c>
-      <c r="I161" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23">
+    </row>
+    <row r="162" spans="1:23" hidden="1">
       <c r="A162" t="s">
         <v>577</v>
       </c>
@@ -11731,16 +11725,16 @@
         <v>287</v>
       </c>
       <c r="F162" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G162" t="s">
+        <v>962</v>
+      </c>
+      <c r="H162" t="s">
+        <v>914</v>
+      </c>
+      <c r="I162" t="s">
         <v>963</v>
-      </c>
-      <c r="H162" t="s">
-        <v>915</v>
-      </c>
-      <c r="I162" t="s">
-        <v>964</v>
       </c>
       <c r="L162" t="s">
         <v>577</v>
@@ -11767,7 +11761,7 @@
         <v>287</v>
       </c>
       <c r="T162" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U162" t="s">
         <v>577</v>
@@ -11779,7 +11773,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" hidden="1">
       <c r="A163" t="s">
         <v>581</v>
       </c>
@@ -11796,22 +11790,22 @@
         <v>296</v>
       </c>
       <c r="F163" t="s">
+        <v>966</v>
+      </c>
+      <c r="G163" t="s">
+        <v>921</v>
+      </c>
+      <c r="H163" t="s">
+        <v>922</v>
+      </c>
+      <c r="I163" t="s">
+        <v>960</v>
+      </c>
+      <c r="J163" t="s">
         <v>967</v>
       </c>
-      <c r="G163" t="s">
-        <v>922</v>
-      </c>
-      <c r="H163" t="s">
-        <v>923</v>
-      </c>
-      <c r="I163" t="s">
-        <v>961</v>
-      </c>
-      <c r="J163" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23">
+    </row>
+    <row r="164" spans="1:23" hidden="1">
       <c r="D164" t="s">
         <v>581</v>
       </c>
@@ -11819,22 +11813,22 @@
         <v>296</v>
       </c>
       <c r="F164" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G164" t="s">
+        <v>921</v>
+      </c>
+      <c r="H164" t="s">
         <v>922</v>
       </c>
-      <c r="H164" t="s">
-        <v>923</v>
-      </c>
       <c r="I164" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J164" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" hidden="1">
       <c r="A165" t="s">
         <v>581</v>
       </c>
@@ -11851,19 +11845,19 @@
         <v>296</v>
       </c>
       <c r="F165" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G165" t="s">
+        <v>921</v>
+      </c>
+      <c r="H165" t="s">
         <v>922</v>
       </c>
-      <c r="H165" t="s">
-        <v>923</v>
-      </c>
       <c r="I165" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" hidden="1">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -11880,22 +11874,22 @@
         <v>296</v>
       </c>
       <c r="F166" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G166" t="s">
+        <v>921</v>
+      </c>
+      <c r="H166" t="s">
         <v>922</v>
       </c>
-      <c r="H166" t="s">
-        <v>923</v>
-      </c>
       <c r="I166" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J166" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" hidden="1">
       <c r="A167" t="s">
         <v>581</v>
       </c>
@@ -11912,22 +11906,22 @@
         <v>296</v>
       </c>
       <c r="F167" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G167" t="s">
+        <v>921</v>
+      </c>
+      <c r="H167" t="s">
         <v>922</v>
       </c>
-      <c r="H167" t="s">
-        <v>923</v>
-      </c>
       <c r="I167" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J167" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" hidden="1">
       <c r="A168" t="s">
         <v>581</v>
       </c>
@@ -11944,16 +11938,16 @@
         <v>287</v>
       </c>
       <c r="F168" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G168" t="s">
+        <v>962</v>
+      </c>
+      <c r="H168" t="s">
+        <v>914</v>
+      </c>
+      <c r="I168" t="s">
         <v>963</v>
-      </c>
-      <c r="H168" t="s">
-        <v>915</v>
-      </c>
-      <c r="I168" t="s">
-        <v>964</v>
       </c>
       <c r="L168" t="s">
         <v>581</v>
@@ -11965,7 +11959,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" hidden="1">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -11982,16 +11976,16 @@
         <v>477</v>
       </c>
       <c r="F169" t="s">
+        <v>973</v>
+      </c>
+      <c r="G169" t="s">
+        <v>921</v>
+      </c>
+      <c r="H169" t="s">
+        <v>922</v>
+      </c>
+      <c r="I169" t="s">
         <v>974</v>
-      </c>
-      <c r="G169" t="s">
-        <v>922</v>
-      </c>
-      <c r="H169" t="s">
-        <v>923</v>
-      </c>
-      <c r="I169" t="s">
-        <v>975</v>
       </c>
       <c r="L169" t="s">
         <v>476</v>
@@ -12009,10 +12003,10 @@
         <v>477</v>
       </c>
       <c r="Q169" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" hidden="1">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -12020,7 +12014,7 @@
         <v>592</v>
       </c>
       <c r="C170" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D170" t="s">
         <v>476</v>
@@ -12029,16 +12023,16 @@
         <v>590</v>
       </c>
       <c r="F170" t="s">
+        <v>975</v>
+      </c>
+      <c r="G170" t="s">
         <v>976</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>977</v>
       </c>
-      <c r="H170" t="s">
-        <v>978</v>
-      </c>
       <c r="I170" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L170" t="s">
         <v>476</v>
@@ -12050,7 +12044,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" hidden="1">
       <c r="A171" t="s">
         <v>476</v>
       </c>
@@ -12067,19 +12061,19 @@
         <v>594</v>
       </c>
       <c r="F171" t="s">
+        <v>978</v>
+      </c>
+      <c r="G171" t="s">
         <v>979</v>
       </c>
-      <c r="G171" t="s">
-        <v>980</v>
-      </c>
       <c r="H171" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I171" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" hidden="1">
       <c r="A172" t="s">
         <v>596</v>
       </c>
@@ -12096,22 +12090,22 @@
         <v>598</v>
       </c>
       <c r="F172" t="s">
+        <v>980</v>
+      </c>
+      <c r="G172" t="s">
+        <v>911</v>
+      </c>
+      <c r="H172" t="s">
+        <v>912</v>
+      </c>
+      <c r="I172" t="s">
+        <v>908</v>
+      </c>
+      <c r="J172" t="s">
         <v>981</v>
       </c>
-      <c r="G172" t="s">
-        <v>912</v>
-      </c>
-      <c r="H172" t="s">
-        <v>913</v>
-      </c>
-      <c r="I172" t="s">
-        <v>909</v>
-      </c>
-      <c r="J172" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
+    </row>
+    <row r="173" spans="1:23" hidden="1">
       <c r="D173" t="s">
         <v>596</v>
       </c>
@@ -12119,22 +12113,22 @@
         <v>598</v>
       </c>
       <c r="F173" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G173" t="s">
+        <v>916</v>
+      </c>
+      <c r="H173" t="s">
         <v>917</v>
       </c>
-      <c r="H173" t="s">
-        <v>918</v>
-      </c>
       <c r="I173" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J173" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" hidden="1">
       <c r="D174" t="s">
         <v>596</v>
       </c>
@@ -12142,22 +12136,22 @@
         <v>598</v>
       </c>
       <c r="F174" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G174" t="s">
+        <v>916</v>
+      </c>
+      <c r="H174" t="s">
         <v>917</v>
       </c>
-      <c r="H174" t="s">
-        <v>918</v>
-      </c>
       <c r="I174" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J174" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" hidden="1">
       <c r="A175" t="s">
         <v>610</v>
       </c>
@@ -12168,16 +12162,16 @@
         <v>612</v>
       </c>
       <c r="G175" t="s">
+        <v>984</v>
+      </c>
+      <c r="H175" t="s">
         <v>985</v>
-      </c>
-      <c r="H175" t="s">
-        <v>986</v>
       </c>
       <c r="I175" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" hidden="1">
       <c r="A176" t="s">
         <v>613</v>
       </c>
@@ -12188,16 +12182,16 @@
         <v>615</v>
       </c>
       <c r="G176" t="s">
+        <v>984</v>
+      </c>
+      <c r="H176" t="s">
         <v>985</v>
-      </c>
-      <c r="H176" t="s">
-        <v>986</v>
       </c>
       <c r="I176" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" hidden="1">
       <c r="A177" t="s">
         <v>616</v>
       </c>
@@ -12208,13 +12202,13 @@
         <v>618</v>
       </c>
       <c r="G177" t="s">
+        <v>984</v>
+      </c>
+      <c r="H177" t="s">
         <v>985</v>
       </c>
-      <c r="H177" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14">
+    </row>
+    <row r="178" spans="1:14" hidden="1">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -12222,16 +12216,16 @@
         <v>347</v>
       </c>
       <c r="F178" t="s">
+        <v>986</v>
+      </c>
+      <c r="G178" t="s">
+        <v>921</v>
+      </c>
+      <c r="H178" t="s">
+        <v>922</v>
+      </c>
+      <c r="I178" t="s">
         <v>987</v>
-      </c>
-      <c r="G178" t="s">
-        <v>922</v>
-      </c>
-      <c r="H178" t="s">
-        <v>923</v>
-      </c>
-      <c r="I178" t="s">
-        <v>988</v>
       </c>
       <c r="L178" t="s">
         <v>322</v>
@@ -12243,7 +12237,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" hidden="1">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -12260,19 +12254,19 @@
         <v>662</v>
       </c>
       <c r="F179" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G179" t="s">
+        <v>962</v>
+      </c>
+      <c r="H179" t="s">
+        <v>914</v>
+      </c>
+      <c r="I179" t="s">
         <v>963</v>
       </c>
-      <c r="H179" t="s">
-        <v>915</v>
-      </c>
-      <c r="I179" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14">
+    </row>
+    <row r="180" spans="1:14" hidden="1">
       <c r="A180" t="s">
         <v>663</v>
       </c>
@@ -12289,16 +12283,16 @@
         <v>666</v>
       </c>
       <c r="F180" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G180" t="s">
+        <v>962</v>
+      </c>
+      <c r="H180" t="s">
+        <v>914</v>
+      </c>
+      <c r="I180" t="s">
         <v>963</v>
-      </c>
-      <c r="H180" t="s">
-        <v>915</v>
-      </c>
-      <c r="I180" t="s">
-        <v>964</v>
       </c>
       <c r="L180" t="s">
         <v>663</v>
@@ -12307,10 +12301,10 @@
         <v>666</v>
       </c>
       <c r="N180" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" hidden="1">
       <c r="A181" t="s">
         <v>667</v>
       </c>
@@ -12327,19 +12321,19 @@
         <v>668</v>
       </c>
       <c r="F181" t="s">
+        <v>990</v>
+      </c>
+      <c r="G181" t="s">
         <v>991</v>
       </c>
-      <c r="G181" t="s">
-        <v>992</v>
-      </c>
       <c r="H181" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I181" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" hidden="1">
       <c r="A182" t="s">
         <v>671</v>
       </c>
@@ -12356,19 +12350,19 @@
         <v>673</v>
       </c>
       <c r="F182" t="s">
+        <v>992</v>
+      </c>
+      <c r="G182" t="s">
+        <v>979</v>
+      </c>
+      <c r="H182" t="s">
+        <v>914</v>
+      </c>
+      <c r="I182" t="s">
         <v>993</v>
       </c>
-      <c r="G182" t="s">
-        <v>980</v>
-      </c>
-      <c r="H182" t="s">
-        <v>915</v>
-      </c>
-      <c r="I182" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14">
+    </row>
+    <row r="183" spans="1:14" hidden="1">
       <c r="A183" t="s">
         <v>677</v>
       </c>
@@ -12379,22 +12373,22 @@
         <v>679</v>
       </c>
       <c r="D183" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E183" t="s">
         <v>680</v>
       </c>
       <c r="F183" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G183" t="s">
+        <v>911</v>
+      </c>
+      <c r="H183" t="s">
         <v>912</v>
       </c>
-      <c r="H183" t="s">
-        <v>913</v>
-      </c>
       <c r="I183" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L183" t="s">
         <v>46</v>
@@ -12403,12 +12397,12 @@
         <v>678</v>
       </c>
       <c r="N183" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" hidden="1">
       <c r="D184" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
@@ -12417,25 +12411,25 @@
         <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H184" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I184" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L184" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M184" t="s">
         <v>681</v>
       </c>
       <c r="N184" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" hidden="1">
       <c r="D185" t="s">
         <v>684</v>
       </c>
@@ -12443,22 +12437,22 @@
         <v>685</v>
       </c>
       <c r="F185" t="s">
+        <v>998</v>
+      </c>
+      <c r="G185" t="s">
         <v>999</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
+        <v>922</v>
+      </c>
+      <c r="I185" t="s">
         <v>1000</v>
       </c>
-      <c r="H185" t="s">
-        <v>923</v>
-      </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>1001</v>
       </c>
-      <c r="J185" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14">
+    </row>
+    <row r="186" spans="1:14" hidden="1">
       <c r="D186" t="s">
         <v>684</v>
       </c>
@@ -12466,45 +12460,45 @@
         <v>686</v>
       </c>
       <c r="F186" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G186" t="s">
+        <v>999</v>
+      </c>
+      <c r="H186" t="s">
+        <v>922</v>
+      </c>
+      <c r="I186" t="s">
         <v>1000</v>
       </c>
-      <c r="H186" t="s">
-        <v>923</v>
-      </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>1001</v>
       </c>
-      <c r="J186" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14">
+    </row>
+    <row r="187" spans="1:14" hidden="1">
       <c r="D187" t="s">
         <v>684</v>
       </c>
       <c r="E187" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F187" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G187" t="s">
+        <v>999</v>
+      </c>
+      <c r="H187" t="s">
+        <v>922</v>
+      </c>
+      <c r="I187" t="s">
         <v>1000</v>
       </c>
-      <c r="H187" t="s">
-        <v>923</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
         <v>1001</v>
       </c>
-      <c r="J187" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14">
+    </row>
+    <row r="188" spans="1:14" hidden="1">
       <c r="A188" t="s">
         <v>687</v>
       </c>
@@ -12521,22 +12515,22 @@
         <v>690</v>
       </c>
       <c r="F188" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G188" t="s">
+        <v>916</v>
+      </c>
+      <c r="H188" t="s">
+        <v>917</v>
+      </c>
+      <c r="I188" t="s">
+        <v>908</v>
+      </c>
+      <c r="J188" t="s">
         <v>1005</v>
       </c>
-      <c r="G188" t="s">
-        <v>917</v>
-      </c>
-      <c r="H188" t="s">
-        <v>918</v>
-      </c>
-      <c r="I188" t="s">
-        <v>909</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14">
+    </row>
+    <row r="189" spans="1:14" hidden="1">
       <c r="D189" t="s">
         <v>476</v>
       </c>
@@ -12544,16 +12538,16 @@
         <v>695</v>
       </c>
       <c r="F189" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G189" t="s">
+        <v>921</v>
+      </c>
+      <c r="H189" t="s">
         <v>922</v>
       </c>
-      <c r="H189" t="s">
-        <v>923</v>
-      </c>
       <c r="I189" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L189" t="s">
         <v>476</v>
@@ -12562,10 +12556,10 @@
         <v>695</v>
       </c>
       <c r="N189" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" hidden="1">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -12582,19 +12576,19 @@
         <v>702</v>
       </c>
       <c r="F190" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G190" t="s">
         <v>1008</v>
       </c>
-      <c r="G190" t="s">
-        <v>1009</v>
-      </c>
       <c r="H190" t="s">
+        <v>922</v>
+      </c>
+      <c r="I190" t="s">
         <v>923</v>
       </c>
-      <c r="I190" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14">
+    </row>
+    <row r="191" spans="1:14" hidden="1">
       <c r="A191" t="s">
         <v>703</v>
       </c>
@@ -12611,19 +12605,19 @@
         <v>706</v>
       </c>
       <c r="F191" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G191" t="s">
+        <v>921</v>
+      </c>
+      <c r="H191" t="s">
         <v>922</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>923</v>
       </c>
-      <c r="I191" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14">
+    </row>
+    <row r="192" spans="1:14" hidden="1">
       <c r="D192" t="s">
         <v>540</v>
       </c>
@@ -12631,22 +12625,22 @@
         <v>541</v>
       </c>
       <c r="F192" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G192" t="s">
+        <v>916</v>
+      </c>
+      <c r="H192" t="s">
+        <v>917</v>
+      </c>
+      <c r="I192" t="s">
         <v>1011</v>
       </c>
-      <c r="G192" t="s">
-        <v>917</v>
-      </c>
-      <c r="H192" t="s">
-        <v>918</v>
-      </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>1012</v>
       </c>
-      <c r="J192" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="193" spans="4:10">
+    </row>
+    <row r="193" spans="4:10" hidden="1">
       <c r="D193" t="s">
         <v>540</v>
       </c>
@@ -12654,22 +12648,22 @@
         <v>546</v>
       </c>
       <c r="F193" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G193" t="s">
+        <v>916</v>
+      </c>
+      <c r="H193" t="s">
         <v>917</v>
       </c>
-      <c r="H193" t="s">
-        <v>918</v>
-      </c>
       <c r="I193" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J193" t="s">
         <v>1012</v>
       </c>
-      <c r="J193" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="194" spans="4:10">
+    </row>
+    <row r="194" spans="4:10" hidden="1">
       <c r="D194" t="s">
         <v>540</v>
       </c>
@@ -12677,22 +12671,22 @@
         <v>708</v>
       </c>
       <c r="F194" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G194" t="s">
+        <v>916</v>
+      </c>
+      <c r="H194" t="s">
         <v>917</v>
       </c>
-      <c r="H194" t="s">
-        <v>918</v>
-      </c>
       <c r="I194" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J194" t="s">
         <v>1012</v>
       </c>
-      <c r="J194" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="195" spans="4:10">
+    </row>
+    <row r="195" spans="4:10" hidden="1">
       <c r="D195" t="s">
         <v>540</v>
       </c>
@@ -12700,22 +12694,22 @@
         <v>709</v>
       </c>
       <c r="F195" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G195" t="s">
+        <v>916</v>
+      </c>
+      <c r="H195" t="s">
         <v>917</v>
       </c>
-      <c r="H195" t="s">
-        <v>918</v>
-      </c>
       <c r="I195" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J195" t="s">
         <v>1012</v>
       </c>
-      <c r="J195" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="196" spans="4:10">
+    </row>
+    <row r="196" spans="4:10" hidden="1">
       <c r="D196" t="s">
         <v>540</v>
       </c>
@@ -12723,22 +12717,22 @@
         <v>710</v>
       </c>
       <c r="F196" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G196" t="s">
+        <v>916</v>
+      </c>
+      <c r="H196" t="s">
         <v>917</v>
       </c>
-      <c r="H196" t="s">
-        <v>918</v>
-      </c>
       <c r="I196" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J196" t="s">
         <v>1012</v>
       </c>
-      <c r="J196" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="197" spans="4:10">
+    </row>
+    <row r="197" spans="4:10" hidden="1">
       <c r="D197" t="s">
         <v>540</v>
       </c>
@@ -12746,22 +12740,22 @@
         <v>711</v>
       </c>
       <c r="F197" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G197" t="s">
+        <v>916</v>
+      </c>
+      <c r="H197" t="s">
         <v>917</v>
       </c>
-      <c r="H197" t="s">
-        <v>918</v>
-      </c>
       <c r="I197" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J197" t="s">
         <v>1012</v>
       </c>
-      <c r="J197" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="198" spans="4:10">
+    </row>
+    <row r="198" spans="4:10" hidden="1">
       <c r="D198" t="s">
         <v>540</v>
       </c>
@@ -12769,22 +12763,22 @@
         <v>712</v>
       </c>
       <c r="F198" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G198" t="s">
+        <v>916</v>
+      </c>
+      <c r="H198" t="s">
         <v>917</v>
       </c>
-      <c r="H198" t="s">
-        <v>918</v>
-      </c>
       <c r="I198" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J198" t="s">
         <v>1012</v>
       </c>
-      <c r="J198" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="199" spans="4:10">
+    </row>
+    <row r="199" spans="4:10" hidden="1">
       <c r="D199" t="s">
         <v>540</v>
       </c>
@@ -12792,22 +12786,22 @@
         <v>542</v>
       </c>
       <c r="F199" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G199" t="s">
+        <v>916</v>
+      </c>
+      <c r="H199" t="s">
         <v>917</v>
       </c>
-      <c r="H199" t="s">
-        <v>918</v>
-      </c>
       <c r="I199" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J199" t="s">
         <v>1012</v>
       </c>
-      <c r="J199" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="200" spans="4:10">
+    </row>
+    <row r="200" spans="4:10" hidden="1">
       <c r="D200" t="s">
         <v>540</v>
       </c>
@@ -12815,22 +12809,22 @@
         <v>713</v>
       </c>
       <c r="F200" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G200" t="s">
+        <v>916</v>
+      </c>
+      <c r="H200" t="s">
         <v>917</v>
       </c>
-      <c r="H200" t="s">
-        <v>918</v>
-      </c>
       <c r="I200" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J200" t="s">
         <v>1012</v>
       </c>
-      <c r="J200" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="201" spans="4:10">
+    </row>
+    <row r="201" spans="4:10" hidden="1">
       <c r="D201" t="s">
         <v>540</v>
       </c>
@@ -12838,22 +12832,22 @@
         <v>547</v>
       </c>
       <c r="F201" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G201" t="s">
+        <v>916</v>
+      </c>
+      <c r="H201" t="s">
         <v>917</v>
       </c>
-      <c r="H201" t="s">
-        <v>918</v>
-      </c>
       <c r="I201" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J201" t="s">
         <v>1012</v>
       </c>
-      <c r="J201" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="202" spans="4:10">
+    </row>
+    <row r="202" spans="4:10" hidden="1">
       <c r="D202" t="s">
         <v>540</v>
       </c>
@@ -12861,22 +12855,22 @@
         <v>548</v>
       </c>
       <c r="F202" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G202" t="s">
+        <v>916</v>
+      </c>
+      <c r="H202" t="s">
         <v>917</v>
       </c>
-      <c r="H202" t="s">
-        <v>918</v>
-      </c>
       <c r="I202" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J202" t="s">
         <v>1012</v>
       </c>
-      <c r="J202" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="203" spans="4:10">
+    </row>
+    <row r="203" spans="4:10" hidden="1">
       <c r="D203" t="s">
         <v>540</v>
       </c>
@@ -12884,22 +12878,22 @@
         <v>549</v>
       </c>
       <c r="F203" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G203" t="s">
+        <v>916</v>
+      </c>
+      <c r="H203" t="s">
         <v>917</v>
       </c>
-      <c r="H203" t="s">
-        <v>918</v>
-      </c>
       <c r="I203" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J203" t="s">
         <v>1012</v>
       </c>
-      <c r="J203" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="204" spans="4:10">
+    </row>
+    <row r="204" spans="4:10" hidden="1">
       <c r="D204" t="s">
         <v>540</v>
       </c>
@@ -12907,22 +12901,22 @@
         <v>714</v>
       </c>
       <c r="F204" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G204" t="s">
+        <v>916</v>
+      </c>
+      <c r="H204" t="s">
         <v>917</v>
       </c>
-      <c r="H204" t="s">
-        <v>918</v>
-      </c>
       <c r="I204" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J204" t="s">
         <v>1012</v>
       </c>
-      <c r="J204" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="205" spans="4:10">
+    </row>
+    <row r="205" spans="4:10" hidden="1">
       <c r="D205" t="s">
         <v>540</v>
       </c>
@@ -12930,22 +12924,22 @@
         <v>715</v>
       </c>
       <c r="F205" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G205" t="s">
+        <v>916</v>
+      </c>
+      <c r="H205" t="s">
         <v>917</v>
       </c>
-      <c r="H205" t="s">
-        <v>918</v>
-      </c>
       <c r="I205" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J205" t="s">
         <v>1012</v>
       </c>
-      <c r="J205" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="206" spans="4:10">
+    </row>
+    <row r="206" spans="4:10" hidden="1">
       <c r="D206" t="s">
         <v>540</v>
       </c>
@@ -12953,22 +12947,22 @@
         <v>716</v>
       </c>
       <c r="F206" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G206" t="s">
+        <v>916</v>
+      </c>
+      <c r="H206" t="s">
         <v>917</v>
       </c>
-      <c r="H206" t="s">
-        <v>918</v>
-      </c>
       <c r="I206" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J206" t="s">
         <v>1012</v>
       </c>
-      <c r="J206" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="207" spans="4:10">
+    </row>
+    <row r="207" spans="4:10" hidden="1">
       <c r="D207" t="s">
         <v>540</v>
       </c>
@@ -12976,22 +12970,22 @@
         <v>707</v>
       </c>
       <c r="F207" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G207" t="s">
+        <v>916</v>
+      </c>
+      <c r="H207" t="s">
         <v>917</v>
       </c>
-      <c r="H207" t="s">
-        <v>918</v>
-      </c>
       <c r="I207" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J207" t="s">
         <v>1012</v>
       </c>
-      <c r="J207" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="208" spans="4:10">
+    </row>
+    <row r="208" spans="4:10" hidden="1">
       <c r="D208" t="s">
         <v>540</v>
       </c>
@@ -12999,22 +12993,22 @@
         <v>550</v>
       </c>
       <c r="F208" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G208" t="s">
+        <v>916</v>
+      </c>
+      <c r="H208" t="s">
         <v>917</v>
       </c>
-      <c r="H208" t="s">
-        <v>918</v>
-      </c>
       <c r="I208" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J208" t="s">
         <v>1012</v>
       </c>
-      <c r="J208" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14">
+    </row>
+    <row r="209" spans="1:14" hidden="1">
       <c r="D209" t="s">
         <v>540</v>
       </c>
@@ -13022,22 +13016,22 @@
         <v>551</v>
       </c>
       <c r="F209" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G209" t="s">
+        <v>916</v>
+      </c>
+      <c r="H209" t="s">
         <v>917</v>
       </c>
-      <c r="H209" t="s">
-        <v>918</v>
-      </c>
       <c r="I209" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J209" t="s">
         <v>1012</v>
       </c>
-      <c r="J209" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14">
+    </row>
+    <row r="210" spans="1:14" hidden="1">
       <c r="A210" t="s">
         <v>540</v>
       </c>
@@ -13054,22 +13048,22 @@
         <v>765</v>
       </c>
       <c r="F210" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G210" t="s">
+        <v>916</v>
+      </c>
+      <c r="H210" t="s">
         <v>917</v>
       </c>
-      <c r="H210" t="s">
-        <v>918</v>
-      </c>
       <c r="I210" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J210" t="s">
         <v>1012</v>
       </c>
-      <c r="J210" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14">
+    </row>
+    <row r="211" spans="1:14" hidden="1">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -13086,19 +13080,19 @@
         <v>545</v>
       </c>
       <c r="F211" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G211" t="s">
+        <v>921</v>
+      </c>
+      <c r="H211" t="s">
         <v>922</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
         <v>923</v>
       </c>
-      <c r="I211" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14">
+    </row>
+    <row r="212" spans="1:14" hidden="1">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -13115,19 +13109,19 @@
         <v>545</v>
       </c>
       <c r="F212" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G212" t="s">
+        <v>921</v>
+      </c>
+      <c r="H212" t="s">
         <v>922</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>923</v>
       </c>
-      <c r="I212" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14">
+    </row>
+    <row r="213" spans="1:14" hidden="1">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -13135,22 +13129,22 @@
         <v>717</v>
       </c>
       <c r="F213" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G213" t="s">
+        <v>921</v>
+      </c>
+      <c r="H213" t="s">
+        <v>922</v>
+      </c>
+      <c r="I213" t="s">
+        <v>969</v>
+      </c>
+      <c r="J213" t="s">
         <v>1034</v>
       </c>
-      <c r="G213" t="s">
-        <v>922</v>
-      </c>
-      <c r="H213" t="s">
-        <v>923</v>
-      </c>
-      <c r="I213" t="s">
-        <v>970</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14">
+    </row>
+    <row r="214" spans="1:14" hidden="1">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -13161,19 +13155,19 @@
         <v>719</v>
       </c>
       <c r="G214" t="s">
+        <v>916</v>
+      </c>
+      <c r="H214" t="s">
         <v>917</v>
       </c>
-      <c r="H214" t="s">
-        <v>918</v>
-      </c>
       <c r="I214" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J214" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -13187,22 +13181,22 @@
         <v>649</v>
       </c>
       <c r="E215" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F215" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G215" t="s">
         <v>1037</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
+        <v>914</v>
+      </c>
+      <c r="I215" t="s">
         <v>1038</v>
       </c>
-      <c r="H215" t="s">
-        <v>915</v>
-      </c>
-      <c r="I215" t="s">
-        <v>1039</v>
-      </c>
       <c r="J215" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -13214,7 +13208,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" hidden="1">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -13225,13 +13219,13 @@
         <v>726</v>
       </c>
       <c r="G216" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H216" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I216" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L216" t="s">
         <v>725</v>
@@ -13240,10 +13234,10 @@
         <v>670</v>
       </c>
       <c r="N216" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1">
       <c r="A217" t="s">
         <v>581</v>
       </c>
@@ -13254,36 +13248,36 @@
         <v>728</v>
       </c>
       <c r="G217" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H217" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I217" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1">
       <c r="D218" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E218" t="s">
         <v>729</v>
       </c>
       <c r="F218" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G218" t="s">
+        <v>921</v>
+      </c>
+      <c r="H218" t="s">
         <v>922</v>
       </c>
-      <c r="H218" t="s">
-        <v>923</v>
-      </c>
       <c r="I218" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1">
       <c r="D219" t="s">
         <v>730</v>
       </c>
@@ -13291,19 +13285,19 @@
         <v>731</v>
       </c>
       <c r="F219" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G219" t="s">
+        <v>921</v>
+      </c>
+      <c r="H219" t="s">
         <v>922</v>
       </c>
-      <c r="H219" t="s">
-        <v>923</v>
-      </c>
       <c r="I219" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1">
       <c r="D220" t="s">
         <v>732</v>
       </c>
@@ -13311,19 +13305,19 @@
         <v>733</v>
       </c>
       <c r="F220" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G220" t="s">
+        <v>921</v>
+      </c>
+      <c r="H220" t="s">
         <v>922</v>
       </c>
-      <c r="H220" t="s">
-        <v>923</v>
-      </c>
       <c r="I220" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" hidden="1">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -13334,16 +13328,16 @@
         <v>734</v>
       </c>
       <c r="G221" t="s">
+        <v>911</v>
+      </c>
+      <c r="H221" t="s">
         <v>912</v>
       </c>
-      <c r="H221" t="s">
-        <v>913</v>
-      </c>
       <c r="I221" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1">
       <c r="D222" t="s">
         <v>466</v>
       </c>
@@ -13351,22 +13345,22 @@
         <v>469</v>
       </c>
       <c r="F222" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G222" t="s">
         <v>1045</v>
       </c>
-      <c r="G222" t="s">
-        <v>1046</v>
-      </c>
       <c r="H222" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I222" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J222" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1">
       <c r="D223" t="s">
         <v>459</v>
       </c>
@@ -13374,19 +13368,19 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G223" t="s">
+        <v>921</v>
+      </c>
+      <c r="H223" t="s">
         <v>922</v>
       </c>
-      <c r="H223" t="s">
-        <v>923</v>
-      </c>
       <c r="I223" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1">
       <c r="A224" t="s">
         <v>739</v>
       </c>
@@ -13403,19 +13397,19 @@
         <v>740</v>
       </c>
       <c r="F224" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G224" t="s">
+        <v>921</v>
+      </c>
+      <c r="H224" t="s">
+        <v>922</v>
+      </c>
+      <c r="I224" t="s">
         <v>1048</v>
       </c>
-      <c r="G224" t="s">
-        <v>922</v>
-      </c>
-      <c r="H224" t="s">
-        <v>923</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+    </row>
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" t="s">
         <v>742</v>
       </c>
@@ -13426,24 +13420,24 @@
         <v>744</v>
       </c>
       <c r="G225" t="s">
+        <v>911</v>
+      </c>
+      <c r="H225" t="s">
         <v>912</v>
       </c>
-      <c r="H225" t="s">
-        <v>913</v>
-      </c>
       <c r="I225" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" t="s">
         <v>745</v>
       </c>
       <c r="B226" t="s">
+        <v>855</v>
+      </c>
+      <c r="C226" t="s">
         <v>856</v>
-      </c>
-      <c r="C226" t="s">
-        <v>857</v>
       </c>
       <c r="D226" t="s">
         <v>745</v>
@@ -13452,19 +13446,19 @@
         <v>746</v>
       </c>
       <c r="F226" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G226" t="s">
+        <v>921</v>
+      </c>
+      <c r="H226" t="s">
+        <v>922</v>
+      </c>
+      <c r="I226" t="s">
         <v>1050</v>
       </c>
-      <c r="G226" t="s">
-        <v>922</v>
-      </c>
-      <c r="H226" t="s">
-        <v>923</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+    </row>
+    <row r="227" spans="1:9" hidden="1">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -13472,19 +13466,19 @@
         <v>747</v>
       </c>
       <c r="F227" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G227" t="s">
+        <v>921</v>
+      </c>
+      <c r="H227" t="s">
         <v>922</v>
       </c>
-      <c r="H227" t="s">
-        <v>923</v>
-      </c>
       <c r="I227" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -13492,19 +13486,19 @@
         <v>748</v>
       </c>
       <c r="F228" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G228" t="s">
+        <v>921</v>
+      </c>
+      <c r="H228" t="s">
         <v>922</v>
       </c>
-      <c r="H228" t="s">
-        <v>923</v>
-      </c>
       <c r="I228" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -13512,19 +13506,19 @@
         <v>749</v>
       </c>
       <c r="F229" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G229" t="s">
+        <v>911</v>
+      </c>
+      <c r="H229" t="s">
         <v>912</v>
       </c>
-      <c r="H229" t="s">
-        <v>913</v>
-      </c>
       <c r="I229" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -13532,19 +13526,19 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G230" t="s">
+        <v>921</v>
+      </c>
+      <c r="H230" t="s">
         <v>922</v>
       </c>
-      <c r="H230" t="s">
-        <v>923</v>
-      </c>
       <c r="I230" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="8" t="s">
         <v>406</v>
       </c>
@@ -13552,7 +13546,7 @@
         <v>412</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D231" t="s">
         <v>406</v>
@@ -13561,19 +13555,19 @@
         <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G231" t="s">
+        <v>921</v>
+      </c>
+      <c r="H231" t="s">
         <v>922</v>
       </c>
-      <c r="H231" t="s">
-        <v>923</v>
-      </c>
       <c r="I231" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -13581,19 +13575,19 @@
         <v>750</v>
       </c>
       <c r="F232" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G232" t="s">
+        <v>911</v>
+      </c>
+      <c r="H232" t="s">
         <v>912</v>
       </c>
-      <c r="H232" t="s">
-        <v>913</v>
-      </c>
       <c r="I232" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -13601,19 +13595,19 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G233" t="s">
+        <v>911</v>
+      </c>
+      <c r="H233" t="s">
         <v>912</v>
       </c>
-      <c r="H233" t="s">
-        <v>913</v>
-      </c>
       <c r="I233" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -13621,19 +13615,19 @@
         <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G234" t="s">
+        <v>921</v>
+      </c>
+      <c r="H234" t="s">
         <v>922</v>
       </c>
-      <c r="H234" t="s">
-        <v>923</v>
-      </c>
       <c r="I234" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1">
       <c r="D235" t="s">
         <v>730</v>
       </c>
@@ -13641,19 +13635,19 @@
         <v>752</v>
       </c>
       <c r="F235" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G235" t="s">
+        <v>911</v>
+      </c>
+      <c r="H235" t="s">
         <v>912</v>
       </c>
-      <c r="H235" t="s">
-        <v>913</v>
-      </c>
       <c r="I235" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" hidden="1">
       <c r="D236" t="s">
         <v>643</v>
       </c>
@@ -13661,19 +13655,19 @@
         <v>753</v>
       </c>
       <c r="F236" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G236" t="s">
+        <v>911</v>
+      </c>
+      <c r="H236" t="s">
         <v>912</v>
       </c>
-      <c r="H236" t="s">
-        <v>913</v>
-      </c>
       <c r="I236" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1">
       <c r="D237" t="s">
         <v>643</v>
       </c>
@@ -13681,19 +13675,19 @@
         <v>754</v>
       </c>
       <c r="F237" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G237" t="s">
+        <v>911</v>
+      </c>
+      <c r="H237" t="s">
         <v>912</v>
       </c>
-      <c r="H237" t="s">
-        <v>913</v>
-      </c>
       <c r="I237" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -13704,16 +13698,16 @@
         <v>756</v>
       </c>
       <c r="G238" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H238" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I238" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -13724,16 +13718,16 @@
         <v>758</v>
       </c>
       <c r="G239" t="s">
+        <v>911</v>
+      </c>
+      <c r="H239" t="s">
         <v>912</v>
       </c>
-      <c r="H239" t="s">
-        <v>913</v>
-      </c>
       <c r="I239" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1">
       <c r="D240" t="s">
         <v>498</v>
       </c>
@@ -13741,27 +13735,27 @@
         <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G240" t="s">
+        <v>921</v>
+      </c>
+      <c r="H240" t="s">
         <v>922</v>
       </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>923</v>
       </c>
-      <c r="I240" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17">
+    </row>
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" t="s">
         <v>720</v>
       </c>
       <c r="B241" t="s">
+        <v>882</v>
+      </c>
+      <c r="C241" t="s">
         <v>883</v>
-      </c>
-      <c r="C241" t="s">
-        <v>884</v>
       </c>
       <c r="D241" t="s">
         <v>649</v>
@@ -13770,22 +13764,22 @@
         <v>759</v>
       </c>
       <c r="F241" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G241" t="s">
+        <v>911</v>
+      </c>
+      <c r="H241" t="s">
         <v>912</v>
       </c>
-      <c r="H241" t="s">
-        <v>913</v>
-      </c>
       <c r="I241" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J241" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" hidden="1">
       <c r="D242" t="s">
         <v>649</v>
       </c>
@@ -13793,19 +13787,19 @@
         <v>760</v>
       </c>
       <c r="F242" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G242" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H242" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I242" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" hidden="1">
       <c r="D243" t="s">
         <v>649</v>
       </c>
@@ -13813,19 +13807,19 @@
         <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G243" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H243" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I243" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" hidden="1">
       <c r="D244" t="s">
         <v>692</v>
       </c>
@@ -13833,39 +13827,39 @@
         <v>762</v>
       </c>
       <c r="F244" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G244" t="s">
+        <v>911</v>
+      </c>
+      <c r="H244" t="s">
+        <v>912</v>
+      </c>
+      <c r="I244" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" hidden="1">
+      <c r="D245" t="s">
+        <v>770</v>
+      </c>
+      <c r="E245" t="s">
+        <v>771</v>
+      </c>
+      <c r="F245" t="s">
         <v>1068</v>
       </c>
-      <c r="G244" t="s">
-        <v>912</v>
-      </c>
-      <c r="H244" t="s">
-        <v>913</v>
-      </c>
-      <c r="I244" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17">
-      <c r="D245" t="s">
-        <v>771</v>
-      </c>
-      <c r="E245" t="s">
-        <v>772</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1069</v>
-      </c>
       <c r="G245" t="s">
+        <v>921</v>
+      </c>
+      <c r="H245" t="s">
         <v>922</v>
       </c>
-      <c r="H245" t="s">
-        <v>923</v>
-      </c>
       <c r="I245" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" hidden="1">
       <c r="D246" t="s">
         <v>737</v>
       </c>
@@ -13873,117 +13867,117 @@
         <v>738</v>
       </c>
       <c r="F246" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G246" t="s">
+        <v>916</v>
+      </c>
+      <c r="H246" t="s">
+        <v>917</v>
+      </c>
+      <c r="I246" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J246" t="s">
         <v>1070</v>
       </c>
-      <c r="G246" t="s">
-        <v>917</v>
-      </c>
-      <c r="H246" t="s">
-        <v>918</v>
-      </c>
-      <c r="I246" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J246" t="s">
+    </row>
+    <row r="247" spans="1:17" hidden="1">
+      <c r="D247" t="s">
+        <v>772</v>
+      </c>
+      <c r="E247" t="s">
+        <v>773</v>
+      </c>
+      <c r="F247" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="247" spans="1:17">
-      <c r="D247" t="s">
-        <v>773</v>
-      </c>
-      <c r="E247" t="s">
-        <v>774</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1072</v>
-      </c>
       <c r="G247" t="s">
+        <v>921</v>
+      </c>
+      <c r="H247" t="s">
         <v>922</v>
       </c>
-      <c r="H247" t="s">
-        <v>923</v>
-      </c>
       <c r="I247" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1">
       <c r="D248" t="s">
         <v>613</v>
       </c>
       <c r="E248" t="s">
+        <v>796</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G248" t="s">
+        <v>984</v>
+      </c>
+      <c r="H248" t="s">
+        <v>985</v>
+      </c>
+      <c r="I248" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" hidden="1">
+      <c r="D249" t="s">
         <v>797</v>
       </c>
-      <c r="F248" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G248" t="s">
-        <v>985</v>
-      </c>
-      <c r="H248" t="s">
-        <v>986</v>
-      </c>
-      <c r="I248" t="s">
+      <c r="E249" t="s">
+        <v>798</v>
+      </c>
+      <c r="F249" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="249" spans="1:17">
-      <c r="D249" t="s">
-        <v>798</v>
-      </c>
-      <c r="E249" t="s">
-        <v>799</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>1075</v>
       </c>
-      <c r="G249" t="s">
+      <c r="H249" t="s">
+        <v>922</v>
+      </c>
+      <c r="I249" t="s">
         <v>1076</v>
       </c>
-      <c r="H249" t="s">
-        <v>923</v>
-      </c>
-      <c r="I249" t="s">
+      <c r="J249" t="s">
         <v>1077</v>
       </c>
-      <c r="J249" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" ht="16.5">
+    </row>
+    <row r="250" spans="1:17" ht="16.5" hidden="1">
       <c r="D250" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E250" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F250" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G250" t="s">
         <v>1154</v>
       </c>
-      <c r="G250" t="s">
-        <v>1155</v>
-      </c>
       <c r="H250" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I250" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J250" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L250" t="s">
         <v>196</v>
       </c>
       <c r="M250" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N250" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -14000,16 +13994,16 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G251" t="s">
+        <v>911</v>
+      </c>
+      <c r="H251" t="s">
         <v>912</v>
       </c>
-      <c r="H251" t="s">
-        <v>913</v>
-      </c>
       <c r="I251" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L251" t="s">
         <v>730</v>
@@ -14018,7 +14012,7 @@
         <v>312</v>
       </c>
       <c r="N251" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O251" t="s">
         <v>309</v>
@@ -14027,30 +14021,30 @@
         <v>312</v>
       </c>
       <c r="Q251" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" hidden="1">
       <c r="D252" t="s">
         <v>286</v>
       </c>
       <c r="E252" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F252" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G252" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H252" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I252" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17" ht="16.5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" ht="16.5" hidden="1">
       <c r="D253" t="s">
         <v>388</v>
       </c>
@@ -14058,39 +14052,39 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G253" t="s">
+        <v>911</v>
+      </c>
+      <c r="H253" t="s">
         <v>912</v>
       </c>
-      <c r="H253" t="s">
-        <v>913</v>
-      </c>
       <c r="I253" s="10" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" hidden="1">
       <c r="D254" t="s">
         <v>510</v>
       </c>
       <c r="E254" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F254" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G254" t="s">
+        <v>916</v>
+      </c>
+      <c r="H254" t="s">
         <v>917</v>
       </c>
-      <c r="H254" t="s">
-        <v>918</v>
-      </c>
       <c r="I254" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" hidden="1">
       <c r="D255" t="s">
         <v>476</v>
       </c>
@@ -14098,222 +14092,222 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G255" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H255" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I255" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" hidden="1">
       <c r="D256" t="s">
         <v>363</v>
       </c>
       <c r="E256" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F256" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G256" t="s">
+        <v>911</v>
+      </c>
+      <c r="H256" t="s">
         <v>912</v>
       </c>
-      <c r="H256" t="s">
-        <v>913</v>
-      </c>
       <c r="I256" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1">
       <c r="D257" t="s">
         <v>46</v>
       </c>
       <c r="E257" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F257" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G257" t="s">
+        <v>921</v>
+      </c>
+      <c r="H257" t="s">
         <v>922</v>
       </c>
-      <c r="H257" t="s">
-        <v>923</v>
-      </c>
       <c r="I257" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1">
       <c r="D258" t="s">
         <v>510</v>
       </c>
       <c r="E258" t="s">
+        <v>815</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H258" t="s">
+        <v>922</v>
+      </c>
+      <c r="I258" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1">
+      <c r="D259" t="s">
+        <v>797</v>
+      </c>
+      <c r="E259" t="s">
         <v>816</v>
       </c>
-      <c r="F258" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G258" t="s">
+      <c r="F259" t="s">
         <v>1087</v>
       </c>
-      <c r="H258" t="s">
-        <v>923</v>
-      </c>
-      <c r="I258" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="D259" t="s">
-        <v>798</v>
-      </c>
-      <c r="E259" t="s">
-        <v>817</v>
-      </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
+        <v>921</v>
+      </c>
+      <c r="H259" t="s">
+        <v>922</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" hidden="1">
+      <c r="D260" t="s">
+        <v>797</v>
+      </c>
+      <c r="E260" t="s">
+        <v>820</v>
+      </c>
+      <c r="F260" t="s">
         <v>1088</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G260" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H260" t="s">
         <v>922</v>
       </c>
-      <c r="H259" t="s">
-        <v>923</v>
-      </c>
-      <c r="I259" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="D260" t="s">
-        <v>798</v>
-      </c>
-      <c r="E260" t="s">
-        <v>821</v>
-      </c>
-      <c r="F260" t="s">
+      <c r="I260" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J260" t="s">
         <v>1089</v>
       </c>
-      <c r="G260" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H260" t="s">
-        <v>923</v>
-      </c>
-      <c r="I260" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
+    </row>
+    <row r="261" spans="1:10" hidden="1">
       <c r="D261" t="s">
         <v>115</v>
       </c>
       <c r="E261" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F261" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G261" t="s">
         <v>1091</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="s">
+        <v>922</v>
+      </c>
+      <c r="I261" t="s">
         <v>1092</v>
       </c>
-      <c r="H261" t="s">
-        <v>923</v>
-      </c>
-      <c r="I261" t="s">
+    </row>
+    <row r="262" spans="1:10" hidden="1">
+      <c r="D262" t="s">
+        <v>797</v>
+      </c>
+      <c r="E262" t="s">
+        <v>816</v>
+      </c>
+      <c r="F262" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="D262" t="s">
-        <v>798</v>
-      </c>
-      <c r="E262" t="s">
-        <v>817</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H262" t="s">
+        <v>922</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J262" t="s">
         <v>1094</v>
       </c>
-      <c r="G262" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H262" t="s">
-        <v>923</v>
-      </c>
-      <c r="I262" t="s">
-        <v>1051</v>
-      </c>
-      <c r="J262" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+    </row>
+    <row r="263" spans="1:10" hidden="1">
       <c r="D263" t="s">
         <v>742</v>
       </c>
       <c r="E263" t="s">
+        <v>829</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G263" t="s">
+        <v>911</v>
+      </c>
+      <c r="H263" t="s">
+        <v>912</v>
+      </c>
+      <c r="I263" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" hidden="1">
+      <c r="D264" t="s">
         <v>830</v>
       </c>
-      <c r="F263" t="s">
+      <c r="E264" t="s">
+        <v>831</v>
+      </c>
+      <c r="F264" t="s">
         <v>1096</v>
       </c>
-      <c r="G263" t="s">
-        <v>912</v>
-      </c>
-      <c r="H263" t="s">
-        <v>913</v>
-      </c>
-      <c r="I263" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="D264" t="s">
-        <v>831</v>
-      </c>
-      <c r="E264" t="s">
-        <v>832</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1097</v>
-      </c>
       <c r="G264" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H264" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I264" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" hidden="1">
       <c r="D265" t="s">
         <v>229</v>
       </c>
       <c r="E265" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F265" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G265" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H265" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" hidden="1">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -14321,7 +14315,7 @@
         <v>359</v>
       </c>
       <c r="C266" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D266" t="s">
         <v>322</v>
@@ -14330,7 +14324,7 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G266" t="s">
         <v>601</v>
@@ -14339,13 +14333,13 @@
         <v>66</v>
       </c>
       <c r="I266" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J266" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1">
       <c r="A267" t="s">
         <v>417</v>
       </c>
@@ -14362,228 +14356,228 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G267" t="s">
+        <v>911</v>
+      </c>
+      <c r="H267" t="s">
         <v>912</v>
       </c>
-      <c r="H267" t="s">
-        <v>913</v>
-      </c>
       <c r="I267" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" hidden="1">
       <c r="A268" t="s">
         <v>60</v>
       </c>
       <c r="B268" t="s">
+        <v>850</v>
+      </c>
+      <c r="C268" t="s">
         <v>851</v>
-      </c>
-      <c r="C268" t="s">
-        <v>852</v>
       </c>
       <c r="D268" t="s">
         <v>60</v>
       </c>
       <c r="E268" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F268" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H268" t="s">
+        <v>922</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J268" t="s">
         <v>1101</v>
       </c>
-      <c r="G268" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H268" t="s">
-        <v>923</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J268" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+    </row>
+    <row r="269" spans="1:10" hidden="1">
       <c r="A269" t="s">
         <v>69</v>
       </c>
       <c r="B269" t="s">
+        <v>852</v>
+      </c>
+      <c r="C269" t="s">
         <v>853</v>
-      </c>
-      <c r="C269" t="s">
-        <v>854</v>
       </c>
       <c r="D269" t="s">
         <v>69</v>
       </c>
       <c r="E269" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F269" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G269" t="s">
+        <v>921</v>
+      </c>
+      <c r="H269" t="s">
+        <v>922</v>
+      </c>
+      <c r="I269" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" hidden="1">
+      <c r="D270" t="s">
+        <v>868</v>
+      </c>
+      <c r="E270" t="s">
+        <v>867</v>
+      </c>
+      <c r="F270" t="s">
         <v>1103</v>
       </c>
-      <c r="G269" t="s">
-        <v>922</v>
-      </c>
-      <c r="H269" t="s">
-        <v>923</v>
-      </c>
-      <c r="I269" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
-      <c r="D270" t="s">
-        <v>869</v>
-      </c>
-      <c r="E270" t="s">
-        <v>868</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+    </row>
+    <row r="271" spans="1:10" hidden="1">
       <c r="D271" t="s">
         <v>540</v>
       </c>
       <c r="E271" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F271" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G271" t="s">
+        <v>916</v>
+      </c>
+      <c r="H271" t="s">
         <v>917</v>
       </c>
-      <c r="H271" t="s">
-        <v>918</v>
-      </c>
       <c r="I271" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1">
       <c r="D272" t="s">
         <v>649</v>
       </c>
       <c r="E272" t="s">
+        <v>888</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G272" t="s">
+        <v>911</v>
+      </c>
+      <c r="H272" t="s">
+        <v>912</v>
+      </c>
+      <c r="I272" t="s">
+        <v>923</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" hidden="1">
+      <c r="D273" t="s">
         <v>889</v>
       </c>
-      <c r="F272" t="s">
+      <c r="E273" t="s">
+        <v>890</v>
+      </c>
+      <c r="F273" t="s">
         <v>1106</v>
       </c>
-      <c r="G272" t="s">
-        <v>912</v>
-      </c>
-      <c r="H272" t="s">
-        <v>913</v>
-      </c>
-      <c r="I272" t="s">
-        <v>924</v>
-      </c>
-      <c r="J272" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14">
-      <c r="D273" t="s">
-        <v>890</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="G273" t="s">
+        <v>984</v>
+      </c>
+      <c r="H273" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" hidden="1">
+      <c r="D274" t="s">
+        <v>889</v>
+      </c>
+      <c r="E274" t="s">
         <v>891</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F274" t="s">
         <v>1107</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G274" t="s">
+        <v>984</v>
+      </c>
+      <c r="H274" t="s">
         <v>985</v>
       </c>
-      <c r="H273" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14">
-      <c r="D274" t="s">
-        <v>890</v>
-      </c>
-      <c r="E274" t="s">
+    </row>
+    <row r="275" spans="1:14" hidden="1">
+      <c r="D275" t="s">
+        <v>893</v>
+      </c>
+      <c r="E275" t="s">
         <v>892</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F275" t="s">
         <v>1108</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G275" t="s">
+        <v>984</v>
+      </c>
+      <c r="H275" t="s">
         <v>985</v>
       </c>
-      <c r="H274" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14">
-      <c r="D275" t="s">
-        <v>894</v>
-      </c>
-      <c r="E275" t="s">
-        <v>893</v>
-      </c>
-      <c r="F275" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G275" t="s">
-        <v>985</v>
-      </c>
-      <c r="H275" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14">
+    </row>
+    <row r="276" spans="1:14" hidden="1">
       <c r="D276" t="s">
         <v>553</v>
       </c>
       <c r="E276" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F276" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G276" t="s">
+        <v>916</v>
+      </c>
+      <c r="H276" t="s">
+        <v>917</v>
+      </c>
+      <c r="I276" t="s">
+        <v>951</v>
+      </c>
+      <c r="J276" t="s">
         <v>1110</v>
       </c>
-      <c r="G276" t="s">
-        <v>917</v>
-      </c>
-      <c r="H276" t="s">
-        <v>918</v>
-      </c>
-      <c r="I276" t="s">
-        <v>952</v>
-      </c>
-      <c r="J276" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14">
+    </row>
+    <row r="277" spans="1:14" hidden="1">
       <c r="D277" t="s">
         <v>730</v>
       </c>
       <c r="E277" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F277" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G277" t="s">
+        <v>911</v>
+      </c>
+      <c r="H277" t="s">
         <v>912</v>
       </c>
-      <c r="H277" t="s">
-        <v>913</v>
-      </c>
       <c r="I277" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" hidden="1">
       <c r="D278" t="s">
         <v>123</v>
       </c>
@@ -14591,42 +14585,42 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G278" t="s">
+        <v>911</v>
+      </c>
+      <c r="H278" t="s">
         <v>912</v>
       </c>
-      <c r="H278" t="s">
-        <v>913</v>
-      </c>
       <c r="I278" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" hidden="1">
       <c r="D279" t="s">
         <v>115</v>
       </c>
       <c r="E279" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F279" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H279" t="s">
+        <v>922</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J279" t="s">
         <v>1114</v>
       </c>
-      <c r="G279" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H279" t="s">
-        <v>923</v>
-      </c>
-      <c r="I279" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14">
+    </row>
+    <row r="280" spans="1:14" hidden="1">
       <c r="D280" t="s">
         <v>196</v>
       </c>
@@ -14634,102 +14628,102 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H280" t="s">
+        <v>846</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J280" t="s">
         <v>1116</v>
-      </c>
-      <c r="G280" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H280" t="s">
-        <v>847</v>
-      </c>
-      <c r="I280" t="s">
-        <v>1093</v>
-      </c>
-      <c r="J280" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="281" spans="1:14">
       <c r="D281" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E281" t="s">
         <v>1120</v>
       </c>
-      <c r="E281" t="s">
+      <c r="F281" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H281" t="s">
+        <v>914</v>
+      </c>
+      <c r="I281" t="s">
+        <v>963</v>
+      </c>
+      <c r="L281" t="s">
         <v>1121</v>
       </c>
-      <c r="F281" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G281" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H281" t="s">
-        <v>915</v>
-      </c>
-      <c r="I281" t="s">
-        <v>964</v>
-      </c>
-      <c r="L281" t="s">
+      <c r="M281" t="s">
+        <v>1120</v>
+      </c>
+      <c r="N281" t="s">
         <v>1122</v>
-      </c>
-      <c r="M281" t="s">
-        <v>1121</v>
-      </c>
-      <c r="N281" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="282" spans="1:14">
       <c r="D282" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E282" t="s">
         <v>1128</v>
       </c>
-      <c r="E282" t="s">
-        <v>1129</v>
-      </c>
       <c r="F282" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G282" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H282" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I282" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" hidden="1">
       <c r="D283" t="s">
+        <v>830</v>
+      </c>
+      <c r="E283" t="s">
         <v>831</v>
       </c>
-      <c r="E283" t="s">
-        <v>832</v>
-      </c>
       <c r="F283" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" hidden="1">
       <c r="D284" t="s">
         <v>649</v>
       </c>
       <c r="E284" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F284" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G284" t="s">
         <v>1139</v>
       </c>
-      <c r="G284" t="s">
+      <c r="H284" t="s">
         <v>1140</v>
       </c>
-      <c r="H284" t="s">
-        <v>1141</v>
-      </c>
       <c r="J284" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" hidden="1">
       <c r="D285" t="s">
         <v>454</v>
       </c>
@@ -14737,59 +14731,59 @@
         <v>457</v>
       </c>
       <c r="F285" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G285" t="s">
         <v>1143</v>
-      </c>
-      <c r="G285" t="s">
-        <v>1144</v>
       </c>
       <c r="H285" t="s">
         <v>66</v>
       </c>
       <c r="I285" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J285" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" hidden="1">
       <c r="A286" t="s">
         <v>466</v>
       </c>
       <c r="B286" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C286" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D286" t="s">
         <v>466</v>
       </c>
       <c r="E286" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F286" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G286" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H286" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I286" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" hidden="1">
       <c r="A287" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B287" t="s">
         <v>439</v>
       </c>
       <c r="C287" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D287" t="s">
         <v>436</v>
@@ -14801,7 +14795,7 @@
         <v>442</v>
       </c>
       <c r="G287" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H287" t="s">
         <v>66</v>
@@ -14811,7 +14805,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W287" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
+  <autoFilter ref="A1:W287" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="SC4823S6-GC-00NR-4823"/>
+        <filter val="SC4823S6-K-GB-00NR-4823K"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="203" priority="221"/>
@@ -14976,7 +14977,7 @@
     <cfRule type="duplicateValues" dxfId="110" priority="15"/>
     <cfRule type="duplicateValues" dxfId="109" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J249:J255 J1:J128 J133 J135:J221 J257:J1048576 J223:J247">
+  <conditionalFormatting sqref="J249:J255 J133 J135:J221 J257:J1048576 J223:J247 J1:J128">
     <cfRule type="duplicateValues" dxfId="108" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E3937-75A3-4C05-B21A-5E6BD4C7BE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C48FF-8577-4D83-8183-653F0FADC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1166">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2754,61 +2754,1044 @@
     <t>SC4624SP20B5</t>
   </si>
   <si>
+    <t>NF.SC9642TS-EC-Q-AH-9642</t>
+  </si>
+  <si>
+    <t>NF.SC9642TS-E-Q-AH-9642</t>
+  </si>
+  <si>
+    <t>SC1245UA</t>
+  </si>
+  <si>
+    <t>SC69401HS-TR-Q</t>
+  </si>
+  <si>
+    <t>SC2498TSO-Q-DB-60CR-2498T</t>
+  </si>
+  <si>
+    <t>SC9675IM-HRF00-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-HRF11-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF10-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF00-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-LRF01-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;上海胜磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675IM-Q-AB-4XCR-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9675VB-Q-AB-4XCK-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜磁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688SA-Q-DC-40CK-888K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;江苏长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4688SA-Q-DC-888K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688DC-DC-40AR-2425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688DC-Q-DC-40AR-4688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688SA-Q-DC-40CK-4688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4688SA-Q-DC-4688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4689SA-Q-DF-40CK-4689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4689SA-Q-DF-4689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-HBL-Q-DE-40HK-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-Q-DE-40HK-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643SA-Q-DE-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-S-Q-DE-40HR-2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CR-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-94-AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-S-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-S-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-G-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-94-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-G-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40AK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-P-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-Q-DE-40CK-FFH-L43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-Q-DE-FFH-L43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-Q-DE-40CR-FFH-L43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4643VB-Q-DE-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643SA-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-Q-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-25A-DF-03CR-23025S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP8(FC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-30A-DF-03CR-23030S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-50A-DF-03CR-23050S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624DC-50A-DF-03CR-CA-IS23050W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOW16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.CA-IS23050W(STC9D06F)-CA-IS23050W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4645VB-DF-00CK-4645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4645VB-DF-4645</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2063UA-GC-00AK-2063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2063SO-GC-00NR-2063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通宁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-3L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2033SO-N-GD-00NR-2033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GA-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-00AK-177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC2402UA-GB-00AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-00AK-6501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-0XAK-U18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402UA-GB-0XAK-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402SO-N-GB-00NR-2402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-41CPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-PC-Q-AI-10LR-9641PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-PC-Q-AI-10LK-9641PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-9634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC9634VB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-92143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9634VB-CG-00CK-SZ48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长电先进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁文强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2436UA-CI-10AK-6210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2064SO-GC-00NR-2064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2413SO-N-CD-00LR-44E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4103DN(STC11201B1)-4103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江亚芯微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4104SE-GB-00LR-4104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2943SO-Q-DB-60CR-2943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4391S6-GB-00ZR-4391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏尊阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT23-6L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4616UA-10.2NF-CD-90AK-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;南通华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4616UA-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4616UA-10NV-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4616UA-CD-90AK-4616</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4665VB-HB-33CK-4665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4665VB(STC13103B)-4665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-Q-AI-10AR-9641P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL002147DC-GB-00AR-2147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL54123ADC-GB-00AR-54123A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60220-60220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSOP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA.SC60226SS-DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1024-976-BSD-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1024-Z1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60220SS-DC-00CB-60220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-U-256-976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-U-P1-256-244-mai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-D-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-U-P1-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60224-U-P4-1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC60226SS-DC-00CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60228DC-DC-00AR-NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60228DC-DC-00AR-60228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134S1-CI-00AK-43F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC1134UA-CI-00AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4624SP30B5-SC724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eTSSOP16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN1616-6L(.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN1616-6L(.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2968S1-N-DC-4XAK-S21C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2526VB-SD-DA-00AK-2526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1919UA-CD-90AK-919H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;佛山蓝箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9642TS-Q-AG-4XHK-9642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60370-60370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QFN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1133UA-CJ-00AK-1133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1845S1-AI-00AK-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2242UA-CE-00AK-2242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2432SO-N-Q-CI-10CR-2432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2432UA-CI-10AK-6232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442UA-CP-10AK-U18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2448UA-N-Q-DB-60AK-2448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2527S6-SD-Q-DA-40CR-2527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC25791CUA-A(STC11210G-Q)-25791C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC25891CUA-A-Q(STC11210G-Q)-25891C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT89-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4688DC-Q-DC-40AR-6388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-SPI-Q-HD-4XTR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-HD-4XTR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9621VB-Q-CN-4XCR-9621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9684TS-Q-DB-4XAR-9684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC60104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA.SC60104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60370QS-AO-DC-00CY-60370</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC2304C-S-DC-00CR-2304C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLCSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A2-713B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛扬&amp;华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445A2-713B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2546VB-AB-DA-00CK-2546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2402S1-CJ-90AK-6571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2438SO-CM-10CR-2438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-P-Q-DE-40CR-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-10AR-G1630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2462SO-Q-CJ-10CR-2462</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2948S2-DB-60AK-61H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4643VB-U-Q-DE-40CK-4643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新光扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445B2-713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445B2-713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245A1-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1445A1-4451H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1445A1-AB-4451H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC3100VB-DG-00CK-3100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC4011B-DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM.SC243XUA-CI-10AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442SO-Q-CR-1XCX-2442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002A1-CG-00HK-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1002A1(STC1002AG)-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002N2W-CL-00AK-N41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2452SO-Q-DD-60AR-2452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60221-D-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRVE8602A5R-8602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE8602AKR-8602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VE1430Q1CA3R5-1430QC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4624SP20B5-SC4624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC4624SP20B5-SC4624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00CR-43F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1245UA-1245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1245UA-1245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1945A1-AJ-00HK-N602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1945A1-AJ-N602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1945B1-AJ-N13</t>
+  </si>
+  <si>
+    <t>STC11205C</t>
+  </si>
+  <si>
+    <t>SC4823S6-TR</t>
+  </si>
+  <si>
+    <t>STC11205A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4823S6-GA-00NR-4823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2438SO-Q-CM-10AR-2438</t>
+  </si>
+  <si>
+    <t>SC243XSO-Q-CM-10AR-243X</t>
+  </si>
+  <si>
+    <t>SC2436SO-CM-10AR-2436</t>
+  </si>
+  <si>
+    <t>STC11205B</t>
+  </si>
+  <si>
+    <t>SC4823S6-K-TR</t>
+  </si>
+  <si>
+    <t>SC4823S6-GC-00NR-4823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4823S6-K-GB-00NR-4823K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442UA-Q-CP-10AK-2442</t>
+  </si>
+  <si>
+    <t>CA-IS23050W</t>
+  </si>
+  <si>
+    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;长电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4012SO-N-XE-90NR-4012</t>
+  </si>
+  <si>
+    <t>NF.SC69401DC-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>NF.SC69401HS-Q-HD-69401</t>
+  </si>
+  <si>
+    <t>SC69401HS-Q-HD-4XTB-69401</t>
+  </si>
+  <si>
+    <t>赛扬%华天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳&amp;Jaynie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC69401HS-TB-Q</t>
+  </si>
+  <si>
+    <t>SC9625VB-CE-00CK-9625</t>
+  </si>
+  <si>
+    <t>赛扬&amp;长电</t>
+  </si>
+  <si>
+    <t>NA.SC9625VB-CE</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;浙江赛扬</t>
+  </si>
+  <si>
+    <t>Jaynie&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC11202B</t>
+  </si>
+  <si>
+    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
+  </si>
+  <si>
+    <t>SC9642TS-E-BK-Q</t>
+  </si>
+  <si>
+    <t>SC1945S1-AM-00AK-N13</t>
+  </si>
+  <si>
+    <t>SC1945S1-AJ-00AK-N13</t>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2443UA-Q-DB-60HK-2443</t>
+  </si>
+  <si>
+    <t>NF.SC2443UA-Q-DB-2443</t>
+  </si>
+  <si>
+    <t>STC11102B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9910BN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC9641TS-362-Q-CB-10LK-9641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60228DC-DC-90AR-NM</t>
+  </si>
+  <si>
+    <t>SC4643SA-Q-DE-40CK-2100</t>
+  </si>
+  <si>
+    <t>SC60228DC-DC-00AR-60228</t>
+  </si>
+  <si>
     <t>NF.SC9625VB-CE-9625L</t>
-  </si>
-  <si>
-    <t>NF.SC9642TS-EC-Q-AH-9642</t>
-  </si>
-  <si>
-    <t>NF.SC9642TS-E-Q-AH-9642</t>
-  </si>
-  <si>
-    <t>SC1245UA</t>
-  </si>
-  <si>
-    <t>SC69401HS-TR-Q</t>
-  </si>
-  <si>
-    <t>SC2498TSO-Q-DB-60CR-2498T</t>
-  </si>
-  <si>
-    <t>SC9675IM-HRF00-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-HRF11-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-LRF10-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-LRF00-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-LRF01-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;上海胜磁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675IM-Q-AB-4XCR-9675</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9675VB-Q-AB-4XCK-9675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山蓝箭&amp;江苏尊阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2817,971 +3800,6 @@
   </si>
   <si>
     <t>嘉豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜磁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688SA-Q-DC-40CK-888K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;江苏长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;嘉豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4688SA-Q-DC-888K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688DC-DC-40AR-2425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688DC-Q-DC-40AR-4688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688SA-Q-DC-40CK-4688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4688SA-Q-DC-4688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4689SA-Q-DF-40CK-4689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4689SA-Q-DF-4689</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-HBL-Q-DE-40HK-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-Q-DE-40HK-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643SA-Q-DE-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-S-Q-DE-40HR-2100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-S-Q-DE-40CR-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-94-AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-S-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-S-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-G-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-94-A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-G-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-P-Q-DE-40AK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-P-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-Q-DE-40CK-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-Q-DE-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-Q-DE-40CR-FFH-L43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4643VB-Q-DE-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643SA-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-Q-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-25A-DF-03CR-23025S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP8(FC)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-30A-DF-03CR-23030S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-50A-DF-03CR-23050S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624DC-50A-DF-03CR-CA-IS23050W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOW16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.CA-IS23050W(STC9D06F)-CA-IS23050W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4645VB-DF-00CK-4645</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4645VB-DF-4645</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2063UA-GC-00AK-2063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2063SO-GC-00NR-2063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通宁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-3L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2033SO-N-GD-00NR-2033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402SO-N-GA-00NR-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-00AK-177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC2402UA-GB-00AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-00AK-6501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-0XAK-U18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402UA-GB-0XAK-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402SO-N-GB-00NR-2402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10AR-41CPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-PC-Q-AI-10LR-9641PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭&amp;浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jaynie&amp;方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-PC-Q-AI-10LK-9641PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-9634</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC9634VB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-92143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9634VB-CG-00CK-SZ48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长电先进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁文强</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2436UA-CI-10AK-6210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2064SO-GC-00NR-2064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2413SO-N-CD-00LR-44E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4103DN(STC11201B1)-4103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江亚芯微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4104SE-GB-00LR-4104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2943SO-Q-DB-60CR-2943</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4391S6-GB-00ZR-4391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏尊阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT23-6L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4616UA-10.2NF-CD-90AK-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;南通华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4616UA-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4616UA-10NV-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4616UA-CD-90AK-4616</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4665VB-HB-33CK-4665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4665VB(STC13103B)-4665</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-Q-AI-10AR-9641P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL002147DC-GB-00AR-2147</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SL54123ADC-GB-00AR-54123A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60220-60220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSOP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA.SC60226SS-DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1024-976-BSD-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1024-Z1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60220SS-DC-00CB-60220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-U-256-976</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-U-P1-256-244-mai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-D-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-U-P1-1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60224-U-P4-1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC60226SS-DC-00CB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60228DC-DC-00AR-NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60228DC-DC-00AR-60228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1134S1-CI-00AK-43F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC1134UA-CI-00AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4624SP30B5-SC724</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-Q-HD-4XTR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天水华天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eTSSOP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFN1616-6L(.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFN1616-6L(.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2968S1-N-DC-4XAK-S21C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2526VB-SD-DA-00AK-2526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1919UA-CD-90AK-919H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS-E362-Q-AH-4XLR-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;佛山蓝箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9642TS-Q-AG-4XHK-9642</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60370-60370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QFN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1133UA-CJ-00AK-1133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1845S1-AI-00AK-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2242UA-CE-00AK-2242</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2432SO-N-Q-CI-10CR-2432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2432UA-CI-10AK-6232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442UA-CP-10AK-U18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2443SO-H-Q-DB-60AR-2443H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2448SO-H-Q-DB-60AR-2448H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2448UA-N-Q-DB-60AK-2448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2527S6-SD-Q-DA-40CR-2527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC25791CUA-A(STC11210G-Q)-25791C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC25891CUA-A-Q(STC11210G-Q)-25891C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT89-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4688DC-Q-DC-40AR-6388</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-SPI-Q-HD-4XTR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-HD-4XTR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9621VB-Q-CN-4XCR-9621</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9684TS-Q-DB-4XAR-9684</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC60104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA.SC60104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60370QS-AO-DC-00CY-60370</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC2304C-S-DC-00CR-2304C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WLCSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A2-713B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛扬&amp;华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445A2-713B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2546VB-AB-DA-00CK-2546</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2402S1-CJ-90AK-6571</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2438SO-CM-10CR-2438</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-P-Q-DE-40CR-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-P-AI-10AR-G1630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2462SO-Q-CJ-10CR-2462</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2948S2-DB-60AK-61H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4643VB-U-Q-DE-40CK-4643</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新光扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A1-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445B2-713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445B2-713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245A1-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-92S-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1445A1-4451H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1445A1-AB-4451H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC3100VB-DG-00CK-3100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4012SO-N-XE-90NR-4012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC4011B-DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NM.SC243XUA-CI-10AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442SO-Q-CR-1XCX-2442</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002A1-CG-00HK-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1002A1(STC1002AG)-41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1002N2W-CL-00AK-N41F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2452SO-Q-DD-60AR-2452</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC60221-D-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401DC-SPI-Q-HD-4XCR-69401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRVE8602A5R-8602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VE8602AKR-8602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VE1430Q1CA3R5-1430QC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4624SP20B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC4624SP20B5-SC4624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2527S6-AB-Q-DA-40CR-2527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1134BU-CI-00CR-43F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1245UA-1245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1245UA-1245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC1945A1-AJ-00HK-N602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1945A1-AJ-N602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NF.SC1945B1-AJ-N13</t>
-  </si>
-  <si>
-    <t>江苏尊阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11205C</t>
-  </si>
-  <si>
-    <t>SC4823S6-TR</t>
-  </si>
-  <si>
-    <t>STC11205A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4823S6-GA-00NR-4823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁芯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2438SO-Q-CM-10AR-2438</t>
-  </si>
-  <si>
-    <t>SC243XSO-Q-CM-10AR-243X</t>
-  </si>
-  <si>
-    <t>SC2436SO-CM-10AR-2436</t>
-  </si>
-  <si>
-    <t>STC11205B</t>
-  </si>
-  <si>
-    <t>SC4823S6-K-TR</t>
-  </si>
-  <si>
-    <t>SC4823S6-GC-00NR-4823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4823S6-K-GB-00NR-4823K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2442UA-Q-CP-10AK-2442</t>
-  </si>
-  <si>
-    <t>CA-IS23050W</t>
-  </si>
-  <si>
-    <t>CA-IS23050W(STC9D06F)-CA-IS23050W</t>
-  </si>
-  <si>
-    <t>浙江赛扬&amp;长电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4012SO-N-XE-90NR-4012</t>
-  </si>
-  <si>
-    <t>NF.SC69401DC-Q-HD-69401</t>
-  </si>
-  <si>
-    <t>NF.SC69401HS-Q-HD-69401</t>
-  </si>
-  <si>
-    <t>SC69401HS-Q-HD-4XTB-69401</t>
-  </si>
-  <si>
-    <t>赛扬%华天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC69401HS-TB-Q</t>
-  </si>
-  <si>
-    <t>SC9625VB-CE-00CK-9625</t>
-  </si>
-  <si>
-    <t>赛扬&amp;长电</t>
-  </si>
-  <si>
-    <t>NA.SC9625VB-CE</t>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山蓝箭&amp;浙江赛扬</t>
-  </si>
-  <si>
-    <t>Jaynie&amp;方芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC11202B</t>
-  </si>
-  <si>
-    <t>SC9642TS-E362-Q-AH-4XLK-9642</t>
-  </si>
-  <si>
-    <t>SC9642TS-E-BK-Q</t>
-  </si>
-  <si>
-    <t>SC1945S1-AM-00AK-N13</t>
-  </si>
-  <si>
-    <t>SC1945S1-AJ-00AK-N13</t>
-  </si>
-  <si>
-    <t>浙江赛扬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC2443UA-Q-DB-60HK-2443</t>
-  </si>
-  <si>
-    <t>NF.SC2443UA-Q-DB-2443</t>
-  </si>
-  <si>
-    <t>STC11102B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC9910BN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC9641TS-362-Q-CB-10LK-9641</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3966,7 +3984,167 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="220">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6288,7 +6466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I306" sqref="I306"/>
+      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6682,10 +6860,10 @@
         <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>1118</v>
+        <v>1163</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -6700,7 +6878,7 @@
         <v>57</v>
       </c>
       <c r="N9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1">
@@ -6866,7 +7044,7 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1">
@@ -7007,7 +7185,7 @@
         <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G17" t="s">
         <v>599</v>
@@ -7307,10 +7485,10 @@
         <v>840</v>
       </c>
       <c r="G26" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H26" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -9301,7 +9479,7 @@
         <v>327</v>
       </c>
       <c r="G90" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H90" t="s">
         <v>603</v>
@@ -9368,13 +9546,13 @@
         <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>683</v>
+        <v>1164</v>
       </c>
       <c r="H92" t="s">
-        <v>603</v>
+        <v>1165</v>
       </c>
       <c r="I92" t="s">
         <v>620</v>
@@ -9386,7 +9564,7 @@
         <v>334</v>
       </c>
       <c r="N92" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O92" s="8" t="s">
         <v>322</v>
@@ -9840,7 +10018,7 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="107" spans="1:14" hidden="1">
@@ -9959,7 +10137,7 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="111" spans="1:14" hidden="1">
@@ -9997,7 +10175,7 @@
         <v>806</v>
       </c>
       <c r="N111" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="112" spans="1:14" hidden="1">
@@ -10295,10 +10473,10 @@
         <v>439</v>
       </c>
       <c r="T119" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" hidden="1">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10309,7 +10487,7 @@
         <v>445</v>
       </c>
       <c r="D120" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E120" t="s">
         <v>446</v>
@@ -10327,7 +10505,7 @@
         <v>636</v>
       </c>
       <c r="J120" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L120" t="s">
         <v>443</v>
@@ -10339,7 +10517,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1">
+    <row r="121" spans="1:20">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10359,7 +10537,7 @@
         <v>636</v>
       </c>
       <c r="J121" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L121" t="s">
         <v>443</v>
@@ -10432,7 +10610,7 @@
         <v>622</v>
       </c>
       <c r="J123" t="s">
-        <v>895</v>
+        <v>1162</v>
       </c>
       <c r="L123" t="s">
         <v>454</v>
@@ -10464,7 +10642,7 @@
         <v>622</v>
       </c>
       <c r="J124" t="s">
-        <v>895</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="125" spans="1:20" hidden="1">
@@ -10487,7 +10665,7 @@
         <v>622</v>
       </c>
       <c r="J125" t="s">
-        <v>895</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="126" spans="1:20" hidden="1">
@@ -10560,7 +10738,7 @@
         <v>636</v>
       </c>
       <c r="J127" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L127" t="s">
         <v>466</v>
@@ -10592,16 +10770,16 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H128" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
       </c>
       <c r="J128" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="L128" t="s">
         <v>466</v>
@@ -10630,19 +10808,19 @@
         <v>482</v>
       </c>
       <c r="F129" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G129" t="s">
+        <v>905</v>
+      </c>
+      <c r="H129" t="s">
         <v>906</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>907</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="J129" s="9" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="130" spans="1:14" hidden="1">
@@ -10662,19 +10840,19 @@
         <v>485</v>
       </c>
       <c r="F130" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G130" t="s">
+        <v>905</v>
+      </c>
+      <c r="H130" t="s">
         <v>906</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>907</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="J130" s="9" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="131" spans="1:14" hidden="1">
@@ -10694,19 +10872,19 @@
         <v>488</v>
       </c>
       <c r="F131" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G131" t="s">
+        <v>905</v>
+      </c>
+      <c r="H131" t="s">
         <v>906</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>907</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="J131" s="9" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="132" spans="1:14" hidden="1">
@@ -10726,19 +10904,19 @@
         <v>698</v>
       </c>
       <c r="F132" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G132" t="s">
+        <v>905</v>
+      </c>
+      <c r="H132" t="s">
         <v>906</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>907</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="J132" s="9" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="133" spans="1:14" hidden="1">
@@ -10758,16 +10936,16 @@
         <v>491</v>
       </c>
       <c r="F133" t="s">
+        <v>909</v>
+      </c>
+      <c r="G133" t="s">
         <v>910</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>911</v>
       </c>
-      <c r="H133" t="s">
-        <v>912</v>
-      </c>
       <c r="I133" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="134" spans="1:14" hidden="1">
@@ -10787,19 +10965,19 @@
         <v>492</v>
       </c>
       <c r="F134" t="s">
+        <v>904</v>
+      </c>
+      <c r="G134" t="s">
         <v>905</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>906</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>907</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" s="9" t="s">
         <v>908</v>
-      </c>
-      <c r="J134" s="9" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="135" spans="1:14" hidden="1">
@@ -10819,16 +10997,16 @@
         <v>493</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G135" t="s">
+        <v>912</v>
+      </c>
+      <c r="H135" t="s">
         <v>913</v>
       </c>
-      <c r="H135" t="s">
-        <v>914</v>
-      </c>
       <c r="I135" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="136" spans="1:14" hidden="1">
@@ -10848,19 +11026,19 @@
         <v>501</v>
       </c>
       <c r="F136" t="s">
+        <v>914</v>
+      </c>
+      <c r="G136" t="s">
         <v>915</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>916</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>917</v>
       </c>
-      <c r="I136" t="s">
+      <c r="J136" t="s">
         <v>918</v>
-      </c>
-      <c r="J136" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="137" spans="1:14" hidden="1">
@@ -10880,16 +11058,16 @@
         <v>502</v>
       </c>
       <c r="F137" t="s">
+        <v>919</v>
+      </c>
+      <c r="G137" t="s">
         <v>920</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>921</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>922</v>
-      </c>
-      <c r="I137" t="s">
-        <v>923</v>
       </c>
       <c r="L137" t="s">
         <v>498</v>
@@ -10918,16 +11096,16 @@
         <v>503</v>
       </c>
       <c r="F138" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G138" t="s">
+        <v>920</v>
+      </c>
+      <c r="H138" t="s">
         <v>921</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>922</v>
-      </c>
-      <c r="I138" t="s">
-        <v>923</v>
       </c>
       <c r="L138" t="s">
         <v>498</v>
@@ -10956,19 +11134,19 @@
         <v>503</v>
       </c>
       <c r="F139" t="s">
+        <v>924</v>
+      </c>
+      <c r="G139" t="s">
+        <v>915</v>
+      </c>
+      <c r="H139" t="s">
+        <v>916</v>
+      </c>
+      <c r="I139" t="s">
+        <v>917</v>
+      </c>
+      <c r="J139" t="s">
         <v>925</v>
-      </c>
-      <c r="G139" t="s">
-        <v>916</v>
-      </c>
-      <c r="H139" t="s">
-        <v>917</v>
-      </c>
-      <c r="I139" t="s">
-        <v>918</v>
-      </c>
-      <c r="J139" t="s">
-        <v>926</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>498</v>
@@ -10997,19 +11175,19 @@
         <v>509</v>
       </c>
       <c r="F140" t="s">
+        <v>926</v>
+      </c>
+      <c r="G140" t="s">
+        <v>915</v>
+      </c>
+      <c r="H140" t="s">
+        <v>916</v>
+      </c>
+      <c r="I140" t="s">
+        <v>917</v>
+      </c>
+      <c r="J140" t="s">
         <v>927</v>
-      </c>
-      <c r="G140" t="s">
-        <v>916</v>
-      </c>
-      <c r="H140" t="s">
-        <v>917</v>
-      </c>
-      <c r="I140" t="s">
-        <v>918</v>
-      </c>
-      <c r="J140" t="s">
-        <v>928</v>
       </c>
       <c r="L140" t="s">
         <v>506</v>
@@ -11038,16 +11216,16 @@
         <v>513</v>
       </c>
       <c r="F141" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G141" t="s">
+        <v>920</v>
+      </c>
+      <c r="H141" t="s">
         <v>921</v>
       </c>
-      <c r="H141" t="s">
-        <v>922</v>
-      </c>
       <c r="I141" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L141" t="s">
         <v>510</v>
@@ -11076,19 +11254,28 @@
         <v>516</v>
       </c>
       <c r="F142" t="s">
+        <v>929</v>
+      </c>
+      <c r="G142" t="s">
+        <v>920</v>
+      </c>
+      <c r="H142" t="s">
+        <v>921</v>
+      </c>
+      <c r="I142" t="s">
+        <v>917</v>
+      </c>
+      <c r="J142" t="s">
         <v>930</v>
       </c>
-      <c r="G142" t="s">
-        <v>921</v>
-      </c>
-      <c r="H142" t="s">
-        <v>922</v>
-      </c>
-      <c r="I142" t="s">
-        <v>918</v>
-      </c>
-      <c r="J142" t="s">
-        <v>931</v>
+      <c r="L142" t="s">
+        <v>510</v>
+      </c>
+      <c r="M142" t="s">
+        <v>516</v>
+      </c>
+      <c r="N142" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="143" spans="1:14" hidden="1">
@@ -11108,16 +11295,16 @@
         <v>516</v>
       </c>
       <c r="F143" t="s">
+        <v>930</v>
+      </c>
+      <c r="G143" t="s">
+        <v>910</v>
+      </c>
+      <c r="H143" t="s">
+        <v>911</v>
+      </c>
+      <c r="I143" t="s">
         <v>931</v>
-      </c>
-      <c r="G143" t="s">
-        <v>911</v>
-      </c>
-      <c r="H143" t="s">
-        <v>912</v>
-      </c>
-      <c r="I143" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="144" spans="1:14" hidden="1">
@@ -11137,16 +11324,16 @@
         <v>522</v>
       </c>
       <c r="F144" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G144" t="s">
+        <v>920</v>
+      </c>
+      <c r="H144" t="s">
         <v>921</v>
       </c>
-      <c r="H144" t="s">
-        <v>922</v>
-      </c>
       <c r="I144" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="145" spans="1:17" hidden="1">
@@ -11157,19 +11344,19 @@
         <v>525</v>
       </c>
       <c r="F145" t="s">
+        <v>933</v>
+      </c>
+      <c r="G145" t="s">
+        <v>915</v>
+      </c>
+      <c r="H145" t="s">
+        <v>916</v>
+      </c>
+      <c r="I145" t="s">
         <v>934</v>
       </c>
-      <c r="G145" t="s">
-        <v>916</v>
-      </c>
-      <c r="H145" t="s">
-        <v>917</v>
-      </c>
-      <c r="I145" t="s">
+      <c r="J145" t="s">
         <v>935</v>
-      </c>
-      <c r="J145" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="146" spans="1:17" hidden="1">
@@ -11189,19 +11376,19 @@
         <v>525</v>
       </c>
       <c r="F146" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G146" t="s">
+        <v>915</v>
+      </c>
+      <c r="H146" t="s">
         <v>916</v>
       </c>
-      <c r="H146" t="s">
-        <v>917</v>
-      </c>
       <c r="I146" t="s">
+        <v>934</v>
+      </c>
+      <c r="J146" t="s">
         <v>935</v>
-      </c>
-      <c r="J146" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="147" spans="1:17" hidden="1">
@@ -11221,19 +11408,19 @@
         <v>528</v>
       </c>
       <c r="F147" t="s">
+        <v>937</v>
+      </c>
+      <c r="G147" t="s">
+        <v>915</v>
+      </c>
+      <c r="H147" t="s">
+        <v>916</v>
+      </c>
+      <c r="I147" t="s">
         <v>938</v>
       </c>
-      <c r="G147" t="s">
-        <v>916</v>
-      </c>
-      <c r="H147" t="s">
-        <v>917</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>939</v>
-      </c>
-      <c r="J147" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="148" spans="1:17" hidden="1">
@@ -11253,19 +11440,19 @@
         <v>531</v>
       </c>
       <c r="F148" t="s">
+        <v>940</v>
+      </c>
+      <c r="G148" t="s">
+        <v>915</v>
+      </c>
+      <c r="H148" t="s">
+        <v>916</v>
+      </c>
+      <c r="I148" t="s">
+        <v>938</v>
+      </c>
+      <c r="J148" t="s">
         <v>941</v>
-      </c>
-      <c r="G148" t="s">
-        <v>916</v>
-      </c>
-      <c r="H148" t="s">
-        <v>917</v>
-      </c>
-      <c r="I148" t="s">
-        <v>939</v>
-      </c>
-      <c r="J148" t="s">
-        <v>942</v>
       </c>
       <c r="L148" t="s">
         <v>510</v>
@@ -11303,19 +11490,19 @@
         <v>533</v>
       </c>
       <c r="F149" t="s">
+        <v>942</v>
+      </c>
+      <c r="G149" t="s">
+        <v>915</v>
+      </c>
+      <c r="H149" t="s">
+        <v>916</v>
+      </c>
+      <c r="I149" t="s">
+        <v>938</v>
+      </c>
+      <c r="J149" t="s">
         <v>943</v>
-      </c>
-      <c r="G149" t="s">
-        <v>916</v>
-      </c>
-      <c r="H149" t="s">
-        <v>917</v>
-      </c>
-      <c r="I149" t="s">
-        <v>939</v>
-      </c>
-      <c r="J149" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="150" spans="1:17" hidden="1">
@@ -11335,19 +11522,19 @@
         <v>534</v>
       </c>
       <c r="F150" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G150" t="s">
+        <v>915</v>
+      </c>
+      <c r="H150" t="s">
         <v>916</v>
       </c>
-      <c r="H150" t="s">
-        <v>917</v>
-      </c>
       <c r="I150" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J150" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="151" spans="1:17" hidden="1">
@@ -11367,19 +11554,19 @@
         <v>533</v>
       </c>
       <c r="F151" t="s">
+        <v>945</v>
+      </c>
+      <c r="G151" t="s">
+        <v>915</v>
+      </c>
+      <c r="H151" t="s">
+        <v>916</v>
+      </c>
+      <c r="I151" t="s">
+        <v>938</v>
+      </c>
+      <c r="J151" t="s">
         <v>946</v>
-      </c>
-      <c r="G151" t="s">
-        <v>916</v>
-      </c>
-      <c r="H151" t="s">
-        <v>917</v>
-      </c>
-      <c r="I151" t="s">
-        <v>939</v>
-      </c>
-      <c r="J151" t="s">
-        <v>947</v>
       </c>
       <c r="L151" t="s">
         <v>510</v>
@@ -11408,16 +11595,16 @@
         <v>516</v>
       </c>
       <c r="F152" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G152" t="s">
+        <v>920</v>
+      </c>
+      <c r="H152" t="s">
         <v>921</v>
       </c>
-      <c r="H152" t="s">
-        <v>922</v>
-      </c>
       <c r="I152" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="153" spans="1:17" hidden="1">
@@ -11437,19 +11624,19 @@
         <v>652</v>
       </c>
       <c r="F153" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G153" t="s">
+        <v>910</v>
+      </c>
+      <c r="H153" t="s">
         <v>911</v>
       </c>
-      <c r="H153" t="s">
-        <v>912</v>
-      </c>
       <c r="I153" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J153" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="L153" t="s">
         <v>649</v>
@@ -11487,16 +11674,16 @@
         <v>560</v>
       </c>
       <c r="F154" t="s">
+        <v>949</v>
+      </c>
+      <c r="G154" t="s">
+        <v>920</v>
+      </c>
+      <c r="H154" t="s">
+        <v>921</v>
+      </c>
+      <c r="I154" t="s">
         <v>950</v>
-      </c>
-      <c r="G154" t="s">
-        <v>921</v>
-      </c>
-      <c r="H154" t="s">
-        <v>922</v>
-      </c>
-      <c r="I154" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="155" spans="1:17" hidden="1">
@@ -11516,16 +11703,16 @@
         <v>561</v>
       </c>
       <c r="F155" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G155" t="s">
+        <v>910</v>
+      </c>
+      <c r="H155" t="s">
         <v>911</v>
       </c>
-      <c r="H155" t="s">
-        <v>912</v>
-      </c>
       <c r="I155" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="156" spans="1:17" hidden="1">
@@ -11545,16 +11732,16 @@
         <v>562</v>
       </c>
       <c r="F156" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G156" t="s">
+        <v>920</v>
+      </c>
+      <c r="H156" t="s">
         <v>921</v>
       </c>
-      <c r="H156" t="s">
-        <v>922</v>
-      </c>
       <c r="I156" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="157" spans="1:17" hidden="1">
@@ -11562,10 +11749,10 @@
         <v>553</v>
       </c>
       <c r="B157" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C157" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -11574,19 +11761,19 @@
         <v>562</v>
       </c>
       <c r="F157" t="s">
+        <v>953</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H157" t="s">
+        <v>916</v>
+      </c>
+      <c r="I157" t="s">
         <v>954</v>
       </c>
-      <c r="G157" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H157" t="s">
-        <v>917</v>
-      </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>955</v>
-      </c>
-      <c r="J157" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="158" spans="1:17" hidden="1">
@@ -11606,19 +11793,19 @@
         <v>565</v>
       </c>
       <c r="F158" t="s">
+        <v>956</v>
+      </c>
+      <c r="G158" t="s">
+        <v>915</v>
+      </c>
+      <c r="H158" t="s">
+        <v>916</v>
+      </c>
+      <c r="I158" t="s">
+        <v>907</v>
+      </c>
+      <c r="J158" t="s">
         <v>957</v>
-      </c>
-      <c r="G158" t="s">
-        <v>916</v>
-      </c>
-      <c r="H158" t="s">
-        <v>917</v>
-      </c>
-      <c r="I158" t="s">
-        <v>908</v>
-      </c>
-      <c r="J158" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="159" spans="1:17" hidden="1">
@@ -11638,16 +11825,16 @@
         <v>569</v>
       </c>
       <c r="F159" t="s">
+        <v>958</v>
+      </c>
+      <c r="G159" t="s">
+        <v>920</v>
+      </c>
+      <c r="H159" t="s">
+        <v>921</v>
+      </c>
+      <c r="I159" t="s">
         <v>959</v>
-      </c>
-      <c r="G159" t="s">
-        <v>921</v>
-      </c>
-      <c r="H159" t="s">
-        <v>922</v>
-      </c>
-      <c r="I159" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="160" spans="1:17" hidden="1">
@@ -11667,16 +11854,16 @@
         <v>572</v>
       </c>
       <c r="F160" t="s">
+        <v>960</v>
+      </c>
+      <c r="G160" t="s">
         <v>961</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
+        <v>913</v>
+      </c>
+      <c r="I160" t="s">
         <v>962</v>
-      </c>
-      <c r="H160" t="s">
-        <v>914</v>
-      </c>
-      <c r="I160" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="161" spans="1:23" hidden="1">
@@ -11696,16 +11883,16 @@
         <v>576</v>
       </c>
       <c r="F161" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G161" t="s">
+        <v>961</v>
+      </c>
+      <c r="H161" t="s">
+        <v>913</v>
+      </c>
+      <c r="I161" t="s">
         <v>962</v>
-      </c>
-      <c r="H161" t="s">
-        <v>914</v>
-      </c>
-      <c r="I161" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="162" spans="1:23" hidden="1">
@@ -11725,16 +11912,16 @@
         <v>287</v>
       </c>
       <c r="F162" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G162" t="s">
+        <v>961</v>
+      </c>
+      <c r="H162" t="s">
+        <v>913</v>
+      </c>
+      <c r="I162" t="s">
         <v>962</v>
-      </c>
-      <c r="H162" t="s">
-        <v>914</v>
-      </c>
-      <c r="I162" t="s">
-        <v>963</v>
       </c>
       <c r="L162" t="s">
         <v>577</v>
@@ -11790,19 +11977,19 @@
         <v>296</v>
       </c>
       <c r="F163" t="s">
+        <v>965</v>
+      </c>
+      <c r="G163" t="s">
+        <v>920</v>
+      </c>
+      <c r="H163" t="s">
+        <v>921</v>
+      </c>
+      <c r="I163" t="s">
+        <v>959</v>
+      </c>
+      <c r="J163" t="s">
         <v>966</v>
-      </c>
-      <c r="G163" t="s">
-        <v>921</v>
-      </c>
-      <c r="H163" t="s">
-        <v>922</v>
-      </c>
-      <c r="I163" t="s">
-        <v>960</v>
-      </c>
-      <c r="J163" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="164" spans="1:23" hidden="1">
@@ -11813,19 +12000,19 @@
         <v>296</v>
       </c>
       <c r="F164" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G164" t="s">
+        <v>920</v>
+      </c>
+      <c r="H164" t="s">
         <v>921</v>
       </c>
-      <c r="H164" t="s">
-        <v>922</v>
-      </c>
       <c r="I164" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J164" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="165" spans="1:23" hidden="1">
@@ -11845,16 +12032,16 @@
         <v>296</v>
       </c>
       <c r="F165" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G165" t="s">
+        <v>920</v>
+      </c>
+      <c r="H165" t="s">
         <v>921</v>
       </c>
-      <c r="H165" t="s">
-        <v>922</v>
-      </c>
       <c r="I165" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="166" spans="1:23" hidden="1">
@@ -11874,19 +12061,19 @@
         <v>296</v>
       </c>
       <c r="F166" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G166" t="s">
+        <v>920</v>
+      </c>
+      <c r="H166" t="s">
         <v>921</v>
       </c>
-      <c r="H166" t="s">
-        <v>922</v>
-      </c>
       <c r="I166" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J166" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="167" spans="1:23" hidden="1">
@@ -11906,19 +12093,19 @@
         <v>296</v>
       </c>
       <c r="F167" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G167" t="s">
+        <v>920</v>
+      </c>
+      <c r="H167" t="s">
         <v>921</v>
       </c>
-      <c r="H167" t="s">
-        <v>922</v>
-      </c>
       <c r="I167" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J167" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="168" spans="1:23" hidden="1">
@@ -11938,16 +12125,16 @@
         <v>287</v>
       </c>
       <c r="F168" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G168" t="s">
+        <v>961</v>
+      </c>
+      <c r="H168" t="s">
+        <v>913</v>
+      </c>
+      <c r="I168" t="s">
         <v>962</v>
-      </c>
-      <c r="H168" t="s">
-        <v>914</v>
-      </c>
-      <c r="I168" t="s">
-        <v>963</v>
       </c>
       <c r="L168" t="s">
         <v>581</v>
@@ -11976,16 +12163,16 @@
         <v>477</v>
       </c>
       <c r="F169" t="s">
+        <v>972</v>
+      </c>
+      <c r="G169" t="s">
+        <v>920</v>
+      </c>
+      <c r="H169" t="s">
+        <v>921</v>
+      </c>
+      <c r="I169" t="s">
         <v>973</v>
-      </c>
-      <c r="G169" t="s">
-        <v>921</v>
-      </c>
-      <c r="H169" t="s">
-        <v>922</v>
-      </c>
-      <c r="I169" t="s">
-        <v>974</v>
       </c>
       <c r="L169" t="s">
         <v>476</v>
@@ -12023,16 +12210,16 @@
         <v>590</v>
       </c>
       <c r="F170" t="s">
+        <v>974</v>
+      </c>
+      <c r="G170" t="s">
         <v>975</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>976</v>
       </c>
-      <c r="H170" t="s">
-        <v>977</v>
-      </c>
       <c r="I170" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L170" t="s">
         <v>476</v>
@@ -12061,16 +12248,16 @@
         <v>594</v>
       </c>
       <c r="F171" t="s">
+        <v>977</v>
+      </c>
+      <c r="G171" t="s">
         <v>978</v>
       </c>
-      <c r="G171" t="s">
-        <v>979</v>
-      </c>
       <c r="H171" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I171" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="172" spans="1:23" hidden="1">
@@ -12090,19 +12277,19 @@
         <v>598</v>
       </c>
       <c r="F172" t="s">
+        <v>979</v>
+      </c>
+      <c r="G172" t="s">
+        <v>910</v>
+      </c>
+      <c r="H172" t="s">
+        <v>911</v>
+      </c>
+      <c r="I172" t="s">
+        <v>907</v>
+      </c>
+      <c r="J172" t="s">
         <v>980</v>
-      </c>
-      <c r="G172" t="s">
-        <v>911</v>
-      </c>
-      <c r="H172" t="s">
-        <v>912</v>
-      </c>
-      <c r="I172" t="s">
-        <v>908</v>
-      </c>
-      <c r="J172" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="173" spans="1:23" hidden="1">
@@ -12113,19 +12300,19 @@
         <v>598</v>
       </c>
       <c r="F173" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G173" t="s">
+        <v>915</v>
+      </c>
+      <c r="H173" t="s">
         <v>916</v>
       </c>
-      <c r="H173" t="s">
-        <v>917</v>
-      </c>
       <c r="I173" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J173" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="174" spans="1:23" hidden="1">
@@ -12136,19 +12323,19 @@
         <v>598</v>
       </c>
       <c r="F174" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G174" t="s">
+        <v>915</v>
+      </c>
+      <c r="H174" t="s">
         <v>916</v>
       </c>
-      <c r="H174" t="s">
-        <v>917</v>
-      </c>
       <c r="I174" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J174" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="175" spans="1:23" hidden="1">
@@ -12162,10 +12349,10 @@
         <v>612</v>
       </c>
       <c r="G175" t="s">
+        <v>983</v>
+      </c>
+      <c r="H175" t="s">
         <v>984</v>
-      </c>
-      <c r="H175" t="s">
-        <v>985</v>
       </c>
       <c r="I175" t="s">
         <v>632</v>
@@ -12182,10 +12369,10 @@
         <v>615</v>
       </c>
       <c r="G176" t="s">
+        <v>983</v>
+      </c>
+      <c r="H176" t="s">
         <v>984</v>
-      </c>
-      <c r="H176" t="s">
-        <v>985</v>
       </c>
       <c r="I176" t="s">
         <v>632</v>
@@ -12202,10 +12389,10 @@
         <v>618</v>
       </c>
       <c r="G177" t="s">
+        <v>983</v>
+      </c>
+      <c r="H177" t="s">
         <v>984</v>
-      </c>
-      <c r="H177" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="178" spans="1:14" hidden="1">
@@ -12216,16 +12403,16 @@
         <v>347</v>
       </c>
       <c r="F178" t="s">
+        <v>985</v>
+      </c>
+      <c r="G178" t="s">
+        <v>920</v>
+      </c>
+      <c r="H178" t="s">
+        <v>921</v>
+      </c>
+      <c r="I178" t="s">
         <v>986</v>
-      </c>
-      <c r="G178" t="s">
-        <v>921</v>
-      </c>
-      <c r="H178" t="s">
-        <v>922</v>
-      </c>
-      <c r="I178" t="s">
-        <v>987</v>
       </c>
       <c r="L178" t="s">
         <v>322</v>
@@ -12254,16 +12441,16 @@
         <v>662</v>
       </c>
       <c r="F179" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G179" t="s">
+        <v>961</v>
+      </c>
+      <c r="H179" t="s">
+        <v>913</v>
+      </c>
+      <c r="I179" t="s">
         <v>962</v>
-      </c>
-      <c r="H179" t="s">
-        <v>914</v>
-      </c>
-      <c r="I179" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="180" spans="1:14" hidden="1">
@@ -12283,16 +12470,16 @@
         <v>666</v>
       </c>
       <c r="F180" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G180" t="s">
+        <v>961</v>
+      </c>
+      <c r="H180" t="s">
+        <v>913</v>
+      </c>
+      <c r="I180" t="s">
         <v>962</v>
-      </c>
-      <c r="H180" t="s">
-        <v>914</v>
-      </c>
-      <c r="I180" t="s">
-        <v>963</v>
       </c>
       <c r="L180" t="s">
         <v>663</v>
@@ -12321,16 +12508,16 @@
         <v>668</v>
       </c>
       <c r="F181" t="s">
+        <v>989</v>
+      </c>
+      <c r="G181" t="s">
         <v>990</v>
       </c>
-      <c r="G181" t="s">
-        <v>991</v>
-      </c>
       <c r="H181" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I181" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="182" spans="1:14" hidden="1">
@@ -12350,16 +12537,16 @@
         <v>673</v>
       </c>
       <c r="F182" t="s">
+        <v>991</v>
+      </c>
+      <c r="G182" t="s">
+        <v>978</v>
+      </c>
+      <c r="H182" t="s">
+        <v>913</v>
+      </c>
+      <c r="I182" t="s">
         <v>992</v>
-      </c>
-      <c r="G182" t="s">
-        <v>979</v>
-      </c>
-      <c r="H182" t="s">
-        <v>914</v>
-      </c>
-      <c r="I182" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="183" spans="1:14" hidden="1">
@@ -12379,16 +12566,16 @@
         <v>680</v>
       </c>
       <c r="F183" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G183" t="s">
+        <v>910</v>
+      </c>
+      <c r="H183" t="s">
         <v>911</v>
       </c>
-      <c r="H183" t="s">
-        <v>912</v>
-      </c>
       <c r="I183" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L183" t="s">
         <v>46</v>
@@ -12402,7 +12589,7 @@
     </row>
     <row r="184" spans="1:14" hidden="1">
       <c r="D184" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
@@ -12411,13 +12598,13 @@
         <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H184" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I184" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L184" t="s">
         <v>848</v>
@@ -12426,7 +12613,7 @@
         <v>681</v>
       </c>
       <c r="N184" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="185" spans="1:14" hidden="1">
@@ -12437,19 +12624,19 @@
         <v>685</v>
       </c>
       <c r="F185" t="s">
+        <v>997</v>
+      </c>
+      <c r="G185" t="s">
         <v>998</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
+        <v>921</v>
+      </c>
+      <c r="I185" t="s">
         <v>999</v>
       </c>
-      <c r="H185" t="s">
-        <v>922</v>
-      </c>
-      <c r="I185" t="s">
+      <c r="J185" t="s">
         <v>1000</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="186" spans="1:14" hidden="1">
@@ -12460,19 +12647,19 @@
         <v>686</v>
       </c>
       <c r="F186" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G186" t="s">
+        <v>998</v>
+      </c>
+      <c r="H186" t="s">
+        <v>921</v>
+      </c>
+      <c r="I186" t="s">
         <v>999</v>
       </c>
-      <c r="H186" t="s">
-        <v>922</v>
-      </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>1000</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="187" spans="1:14" hidden="1">
@@ -12483,19 +12670,19 @@
         <v>832</v>
       </c>
       <c r="F187" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G187" t="s">
+        <v>998</v>
+      </c>
+      <c r="H187" t="s">
+        <v>921</v>
+      </c>
+      <c r="I187" t="s">
         <v>999</v>
       </c>
-      <c r="H187" t="s">
-        <v>922</v>
-      </c>
-      <c r="I187" t="s">
+      <c r="J187" t="s">
         <v>1000</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="188" spans="1:14" hidden="1">
@@ -12515,19 +12702,19 @@
         <v>690</v>
       </c>
       <c r="F188" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G188" t="s">
+        <v>915</v>
+      </c>
+      <c r="H188" t="s">
+        <v>916</v>
+      </c>
+      <c r="I188" t="s">
+        <v>907</v>
+      </c>
+      <c r="J188" t="s">
         <v>1004</v>
-      </c>
-      <c r="G188" t="s">
-        <v>916</v>
-      </c>
-      <c r="H188" t="s">
-        <v>917</v>
-      </c>
-      <c r="I188" t="s">
-        <v>908</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="189" spans="1:14" hidden="1">
@@ -12538,16 +12725,16 @@
         <v>695</v>
       </c>
       <c r="F189" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G189" t="s">
+        <v>920</v>
+      </c>
+      <c r="H189" t="s">
         <v>921</v>
       </c>
-      <c r="H189" t="s">
-        <v>922</v>
-      </c>
       <c r="I189" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L189" t="s">
         <v>476</v>
@@ -12576,16 +12763,16 @@
         <v>702</v>
       </c>
       <c r="F190" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G190" t="s">
         <v>1007</v>
       </c>
-      <c r="G190" t="s">
-        <v>1008</v>
-      </c>
       <c r="H190" t="s">
+        <v>921</v>
+      </c>
+      <c r="I190" t="s">
         <v>922</v>
-      </c>
-      <c r="I190" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="191" spans="1:14" hidden="1">
@@ -12605,16 +12792,16 @@
         <v>706</v>
       </c>
       <c r="F191" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G191" t="s">
+        <v>920</v>
+      </c>
+      <c r="H191" t="s">
         <v>921</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>922</v>
-      </c>
-      <c r="I191" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="192" spans="1:14" hidden="1">
@@ -12625,19 +12812,19 @@
         <v>541</v>
       </c>
       <c r="F192" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G192" t="s">
+        <v>915</v>
+      </c>
+      <c r="H192" t="s">
+        <v>916</v>
+      </c>
+      <c r="I192" t="s">
         <v>1010</v>
       </c>
-      <c r="G192" t="s">
-        <v>916</v>
-      </c>
-      <c r="H192" t="s">
-        <v>917</v>
-      </c>
-      <c r="I192" t="s">
+      <c r="J192" t="s">
         <v>1011</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="193" spans="4:10" hidden="1">
@@ -12648,19 +12835,19 @@
         <v>546</v>
       </c>
       <c r="F193" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G193" t="s">
+        <v>915</v>
+      </c>
+      <c r="H193" t="s">
         <v>916</v>
       </c>
-      <c r="H193" t="s">
-        <v>917</v>
-      </c>
       <c r="I193" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J193" t="s">
         <v>1011</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="194" spans="4:10" hidden="1">
@@ -12671,19 +12858,19 @@
         <v>708</v>
       </c>
       <c r="F194" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G194" t="s">
+        <v>915</v>
+      </c>
+      <c r="H194" t="s">
         <v>916</v>
       </c>
-      <c r="H194" t="s">
-        <v>917</v>
-      </c>
       <c r="I194" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J194" t="s">
         <v>1011</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="195" spans="4:10" hidden="1">
@@ -12694,19 +12881,19 @@
         <v>709</v>
       </c>
       <c r="F195" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G195" t="s">
+        <v>915</v>
+      </c>
+      <c r="H195" t="s">
         <v>916</v>
       </c>
-      <c r="H195" t="s">
-        <v>917</v>
-      </c>
       <c r="I195" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J195" t="s">
         <v>1011</v>
-      </c>
-      <c r="J195" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="196" spans="4:10" hidden="1">
@@ -12717,19 +12904,19 @@
         <v>710</v>
       </c>
       <c r="F196" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G196" t="s">
+        <v>915</v>
+      </c>
+      <c r="H196" t="s">
         <v>916</v>
       </c>
-      <c r="H196" t="s">
-        <v>917</v>
-      </c>
       <c r="I196" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J196" t="s">
         <v>1011</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="197" spans="4:10" hidden="1">
@@ -12740,19 +12927,19 @@
         <v>711</v>
       </c>
       <c r="F197" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G197" t="s">
+        <v>915</v>
+      </c>
+      <c r="H197" t="s">
         <v>916</v>
       </c>
-      <c r="H197" t="s">
-        <v>917</v>
-      </c>
       <c r="I197" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J197" t="s">
         <v>1011</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="198" spans="4:10" hidden="1">
@@ -12763,19 +12950,19 @@
         <v>712</v>
       </c>
       <c r="F198" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G198" t="s">
+        <v>915</v>
+      </c>
+      <c r="H198" t="s">
         <v>916</v>
       </c>
-      <c r="H198" t="s">
-        <v>917</v>
-      </c>
       <c r="I198" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J198" t="s">
         <v>1011</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="199" spans="4:10" hidden="1">
@@ -12786,19 +12973,19 @@
         <v>542</v>
       </c>
       <c r="F199" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G199" t="s">
+        <v>915</v>
+      </c>
+      <c r="H199" t="s">
         <v>916</v>
       </c>
-      <c r="H199" t="s">
-        <v>917</v>
-      </c>
       <c r="I199" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J199" t="s">
         <v>1011</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="200" spans="4:10" hidden="1">
@@ -12809,19 +12996,19 @@
         <v>713</v>
       </c>
       <c r="F200" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G200" t="s">
+        <v>915</v>
+      </c>
+      <c r="H200" t="s">
         <v>916</v>
       </c>
-      <c r="H200" t="s">
-        <v>917</v>
-      </c>
       <c r="I200" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J200" t="s">
         <v>1011</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="201" spans="4:10" hidden="1">
@@ -12832,19 +13019,19 @@
         <v>547</v>
       </c>
       <c r="F201" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G201" t="s">
+        <v>915</v>
+      </c>
+      <c r="H201" t="s">
         <v>916</v>
       </c>
-      <c r="H201" t="s">
-        <v>917</v>
-      </c>
       <c r="I201" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J201" t="s">
         <v>1011</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="202" spans="4:10" hidden="1">
@@ -12855,19 +13042,19 @@
         <v>548</v>
       </c>
       <c r="F202" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G202" t="s">
+        <v>915</v>
+      </c>
+      <c r="H202" t="s">
         <v>916</v>
       </c>
-      <c r="H202" t="s">
-        <v>917</v>
-      </c>
       <c r="I202" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J202" t="s">
         <v>1011</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="203" spans="4:10" hidden="1">
@@ -12878,19 +13065,19 @@
         <v>549</v>
       </c>
       <c r="F203" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G203" t="s">
+        <v>915</v>
+      </c>
+      <c r="H203" t="s">
         <v>916</v>
       </c>
-      <c r="H203" t="s">
-        <v>917</v>
-      </c>
       <c r="I203" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J203" t="s">
         <v>1011</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="204" spans="4:10" hidden="1">
@@ -12901,19 +13088,19 @@
         <v>714</v>
       </c>
       <c r="F204" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G204" t="s">
+        <v>915</v>
+      </c>
+      <c r="H204" t="s">
         <v>916</v>
       </c>
-      <c r="H204" t="s">
-        <v>917</v>
-      </c>
       <c r="I204" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J204" t="s">
         <v>1011</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="205" spans="4:10" hidden="1">
@@ -12924,19 +13111,19 @@
         <v>715</v>
       </c>
       <c r="F205" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G205" t="s">
+        <v>915</v>
+      </c>
+      <c r="H205" t="s">
         <v>916</v>
       </c>
-      <c r="H205" t="s">
-        <v>917</v>
-      </c>
       <c r="I205" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J205" t="s">
         <v>1011</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="206" spans="4:10" hidden="1">
@@ -12947,19 +13134,19 @@
         <v>716</v>
       </c>
       <c r="F206" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G206" t="s">
+        <v>915</v>
+      </c>
+      <c r="H206" t="s">
         <v>916</v>
       </c>
-      <c r="H206" t="s">
-        <v>917</v>
-      </c>
       <c r="I206" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J206" t="s">
         <v>1011</v>
-      </c>
-      <c r="J206" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="207" spans="4:10" hidden="1">
@@ -12970,19 +13157,19 @@
         <v>707</v>
       </c>
       <c r="F207" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G207" t="s">
+        <v>915</v>
+      </c>
+      <c r="H207" t="s">
         <v>916</v>
       </c>
-      <c r="H207" t="s">
-        <v>917</v>
-      </c>
       <c r="I207" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J207" t="s">
         <v>1011</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="208" spans="4:10" hidden="1">
@@ -12993,19 +13180,19 @@
         <v>550</v>
       </c>
       <c r="F208" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G208" t="s">
+        <v>915</v>
+      </c>
+      <c r="H208" t="s">
         <v>916</v>
       </c>
-      <c r="H208" t="s">
-        <v>917</v>
-      </c>
       <c r="I208" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J208" t="s">
         <v>1011</v>
-      </c>
-      <c r="J208" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="209" spans="1:14" hidden="1">
@@ -13016,19 +13203,19 @@
         <v>551</v>
       </c>
       <c r="F209" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G209" t="s">
+        <v>915</v>
+      </c>
+      <c r="H209" t="s">
         <v>916</v>
       </c>
-      <c r="H209" t="s">
-        <v>917</v>
-      </c>
       <c r="I209" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J209" t="s">
         <v>1011</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="210" spans="1:14" hidden="1">
@@ -13048,19 +13235,19 @@
         <v>765</v>
       </c>
       <c r="F210" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G210" t="s">
+        <v>915</v>
+      </c>
+      <c r="H210" t="s">
         <v>916</v>
       </c>
-      <c r="H210" t="s">
-        <v>917</v>
-      </c>
       <c r="I210" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J210" t="s">
         <v>1011</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="211" spans="1:14" hidden="1">
@@ -13080,16 +13267,25 @@
         <v>545</v>
       </c>
       <c r="F211" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G211" t="s">
+        <v>920</v>
+      </c>
+      <c r="H211" t="s">
         <v>921</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
         <v>922</v>
       </c>
-      <c r="I211" t="s">
-        <v>923</v>
+      <c r="L211" t="s">
+        <v>540</v>
+      </c>
+      <c r="M211" t="s">
+        <v>545</v>
+      </c>
+      <c r="N211" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="212" spans="1:14" hidden="1">
@@ -13109,16 +13305,28 @@
         <v>545</v>
       </c>
       <c r="F212" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G212" t="s">
+        <v>920</v>
+      </c>
+      <c r="H212" t="s">
         <v>921</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>922</v>
       </c>
-      <c r="I212" t="s">
-        <v>923</v>
+      <c r="J212" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L212" t="s">
+        <v>540</v>
+      </c>
+      <c r="M212" t="s">
+        <v>545</v>
+      </c>
+      <c r="N212" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="213" spans="1:14" hidden="1">
@@ -13129,19 +13337,19 @@
         <v>717</v>
       </c>
       <c r="F213" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G213" t="s">
+        <v>920</v>
+      </c>
+      <c r="H213" t="s">
+        <v>921</v>
+      </c>
+      <c r="I213" t="s">
+        <v>968</v>
+      </c>
+      <c r="J213" t="s">
         <v>1033</v>
-      </c>
-      <c r="G213" t="s">
-        <v>921</v>
-      </c>
-      <c r="H213" t="s">
-        <v>922</v>
-      </c>
-      <c r="I213" t="s">
-        <v>969</v>
-      </c>
-      <c r="J213" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="214" spans="1:14" hidden="1">
@@ -13155,16 +13363,16 @@
         <v>719</v>
       </c>
       <c r="G214" t="s">
+        <v>915</v>
+      </c>
+      <c r="H214" t="s">
         <v>916</v>
       </c>
-      <c r="H214" t="s">
-        <v>917</v>
-      </c>
       <c r="I214" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J214" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="215" spans="1:14" hidden="1">
@@ -13181,22 +13389,22 @@
         <v>649</v>
       </c>
       <c r="E215" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F215" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G215" t="s">
         <v>1036</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
+        <v>913</v>
+      </c>
+      <c r="I215" t="s">
         <v>1037</v>
       </c>
-      <c r="H215" t="s">
-        <v>914</v>
-      </c>
-      <c r="I215" t="s">
-        <v>1038</v>
-      </c>
       <c r="J215" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -13219,13 +13427,13 @@
         <v>726</v>
       </c>
       <c r="G216" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H216" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I216" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L216" t="s">
         <v>725</v>
@@ -13248,13 +13456,13 @@
         <v>728</v>
       </c>
       <c r="G217" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H217" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I217" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="218" spans="1:14" hidden="1">
@@ -13265,16 +13473,16 @@
         <v>729</v>
       </c>
       <c r="F218" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G218" t="s">
+        <v>920</v>
+      </c>
+      <c r="H218" t="s">
         <v>921</v>
       </c>
-      <c r="H218" t="s">
-        <v>922</v>
-      </c>
       <c r="I218" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="219" spans="1:14" hidden="1">
@@ -13285,16 +13493,16 @@
         <v>731</v>
       </c>
       <c r="F219" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G219" t="s">
+        <v>920</v>
+      </c>
+      <c r="H219" t="s">
         <v>921</v>
       </c>
-      <c r="H219" t="s">
-        <v>922</v>
-      </c>
       <c r="I219" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="220" spans="1:14" hidden="1">
@@ -13305,16 +13513,16 @@
         <v>733</v>
       </c>
       <c r="F220" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G220" t="s">
+        <v>920</v>
+      </c>
+      <c r="H220" t="s">
         <v>921</v>
       </c>
-      <c r="H220" t="s">
-        <v>922</v>
-      </c>
       <c r="I220" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="221" spans="1:14" hidden="1">
@@ -13328,13 +13536,13 @@
         <v>734</v>
       </c>
       <c r="G221" t="s">
+        <v>910</v>
+      </c>
+      <c r="H221" t="s">
         <v>911</v>
       </c>
-      <c r="H221" t="s">
-        <v>912</v>
-      </c>
       <c r="I221" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="222" spans="1:14" hidden="1">
@@ -13345,19 +13553,19 @@
         <v>469</v>
       </c>
       <c r="F222" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G222" t="s">
         <v>1044</v>
       </c>
-      <c r="G222" t="s">
-        <v>1045</v>
-      </c>
       <c r="H222" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I222" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J222" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="223" spans="1:14" hidden="1">
@@ -13368,16 +13576,16 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G223" t="s">
+        <v>920</v>
+      </c>
+      <c r="H223" t="s">
         <v>921</v>
       </c>
-      <c r="H223" t="s">
-        <v>922</v>
-      </c>
       <c r="I223" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="224" spans="1:14" hidden="1">
@@ -13397,16 +13605,16 @@
         <v>740</v>
       </c>
       <c r="F224" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G224" t="s">
+        <v>920</v>
+      </c>
+      <c r="H224" t="s">
+        <v>921</v>
+      </c>
+      <c r="I224" t="s">
         <v>1047</v>
-      </c>
-      <c r="G224" t="s">
-        <v>921</v>
-      </c>
-      <c r="H224" t="s">
-        <v>922</v>
-      </c>
-      <c r="I224" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="225" spans="1:9" hidden="1">
@@ -13420,13 +13628,13 @@
         <v>744</v>
       </c>
       <c r="G225" t="s">
+        <v>910</v>
+      </c>
+      <c r="H225" t="s">
         <v>911</v>
       </c>
-      <c r="H225" t="s">
-        <v>912</v>
-      </c>
       <c r="I225" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="226" spans="1:9" hidden="1">
@@ -13446,16 +13654,16 @@
         <v>746</v>
       </c>
       <c r="F226" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G226" t="s">
+        <v>920</v>
+      </c>
+      <c r="H226" t="s">
+        <v>921</v>
+      </c>
+      <c r="I226" t="s">
         <v>1049</v>
-      </c>
-      <c r="G226" t="s">
-        <v>921</v>
-      </c>
-      <c r="H226" t="s">
-        <v>922</v>
-      </c>
-      <c r="I226" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="227" spans="1:9" hidden="1">
@@ -13466,16 +13674,16 @@
         <v>747</v>
       </c>
       <c r="F227" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G227" t="s">
+        <v>920</v>
+      </c>
+      <c r="H227" t="s">
         <v>921</v>
       </c>
-      <c r="H227" t="s">
-        <v>922</v>
-      </c>
       <c r="I227" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="228" spans="1:9" hidden="1">
@@ -13486,16 +13694,16 @@
         <v>748</v>
       </c>
       <c r="F228" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G228" t="s">
+        <v>920</v>
+      </c>
+      <c r="H228" t="s">
         <v>921</v>
       </c>
-      <c r="H228" t="s">
-        <v>922</v>
-      </c>
       <c r="I228" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="229" spans="1:9" hidden="1">
@@ -13506,16 +13714,16 @@
         <v>749</v>
       </c>
       <c r="F229" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G229" t="s">
+        <v>910</v>
+      </c>
+      <c r="H229" t="s">
         <v>911</v>
       </c>
-      <c r="H229" t="s">
-        <v>912</v>
-      </c>
       <c r="I229" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="230" spans="1:9" hidden="1">
@@ -13526,16 +13734,16 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G230" t="s">
+        <v>920</v>
+      </c>
+      <c r="H230" t="s">
         <v>921</v>
       </c>
-      <c r="H230" t="s">
-        <v>922</v>
-      </c>
       <c r="I230" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="231" spans="1:9" hidden="1">
@@ -13555,16 +13763,16 @@
         <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G231" t="s">
+        <v>920</v>
+      </c>
+      <c r="H231" t="s">
         <v>921</v>
       </c>
-      <c r="H231" t="s">
-        <v>922</v>
-      </c>
       <c r="I231" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="232" spans="1:9" hidden="1">
@@ -13575,16 +13783,16 @@
         <v>750</v>
       </c>
       <c r="F232" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G232" t="s">
+        <v>910</v>
+      </c>
+      <c r="H232" t="s">
         <v>911</v>
       </c>
-      <c r="H232" t="s">
-        <v>912</v>
-      </c>
       <c r="I232" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="233" spans="1:9" hidden="1">
@@ -13595,16 +13803,16 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G233" t="s">
+        <v>910</v>
+      </c>
+      <c r="H233" t="s">
         <v>911</v>
       </c>
-      <c r="H233" t="s">
-        <v>912</v>
-      </c>
       <c r="I233" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="234" spans="1:9" hidden="1">
@@ -13615,16 +13823,16 @@
         <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G234" t="s">
+        <v>920</v>
+      </c>
+      <c r="H234" t="s">
         <v>921</v>
       </c>
-      <c r="H234" t="s">
-        <v>922</v>
-      </c>
       <c r="I234" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="235" spans="1:9" hidden="1">
@@ -13635,16 +13843,16 @@
         <v>752</v>
       </c>
       <c r="F235" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G235" t="s">
+        <v>910</v>
+      </c>
+      <c r="H235" t="s">
         <v>911</v>
       </c>
-      <c r="H235" t="s">
-        <v>912</v>
-      </c>
       <c r="I235" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="236" spans="1:9" hidden="1">
@@ -13655,16 +13863,16 @@
         <v>753</v>
       </c>
       <c r="F236" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G236" t="s">
+        <v>910</v>
+      </c>
+      <c r="H236" t="s">
         <v>911</v>
       </c>
-      <c r="H236" t="s">
-        <v>912</v>
-      </c>
       <c r="I236" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="237" spans="1:9" hidden="1">
@@ -13675,16 +13883,16 @@
         <v>754</v>
       </c>
       <c r="F237" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G237" t="s">
+        <v>910</v>
+      </c>
+      <c r="H237" t="s">
         <v>911</v>
       </c>
-      <c r="H237" t="s">
-        <v>912</v>
-      </c>
       <c r="I237" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="238" spans="1:9" hidden="1">
@@ -13698,13 +13906,13 @@
         <v>756</v>
       </c>
       <c r="G238" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H238" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I238" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="239" spans="1:9" hidden="1">
@@ -13718,13 +13926,13 @@
         <v>758</v>
       </c>
       <c r="G239" t="s">
+        <v>910</v>
+      </c>
+      <c r="H239" t="s">
         <v>911</v>
       </c>
-      <c r="H239" t="s">
-        <v>912</v>
-      </c>
       <c r="I239" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="240" spans="1:9" hidden="1">
@@ -13735,16 +13943,16 @@
         <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G240" t="s">
+        <v>920</v>
+      </c>
+      <c r="H240" t="s">
         <v>921</v>
       </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>922</v>
-      </c>
-      <c r="I240" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="241" spans="1:17" hidden="1">
@@ -13764,19 +13972,19 @@
         <v>759</v>
       </c>
       <c r="F241" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G241" t="s">
+        <v>910</v>
+      </c>
+      <c r="H241" t="s">
         <v>911</v>
       </c>
-      <c r="H241" t="s">
-        <v>912</v>
-      </c>
       <c r="I241" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J241" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="242" spans="1:17" hidden="1">
@@ -13787,16 +13995,16 @@
         <v>760</v>
       </c>
       <c r="F242" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G242" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H242" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I242" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="243" spans="1:17" hidden="1">
@@ -13807,16 +14015,16 @@
         <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G243" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H243" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I243" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="244" spans="1:17" hidden="1">
@@ -13827,16 +14035,16 @@
         <v>762</v>
       </c>
       <c r="F244" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G244" t="s">
+        <v>910</v>
+      </c>
+      <c r="H244" t="s">
         <v>911</v>
       </c>
-      <c r="H244" t="s">
-        <v>912</v>
-      </c>
       <c r="I244" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="245" spans="1:17" hidden="1">
@@ -13847,16 +14055,16 @@
         <v>771</v>
       </c>
       <c r="F245" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G245" t="s">
+        <v>920</v>
+      </c>
+      <c r="H245" t="s">
         <v>921</v>
       </c>
-      <c r="H245" t="s">
-        <v>922</v>
-      </c>
       <c r="I245" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="246" spans="1:17" hidden="1">
@@ -13867,19 +14075,19 @@
         <v>738</v>
       </c>
       <c r="F246" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G246" t="s">
+        <v>915</v>
+      </c>
+      <c r="H246" t="s">
+        <v>916</v>
+      </c>
+      <c r="I246" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J246" t="s">
         <v>1069</v>
-      </c>
-      <c r="G246" t="s">
-        <v>916</v>
-      </c>
-      <c r="H246" t="s">
-        <v>917</v>
-      </c>
-      <c r="I246" t="s">
-        <v>1011</v>
-      </c>
-      <c r="J246" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="247" spans="1:17" hidden="1">
@@ -13890,16 +14098,16 @@
         <v>773</v>
       </c>
       <c r="F247" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G247" t="s">
+        <v>920</v>
+      </c>
+      <c r="H247" t="s">
         <v>921</v>
       </c>
-      <c r="H247" t="s">
-        <v>922</v>
-      </c>
       <c r="I247" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="248" spans="1:17" hidden="1">
@@ -13910,16 +14118,16 @@
         <v>796</v>
       </c>
       <c r="F248" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G248" t="s">
+        <v>983</v>
+      </c>
+      <c r="H248" t="s">
+        <v>984</v>
+      </c>
+      <c r="I248" t="s">
         <v>1072</v>
-      </c>
-      <c r="G248" t="s">
-        <v>984</v>
-      </c>
-      <c r="H248" t="s">
-        <v>985</v>
-      </c>
-      <c r="I248" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="249" spans="1:17" hidden="1">
@@ -13930,19 +14138,19 @@
         <v>798</v>
       </c>
       <c r="F249" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G249" t="s">
         <v>1074</v>
       </c>
-      <c r="G249" t="s">
+      <c r="H249" t="s">
+        <v>921</v>
+      </c>
+      <c r="I249" t="s">
         <v>1075</v>
       </c>
-      <c r="H249" t="s">
-        <v>922</v>
-      </c>
-      <c r="I249" t="s">
+      <c r="J249" t="s">
         <v>1076</v>
-      </c>
-      <c r="J249" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="16.5" hidden="1">
@@ -13953,19 +14161,19 @@
         <v>801</v>
       </c>
       <c r="F250" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G250" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H250" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I250" s="10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J250" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="L250" t="s">
         <v>196</v>
@@ -13974,7 +14182,7 @@
         <v>801</v>
       </c>
       <c r="N250" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="251" spans="1:17" hidden="1">
@@ -13994,16 +14202,16 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G251" t="s">
+        <v>910</v>
+      </c>
+      <c r="H251" t="s">
         <v>911</v>
       </c>
-      <c r="H251" t="s">
-        <v>912</v>
-      </c>
       <c r="I251" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L251" t="s">
         <v>730</v>
@@ -14032,16 +14240,16 @@
         <v>805</v>
       </c>
       <c r="F252" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G252" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H252" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I252" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="253" spans="1:17" ht="16.5" hidden="1">
@@ -14052,16 +14260,16 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G253" t="s">
+        <v>910</v>
+      </c>
+      <c r="H253" t="s">
         <v>911</v>
       </c>
-      <c r="H253" t="s">
-        <v>912</v>
-      </c>
       <c r="I253" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="254" spans="1:17" hidden="1">
@@ -14072,16 +14280,16 @@
         <v>808</v>
       </c>
       <c r="F254" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G254" t="s">
+        <v>915</v>
+      </c>
+      <c r="H254" t="s">
         <v>916</v>
       </c>
-      <c r="H254" t="s">
-        <v>917</v>
-      </c>
       <c r="I254" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="255" spans="1:17" hidden="1">
@@ -14092,16 +14300,16 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G255" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H255" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I255" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="256" spans="1:17" hidden="1">
@@ -14112,16 +14320,16 @@
         <v>812</v>
       </c>
       <c r="F256" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G256" t="s">
+        <v>910</v>
+      </c>
+      <c r="H256" t="s">
         <v>911</v>
       </c>
-      <c r="H256" t="s">
-        <v>912</v>
-      </c>
       <c r="I256" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="257" spans="1:10" hidden="1">
@@ -14132,16 +14340,16 @@
         <v>814</v>
       </c>
       <c r="F257" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G257" t="s">
+        <v>920</v>
+      </c>
+      <c r="H257" t="s">
         <v>921</v>
       </c>
-      <c r="H257" t="s">
-        <v>922</v>
-      </c>
       <c r="I257" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="258" spans="1:10" hidden="1">
@@ -14152,16 +14360,16 @@
         <v>815</v>
       </c>
       <c r="F258" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G258" t="s">
         <v>1085</v>
       </c>
-      <c r="G258" t="s">
-        <v>1086</v>
-      </c>
       <c r="H258" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I258" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="259" spans="1:10" hidden="1">
@@ -14172,16 +14380,16 @@
         <v>816</v>
       </c>
       <c r="F259" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G259" t="s">
+        <v>920</v>
+      </c>
+      <c r="H259" t="s">
         <v>921</v>
       </c>
-      <c r="H259" t="s">
-        <v>922</v>
-      </c>
       <c r="I259" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="260" spans="1:10" hidden="1">
@@ -14192,19 +14400,19 @@
         <v>820</v>
       </c>
       <c r="F260" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H260" t="s">
+        <v>921</v>
+      </c>
+      <c r="I260" t="s">
+        <v>999</v>
+      </c>
+      <c r="J260" t="s">
         <v>1088</v>
-      </c>
-      <c r="G260" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H260" t="s">
-        <v>922</v>
-      </c>
-      <c r="I260" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J260" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="261" spans="1:10" hidden="1">
@@ -14215,16 +14423,16 @@
         <v>827</v>
       </c>
       <c r="F261" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G261" t="s">
         <v>1090</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="s">
+        <v>921</v>
+      </c>
+      <c r="I261" t="s">
         <v>1091</v>
-      </c>
-      <c r="H261" t="s">
-        <v>922</v>
-      </c>
-      <c r="I261" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="262" spans="1:10" hidden="1">
@@ -14235,19 +14443,19 @@
         <v>816</v>
       </c>
       <c r="F262" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H262" t="s">
+        <v>921</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J262" t="s">
         <v>1093</v>
-      </c>
-      <c r="G262" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H262" t="s">
-        <v>922</v>
-      </c>
-      <c r="I262" t="s">
-        <v>1050</v>
-      </c>
-      <c r="J262" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="263" spans="1:10" hidden="1">
@@ -14258,16 +14466,16 @@
         <v>829</v>
       </c>
       <c r="F263" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G263" t="s">
+        <v>910</v>
+      </c>
+      <c r="H263" t="s">
         <v>911</v>
       </c>
-      <c r="H263" t="s">
-        <v>912</v>
-      </c>
       <c r="I263" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="264" spans="1:10" hidden="1">
@@ -14278,16 +14486,16 @@
         <v>831</v>
       </c>
       <c r="F264" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G264" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H264" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I264" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="265" spans="1:10" hidden="1">
@@ -14298,13 +14506,13 @@
         <v>833</v>
       </c>
       <c r="F265" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G265" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H265" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="266" spans="1:10" hidden="1">
@@ -14324,7 +14532,7 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G266" t="s">
         <v>601</v>
@@ -14333,7 +14541,7 @@
         <v>66</v>
       </c>
       <c r="I266" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J266" t="s">
         <v>362</v>
@@ -14356,16 +14564,16 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G267" t="s">
+        <v>910</v>
+      </c>
+      <c r="H267" t="s">
         <v>911</v>
       </c>
-      <c r="H267" t="s">
-        <v>912</v>
-      </c>
       <c r="I267" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="268" spans="1:10" hidden="1">
@@ -14385,19 +14593,19 @@
         <v>823</v>
       </c>
       <c r="F268" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H268" t="s">
+        <v>921</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J268" t="s">
         <v>1100</v>
-      </c>
-      <c r="G268" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H268" t="s">
-        <v>922</v>
-      </c>
-      <c r="I268" t="s">
-        <v>1092</v>
-      </c>
-      <c r="J268" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="269" spans="1:10" hidden="1">
@@ -14417,16 +14625,16 @@
         <v>854</v>
       </c>
       <c r="F269" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G269" t="s">
+        <v>920</v>
+      </c>
+      <c r="H269" t="s">
         <v>921</v>
       </c>
-      <c r="H269" t="s">
-        <v>922</v>
-      </c>
       <c r="I269" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="270" spans="1:10" hidden="1">
@@ -14437,7 +14645,7 @@
         <v>867</v>
       </c>
       <c r="F270" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="271" spans="1:10" hidden="1">
@@ -14448,16 +14656,16 @@
         <v>887</v>
       </c>
       <c r="F271" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G271" t="s">
+        <v>915</v>
+      </c>
+      <c r="H271" t="s">
         <v>916</v>
       </c>
-      <c r="H271" t="s">
-        <v>917</v>
-      </c>
       <c r="I271" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="272" spans="1:10" hidden="1">
@@ -14468,19 +14676,19 @@
         <v>888</v>
       </c>
       <c r="F272" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G272" t="s">
+        <v>910</v>
+      </c>
+      <c r="H272" t="s">
         <v>911</v>
       </c>
-      <c r="H272" t="s">
-        <v>912</v>
-      </c>
       <c r="I272" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J272" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="273" spans="1:14" hidden="1">
@@ -14491,13 +14699,13 @@
         <v>890</v>
       </c>
       <c r="F273" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G273" t="s">
+        <v>983</v>
+      </c>
+      <c r="H273" t="s">
         <v>984</v>
-      </c>
-      <c r="H273" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="274" spans="1:14" hidden="1">
@@ -14508,13 +14716,13 @@
         <v>891</v>
       </c>
       <c r="F274" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G274" t="s">
+        <v>983</v>
+      </c>
+      <c r="H274" t="s">
         <v>984</v>
-      </c>
-      <c r="H274" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="275" spans="1:14" hidden="1">
@@ -14525,13 +14733,13 @@
         <v>892</v>
       </c>
       <c r="F275" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G275" t="s">
+        <v>983</v>
+      </c>
+      <c r="H275" t="s">
         <v>984</v>
-      </c>
-      <c r="H275" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="276" spans="1:14" hidden="1">
@@ -14542,19 +14750,19 @@
         <v>894</v>
       </c>
       <c r="F276" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G276" t="s">
+        <v>915</v>
+      </c>
+      <c r="H276" t="s">
+        <v>916</v>
+      </c>
+      <c r="I276" t="s">
+        <v>950</v>
+      </c>
+      <c r="J276" t="s">
         <v>1109</v>
-      </c>
-      <c r="G276" t="s">
-        <v>916</v>
-      </c>
-      <c r="H276" t="s">
-        <v>917</v>
-      </c>
-      <c r="I276" t="s">
-        <v>951</v>
-      </c>
-      <c r="J276" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="277" spans="1:14" hidden="1">
@@ -14565,16 +14773,16 @@
         <v>813</v>
       </c>
       <c r="F277" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G277" t="s">
+        <v>910</v>
+      </c>
+      <c r="H277" t="s">
         <v>911</v>
       </c>
-      <c r="H277" t="s">
-        <v>912</v>
-      </c>
       <c r="I277" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="278" spans="1:14" hidden="1">
@@ -14585,16 +14793,16 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G278" t="s">
+        <v>910</v>
+      </c>
+      <c r="H278" t="s">
         <v>911</v>
       </c>
-      <c r="H278" t="s">
-        <v>912</v>
-      </c>
       <c r="I278" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="279" spans="1:14" hidden="1">
@@ -14602,22 +14810,22 @@
         <v>115</v>
       </c>
       <c r="E279" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F279" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H279" t="s">
+        <v>921</v>
+      </c>
+      <c r="I279" t="s">
+        <v>999</v>
+      </c>
+      <c r="J279" t="s">
         <v>1113</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H279" t="s">
-        <v>922</v>
-      </c>
-      <c r="I279" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J279" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="280" spans="1:14" hidden="1">
@@ -14628,68 +14836,68 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G280" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H280" t="s">
         <v>846</v>
       </c>
       <c r="I280" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J280" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" hidden="1">
       <c r="D281" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H281" t="s">
+        <v>913</v>
+      </c>
+      <c r="I281" t="s">
+        <v>962</v>
+      </c>
+      <c r="L281" t="s">
         <v>1119</v>
       </c>
-      <c r="E281" t="s">
+      <c r="M281" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N281" t="s">
         <v>1120</v>
       </c>
-      <c r="F281" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G281" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H281" t="s">
-        <v>914</v>
-      </c>
-      <c r="I281" t="s">
-        <v>963</v>
-      </c>
-      <c r="L281" t="s">
+    </row>
+    <row r="282" spans="1:14" hidden="1">
+      <c r="D282" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G282" t="s">
         <v>1121</v>
       </c>
-      <c r="M281" t="s">
-        <v>1120</v>
-      </c>
-      <c r="N281" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14">
-      <c r="D282" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1123</v>
-      </c>
       <c r="H282" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I282" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="283" spans="1:14" hidden="1">
@@ -14700,7 +14908,7 @@
         <v>831</v>
       </c>
       <c r="F283" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="284" spans="1:14" hidden="1">
@@ -14708,19 +14916,19 @@
         <v>649</v>
       </c>
       <c r="E284" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F284" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H284" t="s">
         <v>1138</v>
       </c>
-      <c r="G284" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1140</v>
-      </c>
       <c r="J284" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="285" spans="1:14" hidden="1">
@@ -14731,19 +14939,19 @@
         <v>457</v>
       </c>
       <c r="F285" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G285" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H285" t="s">
         <v>66</v>
       </c>
       <c r="I285" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J285" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="286" spans="1:14" hidden="1">
@@ -14751,39 +14959,39 @@
         <v>466</v>
       </c>
       <c r="B286" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C286" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D286" t="s">
         <v>466</v>
       </c>
       <c r="E286" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F286" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G286" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H286" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I286" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="287" spans="1:14" hidden="1">
       <c r="A287" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B287" t="s">
         <v>439</v>
       </c>
       <c r="C287" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D287" t="s">
         <v>436</v>
@@ -14795,7 +15003,7 @@
         <v>442</v>
       </c>
       <c r="G287" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H287" t="s">
         <v>66</v>
@@ -14806,323 +15014,332 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W287" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="5">
+    <filterColumn colId="9">
       <filters>
-        <filter val="SC4823S6-GC-00NR-4823"/>
-        <filter val="SC4823S6-K-GB-00NR-4823K"/>
+        <filter val="SC9641TS-362-Q-CB-10LK-9641"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="203" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="198" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="190" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="189" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="188" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="187" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="181" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="180" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="234"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="175" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F249 F251:F286 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="164" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="163" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="162" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="160" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="204"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F261 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="159" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="158" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="155" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="duplicateValues" dxfId="154" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="144" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="143" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="142" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="141" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="140" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="138" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F259 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="137" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F260 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="136" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F286 F93:F134 F91 F27:F89 F149:F234 F251:F256 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="135" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="206"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F257 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="134" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F256 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="133" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="131" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="129" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="127" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287:G287">
-    <cfRule type="duplicateValues" dxfId="120" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="119" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J212">
+    <cfRule type="duplicateValues" dxfId="132" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="116" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J249:J255 J133 J135:J221 J257:J1048576 J223:J247 J1:J128">
-    <cfRule type="duplicateValues" dxfId="108" priority="189"/>
+  <conditionalFormatting sqref="J249:J255 J133 J135:J211 J257:J1048576 J223:J247 J1:J128 J213:J221">
+    <cfRule type="duplicateValues" dxfId="116" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="107" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="232"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9:N10">
-    <cfRule type="duplicateValues" dxfId="106" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="60"/>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="duplicateValues" dxfId="114" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="98" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="90" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="83" priority="183"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="80" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="duplicateValues" dxfId="72" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="56" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="54" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="46" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="40" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="33" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="26" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="19" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="12" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="8" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7C48FF-8577-4D83-8183-653F0FADC62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EE857-FDA4-4DD8-A668-987CA0A532CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1168">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3149,10 +3149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>江苏尊阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOT23-6L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3317,10 +3313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eTSSOP16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DFN1616-6L(.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3706,10 +3698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方芳&amp;Jaynie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SC69401HS-TB-Q</t>
   </si>
   <si>
@@ -3784,9 +3772,6 @@
     <t>SC4643SA-Q-DE-40CK-2100</t>
   </si>
   <si>
-    <t>SC60228DC-DC-00AR-60228</t>
-  </si>
-  <si>
     <t>NF.SC9625VB-CE-9625L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3800,6 +3785,29 @@
   </si>
   <si>
     <t>嘉豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2442SO-N-CP-10AR-2442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC60228DC-DC-90AR-60228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-92S-S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC60370QS-DC-60370</t>
+  </si>
+  <si>
+    <t>浙江赛扬&amp;蓝箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3984,7 +3992,167 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="220">
+  <dxfs count="236">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6462,11 +6630,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W287"/>
+  <dimension ref="A1:W288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F302" sqref="F302"/>
+      <selection pane="bottomLeft" activeCell="I305" sqref="I305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6863,7 +7031,7 @@
         <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="H9" t="s">
         <v>603</v>
@@ -7044,7 +7212,7 @@
         <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:23" hidden="1">
@@ -7485,10 +7653,10 @@
         <v>840</v>
       </c>
       <c r="G26" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="H26" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="I26" t="s">
         <v>620</v>
@@ -7692,7 +7860,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7721,7 +7889,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -7750,7 +7918,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -7791,7 +7959,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7820,7 +7988,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -7870,7 +8038,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -7902,7 +8070,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -7952,7 +8120,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -7984,7 +8152,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -8016,7 +8184,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -8065,17 +8233,8 @@
       <c r="Q42" t="s">
         <v>191</v>
       </c>
-      <c r="R42" t="s">
-        <v>160</v>
-      </c>
-      <c r="S42" t="s">
-        <v>607</v>
-      </c>
-      <c r="T42" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" hidden="1">
+    </row>
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -8116,7 +8275,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -8145,7 +8304,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1">
+    <row r="45" spans="1:17" hidden="1">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -8177,7 +8336,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -8227,7 +8386,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -8256,7 +8415,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -9476,13 +9635,13 @@
         <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G90" t="s">
-        <v>995</v>
+        <v>599</v>
       </c>
       <c r="H90" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I90" t="s">
         <v>620</v>
@@ -9494,7 +9653,7 @@
         <v>325</v>
       </c>
       <c r="N90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:17" hidden="1">
@@ -9549,10 +9708,10 @@
         <v>335</v>
       </c>
       <c r="G92" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H92" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="I92" t="s">
         <v>620</v>
@@ -10018,7 +10177,7 @@
         <v>391</v>
       </c>
       <c r="N106" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="107" spans="1:14" hidden="1">
@@ -10137,7 +10296,7 @@
         <v>343</v>
       </c>
       <c r="N110" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="111" spans="1:14" hidden="1">
@@ -10175,7 +10334,7 @@
         <v>806</v>
       </c>
       <c r="N111" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="112" spans="1:14" hidden="1">
@@ -10302,6 +10461,15 @@
       <c r="I115" t="s">
         <v>620</v>
       </c>
+      <c r="L115" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>1162</v>
+      </c>
     </row>
     <row r="116" spans="1:20" hidden="1">
       <c r="D116" t="s">
@@ -10473,10 +10641,10 @@
         <v>439</v>
       </c>
       <c r="T119" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" hidden="1">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10487,7 +10655,7 @@
         <v>445</v>
       </c>
       <c r="D120" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E120" t="s">
         <v>446</v>
@@ -10505,7 +10673,7 @@
         <v>636</v>
       </c>
       <c r="J120" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="L120" t="s">
         <v>443</v>
@@ -10517,7 +10685,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" hidden="1">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10537,7 +10705,7 @@
         <v>636</v>
       </c>
       <c r="J121" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="L121" t="s">
         <v>443</v>
@@ -10610,7 +10778,7 @@
         <v>622</v>
       </c>
       <c r="J123" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="L123" t="s">
         <v>454</v>
@@ -10642,7 +10810,7 @@
         <v>622</v>
       </c>
       <c r="J124" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="125" spans="1:20" hidden="1">
@@ -10665,7 +10833,7 @@
         <v>622</v>
       </c>
       <c r="J125" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="126" spans="1:20" hidden="1">
@@ -10770,10 +10938,10 @@
         <v>472</v>
       </c>
       <c r="G128" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H128" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="I128" t="s">
         <v>636</v>
@@ -11275,7 +11443,7 @@
         <v>516</v>
       </c>
       <c r="N142" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="143" spans="1:14" hidden="1">
@@ -11636,7 +11804,7 @@
         <v>922</v>
       </c>
       <c r="J153" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L153" t="s">
         <v>649</v>
@@ -11749,10 +11917,10 @@
         <v>553</v>
       </c>
       <c r="B157" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C157" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D157" t="s">
         <v>553</v>
@@ -11764,7 +11932,7 @@
         <v>953</v>
       </c>
       <c r="G157" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H157" t="s">
         <v>916</v>
@@ -12589,7 +12757,7 @@
     </row>
     <row r="184" spans="1:14" hidden="1">
       <c r="D184" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E184" t="s">
         <v>681</v>
@@ -12598,13 +12766,13 @@
         <v>682</v>
       </c>
       <c r="G184" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H184" t="s">
         <v>913</v>
       </c>
       <c r="I184" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="L184" t="s">
         <v>848</v>
@@ -12624,19 +12792,19 @@
         <v>685</v>
       </c>
       <c r="F185" t="s">
+        <v>996</v>
+      </c>
+      <c r="G185" t="s">
         <v>997</v>
-      </c>
-      <c r="G185" t="s">
-        <v>998</v>
       </c>
       <c r="H185" t="s">
         <v>921</v>
       </c>
       <c r="I185" t="s">
+        <v>998</v>
+      </c>
+      <c r="J185" t="s">
         <v>999</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="186" spans="1:14" hidden="1">
@@ -12647,19 +12815,19 @@
         <v>686</v>
       </c>
       <c r="F186" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G186" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H186" t="s">
         <v>921</v>
       </c>
       <c r="I186" t="s">
+        <v>998</v>
+      </c>
+      <c r="J186" t="s">
         <v>999</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="187" spans="1:14" hidden="1">
@@ -12670,19 +12838,19 @@
         <v>832</v>
       </c>
       <c r="F187" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G187" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H187" t="s">
         <v>921</v>
       </c>
       <c r="I187" t="s">
+        <v>998</v>
+      </c>
+      <c r="J187" t="s">
         <v>999</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="188" spans="1:14" hidden="1">
@@ -12702,7 +12870,7 @@
         <v>690</v>
       </c>
       <c r="F188" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G188" t="s">
         <v>915</v>
@@ -12714,10 +12882,10 @@
         <v>907</v>
       </c>
       <c r="J188" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" hidden="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="D189" t="s">
         <v>476</v>
       </c>
@@ -12725,13 +12893,13 @@
         <v>695</v>
       </c>
       <c r="F189" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G189" t="s">
-        <v>920</v>
+        <v>1167</v>
       </c>
       <c r="H189" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="I189" t="s">
         <v>973</v>
@@ -12763,10 +12931,10 @@
         <v>702</v>
       </c>
       <c r="F190" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G190" t="s">
         <v>1006</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1007</v>
       </c>
       <c r="H190" t="s">
         <v>921</v>
@@ -12792,7 +12960,7 @@
         <v>706</v>
       </c>
       <c r="F191" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G191" t="s">
         <v>920</v>
@@ -12812,7 +12980,7 @@
         <v>541</v>
       </c>
       <c r="F192" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G192" t="s">
         <v>915</v>
@@ -12821,10 +12989,10 @@
         <v>916</v>
       </c>
       <c r="I192" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J192" t="s">
         <v>1010</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="193" spans="4:10" hidden="1">
@@ -12835,7 +13003,7 @@
         <v>546</v>
       </c>
       <c r="F193" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G193" t="s">
         <v>915</v>
@@ -12844,10 +13012,10 @@
         <v>916</v>
       </c>
       <c r="I193" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J193" t="s">
         <v>1010</v>
-      </c>
-      <c r="J193" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="194" spans="4:10" hidden="1">
@@ -12858,7 +13026,7 @@
         <v>708</v>
       </c>
       <c r="F194" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G194" t="s">
         <v>915</v>
@@ -12867,10 +13035,10 @@
         <v>916</v>
       </c>
       <c r="I194" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J194" t="s">
         <v>1010</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="195" spans="4:10" hidden="1">
@@ -12881,7 +13049,7 @@
         <v>709</v>
       </c>
       <c r="F195" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G195" t="s">
         <v>915</v>
@@ -12890,10 +13058,10 @@
         <v>916</v>
       </c>
       <c r="I195" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J195" t="s">
         <v>1010</v>
-      </c>
-      <c r="J195" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="196" spans="4:10" hidden="1">
@@ -12904,7 +13072,7 @@
         <v>710</v>
       </c>
       <c r="F196" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G196" t="s">
         <v>915</v>
@@ -12913,10 +13081,10 @@
         <v>916</v>
       </c>
       <c r="I196" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J196" t="s">
         <v>1010</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="197" spans="4:10" hidden="1">
@@ -12927,7 +13095,7 @@
         <v>711</v>
       </c>
       <c r="F197" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G197" t="s">
         <v>915</v>
@@ -12936,10 +13104,10 @@
         <v>916</v>
       </c>
       <c r="I197" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J197" t="s">
         <v>1010</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="198" spans="4:10" hidden="1">
@@ -12950,7 +13118,7 @@
         <v>712</v>
       </c>
       <c r="F198" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G198" t="s">
         <v>915</v>
@@ -12959,10 +13127,10 @@
         <v>916</v>
       </c>
       <c r="I198" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J198" t="s">
         <v>1010</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="199" spans="4:10" hidden="1">
@@ -12973,7 +13141,7 @@
         <v>542</v>
       </c>
       <c r="F199" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G199" t="s">
         <v>915</v>
@@ -12982,10 +13150,10 @@
         <v>916</v>
       </c>
       <c r="I199" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J199" t="s">
         <v>1010</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="200" spans="4:10" hidden="1">
@@ -12996,7 +13164,7 @@
         <v>713</v>
       </c>
       <c r="F200" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G200" t="s">
         <v>915</v>
@@ -13005,10 +13173,10 @@
         <v>916</v>
       </c>
       <c r="I200" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J200" t="s">
         <v>1010</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="201" spans="4:10" hidden="1">
@@ -13019,7 +13187,7 @@
         <v>547</v>
       </c>
       <c r="F201" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G201" t="s">
         <v>915</v>
@@ -13028,10 +13196,10 @@
         <v>916</v>
       </c>
       <c r="I201" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J201" t="s">
         <v>1010</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="202" spans="4:10" hidden="1">
@@ -13042,7 +13210,7 @@
         <v>548</v>
       </c>
       <c r="F202" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G202" t="s">
         <v>915</v>
@@ -13051,10 +13219,10 @@
         <v>916</v>
       </c>
       <c r="I202" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J202" t="s">
         <v>1010</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="203" spans="4:10" hidden="1">
@@ -13065,7 +13233,7 @@
         <v>549</v>
       </c>
       <c r="F203" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G203" t="s">
         <v>915</v>
@@ -13074,10 +13242,10 @@
         <v>916</v>
       </c>
       <c r="I203" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J203" t="s">
         <v>1010</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="204" spans="4:10" hidden="1">
@@ -13088,7 +13256,7 @@
         <v>714</v>
       </c>
       <c r="F204" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G204" t="s">
         <v>915</v>
@@ -13097,10 +13265,10 @@
         <v>916</v>
       </c>
       <c r="I204" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J204" t="s">
         <v>1010</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="205" spans="4:10" hidden="1">
@@ -13111,7 +13279,7 @@
         <v>715</v>
       </c>
       <c r="F205" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G205" t="s">
         <v>915</v>
@@ -13120,10 +13288,10 @@
         <v>916</v>
       </c>
       <c r="I205" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J205" t="s">
         <v>1010</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="206" spans="4:10" hidden="1">
@@ -13134,7 +13302,7 @@
         <v>716</v>
       </c>
       <c r="F206" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G206" t="s">
         <v>915</v>
@@ -13143,10 +13311,10 @@
         <v>916</v>
       </c>
       <c r="I206" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J206" t="s">
         <v>1010</v>
-      </c>
-      <c r="J206" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="207" spans="4:10" hidden="1">
@@ -13157,7 +13325,7 @@
         <v>707</v>
       </c>
       <c r="F207" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G207" t="s">
         <v>915</v>
@@ -13166,10 +13334,10 @@
         <v>916</v>
       </c>
       <c r="I207" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J207" t="s">
         <v>1010</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="208" spans="4:10" hidden="1">
@@ -13180,7 +13348,7 @@
         <v>550</v>
       </c>
       <c r="F208" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G208" t="s">
         <v>915</v>
@@ -13189,13 +13357,13 @@
         <v>916</v>
       </c>
       <c r="I208" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J208" t="s">
         <v>1010</v>
       </c>
-      <c r="J208" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" hidden="1">
+    </row>
+    <row r="209" spans="1:17" hidden="1">
       <c r="D209" t="s">
         <v>540</v>
       </c>
@@ -13203,7 +13371,7 @@
         <v>551</v>
       </c>
       <c r="F209" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G209" t="s">
         <v>915</v>
@@ -13212,13 +13380,13 @@
         <v>916</v>
       </c>
       <c r="I209" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J209" t="s">
         <v>1010</v>
       </c>
-      <c r="J209" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" hidden="1">
+    </row>
+    <row r="210" spans="1:17" hidden="1">
       <c r="A210" t="s">
         <v>540</v>
       </c>
@@ -13235,7 +13403,7 @@
         <v>765</v>
       </c>
       <c r="F210" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G210" t="s">
         <v>915</v>
@@ -13244,13 +13412,13 @@
         <v>916</v>
       </c>
       <c r="I210" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J210" t="s">
         <v>1010</v>
       </c>
-      <c r="J210" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" hidden="1">
+    </row>
+    <row r="211" spans="1:17" hidden="1">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -13267,7 +13435,7 @@
         <v>545</v>
       </c>
       <c r="F211" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G211" t="s">
         <v>920</v>
@@ -13285,10 +13453,10 @@
         <v>545</v>
       </c>
       <c r="N211" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" hidden="1">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" hidden="1">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -13305,7 +13473,7 @@
         <v>545</v>
       </c>
       <c r="F212" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G212" t="s">
         <v>920</v>
@@ -13317,7 +13485,7 @@
         <v>922</v>
       </c>
       <c r="J212" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L212" t="s">
         <v>540</v>
@@ -13326,10 +13494,10 @@
         <v>545</v>
       </c>
       <c r="N212" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" hidden="1">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" hidden="1">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -13337,7 +13505,7 @@
         <v>717</v>
       </c>
       <c r="F213" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G213" t="s">
         <v>920</v>
@@ -13349,10 +13517,10 @@
         <v>968</v>
       </c>
       <c r="J213" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" hidden="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" hidden="1">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -13372,10 +13540,10 @@
         <v>922</v>
       </c>
       <c r="J214" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" hidden="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" hidden="1">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -13389,22 +13557,19 @@
         <v>649</v>
       </c>
       <c r="E215" t="s">
-        <v>898</v>
+        <v>1136</v>
       </c>
       <c r="F215" t="s">
-        <v>1035</v>
+        <v>1134</v>
       </c>
       <c r="G215" t="s">
-        <v>1036</v>
+        <v>1135</v>
       </c>
       <c r="H215" t="s">
-        <v>913</v>
-      </c>
-      <c r="I215" t="s">
-        <v>1037</v>
+        <v>906</v>
       </c>
       <c r="J215" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="L215" t="s">
         <v>649</v>
@@ -13415,8 +13580,17 @@
       <c r="N215" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" hidden="1">
+      <c r="O215" t="s">
+        <v>649</v>
+      </c>
+      <c r="P215" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" hidden="1">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -13433,7 +13607,7 @@
         <v>913</v>
       </c>
       <c r="I216" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L216" t="s">
         <v>725</v>
@@ -13445,7 +13619,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1">
+    <row r="217" spans="1:17" hidden="1">
       <c r="A217" t="s">
         <v>581</v>
       </c>
@@ -13462,10 +13636,10 @@
         <v>913</v>
       </c>
       <c r="I217" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" hidden="1">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" hidden="1">
       <c r="D218" t="s">
         <v>847</v>
       </c>
@@ -13473,7 +13647,7 @@
         <v>729</v>
       </c>
       <c r="F218" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G218" t="s">
         <v>920</v>
@@ -13485,7 +13659,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1">
+    <row r="219" spans="1:17" hidden="1">
       <c r="D219" t="s">
         <v>730</v>
       </c>
@@ -13493,7 +13667,7 @@
         <v>731</v>
       </c>
       <c r="F219" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G219" t="s">
         <v>920</v>
@@ -13505,7 +13679,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1">
+    <row r="220" spans="1:17" hidden="1">
       <c r="D220" t="s">
         <v>732</v>
       </c>
@@ -13513,7 +13687,7 @@
         <v>733</v>
       </c>
       <c r="F220" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G220" t="s">
         <v>920</v>
@@ -13525,7 +13699,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1">
+    <row r="221" spans="1:17" hidden="1">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -13545,7 +13719,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1">
+    <row r="222" spans="1:17" hidden="1">
       <c r="D222" t="s">
         <v>466</v>
       </c>
@@ -13553,10 +13727,10 @@
         <v>469</v>
       </c>
       <c r="F222" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G222" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H222" t="s">
         <v>906</v>
@@ -13565,10 +13739,10 @@
         <v>973</v>
       </c>
       <c r="J222" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" hidden="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" hidden="1">
       <c r="D223" t="s">
         <v>459</v>
       </c>
@@ -13576,7 +13750,7 @@
         <v>462</v>
       </c>
       <c r="F223" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G223" t="s">
         <v>920</v>
@@ -13588,7 +13762,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1">
+    <row r="224" spans="1:17" hidden="1">
       <c r="A224" t="s">
         <v>739</v>
       </c>
@@ -13605,7 +13779,7 @@
         <v>740</v>
       </c>
       <c r="F224" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G224" t="s">
         <v>920</v>
@@ -13614,7 +13788,7 @@
         <v>921</v>
       </c>
       <c r="I224" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="225" spans="1:9" hidden="1">
@@ -13654,7 +13828,7 @@
         <v>746</v>
       </c>
       <c r="F226" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G226" t="s">
         <v>920</v>
@@ -13663,7 +13837,7 @@
         <v>921</v>
       </c>
       <c r="I226" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="227" spans="1:9" hidden="1">
@@ -13674,7 +13848,7 @@
         <v>747</v>
       </c>
       <c r="F227" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G227" t="s">
         <v>920</v>
@@ -13694,7 +13868,7 @@
         <v>748</v>
       </c>
       <c r="F228" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G228" t="s">
         <v>920</v>
@@ -13714,7 +13888,7 @@
         <v>749</v>
       </c>
       <c r="F229" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G229" t="s">
         <v>910</v>
@@ -13734,7 +13908,7 @@
         <v>339</v>
       </c>
       <c r="F230" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G230" t="s">
         <v>920</v>
@@ -13763,7 +13937,7 @@
         <v>414</v>
       </c>
       <c r="F231" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G231" t="s">
         <v>920</v>
@@ -13783,7 +13957,7 @@
         <v>750</v>
       </c>
       <c r="F232" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G232" t="s">
         <v>910</v>
@@ -13792,7 +13966,7 @@
         <v>911</v>
       </c>
       <c r="I232" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="233" spans="1:9" hidden="1">
@@ -13803,7 +13977,7 @@
         <v>751</v>
       </c>
       <c r="F233" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G233" t="s">
         <v>910</v>
@@ -13823,7 +13997,7 @@
         <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G234" t="s">
         <v>920</v>
@@ -13843,7 +14017,7 @@
         <v>752</v>
       </c>
       <c r="F235" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="G235" t="s">
         <v>910</v>
@@ -13852,7 +14026,7 @@
         <v>911</v>
       </c>
       <c r="I235" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="236" spans="1:9" hidden="1">
@@ -13863,7 +14037,7 @@
         <v>753</v>
       </c>
       <c r="F236" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="G236" t="s">
         <v>910</v>
@@ -13872,7 +14046,7 @@
         <v>911</v>
       </c>
       <c r="I236" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="237" spans="1:9" hidden="1">
@@ -13883,7 +14057,7 @@
         <v>754</v>
       </c>
       <c r="F237" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G237" t="s">
         <v>910</v>
@@ -13892,7 +14066,7 @@
         <v>911</v>
       </c>
       <c r="I237" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="238" spans="1:9" hidden="1">
@@ -13912,7 +14086,7 @@
         <v>913</v>
       </c>
       <c r="I238" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="239" spans="1:9" hidden="1">
@@ -13932,7 +14106,7 @@
         <v>911</v>
       </c>
       <c r="I239" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="240" spans="1:9" hidden="1">
@@ -13943,7 +14117,7 @@
         <v>503</v>
       </c>
       <c r="F240" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G240" t="s">
         <v>920</v>
@@ -13972,7 +14146,7 @@
         <v>759</v>
       </c>
       <c r="F241" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G241" t="s">
         <v>910</v>
@@ -13984,7 +14158,7 @@
         <v>922</v>
       </c>
       <c r="J241" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="242" spans="1:17" hidden="1">
@@ -13995,10 +14169,10 @@
         <v>760</v>
       </c>
       <c r="F242" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G242" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H242" t="s">
         <v>913</v>
@@ -14015,10 +14189,10 @@
         <v>761</v>
       </c>
       <c r="F243" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G243" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H243" t="s">
         <v>913</v>
@@ -14035,7 +14209,7 @@
         <v>762</v>
       </c>
       <c r="F244" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G244" t="s">
         <v>910</v>
@@ -14055,7 +14229,7 @@
         <v>771</v>
       </c>
       <c r="F245" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G245" t="s">
         <v>920</v>
@@ -14075,7 +14249,7 @@
         <v>738</v>
       </c>
       <c r="F246" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="G246" t="s">
         <v>915</v>
@@ -14084,10 +14258,10 @@
         <v>916</v>
       </c>
       <c r="I246" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J246" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="247" spans="1:17" hidden="1">
@@ -14098,16 +14272,19 @@
         <v>773</v>
       </c>
       <c r="F247" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G247" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H247" t="s">
         <v>921</v>
       </c>
       <c r="I247" t="s">
-        <v>1047</v>
+        <v>1045</v>
+      </c>
+      <c r="J247" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="248" spans="1:17" hidden="1">
@@ -14118,7 +14295,7 @@
         <v>796</v>
       </c>
       <c r="F248" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="G248" t="s">
         <v>983</v>
@@ -14127,7 +14304,7 @@
         <v>984</v>
       </c>
       <c r="I248" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="249" spans="1:17" hidden="1">
@@ -14138,19 +14315,19 @@
         <v>798</v>
       </c>
       <c r="F249" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G249" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H249" t="s">
         <v>921</v>
       </c>
       <c r="I249" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="J249" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="16.5" hidden="1">
@@ -14161,10 +14338,10 @@
         <v>801</v>
       </c>
       <c r="F250" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G250" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H250" t="s">
         <v>921</v>
@@ -14173,7 +14350,7 @@
         <v>959</v>
       </c>
       <c r="J250" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="L250" t="s">
         <v>196</v>
@@ -14182,7 +14359,7 @@
         <v>801</v>
       </c>
       <c r="N250" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="251" spans="1:17" hidden="1">
@@ -14202,7 +14379,7 @@
         <v>312</v>
       </c>
       <c r="F251" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G251" t="s">
         <v>910</v>
@@ -14240,10 +14417,10 @@
         <v>805</v>
       </c>
       <c r="F252" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G252" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H252" t="s">
         <v>921</v>
@@ -14260,7 +14437,7 @@
         <v>355</v>
       </c>
       <c r="F253" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G253" t="s">
         <v>910</v>
@@ -14280,7 +14457,7 @@
         <v>808</v>
       </c>
       <c r="F254" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G254" t="s">
         <v>915</v>
@@ -14300,10 +14477,10 @@
         <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G255" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H255" t="s">
         <v>921</v>
@@ -14320,7 +14497,7 @@
         <v>812</v>
       </c>
       <c r="F256" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G256" t="s">
         <v>910</v>
@@ -14340,7 +14517,7 @@
         <v>814</v>
       </c>
       <c r="F257" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G257" t="s">
         <v>920</v>
@@ -14349,7 +14526,7 @@
         <v>921</v>
       </c>
       <c r="I257" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="258" spans="1:10" hidden="1">
@@ -14360,10 +14537,10 @@
         <v>815</v>
       </c>
       <c r="F258" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G258" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H258" t="s">
         <v>921</v>
@@ -14380,7 +14557,7 @@
         <v>816</v>
       </c>
       <c r="F259" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G259" t="s">
         <v>920</v>
@@ -14389,7 +14566,7 @@
         <v>921</v>
       </c>
       <c r="I259" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="260" spans="1:10" hidden="1">
@@ -14400,19 +14577,19 @@
         <v>820</v>
       </c>
       <c r="F260" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G260" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H260" t="s">
         <v>921</v>
       </c>
       <c r="I260" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J260" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="261" spans="1:10" hidden="1">
@@ -14423,16 +14600,16 @@
         <v>827</v>
       </c>
       <c r="F261" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G261" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H261" t="s">
         <v>921</v>
       </c>
       <c r="I261" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="262" spans="1:10" hidden="1">
@@ -14443,19 +14620,19 @@
         <v>816</v>
       </c>
       <c r="F262" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G262" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H262" t="s">
         <v>921</v>
       </c>
       <c r="I262" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J262" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="263" spans="1:10" hidden="1">
@@ -14466,7 +14643,7 @@
         <v>829</v>
       </c>
       <c r="F263" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G263" t="s">
         <v>910</v>
@@ -14486,10 +14663,10 @@
         <v>831</v>
       </c>
       <c r="F264" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G264" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H264" t="s">
         <v>921</v>
@@ -14506,7 +14683,7 @@
         <v>833</v>
       </c>
       <c r="F265" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G265" t="s">
         <v>961</v>
@@ -14532,7 +14709,7 @@
         <v>359</v>
       </c>
       <c r="F266" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G266" t="s">
         <v>601</v>
@@ -14564,7 +14741,7 @@
         <v>79</v>
       </c>
       <c r="F267" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G267" t="s">
         <v>910</v>
@@ -14593,19 +14770,19 @@
         <v>823</v>
       </c>
       <c r="F268" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G268" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H268" t="s">
         <v>921</v>
       </c>
       <c r="I268" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J268" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="269" spans="1:10" hidden="1">
@@ -14625,7 +14802,7 @@
         <v>854</v>
       </c>
       <c r="F269" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G269" t="s">
         <v>920</v>
@@ -14645,7 +14822,7 @@
         <v>867</v>
       </c>
       <c r="F270" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="271" spans="1:10" hidden="1">
@@ -14656,7 +14833,7 @@
         <v>887</v>
       </c>
       <c r="F271" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G271" t="s">
         <v>915</v>
@@ -14665,7 +14842,7 @@
         <v>916</v>
       </c>
       <c r="I271" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="272" spans="1:10" hidden="1">
@@ -14676,7 +14853,7 @@
         <v>888</v>
       </c>
       <c r="F272" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G272" t="s">
         <v>910</v>
@@ -14688,7 +14865,7 @@
         <v>922</v>
       </c>
       <c r="J272" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="273" spans="1:14" hidden="1">
@@ -14699,7 +14876,7 @@
         <v>890</v>
       </c>
       <c r="F273" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G273" t="s">
         <v>983</v>
@@ -14716,7 +14893,7 @@
         <v>891</v>
       </c>
       <c r="F274" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G274" t="s">
         <v>983</v>
@@ -14733,7 +14910,7 @@
         <v>892</v>
       </c>
       <c r="F275" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G275" t="s">
         <v>983</v>
@@ -14750,7 +14927,7 @@
         <v>894</v>
       </c>
       <c r="F276" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G276" t="s">
         <v>915</v>
@@ -14762,7 +14939,7 @@
         <v>950</v>
       </c>
       <c r="J276" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="277" spans="1:14" hidden="1">
@@ -14773,7 +14950,7 @@
         <v>813</v>
       </c>
       <c r="F277" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G277" t="s">
         <v>910</v>
@@ -14782,7 +14959,7 @@
         <v>911</v>
       </c>
       <c r="I277" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="278" spans="1:14" hidden="1">
@@ -14793,7 +14970,7 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G278" t="s">
         <v>910</v>
@@ -14802,7 +14979,7 @@
         <v>911</v>
       </c>
       <c r="I278" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="279" spans="1:14" hidden="1">
@@ -14813,19 +14990,19 @@
         <v>897</v>
       </c>
       <c r="F279" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G279" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H279" t="s">
         <v>921</v>
       </c>
       <c r="I279" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J279" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="280" spans="1:14" hidden="1">
@@ -14836,33 +15013,33 @@
         <v>197</v>
       </c>
       <c r="F280" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G280" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H280" t="s">
         <v>846</v>
       </c>
       <c r="I280" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J280" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="281" spans="1:14" hidden="1">
       <c r="D281" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E281" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F281" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G281" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H281" t="s">
         <v>913</v>
@@ -14871,27 +15048,27 @@
         <v>962</v>
       </c>
       <c r="L281" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="M281" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N281" t="s">
         <v>1118</v>
-      </c>
-      <c r="N281" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="282" spans="1:14" hidden="1">
       <c r="D282" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E282" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F282" t="s">
         <v>1126</v>
       </c>
-      <c r="F282" t="s">
-        <v>1128</v>
-      </c>
       <c r="G282" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H282" t="s">
         <v>913</v>
@@ -14908,29 +15085,10 @@
         <v>831</v>
       </c>
       <c r="F283" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" hidden="1">
-      <c r="D284" t="s">
-        <v>649</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H284" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J284" t="s">
-        <v>1135</v>
-      </c>
-    </row>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" hidden="1"/>
     <row r="285" spans="1:14" hidden="1">
       <c r="D285" t="s">
         <v>454</v>
@@ -14939,10 +15097,10 @@
         <v>457</v>
       </c>
       <c r="F285" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G285" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H285" t="s">
         <v>66</v>
@@ -14951,7 +15109,7 @@
         <v>907</v>
       </c>
       <c r="J285" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="286" spans="1:14" hidden="1">
@@ -14959,7 +15117,7 @@
         <v>466</v>
       </c>
       <c r="B286" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C286" t="s">
         <v>896</v>
@@ -14968,13 +15126,13 @@
         <v>466</v>
       </c>
       <c r="E286" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F286" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G286" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H286" t="s">
         <v>906</v>
@@ -14985,13 +15143,13 @@
     </row>
     <row r="287" spans="1:14" hidden="1">
       <c r="A287" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B287" t="s">
         <v>439</v>
       </c>
       <c r="C287" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D287" t="s">
         <v>436</v>
@@ -15003,7 +15161,7 @@
         <v>442</v>
       </c>
       <c r="G287" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H287" t="s">
         <v>66</v>
@@ -15012,334 +15170,384 @@
         <v>626</v>
       </c>
     </row>
+    <row r="288" spans="1:14" hidden="1">
+      <c r="D288" t="s">
+        <v>160</v>
+      </c>
+      <c r="E288" t="s">
+        <v>607</v>
+      </c>
+      <c r="F288" t="s">
+        <v>858</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H288" t="s">
+        <v>66</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1165</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W287" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="9">
+  <autoFilter ref="A1:W288" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+    <filterColumn colId="5">
       <filters>
-        <filter val="SC9641TS-362-Q-CB-10LK-9641"/>
+        <filter val="SC9641TS-P-Q-AI-10AR-9641P"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="219" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="230"/>
-    <cfRule type="duplicateValues" dxfId="216" priority="235"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="254"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="214" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="232"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="206" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="205" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="204" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="203" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="197" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="253"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="196" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="194" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="258"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="191" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="249"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F136:F249 F251:F286 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="180" priority="88"/>
+  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F251:F286 F289:F1048576 F136:F249">
+    <cfRule type="duplicateValues" dxfId="196" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="179" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="duplicateValues" dxfId="194" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="duplicateValues" dxfId="186" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="178" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="176" priority="204"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F261 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="175" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="174" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="172" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F261 F289:F1048576 F210:F234">
+    <cfRule type="duplicateValues" dxfId="172" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="171" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="222"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="duplicateValues" dxfId="170" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="160" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="159" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="158" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="157" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="156" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="154" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F259 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="153" priority="187"/>
+  <conditionalFormatting sqref="F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F259 F289:F1048576 F210:F234">
+    <cfRule type="duplicateValues" dxfId="153" priority="211"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F260 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="152" priority="185"/>
+  <conditionalFormatting sqref="F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F260 F289:F1048576 F210:F234">
+    <cfRule type="duplicateValues" dxfId="152" priority="209"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F286 F93:F134 F91 F27:F89 F149:F234 F251:F256 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="151" priority="206"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F286 F93:F134 F91 F27:F89 F251:F256 F289:F1048576 F149:F234">
+    <cfRule type="duplicateValues" dxfId="151" priority="230"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F257 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="150" priority="193"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F257 F289:F1048576 F210:F234">
+    <cfRule type="duplicateValues" dxfId="150" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F210:F234 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F256 F288:F1048576">
-    <cfRule type="duplicateValues" dxfId="149" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="203"/>
+  <conditionalFormatting sqref="F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F256 F289:F1048576 F210:F234">
+    <cfRule type="duplicateValues" dxfId="149" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="147" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="145" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="143" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287:G287">
-    <cfRule type="duplicateValues" dxfId="136" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="135" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J212">
-    <cfRule type="duplicateValues" dxfId="132" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="124" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J133 J135:J211 J257:J1048576 J223:J247 J1:J128 J213:J221">
-    <cfRule type="duplicateValues" dxfId="116" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="115" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="114" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="106" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="98" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="91" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="223"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N90:N91">
-    <cfRule type="duplicateValues" dxfId="88" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="44"/>
+  <conditionalFormatting sqref="N91">
+    <cfRule type="duplicateValues" dxfId="88" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N115">
+    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="64" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="62" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="54" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="48" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="41" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="34" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="27" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="20" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="16" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q215">
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="14" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EE857-FDA4-4DD8-A668-987CA0A532CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D7617-FF73-4177-82EA-A6A4F6A054D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="1181">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3809,6 +3809,50 @@
   <si>
     <t>浙江赛扬&amp;蓝箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1002B2</t>
+  </si>
+  <si>
+    <t>SC1002B2(STC1002AG)-41F</t>
+  </si>
+  <si>
+    <t>SC1002B2-BK</t>
+  </si>
+  <si>
+    <t>SC1002B2-AG-00HK-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF.SC1002B2(STC1002AG)-41F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC9G002C</t>
+  </si>
+  <si>
+    <t>SC2402UA-GC-00AK-2402</t>
+  </si>
+  <si>
+    <t>江苏长电&amp;SAI赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉豪&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2498SO-Q-DB-60AR-2498</t>
+  </si>
+  <si>
+    <t>SC4104SE-DB-00LR-4104</t>
+  </si>
+  <si>
+    <t>亚芯微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4104SE-GB-00LR-4104</t>
   </si>
 </sst>
 </file>
@@ -3992,7 +4036,87 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="236">
+  <dxfs count="244">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6629,12 +6753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W288"/>
+  <dimension ref="A1:W289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I305" sqref="I305"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I299" sqref="I299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6733,7 +6856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6771,7 +6894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6809,7 +6932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6838,7 +6961,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -6879,7 +7002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6908,7 +7031,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6945,8 +7068,17 @@
       <c r="N7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" hidden="1">
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6966,10 +7098,10 @@
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>599</v>
+        <v>1175</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>1176</v>
       </c>
       <c r="I8" t="s">
         <v>623</v>
@@ -7011,7 +7143,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -7049,7 +7181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -7081,7 +7213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -7104,7 +7236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -7142,7 +7274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -7174,7 +7306,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -7215,7 +7347,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -7280,7 +7412,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -7336,7 +7468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -7374,7 +7506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7403,7 +7535,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -7444,7 +7576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7473,7 +7605,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -7505,7 +7637,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -7534,7 +7666,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -7563,7 +7695,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -7595,7 +7727,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -7633,7 +7765,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -7674,7 +7806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -7703,7 +7835,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -7735,7 +7867,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -7767,7 +7899,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -7799,7 +7931,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -7831,7 +7963,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -7860,7 +7992,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -7889,7 +8021,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -7918,7 +8050,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -7959,7 +8091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7988,7 +8120,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -8038,7 +8170,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -8070,7 +8202,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -8120,7 +8252,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -8152,7 +8284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -8184,7 +8316,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -8234,7 +8366,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -8275,7 +8407,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -8304,7 +8436,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -8336,7 +8468,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -8386,7 +8518,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -8415,7 +8547,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -8447,7 +8579,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -8476,7 +8608,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -8505,7 +8637,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -8537,7 +8669,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -8575,7 +8707,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -8604,7 +8736,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -8636,7 +8768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -8668,7 +8800,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -8700,7 +8832,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1">
+    <row r="57" spans="1:14">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -8723,7 +8855,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1">
+    <row r="58" spans="1:14">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -8746,7 +8878,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1">
+    <row r="59" spans="1:14">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -8769,7 +8901,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1">
+    <row r="60" spans="1:14">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -8792,7 +8924,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1">
+    <row r="61" spans="1:14">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -8815,7 +8947,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1">
+    <row r="62" spans="1:14">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -8838,7 +8970,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1">
+    <row r="63" spans="1:14">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -8861,7 +8993,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1">
+    <row r="64" spans="1:14">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -8884,7 +9016,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -8907,7 +9039,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -8930,7 +9062,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -8953,7 +9085,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -8976,7 +9108,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -8999,7 +9131,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -9028,7 +9160,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -9060,7 +9192,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -9092,7 +9224,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -9124,7 +9256,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -9156,7 +9288,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -9188,7 +9320,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -9211,7 +9343,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -9240,7 +9372,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -9269,7 +9401,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -9307,7 +9439,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -9327,7 +9459,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -9374,7 +9506,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -9403,7 +9535,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -9414,13 +9546,13 @@
         <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>1173</v>
       </c>
       <c r="E83" t="s">
         <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>788</v>
+        <v>1174</v>
       </c>
       <c r="G83" t="s">
         <v>601</v>
@@ -9443,8 +9575,17 @@
       <c r="N83" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" hidden="1">
+      <c r="O83" t="s">
+        <v>286</v>
+      </c>
+      <c r="P83" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -9473,7 +9614,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -9502,7 +9643,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -9531,7 +9672,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -9560,7 +9701,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -9589,7 +9730,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -9618,7 +9759,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -9656,7 +9797,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -9688,7 +9829,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -9735,7 +9876,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -9767,7 +9908,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -9796,7 +9937,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -9828,7 +9969,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -9860,7 +10001,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -9889,7 +10030,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -9921,7 +10062,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -9950,7 +10091,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -9988,7 +10129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>363</v>
       </c>
@@ -10017,7 +10158,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14">
       <c r="D102" t="s">
         <v>363</v>
       </c>
@@ -10046,7 +10187,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -10075,7 +10216,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>363</v>
       </c>
@@ -10113,7 +10254,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -10142,7 +10283,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -10180,7 +10321,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1">
+    <row r="107" spans="1:14">
       <c r="D107" t="s">
         <v>388</v>
       </c>
@@ -10200,7 +10341,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -10232,7 +10373,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -10261,7 +10402,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -10299,7 +10440,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>388</v>
       </c>
@@ -10337,7 +10478,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -10366,7 +10507,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -10404,7 +10545,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -10433,7 +10574,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -10471,7 +10612,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1">
+    <row r="116" spans="1:20">
       <c r="D116" t="s">
         <v>417</v>
       </c>
@@ -10500,7 +10641,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -10547,7 +10688,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>431</v>
       </c>
@@ -10585,7 +10726,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>436</v>
       </c>
@@ -10644,7 +10785,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -10685,7 +10826,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1">
+    <row r="121" spans="1:20">
       <c r="D121" t="s">
         <v>443</v>
       </c>
@@ -10717,7 +10858,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>450</v>
       </c>
@@ -10749,7 +10890,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>454</v>
       </c>
@@ -10790,7 +10931,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1">
+    <row r="124" spans="1:20">
       <c r="D124" t="s">
         <v>454</v>
       </c>
@@ -10813,7 +10954,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1">
+    <row r="125" spans="1:20">
       <c r="D125" t="s">
         <v>454</v>
       </c>
@@ -10836,7 +10977,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>459</v>
       </c>
@@ -10877,7 +11018,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>466</v>
       </c>
@@ -10918,7 +11059,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>466</v>
       </c>
@@ -10959,7 +11100,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>479</v>
       </c>
@@ -10991,7 +11132,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>479</v>
       </c>
@@ -11023,7 +11164,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>479</v>
       </c>
@@ -11055,7 +11196,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>479</v>
       </c>
@@ -11087,7 +11228,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>479</v>
       </c>
@@ -11116,7 +11257,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -11148,7 +11289,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>479</v>
       </c>
@@ -11177,7 +11318,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>498</v>
       </c>
@@ -11209,7 +11350,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>498</v>
       </c>
@@ -11247,7 +11388,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>498</v>
       </c>
@@ -11285,7 +11426,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1">
+    <row r="139" spans="1:14">
       <c r="A139" s="8" t="s">
         <v>498</v>
       </c>
@@ -11326,7 +11467,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>506</v>
       </c>
@@ -11367,7 +11508,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>510</v>
       </c>
@@ -11405,7 +11546,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -11446,7 +11587,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>510</v>
       </c>
@@ -11475,7 +11616,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>510</v>
       </c>
@@ -11504,7 +11645,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="D145" t="s">
         <v>510</v>
       </c>
@@ -11527,7 +11668,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>510</v>
       </c>
@@ -11559,7 +11700,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>510</v>
       </c>
@@ -11591,7 +11732,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>510</v>
       </c>
@@ -11641,7 +11782,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>510</v>
       </c>
@@ -11673,7 +11814,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>510</v>
       </c>
@@ -11705,7 +11846,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>510</v>
       </c>
@@ -11746,7 +11887,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>510</v>
       </c>
@@ -11775,7 +11916,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>649</v>
       </c>
@@ -11825,7 +11966,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>553</v>
       </c>
@@ -11854,7 +11995,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>553</v>
       </c>
@@ -11883,7 +12024,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>553</v>
       </c>
@@ -11912,7 +12053,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>553</v>
       </c>
@@ -11944,7 +12085,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>553</v>
       </c>
@@ -11976,7 +12117,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>566</v>
       </c>
@@ -12005,7 +12146,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>566</v>
       </c>
@@ -12034,7 +12175,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1">
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
         <v>573</v>
       </c>
@@ -12063,7 +12204,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1">
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
         <v>577</v>
       </c>
@@ -12128,7 +12269,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1">
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
         <v>581</v>
       </c>
@@ -12160,7 +12301,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1">
+    <row r="164" spans="1:23">
       <c r="D164" t="s">
         <v>581</v>
       </c>
@@ -12183,7 +12324,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1">
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
         <v>581</v>
       </c>
@@ -12212,7 +12353,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1">
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -12244,7 +12385,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1">
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
         <v>581</v>
       </c>
@@ -12276,7 +12417,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1">
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
         <v>581</v>
       </c>
@@ -12314,7 +12455,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1">
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
         <v>476</v>
       </c>
@@ -12361,7 +12502,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1">
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
         <v>476</v>
       </c>
@@ -12399,7 +12540,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1">
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
         <v>476</v>
       </c>
@@ -12428,7 +12569,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1">
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
         <v>596</v>
       </c>
@@ -12460,7 +12601,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1">
+    <row r="173" spans="1:23">
       <c r="D173" t="s">
         <v>596</v>
       </c>
@@ -12483,7 +12624,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1">
+    <row r="174" spans="1:23">
       <c r="D174" t="s">
         <v>596</v>
       </c>
@@ -12506,7 +12647,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1">
+    <row r="175" spans="1:23">
       <c r="A175" t="s">
         <v>610</v>
       </c>
@@ -12526,7 +12667,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1">
+    <row r="176" spans="1:23">
       <c r="A176" t="s">
         <v>613</v>
       </c>
@@ -12546,7 +12687,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1">
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
         <v>616</v>
       </c>
@@ -12563,7 +12704,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1">
+    <row r="178" spans="1:14">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -12592,7 +12733,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1">
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -12621,7 +12762,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>663</v>
       </c>
@@ -12659,7 +12800,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1">
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
         <v>667</v>
       </c>
@@ -12688,7 +12829,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>671</v>
       </c>
@@ -12717,7 +12858,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1">
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>677</v>
       </c>
@@ -12755,7 +12896,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1">
+    <row r="184" spans="1:14">
       <c r="D184" t="s">
         <v>1144</v>
       </c>
@@ -12784,7 +12925,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1">
+    <row r="185" spans="1:14">
       <c r="D185" t="s">
         <v>684</v>
       </c>
@@ -12807,7 +12948,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1">
+    <row r="186" spans="1:14">
       <c r="D186" t="s">
         <v>684</v>
       </c>
@@ -12830,7 +12971,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1">
+    <row r="187" spans="1:14">
       <c r="D187" t="s">
         <v>684</v>
       </c>
@@ -12853,7 +12994,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1">
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
         <v>687</v>
       </c>
@@ -12914,7 +13055,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1">
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
         <v>699</v>
       </c>
@@ -12943,7 +13084,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1">
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
         <v>703</v>
       </c>
@@ -12972,7 +13113,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1">
+    <row r="192" spans="1:14">
       <c r="D192" t="s">
         <v>540</v>
       </c>
@@ -12995,7 +13136,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="193" spans="4:10" hidden="1">
+    <row r="193" spans="4:10">
       <c r="D193" t="s">
         <v>540</v>
       </c>
@@ -13018,7 +13159,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="194" spans="4:10" hidden="1">
+    <row r="194" spans="4:10">
       <c r="D194" t="s">
         <v>540</v>
       </c>
@@ -13041,7 +13182,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="195" spans="4:10" hidden="1">
+    <row r="195" spans="4:10">
       <c r="D195" t="s">
         <v>540</v>
       </c>
@@ -13064,7 +13205,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="196" spans="4:10" hidden="1">
+    <row r="196" spans="4:10">
       <c r="D196" t="s">
         <v>540</v>
       </c>
@@ -13087,7 +13228,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="197" spans="4:10" hidden="1">
+    <row r="197" spans="4:10">
       <c r="D197" t="s">
         <v>540</v>
       </c>
@@ -13110,7 +13251,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="198" spans="4:10" hidden="1">
+    <row r="198" spans="4:10">
       <c r="D198" t="s">
         <v>540</v>
       </c>
@@ -13133,7 +13274,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="199" spans="4:10" hidden="1">
+    <row r="199" spans="4:10">
       <c r="D199" t="s">
         <v>540</v>
       </c>
@@ -13156,7 +13297,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="200" spans="4:10" hidden="1">
+    <row r="200" spans="4:10">
       <c r="D200" t="s">
         <v>540</v>
       </c>
@@ -13179,7 +13320,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="201" spans="4:10" hidden="1">
+    <row r="201" spans="4:10">
       <c r="D201" t="s">
         <v>540</v>
       </c>
@@ -13202,7 +13343,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="202" spans="4:10" hidden="1">
+    <row r="202" spans="4:10">
       <c r="D202" t="s">
         <v>540</v>
       </c>
@@ -13225,7 +13366,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="203" spans="4:10" hidden="1">
+    <row r="203" spans="4:10">
       <c r="D203" t="s">
         <v>540</v>
       </c>
@@ -13248,7 +13389,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="204" spans="4:10" hidden="1">
+    <row r="204" spans="4:10">
       <c r="D204" t="s">
         <v>540</v>
       </c>
@@ -13271,7 +13412,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="205" spans="4:10" hidden="1">
+    <row r="205" spans="4:10">
       <c r="D205" t="s">
         <v>540</v>
       </c>
@@ -13294,7 +13435,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="206" spans="4:10" hidden="1">
+    <row r="206" spans="4:10">
       <c r="D206" t="s">
         <v>540</v>
       </c>
@@ -13317,7 +13458,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="207" spans="4:10" hidden="1">
+    <row r="207" spans="4:10">
       <c r="D207" t="s">
         <v>540</v>
       </c>
@@ -13340,7 +13481,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="208" spans="4:10" hidden="1">
+    <row r="208" spans="4:10">
       <c r="D208" t="s">
         <v>540</v>
       </c>
@@ -13363,7 +13504,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1">
+    <row r="209" spans="1:17">
       <c r="D209" t="s">
         <v>540</v>
       </c>
@@ -13386,7 +13527,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1">
+    <row r="210" spans="1:17">
       <c r="A210" t="s">
         <v>540</v>
       </c>
@@ -13418,7 +13559,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1">
+    <row r="211" spans="1:17">
       <c r="A211" t="s">
         <v>540</v>
       </c>
@@ -13456,7 +13597,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1">
+    <row r="212" spans="1:17">
       <c r="A212" t="s">
         <v>540</v>
       </c>
@@ -13497,7 +13638,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1">
+    <row r="213" spans="1:17">
       <c r="D213" t="s">
         <v>123</v>
       </c>
@@ -13520,7 +13661,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1">
+    <row r="214" spans="1:17">
       <c r="A214" t="s">
         <v>553</v>
       </c>
@@ -13543,7 +13684,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1">
+    <row r="215" spans="1:17">
       <c r="A215" t="s">
         <v>720</v>
       </c>
@@ -13590,7 +13731,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1">
+    <row r="216" spans="1:17">
       <c r="A216" t="s">
         <v>667</v>
       </c>
@@ -13619,7 +13760,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1">
+    <row r="217" spans="1:17">
       <c r="A217" t="s">
         <v>581</v>
       </c>
@@ -13639,7 +13780,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1">
+    <row r="218" spans="1:17">
       <c r="D218" t="s">
         <v>847</v>
       </c>
@@ -13659,7 +13800,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1">
+    <row r="219" spans="1:17">
       <c r="D219" t="s">
         <v>730</v>
       </c>
@@ -13679,7 +13820,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1">
+    <row r="220" spans="1:17">
       <c r="D220" t="s">
         <v>732</v>
       </c>
@@ -13699,7 +13840,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1">
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>304</v>
       </c>
@@ -13719,7 +13860,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1">
+    <row r="222" spans="1:17">
       <c r="D222" t="s">
         <v>466</v>
       </c>
@@ -13742,7 +13883,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1">
+    <row r="223" spans="1:17">
       <c r="D223" t="s">
         <v>459</v>
       </c>
@@ -13762,7 +13903,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1">
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>739</v>
       </c>
@@ -13791,7 +13932,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>742</v>
       </c>
@@ -13811,7 +13952,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>745</v>
       </c>
@@ -13840,7 +13981,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="D227" t="s">
         <v>160</v>
       </c>
@@ -13860,7 +14001,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="D228" t="s">
         <v>276</v>
       </c>
@@ -13880,7 +14021,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="D229" t="s">
         <v>322</v>
       </c>
@@ -13900,7 +14041,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="D230" t="s">
         <v>322</v>
       </c>
@@ -13920,7 +14061,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="8" t="s">
         <v>406</v>
       </c>
@@ -13949,7 +14090,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="D232" t="s">
         <v>46</v>
       </c>
@@ -13969,7 +14110,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="D233" t="s">
         <v>46</v>
       </c>
@@ -13989,7 +14130,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="D234" t="s">
         <v>46</v>
       </c>
@@ -14009,7 +14150,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="D235" t="s">
         <v>730</v>
       </c>
@@ -14029,7 +14170,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="D236" t="s">
         <v>643</v>
       </c>
@@ -14049,7 +14190,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="D237" t="s">
         <v>643</v>
       </c>
@@ -14069,7 +14210,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>229</v>
       </c>
@@ -14089,7 +14230,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -14109,7 +14250,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="D240" t="s">
         <v>498</v>
       </c>
@@ -14129,7 +14270,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>720</v>
       </c>
@@ -14161,7 +14302,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1">
+    <row r="242" spans="1:17">
       <c r="D242" t="s">
         <v>649</v>
       </c>
@@ -14181,7 +14322,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1">
+    <row r="243" spans="1:17">
       <c r="D243" t="s">
         <v>649</v>
       </c>
@@ -14201,7 +14342,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1">
+    <row r="244" spans="1:17">
       <c r="D244" t="s">
         <v>692</v>
       </c>
@@ -14221,7 +14362,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1">
+    <row r="245" spans="1:17">
       <c r="D245" t="s">
         <v>770</v>
       </c>
@@ -14241,7 +14382,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1">
+    <row r="246" spans="1:17">
       <c r="D246" t="s">
         <v>737</v>
       </c>
@@ -14264,7 +14405,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1">
+    <row r="247" spans="1:17">
       <c r="D247" t="s">
         <v>772</v>
       </c>
@@ -14287,7 +14428,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1">
+    <row r="248" spans="1:17">
       <c r="D248" t="s">
         <v>613</v>
       </c>
@@ -14307,7 +14448,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1">
+    <row r="249" spans="1:17">
       <c r="D249" t="s">
         <v>797</v>
       </c>
@@ -14330,7 +14471,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="16.5" hidden="1">
+    <row r="250" spans="1:17" ht="16.5">
       <c r="D250" t="s">
         <v>849</v>
       </c>
@@ -14362,7 +14503,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1">
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>309</v>
       </c>
@@ -14409,7 +14550,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1">
+    <row r="252" spans="1:17">
       <c r="D252" t="s">
         <v>286</v>
       </c>
@@ -14429,7 +14570,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="16.5" hidden="1">
+    <row r="253" spans="1:17" ht="16.5">
       <c r="D253" t="s">
         <v>388</v>
       </c>
@@ -14449,7 +14590,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1">
+    <row r="254" spans="1:17">
       <c r="D254" t="s">
         <v>510</v>
       </c>
@@ -14469,7 +14610,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1">
+    <row r="255" spans="1:17">
       <c r="D255" t="s">
         <v>476</v>
       </c>
@@ -14489,7 +14630,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1">
+    <row r="256" spans="1:17">
       <c r="D256" t="s">
         <v>363</v>
       </c>
@@ -14509,7 +14650,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1">
+    <row r="257" spans="1:10">
       <c r="D257" t="s">
         <v>46</v>
       </c>
@@ -14529,7 +14670,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1">
+    <row r="258" spans="1:10">
       <c r="D258" t="s">
         <v>510</v>
       </c>
@@ -14549,7 +14690,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="D259" t="s">
         <v>797</v>
       </c>
@@ -14569,7 +14710,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1">
+    <row r="260" spans="1:10">
       <c r="D260" t="s">
         <v>797</v>
       </c>
@@ -14592,7 +14733,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1">
+    <row r="261" spans="1:10">
       <c r="D261" t="s">
         <v>115</v>
       </c>
@@ -14612,7 +14753,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10">
       <c r="D262" t="s">
         <v>797</v>
       </c>
@@ -14635,7 +14776,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10">
       <c r="D263" t="s">
         <v>742</v>
       </c>
@@ -14655,7 +14796,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10">
       <c r="D264" t="s">
         <v>830</v>
       </c>
@@ -14675,7 +14816,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1">
+    <row r="265" spans="1:10">
       <c r="D265" t="s">
         <v>229</v>
       </c>
@@ -14692,7 +14833,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -14724,7 +14865,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>417</v>
       </c>
@@ -14753,7 +14894,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -14785,7 +14926,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>69</v>
       </c>
@@ -14814,7 +14955,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1">
+    <row r="270" spans="1:10">
       <c r="D270" t="s">
         <v>868</v>
       </c>
@@ -14825,7 +14966,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1">
+    <row r="271" spans="1:10">
       <c r="D271" t="s">
         <v>540</v>
       </c>
@@ -14845,7 +14986,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1">
+    <row r="272" spans="1:10">
       <c r="D272" t="s">
         <v>649</v>
       </c>
@@ -14868,7 +15009,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1">
+    <row r="273" spans="1:14">
       <c r="D273" t="s">
         <v>889</v>
       </c>
@@ -14885,7 +15026,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1">
+    <row r="274" spans="1:14">
       <c r="D274" t="s">
         <v>889</v>
       </c>
@@ -14902,7 +15043,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1">
+    <row r="275" spans="1:14">
       <c r="D275" t="s">
         <v>893</v>
       </c>
@@ -14919,7 +15060,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1">
+    <row r="276" spans="1:14">
       <c r="D276" t="s">
         <v>553</v>
       </c>
@@ -14942,7 +15083,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1">
+    <row r="277" spans="1:14">
       <c r="D277" t="s">
         <v>730</v>
       </c>
@@ -14962,7 +15103,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1">
+    <row r="278" spans="1:14">
       <c r="D278" t="s">
         <v>123</v>
       </c>
@@ -14982,7 +15123,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1">
+    <row r="279" spans="1:14">
       <c r="D279" t="s">
         <v>115</v>
       </c>
@@ -15005,7 +15146,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1">
+    <row r="280" spans="1:14">
       <c r="D280" t="s">
         <v>196</v>
       </c>
@@ -15028,7 +15169,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1">
+    <row r="281" spans="1:14">
       <c r="D281" t="s">
         <v>1115</v>
       </c>
@@ -15057,7 +15198,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1">
+    <row r="282" spans="1:14">
       <c r="D282" t="s">
         <v>1123</v>
       </c>
@@ -15077,7 +15218,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1">
+    <row r="283" spans="1:14">
       <c r="D283" t="s">
         <v>830</v>
       </c>
@@ -15088,466 +15229,530 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1"/>
-    <row r="285" spans="1:14" hidden="1">
+    <row r="284" spans="1:14">
+      <c r="D284" t="s">
+        <v>454</v>
+      </c>
+      <c r="E284" t="s">
+        <v>457</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H284" t="s">
+        <v>66</v>
+      </c>
+      <c r="I284" t="s">
+        <v>907</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285" t="s">
+        <v>466</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C285" t="s">
+        <v>896</v>
+      </c>
       <c r="D285" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="E285" t="s">
-        <v>457</v>
+        <v>1146</v>
       </c>
       <c r="F285" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="G285" t="s">
-        <v>1138</v>
+        <v>1042</v>
       </c>
       <c r="H285" t="s">
+        <v>906</v>
+      </c>
+      <c r="I285" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B286" t="s">
+        <v>439</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D286" t="s">
+        <v>436</v>
+      </c>
+      <c r="E286" t="s">
+        <v>439</v>
+      </c>
+      <c r="F286" t="s">
+        <v>442</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H286" t="s">
         <v>66</v>
       </c>
-      <c r="I285" t="s">
-        <v>907</v>
-      </c>
-      <c r="J285" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" hidden="1">
-      <c r="A286" t="s">
-        <v>466</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C286" t="s">
-        <v>896</v>
-      </c>
-      <c r="D286" t="s">
-        <v>466</v>
-      </c>
-      <c r="E286" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F286" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G286" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H286" t="s">
-        <v>906</v>
-      </c>
       <c r="I286" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" hidden="1">
-      <c r="A287" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B287" t="s">
-        <v>439</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1151</v>
-      </c>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="D287" t="s">
-        <v>436</v>
+        <v>160</v>
       </c>
       <c r="E287" t="s">
-        <v>439</v>
+        <v>607</v>
       </c>
       <c r="F287" t="s">
-        <v>442</v>
+        <v>858</v>
       </c>
       <c r="G287" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="H287" t="s">
         <v>66</v>
       </c>
       <c r="I287" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" hidden="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288" t="s">
+        <v>60</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1169</v>
+      </c>
       <c r="D288" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="E288" t="s">
-        <v>607</v>
+        <v>1170</v>
       </c>
       <c r="F288" t="s">
-        <v>858</v>
+        <v>1171</v>
       </c>
       <c r="G288" t="s">
-        <v>1164</v>
+        <v>1072</v>
       </c>
       <c r="H288" t="s">
         <v>66</v>
       </c>
       <c r="I288" t="s">
-        <v>1165</v>
+        <v>621</v>
+      </c>
+      <c r="J288" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>670</v>
+      </c>
+      <c r="B289" t="s">
+        <v>673</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D289" t="s">
+        <v>670</v>
+      </c>
+      <c r="E289" t="s">
+        <v>673</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H289" t="s">
+        <v>913</v>
+      </c>
+      <c r="I289" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W288" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="SC9641TS-P-Q-AI-10AR-9641P"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W288" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="235" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="233" priority="257"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="265"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="230" priority="250"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="248"/>
-    <cfRule type="duplicateValues" dxfId="228" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="252"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="222" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="221" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="220" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="273"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="219" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="217" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="216" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="213" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="261"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="212" priority="264"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="260"/>
-    <cfRule type="duplicateValues" dxfId="208" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="271"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="207" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="236"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="235"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="200" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="198" priority="247"/>
-    <cfRule type="duplicateValues" dxfId="197" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F8 F10:F25 F93:F134 F91 F27:F89 F251:F286 F289:F1048576 F136:F249">
-    <cfRule type="duplicateValues" dxfId="196" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="205" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="195" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="204" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="194" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="193" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="203" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="202" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="201" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="200" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90">
+    <cfRule type="duplicateValues" dxfId="195" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="27"/>
     <cfRule type="duplicateValues" dxfId="192" priority="26"/>
     <cfRule type="duplicateValues" dxfId="191" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
-    <cfRule type="duplicateValues" dxfId="186" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="183" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="182" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="181" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="180" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="179" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="178" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="177" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="176" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="175" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F261 F289:F1048576 F210:F234">
-    <cfRule type="duplicateValues" dxfId="172" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="171" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="230"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="duplicateValues" dxfId="170" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="165" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="163" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="161" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="160" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="226"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="159" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="224"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="158" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="157" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="156" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="154" priority="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F259 F289:F1048576 F210:F234">
-    <cfRule type="duplicateValues" dxfId="153" priority="211"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F260 F289:F1048576 F210:F234">
-    <cfRule type="duplicateValues" dxfId="152" priority="209"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F286 F93:F134 F91 F27:F89 F251:F256 F289:F1048576 F149:F234">
-    <cfRule type="duplicateValues" dxfId="151" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F257 F289:F1048576 F210:F234">
-    <cfRule type="duplicateValues" dxfId="150" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F286 F93:F134 F91 F27:F89 F149:F191 F251:F256 F289:F1048576 F210:F234">
-    <cfRule type="duplicateValues" dxfId="149" priority="226"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="208"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="147" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="145" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="143" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="134"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F287:G287">
-    <cfRule type="duplicateValues" dxfId="136" priority="41"/>
+  <conditionalFormatting sqref="F288:F1048576 F1:F8 F10:F25 F93:F134 F91 F27:F89 F251:F285 F136:F249">
+    <cfRule type="duplicateValues" dxfId="152" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288:F1048576 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F261 F210:F234">
+    <cfRule type="duplicateValues" dxfId="151" priority="206"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F259 F210:F234">
+    <cfRule type="duplicateValues" dxfId="150" priority="219"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F260 F210:F234">
+    <cfRule type="duplicateValues" dxfId="149" priority="217"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F285 F93:F134 F91 F27:F89 F251:F256 F149:F234">
+    <cfRule type="duplicateValues" dxfId="148" priority="238"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F257 F210:F234">
+    <cfRule type="duplicateValues" dxfId="147" priority="225"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F256 F210:F234">
+    <cfRule type="duplicateValues" dxfId="146" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="234"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F286:G286">
+    <cfRule type="duplicateValues" dxfId="144" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="135" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="251"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="260"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J212">
-    <cfRule type="duplicateValues" dxfId="132" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="124" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J133 J135:J211 J257:J1048576 J223:J247 J1:J128 J213:J221">
-    <cfRule type="duplicateValues" dxfId="116" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="115" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="264"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="114" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="106" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="98" priority="178"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="181"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="180"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="91" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="231"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="duplicateValues" dxfId="88" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="80" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N115">
-    <cfRule type="duplicateValues" dxfId="72" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="64" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="54" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="212"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="48" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="41" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="34" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="27" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="189"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="186"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="20" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="221"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q83">
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="16" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q215">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE44F58-4448-4433-A6E2-D4DCB560213A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764723B-5325-4C58-B7A4-ED5F8574D7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1182">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3843,13 +3843,6 @@
   </si>
   <si>
     <t>SC4104SE-DB-00LR-4104</t>
-  </si>
-  <si>
-    <t>亚芯微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC4104SE-GB-00LR-4104</t>
   </si>
   <si>
     <t>SC2442SO-N-Q-CP-10CR-2442</t>
@@ -4049,7 +4042,407 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="257">
+  <dxfs count="297">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6897,11 +7290,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W289"/>
+  <dimension ref="A1:W288"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomLeft" activeCell="J296" sqref="J296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10668,7 +11061,7 @@
         <v>74</v>
       </c>
       <c r="F113" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G113" t="s">
         <v>598</v>
@@ -10695,7 +11088,7 @@
         <v>74</v>
       </c>
       <c r="Q113" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="114" spans="1:20" hidden="1">
@@ -10938,7 +11331,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" hidden="1">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -10979,7 +11372,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" hidden="1">
       <c r="D121" t="s">
         <v>442</v>
       </c>
@@ -12982,7 +13375,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1">
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
         <v>670</v>
       </c>
@@ -12999,7 +13392,7 @@
         <v>672</v>
       </c>
       <c r="F182" t="s">
-        <v>990</v>
+        <v>1177</v>
       </c>
       <c r="G182" t="s">
         <v>977</v>
@@ -13009,6 +13402,15 @@
       </c>
       <c r="I182" t="s">
         <v>991</v>
+      </c>
+      <c r="L182" t="s">
+        <v>669</v>
+      </c>
+      <c r="M182" t="s">
+        <v>672</v>
+      </c>
+      <c r="N182" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="183" spans="1:14" hidden="1">
@@ -14311,7 +14713,7 @@
         <v>751</v>
       </c>
       <c r="F235" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G235" t="s">
         <v>909</v>
@@ -15253,7 +15655,7 @@
         <v>812</v>
       </c>
       <c r="F277" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G277" t="s">
         <v>909</v>
@@ -15533,420 +15935,458 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1">
-      <c r="A289" t="s">
-        <v>669</v>
-      </c>
-      <c r="B289" t="s">
-        <v>672</v>
-      </c>
-      <c r="C289" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D289" t="s">
-        <v>669</v>
-      </c>
-      <c r="E289" t="s">
-        <v>672</v>
-      </c>
-      <c r="F289" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G289" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H289" t="s">
-        <v>912</v>
-      </c>
-      <c r="I289" t="s">
-        <v>619</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:W289" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-    <filterColumn colId="9">
+  <autoFilter ref="A1:W288" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
+    <filterColumn colId="5">
       <filters>
-        <filter val="SC9641TS-362-Q-CB-10LK-9641"/>
+        <filter val="SC4104SE-DB-00LR-4104"/>
+        <filter val="SC4104SE-GB-00LR-4104"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="256" priority="287"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="283"/>
-    <cfRule type="duplicateValues" dxfId="254" priority="289"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="282"/>
-    <cfRule type="duplicateValues" dxfId="252" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="296" priority="322"/>
+    <cfRule type="duplicateValues" dxfId="295" priority="323"/>
+    <cfRule type="duplicateValues" dxfId="294" priority="325"/>
+    <cfRule type="duplicateValues" dxfId="293" priority="327"/>
+    <cfRule type="duplicateValues" dxfId="292" priority="329"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="251" priority="269"/>
-    <cfRule type="duplicateValues" dxfId="250" priority="276"/>
-    <cfRule type="duplicateValues" dxfId="249" priority="267"/>
-    <cfRule type="duplicateValues" dxfId="248" priority="278"/>
-    <cfRule type="duplicateValues" dxfId="247" priority="272"/>
-    <cfRule type="duplicateValues" dxfId="246" priority="274"/>
-    <cfRule type="duplicateValues" dxfId="245" priority="262"/>
-    <cfRule type="duplicateValues" dxfId="244" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="291" priority="300"/>
+    <cfRule type="duplicateValues" dxfId="290" priority="302"/>
+    <cfRule type="duplicateValues" dxfId="289" priority="307"/>
+    <cfRule type="duplicateValues" dxfId="288" priority="309"/>
+    <cfRule type="duplicateValues" dxfId="287" priority="312"/>
+    <cfRule type="duplicateValues" dxfId="286" priority="314"/>
+    <cfRule type="duplicateValues" dxfId="285" priority="316"/>
+    <cfRule type="duplicateValues" dxfId="284" priority="318"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C5 C7:C1048576">
-    <cfRule type="duplicateValues" dxfId="243" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="283" priority="243"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="242" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="282" priority="211"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="duplicateValues" dxfId="241" priority="293"/>
+    <cfRule type="duplicateValues" dxfId="281" priority="333"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="duplicateValues" dxfId="240" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="239" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="237" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="236" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="280" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="279" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="278" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="277" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="276" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="275" priority="263"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="234" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="274" priority="321"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="233" priority="286"/>
-    <cfRule type="duplicateValues" dxfId="232" priority="292"/>
-    <cfRule type="duplicateValues" dxfId="231" priority="291"/>
-    <cfRule type="duplicateValues" dxfId="230" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="229" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="273" priority="326"/>
+    <cfRule type="duplicateValues" dxfId="272" priority="328"/>
+    <cfRule type="duplicateValues" dxfId="271" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="270" priority="331"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="332"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="228" priority="265"/>
-    <cfRule type="duplicateValues" dxfId="227" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="226" priority="264"/>
-    <cfRule type="duplicateValues" dxfId="225" priority="263"/>
-    <cfRule type="duplicateValues" dxfId="224" priority="259"/>
-    <cfRule type="duplicateValues" dxfId="223" priority="277"/>
-    <cfRule type="duplicateValues" dxfId="222" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="221" priority="273"/>
-    <cfRule type="duplicateValues" dxfId="220" priority="271"/>
-    <cfRule type="duplicateValues" dxfId="219" priority="261"/>
-    <cfRule type="duplicateValues" dxfId="218" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="268" priority="299"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="301"/>
+    <cfRule type="duplicateValues" dxfId="266" priority="303"/>
+    <cfRule type="duplicateValues" dxfId="265" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="264" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="263" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="262" priority="308"/>
+    <cfRule type="duplicateValues" dxfId="261" priority="311"/>
+    <cfRule type="duplicateValues" dxfId="260" priority="313"/>
+    <cfRule type="duplicateValues" dxfId="259" priority="315"/>
+    <cfRule type="duplicateValues" dxfId="258" priority="317"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="217" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="257" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="216" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="215" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="214" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="213" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="211" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="210" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="209" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="256" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="255" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="254" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="253" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="252" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="251" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="250" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="249" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="duplicateValues" dxfId="208" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="207" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="206" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="205" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="204" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="203" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="202" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="201" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="248" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="247" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="245" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="244" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="243" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="242" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="241" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="duplicateValues" dxfId="200" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="199" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="240" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="239" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:F209 C188 C190:C191 C1:C5 C7:C186 C210:C1048576">
-    <cfRule type="duplicateValues" dxfId="198" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="238" priority="296"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F235">
-    <cfRule type="duplicateValues" dxfId="197" priority="187"/>
-    <cfRule type="duplicateValues" dxfId="196" priority="188"/>
-    <cfRule type="duplicateValues" dxfId="195" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="237" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="236" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="235" priority="229"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="duplicateValues" dxfId="194" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="234" priority="290"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F250">
-    <cfRule type="duplicateValues" dxfId="193" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="192" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="191" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="190" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="189" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="188" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="187" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="186" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="185" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="184" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="233" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="232" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="231" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="230" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="229" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="228" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="227" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="226" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="225" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="224" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="duplicateValues" dxfId="183" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="223" priority="286"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F258">
-    <cfRule type="duplicateValues" dxfId="182" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="222" priority="284"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F260">
-    <cfRule type="duplicateValues" dxfId="181" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="221" priority="278"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F261">
-    <cfRule type="duplicateValues" dxfId="180" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="220" priority="270"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F262">
-    <cfRule type="duplicateValues" dxfId="179" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="178" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="219" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="218" priority="201"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264">
-    <cfRule type="duplicateValues" dxfId="177" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="217" priority="268"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272">
-    <cfRule type="duplicateValues" dxfId="176" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="175" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="216" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="215" priority="205"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273:F274">
-    <cfRule type="duplicateValues" dxfId="174" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="173" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="214" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="213" priority="203"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277">
-    <cfRule type="duplicateValues" dxfId="172" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="171" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="169" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="167" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="212" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="211" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="210" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="209" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="208" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="207" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="206" priority="195"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F1:F8 F10:F25 F93:F134 F91 F27:F89 F251:F285 F136:F249">
-    <cfRule type="duplicateValues" dxfId="165" priority="140"/>
+  <conditionalFormatting sqref="F288:F1048576 F1:F8 F10:F25 F93:F134 F91 F27:F89 F251:F285 F136:F181 F183:F249">
+    <cfRule type="duplicateValues" dxfId="205" priority="180"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F261 F210:F234">
-    <cfRule type="duplicateValues" dxfId="164" priority="226"/>
+  <conditionalFormatting sqref="F288:F1048576 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F263:F271 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F181 F251:F261 F210:F234 F183:F191">
+    <cfRule type="duplicateValues" dxfId="204" priority="266"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F259 F210:F234">
-    <cfRule type="duplicateValues" dxfId="163" priority="239"/>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F181 F251:F259 F210:F234 F183:F191">
+    <cfRule type="duplicateValues" dxfId="203" priority="279"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F260 F210:F234">
-    <cfRule type="duplicateValues" dxfId="162" priority="237"/>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F181 F251:F260 F210:F234 F183:F191">
+    <cfRule type="duplicateValues" dxfId="202" priority="277"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F285 F93:F134 F91 F27:F89 F251:F256 F149:F234">
-    <cfRule type="duplicateValues" dxfId="161" priority="258"/>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 C188:C191 F247:F249 F236:F245 C1:C5 F20:F25 F1:F5 C7:C186 F7:F8 F275:F276 F136:F147 F10:F18 C210:C1048576 F278:F285 F93:F134 F91 F27:F89 F251:F256 F149:F181 F183:F234">
+    <cfRule type="duplicateValues" dxfId="201" priority="298"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F257 F210:F234">
-    <cfRule type="duplicateValues" dxfId="160" priority="245"/>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F236:F249 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F181 F251:F257 F210:F234 F183:F191">
+    <cfRule type="duplicateValues" dxfId="200" priority="285"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F191 F251:F256 F210:F234">
-    <cfRule type="duplicateValues" dxfId="159" priority="255"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="254"/>
+  <conditionalFormatting sqref="F288:F1048576 F265:F271 F263 F259 F247:F249 F236:F245 F20:F25 F1:F5 F7:F8 F275:F276 F136:F147 F10:F18 F278:F285 F93:F134 F91 F27:F89 F149:F181 F251:F256 F210:F234 F183:F191">
+    <cfRule type="duplicateValues" dxfId="199" priority="294"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="295"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F286:G286">
-    <cfRule type="duplicateValues" dxfId="157" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="156" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="280"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="310"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="319"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="320"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J212">
-    <cfRule type="duplicateValues" dxfId="153" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="145" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="139" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J249:J255 J133 J135:J211 J257:J1048576 J223:J247 J1:J128 J213:J221">
-    <cfRule type="duplicateValues" dxfId="137" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="297"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="136" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="324"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="duplicateValues" dxfId="135" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="duplicateValues" dxfId="127" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="duplicateValues" dxfId="119" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="250"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="duplicateValues" dxfId="112" priority="252"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="253"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="291"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="292"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="293"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91">
-    <cfRule type="duplicateValues" dxfId="109" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N107">
-    <cfRule type="duplicateValues" dxfId="101" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N115">
-    <cfRule type="duplicateValues" dxfId="93" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N183">
-    <cfRule type="duplicateValues" dxfId="85" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N184">
-    <cfRule type="duplicateValues" dxfId="83" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="95"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N189:N190">
-    <cfRule type="duplicateValues" dxfId="75" priority="231"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="232"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="233"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="235"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="276"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N215">
-    <cfRule type="duplicateValues" dxfId="69" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N277">
-    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="50" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="179"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="177"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="219"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="duplicateValues" dxfId="43" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="257"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q81">
-    <cfRule type="duplicateValues" dxfId="36" priority="242"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="283"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q83">
-    <cfRule type="duplicateValues" dxfId="32" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q113">
-    <cfRule type="duplicateValues" dxfId="24" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q148">
-    <cfRule type="duplicateValues" dxfId="16" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q215">
-    <cfRule type="duplicateValues" dxfId="14" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q235">
-    <cfRule type="duplicateValues" dxfId="6" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N289">
+    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F182">
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N182">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Documents\WXWork\1688855728724396\WeDrive\赛卓电子科技(上海)股份有限公司\交付体系\05OP\06 - 主计划\新旧料号对照表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764723B-5325-4C58-B7A4-ED5F8574D7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521AB095-7D5F-45A5-BB19-E50CB1B02479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$W$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="1188">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3859,6 +3859,28 @@
   <si>
     <t>SC2527S6-AB-Q-DA-60CR-2527</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC2242SO-Q-CH-10AR-2242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏长电&amp;浙江赛扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉豪&amp;方芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC1134BU-CI-00CH-43F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC4015SO-H-CE-90NR-CY19</t>
+  </si>
+  <si>
+    <t>SC4015SO-L-CE-90NR-CY19</t>
   </si>
 </sst>
 </file>
@@ -4042,47 +4064,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="297">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="293">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7289,12 +7271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C89EB-B21D-4698-AC40-3A2D469B1E42}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W288"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J296" sqref="J296"/>
+      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7393,7 +7374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7431,7 +7412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -7469,7 +7450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -7498,7 +7479,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="D5" t="s">
         <v>39</v>
       </c>
@@ -7539,7 +7520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -7568,7 +7549,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -7615,7 +7596,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -7680,7 +7661,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -7718,7 +7699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -7750,7 +7731,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -7773,7 +7754,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -7811,7 +7792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -7843,7 +7824,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -7884,7 +7865,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -7949,7 +7930,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -8005,7 +7986,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -8043,7 +8024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -8072,7 +8053,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -8113,7 +8094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -8142,7 +8123,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -8174,7 +8155,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -8203,7 +8184,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -8232,7 +8213,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -8264,7 +8245,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -8302,7 +8283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -8343,7 +8324,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -8372,7 +8353,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -8404,7 +8385,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -8436,7 +8417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -8468,7 +8449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -8500,7 +8481,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -8529,7 +8510,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -8558,7 +8539,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -8587,7 +8568,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -8628,7 +8609,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -8657,7 +8638,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>164</v>
       </c>
@@ -8707,7 +8688,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>160</v>
       </c>
@@ -8739,7 +8720,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -8789,7 +8770,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -8821,7 +8802,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -8853,7 +8834,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -8903,7 +8884,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -8944,7 +8925,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -8973,7 +8954,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="D45" t="s">
         <v>196</v>
       </c>
@@ -9005,7 +8986,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -9055,7 +9036,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -9084,7 +9065,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -9116,7 +9097,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -9145,7 +9126,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -9174,7 +9155,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -9206,7 +9187,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -9244,7 +9225,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -9273,7 +9254,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -9305,7 +9286,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -9337,7 +9318,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -9369,7 +9350,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1">
+    <row r="57" spans="1:17">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -9392,7 +9373,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1">
+    <row r="58" spans="1:17">
       <c r="D58" t="s">
         <v>229</v>
       </c>
@@ -9415,7 +9396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1">
+    <row r="59" spans="1:17">
       <c r="D59" t="s">
         <v>238</v>
       </c>
@@ -9438,7 +9419,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1">
+    <row r="60" spans="1:17">
       <c r="D60" t="s">
         <v>238</v>
       </c>
@@ -9461,7 +9442,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1">
+    <row r="61" spans="1:17">
       <c r="D61" t="s">
         <v>246</v>
       </c>
@@ -9484,7 +9465,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1">
+    <row r="62" spans="1:17">
       <c r="D62" t="s">
         <v>246</v>
       </c>
@@ -9507,7 +9488,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1">
+    <row r="63" spans="1:17">
       <c r="D63" t="s">
         <v>246</v>
       </c>
@@ -9529,8 +9510,26 @@
       <c r="J63" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1">
+      <c r="L63" t="s">
+        <v>246</v>
+      </c>
+      <c r="M63" t="s">
+        <v>249</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O63" t="s">
+        <v>246</v>
+      </c>
+      <c r="P63" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="D64" t="s">
         <v>246</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="D65" t="s">
         <v>246</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="D66" t="s">
         <v>246</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="D67" t="s">
         <v>246</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="D68" t="s">
         <v>246</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="D69" t="s">
         <v>246</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>262</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -9825,7 +9824,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="D76" t="s">
         <v>262</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>276</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>276</v>
       </c>
@@ -9938,7 +9937,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="D79" t="s">
         <v>286</v>
       </c>
@@ -9976,14 +9975,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1">
-      <c r="A80" t="s">
+    <row r="80" spans="1:17">
+      <c r="D80" t="s">
         <v>286</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>291</v>
       </c>
-      <c r="C80" t="s">
+      <c r="F80" t="s">
         <v>292</v>
       </c>
       <c r="G80" t="s">
@@ -9996,7 +9995,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>286</v>
       </c>
@@ -10043,7 +10042,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>286</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>286</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>299</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -10180,7 +10179,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>642</v>
       </c>
@@ -10209,7 +10208,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>309</v>
       </c>
@@ -10229,16 +10228,25 @@
         <v>318</v>
       </c>
       <c r="G87" t="s">
-        <v>598</v>
+        <v>1183</v>
       </c>
       <c r="H87" t="s">
-        <v>603</v>
+        <v>1184</v>
       </c>
       <c r="I87" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" hidden="1">
+      <c r="L87" t="s">
+        <v>309</v>
+      </c>
+      <c r="M87" t="s">
+        <v>317</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>309</v>
       </c>
@@ -10267,7 +10275,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>309</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>322</v>
       </c>
@@ -10334,7 +10342,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>322</v>
       </c>
@@ -10366,7 +10374,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>322</v>
       </c>
@@ -10413,7 +10421,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -10445,7 +10453,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>322</v>
       </c>
@@ -10474,7 +10482,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -10506,7 +10514,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>322</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1">
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>322</v>
       </c>
@@ -10567,7 +10575,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1">
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -10599,7 +10607,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1">
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>322</v>
       </c>
@@ -10628,7 +10636,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1">
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
         <v>363</v>
       </c>
@@ -10666,7 +10674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1">
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>363</v>
       </c>
@@ -10695,7 +10703,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1">
+    <row r="102" spans="1:14">
       <c r="D102" t="s">
         <v>363</v>
       </c>
@@ -10724,7 +10732,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1">
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>363</v>
       </c>
@@ -10753,7 +10761,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1">
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>363</v>
       </c>
@@ -10791,7 +10799,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1">
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -10820,7 +10828,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1">
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>388</v>
       </c>
@@ -10858,7 +10866,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1">
+    <row r="107" spans="1:14">
       <c r="D107" t="s">
         <v>388</v>
       </c>
@@ -10878,7 +10886,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1">
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -10910,7 +10918,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1">
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -10939,7 +10947,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1">
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -10977,7 +10985,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1">
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
         <v>388</v>
       </c>
@@ -11015,7 +11023,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1">
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
         <v>401</v>
       </c>
@@ -11044,7 +11052,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -11091,7 +11099,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>406</v>
       </c>
@@ -11120,7 +11128,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>406</v>
       </c>
@@ -11158,7 +11166,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1">
+    <row r="116" spans="1:20">
       <c r="D116" t="s">
         <v>416</v>
       </c>
@@ -11187,7 +11195,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>420</v>
       </c>
@@ -11234,7 +11242,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>430</v>
       </c>
@@ -11272,7 +11280,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>435</v>
       </c>
@@ -11331,7 +11339,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>442</v>
       </c>
@@ -11372,7 +11380,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1">
+    <row r="121" spans="1:20">
       <c r="D121" t="s">
         <v>442</v>
       </c>
@@ -11404,7 +11412,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>449</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>453</v>
       </c>
@@ -11477,7 +11485,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1">
+    <row r="124" spans="1:20">
       <c r="D124" t="s">
         <v>453</v>
       </c>
@@ -11500,7 +11508,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1">
+    <row r="125" spans="1:20">
       <c r="D125" t="s">
         <v>453</v>
       </c>
@@ -11523,7 +11531,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>458</v>
       </c>
@@ -11564,7 +11572,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>465</v>
       </c>
@@ -11605,7 +11613,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>465</v>
       </c>
@@ -11646,7 +11654,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1">
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
         <v>478</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1">
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
         <v>478</v>
       </c>
@@ -11710,7 +11718,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1">
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
         <v>478</v>
       </c>
@@ -11742,7 +11750,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1">
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
         <v>478</v>
       </c>
@@ -11774,7 +11782,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1">
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
         <v>478</v>
       </c>
@@ -11803,7 +11811,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1">
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
         <v>478</v>
       </c>
@@ -11835,7 +11843,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1">
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>478</v>
       </c>
@@ -11864,7 +11872,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1">
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>497</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1">
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
         <v>497</v>
       </c>
@@ -11934,7 +11942,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1">
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
         <v>497</v>
       </c>
@@ -11972,7 +11980,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1">
+    <row r="139" spans="1:14">
       <c r="A139" s="8" t="s">
         <v>497</v>
       </c>
@@ -12013,7 +12021,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1">
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
         <v>505</v>
       </c>
@@ -12054,7 +12062,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1">
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
         <v>509</v>
       </c>
@@ -12092,7 +12100,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1">
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
         <v>509</v>
       </c>
@@ -12133,7 +12141,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1">
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
         <v>509</v>
       </c>
@@ -12162,7 +12170,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1">
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
         <v>509</v>
       </c>
@@ -12191,7 +12199,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1">
+    <row r="145" spans="1:17">
       <c r="D145" t="s">
         <v>509</v>
       </c>
@@ -12214,7 +12222,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>509</v>
       </c>
@@ -12246,7 +12254,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>509</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>509</v>
       </c>
@@ -12328,7 +12336,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>509</v>
       </c>
@@ -12360,7 +12368,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>509</v>
       </c>
@@ -12392,7 +12400,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>509</v>
       </c>
@@ -12433,7 +12441,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>509</v>
       </c>
@@ -12462,7 +12470,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>648</v>
       </c>
@@ -12512,7 +12520,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>552</v>
       </c>
@@ -12541,7 +12549,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>552</v>
       </c>
@@ -12570,7 +12578,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>552</v>
       </c>
@@ -12599,7 +12607,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>552</v>
       </c>
@@ -12631,7 +12639,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>552</v>
       </c>
@@ -12663,7 +12671,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>565</v>
       </c>
@@ -12692,7 +12700,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>565</v>
       </c>
@@ -12721,7 +12729,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1">
+    <row r="161" spans="1:23">
       <c r="A161" t="s">
         <v>572</v>
       </c>
@@ -12750,7 +12758,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1">
+    <row r="162" spans="1:23">
       <c r="A162" t="s">
         <v>576</v>
       </c>
@@ -12815,7 +12823,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1">
+    <row r="163" spans="1:23">
       <c r="A163" t="s">
         <v>580</v>
       </c>
@@ -12847,7 +12855,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1">
+    <row r="164" spans="1:23">
       <c r="D164" t="s">
         <v>580</v>
       </c>
@@ -12870,7 +12878,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1">
+    <row r="165" spans="1:23">
       <c r="A165" t="s">
         <v>580</v>
       </c>
@@ -12899,7 +12907,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1">
+    <row r="166" spans="1:23">
       <c r="A166" t="s">
         <v>286</v>
       </c>
@@ -12931,7 +12939,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="167" spans="1:23" hidden="1">
+    <row r="167" spans="1:23">
       <c r="A167" t="s">
         <v>580</v>
       </c>
@@ -12963,7 +12971,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="168" spans="1:23" hidden="1">
+    <row r="168" spans="1:23">
       <c r="A168" t="s">
         <v>580</v>
       </c>
@@ -13001,7 +13009,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="169" spans="1:23" hidden="1">
+    <row r="169" spans="1:23">
       <c r="A169" t="s">
         <v>475</v>
       </c>
@@ -13048,7 +13056,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="170" spans="1:23" hidden="1">
+    <row r="170" spans="1:23">
       <c r="A170" t="s">
         <v>475</v>
       </c>
@@ -13086,7 +13094,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="171" spans="1:23" hidden="1">
+    <row r="171" spans="1:23">
       <c r="A171" t="s">
         <v>475</v>
       </c>
@@ -13115,7 +13123,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="172" spans="1:23" hidden="1">
+    <row r="172" spans="1:23">
       <c r="A172" t="s">
         <v>595</v>
       </c>
@@ -13147,7 +13155,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="173" spans="1:23" hidden="1">
+    <row r="173" spans="1:23">
       <c r="D173" t="s">
         <v>595</v>
       </c>
@@ -13170,7 +13178,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="174" spans="1:23" hidden="1">
+    <row r="174" spans="1:23">
       <c r="D174" t="s">
         <v>595</v>
       </c>
@@ -13193,14 +13201,14 @@
         <v>979</v>
       </c>
     </row>
-    <row r="175" spans="1:23" hidden="1">
-      <c r="A175" t="s">
+    <row r="175" spans="1:23">
+      <c r="D175" t="s">
         <v>609</v>
       </c>
-      <c r="B175" t="s">
+      <c r="E175" t="s">
         <v>610</v>
       </c>
-      <c r="C175" t="s">
+      <c r="F175" t="s">
         <v>611</v>
       </c>
       <c r="G175" t="s">
@@ -13213,14 +13221,14 @@
         <v>631</v>
       </c>
     </row>
-    <row r="176" spans="1:23" hidden="1">
-      <c r="A176" t="s">
+    <row r="176" spans="1:23">
+      <c r="D176" t="s">
         <v>612</v>
       </c>
-      <c r="B176" t="s">
+      <c r="E176" t="s">
         <v>613</v>
       </c>
-      <c r="C176" t="s">
+      <c r="F176" t="s">
         <v>614</v>
       </c>
       <c r="G176" t="s">
@@ -13233,14 +13241,14 @@
         <v>631</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1">
-      <c r="A177" t="s">
+    <row r="177" spans="1:14">
+      <c r="D177" t="s">
         <v>615</v>
       </c>
-      <c r="B177" t="s">
+      <c r="E177" t="s">
         <v>616</v>
       </c>
-      <c r="C177" t="s">
+      <c r="F177" t="s">
         <v>617</v>
       </c>
       <c r="G177" t="s">
@@ -13250,7 +13258,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1">
+    <row r="178" spans="1:14">
       <c r="D178" t="s">
         <v>322</v>
       </c>
@@ -13279,7 +13287,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1">
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
         <v>565</v>
       </c>
@@ -13308,7 +13316,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1">
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
         <v>662</v>
       </c>
@@ -13346,7 +13354,7 @@
         <